--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="BD2" t="n">
-        <v>0.1554557629053944</v>
+        <v>0.1569449487099956</v>
       </c>
       <c r="BE2" t="n">
         <v>0.0001185023688506054</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.1553944071658153</v>
+        <v>0.1568830052141654</v>
       </c>
       <c r="BG2" t="n">
         <v>0.0001184555979857187</v>
@@ -1110,13 +1110,13 @@
         <v>2.482667902662121</v>
       </c>
       <c r="BP2" t="n">
-        <v>-3.015220633019953</v>
+        <v>-2.191676338705062</v>
       </c>
       <c r="BQ2" t="n">
         <v>-2.395474149904281</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.6197464831156716</v>
+        <v>-0.2037978111992196</v>
       </c>
       <c r="BS2" t="n">
         <v>-29.25518906376488</v>
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="BD3" t="n">
-        <v>0.1406519311439921</v>
+        <v>0.1421411169485933</v>
       </c>
       <c r="BE3" t="n">
         <v>0.0001333151594387346</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.1405964182244497</v>
+        <v>0.1420850162727998</v>
       </c>
       <c r="BG3" t="n">
         <v>0.000133262542217915</v>
@@ -1654,13 +1654,13 @@
         </is>
       </c>
       <c r="BD4" t="n">
-        <v>0.1111331444088618</v>
+        <v>0.112622330213463</v>
       </c>
       <c r="BE4" t="n">
         <v>0.00025181752828934</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.1110892820512398</v>
+        <v>0.1125778800995899</v>
       </c>
       <c r="BG4" t="n">
         <v>0.0002517181402036337</v>
@@ -1693,10 +1693,10 @@
         <v>-2.276400600910689</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-1.419183598052439</v>
+        <v>-1.419183598049631</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.8572170028582495</v>
+        <v>0.8572170028610582</v>
       </c>
       <c r="BS4" t="n">
         <v>-46.93687053686764</v>
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="BD5" t="n">
-        <v>0.1037830732863898</v>
+        <v>0.1052722590909911</v>
       </c>
       <c r="BE5" t="n">
         <v>0.0003110686818127428</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.1037421118765439</v>
+        <v>0.1052307099248941</v>
       </c>
       <c r="BG5" t="n">
         <v>0.0003109459083067896</v>
@@ -1983,13 +1983,13 @@
         <v>2.085468164700216</v>
       </c>
       <c r="BP5" t="n">
-        <v>-1.799301243870155</v>
+        <v>-1.799301243867828</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-1.799299762125055</v>
+        <v>-1.799299762127382</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.481745100173626e-06</v>
+        <v>1.481740445896662e-06</v>
       </c>
       <c r="BS5" t="n">
         <v>-52.0917667463723</v>
@@ -2028,13 +2028,13 @@
         <v>0.00781177280194334</v>
       </c>
       <c r="CE5" t="n">
-        <v>5.17392178987601e-06</v>
+        <v>5.173921789778865e-06</v>
       </c>
       <c r="CF5" t="n">
-        <v>3.045961801211722e-06</v>
+        <v>3.045961801114577e-06</v>
       </c>
       <c r="CG5" t="n">
-        <v>-1.370670093122153e-06</v>
+        <v>-1.370670093219298e-06</v>
       </c>
       <c r="CH5" t="n">
         <v>-5.173860010360926e-06</v>
@@ -2240,13 +2240,13 @@
         </is>
       </c>
       <c r="BD6" t="n">
-        <v>0.09643300222572193</v>
+        <v>0.09792218803032314</v>
       </c>
       <c r="BE6" t="n">
         <v>0.0003703198971399454</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.09639494176362767</v>
+        <v>0.09788353981197781</v>
       </c>
       <c r="BG6" t="n">
         <v>0.0003701737381893524</v>
@@ -2276,13 +2276,13 @@
         <v>2.009739674901223</v>
       </c>
       <c r="BP6" t="n">
-        <v>-2.089090718667983</v>
+        <v>-2.089090718669959</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0.8825655993024126</v>
+        <v>-0.8825655993041213</v>
       </c>
       <c r="BR6" t="n">
-        <v>1.20652511936557</v>
+        <v>1.206525119365838</v>
       </c>
       <c r="BS6" t="n">
         <v>-57.83554390156063</v>
@@ -2321,13 +2321,13 @@
         <v>0.009466481574249008</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.212773529236284e-05</v>
+        <v>2.212773529245999e-05</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.626491383181859e-05</v>
+        <v>1.626491383191573e-05</v>
       </c>
       <c r="CG6" t="n">
-        <v>1.088469977440342e-05</v>
+        <v>1.088469977450057e-05</v>
       </c>
       <c r="CH6" t="n">
         <v>7.41999773650982e-05</v>
@@ -2533,13 +2533,13 @@
         </is>
       </c>
       <c r="BD7" t="n">
-        <v>0.08185136232314172</v>
+        <v>0.08334054812774276</v>
       </c>
       <c r="BE7" t="n">
         <v>0.0006073245465500125</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.08181905698574518</v>
+        <v>0.08330765503409515</v>
       </c>
       <c r="BG7" t="n">
         <v>0.0006070848459044931</v>
@@ -2569,13 +2569,13 @@
         <v>1.801340685638112</v>
       </c>
       <c r="BP7" t="n">
-        <v>-1.94096336345897</v>
+        <v>-1.9409633634601</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-1.142945956268235</v>
+        <v>-1.142945956267305</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.7980174071907349</v>
+        <v>0.7980174071927959</v>
       </c>
       <c r="BS7" t="n">
         <v>-72.52195115047626</v>
@@ -2614,13 +2614,13 @@
         <v>0.01593894108701854</v>
       </c>
       <c r="CE7" t="n">
-        <v>5.786322722817552e-05</v>
+        <v>5.786322722834206e-05</v>
       </c>
       <c r="CF7" t="n">
-        <v>1.67263334433787e-05</v>
+        <v>1.672633344354524e-05</v>
       </c>
       <c r="CG7" t="n">
-        <v>-8.10826760741859e-07</v>
+        <v>-8.108267605753255e-07</v>
       </c>
       <c r="CH7" t="n">
         <v>3.02963398272014e-05</v>
@@ -2826,13 +2826,13 @@
         </is>
       </c>
       <c r="BD8" t="n">
-        <v>0.0746197937107862</v>
+        <v>0.07610897951538731</v>
       </c>
       <c r="BE8" t="n">
         <v>0.0007850782101898496</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.07459034255024509</v>
+        <v>0.07607894059859513</v>
       </c>
       <c r="BG8" t="n">
         <v>0.0007847683532034414</v>
@@ -2862,13 +2862,13 @@
         <v>1.687417754617957</v>
       </c>
       <c r="BP8" t="n">
-        <v>-1.73618334347194</v>
+        <v>-1.736183343471183</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-1.087227224704089</v>
+        <v>-1.087227224703332</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.6489561187678514</v>
+        <v>0.6489561187678512</v>
       </c>
       <c r="BS8" t="n">
         <v>-81.36577434791887</v>
@@ -2907,13 +2907,13 @@
         <v>0.02085410140232835</v>
       </c>
       <c r="CE8" t="n">
-        <v>2.155141998382189e-05</v>
+        <v>2.15514199837525e-05</v>
       </c>
       <c r="CF8" t="n">
-        <v>-1.19947903022867e-05</v>
+        <v>-1.199479030235609e-05</v>
       </c>
       <c r="CG8" t="n">
-        <v>-2.322973357374216e-05</v>
+        <v>-2.322973357381155e-05</v>
       </c>
       <c r="CH8" t="n">
         <v>3.767603922238039e-05</v>
@@ -3119,13 +3119,13 @@
         </is>
       </c>
       <c r="BD9" t="n">
-        <v>0.06744747594293521</v>
+        <v>0.06893666174753639</v>
       </c>
       <c r="BE9" t="n">
         <v>0.001022082718334088</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.06742085557395125</v>
+        <v>0.06890945362230136</v>
       </c>
       <c r="BG9" t="n">
         <v>0.001021679319708509</v>
@@ -3155,13 +3155,13 @@
         <v>1.565905620924906</v>
       </c>
       <c r="BP9" t="n">
-        <v>-1.739350536250018</v>
+        <v>-1.739350536249402</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0.6826628017747457</v>
+        <v>-0.6826628017738802</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.056687734475272</v>
+        <v>1.056687734475521</v>
       </c>
       <c r="BS9" t="n">
         <v>-91.3239384010532</v>
@@ -3200,13 +3200,13 @@
         <v>0.0274619027163796</v>
       </c>
       <c r="CE9" t="n">
-        <v>3.317851645678362e-05</v>
+        <v>3.317851645671423e-05</v>
       </c>
       <c r="CF9" t="n">
-        <v>-1.910644005125289e-05</v>
+        <v>-1.910644005132228e-05</v>
       </c>
       <c r="CG9" t="n">
-        <v>-3.351718672107203e-05</v>
+        <v>-3.351718672114142e-05</v>
       </c>
       <c r="CH9" t="n">
         <v>8.527753163610117e-05</v>
@@ -3412,13 +3412,13 @@
         </is>
       </c>
       <c r="BD10" t="n">
-        <v>0.0603936609942195</v>
+        <v>0.06188284679882078</v>
       </c>
       <c r="BE10" t="n">
         <v>0.001377590045613762</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.06036982464575009</v>
+        <v>0.06185842269410029</v>
       </c>
       <c r="BG10" t="n">
         <v>0.001377046334306405</v>
@@ -3448,13 +3448,13 @@
         <v>1.42628796357372</v>
       </c>
       <c r="BP10" t="n">
-        <v>-1.518477989863665</v>
+        <v>-1.518477989862968</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.5613993660189088</v>
+        <v>-0.5613993660195525</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.9570786238447563</v>
+        <v>0.9570786238434158</v>
       </c>
       <c r="BS10" t="n">
         <v>-102.2513666342118</v>
@@ -3493,13 +3493,13 @@
         <v>0.03725042303882398</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.917591960064018e-05</v>
+        <v>1.917591960054303e-05</v>
       </c>
       <c r="CF10" t="n">
-        <v>-6.075059053135389e-05</v>
+        <v>-6.075059053145104e-05</v>
       </c>
       <c r="CG10" t="n">
-        <v>-7.947555803466087e-05</v>
+        <v>-7.947555803475802e-05</v>
       </c>
       <c r="CH10" t="n">
         <v>0.0001140864284535287</v>
@@ -3705,13 +3705,13 @@
         </is>
       </c>
       <c r="BD11" t="n">
-        <v>0.05347316101070232</v>
+        <v>0.0549623468153035</v>
       </c>
       <c r="BE11" t="n">
         <v>0.001866412338091657</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.05345205606560329</v>
+        <v>0.05494065411395341</v>
       </c>
       <c r="BG11" t="n">
         <v>0.001865675696958366</v>
@@ -3741,13 +3741,13 @@
         <v>1.27764138225236</v>
       </c>
       <c r="BP11" t="n">
-        <v>-1.483209191413879</v>
+        <v>-1.483209191414401</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0.2749796190427935</v>
+        <v>-0.2749796190429517</v>
       </c>
       <c r="BR11" t="n">
-        <v>1.208229572371085</v>
+        <v>1.20822957237145</v>
       </c>
       <c r="BS11" t="n">
         <v>-114.057297769074</v>
@@ -3786,13 +3786,13 @@
         <v>0.05068702798658364</v>
       </c>
       <c r="CE11" t="n">
-        <v>2.94089492169974e-05</v>
+        <v>2.940894921708761e-05</v>
       </c>
       <c r="CF11" t="n">
-        <v>-8.906452391746044e-05</v>
+        <v>-8.906452391737023e-05</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.0001132210628456308</v>
+        <v>-0.0001132210628455406</v>
       </c>
       <c r="CH11" t="n">
         <v>0.0001778882876849097</v>
@@ -3998,13 +3998,13 @@
         </is>
       </c>
       <c r="BD12" t="n">
-        <v>0.04676004011307699</v>
+        <v>0.04824922591767816</v>
       </c>
       <c r="BE12" t="n">
         <v>0.002562613716461588</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.04674158472235833</v>
+        <v>0.04823018277070842</v>
       </c>
       <c r="BG12" t="n">
         <v>0.002561602296512333</v>
@@ -4034,13 +4034,13 @@
         <v>1.11622741011458</v>
       </c>
       <c r="BP12" t="n">
-        <v>-1.336660743091036</v>
+        <v>-1.336660743091165</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0.4190080018661489</v>
+        <v>-0.4190080018664822</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.917652741224887</v>
+        <v>0.9176527412246833</v>
       </c>
       <c r="BS12" t="n">
         <v>-126.3345172433279</v>
@@ -4079,13 +4079,13 @@
         <v>0.06954214763041711</v>
       </c>
       <c r="CE12" t="n">
-        <v>2.107709621490973e-05</v>
+        <v>2.107709621493748e-05</v>
       </c>
       <c r="CF12" t="n">
-        <v>-0.0001499870891285195</v>
+        <v>-0.0001499870891284918</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.0001808697804062537</v>
+        <v>-0.0001808697804062259</v>
       </c>
       <c r="CH12" t="n">
         <v>0.0001714131346754841</v>
@@ -4291,13 +4291,13 @@
         </is>
       </c>
       <c r="BD13" t="n">
-        <v>0.04023948544895195</v>
+        <v>0.04172867125355303</v>
       </c>
       <c r="BE13" t="n">
         <v>0.003451381328331635</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.04022360361000393</v>
+        <v>0.04171220165835395</v>
       </c>
       <c r="BG13" t="n">
         <v>0.003450019126956712</v>
@@ -4327,13 +4327,13 @@
         <v>0.9527243122785267</v>
       </c>
       <c r="BP13" t="n">
-        <v>-1.481738388604042</v>
+        <v>-1.481738388604322</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.1213801632528452</v>
+        <v>-0.1213801632524839</v>
       </c>
       <c r="BR13" t="n">
-        <v>1.360358225351197</v>
+        <v>1.360358225351838</v>
       </c>
       <c r="BS13" t="n">
         <v>-139.3986837484142</v>
@@ -4372,13 +4372,13 @@
         <v>0.09383222330274599</v>
       </c>
       <c r="CE13" t="n">
-        <v>8.213413675284623e-05</v>
+        <v>8.213413675291562e-05</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0.0001551210767689213</v>
+        <v>-0.0001551210767688519</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0.0001934580448067526</v>
+        <v>-0.0001934580448066832</v>
       </c>
       <c r="CH13" t="n">
         <v>0.0002584260130434147</v>
@@ -4584,13 +4584,13 @@
         </is>
       </c>
       <c r="BD14" t="n">
-        <v>0.03405962540098018</v>
+        <v>0.03554881120558135</v>
       </c>
       <c r="BE14" t="n">
         <v>0.004680843556355238</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.03404618264744561</v>
+        <v>0.03553478069579571</v>
       </c>
       <c r="BG14" t="n">
         <v>0.00467899610719744</v>
@@ -4620,13 +4620,13 @@
         <v>0.7772731493934937</v>
       </c>
       <c r="BP14" t="n">
-        <v>-1.318141026068283</v>
+        <v>-1.318141026067975</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0.05740234366213692</v>
+        <v>-0.05740234366215932</v>
       </c>
       <c r="BR14" t="n">
-        <v>1.260738682406146</v>
+        <v>1.260738682405816</v>
       </c>
       <c r="BS14" t="n">
         <v>-152.2002643785291</v>
@@ -4665,13 +4665,13 @@
         <v>0.126793502593829</v>
       </c>
       <c r="CE14" t="n">
-        <v>7.459253361606546e-05</v>
+        <v>7.459253361597525e-05</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0.0002437568238463327</v>
+        <v>-0.0002437568238464229</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.0002898938434694213</v>
+        <v>-0.0002898938434695115</v>
       </c>
       <c r="CH14" t="n">
         <v>0.0002955800748928056</v>
@@ -4877,13 +4877,13 @@
         </is>
       </c>
       <c r="BD15" t="n">
-        <v>0.02825008412002183</v>
+        <v>0.029739269924623</v>
       </c>
       <c r="BE15" t="n">
         <v>0.006280624551392167</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.02823893429339616</v>
+        <v>0.02972753234174626</v>
       </c>
       <c r="BG15" t="n">
         <v>0.006278145695946942</v>
@@ -4913,13 +4913,13 @@
         <v>0.5955756641025007</v>
       </c>
       <c r="BP15" t="n">
-        <v>-1.31548618414227</v>
+        <v>-1.315486184142289</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0.2551838324691242</v>
+        <v>-0.2551838324690408</v>
       </c>
       <c r="BR15" t="n">
-        <v>1.060302351673145</v>
+        <v>1.060302351673248</v>
       </c>
       <c r="BS15" t="n">
         <v>-164.6920778211202</v>
@@ -4958,13 +4958,13 @@
         <v>0.1694117895475789</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0001166264069837677</v>
+        <v>0.0001166264069837747</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0.0002920414973320452</v>
+        <v>-0.0002920414973320382</v>
       </c>
       <c r="CG15" t="n">
-        <v>-0.0003444184591584369</v>
+        <v>-0.00034441845915843</v>
       </c>
       <c r="CH15" t="n">
         <v>0.0002387408900342857</v>
@@ -5170,13 +5170,13 @@
         </is>
       </c>
       <c r="BD16" t="n">
-        <v>0.02279605044887489</v>
+        <v>0.02428523625347609</v>
       </c>
       <c r="BE16" t="n">
         <v>0.008235913156240424</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.02278705323636483</v>
+        <v>0.02427565128471496</v>
       </c>
       <c r="BG16" t="n">
         <v>0.008232662581714486</v>
@@ -5206,13 +5206,13 @@
         <v>0.4107028837593139</v>
       </c>
       <c r="BP16" t="n">
-        <v>-1.528567511562271</v>
+        <v>-1.528567511562195</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.06953684663616891</v>
+        <v>0.06953684663625322</v>
       </c>
       <c r="BR16" t="n">
-        <v>1.59810435819844</v>
+        <v>1.598104358198448</v>
       </c>
       <c r="BS16" t="n">
         <v>-177.4459422235721</v>
@@ -5251,13 +5251,13 @@
         <v>0.2227510119362304</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.0002462546323260938</v>
+        <v>0.0002462546323260661</v>
       </c>
       <c r="CF16" t="n">
-        <v>-0.0002511660469103208</v>
+        <v>-0.0002511660469103486</v>
       </c>
       <c r="CG16" t="n">
-        <v>-0.0003047342492066563</v>
+        <v>-0.000304734249206684</v>
       </c>
       <c r="CH16" t="n">
         <v>0.0003460256081380506</v>
@@ -5463,13 +5463,13 @@
         </is>
       </c>
       <c r="BD17" t="n">
-        <v>0.01793453087340502</v>
+        <v>0.01942371667800625</v>
       </c>
       <c r="BE17" t="n">
         <v>0.01078371585676586</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.01792745241979753</v>
+        <v>0.01941605046814769</v>
       </c>
       <c r="BG17" t="n">
         <v>0.01077945970794618</v>
@@ -5499,13 +5499,13 @@
         <v>0.2159653791273878</v>
       </c>
       <c r="BP17" t="n">
-        <v>-1.31394438326301</v>
+        <v>-1.313944383262931</v>
       </c>
       <c r="BQ17" t="n">
-        <v>-0.0082042849848109</v>
+        <v>-0.008204284984736316</v>
       </c>
       <c r="BR17" t="n">
-        <v>1.305740098278199</v>
+        <v>1.305740098278195</v>
       </c>
       <c r="BS17" t="n">
         <v>-188.0785154244673</v>
@@ -5544,13 +5544,13 @@
         <v>0.2911277211748451</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0002220998363904256</v>
+        <v>0.0002220998363903944</v>
       </c>
       <c r="CF17" t="n">
-        <v>-0.0003467661330805718</v>
+        <v>-0.000346766133080603</v>
       </c>
       <c r="CG17" t="n">
-        <v>-0.000390589371030539</v>
+        <v>-0.0003905893710305702</v>
       </c>
       <c r="CH17" t="n">
         <v>0.0002961411377135552</v>
@@ -5756,13 +5756,13 @@
         </is>
       </c>
       <c r="BD18" t="n">
-        <v>0.01359145689367791</v>
+        <v>0.01508064269827917</v>
       </c>
       <c r="BE18" t="n">
         <v>0.01384996415303396</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.01358609257733425</v>
+        <v>0.01507469062568444</v>
       </c>
       <c r="BG18" t="n">
         <v>0.01384449780828178</v>
@@ -5792,13 +5792,13 @@
         <v>0.01585474699387233</v>
       </c>
       <c r="BP18" t="n">
-        <v>-1.441297807010533</v>
+        <v>-1.44129780701046</v>
       </c>
       <c r="BQ18" t="n">
-        <v>3.864707980341805</v>
+        <v>0.2272324534918282</v>
       </c>
       <c r="BR18" t="n">
-        <v>5.306005787352337</v>
+        <v>1.668530260502288</v>
       </c>
       <c r="BS18" t="n">
         <v>-197.6464538330301</v>
@@ -5837,22 +5837,22 @@
         <v>0.3754884873692024</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.000328373980891623</v>
+        <v>0.0003283739808915935</v>
       </c>
       <c r="CF18" t="n">
-        <v>-0.0002694821653475114</v>
+        <v>-0.0002694821653475409</v>
       </c>
       <c r="CG18" t="n">
-        <v>-0.0002840209399396568</v>
+        <v>-0.0002840209399396863</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.001843052273741451</v>
+        <v>0.0003544542253913177</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.002440908419980585</v>
+        <v>0.0009523103716304517</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.002455447194572731</v>
+        <v>0.0009668491462225975</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -6052,13 +6052,13 @@
         <v>0.01142066653189722</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.01908849606724838</v>
+        <v>0.01759931026264718</v>
       </c>
       <c r="BF19" t="n">
         <v>0.0114161589895041</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.01908096216325042</v>
+        <v>0.01759236411490029</v>
       </c>
       <c r="BH19" t="n">
         <v>-0.4247339725487017</v>
@@ -6085,13 +6085,13 @@
         <v>-0.1902251876432786</v>
       </c>
       <c r="BP19" t="n">
-        <v>2.409839458450624</v>
+        <v>-1.266350658804483</v>
       </c>
       <c r="BQ19" t="n">
         <v>0.1261824737707488</v>
       </c>
       <c r="BR19" t="n">
-        <v>-2.283656984679875</v>
+        <v>1.392533132575232</v>
       </c>
       <c r="BS19" t="n">
         <v>-203.970645308386</v>
@@ -6103,7 +6103,7 @@
         <v>-215.3660113032173</v>
       </c>
       <c r="BV19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW19" t="n">
         <v>1</v>
@@ -6130,25 +6130,25 @@
         <v>0.4766341278245358</v>
       </c>
       <c r="CE19" t="n">
-        <v>-0.001185856603134156</v>
+        <v>0.0003027414452160346</v>
       </c>
       <c r="CF19" t="n">
-        <v>-0.001745410837128253</v>
+        <v>-0.0002568127887780623</v>
       </c>
       <c r="CG19" t="n">
-        <v>-0.001706322331181331</v>
+        <v>-0.0002177242828311403</v>
       </c>
       <c r="CH19" t="n">
-        <v>0.0002611363840845839</v>
+        <v>0.0002611363840846603</v>
       </c>
       <c r="CI19" t="n">
-        <v>0.0008206906180786891</v>
+        <v>0.0008206906180787655</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0.0007816021121317667</v>
+        <v>0.000781602112131843</v>
       </c>
       <c r="CK19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL19" t="n">
         <v>1</v>
@@ -6345,13 +6345,13 @@
         <v>0.008324790835655318</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.02340194264700168</v>
+        <v>0.02191275684240056</v>
       </c>
       <c r="BF20" t="n">
         <v>0.008321505182624403</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.0233927062991696</v>
+        <v>0.02190410825081955</v>
       </c>
       <c r="BH20" t="n">
         <v>-0.3438819765309047</v>
@@ -6432,13 +6432,13 @@
         <v>5.368325951644534e-05</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.0002550930843462666</v>
+        <v>0.0002550930843463429</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.000700430983150418</v>
+        <v>0.0007004309831504943</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0.0005978238753134519</v>
+        <v>0.0005978238753135282</v>
       </c>
       <c r="CK20" t="n">
         <v>0</v>
@@ -6638,13 +6638,13 @@
         <v>0.005880679514531679</v>
       </c>
       <c r="BE21" t="n">
-        <v>0.02836715360187325</v>
+        <v>0.0268779677972722</v>
       </c>
       <c r="BF21" t="n">
         <v>0.005878358510574679</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.02835595756991877</v>
+        <v>0.02686735952156879</v>
       </c>
       <c r="BH21" t="n">
         <v>-0.2682725972102535</v>
@@ -6725,13 +6725,13 @@
         <v>0.0002185455773305767</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.0002142810725163698</v>
+        <v>0.0002142810725161443</v>
       </c>
       <c r="CI21" t="n">
-        <v>0.0004991443404288275</v>
+        <v>0.000499144340428602</v>
       </c>
       <c r="CJ21" t="n">
-        <v>0.0003589259626013133</v>
+        <v>0.0003589259626010878</v>
       </c>
       <c r="CK21" t="n">
         <v>0</v>
@@ -6931,13 +6931,13 @@
         <v>0.004014267741503351</v>
       </c>
       <c r="BE22" t="n">
-        <v>0.03391006410484043</v>
+        <v>0.03242087830023915</v>
       </c>
       <c r="BF22" t="n">
         <v>0.004012683378456621</v>
       </c>
       <c r="BG22" t="n">
-        <v>0.03389668038059989</v>
+        <v>0.03240808233224968</v>
       </c>
       <c r="BH22" t="n">
         <v>-0.2012529825191587</v>
@@ -7018,13 +7018,13 @@
         <v>0.0003302402312156151</v>
       </c>
       <c r="CH22" t="n">
-        <v>0.0002003239000812175</v>
+        <v>0.0002003239000813424</v>
       </c>
       <c r="CI22" t="n">
-        <v>0.0003368449664134963</v>
+        <v>0.0003368449664136212</v>
       </c>
       <c r="CJ22" t="n">
-        <v>0.0002028093022105196</v>
+        <v>0.0002028093022106445</v>
       </c>
       <c r="CK22" t="n">
         <v>0</v>
@@ -7224,13 +7224,13 @@
         <v>0.002681115970533706</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.03998623460986572</v>
+        <v>0.03849704880526457</v>
       </c>
       <c r="BF23" t="n">
         <v>0.002680057779764866</v>
       </c>
       <c r="BG23" t="n">
-        <v>0.03997045272470675</v>
+        <v>0.03848185467635667</v>
       </c>
       <c r="BH23" t="n">
         <v>-0.1460410755979923</v>
@@ -7311,13 +7311,13 @@
         <v>0.000309213456945329</v>
       </c>
       <c r="CH23" t="n">
-        <v>0.0001086693065752405</v>
+        <v>0.0001086693065752474</v>
       </c>
       <c r="CI23" t="n">
-        <v>0.0001494324179619096</v>
+        <v>0.0001494324179619165</v>
       </c>
       <c r="CJ23" t="n">
-        <v>4.615369886267623e-05</v>
+        <v>4.615369886268317e-05</v>
       </c>
       <c r="CK23" t="n">
         <v>0</v>
@@ -7517,13 +7517,13 @@
         <v>0.001703471668109579</v>
       </c>
       <c r="BE24" t="n">
-        <v>0.04641791258343686</v>
+        <v>0.04492872677883572</v>
       </c>
       <c r="BF24" t="n">
         <v>0.001702799336881096</v>
       </c>
       <c r="BG24" t="n">
-        <v>0.04639959222462193</v>
+        <v>0.04491099417627185</v>
       </c>
       <c r="BH24" t="n">
         <v>-0.1010351568999548</v>
@@ -7604,13 +7604,13 @@
         <v>0.0003219801386304757</v>
       </c>
       <c r="CH24" t="n">
-        <v>7.693575716914963e-05</v>
+        <v>7.693575716923983e-05</v>
       </c>
       <c r="CI24" t="n">
-        <v>7.383033244967845e-05</v>
+        <v>7.383033244976866e-05</v>
       </c>
       <c r="CJ24" t="n">
-        <v>3.772440313899034e-06</v>
+        <v>3.772440313989239e-06</v>
       </c>
       <c r="CK24" t="n">
         <v>0</v>
@@ -7810,13 +7810,13 @@
         <v>0.001051708564383777</v>
       </c>
       <c r="BE25" t="n">
-        <v>0.05317547175570625</v>
+        <v>0.0516862859511052</v>
       </c>
       <c r="BF25" t="n">
         <v>0.001051293472941791</v>
       </c>
       <c r="BG25" t="n">
-        <v>0.05315448430348149</v>
+        <v>0.05166588625513151</v>
       </c>
       <c r="BH25" t="n">
         <v>-0.06738145596258369</v>
@@ -7897,13 +7897,13 @@
         <v>0.0002430836361807118</v>
       </c>
       <c r="CH25" t="n">
-        <v>5.307893555218848e-05</v>
+        <v>5.307893555195255e-05</v>
       </c>
       <c r="CI25" t="n">
-        <v>3.842110271625593e-05</v>
+        <v>3.842110271602001e-05</v>
       </c>
       <c r="CJ25" t="n">
-        <v>-6.172387255256109e-06</v>
+        <v>-6.172387255492032e-06</v>
       </c>
       <c r="CK25" t="n">
         <v>0</v>
@@ -8103,13 +8103,13 @@
         <v>0.0006369502513338715</v>
       </c>
       <c r="BE26" t="n">
-        <v>0.06017003571865187</v>
+        <v>0.05868084991405058</v>
       </c>
       <c r="BF26" t="n">
         <v>0.0006366988579277004</v>
       </c>
       <c r="BG26" t="n">
-        <v>0.0601462876312666</v>
+        <v>0.05865768958291638</v>
       </c>
       <c r="BH26" t="n">
         <v>-0.04364850127366803</v>
@@ -8190,13 +8190,13 @@
         <v>0.0001650630242156052</v>
       </c>
       <c r="CH26" t="n">
-        <v>2.301614936423002e-05</v>
+        <v>2.301614936428553e-05</v>
       </c>
       <c r="CI26" t="n">
-        <v>1.051892548243911e-05</v>
+        <v>1.051892548249462e-05</v>
       </c>
       <c r="CJ26" t="n">
-        <v>-1.699352893993946e-05</v>
+        <v>-1.699352893988395e-05</v>
       </c>
       <c r="CK26" t="n">
         <v>0</v>
@@ -8396,13 +8396,13 @@
         <v>0.0003703198971399454</v>
       </c>
       <c r="BE27" t="n">
-        <v>0.06731272764045293</v>
+        <v>0.06582354183585171</v>
       </c>
       <c r="BF27" t="n">
         <v>0.0003701737381893524</v>
       </c>
       <c r="BG27" t="n">
-        <v>0.06728616045432692</v>
+        <v>0.06579756240597676</v>
       </c>
       <c r="BH27" t="n">
         <v>-0.02709913706448124</v>
@@ -8483,13 +8483,13 @@
         <v>0.0001194429902856563</v>
       </c>
       <c r="CH27" t="n">
-        <v>2.241830102439786e-05</v>
+        <v>2.241830102448113e-05</v>
       </c>
       <c r="CI27" t="n">
-        <v>1.544682393208024e-05</v>
+        <v>1.54468239321635e-05</v>
       </c>
       <c r="CJ27" t="n">
-        <v>-9.873658231244337e-07</v>
+        <v>-9.873658230411669e-07</v>
       </c>
       <c r="CK27" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0.0002221919382839672</v>
       </c>
       <c r="BE28" t="n">
-        <v>0.07457392195759216</v>
+        <v>0.07308473615299101</v>
       </c>
       <c r="BF28" t="n">
         <v>0.0002221042429136114</v>
       </c>
       <c r="BG28" t="n">
-        <v>0.07454448890185006</v>
+        <v>0.07305589085349998</v>
       </c>
       <c r="BH28" t="n">
         <v>-0.01702095850496129</v>
@@ -8776,13 +8776,13 @@
         <v>5.964132258528102e-05</v>
       </c>
       <c r="CH28" t="n">
-        <v>2.690333909907781e-05</v>
+        <v>2.690333909921658e-05</v>
       </c>
       <c r="CI28" t="n">
-        <v>2.436176197978274e-05</v>
+        <v>2.436176197992152e-05</v>
       </c>
       <c r="CJ28" t="n">
-        <v>1.43934338780868e-05</v>
+        <v>1.439343387822558e-05</v>
       </c>
       <c r="CK28" t="n">
         <v>0</v>
@@ -8982,13 +8982,13 @@
         <v>0.0001481279676850926</v>
       </c>
       <c r="BE29" t="n">
-        <v>0.08190918026298843</v>
+        <v>0.08041999445838742</v>
       </c>
       <c r="BF29" t="n">
         <v>0.0001480695041013706</v>
       </c>
       <c r="BG29" t="n">
-        <v>0.08187685210583664</v>
+        <v>0.0803882540574867</v>
       </c>
       <c r="BH29" t="n">
         <v>-0.01151937475763184</v>
@@ -9069,13 +9069,13 @@
         <v>1.612763403992257e-05</v>
       </c>
       <c r="CH29" t="n">
-        <v>1.979182024541663e-05</v>
+        <v>1.979182024519459e-05</v>
       </c>
       <c r="CI29" t="n">
-        <v>1.998149152457156e-05</v>
+        <v>1.998149152434951e-05</v>
       </c>
       <c r="CJ29" t="n">
-        <v>1.348625442467496e-05</v>
+        <v>1.348625442445291e-05</v>
       </c>
       <c r="CK29" t="n">
         <v>0</v>
@@ -9275,13 +9275,13 @@
         <v>0.0001036895782624762</v>
       </c>
       <c r="BE30" t="n">
-        <v>0.08927406414956129</v>
+        <v>0.08778487834496007</v>
       </c>
       <c r="BF30" t="n">
         <v>0.0001036486537535224</v>
       </c>
       <c r="BG30" t="n">
-        <v>0.08923882919828796</v>
+        <v>0.0877502311499378</v>
       </c>
       <c r="BH30" t="n">
         <v>-0.008088389007218489</v>
@@ -9362,13 +9362,13 @@
         <v>4.792767082178292e-06</v>
       </c>
       <c r="CH30" t="n">
-        <v>1.264927892939607e-05</v>
+        <v>1.264927892945158e-05</v>
       </c>
       <c r="CI30" t="n">
-        <v>1.442008565600682e-05</v>
+        <v>1.442008565606234e-05</v>
       </c>
       <c r="CJ30" t="n">
-        <v>1.001417714997614e-05</v>
+        <v>1.001417715003165e-05</v>
       </c>
       <c r="CK30" t="n">
         <v>0</v>
@@ -9568,13 +9568,13 @@
         <v>7.406397942798907e-05</v>
       </c>
       <c r="BE31" t="n">
-        <v>0.09665376082672206</v>
+        <v>0.09516457502212088</v>
       </c>
       <c r="BF31" t="n">
         <v>7.403474763787047e-05</v>
       </c>
       <c r="BG31" t="n">
-        <v>0.09661561323497123</v>
+        <v>0.09512701518662112</v>
       </c>
       <c r="BH31" t="n">
         <v>-0.00576319467368783</v>
@@ -9655,13 +9655,13 @@
         <v>1.963231724329982e-06</v>
       </c>
       <c r="CH31" t="n">
-        <v>2.667271290250628e-05</v>
+        <v>2.667271290243689e-05</v>
       </c>
       <c r="CI31" t="n">
-        <v>3.178591609217379e-05</v>
+        <v>3.17859160921044e-05</v>
       </c>
       <c r="CJ31" t="n">
-        <v>2.568745149269386e-05</v>
+        <v>2.568745149262447e-05</v>
       </c>
       <c r="CK31" t="n">
         <v>0</v>
@@ -9861,13 +9861,13 @@
         <v>4.443838942261632e-05</v>
       </c>
       <c r="BE32" t="n">
-        <v>0.1114427797887071</v>
+        <v>0.1099535939841058</v>
       </c>
       <c r="BF32" t="n">
         <v>4.442085034784821e-05</v>
       </c>
       <c r="BG32" t="n">
-        <v>0.111398795223279</v>
+        <v>0.1099101971749288</v>
       </c>
       <c r="BH32" t="n">
         <v>-0.003357113958297213</v>
@@ -10145,13 +10145,13 @@
         </is>
       </c>
       <c r="BD33" t="n">
-        <v>0.4538282033383839</v>
+        <v>0.4520727104414415</v>
       </c>
       <c r="BE33" t="n">
         <v>0.0009332061690458278</v>
       </c>
       <c r="BF33" t="n">
-        <v>0.4546315365619343</v>
+        <v>0.4528729362209031</v>
       </c>
       <c r="BG33" t="n">
         <v>0.0009348580617984202</v>
@@ -10181,13 +10181,13 @@
         <v>2.078991868829139</v>
       </c>
       <c r="BP33" t="n">
-        <v>-1.417430478790534</v>
+        <v>-1.708837772142967</v>
       </c>
       <c r="BQ33" t="n">
-        <v>-1.319785330404086</v>
+        <v>-1.319785330403743</v>
       </c>
       <c r="BR33" t="n">
-        <v>0.097645148386448</v>
+        <v>0.3890524417392234</v>
       </c>
       <c r="BS33" t="n">
         <v>-3.232142762047295</v>
@@ -10432,13 +10432,13 @@
         </is>
       </c>
       <c r="BD34" t="n">
-        <v>0.439130458330812</v>
+        <v>0.4373749654338697</v>
       </c>
       <c r="BE34" t="n">
         <v>0.001022082859599918</v>
       </c>
       <c r="BF34" t="n">
-        <v>0.4399077746898551</v>
+        <v>0.4381491743488239</v>
       </c>
       <c r="BG34" t="n">
         <v>0.001023892075317007</v>
@@ -10468,13 +10468,13 @@
         <v>2.045648657689777</v>
       </c>
       <c r="BP34" t="n">
-        <v>-1.330388766491541</v>
+        <v>-1.330388766491229</v>
       </c>
       <c r="BQ34" t="n">
-        <v>-1.164992427576343</v>
+        <v>-1.164992427575728</v>
       </c>
       <c r="BR34" t="n">
-        <v>0.1653963389151982</v>
+        <v>0.1653963389155007</v>
       </c>
       <c r="BS34" t="n">
         <v>-3.298487978527338</v>
@@ -10513,13 +10513,13 @@
         <v>0.0130715352533437</v>
       </c>
       <c r="CE34" t="n">
-        <v>5.02573093134704e-05</v>
+        <v>5.025730931341489e-05</v>
       </c>
       <c r="CF34" t="n">
-        <v>0.000105668778845389</v>
+        <v>0.0001056687788453334</v>
       </c>
       <c r="CG34" t="n">
-        <v>0.0001045919701006138</v>
+        <v>0.0001045919701005583</v>
       </c>
       <c r="CH34" t="n">
         <v>-2.057916329136538e-05</v>
@@ -10725,13 +10725,13 @@
         </is>
       </c>
       <c r="BD35" t="n">
-        <v>0.4244623390280238</v>
+        <v>0.4227068461310816</v>
       </c>
       <c r="BE35" t="n">
         <v>0.001140585254937866</v>
       </c>
       <c r="BF35" t="n">
-        <v>0.4252136909637978</v>
+        <v>0.4234550906227668</v>
       </c>
       <c r="BG35" t="n">
         <v>0.001142604234857676</v>
@@ -10761,13 +10761,13 @@
         <v>2.0054438252917</v>
       </c>
       <c r="BP35" t="n">
-        <v>-1.198984317670831</v>
+        <v>-1.19898431767028</v>
       </c>
       <c r="BQ35" t="n">
-        <v>-1.124708514592107</v>
+        <v>-1.124708514593219</v>
       </c>
       <c r="BR35" t="n">
-        <v>0.07427580307872383</v>
+        <v>0.07427580307706116</v>
       </c>
       <c r="BS35" t="n">
         <v>-3.402323162922168</v>
@@ -10806,13 +10806,13 @@
         <v>0.0141776074494474</v>
       </c>
       <c r="CE35" t="n">
-        <v>3.336476331928726e-05</v>
+        <v>3.336476331917623e-05</v>
       </c>
       <c r="CF35" t="n">
-        <v>9.250013517601158e-05</v>
+        <v>9.250013517590056e-05</v>
       </c>
       <c r="CG35" t="n">
-        <v>9.129784575428318e-05</v>
+        <v>9.129784575417216e-05</v>
       </c>
       <c r="CH35" t="n">
         <v>-1.852569030808975e-05</v>
@@ -11018,13 +11018,13 @@
         </is>
       </c>
       <c r="BD36" t="n">
-        <v>0.4098090325776279</v>
+        <v>0.4080535396806855</v>
       </c>
       <c r="BE36" t="n">
         <v>0.001273900502667745</v>
       </c>
       <c r="BF36" t="n">
-        <v>0.4105344463107519</v>
+        <v>0.4087758459697207</v>
       </c>
       <c r="BG36" t="n">
         <v>0.001276155467409386</v>
@@ -11054,13 +11054,13 @@
         <v>1.964158482045706</v>
       </c>
       <c r="BP36" t="n">
-        <v>-1.163102504037657</v>
+        <v>-1.163102504038655</v>
       </c>
       <c r="BQ36" t="n">
-        <v>-1.096381841252841</v>
+        <v>-1.096381841251591</v>
       </c>
       <c r="BR36" t="n">
-        <v>0.06672066278481581</v>
+        <v>0.06672066278706357</v>
       </c>
       <c r="BS36" t="n">
         <v>-3.523077542275291</v>
@@ -11099,13 +11099,13 @@
         <v>0.01541119682200109</v>
       </c>
       <c r="CE36" t="n">
-        <v>3.314018530287295e-05</v>
+        <v>3.3140185303095e-05</v>
       </c>
       <c r="CF36" t="n">
-        <v>9.607501442297425e-05</v>
+        <v>9.60750144231963e-05</v>
       </c>
       <c r="CG36" t="n">
-        <v>9.473168032514412e-05</v>
+        <v>9.473168032536616e-05</v>
       </c>
       <c r="CH36" t="n">
         <v>-1.830125380793986e-05</v>
@@ -11311,13 +11311,13 @@
         </is>
       </c>
       <c r="BD37" t="n">
-        <v>0.3951705388383576</v>
+        <v>0.3934150459414155</v>
       </c>
       <c r="BE37" t="n">
         <v>0.001422028461523723</v>
       </c>
       <c r="BF37" t="n">
-        <v>0.3958700405892007</v>
+        <v>0.3941114402481697</v>
       </c>
       <c r="BG37" t="n">
         <v>0.00142454563145625</v>
@@ -11347,13 +11347,13 @@
         <v>1.922189610937253</v>
       </c>
       <c r="BP37" t="n">
-        <v>-1.137428875025882</v>
+        <v>-1.137428875024759</v>
       </c>
       <c r="BQ37" t="n">
-        <v>-1.017437339005314</v>
+        <v>-1.017437339006438</v>
       </c>
       <c r="BR37" t="n">
-        <v>0.1199915360205677</v>
+        <v>0.1199915360183204</v>
       </c>
       <c r="BS37" t="n">
         <v>-3.659936194544646</v>
@@ -11392,13 +11392,13 @@
         <v>0.01677147486431307</v>
       </c>
       <c r="CE37" t="n">
-        <v>3.483828799198153e-05</v>
+        <v>3.483828799170398e-05</v>
       </c>
       <c r="CF37" t="n">
-        <v>0.0001015428611641327</v>
+        <v>0.0001015428611638551</v>
       </c>
       <c r="CG37" t="n">
-        <v>0.0001000422698188962</v>
+        <v>0.0001000422698186187</v>
       </c>
       <c r="CH37" t="n">
         <v>-5.160283485531827e-06</v>
@@ -11604,13 +11604,13 @@
         </is>
       </c>
       <c r="BD38" t="n">
-        <v>0.3805616706626058</v>
+        <v>0.3788061777656634</v>
       </c>
       <c r="BE38" t="n">
         <v>0.001599781983897729</v>
       </c>
       <c r="BF38" t="n">
-        <v>0.3812353128721562</v>
+        <v>0.3794767125311249</v>
       </c>
       <c r="BG38" t="n">
         <v>0.001602613800009308</v>
@@ -11640,13 +11640,13 @@
         <v>1.876701728422499</v>
       </c>
       <c r="BP38" t="n">
-        <v>-1.070976119560386</v>
+        <v>-1.070976119561392</v>
       </c>
       <c r="BQ38" t="n">
-        <v>-1.070976119561189</v>
+        <v>-1.070976119560791</v>
       </c>
       <c r="BR38" t="n">
-        <v>-8.038014698286133e-13</v>
+        <v>6.012967901369848e-13</v>
       </c>
       <c r="BS38" t="n">
         <v>-3.822950870985856</v>
@@ -11685,13 +11685,13 @@
         <v>0.01839204010200035</v>
       </c>
       <c r="CE38" t="n">
-        <v>2.530968319082449e-05</v>
+        <v>2.530968319110205e-05</v>
       </c>
       <c r="CF38" t="n">
-        <v>9.605398935392216e-05</v>
+        <v>9.605398935419972e-05</v>
       </c>
       <c r="CG38" t="n">
-        <v>9.436936739740283e-05</v>
+        <v>9.436936739768038e-05</v>
       </c>
       <c r="CH38" t="n">
         <v>-2.530968319102206e-05</v>
@@ -11897,13 +11897,13 @@
         </is>
       </c>
       <c r="BD39" t="n">
-        <v>0.3659528024868538</v>
+        <v>0.3641973095899115</v>
       </c>
       <c r="BE39" t="n">
         <v>0.001777535506271738</v>
       </c>
       <c r="BF39" t="n">
-        <v>0.3666005851551114</v>
+        <v>0.3648419848140803</v>
       </c>
       <c r="BG39" t="n">
         <v>0.001780681968562368</v>
@@ -11933,13 +11933,13 @@
         <v>1.834420939967054</v>
       </c>
       <c r="BP39" t="n">
-        <v>-1.112943322790514</v>
+        <v>-1.112943322790154</v>
       </c>
       <c r="BQ39" t="n">
         <v>-0.9674102306720365</v>
       </c>
       <c r="BR39" t="n">
-        <v>0.1455330921184774</v>
+        <v>0.1455330921181173</v>
       </c>
       <c r="BS39" t="n">
         <v>-3.990987889611141</v>
@@ -11978,13 +11978,13 @@
         <v>0.02000486075545582</v>
       </c>
       <c r="CE39" t="n">
-        <v>4.606209903649724e-05</v>
+        <v>4.606209903638622e-05</v>
       </c>
       <c r="CF39" t="n">
-        <v>0.0001201361385673293</v>
+        <v>0.0001201361385672183</v>
       </c>
       <c r="CG39" t="n">
-        <v>0.0001182597505373362</v>
+        <v>0.0001182597505372252</v>
       </c>
       <c r="CH39" t="n">
         <v>-1.545021519237062e-06</v>
@@ -12190,13 +12190,13 @@
         </is>
       </c>
       <c r="BD40" t="n">
-        <v>0.3513883727270118</v>
+        <v>0.3496328798300695</v>
       </c>
       <c r="BE40" t="n">
         <v>0.001999727444555705</v>
       </c>
       <c r="BF40" t="n">
-        <v>0.3520103745155839</v>
+        <v>0.3502517741745528</v>
       </c>
       <c r="BG40" t="n">
         <v>0.002003267214632664</v>
@@ -12229,10 +12229,10 @@
         <v>-1.026979487207887</v>
       </c>
       <c r="BQ40" t="n">
-        <v>-1.026979072335883</v>
+        <v>-1.026979072336047</v>
       </c>
       <c r="BR40" t="n">
-        <v>4.148720043062326e-07</v>
+        <v>4.148718402152696e-07</v>
       </c>
       <c r="BS40" t="n">
         <v>-4.19229956878997</v>
@@ -12483,13 +12483,13 @@
         </is>
       </c>
       <c r="BD41" t="n">
-        <v>0.3368239431084357</v>
+        <v>0.3350684502114933</v>
       </c>
       <c r="BE41" t="n">
         <v>0.002221919524105503</v>
       </c>
       <c r="BF41" t="n">
-        <v>0.3374201640175723</v>
+        <v>0.3356615636765411</v>
       </c>
       <c r="BG41" t="n">
         <v>0.002225852602218849</v>
@@ -12519,13 +12519,13 @@
         <v>1.742641142790539</v>
       </c>
       <c r="BP41" t="n">
-        <v>-1.074633482598046</v>
+        <v>-1.074633482598194</v>
       </c>
       <c r="BQ41" t="n">
-        <v>-1.035297000441713</v>
+        <v>-1.035297000442598</v>
       </c>
       <c r="BR41" t="n">
-        <v>0.03933648215633312</v>
+        <v>0.03933648215559638</v>
       </c>
       <c r="BS41" t="n">
         <v>-4.401838115322846</v>
@@ -12564,13 +12564,13 @@
         <v>0.02400607335700533</v>
       </c>
       <c r="CE41" t="n">
-        <v>5.500825662846376e-05</v>
+        <v>5.500825662851927e-05</v>
       </c>
       <c r="CF41" t="n">
-        <v>0.000135356222503125</v>
+        <v>0.0001353562225031805</v>
       </c>
       <c r="CG41" t="n">
-        <v>0.0001330116770658241</v>
+        <v>0.0001330116770658796</v>
       </c>
       <c r="CH41" t="n">
         <v>-2.008480408254449e-05</v>
@@ -12776,13 +12776,13 @@
         </is>
       </c>
       <c r="BD42" t="n">
-        <v>0.3295491345134448</v>
+        <v>0.3277936416165023</v>
       </c>
       <c r="BE42" t="n">
         <v>0.00234042177817762</v>
       </c>
       <c r="BF42" t="n">
-        <v>0.3301324780927982</v>
+        <v>0.3283738777517669</v>
       </c>
       <c r="BG42" t="n">
         <v>0.002344564620243628</v>
@@ -12812,13 +12812,13 @@
         <v>1.72033996593569</v>
       </c>
       <c r="BP42" t="n">
-        <v>-1.059256037937153</v>
+        <v>-1.059256037937995</v>
       </c>
       <c r="BQ42" t="n">
-        <v>-1.059256037938825</v>
+        <v>-1.059256037937427</v>
       </c>
       <c r="BR42" t="n">
-        <v>-1.671773830480561e-12</v>
+        <v>5.682121440031551e-13</v>
       </c>
       <c r="BS42" t="n">
         <v>-4.514557389368767</v>
@@ -12857,13 +12857,13 @@
         <v>0.02507301721524835</v>
       </c>
       <c r="CE42" t="n">
-        <v>2.751025233679091e-05</v>
+        <v>2.751025233695744e-05</v>
       </c>
       <c r="CF42" t="n">
-        <v>6.822499460334194e-05</v>
+        <v>6.822499460350847e-05</v>
       </c>
       <c r="CG42" t="n">
-        <v>6.698872509789799e-05</v>
+        <v>6.698872509806452e-05</v>
       </c>
       <c r="CH42" t="n">
         <v>-2.751025233688745e-05</v>
@@ -13069,13 +13069,13 @@
         </is>
       </c>
       <c r="BD43" t="n">
-        <v>0.3222743259184537</v>
+        <v>0.3205188330215115</v>
       </c>
       <c r="BE43" t="n">
         <v>0.002458924032249739</v>
       </c>
       <c r="BF43" t="n">
-        <v>0.3228447921680239</v>
+        <v>0.3210861918269928</v>
       </c>
       <c r="BG43" t="n">
         <v>0.002463276638268409</v>
@@ -13105,13 +13105,13 @@
         <v>1.698634931728493</v>
       </c>
       <c r="BP43" t="n">
-        <v>-1.08098700289973</v>
+        <v>-1.080987002898398</v>
       </c>
       <c r="BQ43" t="n">
         <v>-0.8907140255106678</v>
       </c>
       <c r="BR43" t="n">
-        <v>0.1902729773890621</v>
+        <v>0.1902729773877299</v>
       </c>
       <c r="BS43" t="n">
         <v>-4.630884950653621</v>
@@ -13150,13 +13150,13 @@
         <v>0.02614492774187471</v>
       </c>
       <c r="CE43" t="n">
-        <v>3.511791485855294e-05</v>
+        <v>3.511791485827538e-05</v>
       </c>
       <c r="CF43" t="n">
-        <v>7.622940766551824e-05</v>
+        <v>7.622940766524068e-05</v>
       </c>
       <c r="CG43" t="n">
-        <v>7.492772101749812e-05</v>
+        <v>7.492772101722056e-05</v>
       </c>
       <c r="CH43" t="n">
         <v>1.335883951336929e-05</v>
@@ -13362,13 +13362,13 @@
         </is>
       </c>
       <c r="BD44" t="n">
-        <v>0.3005684029526166</v>
+        <v>0.2988129100556743</v>
       </c>
       <c r="BE44" t="n">
         <v>0.002932933613601533</v>
       </c>
       <c r="BF44" t="n">
-        <v>0.3011004469777899</v>
+        <v>0.2993418466367588</v>
       </c>
       <c r="BG44" t="n">
         <v>0.002938125276431084</v>
@@ -13401,10 +13401,10 @@
         <v>-0.9931224355657651</v>
       </c>
       <c r="BQ44" t="n">
-        <v>-0.9728401388983535</v>
+        <v>-0.9728401388990346</v>
       </c>
       <c r="BR44" t="n">
-        <v>0.02028229666741155</v>
+        <v>0.02028229666673043</v>
       </c>
       <c r="BS44" t="n">
         <v>-5.046758113888304</v>
@@ -13655,13 +13655,13 @@
         </is>
       </c>
       <c r="BD45" t="n">
-        <v>0.2933380329148016</v>
+        <v>0.2915825400178592</v>
       </c>
       <c r="BE45" t="n">
         <v>0.003095874424849443</v>
       </c>
       <c r="BF45" t="n">
-        <v>0.293857278272049</v>
+        <v>0.2920986779310178</v>
       </c>
       <c r="BG45" t="n">
         <v>0.003101354513488992</v>
@@ -13691,13 +13691,13 @@
         <v>1.597515076629181</v>
       </c>
       <c r="BP45" t="n">
-        <v>-1.002664834129177</v>
+        <v>-1.002664834129825</v>
       </c>
       <c r="BQ45" t="n">
-        <v>-0.8869006258773222</v>
+        <v>-0.8869006258768892</v>
       </c>
       <c r="BR45" t="n">
-        <v>0.1157642082518551</v>
+        <v>0.115764208252936</v>
       </c>
       <c r="BS45" t="n">
         <v>-5.194775238477616</v>
@@ -13736,13 +13736,13 @@
         <v>0.03183469102507597</v>
       </c>
       <c r="CE45" t="n">
-        <v>3.179843716236488e-05</v>
+        <v>3.179843716253142e-05</v>
       </c>
       <c r="CF45" t="n">
-        <v>7.41782161578922e-05</v>
+        <v>7.417821615805873e-05</v>
       </c>
       <c r="CG45" t="n">
-        <v>7.255115305973298e-05</v>
+        <v>7.255115305989952e-05</v>
       </c>
       <c r="CH45" t="n">
         <v>-2.12057417218911e-06</v>
@@ -13948,13 +13948,13 @@
         </is>
       </c>
       <c r="BD46" t="n">
-        <v>0.2861372882992386</v>
+        <v>0.2843817954022963</v>
       </c>
       <c r="BE46" t="n">
         <v>0.003288440658349543</v>
       </c>
       <c r="BF46" t="n">
-        <v>0.2866437874292982</v>
+        <v>0.284885187088267</v>
       </c>
       <c r="BG46" t="n">
         <v>0.003294261613537197</v>
@@ -13984,13 +13984,13 @@
         <v>1.570437174695296</v>
       </c>
       <c r="BP46" t="n">
-        <v>-0.9251575294200223</v>
+        <v>-0.9251575294196118</v>
       </c>
       <c r="BQ46" t="n">
         <v>-0.9251570060370606</v>
       </c>
       <c r="BR46" t="n">
-        <v>5.233829616368979e-07</v>
+        <v>5.233825511874457e-07</v>
       </c>
       <c r="BS46" t="n">
         <v>-5.356114152734636</v>
@@ -14029,13 +14029,13 @@
         <v>0.03354550973527304</v>
       </c>
       <c r="CE46" t="n">
-        <v>1.48645732957111e-05</v>
+        <v>1.486457329560008e-05</v>
       </c>
       <c r="CF46" t="n">
-        <v>5.726590910903624e-05</v>
+        <v>5.726590910892521e-05</v>
       </c>
       <c r="CG46" t="n">
-        <v>5.554429424536791e-05</v>
+        <v>5.554429424525689e-05</v>
       </c>
       <c r="CH46" t="n">
         <v>-1.486443177970261e-05</v>
@@ -14241,13 +14241,13 @@
         </is>
       </c>
       <c r="BD47" t="n">
-        <v>0.2789365438249416</v>
+        <v>0.2771810509279993</v>
       </c>
       <c r="BE47" t="n">
         <v>0.003481007033115486</v>
       </c>
       <c r="BF47" t="n">
-        <v>0.2794302967280635</v>
+        <v>0.2776716963870323</v>
       </c>
       <c r="BG47" t="n">
         <v>0.003487168855101304</v>
@@ -14280,10 +14280,10 @@
         <v>-0.959894711606759</v>
       </c>
       <c r="BQ47" t="n">
-        <v>-0.8555988442605663</v>
+        <v>-0.8555988442606646</v>
       </c>
       <c r="BR47" t="n">
-        <v>0.1042958673461927</v>
+        <v>0.1042958673460944</v>
       </c>
       <c r="BS47" t="n">
         <v>-5.522147643117985</v>
@@ -14534,13 +14534,13 @@
         </is>
       </c>
       <c r="BD48" t="n">
-        <v>0.2645943060033836</v>
+        <v>0.2628388131064412</v>
       </c>
       <c r="BE48" t="n">
         <v>0.003925390909683421</v>
       </c>
       <c r="BF48" t="n">
-        <v>0.2650626713346063</v>
+        <v>0.2633040709935751</v>
       </c>
       <c r="BG48" t="n">
         <v>0.003932339347241895</v>
@@ -14570,13 +14570,13 @@
         <v>1.488461569520257</v>
       </c>
       <c r="BP48" t="n">
-        <v>-0.9354048583854412</v>
+        <v>-0.9354048583855297</v>
       </c>
       <c r="BQ48" t="n">
-        <v>-0.888443834822133</v>
+        <v>-0.8884438348223073</v>
       </c>
       <c r="BR48" t="n">
-        <v>0.04696102356330822</v>
+        <v>0.0469610235632224</v>
       </c>
       <c r="BS48" t="n">
         <v>-5.884507072406607</v>
@@ -14615,13 +14615,13 @@
         <v>0.03921339332143969</v>
       </c>
       <c r="CE48" t="n">
-        <v>5.742198724242344e-05</v>
+        <v>5.742198724247895e-05</v>
       </c>
       <c r="CF48" t="n">
-        <v>0.0001397468474369362</v>
+        <v>0.0001397468474369917</v>
       </c>
       <c r="CG48" t="n">
-        <v>0.0001356894991114948</v>
+        <v>0.0001356894991115503</v>
       </c>
       <c r="CH48" t="n">
         <v>-1.387206212609339e-05</v>
@@ -14827,13 +14827,13 @@
         </is>
       </c>
       <c r="BD49" t="n">
-        <v>0.2574379998037306</v>
+        <v>0.2556825069067882</v>
       </c>
       <c r="BE49" t="n">
         <v>0.004162395559093486</v>
       </c>
       <c r="BF49" t="n">
-        <v>0.2578936975693728</v>
+        <v>0.2561350972283415</v>
       </c>
       <c r="BG49" t="n">
         <v>0.004169763524807343</v>
@@ -14863,13 +14863,13 @@
         <v>1.460507558382306</v>
       </c>
       <c r="BP49" t="n">
-        <v>-0.9277303197072515</v>
+        <v>-0.9277303197074172</v>
       </c>
       <c r="BQ49" t="n">
-        <v>-0.8384919260942552</v>
+        <v>-0.8384919260937557</v>
       </c>
       <c r="BR49" t="n">
-        <v>0.08923839361299635</v>
+        <v>0.08923839361366148</v>
       </c>
       <c r="BS49" t="n">
         <v>-6.077751410647858</v>
@@ -14908,13 +14908,13 @@
         <v>0.04132769620389587</v>
       </c>
       <c r="CE49" t="n">
-        <v>3.055052074860468e-05</v>
+        <v>3.055052074866019e-05</v>
       </c>
       <c r="CF49" t="n">
-        <v>7.080475182565365e-05</v>
+        <v>7.080475182570916e-05</v>
       </c>
       <c r="CG49" t="n">
-        <v>6.866518657970642e-05</v>
+        <v>6.866518657976193e-05</v>
       </c>
       <c r="CH49" t="n">
         <v>-8.722332106282865e-07</v>
@@ -15120,13 +15120,13 @@
         </is>
       </c>
       <c r="BD50" t="n">
-        <v>0.2503113194501272</v>
+        <v>0.248555826553185</v>
       </c>
       <c r="BE50" t="n">
         <v>0.004429026054553246</v>
       </c>
       <c r="BF50" t="n">
-        <v>0.2507544020916772</v>
+        <v>0.2489958017506461</v>
       </c>
       <c r="BG50" t="n">
         <v>0.004436865989910768</v>
@@ -15156,13 +15156,13 @@
         <v>1.430894412866404</v>
       </c>
       <c r="BP50" t="n">
-        <v>-0.8831042365543454</v>
+        <v>-0.8831042365538716</v>
       </c>
       <c r="BQ50" t="n">
-        <v>-0.840779109807247</v>
+        <v>-0.8407791098073267</v>
       </c>
       <c r="BR50" t="n">
-        <v>0.04232512674709843</v>
+        <v>0.04232512674654487</v>
       </c>
       <c r="BS50" t="n">
         <v>-6.2829416317316</v>
@@ -15201,13 +15201,13 @@
         <v>0.04369133537754277</v>
       </c>
       <c r="CE50" t="n">
-        <v>1.96261148958099e-05</v>
+        <v>1.962611489564337e-05</v>
       </c>
       <c r="CF50" t="n">
-        <v>5.875171140713384e-05</v>
+        <v>5.875171140696731e-05</v>
       </c>
       <c r="CG50" t="n">
-        <v>5.649295135506417e-05</v>
+        <v>5.649295135489764e-05</v>
       </c>
       <c r="CH50" t="n">
         <v>-4.788740075312322e-06</v>
@@ -15413,13 +15413,13 @@
         </is>
       </c>
       <c r="BD51" t="n">
-        <v>0.243199450253726</v>
+        <v>0.2414439573567838</v>
       </c>
       <c r="BE51" t="n">
         <v>0.004710467707214972</v>
       </c>
       <c r="BF51" t="n">
-        <v>0.2436299439888021</v>
+        <v>0.241871343647771</v>
       </c>
       <c r="BG51" t="n">
         <v>0.00471880582983457</v>
@@ -15449,13 +15449,13 @@
         <v>1.401029129243663</v>
       </c>
       <c r="BP51" t="n">
-        <v>-0.8856795617924887</v>
+        <v>-0.8856795617925644</v>
       </c>
       <c r="BQ51" t="n">
-        <v>-0.8454874635559616</v>
+        <v>-0.845487463556338</v>
       </c>
       <c r="BR51" t="n">
-        <v>0.04019209823652714</v>
+        <v>0.04019209823622638</v>
       </c>
       <c r="BS51" t="n">
         <v>-6.497445111488613</v>
@@ -15494,13 +15494,13 @@
         <v>0.04619037258844227</v>
       </c>
       <c r="CE51" t="n">
-        <v>2.48885821595192e-05</v>
+        <v>2.488858215954695e-05</v>
       </c>
       <c r="CF51" t="n">
-        <v>6.254609413158113e-05</v>
+        <v>6.254609413160889e-05</v>
       </c>
       <c r="CG51" t="n">
-        <v>6.016444059231754e-05</v>
+        <v>6.01644405923453e-05</v>
       </c>
       <c r="CH51" t="n">
         <v>-1.004625428308443e-05</v>
@@ -15706,13 +15706,13 @@
         </is>
       </c>
       <c r="BD52" t="n">
-        <v>0.2361023971588309</v>
+        <v>0.2343469042618885</v>
       </c>
       <c r="BE52" t="n">
         <v>0.005006725461382715</v>
       </c>
       <c r="BF52" t="n">
-        <v>0.2365203282138036</v>
+        <v>0.2347617278727723</v>
       </c>
       <c r="BG52" t="n">
         <v>0.005015587997634843</v>
@@ -15742,13 +15742,13 @@
         <v>1.370939163349175</v>
       </c>
       <c r="BP52" t="n">
-        <v>-0.8905295566415613</v>
+        <v>-0.8905295566419188</v>
       </c>
       <c r="BQ52" t="n">
         <v>-0.8141930654409023</v>
       </c>
       <c r="BR52" t="n">
-        <v>0.076336491200659</v>
+        <v>0.07633649120101649</v>
       </c>
       <c r="BS52" t="n">
         <v>-6.721768318796032</v>
@@ -15787,13 +15787,13 @@
         <v>0.04882882337845507</v>
       </c>
       <c r="CE52" t="n">
-        <v>3.15572782042528e-05</v>
+        <v>3.155727820439158e-05</v>
       </c>
       <c r="CF52" t="n">
-        <v>6.73711888990805e-05</v>
+        <v>6.737118889921928e-05</v>
       </c>
       <c r="CG52" t="n">
-        <v>6.486352921907575e-05</v>
+        <v>6.486352921921453e-05</v>
       </c>
       <c r="CH52" t="n">
         <v>-1.88153795239543e-06</v>
@@ -15999,13 +15999,13 @@
         </is>
       </c>
       <c r="BD53" t="n">
-        <v>0.2290349673672004</v>
+        <v>0.227279474470258</v>
       </c>
       <c r="BE53" t="n">
         <v>0.005332606518815213</v>
       </c>
       <c r="BF53" t="n">
-        <v>0.229440388179057</v>
+        <v>0.2276817878380257</v>
       </c>
       <c r="BG53" t="n">
         <v>0.005342045905687104</v>
@@ -16038,10 +16038,10 @@
         <v>-0.8629515753347622</v>
       </c>
       <c r="BQ53" t="n">
-        <v>-0.7059243702112282</v>
+        <v>-0.7059243702111159</v>
       </c>
       <c r="BR53" t="n">
-        <v>0.157027205123534</v>
+        <v>0.1570272051236463</v>
       </c>
       <c r="BS53" t="n">
         <v>-6.957971941752509</v>
@@ -16292,13 +16292,13 @@
         </is>
       </c>
       <c r="BD54" t="n">
-        <v>0.2080252447908721</v>
+        <v>0.2062697518939299</v>
       </c>
       <c r="BE54" t="n">
         <v>0.006502816489676134</v>
       </c>
       <c r="BF54" t="n">
-        <v>0.2083934757409286</v>
+        <v>0.2066348753998975</v>
       </c>
       <c r="BG54" t="n">
         <v>0.006514327295955648</v>
@@ -16328,13 +16328,13 @@
         <v>1.239320458514594</v>
       </c>
       <c r="BP54" t="n">
-        <v>-0.8718818201432694</v>
+        <v>-0.8718818201431733</v>
       </c>
       <c r="BQ54" t="n">
-        <v>-0.8512401919609645</v>
+        <v>-0.8512401919608478</v>
       </c>
       <c r="BR54" t="n">
-        <v>0.02064162818230497</v>
+        <v>0.02064162818232551</v>
       </c>
       <c r="BS54" t="n">
         <v>-7.737734997427583</v>
@@ -16373,13 +16373,13 @@
         <v>0.06204596987778987</v>
       </c>
       <c r="CE54" t="n">
-        <v>0.0001428866938244372</v>
+        <v>0.0001428866938242984</v>
       </c>
       <c r="CF54" t="n">
-        <v>0.0002155116213955512</v>
+        <v>0.0002155116213954124</v>
       </c>
       <c r="CG54" t="n">
-        <v>0.0002063300407170836</v>
+        <v>0.0002063300407169448</v>
       </c>
       <c r="CH54" t="n">
         <v>-3.773410703438075e-05</v>
@@ -16585,13 +16585,13 @@
         </is>
       </c>
       <c r="BD55" t="n">
-        <v>0.2010318812389229</v>
+        <v>0.1992763883419807</v>
       </c>
       <c r="BE55" t="n">
         <v>0.006902763786789889</v>
       </c>
       <c r="BF55" t="n">
-        <v>0.2013877330524596</v>
+        <v>0.1996291327114285</v>
       </c>
       <c r="BG55" t="n">
         <v>0.006914982550285542</v>
@@ -16621,13 +16621,13 @@
         <v>1.207168097291462</v>
       </c>
       <c r="BP55" t="n">
-        <v>-0.9000892578568871</v>
+        <v>-0.900089257856776</v>
       </c>
       <c r="BQ55" t="n">
-        <v>-0.693676741114181</v>
+        <v>-0.6936767411144016</v>
       </c>
       <c r="BR55" t="n">
-        <v>0.2064125167427061</v>
+        <v>0.2064125167423744</v>
       </c>
       <c r="BS55" t="n">
         <v>-8.020286142407077</v>
@@ -16666,13 +16666,13 @@
         <v>0.06566428600606844</v>
       </c>
       <c r="CE55" t="n">
-        <v>6.898780265163391e-05</v>
+        <v>6.89878026515784e-05</v>
       </c>
       <c r="CF55" t="n">
-        <v>8.887234453645431e-05</v>
+        <v>8.88723445363988e-05</v>
       </c>
       <c r="CG55" t="n">
-        <v>8.568057846086545e-05</v>
+        <v>8.568057846080994e-05</v>
       </c>
       <c r="CH55" t="n">
         <v>3.488033082197934e-05</v>
@@ -16878,13 +16878,13 @@
         </is>
       </c>
       <c r="BD56" t="n">
-        <v>0.1941422022856157</v>
+        <v>0.1923867093886734</v>
       </c>
       <c r="BE56" t="n">
         <v>0.007406395682545639</v>
       </c>
       <c r="BF56" t="n">
-        <v>0.1944858584974642</v>
+        <v>0.1927272581564331</v>
       </c>
       <c r="BG56" t="n">
         <v>0.007419505938088997</v>
@@ -16914,13 +16914,13 @@
         <v>1.170476696540835</v>
       </c>
       <c r="BP56" t="n">
-        <v>-0.7586729101656492</v>
+        <v>-0.7586729101658584</v>
       </c>
       <c r="BQ56" t="n">
-        <v>-0.7586643732903932</v>
+        <v>-0.7586643732902366</v>
       </c>
       <c r="BR56" t="n">
-        <v>8.536875256037746e-06</v>
+        <v>8.53687562174521e-06</v>
       </c>
       <c r="BS56" t="n">
         <v>-8.317539901487638</v>
@@ -16959,13 +16959,13 @@
         <v>0.07007972759903447</v>
       </c>
       <c r="CE56" t="n">
-        <v>2.841646837115942e-06</v>
+        <v>2.841646837226965e-06</v>
       </c>
       <c r="CF56" t="n">
-        <v>1.785001396324096e-05</v>
+        <v>1.785001396335199e-05</v>
       </c>
       <c r="CG56" t="n">
-        <v>1.451496251779916e-05</v>
+        <v>1.451496251791019e-05</v>
       </c>
       <c r="CH56" t="n">
         <v>-2.837118328850624e-06</v>
@@ -17171,13 +17171,13 @@
         </is>
       </c>
       <c r="BD57" t="n">
-        <v>0.187252527852815</v>
+        <v>0.1854970349558727</v>
       </c>
       <c r="BE57" t="n">
         <v>0.007910032098807926</v>
       </c>
       <c r="BF57" t="n">
-        <v>0.1875839884709772</v>
+        <v>0.1858253881299461</v>
       </c>
       <c r="BG57" t="n">
         <v>0.007924033854400856</v>
@@ -17207,13 +17207,13 @@
         <v>1.134888995198879</v>
       </c>
       <c r="BP57" t="n">
-        <v>-0.818470616887481</v>
+        <v>-0.8184706168873321</v>
       </c>
       <c r="BQ57" t="n">
-        <v>-0.6588242896250569</v>
+        <v>-0.658824289625306</v>
       </c>
       <c r="BR57" t="n">
-        <v>0.1596463272624241</v>
+        <v>0.1596463272620261</v>
       </c>
       <c r="BS57" t="n">
         <v>-8.627550247442564</v>
@@ -17252,13 +17252,13 @@
         <v>0.07456664568944249</v>
       </c>
       <c r="CE57" t="n">
-        <v>4.182083723346542e-05</v>
+        <v>4.182083723338215e-05</v>
       </c>
       <c r="CF57" t="n">
-        <v>5.120819643172642e-05</v>
+        <v>5.120819643164316e-05</v>
       </c>
       <c r="CG57" t="n">
-        <v>4.77423349239444e-05</v>
+        <v>4.774233492386114e-05</v>
       </c>
       <c r="CH57" t="n">
         <v>4.721416689643023e-05</v>
@@ -17464,13 +17464,13 @@
         </is>
       </c>
       <c r="BD58" t="n">
-        <v>0.1804517310994292</v>
+        <v>0.1786962382024869</v>
       </c>
       <c r="BE58" t="n">
         <v>0.008502546194485107</v>
       </c>
       <c r="BF58" t="n">
-        <v>0.18077115344862</v>
+        <v>0.1790125531075888</v>
       </c>
       <c r="BG58" t="n">
         <v>0.008517596774842514</v>
@@ -17500,13 +17500,13 @@
         <v>1.096274380040319</v>
       </c>
       <c r="BP58" t="n">
-        <v>-0.7294655449166256</v>
+        <v>-0.7294655449168621</v>
       </c>
       <c r="BQ58" t="n">
-        <v>-0.6410666157669378</v>
+        <v>-0.6410666157669616</v>
       </c>
       <c r="BR58" t="n">
-        <v>0.08839892914968783</v>
+        <v>0.08839892914990055</v>
       </c>
       <c r="BS58" t="n">
         <v>-8.950081177325005</v>
@@ -17545,13 +17545,13 @@
         <v>0.07974484281730354</v>
       </c>
       <c r="CE58" t="n">
-        <v>-2.360677874779608e-06</v>
+        <v>-2.360677874640831e-06</v>
       </c>
       <c r="CF58" t="n">
-        <v>6.559414748958867e-07</v>
+        <v>6.559414750346645e-07</v>
       </c>
       <c r="CG58" t="n">
-        <v>-2.940880650894977e-06</v>
+        <v>-2.940880650756199e-06</v>
       </c>
       <c r="CH58" t="n">
         <v>0.0001085894892228476</v>
@@ -17757,13 +17757,13 @@
         </is>
       </c>
       <c r="BD59" t="n">
-        <v>0.1669538221912996</v>
+        <v>0.1651983292943572</v>
       </c>
       <c r="BE59" t="n">
         <v>0.009791258984481462</v>
       </c>
       <c r="BF59" t="n">
-        <v>0.1672493515373791</v>
+        <v>0.1654907511963478</v>
       </c>
       <c r="BG59" t="n">
         <v>0.009808590749199389</v>
@@ -17793,13 +17793,13 @@
         <v>1.018228815465144</v>
       </c>
       <c r="BP59" t="n">
-        <v>-0.7826400955093782</v>
+        <v>-0.7826400955093997</v>
       </c>
       <c r="BQ59" t="n">
-        <v>-0.6226921921355172</v>
+        <v>-0.6226921921353678</v>
       </c>
       <c r="BR59" t="n">
-        <v>0.159947903373861</v>
+        <v>0.159947903374032</v>
       </c>
       <c r="BS59" t="n">
         <v>-9.635516161901831</v>
@@ -17838,13 +17838,13 @@
         <v>0.0910883797014076</v>
       </c>
       <c r="CE59" t="n">
-        <v>9.051654581020661e-05</v>
+        <v>9.051654581023437e-05</v>
       </c>
       <c r="CF59" t="n">
-        <v>6.589508966547454e-05</v>
+        <v>6.58950896655023e-05</v>
       </c>
       <c r="CG59" t="n">
-        <v>5.827960170988987e-05</v>
+        <v>5.827960170991763e-05</v>
       </c>
       <c r="CH59" t="n">
         <v>0.0001172310424079107</v>
@@ -18050,13 +18050,13 @@
         </is>
       </c>
       <c r="BD60" t="n">
-        <v>0.1536632937817202</v>
+        <v>0.151907800884778</v>
       </c>
       <c r="BE60" t="n">
         <v>0.01128735227302815</v>
       </c>
       <c r="BF60" t="n">
-        <v>0.1539352972143561</v>
+        <v>0.1521766968733251</v>
       </c>
       <c r="BG60" t="n">
         <v>0.0113073323117744</v>
@@ -18086,13 +18086,13 @@
         <v>0.9368646425778553</v>
       </c>
       <c r="BP60" t="n">
-        <v>-0.77316097016202</v>
+        <v>-0.7731609701618843</v>
       </c>
       <c r="BQ60" t="n">
-        <v>-0.5968837556170377</v>
+        <v>-0.5968837556171929</v>
       </c>
       <c r="BR60" t="n">
-        <v>0.1762772145449824</v>
+        <v>0.1762772145446915</v>
       </c>
       <c r="BS60" t="n">
         <v>-10.37625208050373</v>
@@ -18131,13 +18131,13 @@
         <v>0.1042826229708644</v>
       </c>
       <c r="CE60" t="n">
-        <v>0.0001166633538648449</v>
+        <v>0.0001166633538646506</v>
       </c>
       <c r="CF60" t="n">
-        <v>5.380660513141892e-05</v>
+        <v>5.380660513122464e-05</v>
       </c>
       <c r="CG60" t="n">
-        <v>4.59756459073226e-05</v>
+        <v>4.597564590712831e-05</v>
       </c>
       <c r="CH60" t="n">
         <v>6.779860395496535e-05</v>
@@ -18343,13 +18343,13 @@
         </is>
       </c>
       <c r="BD61" t="n">
-        <v>0.1471439369858062</v>
+        <v>0.1453884440888639</v>
       </c>
       <c r="BE61" t="n">
         <v>0.01216130632617711</v>
       </c>
       <c r="BF61" t="n">
-        <v>0.1474044003337321</v>
+        <v>0.1456457999927009</v>
       </c>
       <c r="BG61" t="n">
         <v>0.01218283337394921</v>
@@ -18379,13 +18379,13 @@
         <v>0.8937087418640548</v>
       </c>
       <c r="BP61" t="n">
-        <v>-0.680385052997624</v>
+        <v>-0.6803850529977719</v>
       </c>
       <c r="BQ61" t="n">
-        <v>-0.6210860790770607</v>
+        <v>-0.6210860790769128</v>
       </c>
       <c r="BR61" t="n">
-        <v>0.05929897392056327</v>
+        <v>0.05929897392085903</v>
       </c>
       <c r="BS61" t="n">
         <v>-10.76371742962006</v>
@@ -18424,13 +18424,13 @@
         <v>0.1119042803263899</v>
       </c>
       <c r="CE61" t="n">
-        <v>-2.103171750098345e-07</v>
+        <v>-2.103171748988122e-07</v>
       </c>
       <c r="CF61" t="n">
-        <v>-4.278095175924701e-05</v>
+        <v>-4.278095175913599e-05</v>
       </c>
       <c r="CG61" t="n">
-        <v>-4.669343057516016e-05</v>
+        <v>-4.669343057504913e-05</v>
       </c>
       <c r="CH61" t="n">
         <v>4.473008349400998e-05</v>
@@ -18636,13 +18636,13 @@
         </is>
       </c>
       <c r="BD62" t="n">
-        <v>0.1406690212898528</v>
+        <v>0.1389135283929106</v>
       </c>
       <c r="BE62" t="n">
         <v>0.01307970147928679</v>
       </c>
       <c r="BF62" t="n">
-        <v>0.140918023219427</v>
+        <v>0.139159422878396</v>
       </c>
       <c r="BG62" t="n">
         <v>0.01310285420244313</v>
@@ -18672,13 +18672,13 @@
         <v>0.8503773414022997</v>
       </c>
       <c r="BP62" t="n">
-        <v>-0.7041086833942543</v>
+        <v>-0.704108683394113</v>
       </c>
       <c r="BQ62" t="n">
-        <v>-0.5531437731148229</v>
+        <v>-0.5531437731149996</v>
       </c>
       <c r="BR62" t="n">
-        <v>0.1509649102794314</v>
+        <v>0.1509649102791134</v>
       </c>
       <c r="BS62" t="n">
         <v>-11.16709949860371</v>
@@ -18717,13 +18717,13 @@
         <v>0.1199826997585149</v>
       </c>
       <c r="CE62" t="n">
-        <v>2.723899436994463e-05</v>
+        <v>2.723899436983361e-05</v>
       </c>
       <c r="CF62" t="n">
-        <v>-2.753128693222529e-05</v>
+        <v>-2.753128693233631e-05</v>
       </c>
       <c r="CG62" t="n">
-        <v>-3.138120783087797e-05</v>
+        <v>-3.138120783098899e-05</v>
       </c>
       <c r="CH62" t="n">
         <v>9.147132546429308e-05</v>
@@ -18929,13 +18929,13 @@
         </is>
       </c>
       <c r="BD63" t="n">
-        <v>0.1343126061527817</v>
+        <v>0.1325571132558394</v>
       </c>
       <c r="BE63" t="n">
         <v>0.01411659719127864</v>
       </c>
       <c r="BF63" t="n">
-        <v>0.1345503564249562</v>
+        <v>0.132791756083925</v>
       </c>
       <c r="BG63" t="n">
         <v>0.01414158535077118</v>
@@ -18965,13 +18965,13 @@
         <v>0.8049004771981283</v>
       </c>
       <c r="BP63" t="n">
-        <v>-0.6438888620842091</v>
+        <v>-0.6438888620843779</v>
       </c>
       <c r="BQ63" t="n">
-        <v>-0.5898277316383204</v>
+        <v>-0.5898277316383542</v>
       </c>
       <c r="BR63" t="n">
-        <v>0.05406113044588878</v>
+        <v>0.05406113044602368</v>
       </c>
       <c r="BS63" t="n">
         <v>-11.57754595251068</v>
@@ -19010,13 +19010,13 @@
         <v>0.1289734822942072</v>
       </c>
       <c r="CE63" t="n">
-        <v>-1.165099676293975e-05</v>
+        <v>-1.165099676280097e-05</v>
       </c>
       <c r="CF63" t="n">
-        <v>-7.978350236114134e-05</v>
+        <v>-7.978350236100256e-05</v>
       </c>
       <c r="CG63" t="n">
-        <v>-8.350221438873599e-05</v>
+        <v>-8.350221438859721e-05</v>
       </c>
       <c r="CH63" t="n">
         <v>5.616623457352886e-05</v>
@@ -19222,13 +19222,13 @@
         </is>
       </c>
       <c r="BD64" t="n">
-        <v>0.1280006275951648</v>
+        <v>0.1262451346982225</v>
       </c>
       <c r="BE64" t="n">
         <v>0.01519792948272466</v>
       </c>
       <c r="BF64" t="n">
-        <v>0.1282272048682962</v>
+        <v>0.1264686045272649</v>
       </c>
       <c r="BG64" t="n">
         <v>0.01522483173690992</v>
@@ -19258,13 +19258,13 @@
         <v>0.7594359572010404</v>
       </c>
       <c r="BP64" t="n">
-        <v>-0.6792556606636052</v>
+        <v>-0.6792556606636376</v>
       </c>
       <c r="BQ64" t="n">
-        <v>-0.524034731513049</v>
+        <v>-0.5240347315130165</v>
       </c>
       <c r="BR64" t="n">
-        <v>0.1552209291505562</v>
+        <v>0.1552209291506211</v>
       </c>
       <c r="BS64" t="n">
         <v>-12.00551317997301</v>
@@ -19303,13 +19303,13 @@
         <v>0.1384620801679306</v>
       </c>
       <c r="CE64" t="n">
-        <v>2.829959103251706e-05</v>
+        <v>2.829959103254481e-05</v>
       </c>
       <c r="CF64" t="n">
-        <v>-5.424797234060159e-05</v>
+        <v>-5.424797234057383e-05</v>
       </c>
       <c r="CG64" t="n">
-        <v>-5.77411204273591e-05</v>
+        <v>-5.774112042733134e-05</v>
       </c>
       <c r="CH64" t="n">
         <v>0.000105252915162143</v>
@@ -19515,13 +19515,13 @@
         </is>
       </c>
       <c r="BD65" t="n">
-        <v>0.1218219655566701</v>
+        <v>0.1200664726597278</v>
       </c>
       <c r="BE65" t="n">
         <v>0.01641257829329303</v>
       </c>
       <c r="BF65" t="n">
-        <v>0.1220376058178306</v>
+        <v>0.1202790054767994</v>
       </c>
       <c r="BG65" t="n">
         <v>0.01644163062924337</v>
@@ -19551,13 +19551,13 @@
         <v>0.7119180608122828</v>
       </c>
       <c r="BP65" t="n">
-        <v>-0.6208577279132934</v>
+        <v>-0.6208577279132623</v>
       </c>
       <c r="BQ65" t="n">
-        <v>-0.5382728568703651</v>
+        <v>-0.5382728568703806</v>
       </c>
       <c r="BR65" t="n">
-        <v>0.08258487104292833</v>
+        <v>0.0825848710428817</v>
       </c>
       <c r="BS65" t="n">
         <v>-12.43780348453542</v>
@@ -19596,13 +19596,13 @@
         <v>0.1489701160425919</v>
       </c>
       <c r="CE65" t="n">
-        <v>-1.220086220094646e-05</v>
+        <v>-1.220086220097422e-05</v>
       </c>
       <c r="CF65" t="n">
-        <v>-0.0001103106822172182</v>
+        <v>-0.000110310682217246</v>
       </c>
       <c r="CG65" t="n">
-        <v>-0.0001134669313370452</v>
+        <v>-0.000113466931337073</v>
       </c>
       <c r="CH65" t="n">
         <v>8.639820847862554e-05</v>
@@ -19808,13 +19808,13 @@
         </is>
       </c>
       <c r="BD66" t="n">
-        <v>0.1157173697578568</v>
+        <v>0.1139618768609145</v>
       </c>
       <c r="BE66" t="n">
         <v>0.01770129334354266</v>
       </c>
       <c r="BF66" t="n">
-        <v>0.1159222041136429</v>
+        <v>0.1141636037726117</v>
       </c>
       <c r="BG66" t="n">
         <v>0.01773262686785445</v>
@@ -19844,13 +19844,13 @@
         <v>0.6639089438746333</v>
       </c>
       <c r="BP66" t="n">
-        <v>-0.6358848425378606</v>
+        <v>-0.6358848425378756</v>
       </c>
       <c r="BQ66" t="n">
-        <v>-0.5090978233003719</v>
+        <v>-0.5090978233004018</v>
       </c>
       <c r="BR66" t="n">
-        <v>0.1267870192374887</v>
+        <v>0.1267870192374738</v>
       </c>
       <c r="BS66" t="n">
         <v>-12.88430958042782</v>
@@ -19889,13 +19889,13 @@
         <v>0.1601889632318972</v>
       </c>
       <c r="CE66" t="n">
-        <v>1.27672367871319e-05</v>
+        <v>1.276723678714578e-05</v>
       </c>
       <c r="CF66" t="n">
-        <v>-0.000101896378680591</v>
+        <v>-0.0001018963786805771</v>
       </c>
       <c r="CG66" t="n">
-        <v>-0.0001045730308713013</v>
+        <v>-0.0001045730308712875</v>
       </c>
       <c r="CH66" t="n">
         <v>0.0001059408187927457</v>
@@ -20101,13 +20101,13 @@
         </is>
       </c>
       <c r="BD67" t="n">
-        <v>0.1097312722576723</v>
+        <v>0.1079757793607299</v>
       </c>
       <c r="BE67" t="n">
         <v>0.01910850669242118</v>
       </c>
       <c r="BF67" t="n">
-        <v>0.1099255104650349</v>
+        <v>0.1081669101240037</v>
       </c>
       <c r="BG67" t="n">
         <v>0.01914233116204546</v>
@@ -20137,13 +20137,13 @@
         <v>0.6145814036963209</v>
       </c>
       <c r="BP67" t="n">
-        <v>-0.6110247618251508</v>
+        <v>-0.6110247618251794</v>
       </c>
       <c r="BQ67" t="n">
-        <v>-0.5043958024742971</v>
+        <v>-0.5043958024742252</v>
       </c>
       <c r="BR67" t="n">
-        <v>0.1066289593508537</v>
+        <v>0.1066289593509542</v>
       </c>
       <c r="BS67" t="n">
         <v>-13.33750614533276</v>
@@ -20182,13 +20182,13 @@
         <v>0.1723798134490396</v>
       </c>
       <c r="CE67" t="n">
-        <v>1.204777277519567e-06</v>
+        <v>1.204777277547323e-06</v>
       </c>
       <c r="CF67" t="n">
-        <v>-0.0001309669874294981</v>
+        <v>-0.0001309669874294704</v>
       </c>
       <c r="CG67" t="n">
-        <v>-0.0001329907984819814</v>
+        <v>-0.0001329907984819537</v>
       </c>
       <c r="CH67" t="n">
         <v>0.0001026724132128568</v>
@@ -20394,13 +20394,13 @@
         </is>
       </c>
       <c r="BD68" t="n">
-        <v>0.1038488683971429</v>
+        <v>0.1020933755002006</v>
       </c>
       <c r="BE68" t="n">
         <v>0.02061941368095477</v>
       </c>
       <c r="BF68" t="n">
-        <v>0.1040326940069174</v>
+        <v>0.1022740936658862</v>
       </c>
       <c r="BG68" t="n">
         <v>0.02065591264672683</v>
@@ -20430,13 +20430,13 @@
         <v>0.5643690249316767</v>
       </c>
       <c r="BP68" t="n">
-        <v>-0.6087795915721915</v>
+        <v>-0.6087795915721225</v>
       </c>
       <c r="BQ68" t="n">
-        <v>-0.5207692961800077</v>
+        <v>-0.5207692961800215</v>
       </c>
       <c r="BR68" t="n">
-        <v>0.08801029539218386</v>
+        <v>0.08801029539210092</v>
       </c>
       <c r="BS68" t="n">
         <v>-13.80060446936117</v>
@@ -20475,13 +20475,13 @@
         <v>0.1854921908378898</v>
       </c>
       <c r="CE68" t="n">
-        <v>1.186879705937158e-05</v>
+        <v>1.186879705930219e-05</v>
       </c>
       <c r="CF68" t="n">
-        <v>-0.000138593635643525</v>
+        <v>-0.0001385936356435944</v>
       </c>
       <c r="CG68" t="n">
-        <v>-0.0001397525040543104</v>
+        <v>-0.0001397525040543798</v>
       </c>
       <c r="CH68" t="n">
         <v>7.716394281627242e-05</v>
@@ -20687,13 +20687,13 @@
         </is>
       </c>
       <c r="BD69" t="n">
-        <v>0.09805533995577509</v>
+        <v>0.09629984705883277</v>
       </c>
       <c r="BE69" t="n">
         <v>0.02221919608864999</v>
       </c>
       <c r="BF69" t="n">
-        <v>0.09822891028867543</v>
+        <v>0.09647030994764424</v>
       </c>
       <c r="BG69" t="n">
         <v>0.0222585268712838</v>
@@ -20723,13 +20723,13 @@
         <v>0.5135566567454812</v>
       </c>
       <c r="BP69" t="n">
-        <v>-0.6263019531363792</v>
+        <v>-0.6263019531363925</v>
       </c>
       <c r="BQ69" t="n">
-        <v>-0.4705634419976828</v>
+        <v>-0.4705634419975377</v>
       </c>
       <c r="BR69" t="n">
-        <v>0.1557385111386964</v>
+        <v>0.1557385111388548</v>
       </c>
       <c r="BS69" t="n">
         <v>-14.27798486834434</v>
@@ -20768,13 +20768,13 @@
         <v>0.1994998258906545</v>
       </c>
       <c r="CE69" t="n">
-        <v>4.431804137060898e-05</v>
+        <v>4.431804137062286e-05</v>
       </c>
       <c r="CF69" t="n">
-        <v>-0.000125001416737134</v>
+        <v>-0.0001250014167371201</v>
       </c>
       <c r="CG69" t="n">
-        <v>-0.0001250391244916925</v>
+        <v>-0.0001250391244916787</v>
       </c>
       <c r="CH69" t="n">
         <v>0.0001189097805284246</v>
@@ -20980,13 +20980,13 @@
         </is>
       </c>
       <c r="BD70" t="n">
-        <v>0.09242475091299684</v>
+        <v>0.09066925801605466</v>
       </c>
       <c r="BE70" t="n">
         <v>0.02398191789493482</v>
       </c>
       <c r="BF70" t="n">
-        <v>0.09258835439233244</v>
+        <v>0.09082975405130141</v>
       </c>
       <c r="BG70" t="n">
         <v>0.0240243689177398</v>
@@ -21016,13 +21016,13 @@
         <v>0.4611055048889961</v>
       </c>
       <c r="BP70" t="n">
-        <v>-0.5817938067373485</v>
+        <v>-0.5817938067372082</v>
       </c>
       <c r="BQ70" t="n">
-        <v>-0.485952882127923</v>
+        <v>-0.4859528821279996</v>
       </c>
       <c r="BR70" t="n">
-        <v>0.09584092460942545</v>
+        <v>0.09584092460920851</v>
       </c>
       <c r="BS70" t="n">
         <v>-14.75293720952263</v>
@@ -21061,13 +21061,13 @@
         <v>0.214771201496039</v>
       </c>
       <c r="CE70" t="n">
-        <v>1.2033697648451e-05</v>
+        <v>1.203369764829834e-05</v>
       </c>
       <c r="CF70" t="n">
-        <v>-0.0001765515546226009</v>
+        <v>-0.0001765515546227536</v>
       </c>
       <c r="CG70" t="n">
-        <v>-0.0001751610615231564</v>
+        <v>-0.0001751610615233091</v>
       </c>
       <c r="CH70" t="n">
         <v>9.1841228587836e-05</v>
@@ -21273,13 +21273,13 @@
         </is>
       </c>
       <c r="BD71" t="n">
-        <v>0.08689785324962052</v>
+        <v>0.08514236035267825</v>
       </c>
       <c r="BE71" t="n">
         <v>0.02584833108062146</v>
       </c>
       <c r="BF71" t="n">
-        <v>0.08705167342222574</v>
+        <v>0.08529307308119462</v>
       </c>
       <c r="BG71" t="n">
         <v>0.02589408589043197</v>
@@ -21309,13 +21309,13 @@
         <v>0.4079817159134489</v>
       </c>
       <c r="BP71" t="n">
-        <v>-0.5986432085911894</v>
+        <v>-0.5986432085912636</v>
       </c>
       <c r="BQ71" t="n">
-        <v>-0.4924565267624486</v>
+        <v>-0.4924565267625479</v>
       </c>
       <c r="BR71" t="n">
-        <v>0.1061866818287407</v>
+        <v>0.1061866818287157</v>
       </c>
       <c r="BS71" t="n">
         <v>-15.24008185928771</v>
@@ -21354,13 +21354,13 @@
         <v>0.2310871535381261</v>
       </c>
       <c r="CE71" t="n">
-        <v>4.648731796163142e-05</v>
+        <v>4.648731796171469e-05</v>
       </c>
       <c r="CF71" t="n">
-        <v>-0.0001613768945462951</v>
+        <v>-0.0001613768945462118</v>
       </c>
       <c r="CG71" t="n">
-        <v>-0.000158193554120209</v>
+        <v>-0.0001581935541201257</v>
       </c>
       <c r="CH71" t="n">
         <v>7.222300187243965e-05</v>
@@ -21566,13 +21566,13 @@
         </is>
       </c>
       <c r="BD72" t="n">
-        <v>0.08148945614512648</v>
+        <v>0.0797339632481841</v>
       </c>
       <c r="BE72" t="n">
         <v>0.02783324482519025</v>
       </c>
       <c r="BF72" t="n">
-        <v>0.0816337027719533</v>
+        <v>0.07987510243092207</v>
       </c>
       <c r="BG72" t="n">
         <v>0.02788251318295826</v>
@@ -21602,13 +21602,13 @@
         <v>0.3539801519051997</v>
       </c>
       <c r="BP72" t="n">
-        <v>-0.6074347408830798</v>
+        <v>-0.6074347408831764</v>
       </c>
       <c r="BQ72" t="n">
-        <v>-0.4655177071027963</v>
+        <v>-0.4655177071027363</v>
       </c>
       <c r="BR72" t="n">
-        <v>0.1419170337802835</v>
+        <v>0.1419170337804401</v>
       </c>
       <c r="BS72" t="n">
         <v>-15.73718529206312</v>
@@ -21647,13 +21647,13 @@
         <v>0.2485704745018652</v>
       </c>
       <c r="CE72" t="n">
-        <v>7.397400297080858e-05</v>
+        <v>7.397400297091961e-05</v>
       </c>
       <c r="CF72" t="n">
-        <v>-0.0001528197072902101</v>
+        <v>-0.0001528197072900991</v>
       </c>
       <c r="CG72" t="n">
-        <v>-0.0001474154415352586</v>
+        <v>-0.0001474154415351476</v>
       </c>
       <c r="CH72" t="n">
         <v>8.925381892802096e-05</v>
@@ -21859,13 +21859,13 @@
         </is>
       </c>
       <c r="BD73" t="n">
-        <v>0.07624399843922169</v>
+        <v>0.0744885055422794</v>
       </c>
       <c r="BE73" t="n">
         <v>0.02998109796834861</v>
       </c>
       <c r="BF73" t="n">
-        <v>0.07637895994357952</v>
+        <v>0.07462035960254836</v>
       </c>
       <c r="BG73" t="n">
         <v>0.03003416829738353</v>
@@ -21895,13 +21895,13 @@
         <v>0.2986630836720783</v>
       </c>
       <c r="BP73" t="n">
-        <v>-0.5847017918012423</v>
+        <v>-0.5847017918011836</v>
       </c>
       <c r="BQ73" t="n">
-        <v>-0.44639823775673</v>
+        <v>-0.4463982377568122</v>
       </c>
       <c r="BR73" t="n">
-        <v>0.1383035540445123</v>
+        <v>0.1383035540443714</v>
       </c>
       <c r="BS73" t="n">
         <v>-16.23228621866278</v>
@@ -21940,13 +21940,13 @@
         <v>0.2674351676165361</v>
       </c>
       <c r="CE73" t="n">
-        <v>6.590758007578128e-05</v>
+        <v>6.590758007571189e-05</v>
       </c>
       <c r="CF73" t="n">
-        <v>-0.0001790461943927124</v>
+        <v>-0.0001790461943927818</v>
       </c>
       <c r="CG73" t="n">
-        <v>-0.0001709238391579722</v>
+        <v>-0.0001709238391580416</v>
       </c>
       <c r="CH73" t="n">
         <v>9.732703458609562e-05</v>
@@ -22152,13 +22152,13 @@
         </is>
       </c>
       <c r="BD74" t="n">
-        <v>0.07116148691266677</v>
+        <v>0.06940599401572436</v>
       </c>
       <c r="BE74" t="n">
         <v>0.03229189729085651</v>
       </c>
       <c r="BF74" t="n">
-        <v>0.07128745172986781</v>
+        <v>0.06952885138883655</v>
       </c>
       <c r="BG74" t="n">
         <v>0.03234905802647055</v>
@@ -22188,13 +22188,13 @@
         <v>0.242154841168131</v>
       </c>
       <c r="BP74" t="n">
-        <v>-0.5692805617632296</v>
+        <v>-0.5692805617633099</v>
       </c>
       <c r="BQ74" t="n">
-        <v>-0.4587044721960072</v>
+        <v>-0.4587044721958349</v>
       </c>
       <c r="BR74" t="n">
-        <v>0.1105760895672224</v>
+        <v>0.1105760895674749</v>
       </c>
       <c r="BS74" t="n">
         <v>-16.72513061616432</v>
@@ -22233,13 +22233,13 @@
         <v>0.2877137820780927</v>
       </c>
       <c r="CE74" t="n">
-        <v>6.642536267732237e-05</v>
+        <v>6.642536267741951e-05</v>
       </c>
       <c r="CF74" t="n">
-        <v>-0.0001953744217463322</v>
+        <v>-0.0001953744217462351</v>
       </c>
       <c r="CG74" t="n">
-        <v>-0.0001839669653890767</v>
+        <v>-0.0001839669653889795</v>
       </c>
       <c r="CH74" t="n">
         <v>6.712035075455815e-05</v>
@@ -22445,13 +22445,13 @@
         </is>
       </c>
       <c r="BD75" t="n">
-        <v>0.06621228512447386</v>
+        <v>0.06445679222753167</v>
       </c>
       <c r="BE75" t="n">
         <v>0.03473600635172688</v>
       </c>
       <c r="BF75" t="n">
-        <v>0.06632948922958767</v>
+        <v>0.06457088888855662</v>
       </c>
       <c r="BG75" t="n">
         <v>0.03479749346898961</v>
@@ -22481,13 +22481,13 @@
         <v>0.1847248812546087</v>
       </c>
       <c r="BP75" t="n">
-        <v>-0.5840319914996405</v>
+        <v>-0.5840319914994716</v>
       </c>
       <c r="BQ75" t="n">
-        <v>-0.4515410908900044</v>
+        <v>-0.4515410908900778</v>
       </c>
       <c r="BR75" t="n">
-        <v>0.1324909006096361</v>
+        <v>0.1324909006093938</v>
       </c>
       <c r="BS75" t="n">
         <v>-17.22553378363391</v>
@@ -22526,13 +22526,13 @@
         <v>0.3093744220231238</v>
       </c>
       <c r="CE75" t="n">
-        <v>0.0001043005656556047</v>
+        <v>0.0001043005656553965</v>
       </c>
       <c r="CF75" t="n">
-        <v>-0.0001724105301371152</v>
+        <v>-0.0001724105301373234</v>
       </c>
       <c r="CG75" t="n">
-        <v>-0.0001570853596921445</v>
+        <v>-0.0001570853596923527</v>
       </c>
       <c r="CH75" t="n">
         <v>5.89317847521113e-05</v>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="BD76" t="n">
-        <v>0.06142602725537749</v>
+        <v>0.05967053435843521</v>
       </c>
       <c r="BE76" t="n">
         <v>0.03734305933169346</v>
       </c>
       <c r="BF76" t="n">
-        <v>0.06153475907971536</v>
+        <v>0.05977615873868422</v>
       </c>
       <c r="BG76" t="n">
         <v>0.03740916126191615</v>
@@ -22774,13 +22774,13 @@
         <v>0.1261364992790055</v>
       </c>
       <c r="BP76" t="n">
-        <v>-0.5803205364417701</v>
+        <v>-0.5803205364418422</v>
       </c>
       <c r="BQ76" t="n">
-        <v>-0.3730375871354421</v>
+        <v>-0.3730375871354473</v>
       </c>
       <c r="BR76" t="n">
-        <v>0.207282949306328</v>
+        <v>0.207282949306395</v>
       </c>
       <c r="BS76" t="n">
         <v>-17.72469805334677</v>
@@ -22819,13 +22819,13 @@
         <v>0.3325575952114292</v>
       </c>
       <c r="CE76" t="n">
-        <v>0.0001204942603980587</v>
+        <v>0.0001204942603981489</v>
       </c>
       <c r="CF76" t="n">
-        <v>-0.0001685452052625214</v>
+        <v>-0.0001685452052624312</v>
       </c>
       <c r="CG76" t="n">
-        <v>-0.0001486139038905472</v>
+        <v>-0.000148613903890457</v>
       </c>
       <c r="CH76" t="n">
         <v>0.0002783747891134053</v>
@@ -23031,13 +23031,13 @@
         </is>
       </c>
       <c r="BD77" t="n">
-        <v>0.05237195711292719</v>
+        <v>0.0506164642159849</v>
       </c>
       <c r="BE77" t="n">
         <v>0.04307561088736914</v>
       </c>
       <c r="BF77" t="n">
-        <v>0.05246466208988034</v>
+        <v>0.05070606174884919</v>
       </c>
       <c r="BG77" t="n">
         <v>0.04315186015767893</v>
@@ -23067,13 +23067,13 @@
         <v>0.005362208044349323</v>
       </c>
       <c r="BP77" t="n">
-        <v>-0.6416814697365698</v>
+        <v>-0.6416814697365749</v>
       </c>
       <c r="BQ77" t="n">
-        <v>-0.427530883442599</v>
+        <v>-0.4275308834426695</v>
       </c>
       <c r="BR77" t="n">
-        <v>0.2141505862939708</v>
+        <v>0.2141505862939054</v>
       </c>
       <c r="BS77" t="n">
         <v>-18.70971681389241</v>
@@ -23112,13 +23112,13 @@
         <v>0.3836990298972325</v>
       </c>
       <c r="CE77" t="n">
-        <v>0.0004845660137893261</v>
+        <v>0.00048456601378934</v>
       </c>
       <c r="CF77" t="n">
-        <v>-0.0001216526815113837</v>
+        <v>-0.0001216526815113698</v>
       </c>
       <c r="CG77" t="n">
-        <v>-5.904348439319217e-05</v>
+        <v>-5.904348439317829e-05</v>
       </c>
       <c r="CH77" t="n">
         <v>3.223857016659924e-05</v>
@@ -23324,13 +23324,13 @@
         </is>
       </c>
       <c r="BD78" t="n">
-        <v>0.04811895853956039</v>
+        <v>0.046363465642618</v>
       </c>
       <c r="BE78" t="n">
         <v>0.04621592316306518</v>
       </c>
       <c r="BF78" t="n">
-        <v>0.04820413517202422</v>
+        <v>0.04644553483099297</v>
       </c>
       <c r="BG78" t="n">
         <v>0.04629773118262156</v>
@@ -23360,13 +23360,13 @@
         <v>-0.05688363042355447</v>
       </c>
       <c r="BP78" t="n">
-        <v>-0.5673615455534705</v>
+        <v>-0.5673615455535407</v>
       </c>
       <c r="BQ78" t="n">
-        <v>-1.768331948703781</v>
+        <v>-0.4044481973963727</v>
       </c>
       <c r="BR78" t="n">
-        <v>-1.200970403150311</v>
+        <v>0.162913348157168</v>
       </c>
       <c r="BS78" t="n">
         <v>-19.18975853625868</v>
@@ -23378,7 +23378,7 @@
         <v>-18.97654560283196</v>
       </c>
       <c r="BV78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW78" t="n">
         <v>1</v>
@@ -23405,25 +23405,25 @@
         <v>0.4117015695926074</v>
       </c>
       <c r="CE78" t="n">
-        <v>0.0001687906400342724</v>
+        <v>0.0001687906400343626</v>
       </c>
       <c r="CF78" t="n">
-        <v>-0.000134656026277935</v>
+        <v>-0.0001346560262778448</v>
       </c>
       <c r="CG78" t="n">
-        <v>-9.664536686497874e-05</v>
+        <v>-9.664536686488853e-05</v>
       </c>
       <c r="CH78" t="n">
-        <v>-0.001717329478864093</v>
+        <v>4.127086216705426e-05</v>
       </c>
       <c r="CI78" t="n">
-        <v>-0.001413882812551885</v>
+        <v>0.0003447175284792617</v>
       </c>
       <c r="CJ78" t="n">
-        <v>-0.001451893471964841</v>
+        <v>0.0003067068690663054</v>
       </c>
       <c r="CK78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL78" t="n">
         <v>1</v>
@@ -23620,13 +23620,13 @@
         <v>0.04232015739310228</v>
       </c>
       <c r="BE79" t="n">
-        <v>0.0478104328656701</v>
+        <v>0.04956592576261239</v>
       </c>
       <c r="BF79" t="n">
         <v>0.04239506941533817</v>
       </c>
       <c r="BG79" t="n">
-        <v>0.04789506336873446</v>
+        <v>0.04965366370976561</v>
       </c>
       <c r="BH79" t="n">
         <v>-0.4512843486150843</v>
@@ -23653,13 +23653,13 @@
         <v>-0.1203999161913897</v>
       </c>
       <c r="BP79" t="n">
-        <v>-1.909686298115149</v>
+        <v>-0.5481871350968122</v>
       </c>
       <c r="BQ79" t="n">
         <v>-0.3878058719320219</v>
       </c>
       <c r="BR79" t="n">
-        <v>1.521880426183127</v>
+        <v>0.1603812631647902</v>
       </c>
       <c r="BS79" t="n">
         <v>-19.64903192151495</v>
@@ -23674,10 +23674,10 @@
         <v>0</v>
       </c>
       <c r="BW79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY79" t="n">
         <v>0.5245153790668651</v>
@@ -23698,31 +23698,31 @@
         <v>0.4412910660178607</v>
       </c>
       <c r="CE79" t="n">
-        <v>0.001924296132198855</v>
+        <v>0.000165695791167611</v>
       </c>
       <c r="CF79" t="n">
-        <v>0.001625797668527802</v>
+        <v>-0.0001328026725034423</v>
       </c>
       <c r="CG79" t="n">
-        <v>0.001671045057417389</v>
+        <v>-8.755528361385507e-05</v>
       </c>
       <c r="CH79" t="n">
-        <v>4.146301712072264e-05</v>
+        <v>4.146301712085448e-05</v>
       </c>
       <c r="CI79" t="n">
-        <v>0.0003399614807917807</v>
+        <v>0.0003399614807919125</v>
       </c>
       <c r="CJ79" t="n">
-        <v>0.0002947140919021931</v>
+        <v>0.0002947140919023249</v>
       </c>
       <c r="CK79" t="n">
         <v>0</v>
       </c>
       <c r="CL79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -23913,13 +23913,13 @@
         <v>0.03848364190258039</v>
       </c>
       <c r="BE80" t="n">
-        <v>0.05136722822421114</v>
+        <v>0.05312272112115356</v>
       </c>
       <c r="BF80" t="n">
         <v>0.03855176280797178</v>
       </c>
       <c r="BG80" t="n">
-        <v>0.0514581547041669</v>
+        <v>0.05321675504519818</v>
       </c>
       <c r="BH80" t="n">
         <v>-0.4258055197131634</v>
@@ -24000,13 +24000,13 @@
         <v>-6.467892001351533e-05</v>
       </c>
       <c r="CH80" t="n">
-        <v>2.254506463648985e-05</v>
+        <v>2.254506463633026e-05</v>
       </c>
       <c r="CI80" t="n">
-        <v>0.0003103893926557403</v>
+        <v>0.0003103893926555807</v>
       </c>
       <c r="CJ80" t="n">
-        <v>0.0002575911146341712</v>
+        <v>0.0002575911146340116</v>
       </c>
       <c r="CK80" t="n">
         <v>0</v>
@@ -24206,13 +24206,13 @@
         <v>0.03483969773112879</v>
       </c>
       <c r="BE81" t="n">
-        <v>0.05511659490182275</v>
+        <v>0.05687208779876501</v>
       </c>
       <c r="BF81" t="n">
         <v>0.03490136839522589</v>
       </c>
       <c r="BG81" t="n">
-        <v>0.05521415823422012</v>
+        <v>0.05697275857525124</v>
       </c>
       <c r="BH81" t="n">
         <v>-0.4001461731458485</v>
@@ -24293,13 +24293,13 @@
         <v>-1.779391753808099e-05</v>
       </c>
       <c r="CH81" t="n">
-        <v>2.941533313327929e-05</v>
+        <v>2.94153331332446e-05</v>
       </c>
       <c r="CI81" t="n">
-        <v>0.0003007278659233345</v>
+        <v>0.0003007278659232998</v>
       </c>
       <c r="CJ81" t="n">
-        <v>0.0002403746350997165</v>
+        <v>0.0002403746350996818</v>
       </c>
       <c r="CK81" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>0.03141794097745433</v>
       </c>
       <c r="BE82" t="n">
-        <v>0.05908814899721138</v>
+        <v>0.0608436418941536</v>
       </c>
       <c r="BF82" t="n">
         <v>0.03147355470004159</v>
       </c>
       <c r="BG82" t="n">
-        <v>0.05919274248183482</v>
+        <v>0.06095134282286591</v>
       </c>
       <c r="BH82" t="n">
         <v>-0.3744596697847071</v>
@@ -24586,13 +24586,13 @@
         <v>7.231425272878015e-06</v>
       </c>
       <c r="CH82" t="n">
-        <v>3.380969761042959e-05</v>
+        <v>3.380969761054755e-05</v>
       </c>
       <c r="CI82" t="n">
-        <v>0.0002828756919747684</v>
+        <v>0.0002828756919748864</v>
       </c>
       <c r="CJ82" t="n">
-        <v>0.0002153560850513955</v>
+        <v>0.0002153560850515135</v>
       </c>
       <c r="CK82" t="n">
         <v>0</v>
@@ -24792,13 +24792,13 @@
         <v>0.02821837842231711</v>
       </c>
       <c r="BE83" t="n">
-        <v>0.06328189729113687</v>
+        <v>0.06503739018807921</v>
       </c>
       <c r="BF83" t="n">
         <v>0.0282683285151818</v>
       </c>
       <c r="BG83" t="n">
-        <v>0.06339391423977364</v>
+        <v>0.06515251458080484</v>
       </c>
       <c r="BH83" t="n">
         <v>-0.3489019773391878</v>
@@ -24879,13 +24879,13 @@
         <v>3.758285894690447e-05</v>
       </c>
       <c r="CH83" t="n">
-        <v>0.0002673013214764645</v>
+        <v>0.0002673013214765617</v>
       </c>
       <c r="CI83" t="n">
-        <v>0.0007106131020843728</v>
+        <v>0.0007106131020844699</v>
       </c>
       <c r="CJ83" t="n">
-        <v>0.0005629079118503501</v>
+        <v>0.0005629079118504472</v>
       </c>
       <c r="CK83" t="n">
         <v>0</v>
@@ -25085,13 +25085,13 @@
         <v>0.02245619946666759</v>
       </c>
       <c r="BE84" t="n">
-        <v>0.07230634003361336</v>
+        <v>0.07406183293055579</v>
       </c>
       <c r="BF84" t="n">
         <v>0.02249594977520626</v>
       </c>
       <c r="BG84" t="n">
-        <v>0.07243433138539593</v>
+        <v>0.07419293172642723</v>
       </c>
       <c r="BH84" t="n">
         <v>-0.2987103348442279</v>
@@ -25172,13 +25172,13 @@
         <v>0.0004580705432919415</v>
       </c>
       <c r="CH84" t="n">
-        <v>1.678465634061266e-05</v>
+        <v>1.678465634048776e-05</v>
       </c>
       <c r="CI84" t="n">
-        <v>0.000172295329993335</v>
+        <v>0.0001722953299932101</v>
       </c>
       <c r="CJ84" t="n">
-        <v>9.000380748033256e-05</v>
+        <v>9.000380748020766e-05</v>
       </c>
       <c r="CK84" t="n">
         <v>0</v>
@@ -25378,13 +25378,13 @@
         <v>0.01989358532640852</v>
       </c>
       <c r="BE85" t="n">
-        <v>0.07713703674241745</v>
+        <v>0.07889252963935978</v>
       </c>
       <c r="BF85" t="n">
         <v>0.01992879948434468</v>
       </c>
       <c r="BG85" t="n">
-        <v>0.07727357903733342</v>
+        <v>0.0790321793783646</v>
       </c>
       <c r="BH85" t="n">
         <v>-0.2743771397428549</v>
@@ -25465,13 +25465,13 @@
         <v>0.0001609047196441584</v>
       </c>
       <c r="CH85" t="n">
-        <v>4.059936821123288e-05</v>
+        <v>4.05993682110941e-05</v>
       </c>
       <c r="CI85" t="n">
-        <v>0.0001602816005387316</v>
+        <v>0.0001602816005385928</v>
       </c>
       <c r="CJ85" t="n">
-        <v>7.652044853257139e-05</v>
+        <v>7.652044853243261e-05</v>
       </c>
       <c r="CK85" t="n">
         <v>0</v>
@@ -25671,13 +25671,13 @@
         <v>0.01756797682442032</v>
       </c>
       <c r="BE86" t="n">
-        <v>0.08220473908949222</v>
+        <v>0.0839602319864344</v>
       </c>
       <c r="BF86" t="n">
         <v>0.01759907436165975</v>
       </c>
       <c r="BG86" t="n">
-        <v>0.08235025185744738</v>
+        <v>0.08410885219847841</v>
       </c>
       <c r="BH86" t="n">
         <v>-0.2508924671376894</v>
@@ -25758,13 +25758,13 @@
         <v>0.0001658661458548739</v>
       </c>
       <c r="CH86" t="n">
-        <v>1.118848983048051e-05</v>
+        <v>1.118848983059154e-05</v>
       </c>
       <c r="CI86" t="n">
-        <v>9.546088939566162e-05</v>
+        <v>9.546088939577264e-05</v>
       </c>
       <c r="CJ86" t="n">
-        <v>1.220159815047261e-05</v>
+        <v>1.220159815058363e-05</v>
       </c>
       <c r="CK86" t="n">
         <v>0</v>
@@ -25964,13 +25964,13 @@
         <v>0.01542012142100863</v>
       </c>
       <c r="BE87" t="n">
-        <v>0.08745019453514347</v>
+        <v>0.08920568743208576</v>
       </c>
       <c r="BF87" t="n">
         <v>0.01544741698298022</v>
       </c>
       <c r="BG87" t="n">
-        <v>0.08760499242156669</v>
+        <v>0.08936359276259784</v>
       </c>
       <c r="BH87" t="n">
         <v>-0.2281360920272998</v>
@@ -26051,13 +26051,13 @@
         <v>0.0002207209101496904</v>
       </c>
       <c r="CH87" t="n">
-        <v>3.185557926802928e-05</v>
+        <v>3.18555792680154e-05</v>
       </c>
       <c r="CI87" t="n">
-        <v>8.27159247212151e-05</v>
+        <v>8.271592472120122e-05</v>
       </c>
       <c r="CJ87" t="n">
-        <v>1.864335920618437e-06</v>
+        <v>1.86433592060456e-06</v>
       </c>
       <c r="CK87" t="n">
         <v>0</v>
@@ -26257,13 +26257,13 @@
         <v>0.01349445795588092</v>
       </c>
       <c r="BE88" t="n">
-        <v>0.09291784191907881</v>
+        <v>0.0946733348160211</v>
       </c>
       <c r="BF88" t="n">
         <v>0.01351834485037099</v>
       </c>
       <c r="BG88" t="n">
-        <v>0.09308231823175643</v>
+        <v>0.09484091857278756</v>
       </c>
       <c r="BH88" t="n">
         <v>-0.2065089021518163</v>
@@ -26344,13 +26344,13 @@
         <v>0.0002168693755931275</v>
       </c>
       <c r="CH88" t="n">
-        <v>1.718244712729539e-05</v>
+        <v>1.718244712743417e-05</v>
       </c>
       <c r="CI88" t="n">
-        <v>3.805584604927529e-05</v>
+        <v>3.805584604941407e-05</v>
       </c>
       <c r="CJ88" t="n">
-        <v>-3.880163158786337e-05</v>
+        <v>-3.880163158772459e-05</v>
       </c>
       <c r="CK88" t="n">
         <v>0</v>
@@ -26550,13 +26550,13 @@
         <v>0.01174654758932972</v>
       </c>
       <c r="BE89" t="n">
-        <v>0.09856324240159053</v>
+        <v>0.100318735298533</v>
       </c>
       <c r="BF89" t="n">
         <v>0.01176734046176715</v>
       </c>
       <c r="BG89" t="n">
-        <v>0.09873771178595142</v>
+        <v>0.1004963121269827</v>
       </c>
       <c r="BH89" t="n">
         <v>-0.1859086776804743</v>
@@ -26637,13 +26637,13 @@
         <v>0.0002431484658891479</v>
       </c>
       <c r="CH89" t="n">
-        <v>7.058364371206622e-05</v>
+        <v>7.058364371196908e-05</v>
       </c>
       <c r="CI89" t="n">
-        <v>6.588558986859137e-05</v>
+        <v>6.588558986849423e-05</v>
       </c>
       <c r="CJ89" t="n">
-        <v>-5.723297712379068e-06</v>
+        <v>-5.723297712476212e-06</v>
       </c>
       <c r="CK89" t="n">
         <v>0</v>
@@ -26843,13 +26843,13 @@
         <v>0.0102356428610494</v>
       </c>
       <c r="BE90" t="n">
-        <v>0.1044456485223734</v>
+        <v>0.1062011414193157</v>
       </c>
       <c r="BF90" t="n">
         <v>0.01025376124133998</v>
       </c>
       <c r="BG90" t="n">
-        <v>0.1046305305083233</v>
+        <v>0.1063891308493545</v>
       </c>
       <c r="BH90" t="n">
         <v>-0.1669399712448978</v>
@@ -26930,13 +26930,13 @@
         <v>0.000190456387631069</v>
       </c>
       <c r="CH90" t="n">
-        <v>1.921125986101193e-05</v>
+        <v>1.921125986094254e-05</v>
       </c>
       <c r="CI90" t="n">
-        <v>-6.094974143017878e-06</v>
+        <v>-6.094974143087267e-06</v>
       </c>
       <c r="CJ90" t="n">
-        <v>-7.174380354271846e-05</v>
+        <v>-7.174380354278784e-05</v>
       </c>
       <c r="CK90" t="n">
         <v>0</v>
@@ -27136,13 +27136,13 @@
         <v>0.008843240951904511</v>
       </c>
       <c r="BE91" t="n">
-        <v>0.1104465574622914</v>
+        <v>0.1122020503592336</v>
       </c>
       <c r="BF91" t="n">
         <v>0.008858894605001142</v>
       </c>
       <c r="BG91" t="n">
-        <v>0.1106420618147833</v>
+        <v>0.1124006621558144</v>
       </c>
       <c r="BH91" t="n">
         <v>-0.1488636579956968</v>
@@ -27223,13 +27223,13 @@
         <v>0.0002425816351788862</v>
       </c>
       <c r="CH91" t="n">
-        <v>6.510608554767972e-05</v>
+        <v>6.510608554774911e-05</v>
       </c>
       <c r="CI91" t="n">
-        <v>2.43409985270053e-05</v>
+        <v>2.434099852707469e-05</v>
       </c>
       <c r="CJ91" t="n">
-        <v>-3.483857546919978e-05</v>
+        <v>-3.483857546913039e-05</v>
       </c>
       <c r="CK91" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0.007658215020803417</v>
       </c>
       <c r="BE92" t="n">
-        <v>0.1166548423802533</v>
+        <v>0.1184103352771956</v>
       </c>
       <c r="BF92" t="n">
         <v>0.007671771028372028</v>
       </c>
       <c r="BG92" t="n">
-        <v>0.116861336180953</v>
+        <v>0.1186199365219842</v>
       </c>
       <c r="BH92" t="n">
         <v>-0.1325425402434759</v>
@@ -27516,13 +27516,13 @@
         <v>0.0001854847541182664</v>
       </c>
       <c r="CH92" t="n">
-        <v>3.740626901114086e-05</v>
+        <v>3.740626901111311e-05</v>
       </c>
       <c r="CI92" t="n">
-        <v>-1.401357546421383e-05</v>
+        <v>-1.401357546424158e-05</v>
       </c>
       <c r="CJ92" t="n">
-        <v>-6.676990577570135e-05</v>
+        <v>-6.67699057757291e-05</v>
       </c>
       <c r="CK92" t="n">
         <v>0</v>
@@ -27722,13 +27722,13 @@
         <v>0.006591694169091027</v>
       </c>
       <c r="BE93" t="n">
-        <v>0.122981632377604</v>
+        <v>0.1247371252745462</v>
       </c>
       <c r="BF93" t="n">
         <v>0.006603362300085447</v>
       </c>
       <c r="BG93" t="n">
-        <v>0.1231993253954655</v>
+        <v>0.1249579257364966</v>
       </c>
       <c r="BH93" t="n">
         <v>-0.117332692159843</v>
@@ -27809,13 +27809,13 @@
         <v>0.000202724208123948</v>
       </c>
       <c r="CH93" t="n">
-        <v>6.461632017080911e-05</v>
+        <v>6.461632017092014e-05</v>
       </c>
       <c r="CI93" t="n">
-        <v>6.971728077986503e-06</v>
+        <v>6.971728078097525e-06</v>
       </c>
       <c r="CJ93" t="n">
-        <v>-3.949638622501809e-05</v>
+        <v>-3.949638622490707e-05</v>
       </c>
       <c r="CK93" t="n">
         <v>0</v>
@@ -28015,13 +28015,13 @@
         <v>0.005688112715968254</v>
       </c>
       <c r="BE94" t="n">
-        <v>0.1294713617735441</v>
+        <v>0.1312268546704865</v>
       </c>
       <c r="BF94" t="n">
         <v>0.005698181393697896</v>
       </c>
       <c r="BG94" t="n">
-        <v>0.1297005424318768</v>
+        <v>0.131459142772908</v>
       </c>
       <c r="BH94" t="n">
         <v>-0.1037749691721232</v>
@@ -28102,13 +28102,13 @@
         <v>0.0001575009295889801</v>
       </c>
       <c r="CH94" t="n">
-        <v>0.0002133243649662161</v>
+        <v>0.0002133243649660495</v>
       </c>
       <c r="CI94" t="n">
-        <v>9.276016138693235e-05</v>
+        <v>9.276016138676582e-05</v>
       </c>
       <c r="CJ94" t="n">
-        <v>1.145916222397396e-05</v>
+        <v>1.145916222380743e-05</v>
       </c>
       <c r="CK94" t="n">
         <v>0</v>
@@ -28308,13 +28308,13 @@
         <v>0.004206833975003451</v>
       </c>
       <c r="BE95" t="n">
-        <v>0.1427767047307054</v>
+        <v>0.1445321976276476</v>
       </c>
       <c r="BF95" t="n">
         <v>0.004214280602324586</v>
       </c>
       <c r="BG95" t="n">
-        <v>0.1430294375261013</v>
+        <v>0.1447880378671324</v>
       </c>
       <c r="BH95" t="n">
         <v>-0.08036405053460928</v>
@@ -28395,13 +28395,13 @@
         <v>0.0003781036181837033</v>
       </c>
       <c r="CH95" t="n">
-        <v>4.721435192712228e-05</v>
+        <v>4.721435192720554e-05</v>
       </c>
       <c r="CI95" t="n">
-        <v>-1.016114551637918e-05</v>
+        <v>-1.016114551629591e-05</v>
       </c>
       <c r="CJ95" t="n">
-        <v>-4.066206959272949e-05</v>
+        <v>-4.066206959264622e-05</v>
       </c>
       <c r="CK95" t="n">
         <v>0</v>
@@ -28601,13 +28601,13 @@
         <v>0.003614322139579539</v>
       </c>
       <c r="BE96" t="n">
-        <v>0.1495775037443444</v>
+        <v>0.1513329966412867</v>
       </c>
       <c r="BF96" t="n">
         <v>0.00362071994613713</v>
       </c>
       <c r="BG96" t="n">
-        <v>0.1498422748127127</v>
+        <v>0.1516008751537439</v>
       </c>
       <c r="BH96" t="n">
         <v>-0.07048536651999393</v>
@@ -28688,13 +28688,13 @@
         <v>0.0001192458661371672</v>
       </c>
       <c r="CH96" t="n">
-        <v>6.414287388539081e-05</v>
+        <v>6.414287388530754e-05</v>
       </c>
       <c r="CI96" t="n">
-        <v>1.088263585121828e-05</v>
+        <v>1.088263585113502e-05</v>
       </c>
       <c r="CJ96" t="n">
-        <v>-1.537263809155576e-05</v>
+        <v>-1.537263809163903e-05</v>
       </c>
       <c r="CK96" t="n">
         <v>0</v>
@@ -28894,13 +28894,13 @@
         <v>0.003125499988367482</v>
       </c>
       <c r="BE97" t="n">
-        <v>0.1564819924421955</v>
+        <v>0.1582374853391377</v>
       </c>
       <c r="BF97" t="n">
         <v>0.003131032517995196</v>
       </c>
       <c r="BG97" t="n">
-        <v>0.1567589853273698</v>
+        <v>0.1585175856684009</v>
       </c>
       <c r="BH97" t="n">
         <v>-0.06198311239885847</v>
@@ -28981,13 +28981,13 @@
         <v>8.137604372291394e-05</v>
       </c>
       <c r="CH97" t="n">
-        <v>4.892523101862438e-05</v>
+        <v>4.89252310187354e-05</v>
       </c>
       <c r="CI97" t="n">
-        <v>5.986331952541335e-07</v>
+        <v>5.986331953651558e-07</v>
       </c>
       <c r="CJ97" t="n">
-        <v>-2.202017622655612e-05</v>
+        <v>-2.202017622644509e-05</v>
       </c>
       <c r="CK97" t="n">
         <v>0</v>
@@ -29187,13 +29187,13 @@
         <v>0.002695928822925635</v>
       </c>
       <c r="BE98" t="n">
-        <v>0.1634457321258164</v>
+        <v>0.1652012250227587</v>
       </c>
       <c r="BF98" t="n">
         <v>0.002700700957349746</v>
       </c>
       <c r="BG98" t="n">
-        <v>0.163735051709523</v>
+        <v>0.1654936520505542</v>
       </c>
       <c r="BH98" t="n">
         <v>-0.0543453075541538</v>
@@ -29274,13 +29274,13 @@
         <v>7.961425589095544e-05</v>
       </c>
       <c r="CH98" t="n">
-        <v>4.196387312813826e-05</v>
+        <v>4.196387312811051e-05</v>
       </c>
       <c r="CI98" t="n">
-        <v>-8.265036874231455e-07</v>
+        <v>-8.26503687450901e-07</v>
       </c>
       <c r="CJ98" t="n">
-        <v>-2.025796384676985e-05</v>
+        <v>-2.02579638467976e-05</v>
       </c>
       <c r="CK98" t="n">
         <v>0</v>
@@ -29480,13 +29480,13 @@
         <v>0.002325609067051522</v>
       </c>
       <c r="BE99" t="n">
-        <v>0.1704687232190053</v>
+        <v>0.1722242161159476</v>
       </c>
       <c r="BF99" t="n">
         <v>0.002329725688748477</v>
       </c>
       <c r="BG99" t="n">
-        <v>0.1707704743837207</v>
+        <v>0.1725290747247519</v>
       </c>
       <c r="BH99" t="n">
         <v>-0.04759480547869242</v>
@@ -29567,13 +29567,13 @@
         <v>6.98254609831621e-05</v>
       </c>
       <c r="CH99" t="n">
-        <v>0.0001310844793604247</v>
+        <v>0.0001310844793603969</v>
       </c>
       <c r="CI99" t="n">
-        <v>5.693471782814395e-05</v>
+        <v>5.69347178281162e-05</v>
       </c>
       <c r="CJ99" t="n">
-        <v>2.357789054396008e-05</v>
+        <v>2.357789054393232e-05</v>
       </c>
       <c r="CK99" t="n">
         <v>0</v>
@@ -29773,13 +29773,13 @@
         <v>0.001747909942753709</v>
       </c>
       <c r="BE100" t="n">
-        <v>0.1846776457928336</v>
+        <v>0.1864331386897759</v>
       </c>
       <c r="BF100" t="n">
         <v>0.001751003964056174</v>
       </c>
       <c r="BG100" t="n">
-        <v>0.1850045485446264</v>
+        <v>0.1867631488856575</v>
       </c>
       <c r="BH100" t="n">
         <v>-0.03664174529472609</v>
@@ -29860,13 +29860,13 @@
         <v>0.0001317873774705445</v>
       </c>
       <c r="CH100" t="n">
-        <v>5.429481224555714e-05</v>
+        <v>5.429481224552939e-05</v>
       </c>
       <c r="CI100" t="n">
-        <v>2.806391562995472e-05</v>
+        <v>2.806391562992696e-05</v>
       </c>
       <c r="CJ100" t="n">
-        <v>1.572100055166441e-05</v>
+        <v>1.572100055163665e-05</v>
       </c>
       <c r="CK100" t="n">
         <v>0</v>
@@ -30066,13 +30066,13 @@
         <v>0.001540530856861671</v>
       </c>
       <c r="BE101" t="n">
-        <v>0.1918635775560047</v>
+        <v>0.193619070452947</v>
       </c>
       <c r="BF101" t="n">
         <v>0.001543257790996918</v>
       </c>
       <c r="BG101" t="n">
-        <v>0.1922032003143661</v>
+        <v>0.1939618006553972</v>
       </c>
       <c r="BH101" t="n">
         <v>-0.03248819756123659</v>
@@ -30359,13 +30359,13 @@
         <v>0.001051708564383777</v>
       </c>
       <c r="BE102" t="n">
-        <v>0.2135546878107157</v>
+        <v>0.215310180707658</v>
       </c>
       <c r="BF102" t="n">
         <v>0.00105357022133909</v>
       </c>
       <c r="BG102" t="n">
-        <v>0.2139327065731049</v>
+        <v>0.215691306914136</v>
       </c>
       <c r="BH102" t="n">
         <v>-0.02254226925361863</v>
@@ -30446,13 +30446,13 @@
         <v>0.0001021790210914861</v>
       </c>
       <c r="CH102" t="n">
-        <v>0.0001979764131511408</v>
+        <v>0.0001979764131512518</v>
       </c>
       <c r="CI102" t="n">
-        <v>0.0001590858554387821</v>
+        <v>0.0001590858554388931</v>
       </c>
       <c r="CJ102" t="n">
-        <v>0.000130863581626825</v>
+        <v>0.000130863581626936</v>
       </c>
       <c r="CK102" t="n">
         <v>0</v>
@@ -30652,13 +30652,13 @@
         <v>0.0006665758148519016</v>
       </c>
       <c r="BE103" t="n">
-        <v>0.2427427984574357</v>
+        <v>0.2444982913543781</v>
       </c>
       <c r="BF103" t="n">
         <v>0.0006677557382108879</v>
       </c>
       <c r="BG103" t="n">
-        <v>0.2431724838611722</v>
+        <v>0.2449310842022035</v>
       </c>
       <c r="BH103" t="n">
         <v>-0.01434802260414046</v>
@@ -30739,13 +30739,13 @@
         <v>7.283331003700747e-05</v>
       </c>
       <c r="CH103" t="n">
-        <v>0.0002884019750681102</v>
+        <v>0.0002884019750679714</v>
       </c>
       <c r="CI103" t="n">
-        <v>0.0002888385057434953</v>
+        <v>0.0002888385057433565</v>
       </c>
       <c r="CJ103" t="n">
-        <v>0.0002549869095311227</v>
+        <v>0.000254986909530984</v>
       </c>
       <c r="CK103" t="n">
         <v>0</v>
@@ -30945,13 +30945,13 @@
         <v>0.0002962558912246137</v>
       </c>
       <c r="BE104" t="n">
-        <v>0.3015189653263125</v>
+        <v>0.3032744582232548</v>
       </c>
       <c r="BF104" t="n">
         <v>0.0002967803015594994</v>
       </c>
       <c r="BG104" t="n">
-        <v>0.3020526919669122</v>
+        <v>0.3038112923079433</v>
       </c>
       <c r="BH104" t="n">
         <v>-0.006270558703513154</v>
@@ -31032,13 +31032,13 @@
         <v>0.0001161269434377623</v>
       </c>
       <c r="CH104" t="n">
-        <v>2.661546207475413e-05</v>
+        <v>2.661546207497617e-05</v>
       </c>
       <c r="CI104" t="n">
-        <v>6.78174666084233e-05</v>
+        <v>6.781746660864535e-05</v>
       </c>
       <c r="CJ104" t="n">
-        <v>5.758525233991868e-05</v>
+        <v>5.758525234014072e-05</v>
       </c>
       <c r="CK104" t="n">
         <v>0</v>
@@ -31238,13 +31238,13 @@
         <v>0.0001629407582732217</v>
       </c>
       <c r="BE105" t="n">
-        <v>0.345745515287739</v>
+        <v>0.3475010081846814</v>
       </c>
       <c r="BF105" t="n">
         <v>0.0001632291839894476</v>
       </c>
       <c r="BG105" t="n">
-        <v>0.3463575285061354</v>
+        <v>0.3481161288471668</v>
       </c>
       <c r="BH105" t="n">
         <v>-0.003400299383597035</v>
@@ -31522,13 +31522,13 @@
         </is>
       </c>
       <c r="BD106" t="n">
-        <v>0.4738599362983211</v>
+        <v>0.4679688472051892</v>
       </c>
       <c r="BE106" t="n">
         <v>0.003555071012543476</v>
       </c>
       <c r="BF106" t="n">
-        <v>0.4770496120703639</v>
+        <v>0.4711188685082382</v>
       </c>
       <c r="BG106" t="n">
         <v>0.003579001129879799</v>
@@ -31558,13 +31558,13 @@
         <v>1.627731982925192</v>
       </c>
       <c r="BP106" t="n">
-        <v>-1.039737150494757</v>
+        <v>-1.337795397919783</v>
       </c>
       <c r="BQ106" t="n">
-        <v>-0.6945287978444347</v>
+        <v>-0.6945287978444525</v>
       </c>
       <c r="BR106" t="n">
-        <v>0.3452083526503226</v>
+        <v>0.64326660007533</v>
       </c>
       <c r="BS106" t="n">
         <v>-2.025501061616386</v>
@@ -31809,13 +31809,13 @@
         </is>
       </c>
       <c r="BD107" t="n">
-        <v>0.3314624913008419</v>
+        <v>0.3255714022077099</v>
       </c>
       <c r="BE107" t="n">
         <v>0.008295163435681508</v>
       </c>
       <c r="BF107" t="n">
-        <v>0.3336936524454246</v>
+        <v>0.3277629088832988</v>
       </c>
       <c r="BG107" t="n">
         <v>0.00835100036091857</v>
@@ -31845,13 +31845,13 @@
         <v>1.258534027585059</v>
       </c>
       <c r="BP107" t="n">
-        <v>-0.9586869886283779</v>
+        <v>-0.958686988628386</v>
       </c>
       <c r="BQ107" t="n">
-        <v>-0.6199280926353603</v>
+        <v>-0.6199280926353453</v>
       </c>
       <c r="BR107" t="n">
-        <v>0.3387588959930176</v>
+        <v>0.3387588959930407</v>
       </c>
       <c r="BS107" t="n">
         <v>-3.10721425197483</v>
@@ -31890,13 +31890,13 @@
         <v>0.06648171820364912</v>
       </c>
       <c r="CE107" t="n">
-        <v>0.003702724682281</v>
+        <v>0.003702724682281111</v>
       </c>
       <c r="CF107" t="n">
-        <v>0.005066288506922284</v>
+        <v>0.005066288506922395</v>
       </c>
       <c r="CG107" t="n">
-        <v>0.005075801987705991</v>
+        <v>0.005075801987706102</v>
       </c>
       <c r="CH107" t="n">
         <v>0.0001120113945593773</v>
@@ -32102,13 +32102,13 @@
         </is>
       </c>
       <c r="BD108" t="n">
-        <v>0.2899579104545971</v>
+        <v>0.284066821361465</v>
       </c>
       <c r="BE108" t="n">
         <v>0.01093184381562184</v>
       </c>
       <c r="BF108" t="n">
-        <v>0.2919096933571865</v>
+        <v>0.2859789497950607</v>
       </c>
       <c r="BG108" t="n">
         <v>0.01100542892947391</v>
@@ -32138,13 +32138,13 @@
         <v>1.121941311363832</v>
       </c>
       <c r="BP108" t="n">
-        <v>-0.7565737272778115</v>
+        <v>-0.7565737272777995</v>
       </c>
       <c r="BQ108" t="n">
-        <v>-0.5423127441886342</v>
+        <v>-0.5423127441886473</v>
       </c>
       <c r="BR108" t="n">
-        <v>0.2142609830891773</v>
+        <v>0.2142609830891522</v>
       </c>
       <c r="BS108" t="n">
         <v>-3.586873626774585</v>
@@ -32183,13 +32183,13 @@
         <v>0.08279282958808964</v>
       </c>
       <c r="CE108" t="n">
-        <v>0.0006609780176472027</v>
+        <v>0.0006609780176471472</v>
       </c>
       <c r="CF108" t="n">
-        <v>0.001020336661992916</v>
+        <v>0.00102033666199286</v>
       </c>
       <c r="CG108" t="n">
-        <v>0.001024751287883062</v>
+        <v>0.001024751287883006</v>
       </c>
       <c r="CH108" t="n">
         <v>0.0003083325128943105</v>
@@ -32395,13 +32395,13 @@
         </is>
       </c>
       <c r="BD109" t="n">
-        <v>0.2494161590806627</v>
+        <v>0.2435250699875307</v>
       </c>
       <c r="BE109" t="n">
         <v>0.01453135366787276</v>
       </c>
       <c r="BF109" t="n">
-        <v>0.2510950447994898</v>
+        <v>0.245164301237364</v>
       </c>
       <c r="BG109" t="n">
         <v>0.01462916802857073</v>
@@ -32431,13 +32431,13 @@
         <v>0.9715172324543208</v>
       </c>
       <c r="BP109" t="n">
-        <v>-0.7091533321840224</v>
+        <v>-0.7091533321840329</v>
       </c>
       <c r="BQ109" t="n">
-        <v>-0.5897390189295382</v>
+        <v>-0.5897390189294196</v>
       </c>
       <c r="BR109" t="n">
-        <v>0.1194143132544843</v>
+        <v>0.1194143132546133</v>
       </c>
       <c r="BS109" t="n">
         <v>-4.152817375158544</v>
@@ -32476,13 +32476,13 @@
         <v>0.1048211315272711</v>
       </c>
       <c r="CE109" t="n">
-        <v>0.000775353924017938</v>
+        <v>0.0007753539240179935</v>
       </c>
       <c r="CF109" t="n">
-        <v>0.001027086490364697</v>
+        <v>0.001027086490364752</v>
       </c>
       <c r="CG109" t="n">
-        <v>0.00103434297833576</v>
+        <v>0.001034342978335816</v>
       </c>
       <c r="CH109" t="n">
         <v>-1.738148944963752e-05</v>
@@ -32688,13 +32688,13 @@
         </is>
       </c>
       <c r="BD110" t="n">
-        <v>0.2427702968641912</v>
+        <v>0.2368792077710592</v>
       </c>
       <c r="BE110" t="n">
         <v>0.01524236832243211</v>
       </c>
       <c r="BF110" t="n">
-        <v>0.2444044475377603</v>
+        <v>0.2384737039756346</v>
       </c>
       <c r="BG110" t="n">
         <v>0.01534496870964022</v>
@@ -32724,13 +32724,13 @@
         <v>0.9451709251886291</v>
       </c>
       <c r="BP110" t="n">
-        <v>-0.6199331940905098</v>
+        <v>-0.6199331940903954</v>
       </c>
       <c r="BQ110" t="n">
-        <v>-0.532797669133152</v>
+        <v>-0.5327976691331613</v>
       </c>
       <c r="BR110" t="n">
-        <v>0.08713552495735788</v>
+        <v>0.08713552495723409</v>
       </c>
       <c r="BS110" t="n">
         <v>-4.256153454838855</v>
@@ -32769,13 +32769,13 @@
         <v>0.1091580201230661</v>
       </c>
       <c r="CE110" t="n">
-        <v>5.356408127454165e-05</v>
+        <v>5.356408127443063e-05</v>
       </c>
       <c r="CF110" t="n">
-        <v>9.13460537761944e-05</v>
+        <v>9.134605377608337e-05</v>
       </c>
       <c r="CG110" t="n">
-        <v>9.266705461011531e-05</v>
+        <v>9.266705461000429e-05</v>
       </c>
       <c r="CH110" t="n">
         <v>9.28176056487354e-05</v>
@@ -32981,13 +32981,13 @@
         </is>
       </c>
       <c r="BD111" t="n">
-        <v>0.2230845250325278</v>
+        <v>0.2171934359393958</v>
       </c>
       <c r="BE111" t="n">
         <v>0.0176272271038614</v>
       </c>
       <c r="BF111" t="n">
-        <v>0.224586165602044</v>
+        <v>0.2186554220399183</v>
       </c>
       <c r="BG111" t="n">
         <v>0.01774588060232067</v>
@@ -33017,13 +33017,13 @@
         <v>0.8631788578150537</v>
       </c>
       <c r="BP111" t="n">
-        <v>-0.6298245977021705</v>
+        <v>-0.6298245977021789</v>
       </c>
       <c r="BQ111" t="n">
-        <v>-0.4863798193075692</v>
+        <v>-0.4863798193075776</v>
       </c>
       <c r="BR111" t="n">
-        <v>0.1434447783946012</v>
+        <v>0.1434447783946013</v>
       </c>
       <c r="BS111" t="n">
         <v>-4.582067001827122</v>
@@ -33062,13 +33062,13 @@
         <v>0.1236503269207748</v>
       </c>
       <c r="CE111" t="n">
-        <v>0.0002723595477822811</v>
+        <v>0.0002723595477823089</v>
       </c>
       <c r="CF111" t="n">
-        <v>0.0003412871024706145</v>
+        <v>0.0003412871024706422</v>
       </c>
       <c r="CG111" t="n">
-        <v>0.0003464986881168315</v>
+        <v>0.0003464986881168593</v>
       </c>
       <c r="CH111" t="n">
         <v>0.0001899312838151809</v>
@@ -33274,13 +33274,13 @@
         </is>
       </c>
       <c r="BD112" t="n">
-        <v>0.2038579530376727</v>
+        <v>0.1979668639445407</v>
       </c>
       <c r="BE112" t="n">
         <v>0.02047128572209879</v>
       </c>
       <c r="BF112" t="n">
-        <v>0.2052301744979254</v>
+        <v>0.1992994309357996</v>
       </c>
       <c r="BG112" t="n">
         <v>0.02060908332659861</v>
@@ -33310,13 +33310,13 @@
         <v>0.7761132016049399</v>
       </c>
       <c r="BP112" t="n">
-        <v>-0.5946397793910958</v>
+        <v>-0.5946397793911035</v>
       </c>
       <c r="BQ112" t="n">
-        <v>-0.4940310545665086</v>
+        <v>-0.4940310545665321</v>
       </c>
       <c r="BR112" t="n">
-        <v>0.1006087248245872</v>
+        <v>0.1006087248245713</v>
       </c>
       <c r="BS112" t="n">
         <v>-4.930534899228265</v>
@@ -33355,13 +33355,13 @@
         <v>0.1407823239849213</v>
       </c>
       <c r="CE112" t="n">
-        <v>0.0002443582404044291</v>
+        <v>0.0002443582404044568</v>
       </c>
       <c r="CF112" t="n">
-        <v>0.0002579249437603785</v>
+        <v>0.0002579249437604063</v>
       </c>
       <c r="CG112" t="n">
-        <v>0.0002648670199551229</v>
+        <v>0.0002648670199551506</v>
       </c>
       <c r="CH112" t="n">
         <v>3.78462289762683e-05</v>
@@ -33567,13 +33567,13 @@
         </is>
       </c>
       <c r="BD113" t="n">
-        <v>0.1975675970183542</v>
+        <v>0.1916765079252222</v>
       </c>
       <c r="BE113" t="n">
         <v>0.02153780657381118</v>
       </c>
       <c r="BF113" t="n">
-        <v>0.1988974764389968</v>
+        <v>0.192966732876871</v>
       </c>
       <c r="BG113" t="n">
         <v>0.02168278321046902</v>
@@ -33603,13 +33603,13 @@
         <v>0.7459239096119626</v>
       </c>
       <c r="BP113" t="n">
-        <v>-0.5326764754336388</v>
+        <v>-0.5326764754336616</v>
       </c>
       <c r="BQ113" t="n">
         <v>-0.5204967648205756</v>
       </c>
       <c r="BR113" t="n">
-        <v>0.01217971061306322</v>
+        <v>0.01217971061308598</v>
       </c>
       <c r="BS113" t="n">
         <v>-5.05124989176873</v>
@@ -33648,13 +33648,13 @@
         <v>0.1471611814683438</v>
       </c>
       <c r="CE113" t="n">
-        <v>1.61507162827236e-05</v>
+        <v>1.615071628275136e-05</v>
       </c>
       <c r="CF113" t="n">
-        <v>1.368187535479275e-05</v>
+        <v>1.368187535482051e-05</v>
       </c>
       <c r="CG113" t="n">
-        <v>1.623438781657351e-05</v>
+        <v>1.623438781660127e-05</v>
       </c>
       <c r="CH113" t="n">
         <v>-1.239576855471261e-06</v>
@@ -33860,13 +33860,13 @@
         </is>
       </c>
       <c r="BD114" t="n">
-        <v>0.1912920524387695</v>
+        <v>0.1854009633456374</v>
       </c>
       <c r="BE114" t="n">
         <v>0.02261913886525721</v>
       </c>
       <c r="BF114" t="n">
-        <v>0.1925796895194957</v>
+        <v>0.1866489459573699</v>
       </c>
       <c r="BG114" t="n">
         <v>0.02277139423376669</v>
@@ -33899,10 +33899,10 @@
         <v>-0.5579931288862819</v>
       </c>
       <c r="BQ114" t="n">
-        <v>-0.4871200211507558</v>
+        <v>-0.48712002115069</v>
       </c>
       <c r="BR114" t="n">
-        <v>0.07087310773552619</v>
+        <v>0.07087310773559197</v>
       </c>
       <c r="BS114" t="n">
         <v>-5.176053868086067</v>
@@ -34153,13 +34153,13 @@
         </is>
       </c>
       <c r="BD115" t="n">
-        <v>0.1851053877988527</v>
+        <v>0.1792142987057207</v>
       </c>
       <c r="BE115" t="n">
         <v>0.0237893510963714</v>
       </c>
       <c r="BF115" t="n">
-        <v>0.186351380813896</v>
+        <v>0.1804206372517703</v>
       </c>
       <c r="BG115" t="n">
         <v>0.02394948347096603</v>
@@ -34189,13 +34189,13 @@
         <v>0.6850707566136992</v>
       </c>
       <c r="BP115" t="n">
-        <v>-0.5270549840613754</v>
+        <v>-0.5270549840613117</v>
       </c>
       <c r="BQ115" t="n">
-        <v>-0.4640406022422698</v>
+        <v>-0.4640406022422806</v>
       </c>
       <c r="BR115" t="n">
-        <v>0.06301438181910557</v>
+        <v>0.06301438181903113</v>
       </c>
       <c r="BS115" t="n">
         <v>-5.302229523990104</v>
@@ -34234,13 +34234,13 @@
         <v>0.1607040738432682</v>
       </c>
       <c r="CE115" t="n">
-        <v>2.671798696634274e-05</v>
+        <v>2.671798696625947e-05</v>
       </c>
       <c r="CF115" t="n">
-        <v>9.035969087964509e-06</v>
+        <v>9.035969087881242e-06</v>
       </c>
       <c r="CG115" t="n">
-        <v>1.214908471294015e-05</v>
+        <v>1.214908471285688e-05</v>
       </c>
       <c r="CH115" t="n">
         <v>0.0001106002125730973</v>
@@ -34446,13 +34446,13 @@
         </is>
       </c>
       <c r="BD116" t="n">
-        <v>0.172894997917609</v>
+        <v>0.167003908824477</v>
       </c>
       <c r="BE116" t="n">
         <v>0.02629271495718939</v>
       </c>
       <c r="BF116" t="n">
-        <v>0.1740587995892025</v>
+        <v>0.1681280560270768</v>
       </c>
       <c r="BG116" t="n">
         <v>0.02646969813187031</v>
@@ -34482,13 +34482,13 @@
         <v>0.6221810734467418</v>
       </c>
       <c r="BP116" t="n">
-        <v>-0.5456916767447477</v>
+        <v>-0.5456916767447578</v>
       </c>
       <c r="BQ116" t="n">
-        <v>-0.4538403219925865</v>
+        <v>-0.453840321992627</v>
       </c>
       <c r="BR116" t="n">
-        <v>0.09185135475216122</v>
+        <v>0.0918513547521308</v>
       </c>
       <c r="BS116" t="n">
         <v>-5.563161660623412</v>
@@ -34527,13 +34527,13 @@
         <v>0.1757242238009934</v>
       </c>
       <c r="CE116" t="n">
-        <v>0.0001440081574173632</v>
+        <v>0.0001440081574173909</v>
       </c>
       <c r="CF116" t="n">
-        <v>7.513101954943063e-05</v>
+        <v>7.513101954945839e-05</v>
       </c>
       <c r="CG116" t="n">
-        <v>8.275239841489847e-05</v>
+        <v>8.275239841492622e-05</v>
       </c>
       <c r="CH116" t="n">
         <v>5.474970829346662e-05</v>
@@ -34739,13 +34739,13 @@
         </is>
       </c>
       <c r="BD117" t="n">
-        <v>0.1669157092557361</v>
+        <v>0.161024620162604</v>
       </c>
       <c r="BE117" t="n">
         <v>0.02767030316634737</v>
       </c>
       <c r="BF117" t="n">
-        <v>0.1680392627638579</v>
+        <v>0.1621085192017321</v>
       </c>
       <c r="BG117" t="n">
         <v>0.02785655924932463</v>
@@ -34775,13 +34775,13 @@
         <v>0.5896474241612588</v>
       </c>
       <c r="BP117" t="n">
-        <v>-0.4971589691861673</v>
+        <v>-0.4971589691862067</v>
       </c>
       <c r="BQ117" t="n">
-        <v>-0.4551389543615313</v>
+        <v>-0.4551389543615116</v>
       </c>
       <c r="BR117" t="n">
-        <v>0.04202001482463597</v>
+        <v>0.04202001482469508</v>
       </c>
       <c r="BS117" t="n">
         <v>-5.695911365684434</v>
@@ -34820,13 +34820,13 @@
         <v>0.1839205828415549</v>
       </c>
       <c r="CE117" t="n">
-        <v>1.444996576904257e-05</v>
+        <v>1.444996576909809e-05</v>
       </c>
       <c r="CF117" t="n">
-        <v>-2.8893687932313e-05</v>
+        <v>-2.889368793225749e-05</v>
       </c>
       <c r="CG117" t="n">
-        <v>-2.467209105826325e-05</v>
+        <v>-2.467209105820774e-05</v>
       </c>
       <c r="CH117" t="n">
         <v>4.520141834286049e-05</v>
@@ -35032,13 +35032,13 @@
         </is>
       </c>
       <c r="BD118" t="n">
-        <v>0.1609956731335576</v>
+        <v>0.1551045840404255</v>
       </c>
       <c r="BE118" t="n">
         <v>0.02910714391519971</v>
       </c>
       <c r="BF118" t="n">
-        <v>0.1620793773226252</v>
+        <v>0.1561486337604995</v>
       </c>
       <c r="BG118" t="n">
         <v>0.02930307175089085</v>
@@ -35068,13 +35068,13 @@
         <v>0.5567986122644952</v>
       </c>
       <c r="BP118" t="n">
-        <v>-0.4989325834502735</v>
+        <v>-0.4989325834502544</v>
       </c>
       <c r="BQ118" t="n">
-        <v>-0.4222717114379403</v>
+        <v>-0.422271711437969</v>
       </c>
       <c r="BR118" t="n">
-        <v>0.07666087201233324</v>
+        <v>0.07666087201228533</v>
       </c>
       <c r="BS118" t="n">
         <v>-5.831538264261738</v>
@@ -35113,13 +35113,13 @@
         <v>0.1924892107736991</v>
       </c>
       <c r="CE118" t="n">
-        <v>2.700319894662507e-05</v>
+        <v>2.700319894659731e-05</v>
       </c>
       <c r="CF118" t="n">
-        <v>-2.55398293157556e-05</v>
+        <v>-2.553982931578335e-05</v>
       </c>
       <c r="CG118" t="n">
-        <v>-2.086080688088951e-05</v>
+        <v>-2.086080688091727e-05</v>
       </c>
       <c r="CH118" t="n">
         <v>0.0001696811727243844</v>
@@ -35325,13 +35325,13 @@
         </is>
       </c>
       <c r="BD119" t="n">
-        <v>0.1493777928274846</v>
+        <v>0.1434867037343525</v>
       </c>
       <c r="BE119" t="n">
         <v>0.03220301735118843</v>
       </c>
       <c r="BF119" t="n">
-        <v>0.1503832940107775</v>
+        <v>0.1444525504486517</v>
       </c>
       <c r="BG119" t="n">
         <v>0.03241978432464088</v>
@@ -35361,13 +35361,13 @@
         <v>0.489668610810762</v>
       </c>
       <c r="BP119" t="n">
-        <v>-0.5126964713844607</v>
+        <v>-0.512696471384488</v>
       </c>
       <c r="BQ119" t="n">
-        <v>-0.4399136477430032</v>
+        <v>-0.4399136477429856</v>
       </c>
       <c r="BR119" t="n">
-        <v>0.07278282364145749</v>
+        <v>0.07278282364150246</v>
       </c>
       <c r="BS119" t="n">
         <v>-6.109540432544154</v>
@@ -35406,13 +35406,13 @@
         <v>0.2109445360877438</v>
       </c>
       <c r="CE119" t="n">
-        <v>0.0001397193121911687</v>
+        <v>0.000139719312191252</v>
       </c>
       <c r="CF119" t="n">
-        <v>-3.544515170886275e-06</v>
+        <v>-3.544515170803009e-06</v>
       </c>
       <c r="CG119" t="n">
-        <v>7.965782499744223e-06</v>
+        <v>7.96578249982749e-06</v>
       </c>
       <c r="CH119" t="n">
         <v>4.198640468064743e-05</v>
@@ -35618,13 +35618,13 @@
         </is>
       </c>
       <c r="BD120" t="n">
-        <v>0.1436799509038432</v>
+        <v>0.1377888618107111</v>
       </c>
       <c r="BE120" t="n">
         <v>0.03386205229857797</v>
       </c>
       <c r="BF120" t="n">
-        <v>0.1446470984156298</v>
+        <v>0.138716354853504</v>
       </c>
       <c r="BG120" t="n">
         <v>0.03408998667229219</v>
@@ -35654,13 +35654,13 @@
         <v>0.4554412229436398</v>
       </c>
       <c r="BP120" t="n">
-        <v>-0.4863274848265513</v>
+        <v>-0.4863274848265341</v>
       </c>
       <c r="BQ120" t="n">
-        <v>-0.4484497827985822</v>
+        <v>-0.4484497827985117</v>
       </c>
       <c r="BR120" t="n">
-        <v>0.03787770202796908</v>
+        <v>0.03787770202802238</v>
       </c>
       <c r="BS120" t="n">
         <v>-6.252224859537385</v>
@@ -35699,13 +35699,13 @@
         <v>0.2208512527071608</v>
       </c>
       <c r="CE120" t="n">
-        <v>4.051615623952912e-05</v>
+        <v>4.051615623950136e-05</v>
       </c>
       <c r="CF120" t="n">
-        <v>-4.087503887522954e-05</v>
+        <v>-4.087503887525729e-05</v>
       </c>
       <c r="CG120" t="n">
-        <v>-3.449008393638982e-05</v>
+        <v>-3.449008393641758e-05</v>
       </c>
       <c r="CH120" t="n">
         <v>1.913295240474474e-05</v>
@@ -35911,13 +35911,13 @@
         </is>
       </c>
       <c r="BD121" t="n">
-        <v>0.1380413592596429</v>
+        <v>0.1321502701665109</v>
       </c>
       <c r="BE121" t="n">
         <v>0.03558033752540853</v>
       </c>
       <c r="BF121" t="n">
-        <v>0.1389705519291264</v>
+        <v>0.1330398083670007</v>
       </c>
       <c r="BG121" t="n">
         <v>0.03581983812858772</v>
@@ -35947,13 +35947,13 @@
         <v>0.420932407767352</v>
       </c>
       <c r="BP121" t="n">
-        <v>-0.4951758923122585</v>
+        <v>-0.4951758923121897</v>
       </c>
       <c r="BQ121" t="n">
-        <v>-0.3934157352982503</v>
+        <v>-0.3934157352982973</v>
       </c>
       <c r="BR121" t="n">
-        <v>0.1017601570140082</v>
+        <v>0.1017601570138924</v>
       </c>
       <c r="BS121" t="n">
         <v>-6.398682349770027</v>
@@ -35992,13 +35992,13 @@
         <v>0.2311836946317301</v>
       </c>
       <c r="CE121" t="n">
-        <v>6.64858377913179e-05</v>
+        <v>6.648583779120688e-05</v>
       </c>
       <c r="CF121" t="n">
-        <v>-2.469655665111436e-05</v>
+        <v>-2.469655665122538e-05</v>
       </c>
       <c r="CG121" t="n">
-        <v>-1.761301596633989e-05</v>
+        <v>-1.761301596645091e-05</v>
       </c>
       <c r="CH121" t="n">
         <v>0.0001951006974289854</v>
@@ -36204,13 +36204,13 @@
         </is>
       </c>
       <c r="BD122" t="n">
-        <v>0.1270900547684219</v>
+        <v>0.1211989656752898</v>
       </c>
       <c r="BE122" t="n">
         <v>0.03934278677624916</v>
       </c>
       <c r="BF122" t="n">
-        <v>0.1279455313291313</v>
+        <v>0.1220147877670054</v>
       </c>
       <c r="BG122" t="n">
         <v>0.03960761341419021</v>
@@ -36240,13 +36240,13 @@
         <v>0.3497496847957851</v>
       </c>
       <c r="BP122" t="n">
-        <v>-0.4917623068337229</v>
+        <v>-0.4917623068337678</v>
       </c>
       <c r="BQ122" t="n">
-        <v>-0.3987790251120689</v>
+        <v>-0.3987790251120112</v>
       </c>
       <c r="BR122" t="n">
-        <v>0.09298328172165399</v>
+        <v>0.09298328172175652</v>
       </c>
       <c r="BS122" t="n">
         <v>-6.692911230572597</v>
@@ -36285,13 +36285,13 @@
         <v>0.2536217189696751</v>
       </c>
       <c r="CE122" t="n">
-        <v>0.0001726783210805258</v>
+        <v>0.0001726783210806784</v>
       </c>
       <c r="CF122" t="n">
-        <v>-4.836248195582045e-05</v>
+        <v>-4.836248195566779e-05</v>
       </c>
       <c r="CG122" t="n">
-        <v>-3.092853035039853e-05</v>
+        <v>-3.092853035024587e-05</v>
       </c>
       <c r="CH122" t="n">
         <v>0.0001404851879707745</v>
@@ -36497,13 +36497,13 @@
         </is>
       </c>
       <c r="BD123" t="n">
-        <v>0.1164498198948994</v>
+        <v>0.1105587308017675</v>
       </c>
       <c r="BE123" t="n">
         <v>0.04341630564478857</v>
       </c>
       <c r="BF123" t="n">
-        <v>0.1172336742381872</v>
+        <v>0.1113029306760615</v>
       </c>
       <c r="BG123" t="n">
         <v>0.04370855220884415</v>
@@ -36533,13 +36533,13 @@
         <v>0.2769270747864835</v>
       </c>
       <c r="BP123" t="n">
-        <v>-0.499812360829365</v>
+        <v>-0.4998123608293096</v>
       </c>
       <c r="BQ123" t="n">
-        <v>-0.376296493063222</v>
+        <v>-0.3762964930632699</v>
       </c>
       <c r="BR123" t="n">
-        <v>0.123515867766143</v>
+        <v>0.1235158677660397</v>
       </c>
       <c r="BS123" t="n">
         <v>-6.999186822653462</v>
@@ -36578,13 +36578,13 @@
         <v>0.2781546120329192</v>
       </c>
       <c r="CE123" t="n">
-        <v>0.0002552907861262874</v>
+        <v>0.0002552907861260931</v>
       </c>
       <c r="CF123" t="n">
-        <v>-2.103077797291006e-06</v>
+        <v>-2.103077797485295e-06</v>
       </c>
       <c r="CG123" t="n">
-        <v>1.930869802752207e-05</v>
+        <v>1.930869802732778e-05</v>
       </c>
       <c r="CH123" t="n">
         <v>0.0001771709402139179</v>
@@ -36790,13 +36790,13 @@
         </is>
       </c>
       <c r="BD124" t="n">
-        <v>0.1062391551979582</v>
+        <v>0.1003480661048261</v>
       </c>
       <c r="BE124" t="n">
         <v>0.04791939468990893</v>
       </c>
       <c r="BF124" t="n">
-        <v>0.1069542788735835</v>
+        <v>0.1010235353114577</v>
       </c>
       <c r="BG124" t="n">
         <v>0.04824195272983812</v>
@@ -36826,13 +36826,13 @@
         <v>0.2016599924173826</v>
       </c>
       <c r="BP124" t="n">
-        <v>-0.4823331648988905</v>
+        <v>-0.4823331648989368</v>
       </c>
       <c r="BQ124" t="n">
-        <v>-0.3793884136967563</v>
+        <v>-0.3793884136967104</v>
       </c>
       <c r="BR124" t="n">
-        <v>0.1029447512021342</v>
+        <v>0.1029447512022264</v>
       </c>
       <c r="BS124" t="n">
         <v>-7.309185282268725</v>
@@ -36871,13 +36871,13 @@
         <v>0.30520898908434</v>
       </c>
       <c r="CE124" t="n">
-        <v>0.0002505957032954819</v>
+        <v>0.0002505957032956484</v>
       </c>
       <c r="CF124" t="n">
-        <v>-3.860658399651787e-05</v>
+        <v>-3.860658399635133e-05</v>
       </c>
       <c r="CG124" t="n">
-        <v>-1.240206323813858e-05</v>
+        <v>-1.240206323797205e-05</v>
       </c>
       <c r="CH124" t="n">
         <v>0.0001222169144001837</v>
@@ -37083,13 +37083,13 @@
         </is>
       </c>
       <c r="BD125" t="n">
-        <v>0.09639881039815668</v>
+        <v>0.09050772130502474</v>
       </c>
       <c r="BE125" t="n">
         <v>0.05279280363216925</v>
       </c>
       <c r="BF125" t="n">
-        <v>0.09704769612667534</v>
+        <v>0.09111695256454969</v>
       </c>
       <c r="BG125" t="n">
         <v>0.0531481658685279</v>
@@ -37119,13 +37119,13 @@
         <v>0.1243864026191496</v>
       </c>
       <c r="BP125" t="n">
-        <v>-0.4890181924432605</v>
+        <v>-0.4890181924432159</v>
       </c>
       <c r="BQ125" t="n">
-        <v>-0.3969327170454509</v>
+        <v>-0.3969327170454955</v>
       </c>
       <c r="BR125" t="n">
-        <v>0.09208547539780959</v>
+        <v>0.09208547539772038</v>
       </c>
       <c r="BS125" t="n">
         <v>-7.629804595868856</v>
@@ -37164,13 +37164,13 @@
         <v>0.3347739366280318</v>
       </c>
       <c r="CE125" t="n">
-        <v>0.0003345858151761662</v>
+        <v>0.0003345858151759997</v>
       </c>
       <c r="CF125" t="n">
-        <v>2.084296636918788e-05</v>
+        <v>2.084296636902135e-05</v>
       </c>
       <c r="CG125" t="n">
-        <v>5.272485239945536e-05</v>
+        <v>5.272485239928883e-05</v>
       </c>
       <c r="CH125" t="n">
         <v>4.202261832708318e-06</v>
@@ -37376,13 +37376,13 @@
         </is>
       </c>
       <c r="BD126" t="n">
-        <v>0.09164898650709241</v>
+        <v>0.08575789741396039</v>
       </c>
       <c r="BE126" t="n">
         <v>0.05539985661213583</v>
       </c>
       <c r="BF126" t="n">
-        <v>0.09226589992264207</v>
+        <v>0.08633515636051634</v>
       </c>
       <c r="BG126" t="n">
         <v>0.05577276760729353</v>
@@ -37412,13 +37412,13 @@
         <v>0.0848238469171928</v>
       </c>
       <c r="BP126" t="n">
-        <v>-0.4535529626776794</v>
+        <v>-0.4535529626777234</v>
       </c>
       <c r="BQ126" t="n">
-        <v>-0.374419902239561</v>
+        <v>-0.3744199022395391</v>
       </c>
       <c r="BR126" t="n">
-        <v>0.07913306043811846</v>
+        <v>0.0791330604381843</v>
       </c>
       <c r="BS126" t="n">
         <v>-7.791591802896327</v>
@@ -37457,13 +37457,13 @@
         <v>0.3505988230506745</v>
       </c>
       <c r="CE126" t="n">
-        <v>0.0001157262518087119</v>
+        <v>0.0001157262518087952</v>
       </c>
       <c r="CF126" t="n">
-        <v>-4.545767463504883e-05</v>
+        <v>-4.545767463496556e-05</v>
       </c>
       <c r="CG126" t="n">
-        <v>-2.792733697544025e-05</v>
+        <v>-2.792733697535698e-05</v>
       </c>
       <c r="CH126" t="n">
         <v>3.339651980177345e-05</v>
@@ -37669,13 +37669,13 @@
         </is>
       </c>
       <c r="BD127" t="n">
-        <v>0.0870472883146306</v>
+        <v>0.08115619922149862</v>
       </c>
       <c r="BE127" t="n">
         <v>0.05815503529070497</v>
       </c>
       <c r="BF127" t="n">
-        <v>0.08763322649021926</v>
+        <v>0.08170248292809357</v>
       </c>
       <c r="BG127" t="n">
         <v>0.05854649211766971</v>
@@ -37705,13 +37705,13 @@
         <v>0.04453810174004311</v>
       </c>
       <c r="BP127" t="n">
-        <v>-0.4325886115415579</v>
+        <v>-0.4325886115415363</v>
       </c>
       <c r="BQ127" t="n">
-        <v>-0.3699228632060565</v>
+        <v>-0.3699228632060638</v>
       </c>
       <c r="BR127" t="n">
-        <v>0.06266574833550143</v>
+        <v>0.0626657483354725</v>
       </c>
       <c r="BS127" t="n">
         <v>-7.950626223163758</v>
@@ -37750,13 +37750,13 @@
         <v>0.3671753417207168</v>
       </c>
       <c r="CE127" t="n">
-        <v>9.051589236863753e-05</v>
+        <v>9.05158923685959e-05</v>
       </c>
       <c r="CF127" t="n">
-        <v>-7.350739533920538e-05</v>
+        <v>-7.350739533924702e-05</v>
       </c>
       <c r="CG127" t="n">
-        <v>-5.427781480932779e-05</v>
+        <v>-5.427781480936943e-05</v>
       </c>
       <c r="CH127" t="n">
         <v>2.878687585542664e-05</v>
@@ -37962,13 +37962,13 @@
         </is>
       </c>
       <c r="BD128" t="n">
-        <v>0.08256409520155783</v>
+        <v>0.07667300610842584</v>
       </c>
       <c r="BE128" t="n">
         <v>0.061028719048663</v>
       </c>
       <c r="BF128" t="n">
-        <v>0.08311985582602059</v>
+        <v>0.07718911226389488</v>
       </c>
       <c r="BG128" t="n">
         <v>0.06143951939626988</v>
@@ -37998,13 +37998,13 @@
         <v>0.003664442676379276</v>
       </c>
       <c r="BP128" t="n">
-        <v>-0.4292346595982323</v>
+        <v>-0.4292346595982395</v>
       </c>
       <c r="BQ128" t="n">
-        <v>-0.4137019173497513</v>
+        <v>-0.4137019173498018</v>
       </c>
       <c r="BR128" t="n">
-        <v>0.01553274224848095</v>
+        <v>0.0155327422484377</v>
       </c>
       <c r="BS128" t="n">
         <v>-8.110117658387901</v>
@@ -38043,13 +38043,13 @@
         <v>0.3844574911199341</v>
       </c>
       <c r="CE128" t="n">
-        <v>9.858228423987713e-05</v>
+        <v>9.858228423989101e-05</v>
       </c>
       <c r="CF128" t="n">
-        <v>-6.661294551489269e-05</v>
+        <v>-6.661294551487881e-05</v>
       </c>
       <c r="CG128" t="n">
-        <v>-4.558210727589104e-05</v>
+        <v>-4.558210727587716e-05</v>
       </c>
       <c r="CH128" t="n">
         <v>-6.875772991782238e-05</v>
@@ -38255,13 +38255,13 @@
         </is>
       </c>
       <c r="BD129" t="n">
-        <v>0.07811052722820555</v>
+        <v>0.07221943813507346</v>
       </c>
       <c r="BE129" t="n">
         <v>0.06393202794634154</v>
       </c>
       <c r="BF129" t="n">
-        <v>0.07863630971614401</v>
+        <v>0.0727055661540182</v>
       </c>
       <c r="BG129" t="n">
         <v>0.06436237122919215</v>
@@ -38291,13 +38291,13 @@
         <v>-0.03762678417378873</v>
       </c>
       <c r="BP129" t="n">
-        <v>-0.4735774683284681</v>
+        <v>-0.4735774683285183</v>
       </c>
       <c r="BQ129" t="n">
-        <v>-1.884709970898692</v>
+        <v>-0.3507830067624692</v>
       </c>
       <c r="BR129" t="n">
-        <v>-1.411132502570224</v>
+        <v>0.1227944615660492</v>
       </c>
       <c r="BS129" t="n">
         <v>-8.281252320141558</v>
@@ -38309,13 +38309,13 @@
         <v>-8.164701363518898</v>
       </c>
       <c r="BV129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY129" t="n">
         <v>0.5785053102796752</v>
@@ -38336,31 +38336,31 @@
         <v>0.4023764910892438</v>
       </c>
       <c r="CE129" t="n">
-        <v>0.0001989055699229249</v>
+        <v>0.0001989055699230221</v>
       </c>
       <c r="CF129" t="n">
-        <v>3.438679317784282e-05</v>
+        <v>3.438679317793996e-05</v>
       </c>
       <c r="CG129" t="n">
-        <v>5.730858291166496e-05</v>
+        <v>5.73085829117621e-05</v>
       </c>
       <c r="CH129" t="n">
-        <v>-0.005853784729590609</v>
+        <v>7.695883253504461e-05</v>
       </c>
       <c r="CI129" t="n">
-        <v>-0.005524747176100449</v>
+        <v>0.0004059963860252045</v>
       </c>
       <c r="CJ129" t="n">
-        <v>-0.005570590755568094</v>
+        <v>0.0003601528065575602</v>
       </c>
       <c r="CK129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -38551,13 +38551,13 @@
         <v>0.06378389772723214</v>
       </c>
       <c r="BE130" t="n">
-        <v>0.0643191521874299</v>
+        <v>0.07021024128056183</v>
       </c>
       <c r="BF130" t="n">
         <v>0.06421324390664605</v>
       </c>
       <c r="BG130" t="n">
-        <v>0.06475210130529205</v>
+        <v>0.0706828448674177</v>
       </c>
       <c r="BH130" t="n">
         <v>-0.448241732367504</v>
@@ -38584,13 +38584,13 @@
         <v>-0.1224812044960422</v>
       </c>
       <c r="BP130" t="n">
-        <v>-1.997000900743722</v>
+        <v>-0.4753301034358496</v>
       </c>
       <c r="BQ130" t="n">
         <v>-0.3472426878404055</v>
       </c>
       <c r="BR130" t="n">
-        <v>1.649758212903317</v>
+        <v>0.1280874155954441</v>
       </c>
       <c r="BS130" t="n">
         <v>-8.613352491875812</v>
@@ -38629,22 +38629,22 @@
         <v>0.4404941776191664</v>
       </c>
       <c r="CE130" t="n">
-        <v>0.006395402061396608</v>
+        <v>0.0004646584992708015</v>
       </c>
       <c r="CF130" t="n">
-        <v>0.006081434902656434</v>
+        <v>0.0001506913405306277</v>
       </c>
       <c r="CG130" t="n">
-        <v>0.006135220265767186</v>
+        <v>0.0002044767036413798</v>
       </c>
       <c r="CH130" t="n">
-        <v>1.728243272579614e-05</v>
+        <v>1.728243272585165e-05</v>
       </c>
       <c r="CI130" t="n">
-        <v>0.0001742660120958857</v>
+        <v>0.0001742660120959412</v>
       </c>
       <c r="CJ130" t="n">
-        <v>0.0001473733305405087</v>
+        <v>0.0001473733305405642</v>
       </c>
       <c r="CK130" t="n">
         <v>0</v>
@@ -38844,13 +38844,13 @@
         <v>0.05981407023809467</v>
       </c>
       <c r="BE131" t="n">
-        <v>0.06770620156932328</v>
+        <v>0.07359729066245527</v>
       </c>
       <c r="BF131" t="n">
         <v>0.06021669446532117</v>
       </c>
       <c r="BG131" t="n">
-        <v>0.06816194980676607</v>
+        <v>0.07409269336889178</v>
       </c>
       <c r="BH131" t="n">
         <v>-0.4311951513403211</v>
@@ -38931,13 +38931,13 @@
         <v>1.654703986457041e-06</v>
       </c>
       <c r="CH131" t="n">
-        <v>0.0003479309618166782</v>
+        <v>0.0003479309618167892</v>
       </c>
       <c r="CI131" t="n">
-        <v>0.0007975788575592634</v>
+        <v>0.0007975788575593744</v>
       </c>
       <c r="CJ131" t="n">
-        <v>0.000710832018174349</v>
+        <v>0.00071083201817446</v>
       </c>
       <c r="CK131" t="n">
         <v>0</v>
@@ -39137,13 +39137,13 @@
         <v>0.04861559790473476</v>
       </c>
       <c r="BE132" t="n">
-        <v>0.07857835984905581</v>
+        <v>0.0844694489421879</v>
       </c>
       <c r="BF132" t="n">
         <v>0.04894284227148047</v>
       </c>
       <c r="BG132" t="n">
-        <v>0.07910729144132192</v>
+        <v>0.08503803500344774</v>
       </c>
       <c r="BH132" t="n">
         <v>-0.3793577919964851</v>
@@ -39224,13 +39224,13 @@
         <v>0.0007133260113297169</v>
       </c>
       <c r="CH132" t="n">
-        <v>0.0003883201109107799</v>
+        <v>0.0003883201109106411</v>
       </c>
       <c r="CI132" t="n">
-        <v>0.0007327420418381646</v>
+        <v>0.0007327420418380259</v>
       </c>
       <c r="CJ132" t="n">
-        <v>0.0006287948614398936</v>
+        <v>0.0006287948614397548</v>
       </c>
       <c r="CK132" t="n">
         <v>0</v>
@@ -39430,13 +39430,13 @@
         <v>0.03875027268057183</v>
       </c>
       <c r="BE133" t="n">
-        <v>0.09078366523798576</v>
+        <v>0.09667475433111772</v>
       </c>
       <c r="BF133" t="n">
         <v>0.03901111095040913</v>
       </c>
       <c r="BG133" t="n">
-        <v>0.0913947539486476</v>
+        <v>0.09732549751077328</v>
       </c>
       <c r="BH133" t="n">
         <v>-0.3273383483436026</v>
@@ -39517,13 +39517,13 @@
         <v>0.0008864186151090817</v>
       </c>
       <c r="CH133" t="n">
-        <v>2.48504820833835e-05</v>
+        <v>2.485048208355004e-05</v>
       </c>
       <c r="CI133" t="n">
-        <v>8.631777487205696e-05</v>
+        <v>8.631777487222349e-05</v>
       </c>
       <c r="CJ133" t="n">
-        <v>4.751670864908564e-05</v>
+        <v>4.751670864925218e-05</v>
       </c>
       <c r="CK133" t="n">
         <v>0</v>
@@ -39723,13 +39723,13 @@
         <v>0.03580252720343938</v>
       </c>
       <c r="BE134" t="n">
-        <v>0.09519279663188385</v>
+        <v>0.101083885725016</v>
       </c>
       <c r="BF134" t="n">
         <v>0.03604352342373773</v>
       </c>
       <c r="BG134" t="n">
-        <v>0.09583356436477476</v>
+        <v>0.1017643079269006</v>
       </c>
       <c r="BH134" t="n">
         <v>-0.310262259919339</v>
@@ -39810,13 +39810,13 @@
         <v>0.0001233520759014472</v>
       </c>
       <c r="CH134" t="n">
-        <v>6.388358072784497e-05</v>
+        <v>6.388358072778946e-05</v>
       </c>
       <c r="CI134" t="n">
-        <v>0.0001456529500530948</v>
+        <v>0.0001456529500530393</v>
       </c>
       <c r="CJ134" t="n">
-        <v>6.645935724831735e-05</v>
+        <v>6.645935724826184e-05</v>
       </c>
       <c r="CK134" t="n">
         <v>0</v>
@@ -40016,13 +40016,13 @@
         <v>0.03021810586687281</v>
       </c>
       <c r="BE135" t="n">
-        <v>0.1043221290373791</v>
+        <v>0.1102132181305112</v>
       </c>
       <c r="BF135" t="n">
         <v>0.03042151187944592</v>
       </c>
       <c r="BG135" t="n">
-        <v>0.1050243487060809</v>
+        <v>0.1109550922682067</v>
       </c>
       <c r="BH135" t="n">
         <v>-0.2763869228670434</v>
@@ -40103,13 +40103,13 @@
         <v>0.000619910828560423</v>
       </c>
       <c r="CH135" t="n">
-        <v>7.939420428031141e-06</v>
+        <v>7.939420427892363e-06</v>
       </c>
       <c r="CI135" t="n">
-        <v>5.981069605455469e-06</v>
+        <v>5.981069605316691e-06</v>
       </c>
       <c r="CJ135" t="n">
-        <v>-3.407771793329569e-05</v>
+        <v>-3.407771793343447e-05</v>
       </c>
       <c r="CK135" t="n">
         <v>0</v>
@@ -40309,13 +40309,13 @@
         <v>0.02769992830606791</v>
       </c>
       <c r="BE136" t="n">
-        <v>0.1091608283476053</v>
+        <v>0.1150519174407373</v>
       </c>
       <c r="BF136" t="n">
         <v>0.02788638380364676</v>
       </c>
       <c r="BG136" t="n">
-        <v>0.1098956185730809</v>
+        <v>0.1158263621352065</v>
       </c>
       <c r="BH136" t="n">
         <v>-0.2599586803131788</v>
@@ -40396,13 +40396,13 @@
         <v>0.0002021149329200379</v>
       </c>
       <c r="CH136" t="n">
-        <v>-4.973071661837185e-06</v>
+        <v>-4.973071661684529e-06</v>
       </c>
       <c r="CI136" t="n">
-        <v>-2.818632440709356e-05</v>
+        <v>-2.81863244069409e-05</v>
       </c>
       <c r="CJ136" t="n">
-        <v>-6.789874980151454e-05</v>
+        <v>-6.789874980136189e-05</v>
       </c>
       <c r="CK136" t="n">
         <v>1</v>
@@ -40602,13 +40602,13 @@
         <v>0.02531506952463862</v>
       </c>
       <c r="BE137" t="n">
-        <v>0.1141328464372068</v>
+        <v>0.1200239355303389</v>
       </c>
       <c r="BF137" t="n">
         <v>0.0254854719109663</v>
       </c>
       <c r="BG137" t="n">
-        <v>0.1149011046231992</v>
+        <v>0.120831848185325</v>
       </c>
       <c r="BH137" t="n">
         <v>-0.243822051317883</v>
@@ -40689,13 +40689,13 @@
         <v>0.0002331285823835754</v>
       </c>
       <c r="CH137" t="n">
-        <v>0.0001613572285337813</v>
+        <v>0.0001613572285337258</v>
       </c>
       <c r="CI137" t="n">
-        <v>7.39884014978355e-05</v>
+        <v>7.398840149777999e-05</v>
       </c>
       <c r="CJ137" t="n">
-        <v>-3.973159572550483e-06</v>
+        <v>-3.973159572605994e-06</v>
       </c>
       <c r="CK137" t="n">
         <v>0</v>
@@ -40895,13 +40895,13 @@
         <v>0.02100454501782836</v>
       </c>
       <c r="BE138" t="n">
-        <v>0.1245360756724582</v>
+        <v>0.1304271647655902</v>
       </c>
       <c r="BF138" t="n">
         <v>0.0211459321308</v>
       </c>
       <c r="BG138" t="n">
-        <v>0.1253743607286306</v>
+        <v>0.1313051042907564</v>
       </c>
       <c r="BH138" t="n">
         <v>-0.2128287503526588</v>
@@ -40982,13 +40982,13 @@
         <v>0.0006368582724613561</v>
       </c>
       <c r="CH138" t="n">
-        <v>0.0004468601911346015</v>
+        <v>0.0004468601911347125</v>
       </c>
       <c r="CI138" t="n">
-        <v>0.0002055233049926136</v>
+        <v>0.0002055233049927246</v>
       </c>
       <c r="CJ138" t="n">
-        <v>9.60446283036348e-05</v>
+        <v>9.604462830374583e-05</v>
       </c>
       <c r="CK138" t="n">
         <v>0</v>
@@ -41188,13 +41188,13 @@
         <v>0.01558306081959825</v>
       </c>
       <c r="BE139" t="n">
-        <v>0.1411852220873205</v>
+        <v>0.1470763111804527</v>
       </c>
       <c r="BF139" t="n">
         <v>0.01568795449754626</v>
       </c>
       <c r="BG139" t="n">
-        <v>0.1421355769237735</v>
+        <v>0.1480663204858993</v>
       </c>
       <c r="BH139" t="n">
         <v>-0.1700268412661103</v>
@@ -41275,13 +41275,13 @@
         <v>0.001191115570882639</v>
       </c>
       <c r="CH139" t="n">
-        <v>0.001468415683502679</v>
+        <v>0.001468415683502568</v>
       </c>
       <c r="CI139" t="n">
-        <v>0.0008684704951551769</v>
+        <v>0.0008684704951550659</v>
       </c>
       <c r="CJ139" t="n">
-        <v>0.000713973161145541</v>
+        <v>0.00071397316114543</v>
       </c>
       <c r="CK139" t="n">
         <v>0</v>
@@ -41481,13 +41481,13 @@
         <v>0.009228372288778092</v>
       </c>
       <c r="BE140" t="n">
-        <v>0.1716149179116548</v>
+        <v>0.1775060070047869</v>
       </c>
       <c r="BF140" t="n">
         <v>0.009290490888073169</v>
       </c>
       <c r="BG140" t="n">
-        <v>0.1727701030282951</v>
+        <v>0.1787008465904208</v>
       </c>
       <c r="BH140" t="n">
         <v>-0.1119761274433395</v>
@@ -41568,13 +41568,13 @@
         <v>0.002054374192128371</v>
       </c>
       <c r="CH140" t="n">
-        <v>0.0001765637973511619</v>
+        <v>0.0001765637973510509</v>
       </c>
       <c r="CI140" t="n">
-        <v>-0.0001009504523612863</v>
+        <v>-0.0001009504523613973</v>
       </c>
       <c r="CJ140" t="n">
-        <v>-0.0001417407364359777</v>
+        <v>-0.0001417407364360888</v>
       </c>
       <c r="CK140" t="n">
         <v>0</v>
@@ -41774,13 +41774,13 @@
         <v>0.00736195910309146</v>
       </c>
       <c r="BE141" t="n">
-        <v>0.1844622584680301</v>
+        <v>0.190353347561162</v>
       </c>
       <c r="BF141" t="n">
         <v>0.007411514384699224</v>
       </c>
       <c r="BG141" t="n">
-        <v>0.1857039224105191</v>
+        <v>0.1916346659726448</v>
       </c>
       <c r="BH141" t="n">
         <v>-0.09302192395496399</v>
@@ -41861,13 +41861,13 @@
         <v>0.0004804335777260662</v>
       </c>
       <c r="CH141" t="n">
-        <v>0.0002649363406748706</v>
+        <v>0.0002649363406749261</v>
       </c>
       <c r="CI141" t="n">
-        <v>2.128360974181648e-07</v>
+        <v>2.128360974736759e-07</v>
       </c>
       <c r="CJ141" t="n">
-        <v>-3.305843649113217e-05</v>
+        <v>-3.305843649107666e-05</v>
       </c>
       <c r="CK141" t="n">
         <v>0</v>
@@ -42067,13 +42067,13 @@
         <v>0.005939929793972763</v>
       </c>
       <c r="BE142" t="n">
-        <v>0.197753982900973</v>
+        <v>0.203645071994105</v>
       </c>
       <c r="BF142" t="n">
         <v>0.005979913022560254</v>
       </c>
       <c r="BG142" t="n">
-        <v>0.1990851169339778</v>
+        <v>0.2050158604961035</v>
       </c>
       <c r="BH142" t="n">
         <v>-0.07743875401075553</v>
@@ -42351,13 +42351,13 @@
         </is>
       </c>
       <c r="BD143" t="n">
-        <v>0.3693767748519053</v>
+        <v>0.3424025785252843</v>
       </c>
       <c r="BE143" t="n">
         <v>0.01220574290563129</v>
       </c>
       <c r="BF143" t="n">
-        <v>0.3745103812642644</v>
+        <v>0.3471612969732171</v>
       </c>
       <c r="BG143" t="n">
         <v>0.01237537858473721</v>
@@ -42387,13 +42387,13 @@
         <v>1.113262539581845</v>
       </c>
       <c r="BP143" t="n">
-        <v>-0.9102362884979582</v>
+        <v>-1.276181375310881</v>
       </c>
       <c r="BQ143" t="n">
-        <v>-0.5301013858104728</v>
+        <v>-0.530101385810497</v>
       </c>
       <c r="BR143" t="n">
-        <v>0.3801349026874854</v>
+        <v>0.7460799895003845</v>
       </c>
       <c r="BS143" t="n">
         <v>-3.07175601444303</v>
@@ -42638,13 +42638,13 @@
         </is>
       </c>
       <c r="BD144" t="n">
-        <v>0.3158408140983464</v>
+        <v>0.2888666177717252</v>
       </c>
       <c r="BE144" t="n">
         <v>0.01710877924786548</v>
       </c>
       <c r="BF144" t="n">
-        <v>0.3202303765693221</v>
+        <v>0.2928812922782746</v>
       </c>
       <c r="BG144" t="n">
         <v>0.01734655743218606</v>
@@ -42674,13 +42674,13 @@
         <v>0.9428720750736372</v>
       </c>
       <c r="BP144" t="n">
-        <v>-0.6730479446104514</v>
+        <v>-0.67304794461047</v>
       </c>
       <c r="BQ144" t="n">
-        <v>-0.5352897931891767</v>
+        <v>-0.5352897931892266</v>
       </c>
       <c r="BR144" t="n">
-        <v>0.1377581514212747</v>
+        <v>0.1377581514212434</v>
       </c>
       <c r="BS144" t="n">
         <v>-3.240004768045713</v>
@@ -42719,13 +42719,13 @@
         <v>0.1166321143697695</v>
       </c>
       <c r="CE144" t="n">
-        <v>0.001855302157099004</v>
+        <v>0.00185530215709917</v>
       </c>
       <c r="CF144" t="n">
-        <v>0.00192693096164033</v>
+        <v>0.001926930961640497</v>
       </c>
       <c r="CG144" t="n">
-        <v>0.001939411968011416</v>
+        <v>0.001939411968011583</v>
       </c>
       <c r="CH144" t="n">
         <v>-0.0001596973551282598</v>
@@ -42931,13 +42931,13 @@
         </is>
       </c>
       <c r="BD145" t="n">
-        <v>0.3027567832526654</v>
+        <v>0.2757825869260441</v>
       </c>
       <c r="BE145" t="n">
         <v>0.01863449767613271</v>
       </c>
       <c r="BF145" t="n">
-        <v>0.3069645035797332</v>
+        <v>0.2796154192886856</v>
       </c>
       <c r="BG145" t="n">
         <v>0.01889348032819479</v>
@@ -42967,13 +42967,13 @@
         <v>0.897449604021947</v>
       </c>
       <c r="BP145" t="n">
-        <v>-0.5766766809441305</v>
+        <v>-0.5766766809441773</v>
       </c>
       <c r="BQ145" t="n">
-        <v>-0.5255475152734902</v>
+        <v>-0.5255475152734195</v>
       </c>
       <c r="BR145" t="n">
-        <v>0.0511291656706403</v>
+        <v>0.05112916567075787</v>
       </c>
       <c r="BS145" t="n">
         <v>-3.299892483148732</v>
@@ -43012,13 +43012,13 @@
         <v>0.1244107735232113</v>
       </c>
       <c r="CE145" t="n">
-        <v>0.0002811238039113033</v>
+        <v>0.0002811238039114143</v>
       </c>
       <c r="CF145" t="n">
-        <v>0.00029258704536754</v>
+        <v>0.000292587045367651</v>
       </c>
       <c r="CG145" t="n">
-        <v>0.0002959484981598353</v>
+        <v>0.0002959484981599463</v>
       </c>
       <c r="CH145" t="n">
         <v>-0.0001609763216968469</v>
@@ -43224,13 +43224,13 @@
         </is>
       </c>
       <c r="BD146" t="n">
-        <v>0.2897912529658664</v>
+        <v>0.2628170566392452</v>
       </c>
       <c r="BE146" t="n">
         <v>0.0202787166632821</v>
       </c>
       <c r="BF146" t="n">
-        <v>0.2938187780723585</v>
+        <v>0.2664696937813111</v>
       </c>
       <c r="BG146" t="n">
         <v>0.02056055070641807</v>
@@ -43260,13 +43260,13 @@
         <v>0.8513238834976529</v>
       </c>
       <c r="BP146" t="n">
-        <v>-0.5681510826448154</v>
+        <v>-0.5681510826447488</v>
       </c>
       <c r="BQ146" t="n">
-        <v>-0.4658812327452979</v>
+        <v>-0.4658812327453143</v>
       </c>
       <c r="BR146" t="n">
-        <v>0.1022698498995175</v>
+        <v>0.1022698498994344</v>
       </c>
       <c r="BS146" t="n">
         <v>-3.367342463253273</v>
@@ -43305,13 +43305,13 @@
         <v>0.1327670968074443</v>
       </c>
       <c r="CE146" t="n">
-        <v>0.0002920575542034089</v>
+        <v>0.0002920575542032424</v>
       </c>
       <c r="CF146" t="n">
-        <v>0.0002959630916410695</v>
+        <v>0.000295963091640903</v>
       </c>
       <c r="CG146" t="n">
-        <v>0.0002995815271089088</v>
+        <v>0.0002995815271087422</v>
       </c>
       <c r="CH146" t="n">
         <v>-7.347685066315304e-05</v>
@@ -43517,13 +43517,13 @@
         </is>
       </c>
       <c r="BD147" t="n">
-        <v>0.264363831068784</v>
+        <v>0.2373896347421628</v>
       </c>
       <c r="BE147" t="n">
         <v>0.02407079331409645</v>
       </c>
       <c r="BF147" t="n">
-        <v>0.2680379653153528</v>
+        <v>0.2406888810243053</v>
       </c>
       <c r="BG147" t="n">
         <v>0.02440532972060809</v>
@@ -43553,13 +43553,13 @@
         <v>0.7548532769342371</v>
       </c>
       <c r="BP147" t="n">
-        <v>-0.5597193460886164</v>
+        <v>-0.5597193460886311</v>
       </c>
       <c r="BQ147" t="n">
-        <v>-0.4285650827867118</v>
+        <v>-0.4285650827866924</v>
       </c>
       <c r="BR147" t="n">
-        <v>0.1311542633019046</v>
+        <v>0.1311542633019386</v>
       </c>
       <c r="BS147" t="n">
         <v>-3.523722649185284</v>
@@ -43598,13 +43598,13 @@
         <v>0.1518514836952304</v>
       </c>
       <c r="CE147" t="n">
-        <v>0.0006750975703365379</v>
+        <v>0.0006750975703366212</v>
       </c>
       <c r="CF147" t="n">
-        <v>0.0006455361247621819</v>
+        <v>0.0006455361247622651</v>
       </c>
       <c r="CG147" t="n">
-        <v>0.0006539110516152191</v>
+        <v>0.0006539110516153024</v>
       </c>
       <c r="CH147" t="n">
         <v>6.081836239233383e-05</v>
@@ -43810,13 +43810,13 @@
         </is>
       </c>
       <c r="BD148" t="n">
-        <v>0.2396622375262479</v>
+        <v>0.2126880411996268</v>
       </c>
       <c r="BE148" t="n">
         <v>0.02858869831945705</v>
       </c>
       <c r="BF148" t="n">
-        <v>0.242993068491076</v>
+        <v>0.2156439842000286</v>
       </c>
       <c r="BG148" t="n">
         <v>0.02898602466752701</v>
@@ -43846,13 +43846,13 @@
         <v>0.6534640007788879</v>
       </c>
       <c r="BP148" t="n">
-        <v>-0.5316119429427514</v>
+        <v>-0.5316119429427341</v>
       </c>
       <c r="BQ148" t="n">
-        <v>-0.4284178810163854</v>
+        <v>-0.4284178810164028</v>
       </c>
       <c r="BR148" t="n">
-        <v>0.1031940619263659</v>
+        <v>0.1031940619263313</v>
       </c>
       <c r="BS148" t="n">
         <v>-3.709525472665027</v>
@@ -43891,13 +43891,13 @@
         <v>0.1743540194938197</v>
       </c>
       <c r="CE148" t="n">
-        <v>0.0006517468936024298</v>
+        <v>0.0006517468936023188</v>
       </c>
       <c r="CF148" t="n">
-        <v>0.0005749924098424619</v>
+        <v>0.0005749924098423509</v>
       </c>
       <c r="CG148" t="n">
-        <v>0.000584646058272166</v>
+        <v>0.000584646058272055</v>
       </c>
       <c r="CH148" t="n">
         <v>-2.974223766567547e-06</v>
@@ -44103,13 +44103,13 @@
         </is>
       </c>
       <c r="BD149" t="n">
-        <v>0.2276299138322925</v>
+        <v>0.2006557175056713</v>
       </c>
       <c r="BE149" t="n">
         <v>0.03116612389944985</v>
       </c>
       <c r="BF149" t="n">
-        <v>0.2307935193019723</v>
+        <v>0.2034444350109249</v>
       </c>
       <c r="BG149" t="n">
         <v>0.03159927136402106</v>
@@ -44139,13 +44139,13 @@
         <v>0.6007772797844266</v>
       </c>
       <c r="BP149" t="n">
-        <v>-0.4835336722971139</v>
+        <v>-0.4835336722971303</v>
       </c>
       <c r="BQ149" t="n">
-        <v>-0.4197033936137711</v>
+        <v>-0.4197033936137541</v>
       </c>
       <c r="BR149" t="n">
-        <v>0.06383027868334273</v>
+        <v>0.06383027868337621</v>
       </c>
       <c r="BS149" t="n">
         <v>-3.813244139883349</v>
@@ -44184,13 +44184,13 @@
         <v>0.1870869958322154</v>
       </c>
       <c r="CE149" t="n">
-        <v>0.0002047749141627139</v>
+        <v>0.0002047749141627694</v>
       </c>
       <c r="CF149" t="n">
-        <v>0.0001528636526366388</v>
+        <v>0.0001528636526366943</v>
       </c>
       <c r="CG149" t="n">
-        <v>0.0001580347856181968</v>
+        <v>0.0001580347856182523</v>
       </c>
       <c r="CH149" t="n">
         <v>5.485471378832187e-06</v>
@@ -44396,13 +44396,13 @@
         </is>
       </c>
       <c r="BD150" t="n">
-        <v>0.2158049683766338</v>
+        <v>0.1888307720500126</v>
       </c>
       <c r="BE150" t="n">
         <v>0.03395092771773951</v>
       </c>
       <c r="BF150" t="n">
-        <v>0.2188042304984101</v>
+        <v>0.1914551462073627</v>
       </c>
       <c r="BG150" t="n">
         <v>0.03442277844605671</v>
@@ -44432,13 +44432,13 @@
         <v>0.5470660536864311</v>
       </c>
       <c r="BP150" t="n">
-        <v>-0.4764520730762912</v>
+        <v>-0.4764520730762751</v>
       </c>
       <c r="BQ150" t="n">
         <v>-0.334613618117007</v>
       </c>
       <c r="BR150" t="n">
-        <v>0.1418384549592842</v>
+        <v>0.1418384549592681</v>
       </c>
       <c r="BS150" t="n">
         <v>-3.924934471903931</v>
@@ -44477,13 +44477,13 @@
         <v>0.2008180004461353</v>
       </c>
       <c r="CE150" t="n">
-        <v>0.0002120485638334273</v>
+        <v>0.0002120485638333718</v>
       </c>
       <c r="CF150" t="n">
-        <v>0.0001456406967626136</v>
+        <v>0.0001456406967625581</v>
       </c>
       <c r="CG150" t="n">
-        <v>0.0001511689687268888</v>
+        <v>0.0001511689687268333</v>
       </c>
       <c r="CH150" t="n">
         <v>0.0008356884656242677</v>
@@ -44689,13 +44689,13 @@
         </is>
       </c>
       <c r="BD151" t="n">
-        <v>0.1817817909790039</v>
+        <v>0.1548075946523828</v>
       </c>
       <c r="BE151" t="n">
         <v>0.04375699814195459</v>
       </c>
       <c r="BF151" t="n">
-        <v>0.1843081982448481</v>
+        <v>0.1569591139538007</v>
       </c>
       <c r="BG151" t="n">
         <v>0.04436513384928806</v>
@@ -44982,13 +44982,13 @@
         </is>
       </c>
       <c r="BD152" t="n">
-        <v>0.17096411835587</v>
+        <v>0.1439899220292489</v>
       </c>
       <c r="BE152" t="n">
         <v>0.04754907479276899</v>
       </c>
       <c r="BF152" t="n">
-        <v>0.1733401813734403</v>
+        <v>0.1459910970823929</v>
       </c>
       <c r="BG152" t="n">
         <v>0.04820991286347813</v>
@@ -45021,10 +45021,10 @@
         <v>-0.4472355070576207</v>
       </c>
       <c r="BQ152" t="n">
-        <v>-0.3811273824209337</v>
+        <v>-0.3811273824209543</v>
       </c>
       <c r="BR152" t="n">
-        <v>0.06610812463668697</v>
+        <v>0.06610812463666643</v>
       </c>
       <c r="BS152" t="n">
         <v>-4.450880886907244</v>
@@ -45275,13 +45275,13 @@
         </is>
       </c>
       <c r="BD153" t="n">
-        <v>0.1604130742504742</v>
+        <v>0.133438877923853</v>
       </c>
       <c r="BE153" t="n">
         <v>0.05160777996132142</v>
       </c>
       <c r="BF153" t="n">
-        <v>0.1626424986286817</v>
+        <v>0.1352934143376342</v>
       </c>
       <c r="BG153" t="n">
         <v>0.05232502600431716</v>
@@ -45311,13 +45311,13 @@
         <v>0.2603083815934394</v>
       </c>
       <c r="BP153" t="n">
-        <v>-0.4473977638509039</v>
+        <v>-0.4473977638509237</v>
       </c>
       <c r="BQ153" t="n">
-        <v>-0.3692895224329044</v>
+        <v>-0.369289522432911</v>
       </c>
       <c r="BR153" t="n">
-        <v>0.07810824141799944</v>
+        <v>0.0781082414180127</v>
       </c>
       <c r="BS153" t="n">
         <v>-4.603975734817539</v>
@@ -45356,13 +45356,13 @@
         <v>0.2877135597773784</v>
       </c>
       <c r="CE153" t="n">
-        <v>0.0002798839281550093</v>
+        <v>0.0002798839281550926</v>
       </c>
       <c r="CF153" t="n">
-        <v>0.0001393865584561772</v>
+        <v>0.0001393865584562604</v>
       </c>
       <c r="CG153" t="n">
-        <v>0.0001467290936619011</v>
+        <v>0.0001467290936619844</v>
       </c>
       <c r="CH153" t="n">
         <v>5.052852293395763e-05</v>
@@ -45568,13 +45568,13 @@
         </is>
       </c>
       <c r="BD154" t="n">
-        <v>0.1501879134627643</v>
+        <v>0.123213717136143</v>
       </c>
       <c r="BE154" t="n">
         <v>0.05599236844755974</v>
       </c>
       <c r="BF154" t="n">
-        <v>0.152275228335012</v>
+        <v>0.1249261440439645</v>
       </c>
       <c r="BG154" t="n">
         <v>0.05677055159624528</v>
@@ -45604,13 +45604,13 @@
         <v>0.1989671585564254</v>
       </c>
       <c r="BP154" t="n">
-        <v>-0.4380966843386451</v>
+        <v>-0.4380966843386515</v>
       </c>
       <c r="BQ154" t="n">
-        <v>-0.358879255679482</v>
+        <v>-0.358879255679479</v>
       </c>
       <c r="BR154" t="n">
-        <v>0.07921742865916309</v>
+        <v>0.07921742865917253</v>
       </c>
       <c r="BS154" t="n">
         <v>-4.764398757418887</v>
@@ -45649,13 +45649,13 @@
         <v>0.3093866467751009</v>
       </c>
       <c r="CE154" t="n">
-        <v>0.000280859027945831</v>
+        <v>0.0002808590279458588</v>
       </c>
       <c r="CF154" t="n">
-        <v>0.0001297076031189313</v>
+        <v>0.000129707603118959</v>
       </c>
       <c r="CG154" t="n">
-        <v>0.0001373556564809933</v>
+        <v>0.000137355656481021</v>
       </c>
       <c r="CH154" t="n">
         <v>6.457071258683406e-05</v>
@@ -45861,13 +45861,13 @@
         </is>
       </c>
       <c r="BD155" t="n">
-        <v>0.1403034474324737</v>
+        <v>0.1133292511058525</v>
       </c>
       <c r="BE155" t="n">
         <v>0.06071765169121749</v>
       </c>
       <c r="BF155" t="n">
-        <v>0.1422533877818749</v>
+        <v>0.1149043034908274</v>
       </c>
       <c r="BG155" t="n">
         <v>0.06156150692870607</v>
@@ -45897,13 +45897,13 @@
         <v>0.1360513990624876</v>
       </c>
       <c r="BP155" t="n">
-        <v>-0.4302193842858436</v>
+        <v>-0.4302193842858407</v>
       </c>
       <c r="BQ155" t="n">
-        <v>-0.3463697527800851</v>
+        <v>-0.3463697527800509</v>
       </c>
       <c r="BR155" t="n">
-        <v>0.08384963150575853</v>
+        <v>0.08384963150578972</v>
       </c>
       <c r="BS155" t="n">
         <v>-4.931893673591086</v>
@@ -45942,13 +45942,13 @@
         <v>0.3327559133008535</v>
       </c>
       <c r="CE155" t="n">
-        <v>0.0002883862324412016</v>
+        <v>0.0002883862324411877</v>
       </c>
       <c r="CF155" t="n">
-        <v>0.0001301902024875932</v>
+        <v>0.0001301902024875793</v>
       </c>
       <c r="CG155" t="n">
-        <v>0.0001380900909904569</v>
+        <v>0.000138090090990443</v>
       </c>
       <c r="CH155" t="n">
         <v>8.707579531218052e-05</v>
@@ -46154,13 +46154,13 @@
         </is>
       </c>
       <c r="BD156" t="n">
-        <v>0.1307892967788161</v>
+        <v>0.103815100452195</v>
       </c>
       <c r="BE156" t="n">
         <v>0.06581325031150836</v>
       </c>
       <c r="BF156" t="n">
-        <v>0.1326070092564911</v>
+        <v>0.1052579249654438</v>
       </c>
       <c r="BG156" t="n">
         <v>0.06672792428892022</v>
@@ -46190,13 +46190,13 @@
         <v>0.07147572330275254</v>
       </c>
       <c r="BP156" t="n">
-        <v>-0.4204132487606449</v>
+        <v>-0.4204132487606115</v>
       </c>
       <c r="BQ156" t="n">
-        <v>-0.3056257736297577</v>
+        <v>-0.3056257736297563</v>
       </c>
       <c r="BR156" t="n">
-        <v>0.1147874751308872</v>
+        <v>0.1147874751308552</v>
       </c>
       <c r="BS156" t="n">
         <v>-5.105250023245613</v>
@@ -46235,13 +46235,13 @@
         <v>0.3579201969611659</v>
       </c>
       <c r="CE156" t="n">
-        <v>0.0002876974701951675</v>
+        <v>0.0002876974701950148</v>
       </c>
       <c r="CF156" t="n">
-        <v>0.0001273055428252165</v>
+        <v>0.0001273055428250638</v>
       </c>
       <c r="CG156" t="n">
-        <v>0.0001353814607047109</v>
+        <v>0.0001353814607045582</v>
       </c>
       <c r="CH156" t="n">
         <v>0.0004759344873152202</v>
@@ -46447,13 +46447,13 @@
         </is>
       </c>
       <c r="BD157" t="n">
-        <v>0.1127979137860262</v>
+        <v>0.08582371745940516</v>
       </c>
       <c r="BE157" t="n">
         <v>0.07704136586661521</v>
       </c>
       <c r="BF157" t="n">
-        <v>0.114365581633429</v>
+        <v>0.08701649734238166</v>
       </c>
       <c r="BG157" t="n">
         <v>0.07811208843705382</v>
@@ -46483,13 +46483,13 @@
         <v>-0.06247816634761524</v>
       </c>
       <c r="BP157" t="n">
-        <v>-0.4612828356071705</v>
+        <v>-0.4612828356071692</v>
       </c>
       <c r="BQ157" t="n">
-        <v>-0.3309753543815548</v>
+        <v>-0.3309753543816132</v>
       </c>
       <c r="BR157" t="n">
-        <v>0.1303074812256158</v>
+        <v>0.1303074812255559</v>
       </c>
       <c r="BS157" t="n">
         <v>-5.476009407514305</v>
@@ -46528,13 +46528,13 @@
         <v>0.4137246075739868</v>
       </c>
       <c r="CE157" t="n">
-        <v>0.001146657928143814</v>
+        <v>0.0011466579281438</v>
       </c>
       <c r="CF157" t="n">
-        <v>0.0008564784367745791</v>
+        <v>0.0008564784367745652</v>
       </c>
       <c r="CG157" t="n">
-        <v>0.0008726721815514905</v>
+        <v>0.0008726721815514767</v>
       </c>
       <c r="CH157" t="n">
         <v>4.242802811080856e-05</v>
@@ -46740,13 +46740,13 @@
         </is>
       </c>
       <c r="BD158" t="n">
-        <v>0.1044095387840293</v>
+        <v>0.07743534245740794</v>
       </c>
       <c r="BE158" t="n">
         <v>0.0832627401385663</v>
       </c>
       <c r="BF158" t="n">
-        <v>0.1058606248140809</v>
+        <v>0.07851154052303333</v>
       </c>
       <c r="BG158" t="n">
         <v>0.08441992750330331</v>
@@ -46776,13 +46776,13 @@
         <v>-0.1322202754765893</v>
       </c>
       <c r="BP158" t="n">
-        <v>-0.4131512165100122</v>
+        <v>-0.4131512165100703</v>
       </c>
       <c r="BQ158" t="n">
-        <v>-6.05335860176316</v>
+        <v>-0.3132449207870964</v>
       </c>
       <c r="BR158" t="n">
-        <v>-5.640207385253148</v>
+        <v>0.09990629572297388</v>
       </c>
       <c r="BS158" t="n">
         <v>-5.668469111861042</v>
@@ -46794,13 +46794,13 @@
         <v>-5.649914802962704</v>
       </c>
       <c r="BV158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY158" t="n">
         <v>0.5475734912012535</v>
@@ -46821,31 +46821,31 @@
         <v>0.4445004443014532</v>
       </c>
       <c r="CE158" t="n">
-        <v>0.0003938624618197006</v>
+        <v>0.0003938624618199781</v>
       </c>
       <c r="CF158" t="n">
-        <v>0.0002685676406087318</v>
+        <v>0.0002685676406090094</v>
       </c>
       <c r="CG158" t="n">
-        <v>0.0002764552862452117</v>
+        <v>0.0002764552862454892</v>
       </c>
       <c r="CH158" t="n">
-        <v>-0.02726693776510311</v>
+        <v>8.214652594440083e-05</v>
       </c>
       <c r="CI158" t="n">
-        <v>-0.02714164294389215</v>
+        <v>0.0002074413471553679</v>
       </c>
       <c r="CJ158" t="n">
-        <v>-0.02714953058952863</v>
+        <v>0.0001995537015188889</v>
       </c>
       <c r="CK158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -47036,13 +47036,13 @@
         <v>0.06951645154316123</v>
       </c>
       <c r="BE159" t="n">
-        <v>0.06297940217164655</v>
+        <v>0.08995359849826778</v>
       </c>
       <c r="BF159" t="n">
         <v>0.07048259269144945</v>
       </c>
       <c r="BG159" t="n">
-        <v>0.06385469126626959</v>
+        <v>0.09120377555731711</v>
       </c>
       <c r="BH159" t="n">
         <v>-0.4134704349772381</v>
@@ -47069,13 +47069,13 @@
         <v>-0.2038973550023759</v>
       </c>
       <c r="BP159" t="n">
-        <v>-6.122814855245467</v>
+        <v>-0.3985742546189768</v>
       </c>
       <c r="BQ159" t="n">
         <v>-0.3338253322709896</v>
       </c>
       <c r="BR159" t="n">
-        <v>5.788989522974478</v>
+        <v>0.06474892234798724</v>
       </c>
       <c r="BS159" t="n">
         <v>-5.860393024306235</v>
@@ -47114,22 +47114,22 @@
         <v>0.4771368746244878</v>
       </c>
       <c r="CE159" t="n">
-        <v>0.02772187593840054</v>
+        <v>0.0003727916473529333</v>
       </c>
       <c r="CF159" t="n">
-        <v>0.02762546682443834</v>
+        <v>0.0002763825333907278</v>
       </c>
       <c r="CG159" t="n">
-        <v>0.02763296737033835</v>
+        <v>0.000283883079290741</v>
       </c>
       <c r="CH159" t="n">
-        <v>-3.171821151818363e-05</v>
+        <v>-3.171821151811425e-05</v>
       </c>
       <c r="CI159" t="n">
-        <v>1.648634546292001e-05</v>
+        <v>1.64863454629894e-05</v>
       </c>
       <c r="CJ159" t="n">
-        <v>1.273607251291338e-05</v>
+        <v>1.273607251298277e-05</v>
       </c>
       <c r="CK159" t="n">
         <v>1</v>
@@ -47329,13 +47329,13 @@
         <v>0.06570956345261328</v>
       </c>
       <c r="BE160" t="n">
-        <v>0.06647738871807274</v>
+        <v>0.09345158504469404</v>
       </c>
       <c r="BF160" t="n">
         <v>0.06662279638781581</v>
       </c>
       <c r="BG160" t="n">
-        <v>0.06740129290543484</v>
+        <v>0.09475037719648242</v>
       </c>
       <c r="BH160" t="n">
         <v>-0.3994356709688445</v>
@@ -47416,13 +47416,13 @@
         <v>0.0001129331654075834</v>
       </c>
       <c r="CH160" t="n">
-        <v>0.0002601442190271232</v>
+        <v>0.0002601442190270538</v>
       </c>
       <c r="CI160" t="n">
-        <v>0.0003779287459027263</v>
+        <v>0.0003779287459026569</v>
       </c>
       <c r="CJ160" t="n">
-        <v>0.0003670749826196404</v>
+        <v>0.000367074982619571</v>
       </c>
       <c r="CK160" t="n">
         <v>0</v>
@@ -47622,13 +47622,13 @@
         <v>0.0549850978752884</v>
       </c>
       <c r="BE161" t="n">
-        <v>0.07766754705167034</v>
+        <v>0.1046417433782916</v>
       </c>
       <c r="BF161" t="n">
         <v>0.0557492819557573</v>
       </c>
       <c r="BG161" t="n">
-        <v>0.07874697230177306</v>
+        <v>0.1060960565928206</v>
       </c>
       <c r="BH161" t="n">
         <v>-0.3570226317130187</v>
@@ -47709,13 +47709,13 @@
         <v>0.0008145694579023352</v>
       </c>
       <c r="CH161" t="n">
-        <v>0.000664073999117297</v>
+        <v>0.0006640739991173247</v>
       </c>
       <c r="CI161" t="n">
-        <v>0.000688415016210777</v>
+        <v>0.0006884150162108048</v>
       </c>
       <c r="CJ161" t="n">
-        <v>0.0006760987258283904</v>
+        <v>0.0006760987258284182</v>
       </c>
       <c r="CK161" t="n">
         <v>0</v>
@@ -47915,13 +47915,13 @@
         <v>0.04242384651225078</v>
       </c>
       <c r="BE162" t="n">
-        <v>0.09432579423652931</v>
+        <v>0.1212999905631506</v>
       </c>
       <c r="BF162" t="n">
         <v>0.04301345404937745</v>
       </c>
       <c r="BG162" t="n">
-        <v>0.09563673616658881</v>
+        <v>0.1229858204576364</v>
       </c>
       <c r="BH162" t="n">
         <v>-0.3007420860469769</v>
@@ -48002,13 +48002,13 @@
         <v>0.001528526322473087</v>
       </c>
       <c r="CH162" t="n">
-        <v>0.0007010184947967568</v>
+        <v>0.0007010184947967152</v>
       </c>
       <c r="CI162" t="n">
-        <v>0.0005073601223471134</v>
+        <v>0.0005073601223470718</v>
       </c>
       <c r="CJ162" t="n">
-        <v>0.0004989956690592337</v>
+        <v>0.0004989956690591921</v>
       </c>
       <c r="CK162" t="n">
         <v>0</v>
@@ -48208,13 +48208,13 @@
         <v>0.03186232485402212</v>
       </c>
       <c r="BE163" t="n">
-        <v>0.1129837711261975</v>
+        <v>0.1399579674528187</v>
       </c>
       <c r="BF163" t="n">
         <v>0.03230514813452982</v>
       </c>
       <c r="BG163" t="n">
-        <v>0.114554022022937</v>
+        <v>0.1419031063139845</v>
       </c>
       <c r="BH163" t="n">
         <v>-0.2464314438338882</v>
@@ -48295,13 +48295,13 @@
         <v>0.001710556684342205</v>
       </c>
       <c r="CH163" t="n">
-        <v>0.0007321230735087177</v>
+        <v>0.0007321230735086205</v>
       </c>
       <c r="CI163" t="n">
-        <v>0.0003209532431947583</v>
+        <v>0.0003209532431946611</v>
       </c>
       <c r="CJ163" t="n">
-        <v>0.000316958432191209</v>
+        <v>0.0003169584321911119</v>
       </c>
       <c r="CK163" t="n">
         <v>0</v>
@@ -48501,13 +48501,13 @@
         <v>0.02330052611984275</v>
       </c>
       <c r="BE164" t="n">
-        <v>0.1336414709399149</v>
+        <v>0.160615667266536</v>
       </c>
       <c r="BF164" t="n">
         <v>0.02362435733621558</v>
       </c>
       <c r="BG164" t="n">
-        <v>0.1354988229958185</v>
+        <v>0.1628479072868659</v>
       </c>
       <c r="BH164" t="n">
         <v>-0.1960793253075545</v>
@@ -48588,13 +48588,13 @@
         <v>0.00174961498778974</v>
       </c>
       <c r="CH164" t="n">
-        <v>1.266826362940083e-05</v>
+        <v>1.266826362953961e-05</v>
       </c>
       <c r="CI164" t="n">
-        <v>-0.0001294408957850275</v>
+        <v>-0.0001294408957848887</v>
       </c>
       <c r="CJ164" t="n">
-        <v>-0.0001295195216904433</v>
+        <v>-0.0001295195216903045</v>
       </c>
       <c r="CK164" t="n">
         <v>0</v>
@@ -48794,13 +48794,13 @@
         <v>0.02146374033412993</v>
       </c>
       <c r="BE165" t="n">
-        <v>0.1391095597911759</v>
+        <v>0.1660837561177972</v>
       </c>
       <c r="BF165" t="n">
         <v>0.02176204386189416</v>
       </c>
       <c r="BG165" t="n">
-        <v>0.1410429074642957</v>
+        <v>0.1683919917553433</v>
       </c>
       <c r="BH165" t="n">
         <v>-0.1843382938508627</v>
@@ -49087,13 +49087,13 @@
         <v>0.019715832227832</v>
       </c>
       <c r="BE166" t="n">
-        <v>0.1446665263218522</v>
+        <v>0.1716407226484734</v>
       </c>
       <c r="BF166" t="n">
         <v>0.01998984329089998</v>
       </c>
       <c r="BG166" t="n">
-        <v>0.1466771048361005</v>
+        <v>0.174026189127148</v>
       </c>
       <c r="BH166" t="n">
         <v>-0.1728806317183671</v>
@@ -49174,13 +49174,13 @@
         <v>0.0002745726098664966</v>
       </c>
       <c r="CH166" t="n">
-        <v>0.0007130237986403762</v>
+        <v>0.0007130237986404317</v>
       </c>
       <c r="CI166" t="n">
-        <v>0.0001021756891686973</v>
+        <v>0.0001021756891687528</v>
       </c>
       <c r="CJ166" t="n">
-        <v>0.0001031958410110702</v>
+        <v>0.0001031958410111257</v>
       </c>
       <c r="CK166" t="n">
         <v>0</v>
@@ -49380,13 +49380,13 @@
         <v>0.01390921669272831</v>
       </c>
       <c r="BE167" t="n">
-        <v>0.168079409334645</v>
+        <v>0.1950536056612664</v>
       </c>
       <c r="BF167" t="n">
         <v>0.0141025272874004</v>
       </c>
       <c r="BG167" t="n">
-        <v>0.1704153806037965</v>
+        <v>0.1977644648948441</v>
       </c>
       <c r="BH167" t="n">
         <v>-0.1316526421250081</v>
@@ -49467,13 +49467,13 @@
         <v>0.001527572328876689</v>
       </c>
       <c r="CH167" t="n">
-        <v>-2.601383515600866e-06</v>
+        <v>-2.601383515822911e-06</v>
       </c>
       <c r="CI167" t="n">
-        <v>-0.0001572598937709963</v>
+        <v>-0.0001572598937712184</v>
       </c>
       <c r="CJ167" t="n">
-        <v>-0.0001566136884837603</v>
+        <v>-0.0001566136884839824</v>
       </c>
       <c r="CK167" t="n">
         <v>1</v>
@@ -49673,13 +49673,13 @@
         <v>0.01267975418217304</v>
       </c>
       <c r="BE168" t="n">
-        <v>0.1741548214610642</v>
+        <v>0.2011290177876853</v>
       </c>
       <c r="BF168" t="n">
         <v>0.0128559776802607</v>
       </c>
       <c r="BG168" t="n">
-        <v>0.1765752289394559</v>
+        <v>0.2039243132305033</v>
       </c>
       <c r="BH168" t="n">
         <v>-0.1223232920253142</v>
@@ -49966,13 +49966,13 @@
         <v>0.007954470938515373</v>
       </c>
       <c r="BE169" t="n">
-        <v>0.2059539114022774</v>
+        <v>0.2329281077288985</v>
       </c>
       <c r="BF169" t="n">
         <v>0.008065022347799993</v>
       </c>
       <c r="BG169" t="n">
-        <v>0.2088162633209898</v>
+        <v>0.2361653476120372</v>
       </c>
       <c r="BH169" t="n">
         <v>-0.08331512466951466</v>
@@ -50053,13 +50053,13 @@
         <v>0.001591083670460116</v>
       </c>
       <c r="CH169" t="n">
-        <v>0.0004744577518061496</v>
+        <v>0.0004744577518061219</v>
       </c>
       <c r="CI169" t="n">
-        <v>-1.117283667023683e-05</v>
+        <v>-1.117283667026459e-05</v>
       </c>
       <c r="CJ169" t="n">
-        <v>-8.295206896210411e-06</v>
+        <v>-8.295206896238166e-06</v>
       </c>
       <c r="CK169" t="n">
         <v>0</v>
@@ -50259,13 +50259,13 @@
         <v>0.005421481937976839</v>
       </c>
       <c r="BE170" t="n">
-        <v>0.2326404209496354</v>
+        <v>0.2596146172762565</v>
       </c>
       <c r="BF170" t="n">
         <v>0.005496829811303324</v>
       </c>
       <c r="BG170" t="n">
-        <v>0.2358736625556887</v>
+        <v>0.2632227468467361</v>
       </c>
       <c r="BH170" t="n">
         <v>-0.06001520314506524</v>
@@ -50346,13 +50346,13 @@
         <v>0.0008149312100036576</v>
       </c>
       <c r="CH170" t="n">
-        <v>0.001335281963500079</v>
+        <v>0.001335281963500107</v>
       </c>
       <c r="CI170" t="n">
-        <v>0.0006180796747606715</v>
+        <v>0.0006180796747606992</v>
       </c>
       <c r="CJ170" t="n">
-        <v>0.0006229405407807004</v>
+        <v>0.0006229405407807281</v>
       </c>
       <c r="CK170" t="n">
         <v>0</v>
@@ -50552,13 +50552,13 @@
         <v>0.002577426568853518</v>
       </c>
       <c r="BE171" t="n">
-        <v>0.2882353626763053</v>
+        <v>0.3152095590029265</v>
       </c>
       <c r="BF171" t="n">
         <v>0.002613247699097984</v>
       </c>
       <c r="BG171" t="n">
-        <v>0.2922412639858746</v>
+        <v>0.319590348276922</v>
       </c>
       <c r="BH171" t="n">
         <v>-0.03076327585844748</v>
@@ -50639,13 +50639,13 @@
         <v>0.001247764956120473</v>
       </c>
       <c r="CH171" t="n">
-        <v>0.002034364139572878</v>
+        <v>0.002034364139573044</v>
       </c>
       <c r="CI171" t="n">
-        <v>0.0014637895190662</v>
+        <v>0.001463789519066366</v>
       </c>
       <c r="CJ171" t="n">
-        <v>0.001469394578955424</v>
+        <v>0.001469394578955591</v>
       </c>
       <c r="CK171" t="n">
         <v>0</v>
@@ -50845,13 +50845,13 @@
         <v>0.00079989106258178</v>
       </c>
       <c r="BE172" t="n">
-        <v>0.4033358213616199</v>
+        <v>0.4303100176882412</v>
       </c>
       <c r="BF172" t="n">
         <v>0.0008110079658838484</v>
       </c>
       <c r="BG172" t="n">
-        <v>0.4089413913374428</v>
+        <v>0.4362904756284903</v>
       </c>
       <c r="BH172" t="n">
         <v>-0.009718089644121616</v>
@@ -51129,13 +51129,13 @@
         </is>
       </c>
       <c r="BD173" t="n">
-        <v>0.4931357194211445</v>
+        <v>0.4600829902804683</v>
       </c>
       <c r="BE173" t="n">
         <v>0.01106515807449091</v>
       </c>
       <c r="BF173" t="n">
-        <v>0.5077330145363488</v>
+        <v>0.4737018925869024</v>
       </c>
       <c r="BG173" t="n">
         <v>0.01139269747500185</v>
@@ -51165,13 +51165,13 @@
         <v>1.187898916354951</v>
       </c>
       <c r="BP173" t="n">
-        <v>-0.5926048243716238</v>
+        <v>-1.166159649437078</v>
       </c>
       <c r="BQ173" t="n">
-        <v>-0.6403855764288738</v>
+        <v>-0.6403855764288908</v>
       </c>
       <c r="BR173" t="n">
-        <v>-0.04778075205725008</v>
+        <v>0.5257740730081868</v>
       </c>
       <c r="BS173" t="n">
         <v>-1.705229589307496</v>
@@ -51416,13 +51416,13 @@
         </is>
       </c>
       <c r="BD174" t="n">
-        <v>0.4397059594632107</v>
+        <v>0.4066532303225344</v>
       </c>
       <c r="BE174" t="n">
         <v>0.01518311352248449</v>
       </c>
       <c r="BF174" t="n">
-        <v>0.4527216819132753</v>
+        <v>0.4186905599638288</v>
       </c>
       <c r="BG174" t="n">
         <v>0.0156325483943196</v>
@@ -51452,13 +51452,13 @@
         <v>1.049175227991399</v>
       </c>
       <c r="BP174" t="n">
-        <v>-0.6927112368502945</v>
+        <v>-0.6927112368503076</v>
       </c>
       <c r="BQ174" t="n">
-        <v>-0.4413368561802499</v>
+        <v>-0.4413368561802469</v>
       </c>
       <c r="BR174" t="n">
-        <v>0.2513743806700445</v>
+        <v>0.2513743806700607</v>
       </c>
       <c r="BS174" t="n">
         <v>-1.822984742366214</v>
@@ -51497,13 +51497,13 @@
         <v>0.1144733868993462</v>
       </c>
       <c r="CE174" t="n">
-        <v>0.002135148947819895</v>
+        <v>0.002135148947820006</v>
       </c>
       <c r="CF174" t="n">
-        <v>0.002550239804461195</v>
+        <v>0.002550239804461306</v>
       </c>
       <c r="CG174" t="n">
-        <v>0.002542832738574502</v>
+        <v>0.002542832738574613</v>
       </c>
       <c r="CH174" t="n">
         <v>3.056647743631367e-05</v>
@@ -51709,13 +51709,13 @@
         </is>
       </c>
       <c r="BD175" t="n">
-        <v>0.3370236543157908</v>
+        <v>0.3039709251751145</v>
       </c>
       <c r="BE175" t="n">
         <v>0.02759623918691938</v>
       </c>
       <c r="BF175" t="n">
-        <v>0.3469998810402045</v>
+        <v>0.3129687590907581</v>
       </c>
       <c r="BG175" t="n">
         <v>0.02841311460603135</v>
@@ -51745,13 +51745,13 @@
         <v>0.7523862165418982</v>
       </c>
       <c r="BP175" t="n">
-        <v>-0.6198779735680838</v>
+        <v>-0.6198779735680818</v>
       </c>
       <c r="BQ175" t="n">
-        <v>-0.44134697114694</v>
+        <v>-0.4413469711469483</v>
       </c>
       <c r="BR175" t="n">
-        <v>0.1785310024211438</v>
+        <v>0.1785310024211335</v>
       </c>
       <c r="BS175" t="n">
         <v>-2.129173911660371</v>
@@ -51790,13 +51790,13 @@
         <v>0.1654112239662815</v>
       </c>
       <c r="CE175" t="n">
-        <v>0.006570424792207222</v>
+        <v>0.006570424792207166</v>
       </c>
       <c r="CF175" t="n">
-        <v>0.006867290797710909</v>
+        <v>0.006867290797710854</v>
       </c>
       <c r="CG175" t="n">
-        <v>0.006821055370683754</v>
+        <v>0.006821055370683698</v>
       </c>
       <c r="CH175" t="n">
         <v>-0.0004453841416964333</v>
@@ -52002,13 +52002,13 @@
         </is>
       </c>
       <c r="BD176" t="n">
-        <v>0.3125158800196767</v>
+        <v>0.2794631508790004</v>
       </c>
       <c r="BE176" t="n">
         <v>0.03186232259376885</v>
       </c>
       <c r="BF176" t="n">
-        <v>0.3217666528782923</v>
+        <v>0.2877355309288457</v>
       </c>
       <c r="BG176" t="n">
         <v>0.03280547821531465</v>
@@ -52038,13 +52038,13 @@
         <v>0.6729964273626833</v>
       </c>
       <c r="BP176" t="n">
-        <v>-0.4960081859845205</v>
+        <v>-0.4960081859845281</v>
       </c>
       <c r="BQ176" t="n">
         <v>-0.2546122004933967</v>
       </c>
       <c r="BR176" t="n">
-        <v>0.2413959854911238</v>
+        <v>0.2413959854911314</v>
       </c>
       <c r="BS176" t="n">
         <v>-2.220736236457944</v>
@@ -52083,13 +52083,13 @@
         <v>0.1823085345431752</v>
       </c>
       <c r="CE176" t="n">
-        <v>0.001004093103875156</v>
+        <v>0.001004093103875212</v>
       </c>
       <c r="CF176" t="n">
-        <v>0.001024176876887533</v>
+        <v>0.001024176876887588</v>
       </c>
       <c r="CG176" t="n">
-        <v>0.001008634611497666</v>
+        <v>0.001008634611497722</v>
       </c>
       <c r="CH176" t="n">
         <v>0.003121231248959435</v>
@@ -52295,13 +52295,13 @@
         </is>
       </c>
       <c r="BD177" t="n">
-        <v>0.2214171808027438</v>
+        <v>0.1883644516620674</v>
       </c>
       <c r="BE177" t="n">
         <v>0.05585905418869073</v>
       </c>
       <c r="BF177" t="n">
-        <v>0.2279713438951032</v>
+        <v>0.1939402219456567</v>
       </c>
       <c r="BG177" t="n">
         <v>0.05751253631690816</v>
@@ -52334,10 +52334,10 @@
         <v>-0.5271556828048852</v>
       </c>
       <c r="BQ177" t="n">
-        <v>-0.3221925048054874</v>
+        <v>-0.3221925048054845</v>
       </c>
       <c r="BR177" t="n">
-        <v>0.2049631779993978</v>
+        <v>0.2049631779994007</v>
       </c>
       <c r="BS177" t="n">
         <v>-2.641981394091371</v>
@@ -52588,13 +52588,13 @@
         </is>
       </c>
       <c r="BD178" t="n">
-        <v>0.2006718557574699</v>
+        <v>0.1676191266167937</v>
       </c>
       <c r="BE178" t="n">
         <v>0.06388758684638064</v>
       </c>
       <c r="BF178" t="n">
-        <v>0.2066119371274545</v>
+        <v>0.1725808151780081</v>
       </c>
       <c r="BG178" t="n">
         <v>0.06577872132045515</v>
@@ -52624,13 +52624,13 @@
         <v>0.2335696268741113</v>
       </c>
       <c r="BP178" t="n">
-        <v>-0.3986404466604179</v>
+        <v>-0.3986404466604152</v>
       </c>
       <c r="BQ178" t="n">
-        <v>-0.3169280351934167</v>
+        <v>-0.3169280351934243</v>
       </c>
       <c r="BR178" t="n">
-        <v>0.0817124114670012</v>
+        <v>0.08171241146699088</v>
       </c>
       <c r="BS178" t="n">
         <v>-2.762219555202535</v>
@@ -52669,13 +52669,13 @@
         <v>0.3046125455455844</v>
       </c>
       <c r="CE178" t="n">
-        <v>0.001120815552059191</v>
+        <v>0.001120815552059163</v>
       </c>
       <c r="CF178" t="n">
-        <v>0.0008256228283146719</v>
+        <v>0.0008256228283146441</v>
       </c>
       <c r="CG178" t="n">
-        <v>0.0007581419191712638</v>
+        <v>0.000758141919171236</v>
       </c>
       <c r="CH178" t="n">
         <v>-0.0002362368305083608</v>
@@ -52881,13 +52881,13 @@
         </is>
       </c>
       <c r="BD179" t="n">
-        <v>0.1807856778461184</v>
+        <v>0.1477329487054421</v>
       </c>
       <c r="BE179" t="n">
         <v>0.07277526663799275</v>
       </c>
       <c r="BF179" t="n">
-        <v>0.1861371090813568</v>
+        <v>0.1521059871319102</v>
       </c>
       <c r="BG179" t="n">
         <v>0.07492948504555293</v>
@@ -52917,13 +52917,13 @@
         <v>0.1373773769597869</v>
       </c>
       <c r="BP179" t="n">
-        <v>-0.3965562277240011</v>
+        <v>-0.3965562277240083</v>
       </c>
       <c r="BQ179" t="n">
-        <v>-0.2934357998860664</v>
+        <v>-0.2934357998860589</v>
       </c>
       <c r="BR179" t="n">
-        <v>0.1031204278379346</v>
+        <v>0.1031204278379493</v>
       </c>
       <c r="BS179" t="n">
         <v>-2.891538021855876</v>
@@ -52962,13 +52962,13 @@
         <v>0.3382326283456316</v>
       </c>
       <c r="CE179" t="n">
-        <v>0.001288972199823182</v>
+        <v>0.001288972199823265</v>
       </c>
       <c r="CF179" t="n">
-        <v>0.0009584755364545235</v>
+        <v>0.0009584755364546067</v>
       </c>
       <c r="CG179" t="n">
-        <v>0.0008695780459683604</v>
+        <v>0.0008695780459684437</v>
       </c>
       <c r="CH179" t="n">
         <v>-0.000114664514222174</v>
@@ -53174,13 +53174,13 @@
         </is>
       </c>
       <c r="BD180" t="n">
-        <v>0.1620400463416013</v>
+        <v>0.128987317200925</v>
       </c>
       <c r="BE180" t="n">
         <v>0.08280349283643933</v>
       </c>
       <c r="BF180" t="n">
-        <v>0.16683658872086</v>
+        <v>0.1328054667714135</v>
       </c>
       <c r="BG180" t="n">
         <v>0.08525455645625178</v>
@@ -53210,13 +53210,13 @@
         <v>0.03719952102883456</v>
       </c>
       <c r="BP180" t="n">
-        <v>-0.3783565617201445</v>
+        <v>-0.3783565617201373</v>
       </c>
       <c r="BQ180" t="n">
-        <v>-0.270317704198983</v>
+        <v>-0.2703177041989914</v>
       </c>
       <c r="BR180" t="n">
-        <v>0.1080388575211614</v>
+        <v>0.1080388575211459</v>
       </c>
       <c r="BS180" t="n">
         <v>-3.025181660611074</v>
@@ -53255,13 +53255,13 @@
         <v>0.3758654747174327</v>
       </c>
       <c r="CE180" t="n">
-        <v>0.001262020791470787</v>
+        <v>0.001262020791470704</v>
       </c>
       <c r="CF180" t="n">
-        <v>0.0009256858083543408</v>
+        <v>0.0009256858083542575</v>
       </c>
       <c r="CG180" t="n">
-        <v>0.0008101657041665079</v>
+        <v>0.0008101657041664247</v>
       </c>
       <c r="CH180" t="n">
         <v>1.913839803329223e-05</v>
@@ -53467,13 +53467,13 @@
         </is>
       </c>
       <c r="BD181" t="n">
-        <v>0.1445387407731985</v>
+        <v>0.1114860116325221</v>
       </c>
       <c r="BE181" t="n">
         <v>0.09407604497100025</v>
       </c>
       <c r="BF181" t="n">
-        <v>0.1488172275498672</v>
+        <v>0.1147861056004206</v>
       </c>
       <c r="BG181" t="n">
         <v>0.09686078705645471</v>
@@ -53503,13 +53503,13 @@
         <v>-0.06700364686401517</v>
       </c>
       <c r="BP181" t="n">
-        <v>-0.360444678426817</v>
+        <v>-0.3604446784268251</v>
       </c>
       <c r="BQ181" t="n">
-        <v>-2.077898413571984</v>
+        <v>-0.2197845466845294</v>
       </c>
       <c r="BR181" t="n">
-        <v>-1.717453735145168</v>
+        <v>0.1406601317422957</v>
       </c>
       <c r="BS181" t="n">
         <v>-3.161706898505589</v>
@@ -53521,13 +53521,13 @@
         <v>-3.104061465752604</v>
       </c>
       <c r="BV181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY181" t="n">
         <v>0.5671523667396493</v>
@@ -53548,31 +53548,31 @@
         <v>0.4176854328111679</v>
       </c>
       <c r="CE181" t="n">
-        <v>0.001217136681896398</v>
+        <v>0.001217136681896495</v>
       </c>
       <c r="CF181" t="n">
-        <v>0.0009151854359617136</v>
+        <v>0.0009151854359618107</v>
       </c>
       <c r="CG181" t="n">
-        <v>0.0007679475210358652</v>
+        <v>0.0007679475210359624</v>
       </c>
       <c r="CH181" t="n">
-        <v>-0.03328065433720636</v>
+        <v>0.0007504676122401868</v>
       </c>
       <c r="CI181" t="n">
-        <v>-0.03282772746830434</v>
+        <v>0.001203394481142209</v>
       </c>
       <c r="CJ181" t="n">
-        <v>-0.03260687059591556</v>
+        <v>0.00142425135353098</v>
       </c>
       <c r="CK181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -53763,13 +53763,13 @@
         <v>0.08773616109915389</v>
       </c>
       <c r="BE182" t="n">
-        <v>0.08043425185140118</v>
+        <v>0.1134869809920775</v>
       </c>
       <c r="BF182" t="n">
         <v>0.09033323647901642</v>
       </c>
       <c r="BG182" t="n">
-        <v>0.08281518364239736</v>
+        <v>0.1168463055918439</v>
       </c>
       <c r="BH182" t="n">
         <v>-0.3970056445865224</v>
@@ -53796,13 +53796,13 @@
         <v>-0.2307425790275863</v>
       </c>
       <c r="BP182" t="n">
-        <v>-2.185653031685038</v>
+        <v>-0.3644696761744738</v>
       </c>
       <c r="BQ182" t="n">
         <v>-0.2997209114781195</v>
       </c>
       <c r="BR182" t="n">
-        <v>1.885932120206919</v>
+        <v>0.06474876469635432</v>
       </c>
       <c r="BS182" t="n">
         <v>-3.369034741109775</v>
@@ -53841,22 +53841,22 @@
         <v>0.4881333472605239</v>
       </c>
       <c r="CE182" t="n">
-        <v>0.03627438524079858</v>
+        <v>0.002243263291351993</v>
       </c>
       <c r="CF182" t="n">
-        <v>0.03603912329302103</v>
+        <v>0.002008001343574446</v>
       </c>
       <c r="CG182" t="n">
-        <v>0.03573746232782871</v>
+        <v>0.001706340378382125</v>
       </c>
       <c r="CH182" t="n">
-        <v>-0.0003444501538126254</v>
+        <v>-0.0003444501538127503</v>
       </c>
       <c r="CI182" t="n">
-        <v>-0.0002660295045534425</v>
+        <v>-0.0002660295045535674</v>
       </c>
       <c r="CJ182" t="n">
-        <v>-0.0001654758494893374</v>
+        <v>-0.0001654758494894623</v>
       </c>
       <c r="CK182" t="n">
         <v>1</v>
@@ -54056,13 +54056,13 @@
         <v>0.08021125355645971</v>
       </c>
       <c r="BE183" t="n">
-        <v>0.08729627316018884</v>
+        <v>0.1203490023008651</v>
       </c>
       <c r="BF183" t="n">
         <v>0.082585584381853</v>
       </c>
       <c r="BG183" t="n">
-        <v>0.08988032743083174</v>
+        <v>0.1239114493802782</v>
       </c>
       <c r="BH183" t="n">
         <v>-0.37578643937513</v>
@@ -54349,13 +54349,13 @@
         <v>0.06673164546461816</v>
       </c>
       <c r="BE184" t="n">
-        <v>0.102590522771311</v>
+        <v>0.1356432519119872</v>
       </c>
       <c r="BF184" t="n">
         <v>0.06870696682952281</v>
       </c>
       <c r="BG184" t="n">
-        <v>0.1056273016496972</v>
+        <v>0.1396584235991436</v>
       </c>
       <c r="BH184" t="n">
         <v>-0.3332695909745504</v>
@@ -54642,13 +54642,13 @@
         <v>0.05462959167813542</v>
       </c>
       <c r="BE185" t="n">
-        <v>0.1192623266877921</v>
+        <v>0.1523150558284684</v>
       </c>
       <c r="BF185" t="n">
         <v>0.05624668052476148</v>
       </c>
       <c r="BG185" t="n">
-        <v>0.1227926071161317</v>
+        <v>0.1568237290655781</v>
       </c>
       <c r="BH185" t="n">
         <v>-0.2912084475999993</v>
@@ -54729,13 +54729,13 @@
         <v>0.001268828179585417</v>
       </c>
       <c r="CH185" t="n">
-        <v>0.0004361570828007276</v>
+        <v>0.0004361570828007415</v>
       </c>
       <c r="CI185" t="n">
-        <v>0.0001200941521339038</v>
+        <v>0.0001200941521339177</v>
       </c>
       <c r="CJ185" t="n">
-        <v>0.0003935592101763676</v>
+        <v>0.0003935592101763814</v>
       </c>
       <c r="CK185" t="n">
         <v>0</v>
@@ -54935,13 +54935,13 @@
         <v>0.04414213173908148</v>
       </c>
       <c r="BE186" t="n">
-        <v>0.1375487244517019</v>
+        <v>0.1706014535923781</v>
       </c>
       <c r="BF186" t="n">
         <v>0.04544878160976203</v>
       </c>
       <c r="BG186" t="n">
-        <v>0.1416202999723278</v>
+        <v>0.1756514219217743</v>
       </c>
       <c r="BH186" t="n">
         <v>-0.2505870870998836</v>
@@ -55022,13 +55022,13 @@
         <v>0.001257398768164395</v>
       </c>
       <c r="CH186" t="n">
-        <v>7.782803185756547e-05</v>
+        <v>7.782803185750996e-05</v>
       </c>
       <c r="CI186" t="n">
-        <v>-0.0001893085359814736</v>
+        <v>-0.0001893085359815291</v>
       </c>
       <c r="CJ186" t="n">
-        <v>-4.914953320134773e-05</v>
+        <v>-4.914953320140324e-05</v>
       </c>
       <c r="CK186" t="n">
         <v>0</v>
@@ -55228,13 +55228,13 @@
         <v>0.03946128959538463</v>
       </c>
       <c r="BE187" t="n">
-        <v>0.1472548111594868</v>
+        <v>0.180307540300163</v>
       </c>
       <c r="BF187" t="n">
         <v>0.04062938200314314</v>
       </c>
       <c r="BG187" t="n">
-        <v>0.1516136962513067</v>
+        <v>0.1856448182007531</v>
       </c>
       <c r="BH187" t="n">
         <v>-0.2310499500767345</v>
@@ -55315,13 +55315,13 @@
         <v>0.0004541170156677939</v>
       </c>
       <c r="CH187" t="n">
-        <v>0.008062940177381406</v>
+        <v>0.0080629401773816</v>
       </c>
       <c r="CI187" t="n">
-        <v>0.005840450332254318</v>
+        <v>0.005840450332254513</v>
       </c>
       <c r="CJ187" t="n">
-        <v>0.006810750447279718</v>
+        <v>0.006810750447279912</v>
       </c>
       <c r="CK187" t="n">
         <v>0</v>
@@ -55521,13 +55521,13 @@
         <v>0.01639776459330613</v>
       </c>
       <c r="BE188" t="n">
-        <v>0.2248997881177811</v>
+        <v>0.2579525172584575</v>
       </c>
       <c r="BF188" t="n">
         <v>0.01688315431376505</v>
       </c>
       <c r="BG188" t="n">
-        <v>0.2315570397611132</v>
+        <v>0.2655881617105598</v>
       </c>
       <c r="BH188" t="n">
         <v>-0.1169155675617765</v>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1098,7 +1098,7 @@
         <v>-1.928287791505278</v>
       </c>
       <c r="BB2" t="n">
-        <v>-1.714757215707303</v>
+        <v>-1.701496510779532</v>
       </c>
       <c r="BC2" t="n">
         <v>-1.567201912176949</v>
@@ -1192,10 +1192,10 @@
         <v>0.002525552808122056</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.9975431078644862</v>
+        <v>0.9975147191844571</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.002456892135513811</v>
+        <v>0.00248528081554289</v>
       </c>
       <c r="CH2" t="inlineStr"/>
       <c r="CI2" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="CN2" t="inlineStr"/>
       <c r="CO2" t="n">
-        <v>-2.158649748410029e-05</v>
+        <v>-2.200701320683259e-05</v>
       </c>
       <c r="CP2" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>-1.880324730083585</v>
       </c>
       <c r="BB3" t="n">
-        <v>-1.63385706358822</v>
+        <v>-1.511127490455569</v>
       </c>
       <c r="BC3" t="n">
         <v>-1.606881987311531</v>
@@ -1497,10 +1497,10 @@
         <v>0.002946079501074839</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.996817646283353</v>
+        <v>0.996508307539189</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.003182353716646991</v>
+        <v>0.003491692460811047</v>
       </c>
       <c r="CH3" t="n">
         <v>2.313061483363507e-05</v>
@@ -1521,10 +1521,10 @@
         <v>3.11762493613879e-05</v>
       </c>
       <c r="CN3" t="n">
-        <v>3.233261180826674e-05</v>
+        <v>3.691478348507617e-05</v>
       </c>
       <c r="CO3" t="n">
-        <v>2.417648590478786e-05</v>
+        <v>1.501214255116922e-05</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>-1.755020965029151</v>
       </c>
       <c r="BB4" t="n">
-        <v>-1.482167539124002</v>
+        <v>-1.214596586151973</v>
       </c>
       <c r="BC4" t="n">
         <v>-1.705763249468916</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ4" t="n">
         <v>0.9935696468807392</v>
@@ -1810,10 +1810,10 @@
         <v>0.006032481138049772</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.9922969448509515</v>
+        <v>0.9910488824752272</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.007703055149048454</v>
+        <v>0.008951117524772845</v>
       </c>
       <c r="CH4" t="n">
         <v>7.204741847014612e-05</v>
@@ -1834,10 +1834,10 @@
         <v>1.454881221233056e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.000109751969251011</v>
+        <v>0.0001467265556992087</v>
       </c>
       <c r="CO4" t="n">
-        <v>2.175876293976515e-06</v>
+        <v>-7.067770318073386e-06</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2029,7 +2029,7 @@
         <v>-1.716099951331876</v>
       </c>
       <c r="BB5" t="n">
-        <v>-1.44613417443084</v>
+        <v>-1.156068420532423</v>
       </c>
       <c r="BC5" t="n">
         <v>-1.735411899505009</v>
@@ -2123,10 +2123,10 @@
         <v>0.007574265880371245</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.9900150313091798</v>
+        <v>0.9883821257045884</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.009984968690820217</v>
+        <v>0.01161787429541161</v>
       </c>
       <c r="CH5" t="n">
         <v>3.468979536757656e-06</v>
@@ -2147,10 +2147,10 @@
         <v>3.129802647969665e-06</v>
       </c>
       <c r="CN5" t="n">
-        <v>1.472488346745699e-05</v>
+        <v>2.681883217808823e-05</v>
       </c>
       <c r="CO5" t="n">
-        <v>-1.472482168803901e-05</v>
+        <v>-2.681877039866942e-05</v>
       </c>
       <c r="CP5" t="n">
         <v>1</v>
@@ -2342,7 +2342,7 @@
         <v>-1.67354649779051</v>
       </c>
       <c r="BB6" t="n">
-        <v>-1.410802147828059</v>
+        <v>-1.103202454941772</v>
       </c>
       <c r="BC6" t="n">
         <v>-1.767380282966641</v>
@@ -2436,10 +2436,10 @@
         <v>0.009175812816249906</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.9875074655011723</v>
+        <v>0.9854686988067967</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.0124925344988277</v>
+        <v>0.01453130119320334</v>
       </c>
       <c r="CH6" t="n">
         <v>2.039886117464074e-05</v>
@@ -2460,10 +2460,10 @@
         <v>0.0001009916653835785</v>
       </c>
       <c r="CN6" t="n">
-        <v>3.329685192990026e-05</v>
+        <v>4.839676938097129e-05</v>
       </c>
       <c r="CO6" t="n">
-        <v>5.186174409021706e-05</v>
+        <v>2.166190918807579e-05</v>
       </c>
       <c r="CP6" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>-1.57617955825512</v>
       </c>
       <c r="BB7" t="n">
-        <v>-1.342163303025372</v>
+        <v>-1.013441177751354</v>
       </c>
       <c r="BC7" t="n">
         <v>-1.839037321251368</v>
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="BY7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ7" t="n">
         <v>0.9803508536431864</v>
@@ -2749,10 +2749,10 @@
         <v>0.01545864337152703</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.978005796962624</v>
+        <v>0.9747117009385435</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.02199420303737598</v>
+        <v>0.02528829906145647</v>
       </c>
       <c r="CH7" t="n">
         <v>5.414768659456858e-05</v>
@@ -2773,10 +2773,10 @@
         <v>6.319064283360775e-05</v>
       </c>
       <c r="CN7" t="n">
-        <v>8.888453254389701e-05</v>
+        <v>0.0001376793045761611</v>
       </c>
       <c r="CO7" t="n">
-        <v>1.478568716942419e-05</v>
+        <v>-9.611698846707744e-06</v>
       </c>
       <c r="CP7" t="n">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2968,7 +2968,7 @@
         <v>-1.520641792346317</v>
       </c>
       <c r="BB8" t="n">
-        <v>-1.308823995527881</v>
+        <v>-0.9760753789130907</v>
       </c>
       <c r="BC8" t="n">
         <v>-1.879082977715784</v>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="BY8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ8" t="n">
         <v>0.9733534347481055</v>
@@ -3062,10 +3062,10 @@
         <v>0.02023242625845256</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.9707432985214012</v>
+        <v>0.9666429857447723</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.02925670147859882</v>
+        <v>0.03335701425522775</v>
       </c>
       <c r="CH8" t="n">
         <v>1.967155876535231e-05</v>
@@ -3086,10 +3086,10 @@
         <v>8.706156628663473e-05</v>
       </c>
       <c r="CN8" t="n">
-        <v>3.900326634524026e-05</v>
+        <v>6.937181445889739e-05</v>
       </c>
       <c r="CO8" t="n">
-        <v>2.022419286089284e-05</v>
+        <v>-1.014435525276348e-05</v>
       </c>
       <c r="CP8" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3281,7 +3281,7 @@
         <v>-1.460035301213296</v>
       </c>
       <c r="BB9" t="n">
-        <v>-1.276120204995321</v>
+        <v>-0.9434260106622649</v>
       </c>
       <c r="BC9" t="n">
         <v>-1.92211094595993</v>
@@ -3375,10 +3375,10 @@
         <v>0.02665376260713648</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.9610013285780105</v>
+        <v>0.9559657572411639</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.03899867142198954</v>
+        <v>0.04403424275883605</v>
       </c>
       <c r="CH9" t="n">
         <v>3.131159550263333e-05</v>
@@ -3399,10 +3399,10 @@
         <v>0.0001579586420565493</v>
       </c>
       <c r="CN9" t="n">
-        <v>5.192871328663431e-05</v>
+        <v>8.922415847667075e-05</v>
       </c>
       <c r="CO9" t="n">
-        <v>6.652733480618092e-05</v>
+        <v>2.923188961614351e-05</v>
       </c>
       <c r="CP9" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>-1.39398834020186</v>
       </c>
       <c r="BB10" t="n">
-        <v>-1.244040796651366</v>
+        <v>-0.9152822319970766</v>
       </c>
       <c r="BC10" t="n">
         <v>-1.96812160678939</v>
@@ -3688,10 +3688,10 @@
         <v>0.03618148878315741</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.9468595550060915</v>
+        <v>0.9406789658216143</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.05314044499390846</v>
+        <v>0.05932103417838575</v>
       </c>
       <c r="CH10" t="n">
         <v>1.733377238710785e-05</v>
@@ -3712,10 +3712,10 @@
         <v>0.0002206548585609843</v>
       </c>
       <c r="CN10" t="n">
-        <v>3.821226788441011e-05</v>
+        <v>8.398817090560836e-05</v>
       </c>
       <c r="CO10" t="n">
-        <v>9.505008016966199e-05</v>
+        <v>4.92741771484646e-05</v>
       </c>
       <c r="CP10" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>-1.32214903593517</v>
       </c>
       <c r="BB11" t="n">
-        <v>-1.212576095511132</v>
+        <v>-0.8914326427671317</v>
       </c>
       <c r="BC11" t="n">
         <v>-2.016890606210079</v>
@@ -4001,10 +4001,10 @@
         <v>0.04927449571270237</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.9277567616793491</v>
+        <v>0.9203173930051242</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.07224323832065094</v>
+        <v>0.07968260699487584</v>
       </c>
       <c r="CH11" t="n">
         <v>2.763326272532847e-05</v>
@@ -4025,10 +4025,10 @@
         <v>0.0003309800758749518</v>
       </c>
       <c r="CN11" t="n">
-        <v>4.643280902723486e-05</v>
+        <v>0.0001015317338717361</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0001608644278747627</v>
+        <v>0.0001057655030302604</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-1.244205982392641</v>
       </c>
       <c r="BB12" t="n">
-        <v>-1.181717625719726</v>
+        <v>-0.8716544072941068</v>
       </c>
       <c r="BC12" t="n">
         <v>-2.067767682113491</v>
@@ -4314,10 +4314,10 @@
         <v>0.06767568647732625</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.901648811447752</v>
+        <v>0.8928672137971457</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.098351188552248</v>
+        <v>0.1071327862028543</v>
       </c>
       <c r="CH12" t="n">
         <v>1.93936523417643e-05</v>
@@ -4338,10 +4338,10 @@
         <v>0.00038718376534121</v>
       </c>
       <c r="CN12" t="n">
-        <v>3.250144101123349e-05</v>
+        <v>9.754144778517226e-05</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0001599887898791878</v>
+        <v>9.494878310525032e-05</v>
       </c>
       <c r="CP12" t="n">
         <v>0</v>
@@ -4533,7 +4533,7 @@
         <v>-1.159914282633829</v>
       </c>
       <c r="BB13" t="n">
-        <v>-1.151457884224434</v>
+        <v>-0.8556973802380223</v>
       </c>
       <c r="BC13" t="n">
         <v>-2.119307447815927</v>
@@ -4627,10 +4627,10 @@
         <v>0.09140504297831276</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.8688834681684056</v>
+        <v>0.858886376460725</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.1311165318315944</v>
+        <v>0.141113623539275</v>
       </c>
       <c r="CH13" t="n">
         <v>8.056735622635845e-05</v>
@@ -4651,10 +4651,10 @@
         <v>0.0005519948579647017</v>
       </c>
       <c r="CN13" t="n">
-        <v>8.268438118005754e-05</v>
+        <v>0.000156726820637795</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0002578757686162724</v>
+        <v>0.0001838333291585342</v>
       </c>
       <c r="CP13" t="n">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>-1.069126816195251</v>
       </c>
       <c r="BB14" t="n">
-        <v>-1.12179014481146</v>
+        <v>-0.8432626057056708</v>
       </c>
       <c r="BC14" t="n">
         <v>-2.168588265845375</v>
@@ -4940,10 +4940,10 @@
         <v>0.1236683848895428</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.8262814553134362</v>
+        <v>0.8152396445378775</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.1737185446865638</v>
+        <v>0.1847603554621225</v>
       </c>
       <c r="CH14" t="n">
         <v>7.311446924785497e-05</v>
@@ -4964,10 +4964,10 @@
         <v>0.0006832123173143229</v>
       </c>
       <c r="CN14" t="n">
-        <v>5.765169175187337e-05</v>
+        <v>0.0001394317363647476</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.0003125209167569075</v>
+        <v>0.0002307408721440335</v>
       </c>
       <c r="CP14" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>-0.9718295803668864</v>
       </c>
       <c r="BB15" t="n">
-        <v>-1.092708288995696</v>
+        <v>-0.8339760971812644</v>
       </c>
       <c r="BC15" t="n">
         <v>-2.209960894032084</v>
@@ -5253,10 +5253,10 @@
         <v>0.1654791945355054</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.7740041682345515</v>
+        <v>0.7622959405565548</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.2259958317654485</v>
+        <v>0.2377040594434452</v>
       </c>
       <c r="CH15" t="n">
         <v>0.0001151787678234893</v>
@@ -5277,10 +5277,10 @@
         <v>0.0007289121197837658</v>
       </c>
       <c r="CN15" t="n">
-        <v>7.466547471924895e-05</v>
+        <v>0.0001613812681073856</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0002807018222988115</v>
+        <v>0.0001939860289106759</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>-0.8681786885408623</v>
       </c>
       <c r="BB16" t="n">
-        <v>-1.064206660652274</v>
+        <v>-0.8273616282076196</v>
       </c>
       <c r="BC16" t="n">
         <v>-2.232816359816352</v>
@@ -5566,10 +5566,10 @@
         <v>0.2179831787409701</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.712867759948612</v>
+        <v>0.7010160955353966</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.287132240051388</v>
+        <v>0.2989839044646034</v>
       </c>
       <c r="CH16" t="n">
         <v>0.0002447495051823871</v>
@@ -5590,10 +5590,10 @@
         <v>0.0009323269596397932</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.0001720987462602826</v>
+        <v>0.0002598768891890636</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.0004201814942038345</v>
+        <v>0.0003324033512750522</v>
       </c>
       <c r="CP16" t="n">
         <v>0</v>
@@ -5785,7 +5785,7 @@
         <v>-0.7585351368575765</v>
       </c>
       <c r="BB17" t="n">
-        <v>-1.036279941629811</v>
+        <v>-0.8228201494811501</v>
       </c>
       <c r="BC17" t="n">
         <v>-2.217967846354326</v>
@@ -5879,10 +5879,10 @@
         <v>0.2856951075403361</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.6412560305987361</v>
+        <v>0.6298171363446836</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.3587439694012639</v>
+        <v>0.3701828636553164</v>
       </c>
       <c r="CH17" t="n">
         <v>0.0002204388371491433</v>
@@ -5903,10 +5903,10 @@
         <v>0.0009490664435811589</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.0001102034707333617</v>
+        <v>0.0001949244736044707</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.0004080375033705865</v>
+        <v>0.0003233165004994784</v>
       </c>
       <c r="CP17" t="n">
         <v>0</v>
@@ -6098,7 +6098,7 @@
         <v>-0.6434920666681265</v>
       </c>
       <c r="BB18" t="n">
-        <v>-1.008923045893907</v>
+        <v>-0.819627153642838</v>
       </c>
       <c r="BC18" t="n">
         <v>-2.133354184707968</v>
@@ -6192,10 +6192,10 @@
         <v>0.3700329069850907</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.5622726616874389</v>
+        <v>0.5518131475269594</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.4377273383125611</v>
+        <v>0.4481868524730406</v>
       </c>
       <c r="CH18" t="n">
         <v>0.0003264934868344371</v>
@@ -6216,10 +6216,10 @@
         <v>0.001007255345556256</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.0001769447576493695</v>
+        <v>0.0002544120818102199</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.0005058834486335417</v>
+        <v>0.0004284161244726904</v>
       </c>
       <c r="CP18" t="n">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>-0.5238884217657126</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.9821310300213434</v>
+        <v>-0.8169604296744781</v>
       </c>
       <c r="BC19" t="n">
         <v>-1.934716589986922</v>
@@ -6505,10 +6505,10 @@
         <v>0.4724331933369359</v>
       </c>
       <c r="CF19" t="n">
-        <v>0.4784299647668973</v>
+        <v>0.4693996022187277</v>
       </c>
       <c r="CG19" t="n">
-        <v>0.5215700352331027</v>
+        <v>0.5306003977812723</v>
       </c>
       <c r="CH19" t="n">
         <v>0.0003006449073027998</v>
@@ -6529,10 +6529,10 @@
         <v>0.0008127159046786361</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.0001150889293574688</v>
+        <v>0.0001819713879569599</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.0004487888999432283</v>
+        <v>0.0003819064413437363</v>
       </c>
       <c r="CP19" t="n">
         <v>0</v>
@@ -6724,7 +6724,7 @@
         <v>-0.4008031754718568</v>
       </c>
       <c r="BB20" t="n">
-        <v>-0.9558990181055814</v>
+        <v>-0.8139662320998245</v>
       </c>
       <c r="BC20" t="n">
         <v>-1.586785124919864</v>
@@ -6818,10 +6818,10 @@
         <v>0.5877601717566839</v>
       </c>
       <c r="CF20" t="n">
-        <v>0.3933228810729621</v>
+        <v>0.3859818490273326</v>
       </c>
       <c r="CG20" t="n">
-        <v>0.6066771189270379</v>
+        <v>0.6140181509726674</v>
       </c>
       <c r="CH20" t="n">
         <v>0.0003941902066003054</v>
@@ -6842,10 +6842,10 @@
         <v>0.0006100655437913704</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.0001815480296451502</v>
+        <v>0.0002359186342859219</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.0004699591051848242</v>
+        <v>0.000415588500544053</v>
       </c>
       <c r="CP20" t="n">
         <v>0</v>
@@ -7037,7 +7037,7 @@
         <v>-0.2755261133779043</v>
       </c>
       <c r="BB21" t="n">
-        <v>-0.9302221393465157</v>
+        <v>-0.8098599733683918</v>
       </c>
       <c r="BC21" t="n">
         <v>-1.112095733300933</v>
@@ -7131,10 +7131,10 @@
         <v>0.700422508122917</v>
       </c>
       <c r="CF21" t="n">
-        <v>0.3116760837709591</v>
+        <v>0.3060600728930424</v>
       </c>
       <c r="CG21" t="n">
-        <v>0.6883239162290409</v>
+        <v>0.6939399271069575</v>
       </c>
       <c r="CH21" t="n">
         <v>0.0003609975375287546</v>
@@ -7155,10 +7155,10 @@
         <v>0.0003531149874292398</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.0001347495663888568</v>
+        <v>0.0001763439778017955</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.0004427219735428072</v>
+        <v>0.0004011275621298689</v>
       </c>
       <c r="CP21" t="n">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>-0.149504542969937</v>
       </c>
       <c r="BB22" t="n">
-        <v>-0.9050954767857731</v>
+        <v>-0.8040397795940458</v>
       </c>
       <c r="BC22" t="n">
         <v>-0.6098539831418052</v>
@@ -7444,10 +7444,10 @@
         <v>0.7945211458785528</v>
       </c>
       <c r="CF22" t="n">
-        <v>0.2375202552115334</v>
+        <v>0.23347094260179</v>
       </c>
       <c r="CG22" t="n">
-        <v>0.7624797447884666</v>
+        <v>0.76652905739821</v>
       </c>
       <c r="CH22" t="n">
         <v>0.0003307462219235479</v>
@@ -7468,10 +7468,10 @@
         <v>0.0001892325637619756</v>
       </c>
       <c r="CN22" t="n">
-        <v>0.0001065056025462735</v>
+        <v>0.0001364964231288274</v>
       </c>
       <c r="CO22" t="n">
-        <v>0.0004265439308799796</v>
+        <v>0.0003965531102974266</v>
       </c>
       <c r="CP22" t="n">
         <v>0</v>
@@ -7663,7 +7663,7 @@
         <v>-0.02426970665693279</v>
       </c>
       <c r="BB23" t="n">
-        <v>-0.8805140258160949</v>
+        <v>-0.7961759160678509</v>
       </c>
       <c r="BC23" t="n">
         <v>-0.1842429671421864</v>
@@ -7757,10 +7757,10 @@
         <v>0.8635861978309712</v>
       </c>
       <c r="CF23" t="n">
-        <v>0.1750016406599122</v>
+        <v>0.1722277162896563</v>
       </c>
       <c r="CG23" t="n">
-        <v>0.8249983593400878</v>
+        <v>0.8277722837103436</v>
       </c>
       <c r="CH23" t="n">
         <v>0.0002450751693088627</v>
@@ -7781,10 +7781,10 @@
         <v>3.30764608703054e-05</v>
       </c>
       <c r="CN23" t="n">
-        <v>3.649380732177721e-05</v>
+        <v>5.703859507111947e-05</v>
       </c>
       <c r="CO23" t="n">
-        <v>0.0003188733484862432</v>
+        <v>0.000298328560736901</v>
       </c>
       <c r="CP23" t="n">
         <v>0</v>
@@ -7976,7 +7976,7 @@
         <v>0.09864902031126793</v>
       </c>
       <c r="BB24" t="n">
-        <v>-0.8564726612421197</v>
+        <v>-0.7862397884423419</v>
       </c>
       <c r="BC24" t="n">
         <v>0.125279470791177</v>
@@ -8070,10 +8070,10 @@
         <v>0.912830252193612</v>
       </c>
       <c r="CF24" t="n">
-        <v>0.1229392237628237</v>
+        <v>0.1211430362002848</v>
       </c>
       <c r="CG24" t="n">
-        <v>0.8770607762371763</v>
+        <v>0.8788569637997152</v>
       </c>
       <c r="CH24" t="n">
         <v>0.0002476376377783148</v>
@@ -8094,10 +8094,10 @@
         <v>-5.89202311176984e-06</v>
       </c>
       <c r="CN24" t="n">
-        <v>6.672162891749138e-05</v>
+        <v>8.002490878556074e-05</v>
       </c>
       <c r="CO24" t="n">
-        <v>0.0002590309500269733</v>
+        <v>0.0002457276701589035</v>
       </c>
       <c r="CP24" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0.2178111966119735</v>
       </c>
       <c r="BB25" t="n">
-        <v>-0.8329661118025261</v>
+        <v>-0.7744601173977315</v>
       </c>
       <c r="BC25" t="n">
         <v>0.3319908759543812</v>
@@ -8383,10 +8383,10 @@
         <v>0.9457136620051152</v>
       </c>
       <c r="CF25" t="n">
-        <v>0.08320003877562587</v>
+        <v>0.0820889708648931</v>
       </c>
       <c r="CG25" t="n">
-        <v>0.9167999612243741</v>
+        <v>0.9179110291351069</v>
       </c>
       <c r="CH25" t="n">
         <v>0.0001830876641996628</v>
@@ -8407,10 +8407,10 @@
         <v>-1.252839296668213e-05</v>
       </c>
       <c r="CN25" t="n">
-        <v>3.52932679107159e-05</v>
+        <v>4.352227899907704e-05</v>
       </c>
       <c r="CO25" t="n">
-        <v>0.0002016179810145034</v>
+        <v>0.0001933889699261421</v>
       </c>
       <c r="CP25" t="n">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>0.3319422571910632</v>
       </c>
       <c r="BB26" t="n">
-        <v>-0.809988941181787</v>
+        <v>-0.7612281114353843</v>
       </c>
       <c r="BC26" t="n">
         <v>0.4643490184529699</v>
@@ -8696,10 +8696,10 @@
         <v>0.9668413066943424</v>
       </c>
       <c r="CF26" t="n">
-        <v>0.05463685583348347</v>
+        <v>0.0539753637332302</v>
       </c>
       <c r="CG26" t="n">
-        <v>0.9453631441665166</v>
+        <v>0.9460246362667698</v>
       </c>
       <c r="CH26" t="n">
         <v>0.0001246685431474964</v>
@@ -8720,10 +8720,10 @@
         <v>-2.093864185344525e-05</v>
       </c>
       <c r="CN26" t="n">
-        <v>9.932318367975252e-06</v>
+        <v>1.483159209846887e-05</v>
       </c>
       <c r="CO26" t="n">
-        <v>0.000138137176907741</v>
+        <v>0.0001332379031772479</v>
       </c>
       <c r="CP26" t="n">
         <v>0</v>
@@ -8915,7 +8915,7 @@
         <v>0.4399911153122448</v>
       </c>
       <c r="BB27" t="n">
-        <v>-0.787535534645602</v>
+        <v>-0.7469926755551237</v>
       </c>
       <c r="BC27" t="n">
         <v>0.5471122200458749</v>
@@ -9009,10 +9009,10 @@
         <v>0.9804565844675117</v>
       </c>
       <c r="CF27" t="n">
-        <v>0.03437202167925092</v>
+        <v>0.03399760868688911</v>
       </c>
       <c r="CG27" t="n">
-        <v>0.9656279783207491</v>
+        <v>0.9660023913131108</v>
       </c>
       <c r="CH27" t="n">
         <v>9.5912651412742e-05</v>
@@ -9033,10 +9033,10 @@
         <v>-3.323182680651376e-06</v>
       </c>
       <c r="CN27" t="n">
-        <v>1.195224908331048e-05</v>
+        <v>1.472530069969609e-05</v>
       </c>
       <c r="CO27" t="n">
-        <v>0.0001065033753793075</v>
+        <v>0.0001037303237629225</v>
       </c>
       <c r="CP27" t="n">
         <v>0</v>
@@ -9228,7 +9228,7 @@
         <v>0.5411632657942911</v>
       </c>
       <c r="BB28" t="n">
-        <v>-0.7656000905286526</v>
+        <v>-0.7321794349487243</v>
       </c>
       <c r="BC28" t="n">
         <v>0.5976543214023523</v>
@@ -9322,10 +9322,10 @@
         <v>0.9882486122478933</v>
       </c>
       <c r="CF28" t="n">
-        <v>0.02182668908388256</v>
+        <v>0.02161690506155158</v>
       </c>
       <c r="CG28" t="n">
-        <v>0.9781733109161175</v>
+        <v>0.9783830949384484</v>
       </c>
       <c r="CH28" t="n">
         <v>4.716446962490048e-05</v>
@@ -9346,10 +9346,10 @@
         <v>1.300071526000139e-05</v>
       </c>
       <c r="CN28" t="n">
-        <v>-1.35876498532393e-05</v>
+        <v>-1.203390590181509e-05</v>
       </c>
       <c r="CO28" t="n">
-        <v>8.762240631674575e-05</v>
+        <v>8.606866236532135e-05</v>
       </c>
       <c r="CP28" t="n">
         <v>0</v>
@@ -9541,7 +9541,7 @@
         <v>0.6349288773861086</v>
       </c>
       <c r="BB29" t="n">
-        <v>-0.744176615888125</v>
+        <v>-0.7171458496667628</v>
       </c>
       <c r="BC29" t="n">
         <v>0.6273105694942777</v>
@@ -9635,10 +9635,10 @@
         <v>0.9923013968916158</v>
       </c>
       <c r="CF29" t="n">
-        <v>0.01487891185855967</v>
+        <v>0.0147568832163686</v>
       </c>
       <c r="CG29" t="n">
-        <v>0.9851210881414403</v>
+        <v>0.9852431167836314</v>
       </c>
       <c r="CH29" t="n">
         <v>9.946958986542157e-06</v>
@@ -9659,10 +9659,10 @@
         <v>1.259806787649777e-05</v>
       </c>
       <c r="CN29" t="n">
-        <v>-3.616440336808263e-05</v>
+        <v>-3.526061068359612e-05</v>
       </c>
       <c r="CO29" t="n">
-        <v>6.577829183245908e-05</v>
+        <v>6.487449914797157e-05</v>
       </c>
       <c r="CP29" t="n">
         <v>0</v>
@@ -9854,7 +9854,7 @@
         <v>0.7210093061883533</v>
       </c>
       <c r="BB30" t="n">
-        <v>-0.7232589257123502</v>
+        <v>-0.7021670977166098</v>
       </c>
       <c r="BC30" t="n">
         <v>0.6433305579625133</v>
@@ -9948,10 +9948,10 @@
         <v>0.994728946776273</v>
       </c>
       <c r="CF30" t="n">
-        <v>0.01050200562949832</v>
+        <v>0.01043161923697002</v>
       </c>
       <c r="CG30" t="n">
-        <v>0.9894979943705017</v>
+        <v>0.98956838076303</v>
       </c>
       <c r="CH30" t="n">
         <v>2.335625806109269e-06</v>
@@ -9972,10 +9972,10 @@
         <v>9.425611636956766e-06</v>
       </c>
       <c r="CN30" t="n">
-        <v>-3.336118254173125e-05</v>
+        <v>-3.283987290890861e-05</v>
       </c>
       <c r="CO30" t="n">
-        <v>4.816812677394065e-05</v>
+        <v>4.764681714111794e-05</v>
       </c>
       <c r="CP30" t="n">
         <v>0</v>
@@ -10167,7 +10167,7 @@
         <v>0.7993478887574508</v>
       </c>
       <c r="BB31" t="n">
-        <v>-0.7028406451421146</v>
+        <v>-0.6874408411056482</v>
       </c>
       <c r="BC31" t="n">
         <v>0.6503613199460432</v>
@@ -10261,10 +10261,10 @@
         <v>0.9963203560199424</v>
       </c>
       <c r="CF31" t="n">
-        <v>0.007513680086444447</v>
+        <v>0.007475325542620798</v>
       </c>
       <c r="CG31" t="n">
-        <v>0.9924863199135555</v>
+        <v>0.9925246744573792</v>
       </c>
       <c r="CH31" t="n">
         <v>1.674383619750622e-06</v>
@@ -10285,10 +10285,10 @@
         <v>2.489191791824399e-05</v>
       </c>
       <c r="CN31" t="n">
-        <v>-2.603539861943969e-05</v>
+        <v>-2.575132960496722e-05</v>
       </c>
       <c r="CO31" t="n">
-        <v>8.168471218016407e-05</v>
+        <v>8.111657415121876e-05</v>
       </c>
       <c r="CP31" t="n">
         <v>0</v>
@@ -10480,7 +10480,7 @@
         <v>0.9334496407378675</v>
       </c>
       <c r="BB32" t="n">
-        <v>-0.6634758947647036</v>
+        <v>-0.6592290938104006</v>
       </c>
       <c r="BC32" t="n">
         <v>0.6484770450503415</v>
@@ -10574,10 +10574,10 @@
         <v>0.9979081868558641</v>
       </c>
       <c r="CF32" t="n">
-        <v>0.004390550621942136</v>
+        <v>0.004383935762466441</v>
       </c>
       <c r="CG32" t="n">
-        <v>0.9956094493780578</v>
+        <v>0.9956160642375336</v>
       </c>
       <c r="CH32" t="n">
         <v>1.422724853107822e-06</v>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="CM32" t="inlineStr"/>
       <c r="CN32" t="n">
-        <v>-3.542243289819062e-05</v>
+        <v>-3.532444833496525e-05</v>
       </c>
       <c r="CO32" t="inlineStr"/>
       <c r="CP32" t="n">
@@ -10785,7 +10785,7 @@
         <v>-1.074595829827477</v>
       </c>
       <c r="BB33" t="n">
-        <v>-0.3572687650617264</v>
+        <v>-0.030742664993056</v>
       </c>
       <c r="BC33" t="n">
         <v>-0.7485441634528117</v>
@@ -10879,10 +10879,10 @@
         <v>0.01223403349595142</v>
       </c>
       <c r="CF33" t="n">
-        <v>0.9833910855269752</v>
+        <v>0.9797956966156653</v>
       </c>
       <c r="CG33" t="n">
-        <v>0.01660891447302482</v>
+        <v>0.02020430338433465</v>
       </c>
       <c r="CH33" t="inlineStr"/>
       <c r="CI33" t="n">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="CN33" t="inlineStr"/>
       <c r="CO33" t="n">
-        <v>-0.0001569904464516809</v>
+        <v>-0.0002102482085242553</v>
       </c>
       <c r="CP33" t="n">
         <v>1</v>
@@ -11090,7 +11090,7 @@
         <v>-1.054667645648665</v>
       </c>
       <c r="BB34" t="n">
-        <v>-0.344919045220008</v>
+        <v>-0.02772202802123702</v>
       </c>
       <c r="BC34" t="n">
         <v>-0.7423458974900239</v>
@@ -11184,10 +11184,10 @@
         <v>0.01306062343434389</v>
       </c>
       <c r="CF34" t="n">
-        <v>0.9820517822500584</v>
+        <v>0.9782093790843537</v>
       </c>
       <c r="CG34" t="n">
-        <v>0.0179482177499416</v>
+        <v>0.02179062091564632</v>
       </c>
       <c r="CH34" t="n">
         <v>4.947444265919997e-05</v>
@@ -11208,10 +11208,10 @@
         <v>-7.475218953092303e-05</v>
       </c>
       <c r="CN34" t="n">
-        <v>0.0001768292725215295</v>
+        <v>0.0002337460063252892</v>
       </c>
       <c r="CO34" t="n">
-        <v>-0.00014715112649948</v>
+        <v>-0.0002040678603032389</v>
       </c>
       <c r="CP34" t="n">
         <v>1</v>
@@ -11403,7 +11403,7 @@
         <v>-1.035332263001849</v>
       </c>
       <c r="BB35" t="n">
-        <v>-0.333269474130964</v>
+        <v>-0.02487047490242322</v>
       </c>
       <c r="BC35" t="n">
         <v>-0.7368270093622427</v>
@@ -11497,10 +11497,10 @@
         <v>0.0141655393840262</v>
       </c>
       <c r="CF35" t="n">
-        <v>0.9803097522643794</v>
+        <v>0.9761503077329005</v>
       </c>
       <c r="CG35" t="n">
-        <v>0.01969024773562056</v>
+        <v>0.02384969226709954</v>
       </c>
       <c r="CH35" t="n">
         <v>3.269496507657572e-05</v>
@@ -11521,10 +11521,10 @@
         <v>-7.628001095326655e-05</v>
       </c>
       <c r="CN35" t="n">
-        <v>0.0001729554611039786</v>
+        <v>0.0002345684639462418</v>
       </c>
       <c r="CO35" t="n">
-        <v>-0.0001581163880928912</v>
+        <v>-0.0002197293909351554</v>
       </c>
       <c r="CP35" t="n">
         <v>1</v>
@@ -11716,7 +11716,7 @@
         <v>-1.016512678206559</v>
       </c>
       <c r="BB36" t="n">
-        <v>-0.3222647322289134</v>
+        <v>-0.02219262280352197</v>
       </c>
       <c r="BC36" t="n">
         <v>-0.7319594007907195</v>
@@ -11810,10 +11810,10 @@
         <v>0.01539783257355687</v>
       </c>
       <c r="CF36" t="n">
-        <v>0.9783594682035097</v>
+        <v>0.9738540939712063</v>
       </c>
       <c r="CG36" t="n">
-        <v>0.02164053179649028</v>
+        <v>0.02614590602879374</v>
       </c>
       <c r="CH36" t="n">
         <v>3.260213991509997e-05</v>
@@ -11834,10 +11834,10 @@
         <v>-7.969478694584291e-05</v>
       </c>
       <c r="CN36" t="n">
-        <v>0.0001870055478054907</v>
+        <v>0.0002537427366968333</v>
       </c>
       <c r="CO36" t="n">
-        <v>-0.0001721666163103356</v>
+        <v>-0.0002389038052016787</v>
       </c>
       <c r="CP36" t="n">
         <v>1</v>
@@ -12029,7 +12029,7 @@
         <v>-0.9981360442090216</v>
       </c>
       <c r="BB37" t="n">
-        <v>-0.3118550808213277</v>
+        <v>-0.01969567403392425</v>
       </c>
       <c r="BC37" t="n">
         <v>-0.7277188669716814</v>
@@ -12123,10 +12123,10 @@
         <v>0.01675666719012081</v>
       </c>
       <c r="CF37" t="n">
-        <v>0.9761974201903781</v>
+        <v>0.971319137997811</v>
       </c>
       <c r="CG37" t="n">
-        <v>0.02380257980962186</v>
+        <v>0.028680862002189</v>
       </c>
       <c r="CH37" t="n">
         <v>3.44518738387093e-05</v>
@@ -12147,10 +12147,10 @@
         <v>-7.014492225709552e-05</v>
       </c>
       <c r="CN37" t="n">
-        <v>0.0002041925922236943</v>
+        <v>0.0002764535906145376</v>
       </c>
       <c r="CO37" t="n">
-        <v>-0.0001745145877175223</v>
+        <v>-0.0002467755861083659</v>
       </c>
       <c r="CP37" t="n">
         <v>1</v>
@@ -12342,7 +12342,7 @@
         <v>-0.9801328767130602</v>
       </c>
       <c r="BB38" t="n">
-        <v>-0.301995680880717</v>
+        <v>-0.01738979257390394</v>
       </c>
       <c r="BC38" t="n">
         <v>-0.7240846648896025</v>
@@ -12436,10 +12436,10 @@
         <v>0.01837553537426595</v>
       </c>
       <c r="CF38" t="n">
-        <v>0.9736386802215485</v>
+        <v>0.9683313004092517</v>
       </c>
       <c r="CG38" t="n">
-        <v>0.02636131977845146</v>
+        <v>0.03166869959074825</v>
       </c>
       <c r="CH38" t="n">
         <v>2.509377239024065e-05</v>
@@ -12460,10 +12460,10 @@
         <v>-9.412488623452366e-05</v>
       </c>
       <c r="CN38" t="n">
-        <v>0.0002124166806001925</v>
+        <v>0.0002910338144470875</v>
       </c>
       <c r="CO38" t="n">
-        <v>-0.000212416680600114</v>
+        <v>-0.0002910338144470087</v>
       </c>
       <c r="CP38" t="n">
         <v>1</v>
@@ -12655,7 +12655,7 @@
         <v>-0.9624363369381015</v>
       </c>
       <c r="BB39" t="n">
-        <v>-0.2926460088731561</v>
+        <v>-0.01528859042456282</v>
       </c>
       <c r="BC39" t="n">
         <v>-0.7210391149917773</v>
@@ -12749,10 +12749,10 @@
         <v>0.01998658682421073</v>
       </c>
       <c r="CF39" t="n">
-        <v>0.9710393168456107</v>
+        <v>0.9653117833608045</v>
       </c>
       <c r="CG39" t="n">
-        <v>0.02896068315438927</v>
+        <v>0.03468821663919552</v>
       </c>
       <c r="CH39" t="n">
         <v>4.603854050331917e-05</v>
@@ -12773,10 +12773,10 @@
         <v>-7.347198500651638e-05</v>
       </c>
       <c r="CN39" t="n">
-        <v>0.0002509205197202911</v>
+        <v>0.0003357613041586535</v>
       </c>
       <c r="CO39" t="n">
-        <v>-0.0002064034422031434</v>
+        <v>-0.0002912442266415052</v>
       </c>
       <c r="CP39" t="n">
         <v>1</v>
@@ -12968,7 +12968,7 @@
         <v>-0.9449815766595219</v>
       </c>
       <c r="BB40" t="n">
-        <v>-0.2837693539015224</v>
+        <v>-0.01340974630590336</v>
       </c>
       <c r="BC40" t="n">
         <v>-0.7185672188094335</v>
@@ -13062,10 +13062,10 @@
         <v>0.02198542899001188</v>
       </c>
       <c r="CF40" t="n">
-        <v>0.9678588954425965</v>
+        <v>0.9616330872426134</v>
       </c>
       <c r="CG40" t="n">
-        <v>0.03214110455740349</v>
+        <v>0.03836691275738657</v>
       </c>
       <c r="CH40" t="n">
         <v>2.797008293487641e-05</v>
@@ -13086,10 +13086,10 @@
         <v>-0.0001030802845001658</v>
       </c>
       <c r="CN40" t="n">
-        <v>0.0002535143752761468</v>
+        <v>0.0003457360013653776</v>
       </c>
       <c r="CO40" t="n">
-        <v>-0.0002535142337602904</v>
+        <v>-0.0003457358598495209</v>
       </c>
       <c r="CP40" t="n">
         <v>1</v>
@@ -13281,7 +13281,7 @@
         <v>-0.9277051339238238</v>
       </c>
       <c r="BB41" t="n">
-        <v>-0.2753323832838691</v>
+        <v>-0.01177578514737954</v>
       </c>
       <c r="BC41" t="n">
         <v>-0.7166562733363501</v>
@@ -13375,10 +13375,10 @@
         <v>0.02398340191520099</v>
       </c>
       <c r="CF41" t="n">
-        <v>0.9646183873346288</v>
+        <v>0.9579066387101816</v>
       </c>
       <c r="CG41" t="n">
-        <v>0.03538161266537121</v>
+        <v>0.04209336128981844</v>
       </c>
       <c r="CH41" t="n">
         <v>5.54248370926505e-05</v>
@@ -13399,10 +13399,10 @@
         <v>-5.891860058128564e-05</v>
       </c>
       <c r="CN41" t="n">
-        <v>0.0003015152189292988</v>
+        <v>0.0004009349813386773</v>
       </c>
       <c r="CO41" t="n">
-        <v>-0.0001433382852329353</v>
+        <v>-0.0001930481664376251</v>
       </c>
       <c r="CP41" t="n">
         <v>1</v>
@@ -13594,7 +13594,7 @@
         <v>-0.9191141895953532</v>
       </c>
       <c r="BB42" t="n">
-        <v>-0.2712691931592487</v>
+        <v>-0.01105923521383617</v>
       </c>
       <c r="BC42" t="n">
         <v>-0.7159077148031969</v>
@@ -13688,10 +13688,10 @@
         <v>0.02504911968137169</v>
       </c>
       <c r="CF42" t="n">
-        <v>0.9628830030774079</v>
+        <v>0.9559190705913061</v>
       </c>
       <c r="CG42" t="n">
-        <v>0.03711699692259207</v>
+        <v>0.0440809294086939</v>
       </c>
       <c r="CH42" t="n">
         <v>2.777829102093479e-05</v>
@@ -13712,10 +13712,10 @@
         <v>-6.681173045225211e-05</v>
       </c>
       <c r="CN42" t="n">
-        <v>0.0001561912316256475</v>
+        <v>0.0002077688868645034</v>
       </c>
       <c r="CO42" t="n">
-        <v>-0.0001561912316255758</v>
+        <v>-0.0002077688868644305</v>
       </c>
       <c r="CP42" t="n">
         <v>1</v>
@@ -13907,7 +13907,7 @@
         <v>-0.9105443702297371</v>
       </c>
       <c r="BB43" t="n">
-        <v>-0.2673047659647086</v>
+        <v>-0.01041505347296401</v>
       </c>
       <c r="BC43" t="n">
         <v>-0.7152954596147196</v>
@@ -14001,10 +14001,10 @@
         <v>0.02611976185602294</v>
       </c>
       <c r="CF43" t="n">
-        <v>0.9611237988947925</v>
+        <v>0.9539104313791693</v>
       </c>
       <c r="CG43" t="n">
-        <v>0.03887620110520751</v>
+        <v>0.04608956862083069</v>
       </c>
       <c r="CH43" t="n">
         <v>3.544676643120644e-05</v>
@@ -14025,10 +14025,10 @@
         <v>-0.0001055114132678632</v>
       </c>
       <c r="CN43" t="n">
-        <v>0.0001692205978646184</v>
+        <v>0.0002226456681929823</v>
       </c>
       <c r="CO43" t="n">
-        <v>-0.0003889492095056632</v>
+        <v>-0.0005492244204907556</v>
       </c>
       <c r="CP43" t="n">
         <v>0</v>
@@ -14220,7 +14220,7 @@
         <v>-0.8848837040725356</v>
       </c>
       <c r="BB44" t="n">
-        <v>-0.2559710379617238</v>
+        <v>-0.008965944866086706</v>
       </c>
       <c r="BC44" t="n">
         <v>-0.714265427290966</v>
@@ -14314,10 +14314,10 @@
         <v>0.03034340302927796</v>
       </c>
       <c r="CF44" t="n">
-        <v>0.9543562017642718</v>
+        <v>0.9462228931526747</v>
       </c>
       <c r="CG44" t="n">
-        <v>0.04564379823572817</v>
+        <v>0.05377710684732528</v>
       </c>
       <c r="CH44" t="n">
         <v>7.919036318339637e-05</v>
@@ -14338,10 +14338,10 @@
         <v>-6.150608071565304e-05</v>
       </c>
       <c r="CN44" t="n">
-        <v>0.0005393197619011601</v>
+        <v>0.0007200353224084063</v>
       </c>
       <c r="CO44" t="n">
-        <v>-0.0001748268962967152</v>
+        <v>-0.0002350654164657963</v>
       </c>
       <c r="CP44" t="n">
         <v>1</v>
@@ -14533,7 +14533,7 @@
         <v>-0.8763203026508988</v>
       </c>
       <c r="BB45" t="n">
-        <v>-0.2523693517728359</v>
+        <v>-0.008663341201981867</v>
       </c>
       <c r="BC45" t="n">
         <v>-0.7141874907675922</v>
@@ -14627,10 +14627,10 @@
         <v>0.03180296544953443</v>
       </c>
       <c r="CF45" t="n">
-        <v>0.9519903523968092</v>
+        <v>0.9435547225004542</v>
       </c>
       <c r="CG45" t="n">
-        <v>0.04800964760319082</v>
+        <v>0.05644527749954575</v>
       </c>
       <c r="CH45" t="n">
         <v>3.239028497148844e-05</v>
@@ -14651,10 +14651,10 @@
         <v>-4.263831783213277e-05</v>
       </c>
       <c r="CN45" t="n">
-        <v>0.0001923493181849095</v>
+        <v>0.0002548269500954855</v>
       </c>
       <c r="CO45" t="n">
-        <v>-0.0001626714551945701</v>
+        <v>-0.0002251490871051467</v>
       </c>
       <c r="CP45" t="n">
         <v>1</v>
@@ -14846,7 +14846,7 @@
         <v>-0.8677388102759003</v>
       </c>
       <c r="BB46" t="n">
-        <v>-0.2488509600251322</v>
+        <v>-0.008462247599590633</v>
       </c>
       <c r="BC46" t="n">
         <v>-0.7142405223360453</v>
@@ -14940,10 +14940,10 @@
         <v>0.03351178662419463</v>
       </c>
       <c r="CF46" t="n">
-        <v>0.9492639061378612</v>
+        <v>0.9404879778542206</v>
       </c>
       <c r="CG46" t="n">
-        <v>0.05073609386213884</v>
+        <v>0.05951202214577944</v>
       </c>
       <c r="CH46" t="n">
         <v>1.552528342969959e-05</v>
@@ -14964,10 +14964,10 @@
         <v>-5.529438594884266e-05</v>
       </c>
       <c r="CN46" t="n">
-        <v>0.0001828646011579884</v>
+        <v>0.0002478626183440953</v>
       </c>
       <c r="CO46" t="n">
-        <v>-0.000182864459642088</v>
+        <v>-0.000247862476828194</v>
       </c>
       <c r="CP46" t="n">
         <v>1</v>
@@ -15159,7 +15159,7 @@
         <v>-0.8591312290480817</v>
       </c>
       <c r="BB47" t="n">
-        <v>-0.2454131560462526</v>
+        <v>-0.008370574954993548</v>
       </c>
       <c r="BC47" t="n">
         <v>-0.7144234331537378</v>
@@ -15253,10 +15253,10 @@
         <v>0.03522982061751212</v>
       </c>
       <c r="CF47" t="n">
-        <v>0.946503389713234</v>
+        <v>0.9373961467909121</v>
       </c>
       <c r="CG47" t="n">
-        <v>0.053496610286766</v>
+        <v>0.0626038532090879</v>
       </c>
       <c r="CH47" t="n">
         <v>2.867284357021497e-05</v>
@@ -15277,10 +15277,10 @@
         <v>-7.668164975284104e-05</v>
       </c>
       <c r="CN47" t="n">
-        <v>0.0002033099428104933</v>
+        <v>0.000270761808054948</v>
       </c>
       <c r="CO47" t="n">
-        <v>-0.0003472638766086455</v>
+        <v>-0.0004821676070975551</v>
       </c>
       <c r="CP47" t="n">
         <v>0</v>
@@ -15472,7 +15472,7 @@
         <v>-0.8418053779465773</v>
       </c>
       <c r="BB48" t="n">
-        <v>-0.2387690464645432</v>
+        <v>-0.008551550926751583</v>
       </c>
       <c r="BC48" t="n">
         <v>-0.7151741111857401</v>
@@ -15566,10 +15566,10 @@
         <v>0.03917279187280809</v>
       </c>
       <c r="CF48" t="n">
-        <v>0.9402258680453029</v>
+        <v>0.9304039488268907</v>
       </c>
       <c r="CG48" t="n">
-        <v>0.05977413195469705</v>
+        <v>0.0695960511731093</v>
       </c>
       <c r="CH48" t="n">
         <v>5.915187416389439e-05</v>
@@ -15590,10 +15590,10 @@
         <v>-5.270510757500918e-05</v>
       </c>
       <c r="CN48" t="n">
-        <v>0.0004402515237431157</v>
+        <v>0.0005857416083302862</v>
       </c>
       <c r="CO48" t="n">
-        <v>-0.0002052868303764134</v>
+        <v>-0.0002780318726699994</v>
       </c>
       <c r="CP48" t="n">
         <v>1</v>
@@ -15785,7 +15785,7 @@
         <v>-0.8330706439497163</v>
       </c>
       <c r="BB49" t="n">
-        <v>-0.2355578721423233</v>
+        <v>-0.008844706370897404</v>
       </c>
       <c r="BC49" t="n">
         <v>-0.7157391497279562</v>
@@ -15879,10 +15879,10 @@
         <v>0.04128443341848431</v>
       </c>
       <c r="CF49" t="n">
-        <v>0.9368624120816221</v>
+        <v>0.9266822007692326</v>
       </c>
       <c r="CG49" t="n">
-        <v>0.06313758791837787</v>
+        <v>0.07331779923076742</v>
       </c>
       <c r="CH49" t="n">
         <v>3.148126004554833e-05</v>
@@ -15903,10 +15903,10 @@
         <v>-3.866647763685831e-05</v>
       </c>
       <c r="CN49" t="n">
-        <v>0.0002301979237065693</v>
+        <v>0.0003055966198279103</v>
       </c>
       <c r="CO49" t="n">
-        <v>-0.0002005196361685378</v>
+        <v>-0.0002759183322898784</v>
       </c>
       <c r="CP49" t="n">
         <v>1</v>
@@ -16098,7 +16098,7 @@
         <v>-0.8242768689300193</v>
       </c>
       <c r="BB50" t="n">
-        <v>-0.2324175375281465</v>
+        <v>-0.009288494187522645</v>
       </c>
       <c r="BC50" t="n">
         <v>-0.7164285104566415</v>
@@ -16192,10 +16192,10 @@
         <v>0.04364510541293321</v>
       </c>
       <c r="CF50" t="n">
-        <v>0.9331381693863167</v>
+        <v>0.9225771008445761</v>
       </c>
       <c r="CG50" t="n">
-        <v>0.06686183061368334</v>
+        <v>0.07742289915542389</v>
       </c>
       <c r="CH50" t="n">
         <v>2.062235296672842e-05</v>
@@ -16216,10 +16216,10 @@
         <v>-4.131317901978567e-05</v>
       </c>
       <c r="CN50" t="n">
-        <v>0.0002281028596054823</v>
+        <v>0.0003063223359267876</v>
       </c>
       <c r="CO50" t="n">
-        <v>-0.0002132654847851476</v>
+        <v>-0.0002914849611064525</v>
       </c>
       <c r="CP50" t="n">
         <v>1</v>
@@ -16411,7 +16411,7 @@
         <v>-0.8154155150364141</v>
       </c>
       <c r="BB51" t="n">
-        <v>-0.2293458486615175</v>
+        <v>-0.009896103374084253</v>
       </c>
       <c r="BC51" t="n">
         <v>-0.7172402516068135</v>
@@ -16505,10 +16505,10 @@
         <v>0.04614093070098391</v>
       </c>
       <c r="CF51" t="n">
-        <v>0.9292079823921748</v>
+        <v>0.9182661670731691</v>
       </c>
       <c r="CG51" t="n">
-        <v>0.07079201760782516</v>
+        <v>0.0817338329268309</v>
       </c>
       <c r="CH51" t="n">
         <v>2.594743906506568e-05</v>
@@ -16529,10 +16529,10 @@
         <v>-4.495592642232308e-05</v>
       </c>
       <c r="CN51" t="n">
-        <v>0.0002423740136533702</v>
+        <v>0.0003234134521225389</v>
       </c>
       <c r="CO51" t="n">
-        <v>-0.0002275316857769105</v>
+        <v>-0.0003085711242460808</v>
       </c>
       <c r="CP51" t="n">
         <v>1</v>
@@ -16724,7 +16724,7 @@
         <v>-0.806477902952403</v>
       </c>
       <c r="BB52" t="n">
-        <v>-0.2263406992529471</v>
+        <v>-0.01068210044591822</v>
       </c>
       <c r="BC52" t="n">
         <v>-0.7181720778498893</v>
@@ -16818,10 +16818,10 @@
         <v>0.04877589942422578</v>
       </c>
       <c r="CF52" t="n">
-        <v>0.9250668171993128</v>
+        <v>0.9137472687235237</v>
       </c>
       <c r="CG52" t="n">
-        <v>0.07493318280068717</v>
+        <v>0.08625273127647626</v>
       </c>
       <c r="CH52" t="n">
         <v>3.267500252364733e-05</v>
@@ -16842,10 +16842,10 @@
         <v>-3.479581310148871e-05</v>
       </c>
       <c r="CN52" t="n">
-        <v>0.0002582028031421187</v>
+        <v>0.0003420398836866158</v>
       </c>
       <c r="CO52" t="n">
-        <v>-0.0002285270628901189</v>
+        <v>-0.000312364143434615</v>
       </c>
       <c r="CP52" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         <v>-0.7974552025616615</v>
       </c>
       <c r="BB53" t="n">
-        <v>-0.2234000663946431</v>
+        <v>-0.01166255201517008</v>
       </c>
       <c r="BC53" t="n">
         <v>-0.7192212530147785</v>
@@ -17131,10 +17131,10 @@
         <v>0.05166456045080148</v>
       </c>
       <c r="CF53" t="n">
-        <v>0.9205613972144427</v>
+        <v>0.9088544381743031</v>
       </c>
       <c r="CG53" t="n">
-        <v>0.07943860278555726</v>
+        <v>0.09114556182569689</v>
       </c>
       <c r="CH53" t="n">
         <v>2.682072914371187e-05</v>
@@ -17155,10 +17155,10 @@
         <v>2.433650755326484e-05</v>
       </c>
       <c r="CN53" t="n">
-        <v>0.0002618959961975193</v>
+        <v>0.0003486023935488402</v>
       </c>
       <c r="CO53" t="n">
-        <v>-0.0005927803224807713</v>
+        <v>-0.0008528995145347354</v>
       </c>
       <c r="CP53" t="n">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>-0.7697858423614113</v>
       </c>
       <c r="BB54" t="n">
-        <v>-0.2149462055057791</v>
+        <v>-0.01595647837431491</v>
       </c>
       <c r="BC54" t="n">
         <v>-0.7230365964169598</v>
@@ -17444,10 +17444,10 @@
         <v>0.06197492170892116</v>
       </c>
       <c r="CF54" t="n">
-        <v>0.9047215985007524</v>
+        <v>0.8918424757008885</v>
       </c>
       <c r="CG54" t="n">
-        <v>0.0952784014992476</v>
+        <v>0.1081575242991115</v>
       </c>
       <c r="CH54" t="n">
         <v>0.0001468224808156733</v>
@@ -17468,10 +17468,10 @@
         <v>-5.835567832017965e-05</v>
       </c>
       <c r="CN54" t="n">
-        <v>0.0009447278803030555</v>
+        <v>0.001230891606132954</v>
       </c>
       <c r="CO54" t="n">
-        <v>-0.0003050145025272964</v>
+        <v>-0.0004004024111372623</v>
       </c>
       <c r="CP54" t="n">
         <v>1</v>
@@ -17663,7 +17663,7 @@
         <v>-0.7603312069479884</v>
       </c>
       <c r="BB55" t="n">
-        <v>-0.2122449407127527</v>
+        <v>-0.01790988143909217</v>
       </c>
       <c r="BC55" t="n">
         <v>-0.7245149559126279</v>
@@ -17757,10 +17757,10 @@
         <v>0.06558769952659405</v>
       </c>
       <c r="CF55" t="n">
-        <v>0.8991705501084553</v>
+        <v>0.8859670092853761</v>
       </c>
       <c r="CG55" t="n">
-        <v>0.1008294498915447</v>
+        <v>0.1140329907146239</v>
       </c>
       <c r="CH55" t="n">
         <v>7.032716869549791e-05</v>
@@ -17781,10 +17781,10 @@
         <v>1.875478495677255e-05</v>
       </c>
       <c r="CN55" t="n">
-        <v>0.000346127775920386</v>
+        <v>0.0004439184535101007</v>
       </c>
       <c r="CO55" t="n">
-        <v>-0.0002422596424468328</v>
+        <v>-0.0003400503200365484</v>
       </c>
       <c r="CP55" t="n">
         <v>0</v>
@@ -17976,7 +17976,7 @@
         <v>-0.7507448253619973</v>
       </c>
       <c r="BB56" t="n">
-        <v>-0.2095991949980856</v>
+        <v>-0.02016502251508573</v>
       </c>
       <c r="BC56" t="n">
         <v>-0.7260860160825512</v>
@@ -18070,10 +18070,10 @@
         <v>0.0699966218389545</v>
       </c>
       <c r="CF56" t="n">
-        <v>0.8925540543892319</v>
+        <v>0.8789863147332395</v>
       </c>
       <c r="CG56" t="n">
-        <v>0.1074459456107681</v>
+        <v>0.1210136852667605</v>
       </c>
       <c r="CH56" t="n">
         <v>4.205566515554267e-06</v>
@@ -18094,10 +18094,10 @@
         <v>-1.389491967904242e-05</v>
       </c>
       <c r="CN56" t="n">
-        <v>0.0002912640427301912</v>
+        <v>0.0003917521218067647</v>
       </c>
       <c r="CO56" t="n">
-        <v>-0.0002912595142218109</v>
+        <v>-0.000391747593298383</v>
       </c>
       <c r="CP56" t="n">
         <v>1</v>
@@ -18289,7 +18289,7 @@
         <v>-0.7410168367246929</v>
       </c>
       <c r="BB57" t="n">
-        <v>-0.2070073684660533</v>
+        <v>-0.02274958656647944</v>
       </c>
       <c r="BC57" t="n">
         <v>-0.7277414205228719</v>
@@ -18383,10 +18383,10 @@
         <v>0.07447647306833916</v>
       </c>
       <c r="CF57" t="n">
-        <v>0.8858362831545465</v>
+        <v>0.8719616775342413</v>
       </c>
       <c r="CG57" t="n">
-        <v>0.1141637168454535</v>
+        <v>0.1280383224657587</v>
       </c>
       <c r="CH57" t="n">
         <v>4.319609323258453e-05</v>
@@ -18407,10 +18407,10 @@
         <v>4.196052352138831e-05</v>
       </c>
       <c r="CN57" t="n">
-        <v>0.0003410140012745999</v>
+        <v>0.0004437748517979742</v>
       </c>
       <c r="CO57" t="n">
-        <v>-0.0002519789971447918</v>
+        <v>-0.0003547398476681678</v>
       </c>
       <c r="CP57" t="n">
         <v>0</v>
@@ -18602,7 +18602,7 @@
         <v>-0.7311372035480801</v>
       </c>
       <c r="BB58" t="n">
-        <v>-0.2044679206774171</v>
+        <v>-0.02569355534722029</v>
       </c>
       <c r="BC58" t="n">
         <v>-0.7294710922993154</v>
@@ -18696,10 +18696,10 @@
         <v>0.07964653606378658</v>
       </c>
       <c r="CF58" t="n">
-        <v>0.878213778765224</v>
+        <v>0.8640328874109043</v>
       </c>
       <c r="CG58" t="n">
-        <v>0.121786221234776</v>
+        <v>0.1359671125890957</v>
       </c>
       <c r="CH58" t="n">
         <v>-9.820936944567732e-07</v>
@@ -18720,10 +18720,10 @@
         <v>0.0001112060926491002</v>
       </c>
       <c r="CN58" t="n">
-        <v>0.000308434297972845</v>
+        <v>0.0004134636225265331</v>
       </c>
       <c r="CO58" t="n">
-        <v>-0.000513000462472119</v>
+        <v>-0.0007230591115794946</v>
       </c>
       <c r="CP58" t="n">
         <v>1</v>
@@ -18915,7 +18915,7 @@
         <v>-0.7108820030452901</v>
       </c>
       <c r="BB59" t="n">
-        <v>-0.1995402807708215</v>
+        <v>-0.032791350101842</v>
       </c>
       <c r="BC59" t="n">
         <v>-0.7331021818363856</v>
@@ -19009,10 +19009,10 @@
         <v>0.09097092696734221</v>
       </c>
       <c r="CF59" t="n">
-        <v>0.8617174998782932</v>
+        <v>0.8470962850536622</v>
       </c>
       <c r="CG59" t="n">
-        <v>0.1382825001217068</v>
+        <v>0.1529037149463378</v>
       </c>
       <c r="CH59" t="n">
         <v>9.320266368040286e-05</v>
@@ -19033,10 +19033,10 @@
         <v>0.0001512077898841433</v>
       </c>
       <c r="CN59" t="n">
-        <v>0.0007573564744961341</v>
+        <v>0.0009739375452928693</v>
       </c>
       <c r="CO59" t="n">
-        <v>-0.0005496088862779885</v>
+        <v>-0.0007661899570747237</v>
       </c>
       <c r="CP59" t="n">
         <v>0</v>
@@ -19228,7 +19228,7 @@
         <v>-0.6898956588853299</v>
       </c>
       <c r="BB60" t="n">
-        <v>-0.1948050416661601</v>
+        <v>-0.04174485257629654</v>
       </c>
       <c r="BC60" t="n">
         <v>-0.7368493038233238</v>
@@ -19322,10 +19322,10 @@
         <v>0.1041408693637438</v>
       </c>
       <c r="CF60" t="n">
-        <v>0.8429469542471999</v>
+        <v>0.8281600116742044</v>
       </c>
       <c r="CG60" t="n">
-        <v>0.1570530457528001</v>
+        <v>0.1718399883257956</v>
       </c>
       <c r="CH60" t="n">
         <v>0.0001191563768080453</v>
@@ -19346,10 +19346,10 @@
         <v>0.0001041923415578893</v>
       </c>
       <c r="CN60" t="n">
-        <v>0.0008276531473726412</v>
+        <v>0.00104668910947848</v>
       </c>
       <c r="CO60" t="n">
-        <v>-0.0002876962927990331</v>
+        <v>-0.0003972142738519534</v>
       </c>
       <c r="CP60" t="n">
         <v>0</v>
@@ -19541,7 +19541,7 @@
         <v>-0.679101588108857</v>
       </c>
       <c r="BB61" t="n">
-        <v>-0.1925062805257917</v>
+        <v>-0.0470166526017213</v>
       </c>
       <c r="BC61" t="n">
         <v>-0.7387105294028068</v>
@@ -19635,10 +19635,10 @@
         <v>0.1117477522588681</v>
       </c>
       <c r="CF61" t="n">
-        <v>0.8323362051506773</v>
+        <v>0.8175882880452574</v>
       </c>
       <c r="CG61" t="n">
-        <v>0.1676637948493227</v>
+        <v>0.1824117119547426</v>
       </c>
       <c r="CH61" t="n">
         <v>9.635842436253594e-07</v>
@@ -19659,10 +19659,10 @@
         <v>9.237250605144366e-05</v>
       </c>
       <c r="CN61" t="n">
-        <v>0.0003662837230790691</v>
+        <v>0.0004755126659892204</v>
       </c>
       <c r="CO61" t="n">
-        <v>-0.0003217639567599519</v>
+        <v>-0.0004309928996701017</v>
       </c>
       <c r="CP61" t="n">
         <v>0</v>
@@ -19854,7 +19854,7 @@
         <v>-0.6680924551857468</v>
       </c>
       <c r="BB62" t="n">
-        <v>-0.1902517622897678</v>
+        <v>-0.05287523698775237</v>
       </c>
       <c r="BC62" t="n">
         <v>-0.7405245011667045</v>
@@ -19948,10 +19948,10 @@
         <v>0.1198094903200768</v>
       </c>
       <c r="CF62" t="n">
-        <v>0.8212236180103356</v>
+        <v>0.806638231360307</v>
       </c>
       <c r="CG62" t="n">
-        <v>0.1787763819896644</v>
+        <v>0.193361768639693</v>
       </c>
       <c r="CH62" t="n">
         <v>2.832113742146092e-05</v>
@@ -19972,10 +19972,10 @@
         <v>0.0001513743856936384</v>
       </c>
       <c r="CN62" t="n">
-        <v>0.0004040681992953654</v>
+        <v>0.0005120933769750631</v>
       </c>
       <c r="CO62" t="n">
-        <v>-0.000285357879461244</v>
+        <v>-0.0003933830571409434</v>
       </c>
       <c r="CP62" t="n">
         <v>0</v>
@@ -20167,7 +20167,7 @@
         <v>-0.6568573286186545</v>
       </c>
       <c r="BB63" t="n">
-        <v>-0.1880402945207081</v>
+        <v>-0.05936510370069947</v>
       </c>
       <c r="BC63" t="n">
         <v>-0.7422545490287787</v>
@@ -20261,10 +20261,10 @@
         <v>0.1287810737114896</v>
       </c>
       <c r="CF63" t="n">
-        <v>0.8090721215882628</v>
+        <v>0.7947663478077014</v>
       </c>
       <c r="CG63" t="n">
-        <v>0.1909278784117372</v>
+        <v>0.2052336521922986</v>
       </c>
       <c r="CH63" t="n">
         <v>-1.067854791512654e-05</v>
@@ -20285,10 +20285,10 @@
         <v>0.0001294425067305402</v>
       </c>
       <c r="CN63" t="n">
-        <v>0.0003753566975636287</v>
+        <v>0.0004813109510621262</v>
       </c>
       <c r="CO63" t="n">
-        <v>-0.0003308414597528952</v>
+        <v>-0.0004367957132513909</v>
       </c>
       <c r="CP63" t="n">
         <v>1</v>
@@ -20480,7 +20480,7 @@
         <v>-0.6453852521530837</v>
       </c>
       <c r="BB64" t="n">
-        <v>-0.1858707262066838</v>
+        <v>-0.06653184990581099</v>
       </c>
       <c r="BC64" t="n">
         <v>-0.7438566895078444</v>
@@ -20574,10 +20574,10 @@
         <v>0.1382479007229305</v>
       </c>
       <c r="CF64" t="n">
-        <v>0.7964251817902258</v>
+        <v>0.7825615611863195</v>
       </c>
       <c r="CG64" t="n">
-        <v>0.2035748182097742</v>
+        <v>0.2174384388136805</v>
       </c>
       <c r="CH64" t="n">
         <v>2.914219085773436e-05</v>
@@ -20598,10 +20598,10 @@
         <v>0.0001928799248228595</v>
       </c>
       <c r="CN64" t="n">
-        <v>0.0004245097286557789</v>
+        <v>0.0005271892197762943</v>
       </c>
       <c r="CO64" t="n">
-        <v>-0.000290957222461097</v>
+        <v>-0.0003936367135816141</v>
       </c>
       <c r="CP64" t="n">
         <v>0</v>
@@ -20793,7 +20793,7 @@
         <v>-0.6336652879823701</v>
       </c>
       <c r="BB65" t="n">
-        <v>-0.1837419459995604</v>
+        <v>-0.07442172104236891</v>
       </c>
       <c r="BC65" t="n">
         <v>-0.7452782101843588</v>
@@ -20887,10 +20887,10 @@
         <v>0.1487308253785806</v>
       </c>
       <c r="CF65" t="n">
-        <v>0.7826851701152058</v>
+        <v>0.7694240151034032</v>
       </c>
       <c r="CG65" t="n">
-        <v>0.2173148298847942</v>
+        <v>0.2305759848965968</v>
       </c>
       <c r="CH65" t="n">
         <v>-1.150679243570093e-05</v>
@@ -20911,10 +20911,10 @@
         <v>0.0001894365594963872</v>
       </c>
       <c r="CN65" t="n">
-        <v>0.0003927212166649971</v>
+        <v>0.0004909386078635501</v>
       </c>
       <c r="CO65" t="n">
-        <v>-0.0003185238703873401</v>
+        <v>-0.0004167412615858914</v>
       </c>
       <c r="CP65" t="n">
         <v>1</v>
@@ -21106,7 +21106,7 @@
         <v>-0.6216865672041274</v>
       </c>
       <c r="BB66" t="n">
-        <v>-0.1816528805418921</v>
+        <v>-0.08308110741320195</v>
       </c>
       <c r="BC66" t="n">
         <v>-0.7464560007373173</v>
@@ -21200,10 +21200,10 @@
         <v>0.1599209655704226</v>
       </c>
       <c r="CF66" t="n">
-        <v>0.768270053318863</v>
+        <v>0.7558091098533707</v>
       </c>
       <c r="CG66" t="n">
-        <v>0.231729946681137</v>
+        <v>0.2441908901466293</v>
       </c>
       <c r="CH66" t="n">
         <v>1.329355061420023e-05</v>
@@ -21224,10 +21224,10 @@
         <v>0.0002252659837798019</v>
       </c>
       <c r="CN66" t="n">
-        <v>0.0004252879617729676</v>
+        <v>0.0005175786678211234</v>
       </c>
       <c r="CO66" t="n">
-        <v>-0.000306579906193083</v>
+        <v>-0.0003988706122412392</v>
       </c>
       <c r="CP66" t="n">
         <v>0</v>
@@ -21419,7 +21419,7 @@
         <v>-0.609438348105351</v>
       </c>
       <c r="BB67" t="n">
-        <v>-0.1796024928772336</v>
+        <v>-0.09255600711154645</v>
       </c>
       <c r="BC67" t="n">
         <v>-0.7473145991019193</v>
@@ -21513,10 +21513,10 @@
         <v>0.1720787863699612</v>
       </c>
       <c r="CF67" t="n">
-        <v>0.7529172910006646</v>
+        <v>0.7414677197524092</v>
       </c>
       <c r="CG67" t="n">
-        <v>0.2470827089993354</v>
+        <v>0.2585322802475908</v>
       </c>
       <c r="CH67" t="n">
         <v>1.545473210788628e-06</v>
@@ -21537,10 +21537,10 @@
         <v>0.0002390975153115681</v>
       </c>
       <c r="CN67" t="n">
-        <v>0.000420288573442883</v>
+        <v>0.0005050886543818914</v>
       </c>
       <c r="CO67" t="n">
-        <v>-0.0003164113829524726</v>
+        <v>-0.0004012114638914802</v>
       </c>
       <c r="CP67" t="n">
         <v>0</v>
@@ -21732,7 +21732,7 @@
         <v>-0.5969100828271411</v>
       </c>
       <c r="BB68" t="n">
-        <v>-0.1775897809390789</v>
+        <v>-0.1028914792210726</v>
       </c>
       <c r="BC68" t="n">
         <v>-0.7477639266024821</v>
@@ -21826,10 +21826,10 @@
         <v>0.1851532232683336</v>
       </c>
       <c r="CF68" t="n">
-        <v>0.7367437472433278</v>
+        <v>0.7265409338128255</v>
       </c>
       <c r="CG68" t="n">
-        <v>0.2632562527566722</v>
+        <v>0.2734590661871745</v>
       </c>
       <c r="CH68" t="n">
         <v>1.200740072322942e-05</v>
@@ -21850,10 +21850,10 @@
         <v>0.0002312957726397936</v>
       </c>
       <c r="CN68" t="n">
-        <v>0.000436199084164572</v>
+        <v>0.0005117651805670049</v>
       </c>
       <c r="CO68" t="n">
-        <v>-0.0003471663442890039</v>
+        <v>-0.0004227324406914381</v>
       </c>
       <c r="CP68" t="n">
         <v>0</v>
@@ -22045,7 +22045,7 @@
         <v>-0.5840914929127804</v>
       </c>
       <c r="BB69" t="n">
-        <v>-0.175613776113943</v>
+        <v>-0.1141311148061447</v>
       </c>
       <c r="BC69" t="n">
         <v>-0.7476966984834619</v>
@@ -22139,10 +22139,10 @@
         <v>0.1991173183436468</v>
       </c>
       <c r="CF69" t="n">
-        <v>0.7198401212458646</v>
+        <v>0.711139629846873</v>
       </c>
       <c r="CG69" t="n">
-        <v>0.2801598787541354</v>
+        <v>0.288860370153127</v>
       </c>
       <c r="CH69" t="n">
         <v>4.424031945132832e-05</v>
@@ -22163,10 +22163,10 @@
         <v>0.0002910999494999866</v>
       </c>
       <c r="CN69" t="n">
-        <v>0.0004723613251024616</v>
+        <v>0.0005368006267012938</v>
       </c>
       <c r="CO69" t="n">
-        <v>-0.0003091335032034078</v>
+        <v>-0.0003735728048022383</v>
       </c>
       <c r="CP69" t="n">
         <v>0</v>
@@ -22358,7 +22358,7 @@
         <v>-0.5709726541707544</v>
       </c>
       <c r="BB70" t="n">
-        <v>-0.1736735418743942</v>
+        <v>-0.1263165545754734</v>
       </c>
       <c r="BC70" t="n">
         <v>-0.7469855203839051</v>
@@ -22452,10 +22452,10 @@
         <v>0.2143385285807624</v>
       </c>
       <c r="CF70" t="n">
-        <v>0.7018559373635097</v>
+        <v>0.6949258811585713</v>
       </c>
       <c r="CG70" t="n">
-        <v>0.2981440626364903</v>
+        <v>0.3050741188414287</v>
       </c>
       <c r="CH70" t="n">
         <v>1.172825104947192e-05</v>
@@ -22476,10 +22476,10 @@
         <v>0.0002822405355490556</v>
       </c>
       <c r="CN70" t="n">
-        <v>0.0004423315257125835</v>
+        <v>0.000493658279732319</v>
       </c>
       <c r="CO70" t="n">
-        <v>-0.0003384565994764555</v>
+        <v>-0.0003897833534961918</v>
       </c>
       <c r="CP70" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>-0.5575440911828304</v>
       </c>
       <c r="BB71" t="n">
-        <v>-0.1717681724781116</v>
+        <v>-0.1394870808180998</v>
       </c>
       <c r="BC71" t="n">
         <v>-0.7454797231074886</v>
@@ -22765,10 +22765,10 @@
         <v>0.230596996416815</v>
       </c>
       <c r="CF71" t="n">
-        <v>0.6831202439692299</v>
+        <v>0.6782476570467852</v>
       </c>
       <c r="CG71" t="n">
-        <v>0.3168797560307701</v>
+        <v>0.3217523429532148</v>
       </c>
       <c r="CH71" t="n">
         <v>4.594633986516709e-05</v>
@@ -22789,10 +22789,10 @@
         <v>0.000280534172649204</v>
       </c>
       <c r="CN71" t="n">
-        <v>0.0004772206004887616</v>
+        <v>0.0005133089182472643</v>
       </c>
       <c r="CO71" t="n">
-        <v>-0.0003585102806546009</v>
+        <v>-0.0003945985984131033</v>
       </c>
       <c r="CP71" t="n">
         <v>0</v>
@@ -22984,7 +22984,7 @@
         <v>-0.5437968816524037</v>
       </c>
       <c r="BB72" t="n">
-        <v>-0.169896791729292</v>
+        <v>-0.1536793072100025</v>
       </c>
       <c r="BC72" t="n">
         <v>-0.7430020558685146</v>
@@ -23078,10 +23078,10 @@
         <v>0.2480145617434817</v>
       </c>
       <c r="CF72" t="n">
-        <v>0.66357903233656</v>
+        <v>0.6610605662367964</v>
       </c>
       <c r="CG72" t="n">
-        <v>0.33642096766344</v>
+        <v>0.3389394337632036</v>
       </c>
       <c r="CH72" t="n">
         <v>7.319395618583455e-05</v>
@@ -23102,10 +23102,10 @@
         <v>0.0003147605745441586</v>
       </c>
       <c r="CN72" t="n">
-        <v>0.0005032402702906036</v>
+        <v>0.0005218930324309016</v>
       </c>
       <c r="CO72" t="n">
-        <v>-0.0003400124483916704</v>
+        <v>-0.0003586652105319684</v>
       </c>
       <c r="CP72" t="n">
         <v>0</v>
@@ -23297,7 +23297,7 @@
         <v>-0.529722770615718</v>
       </c>
       <c r="BB73" t="n">
-        <v>-0.1680585517989614</v>
+        <v>-0.1689269837265227</v>
       </c>
       <c r="BC73" t="n">
         <v>-0.7393454626436861</v>
@@ -23391,10 +23391,10 @@
         <v>0.2668042548987529</v>
       </c>
       <c r="CF73" t="n">
-        <v>0.6430918407342886</v>
+        <v>0.6432302316735143</v>
       </c>
       <c r="CG73" t="n">
-        <v>0.3569081592657114</v>
+        <v>0.3567697683264857</v>
       </c>
       <c r="CH73" t="n">
         <v>6.488972318682926e-05</v>
@@ -23415,10 +23415,10 @@
         <v>0.0003388312444749207</v>
       </c>
       <c r="CN73" t="n">
-        <v>0.0004917487421284786</v>
+        <v>0.000490723763760895</v>
       </c>
       <c r="CO73" t="n">
-        <v>-0.0003285141274666646</v>
+        <v>-0.000327489149099081</v>
       </c>
       <c r="CP73" t="n">
         <v>0</v>
@@ -23610,7 +23610,7 @@
         <v>-0.5153142943248925</v>
       </c>
       <c r="BB74" t="n">
-        <v>-0.1662526321009626</v>
+        <v>-0.185260925903952</v>
       </c>
       <c r="BC74" t="n">
         <v>-0.7342703194084579</v>
@@ -23704,10 +23704,10 @@
         <v>0.2869978813579946</v>
       </c>
       <c r="CF74" t="n">
-        <v>0.6217274028937276</v>
+        <v>0.624826996942522</v>
       </c>
       <c r="CG74" t="n">
-        <v>0.3782725971062724</v>
+        <v>0.375173003057478</v>
       </c>
       <c r="CH74" t="n">
         <v>6.517651071324439e-05</v>
@@ -23728,10 +23728,10 @@
         <v>0.0003228149244415435</v>
       </c>
       <c r="CN74" t="n">
-        <v>0.0004867476559380322</v>
+        <v>0.0004637908289515302</v>
       </c>
       <c r="CO74" t="n">
-        <v>-0.0003532019425060602</v>
+        <v>-0.0003302451155195577</v>
       </c>
       <c r="CP74" t="n">
         <v>0</v>
@@ -23923,7 +23923,7 @@
         <v>-0.500564913354232</v>
       </c>
       <c r="BB75" t="n">
-        <v>-0.1644782382205888</v>
+        <v>-0.2027090690586567</v>
       </c>
       <c r="BC75" t="n">
         <v>-0.7275027228863229</v>
@@ -24017,10 +24017,10 @@
         <v>0.3085630631087602</v>
       </c>
       <c r="CF75" t="n">
-        <v>0.5996249505513628</v>
+        <v>0.6059845077149281</v>
       </c>
       <c r="CG75" t="n">
-        <v>0.4003750494486372</v>
+        <v>0.3940154922850719</v>
       </c>
       <c r="CH75" t="n">
         <v>0.0001028336835558483</v>
@@ -24041,10 +24041,10 @@
         <v>0.0003263269570940746</v>
       </c>
       <c r="CN75" t="n">
-        <v>0.0005169015000653842</v>
+        <v>0.0004698000889720418</v>
       </c>
       <c r="CO75" t="n">
-        <v>-0.0003536691496578764</v>
+        <v>-0.000306567738564534</v>
       </c>
       <c r="CP75" t="n">
         <v>0</v>
@@ -24236,7 +24236,7 @@
         <v>-0.4854691541787341</v>
       </c>
       <c r="BB76" t="n">
-        <v>-0.1627346008930221</v>
+        <v>-0.2212966398489938</v>
       </c>
       <c r="BC76" t="n">
         <v>-0.7187346981333157</v>
@@ -24330,10 +24330,10 @@
         <v>0.3316401551158774</v>
       </c>
       <c r="CF76" t="n">
-        <v>0.5767423524897485</v>
+        <v>0.5866480904955678</v>
       </c>
       <c r="CG76" t="n">
-        <v>0.4232576475102515</v>
+        <v>0.4133519095044322</v>
       </c>
       <c r="CH76" t="n">
         <v>0.000118828702521165</v>
@@ -24354,10 +24354,10 @@
         <v>0.0008301809705632867</v>
       </c>
       <c r="CN76" t="n">
-        <v>0.0005231467768672983</v>
+        <v>0.0004497809392790923</v>
       </c>
       <c r="CO76" t="n">
-        <v>-0.0005269302438248866</v>
+        <v>-0.0003801985686484773</v>
       </c>
       <c r="CP76" t="n">
         <v>0</v>
@@ -24549,7 +24549,7 @@
         <v>-0.4542228362185718</v>
       </c>
       <c r="BB77" t="n">
-        <v>-0.1593366387845489</v>
+        <v>-0.2619791576524527</v>
       </c>
       <c r="BC77" t="n">
         <v>-0.6938196657212603</v>
@@ -24643,10 +24643,10 @@
         <v>0.3825406504382142</v>
       </c>
       <c r="CF77" t="n">
-        <v>0.5288301162966978</v>
+        <v>0.546595617965884</v>
       </c>
       <c r="CG77" t="n">
-        <v>0.4711698837033022</v>
+        <v>0.453404382034116</v>
       </c>
       <c r="CH77" t="n">
         <v>0.0004806098418660022</v>
@@ -24667,10 +24667,10 @@
         <v>0.0003126227385001103</v>
       </c>
       <c r="CN77" t="n">
-        <v>0.001236644418975098</v>
+        <v>0.0009734876689441972</v>
       </c>
       <c r="CO77" t="n">
-        <v>-0.0003438006324262767</v>
+        <v>-0.0002122222574108272</v>
       </c>
       <c r="CP77" t="n">
         <v>0</v>
@@ -24862,7 +24862,7 @@
         <v>-0.4380680279831712</v>
       </c>
       <c r="BB78" t="n">
-        <v>-0.1576808926743919</v>
+        <v>-0.2841138799859542</v>
       </c>
       <c r="BC78" t="n">
         <v>-0.6769411599888209</v>
@@ -24956,10 +24956,10 @@
         <v>0.4104124938412722</v>
       </c>
       <c r="CF78" t="n">
-        <v>0.5039267562947047</v>
+        <v>0.5259379276225137</v>
       </c>
       <c r="CG78" t="n">
-        <v>0.4960732437052953</v>
+        <v>0.4740620723774863</v>
       </c>
       <c r="CH78" t="n">
         <v>0.0001667118798610364</v>
@@ -24980,10 +24980,10 @@
         <v>0.0003162542770591063</v>
       </c>
       <c r="CN78" t="n">
-        <v>0.0005282448267138178</v>
+        <v>0.0003652213326729406</v>
       </c>
       <c r="CO78" t="n">
-        <v>-0.000318183324512401</v>
+        <v>-0.0001551598304715238</v>
       </c>
       <c r="CP78" t="n">
         <v>0</v>
@@ -25175,7 +25175,7 @@
         <v>-0.4215586618842035</v>
       </c>
       <c r="BB79" t="n">
-        <v>-0.1560530587235426</v>
+        <v>-0.3074684590850121</v>
       </c>
       <c r="BC79" t="n">
         <v>-0.6566359601807791</v>
@@ -25269,10 +25269,10 @@
         <v>0.439869526248295</v>
       </c>
       <c r="CF79" t="n">
-        <v>0.4784997671176832</v>
+        <v>0.5049063849839581</v>
       </c>
       <c r="CG79" t="n">
-        <v>0.5215002328823168</v>
+        <v>0.4950936150160419</v>
       </c>
       <c r="CH79" t="n">
         <v>0.0001635615226397019</v>
@@ -25293,10 +25293,10 @@
         <v>0.000305242581127243</v>
       </c>
       <c r="CN79" t="n">
-        <v>0.0005065057248446621</v>
+        <v>0.0003109278046036076</v>
       </c>
       <c r="CO79" t="n">
-        <v>-0.0002993469165562014</v>
+        <v>-0.0001037689963151443</v>
       </c>
       <c r="CP79" t="n">
         <v>0</v>
@@ -25488,7 +25488,7 @@
         <v>-0.4046969145348644</v>
       </c>
       <c r="BB80" t="n">
-        <v>-0.1544524796582731</v>
+        <v>-0.332060036593142</v>
       </c>
       <c r="BC80" t="n">
         <v>-0.6325934531717616</v>
@@ -25582,10 +25582,10 @@
         <v>0.4707999721944663</v>
       </c>
       <c r="CF80" t="n">
-        <v>0.4526728107959453</v>
+        <v>0.4835679698845439</v>
       </c>
       <c r="CG80" t="n">
-        <v>0.5473271892040547</v>
+        <v>0.5164320301154561</v>
       </c>
       <c r="CH80" t="n">
         <v>0.0001682275993272666</v>
@@ -25606,10 +25606,10 @@
         <v>0.0002690715845221621</v>
       </c>
       <c r="CN80" t="n">
-        <v>0.000490631632726279</v>
+        <v>0.0002618097900100361</v>
       </c>
       <c r="CO80" t="n">
-        <v>-0.0002977194381057827</v>
+        <v>-6.889759538953938e-05</v>
       </c>
       <c r="CP80" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>-0.3874869654110469</v>
       </c>
       <c r="BB81" t="n">
-        <v>-0.152878518132532</v>
+        <v>-0.3579055145323456</v>
       </c>
       <c r="BC81" t="n">
         <v>-0.6045886131621235</v>
@@ -25895,10 +25895,10 @@
         <v>0.5030595032938705</v>
       </c>
       <c r="CF81" t="n">
-        <v>0.4265509102894738</v>
+        <v>0.4619625823374127</v>
       </c>
       <c r="CG81" t="n">
-        <v>0.5734490897105262</v>
+        <v>0.5380374176625873</v>
       </c>
       <c r="CH81" t="n">
         <v>0.0001910747548592184</v>
@@ -25919,10 +25919,10 @@
         <v>0.0002527253773134766</v>
       </c>
       <c r="CN81" t="n">
-        <v>0.000491188628278912</v>
+        <v>0.0002289156932719864</v>
       </c>
       <c r="CO81" t="n">
-        <v>-0.000268607910717312</v>
+        <v>-6.334975710385951e-06</v>
       </c>
       <c r="CP81" t="n">
         <v>0</v>
@@ -26114,7 +26114,7 @@
         <v>-0.3699351433431948</v>
       </c>
       <c r="BB82" t="n">
-        <v>-0.1513305559886182</v>
+        <v>-0.3850220246197573</v>
       </c>
       <c r="BC82" t="n">
         <v>-0.5725279075190229</v>
@@ -26187,7 +26187,7 @@
         <v>1</v>
       </c>
       <c r="BY82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ82" t="n">
         <v>0.4375974790403744</v>
@@ -26208,10 +26208,10 @@
         <v>0.5363923544443797</v>
       </c>
       <c r="CF82" t="n">
-        <v>0.4002876559884926</v>
+        <v>0.4401723969670521</v>
       </c>
       <c r="CG82" t="n">
-        <v>0.5997123440115074</v>
+        <v>0.5598276030329479</v>
       </c>
       <c r="CH82" t="n">
         <v>0.0001867926266456545</v>
@@ -26232,10 +26232,10 @@
         <v>0.0002284365274491124</v>
       </c>
       <c r="CN82" t="n">
-        <v>0.0004631240233433048</v>
+        <v>0.0001677217598106324</v>
       </c>
       <c r="CO82" t="n">
-        <v>-0.0002405365130188995</v>
+        <v>5.486575051376428e-05</v>
       </c>
       <c r="CP82" t="n">
         <v>0</v>
@@ -26247,7 +26247,7 @@
         <v>1</v>
       </c>
       <c r="CS82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -26427,7 +26427,7 @@
         <v>-0.3520500606830262</v>
       </c>
       <c r="BB83" t="n">
-        <v>-0.1498079935502798</v>
+        <v>-0.4134273785533309</v>
       </c>
       <c r="BC83" t="n">
         <v>-0.5364947736345924</v>
@@ -26500,7 +26500,7 @@
         <v>0</v>
       </c>
       <c r="BY83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ83" t="n">
         <v>0.4079800548499654</v>
@@ -26521,10 +26521,10 @@
         <v>0.5704721215883044</v>
       </c>
       <c r="CF83" t="n">
-        <v>0.374041493683899</v>
+        <v>0.4182798796405376</v>
       </c>
       <c r="CG83" t="n">
-        <v>0.6259585063161011</v>
+        <v>0.5817201203594624</v>
       </c>
       <c r="CH83" t="n">
         <v>0.0001835635459161004</v>
@@ -26545,10 +26545,10 @@
         <v>0.0005901300501108334</v>
       </c>
       <c r="CN83" t="n">
-        <v>0.0004349260355180034</v>
+        <v>0.0001072789447760189</v>
       </c>
       <c r="CO83" t="n">
-        <v>-0.0002317784412917759</v>
+        <v>0.0004235157401922141</v>
       </c>
       <c r="CP83" t="n">
         <v>0</v>
@@ -26560,7 +26560,7 @@
         <v>0</v>
       </c>
       <c r="CS83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -26740,7 +26740,7 @@
         <v>-0.3153266638787324</v>
       </c>
       <c r="BB84" t="n">
-        <v>-0.1468367574650993</v>
+        <v>-0.474181807864255</v>
       </c>
       <c r="BC84" t="n">
         <v>-0.453923516403147</v>
@@ -26813,7 +26813,7 @@
         <v>0</v>
       </c>
       <c r="BY84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ84" t="n">
         <v>0.3490588101849411</v>
@@ -26834,10 +26834,10 @@
         <v>0.6393594177779792</v>
       </c>
       <c r="CF84" t="n">
-        <v>0.3221558842037486</v>
+        <v>0.3744233454935582</v>
       </c>
       <c r="CG84" t="n">
-        <v>0.6778441157962514</v>
+        <v>0.6255766545064418</v>
       </c>
       <c r="CH84" t="n">
         <v>0.0006018418326363345</v>
@@ -26858,10 +26858,10 @@
         <v>0.0001038973753974045</v>
       </c>
       <c r="CN84" t="n">
-        <v>0.001000349383921087</v>
+        <v>0.000226122148376748</v>
       </c>
       <c r="CO84" t="n">
-        <v>-0.0001811356128343655</v>
+        <v>0.0002059780049378044</v>
       </c>
       <c r="CP84" t="n">
         <v>0</v>
@@ -26873,7 +26873,7 @@
         <v>0</v>
       </c>
       <c r="CS84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -27053,7 +27053,7 @@
         <v>-0.2965179376567668</v>
       </c>
       <c r="BB85" t="n">
-        <v>-0.1453869709326774</v>
+        <v>-0.5065736470519303</v>
       </c>
       <c r="BC85" t="n">
         <v>-0.4086464770173134</v>
@@ -27147,10 +27147,10 @@
         <v>0.6732754656511948</v>
       </c>
       <c r="CF85" t="n">
-        <v>0.2968322882265487</v>
+        <v>0.3526178953587397</v>
       </c>
       <c r="CG85" t="n">
-        <v>0.7031677117734514</v>
+        <v>0.6473821046412602</v>
       </c>
       <c r="CH85" t="n">
         <v>0.0001958097770587892</v>
@@ -27171,10 +27171,10 @@
         <v>9.012679637794389e-05</v>
       </c>
       <c r="CN85" t="n">
-        <v>0.0003686922419841678</v>
+        <v>-4.447816391748302e-05</v>
       </c>
       <c r="CO85" t="n">
-        <v>-0.0001312670738075712</v>
+        <v>0.0002819033320940684</v>
       </c>
       <c r="CP85" t="n">
         <v>0</v>
@@ -27366,7 +27366,7 @@
         <v>-0.2774352364218396</v>
       </c>
       <c r="BB86" t="n">
-        <v>-0.1439603571228794</v>
+        <v>-0.5403406187441609</v>
       </c>
       <c r="BC86" t="n">
         <v>-0.3618571546671796</v>
@@ -27460,10 +27460,10 @@
         <v>0.7060766487335461</v>
       </c>
       <c r="CF86" t="n">
-        <v>0.272281705881736</v>
+        <v>0.331174808251637</v>
       </c>
       <c r="CG86" t="n">
-        <v>0.7277182941182641</v>
+        <v>0.668825191748363</v>
       </c>
       <c r="CH86" t="n">
         <v>0.0001662196981052793</v>
@@ -27484,10 +27484,10 @@
         <v>2.525592548090639e-05</v>
       </c>
       <c r="CN86" t="n">
-        <v>0.0003130984563807057</v>
+        <v>-0.0001230872958567649</v>
       </c>
       <c r="CO86" t="n">
-        <v>-0.0001350307123752529</v>
+        <v>0.0003011550398622307</v>
       </c>
       <c r="CP86" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>-0.2580998561990354</v>
       </c>
       <c r="BB87" t="n">
-        <v>-0.1425563991883311</v>
+        <v>-0.5755099719206217</v>
       </c>
       <c r="BC87" t="n">
         <v>-0.3145492304221383</v>
@@ -27773,10 +27773,10 @@
         <v>0.7376309122263126</v>
       </c>
       <c r="CF87" t="n">
-        <v>0.2483856759183639</v>
+        <v>0.3098850525994221</v>
       </c>
       <c r="CG87" t="n">
-        <v>0.7516143240816361</v>
+        <v>0.6901149474005779</v>
       </c>
       <c r="CH87" t="n">
         <v>0.0001904567120475328</v>
@@ -27797,10 +27797,10 @@
         <v>1.413773933184488e-05</v>
       </c>
       <c r="CN87" t="n">
-        <v>0.0003120142195370285</v>
+        <v>-0.0001434746373969792</v>
       </c>
       <c r="CO87" t="n">
-        <v>-8.942897346673334e-05</v>
+        <v>0.0003660598834672743</v>
       </c>
       <c r="CP87" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>-0.2385356711426591</v>
       </c>
       <c r="BB88" t="n">
-        <v>-0.1411745951170287</v>
+        <v>-0.6121119717924027</v>
       </c>
       <c r="BC88" t="n">
         <v>-0.2677180226164888</v>
@@ -28086,10 +28086,10 @@
         <v>0.7672914192547675</v>
       </c>
       <c r="CF88" t="n">
-        <v>0.2255725553567473</v>
+        <v>0.2891660568839663</v>
       </c>
       <c r="CG88" t="n">
-        <v>0.7744274446432527</v>
+        <v>0.7108339431160338</v>
       </c>
       <c r="CH88" t="n">
         <v>0.0001610182524117789</v>
@@ -28110,10 +28110,10 @@
         <v>-2.747203490067497e-05</v>
       </c>
       <c r="CN88" t="n">
-        <v>0.0002583920226631158</v>
+        <v>-0.0002126067562234616</v>
       </c>
       <c r="CO88" t="n">
-        <v>-8.03242786577129e-05</v>
+        <v>0.0003906745002288641</v>
       </c>
       <c r="CP88" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>-0.2187690586079017</v>
       </c>
       <c r="BB89" t="n">
-        <v>-0.1398144572113548</v>
+        <v>-0.6501802838826184</v>
       </c>
       <c r="BC89" t="n">
         <v>-0.2222748501512826</v>
@@ -28399,10 +28399,10 @@
         <v>0.7950236609159282</v>
       </c>
       <c r="CF89" t="n">
-        <v>0.2037449655572932</v>
+        <v>0.2688529092461099</v>
       </c>
       <c r="CG89" t="n">
-        <v>0.7962550344427067</v>
+        <v>0.7311470907538902</v>
       </c>
       <c r="CH89" t="n">
         <v>0.000167388429305025</v>
@@ -28423,10 +28423,10 @@
         <v>4.557115687567684e-06</v>
       </c>
       <c r="CN89" t="n">
-        <v>0.0002419880948446539</v>
+        <v>-0.0002402272453520681</v>
       </c>
       <c r="CO89" t="n">
-        <v>-4.562926667982421e-06</v>
+        <v>0.0004776524135287393</v>
       </c>
       <c r="CP89" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>-0.1988287808381846</v>
       </c>
       <c r="BB90" t="n">
-        <v>-0.138475511588722</v>
+        <v>-0.689752376481331</v>
       </c>
       <c r="BC90" t="n">
         <v>-0.1789805655759501</v>
@@ -28712,10 +28712,10 @@
         <v>0.8201112771040951</v>
       </c>
       <c r="CF90" t="n">
-        <v>0.1835554004599846</v>
+        <v>0.2497021264872035</v>
       </c>
       <c r="CG90" t="n">
-        <v>0.8164445995400154</v>
+        <v>0.7502978735127965</v>
       </c>
       <c r="CH90" t="n">
         <v>0.0001004601092444001</v>
@@ -28736,10 +28736,10 @@
         <v>-6.253916914992965e-05</v>
       </c>
       <c r="CN90" t="n">
-        <v>0.000154094880070703</v>
+        <v>-0.000335814095500177</v>
       </c>
       <c r="CO90" t="n">
-        <v>-3.53822959824222e-05</v>
+        <v>0.0004545266795884422</v>
       </c>
       <c r="CP90" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>-0.1787458224087858</v>
       </c>
       <c r="BB91" t="n">
-        <v>-0.1371572977028078</v>
+        <v>-0.730869947540227</v>
       </c>
       <c r="BC91" t="n">
         <v>-0.1384073347911038</v>
@@ -29004,7 +29004,7 @@
         <v>1</v>
       </c>
       <c r="BY91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ91" t="n">
         <v>0.1688910375672779</v>
@@ -29025,10 +29025,10 @@
         <v>0.8433232272560796</v>
       </c>
       <c r="CF91" t="n">
-        <v>0.1642312969429412</v>
+        <v>0.2307531794379067</v>
       </c>
       <c r="CG91" t="n">
-        <v>0.8357687030570589</v>
+        <v>0.7692468205620933</v>
       </c>
       <c r="CH91" t="n">
         <v>0.0001439924031434077</v>
@@ -29049,10 +29049,10 @@
         <v>-2.671304929416536e-05</v>
       </c>
       <c r="CN91" t="n">
-        <v>0.0001785042965174711</v>
+        <v>-0.0003141832371443413</v>
       </c>
       <c r="CO91" t="n">
-        <v>2.923876319228629e-05</v>
+        <v>0.000521926296854114</v>
       </c>
       <c r="CP91" t="n">
         <v>0</v>
@@ -29064,7 +29064,7 @@
         <v>1</v>
       </c>
       <c r="CS91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -29244,7 +29244,7 @@
         <v>-0.1585531838661124</v>
       </c>
       <c r="BB92" t="n">
-        <v>-0.1358593678844019</v>
+        <v>-0.7735793809953158</v>
       </c>
       <c r="BC92" t="n">
         <v>-0.1009295692681495</v>
@@ -29317,7 +29317,7 @@
         <v>1</v>
       </c>
       <c r="BY92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ92" t="n">
         <v>0.1490716346896333</v>
@@ -29338,10 +29338,10 @@
         <v>0.8638001729030556</v>
       </c>
       <c r="CF92" t="n">
-        <v>0.1467058151043125</v>
+        <v>0.2131878249251696</v>
       </c>
       <c r="CG92" t="n">
-        <v>0.8532941848956874</v>
+        <v>0.7868121750748305</v>
       </c>
       <c r="CH92" t="n">
         <v>8.303972813413635e-05</v>
@@ -29362,10 +29362,10 @@
         <v>-5.965860906619307e-05</v>
       </c>
       <c r="CN92" t="n">
-        <v>0.0001005619294438896</v>
+        <v>-0.0003918302913264464</v>
       </c>
       <c r="CO92" t="n">
-        <v>1.815291889864859e-05</v>
+        <v>0.0005105451396689832</v>
       </c>
       <c r="CP92" t="n">
         <v>0</v>
@@ -29377,7 +29377,7 @@
         <v>1</v>
       </c>
       <c r="CS92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -29557,7 +29557,7 @@
         <v>-0.1382856334064475</v>
       </c>
       <c r="BB93" t="n">
-        <v>-0.1345812869009401</v>
+        <v>-0.8179322366574888</v>
       </c>
       <c r="BC93" t="n">
         <v>-0.06673844619532632</v>
@@ -29630,7 +29630,7 @@
         <v>1</v>
       </c>
       <c r="BY93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ93" t="n">
         <v>0.1306605363672329</v>
@@ -29651,10 +29651,10 @@
         <v>0.8822844547114412</v>
       </c>
       <c r="CF93" t="n">
-        <v>0.1303035148032467</v>
+        <v>0.1961642609485695</v>
       </c>
       <c r="CG93" t="n">
-        <v>0.8696964851967534</v>
+        <v>0.8038357390514306</v>
       </c>
       <c r="CH93" t="n">
         <v>0.0001006848005312989</v>
@@ -29675,10 +29675,10 @@
         <v>-3.333273392690066e-05</v>
       </c>
       <c r="CN93" t="n">
-        <v>0.0001033290443083412</v>
+        <v>-0.0003844618504535821</v>
       </c>
       <c r="CO93" t="n">
-        <v>5.989877759069936e-05</v>
+        <v>0.0005476896723526229</v>
       </c>
       <c r="CP93" t="n">
         <v>0</v>
@@ -29690,7 +29690,7 @@
         <v>1</v>
       </c>
       <c r="CS93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -29870,7 +29870,7 @@
         <v>-0.1179794198849001</v>
       </c>
       <c r="BB94" t="n">
-        <v>-0.1333226315338479</v>
+        <v>-0.8639857773692542</v>
       </c>
       <c r="BC94" t="n">
         <v>-0.03587133700972018</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="BY94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ94" t="n">
         <v>0.1142567332180404</v>
@@ -29964,10 +29964,10 @@
         <v>0.898331521574452</v>
       </c>
       <c r="CF94" t="n">
-        <v>0.115619885574339</v>
+        <v>0.1805349249868571</v>
       </c>
       <c r="CG94" t="n">
-        <v>0.884380114425661</v>
+        <v>0.8194650750131429</v>
       </c>
       <c r="CH94" t="n">
         <v>5.895007253052629e-05</v>
@@ -29988,10 +29988,10 @@
         <v>2.209362754362551e-05</v>
       </c>
       <c r="CN94" t="n">
-        <v>4.885402372311503e-05</v>
+        <v>-0.0004319325906384725</v>
       </c>
       <c r="CO94" t="n">
-        <v>0.0002287529739555347</v>
+        <v>0.001190326202678695</v>
       </c>
       <c r="CP94" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="CS94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -30183,7 +30183,7 @@
         <v>-0.07740144871372559</v>
       </c>
       <c r="BB95" t="n">
-        <v>-0.1308619624265469</v>
+        <v>-0.9614559349549338</v>
       </c>
       <c r="BC95" t="n">
         <v>0.01629644560294989</v>
@@ -30256,7 +30256,7 @@
         <v>1</v>
       </c>
       <c r="BY95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ95" t="n">
         <v>0.08612898534345882</v>
@@ -30277,10 +30277,10 @@
         <v>0.9248217377561805</v>
       </c>
       <c r="CF95" t="n">
-        <v>0.09011077614354976</v>
+        <v>0.1519742190612585</v>
       </c>
       <c r="CG95" t="n">
-        <v>0.9098892238564502</v>
+        <v>0.8480257809387415</v>
       </c>
       <c r="CH95" t="n">
         <v>0.0002080897116470194</v>
@@ -30301,10 +30301,10 @@
         <v>-3.676052936163292e-05</v>
       </c>
       <c r="CN95" t="n">
-        <v>0.0001491082572661216</v>
+        <v>-0.0007672622954542217</v>
       </c>
       <c r="CO95" t="n">
-        <v>7.383561086614625e-05</v>
+        <v>0.0005320208872263248</v>
       </c>
       <c r="CP95" t="n">
         <v>0</v>
@@ -30316,7 +30316,7 @@
         <v>1</v>
       </c>
       <c r="CS95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -30496,7 +30496,7 @@
         <v>-0.05720657093470918</v>
       </c>
       <c r="BB96" t="n">
-        <v>-0.1296591587482524</v>
+        <v>-1.013020938642389</v>
       </c>
       <c r="BC96" t="n">
         <v>0.03797576281480246</v>
@@ -30569,7 +30569,7 @@
         <v>1</v>
       </c>
       <c r="BY96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ96" t="n">
         <v>0.07436588470124411</v>
@@ -30590,10 +30590,10 @@
         <v>0.9355092778024632</v>
       </c>
       <c r="CF96" t="n">
-        <v>0.07928059256950568</v>
+        <v>0.1392020559869343</v>
       </c>
       <c r="CG96" t="n">
-        <v>0.9207194074304943</v>
+        <v>0.8607979440130656</v>
       </c>
       <c r="CH96" t="n">
         <v>4.277732072173685e-05</v>
@@ -30614,10 +30614,10 @@
         <v>-1.204347592847176e-05</v>
       </c>
       <c r="CN96" t="n">
-        <v>6.377038476786546e-06</v>
+        <v>-0.00043742516490756</v>
       </c>
       <c r="CO96" t="n">
-        <v>9.749618956874252e-05</v>
+        <v>0.0005412983929530893</v>
       </c>
       <c r="CP96" t="n">
         <v>0</v>
@@ -30629,7 +30629,7 @@
         <v>1</v>
       </c>
       <c r="CS96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -30809,7 +30809,7 @@
         <v>-0.03712603769313415</v>
       </c>
       <c r="BB97" t="n">
-        <v>-0.1284742000768209</v>
+        <v>-1.066584787420329</v>
       </c>
       <c r="BC97" t="n">
         <v>0.05703258776555131</v>
@@ -30903,10 +30903,10 @@
         <v>0.9444860658109204</v>
       </c>
       <c r="CF97" t="n">
-        <v>0.06992304207751675</v>
+        <v>0.1278999128411287</v>
       </c>
       <c r="CG97" t="n">
-        <v>0.9300769579224832</v>
+        <v>0.8721000871588713</v>
       </c>
       <c r="CH97" t="n">
         <v>1.362219338896053e-05</v>
@@ -30927,10 +30927,10 @@
         <v>-1.917327267078953e-05</v>
       </c>
       <c r="CN97" t="n">
-        <v>-2.819044685523141e-05</v>
+        <v>-0.000457590223208768</v>
       </c>
       <c r="CO97" t="n">
-        <v>8.754631435169656e-05</v>
+        <v>0.0005169460907052201</v>
       </c>
       <c r="CP97" t="n">
         <v>0</v>
@@ -31122,7 +31122,7 @@
         <v>-0.0171982402045223</v>
       </c>
       <c r="BB98" t="n">
-        <v>-0.127306717491358</v>
+        <v>-1.122242780081906</v>
       </c>
       <c r="BC98" t="n">
         <v>0.0737176086321826</v>
@@ -31216,10 +31216,10 @@
         <v>0.9523185375173321</v>
       </c>
       <c r="CF98" t="n">
-        <v>0.06148626099716777</v>
+        <v>0.1172947229678963</v>
       </c>
       <c r="CG98" t="n">
-        <v>0.9385137390028322</v>
+        <v>0.8827052770321037</v>
       </c>
       <c r="CH98" t="n">
         <v>2.068369020044678e-05</v>
@@ -31240,10 +31240,10 @@
         <v>-1.782738296002631e-05</v>
       </c>
       <c r="CN98" t="n">
-        <v>-2.506015631435944e-05</v>
+        <v>-0.000438399834245125</v>
       </c>
       <c r="CO98" t="n">
-        <v>8.441644835851993e-05</v>
+        <v>0.0004977561262892978</v>
       </c>
       <c r="CP98" t="n">
         <v>0</v>
@@ -31435,7 +31435,7 @@
         <v>0.002539140230681526</v>
       </c>
       <c r="BB99" t="n">
-        <v>-0.1261563518794418</v>
+        <v>-1.180100140578824</v>
       </c>
       <c r="BC99" t="n">
         <v>0.08827727989500415</v>
@@ -31529,10 +31529,10 @@
         <v>0.9590590108603511</v>
       </c>
       <c r="CF99" t="n">
-        <v>0.05400277125842608</v>
+        <v>0.1075366253302562</v>
       </c>
       <c r="CG99" t="n">
-        <v>0.9459972287415739</v>
+        <v>0.8924633746697439</v>
       </c>
       <c r="CH99" t="n">
         <v>1.942442226105694e-05</v>
@@ -31553,10 +31553,10 @@
         <v>2.772879078781834e-05</v>
       </c>
       <c r="CN99" t="n">
-        <v>-2.899074535258006e-05</v>
+        <v>-0.000425483772020282</v>
       </c>
       <c r="CO99" t="n">
-        <v>0.0002212103032154175</v>
+        <v>0.00101419635655082</v>
       </c>
       <c r="CP99" t="n">
         <v>0</v>
@@ -31748,7 +31748,7 @@
         <v>0.04129766443612122</v>
       </c>
       <c r="BB100" t="n">
-        <v>-0.1239055822674319</v>
+        <v>-1.302889325766933</v>
       </c>
       <c r="BC100" t="n">
         <v>0.1119396367749837</v>
@@ -31842,10 +31842,10 @@
         <v>0.969622042314114</v>
       </c>
       <c r="CF100" t="n">
-        <v>0.04179882840673327</v>
+        <v>0.09086939521791412</v>
       </c>
       <c r="CG100" t="n">
-        <v>0.9582011715932668</v>
+        <v>0.9091306047820858</v>
       </c>
       <c r="CH100" t="n">
         <v>6.141605011689339e-05</v>
@@ -31866,10 +31866,10 @@
         <v>1.724507025193788e-05</v>
       </c>
       <c r="CN100" t="n">
-        <v>-4.043578875376934e-05</v>
+        <v>-0.0007673080789183868</v>
       </c>
       <c r="CO100" t="n">
-        <v>0.0001018325836637931</v>
+        <v>0.000465268728746103</v>
       </c>
       <c r="CP100" t="n">
         <v>0</v>
@@ -32061,7 +32061,7 @@
         <v>0.06025019753168645</v>
       </c>
       <c r="BB101" t="n">
-        <v>-0.1228045062749843</v>
+        <v>-1.368090370066883</v>
       </c>
       <c r="BC101" t="n">
         <v>0.1214568392493099</v>
@@ -32155,10 +32155,10 @@
         <v>0.9735136319231324</v>
       </c>
       <c r="CF101" t="n">
-        <v>0.03714742357501993</v>
+        <v>0.08439380293982804</v>
       </c>
       <c r="CG101" t="n">
-        <v>0.9628525764249801</v>
+        <v>0.915606197060172</v>
       </c>
       <c r="CH101" t="n">
         <v>-1.594403331429202e-05</v>
@@ -32179,10 +32179,10 @@
         <v>9.881817645233937e-05</v>
       </c>
       <c r="CN101" t="n">
-        <v>-6.738242848705367e-05</v>
+        <v>-0.0004173079154192676</v>
       </c>
       <c r="CO101" t="n">
-        <v>0.0003356982349810821</v>
+        <v>0.001385474695777714</v>
       </c>
       <c r="CP101" t="n">
         <v>1</v>
@@ -32374,7 +32374,7 @@
         <v>0.1150314893536022</v>
       </c>
       <c r="BB102" t="n">
-        <v>-0.11959466235732</v>
+        <v>-1.580839413444064</v>
       </c>
       <c r="BC102" t="n">
         <v>0.1428290660293465</v>
@@ -32468,10 +32468,10 @@
         <v>0.9824430607940454</v>
       </c>
       <c r="CF102" t="n">
-        <v>0.02594953223899561</v>
+        <v>0.06758053026864562</v>
       </c>
       <c r="CG102" t="n">
-        <v>0.9740504677610043</v>
+        <v>0.9324194697313544</v>
       </c>
       <c r="CH102" t="n">
         <v>6.16345452792777e-05</v>
@@ -32492,10 +32492,10 @@
         <v>0.0001343202305391228</v>
       </c>
       <c r="CN102" t="n">
-        <v>-8.689011691664277e-05</v>
+        <v>-0.001011897331407036</v>
       </c>
       <c r="CO102" t="n">
-        <v>0.0003829557656377762</v>
+        <v>0.001616298718291637</v>
       </c>
       <c r="CP102" t="n">
         <v>0</v>
@@ -32687,7 +32687,7 @@
         <v>0.182309199805725</v>
       </c>
       <c r="BB103" t="n">
-        <v>-0.115521534105562</v>
+        <v>-1.91218675419248</v>
       </c>
       <c r="BC103" t="n">
         <v>0.1593819690832102</v>
@@ -32781,10 +32781,10 @@
         <v>0.9893656237277881</v>
       </c>
       <c r="CF103" t="n">
-        <v>0.01664190679416067</v>
+        <v>0.052317869505585</v>
       </c>
       <c r="CG103" t="n">
-        <v>0.9833580932058393</v>
+        <v>0.947682130494415</v>
       </c>
       <c r="CH103" t="n">
         <v>6.799257750232451e-05</v>
@@ -32805,10 +32805,10 @@
         <v>0.000259123943712268</v>
       </c>
       <c r="CN103" t="n">
-        <v>-0.0001072118538498885</v>
+        <v>-0.001164133361182943</v>
       </c>
       <c r="CO103" t="n">
-        <v>0.0006150772373047786</v>
+        <v>0.002728920251970884</v>
       </c>
       <c r="CP103" t="n">
         <v>0</v>
@@ -33000,7 +33000,7 @@
         <v>0.2937869789976801</v>
       </c>
       <c r="BB104" t="n">
-        <v>-0.1080185195224144</v>
+        <v>-2.814391716521754</v>
       </c>
       <c r="BC104" t="n">
         <v>0.1704812228811864</v>
@@ -33094,10 +33094,10 @@
         <v>0.9956706211600832</v>
       </c>
       <c r="CF104" t="n">
-        <v>0.007360555662548772</v>
+        <v>0.03467011857627356</v>
       </c>
       <c r="CG104" t="n">
-        <v>0.9926394443374512</v>
+        <v>0.9653298814237264</v>
       </c>
       <c r="CH104" t="n">
         <v>0.0001750908436802853</v>
@@ -33118,10 +33118,10 @@
         <v>5.883949763126756e-05</v>
       </c>
       <c r="CN104" t="n">
-        <v>-6.514619788427589e-05</v>
+        <v>-0.001683270122547864</v>
       </c>
       <c r="CO104" t="n">
-        <v>0.000193540108331676</v>
+        <v>0.001407133051829372</v>
       </c>
       <c r="CP104" t="n">
         <v>0</v>
@@ -33313,7 +33313,7 @@
         <v>0.3568783620385486</v>
       </c>
       <c r="BB105" t="n">
-        <v>-0.1028938190977557</v>
+        <v>-3.846362645268801</v>
       </c>
       <c r="BC105" t="n">
         <v>0.1697346877592243</v>
@@ -33407,10 +33407,10 @@
         <v>0.9977413471143832</v>
       </c>
       <c r="CF105" t="n">
-        <v>0.00402220153673522</v>
+        <v>0.02664816044870476</v>
       </c>
       <c r="CG105" t="n">
-        <v>0.9959777984632647</v>
+        <v>0.9733518395512952</v>
       </c>
       <c r="CH105" t="n">
         <v>7.830152553584863e-05</v>
@@ -33425,7 +33425,7 @@
       </c>
       <c r="CM105" t="inlineStr"/>
       <c r="CN105" t="n">
-        <v>-4.518903355313854e-05</v>
+        <v>-0.001050650166789923</v>
       </c>
       <c r="CO105" t="inlineStr"/>
       <c r="CP105" t="n">
@@ -33618,7 +33618,7 @@
         <v>-0.7828847577948821</v>
       </c>
       <c r="BB106" t="n">
-        <v>-0.6903110830228144</v>
+        <v>-1.676005380538838</v>
       </c>
       <c r="BC106" t="n">
         <v>-0.580120901022029</v>
@@ -33712,10 +33712,10 @@
         <v>0.0366051612462478</v>
       </c>
       <c r="CF106" t="n">
-        <v>0.967627236352074</v>
+        <v>1.004407150183481</v>
       </c>
       <c r="CG106" t="n">
-        <v>0.03237276364792596</v>
+        <v>-0.00440715018348059</v>
       </c>
       <c r="CH106" t="inlineStr"/>
       <c r="CI106" t="n">
@@ -33731,7 +33731,7 @@
       </c>
       <c r="CN106" t="inlineStr"/>
       <c r="CO106" t="n">
-        <v>-2.331217065551158e-05</v>
+        <v>0.005424821392089501</v>
       </c>
       <c r="CP106" t="n">
         <v>0</v>
@@ -33743,7 +33743,7 @@
         <v>1</v>
       </c>
       <c r="CS106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -33923,7 +33923,7 @@
         <v>-0.6461274869000885</v>
       </c>
       <c r="BB107" t="n">
-        <v>-0.4717330993601679</v>
+        <v>-1.360286056268231</v>
       </c>
       <c r="BC107" t="n">
         <v>-0.5362825508378813</v>
@@ -34017,10 +34017,10 @@
         <v>0.06680917498294636</v>
       </c>
       <c r="CF107" t="n">
-        <v>0.9282293320260766</v>
+        <v>1.000406522472728</v>
       </c>
       <c r="CG107" t="n">
-        <v>0.0717706679739234</v>
+        <v>-0.0004065224727276551</v>
       </c>
       <c r="CH107" t="n">
         <v>0.003760853365146588</v>
@@ -34041,10 +34041,10 @@
         <v>-0.0003144634483673785</v>
       </c>
       <c r="CN107" t="n">
-        <v>0.005859243321668622</v>
+        <v>-0.004832216575153009</v>
       </c>
       <c r="CO107" t="n">
-        <v>-0.0005349441972568795</v>
+        <v>0.002672493771789607</v>
       </c>
       <c r="CP107" t="n">
         <v>0</v>
@@ -34236,7 +34236,7 @@
         <v>-0.6100676087905396</v>
       </c>
       <c r="BB108" t="n">
-        <v>-0.4268502346797345</v>
+        <v>-1.42770475079278</v>
       </c>
       <c r="BC108" t="n">
         <v>-0.5298059298963338</v>
@@ -34330,10 +34330,10 @@
         <v>0.0831960919503606</v>
       </c>
       <c r="CF108" t="n">
-        <v>0.9067003014098463</v>
+        <v>1.008590520864739</v>
       </c>
       <c r="CG108" t="n">
-        <v>0.09329969859015375</v>
+        <v>-0.008590520864739437</v>
       </c>
       <c r="CH108" t="n">
         <v>0.000662789470070542</v>
@@ -34354,10 +34354,10 @@
         <v>-7.336108652354406e-05</v>
       </c>
       <c r="CN108" t="n">
-        <v>0.001491659605655879</v>
+        <v>-0.003036177464916419</v>
       </c>
       <c r="CO108" t="n">
-        <v>-0.0005223490751144252</v>
+        <v>0.004005487995457885</v>
       </c>
       <c r="CP108" t="n">
         <v>0</v>
@@ -34549,7 +34549,7 @@
         <v>-0.5745677547190575</v>
       </c>
       <c r="BB109" t="n">
-        <v>-0.3881916088686748</v>
+        <v>-1.950403543213992</v>
       </c>
       <c r="BC109" t="n">
         <v>-0.5253189488592481</v>
@@ -34643,10 +34643,10 @@
         <v>0.1053096158303285</v>
       </c>
       <c r="CF109" t="n">
-        <v>0.8778662440987236</v>
+        <v>1.075422075154301</v>
       </c>
       <c r="CG109" t="n">
-        <v>0.1221337559012764</v>
+        <v>-0.0754220751543011</v>
       </c>
       <c r="CH109" t="n">
         <v>0.0007563219715749289</v>
@@ -34667,10 +34667,10 @@
         <v>-6.416424097319389e-05</v>
       </c>
       <c r="CN109" t="n">
-        <v>0.001803688091624317</v>
+        <v>-0.006975374512683451</v>
       </c>
       <c r="CO109" t="n">
-        <v>-0.0001887705173840221</v>
+        <v>0.001274406583333924</v>
       </c>
       <c r="CP109" t="n">
         <v>1</v>
@@ -34862,7 +34862,7 @@
         <v>-0.5686447074507671</v>
       </c>
       <c r="BB110" t="n">
-        <v>-0.3822688303979618</v>
+        <v>-2.221802139946</v>
       </c>
       <c r="BC110" t="n">
         <v>-0.5247068351182653</v>
@@ -34956,10 +34956,10 @@
         <v>0.1096609448837736</v>
       </c>
       <c r="CF110" t="n">
-        <v>0.872234040687934</v>
+        <v>1.113101950600929</v>
       </c>
       <c r="CG110" t="n">
-        <v>0.127765959312066</v>
+        <v>-0.1131019506009294</v>
       </c>
       <c r="CH110" t="n">
         <v>4.973913350894872e-05</v>
@@ -34980,10 +34980,10 @@
         <v>-3.566589709724875e-05</v>
       </c>
       <c r="CN110" t="n">
-        <v>0.0002304848571391396</v>
+        <v>-0.001553478735326727</v>
       </c>
       <c r="CO110" t="n">
-        <v>-0.0004379447219453971</v>
+        <v>0.00491394605545226</v>
       </c>
       <c r="CP110" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>-0.5507857584847153</v>
       </c>
       <c r="BB111" t="n">
-        <v>-0.3652991836174967</v>
+        <v>-6.518197771118516</v>
       </c>
       <c r="BC111" t="n">
         <v>-0.5229993887128003</v>
@@ -35269,10 +35269,10 @@
         <v>0.1241957406917285</v>
       </c>
       <c r="CF111" t="n">
-        <v>0.8535761967940723</v>
+        <v>1.746022296786698</v>
       </c>
       <c r="CG111" t="n">
-        <v>0.1464238032059277</v>
+        <v>-0.7460222967866976</v>
       </c>
       <c r="CH111" t="n">
         <v>0.0002547247178968613</v>
@@ -35293,10 +35293,10 @@
         <v>0.0001036734891871342</v>
       </c>
       <c r="CN111" t="n">
-        <v>0.0008525069718430707</v>
+        <v>-0.01897692590528983</v>
       </c>
       <c r="CO111" t="n">
-        <v>-0.0003902161402455774</v>
+        <v>0.01943921673688723</v>
       </c>
       <c r="CP111" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>-0.5327096085438012</v>
       </c>
       <c r="BB112" t="n">
-        <v>-0.3494423838200046</v>
+        <v>2.155360941149597</v>
       </c>
       <c r="BC112" t="n">
         <v>-0.5213376747218351</v>
@@ -35582,10 +35582,10 @@
         <v>0.1413665711962948</v>
       </c>
       <c r="CF112" t="n">
-        <v>0.8318819697183276</v>
+        <v>0.4308604680727067</v>
       </c>
       <c r="CG112" t="n">
-        <v>0.1681180302816724</v>
+        <v>0.5691395319272933</v>
       </c>
       <c r="CH112" t="n">
         <v>0.0002203051265595411</v>
@@ -35606,10 +35606,10 @@
         <v>2.668280178163467e-05</v>
       </c>
       <c r="CN112" t="n">
-        <v>0.0008722443765987846</v>
+        <v>0.009782618851017524</v>
       </c>
       <c r="CO112" t="n">
-        <v>-0.0001714491497551761</v>
+        <v>-0.003141573974561452</v>
       </c>
       <c r="CP112" t="n">
         <v>0</v>
@@ -35801,7 +35801,7 @@
         <v>-0.5266176044602572</v>
       </c>
       <c r="BB113" t="n">
-        <v>-0.3443866560604311</v>
+        <v>1.221480512415141</v>
       </c>
       <c r="BC113" t="n">
         <v>-0.5207536750466079</v>
@@ -35895,10 +35895,10 @@
         <v>0.1477567773724416</v>
       </c>
       <c r="CF113" t="n">
-        <v>0.8239068849573642</v>
+        <v>0.5650726387920234</v>
       </c>
       <c r="CG113" t="n">
-        <v>0.1760931150426358</v>
+        <v>0.4349273612079766</v>
       </c>
       <c r="CH113" t="n">
         <v>7.417636816376555e-06</v>
@@ -35919,10 +35919,10 @@
         <v>-5.734468668170106e-06</v>
       </c>
       <c r="CN113" t="n">
-        <v>0.0002305158011224337</v>
+        <v>0.002147545229447332</v>
       </c>
       <c r="CO113" t="n">
-        <v>-0.0002156046616951495</v>
+        <v>-0.00213263409002002</v>
       </c>
       <c r="CP113" t="n">
         <v>0</v>
@@ -36114,7 +36114,7 @@
         <v>-0.5204857194510227</v>
       </c>
       <c r="BB114" t="n">
-        <v>-0.3394401295088342</v>
+        <v>0.7602349916088871</v>
       </c>
       <c r="BC114" t="n">
         <v>-0.520136936069738</v>
@@ -36208,10 +36208,10 @@
         <v>0.1543029838498773</v>
       </c>
       <c r="CF114" t="n">
-        <v>0.8157623964651846</v>
+        <v>0.6283090548600792</v>
       </c>
       <c r="CG114" t="n">
-        <v>0.1842376035348154</v>
+        <v>0.3716909451399208</v>
       </c>
       <c r="CH114" t="n">
         <v>4.735358885156991e-05</v>
@@ -36232,10 +36232,10 @@
         <v>3.525993504587162e-05</v>
       </c>
       <c r="CN114" t="n">
-        <v>0.0002759259845087608</v>
+        <v>0.001664280028143583</v>
       </c>
       <c r="CO114" t="n">
-        <v>-0.0001864477706071236</v>
+        <v>-0.001574801814241967</v>
       </c>
       <c r="CP114" t="n">
         <v>0</v>
@@ -36427,7 +36427,7 @@
         <v>-0.5143100030475928</v>
       </c>
       <c r="BB115" t="n">
-        <v>-0.3345995639867622</v>
+        <v>0.4883667910522851</v>
       </c>
       <c r="BC115" t="n">
         <v>-0.5194750010373579</v>
@@ -36521,10 +36521,10 @@
         <v>0.1613180483416148</v>
       </c>
       <c r="CF115" t="n">
-        <v>0.8071147584281146</v>
+        <v>0.6624892075381001</v>
       </c>
       <c r="CG115" t="n">
-        <v>0.1928852415718854</v>
+        <v>0.3375107924618999</v>
       </c>
       <c r="CH115" t="n">
         <v>1.658857884681997e-05</v>
@@ -36545,10 +36545,10 @@
         <v>0.0001306433381569323</v>
       </c>
       <c r="CN115" t="n">
-        <v>0.0002504956191749551</v>
+        <v>0.001321650001762925</v>
       </c>
       <c r="CO115" t="n">
-        <v>-0.0003369550518442905</v>
+        <v>-0.002479263817020213</v>
       </c>
       <c r="CP115" t="n">
         <v>0</v>
@@ -36740,7 +36740,7 @@
         <v>-0.5018112518088927</v>
       </c>
       <c r="BB116" t="n">
-        <v>-0.3252239732402985</v>
+        <v>0.1880579825394191</v>
       </c>
       <c r="BC116" t="n">
         <v>-0.5179583235262986</v>
@@ -36834,10 +36834,10 @@
         <v>0.1763495223705243</v>
       </c>
       <c r="CF116" t="n">
-        <v>0.7887839439700719</v>
+        <v>0.6931472991490444</v>
       </c>
       <c r="CG116" t="n">
-        <v>0.2112160560299281</v>
+        <v>0.3068527008509556</v>
       </c>
       <c r="CH116" t="n">
         <v>0.000121108938477674</v>
@@ -36858,10 +36858,10 @@
         <v>8.074637775569026e-05</v>
       </c>
       <c r="CN116" t="n">
-        <v>0.0006084856648280179</v>
+        <v>0.002025131763745313</v>
       </c>
       <c r="CO116" t="n">
-        <v>-0.0001774890454118488</v>
+        <v>-0.0008858120948705018</v>
       </c>
       <c r="CP116" t="n">
         <v>0</v>
@@ -37053,7 +37053,7 @@
         <v>-0.495480298251959</v>
       </c>
       <c r="BB117" t="n">
-        <v>-0.3206830680201109</v>
+        <v>0.09863223218187789</v>
       </c>
       <c r="BC117" t="n">
         <v>-0.5170707314806472</v>
@@ -37147,10 +37147,10 @@
         <v>0.1845481553521966</v>
       </c>
       <c r="CF117" t="n">
-        <v>0.7789228504975556</v>
+        <v>0.698552106142066</v>
       </c>
       <c r="CG117" t="n">
-        <v>0.2210771495024444</v>
+        <v>0.301447893857934</v>
       </c>
       <c r="CH117" t="n">
         <v>2.383032112533018e-06</v>
@@ -37171,10 +37171,10 @@
         <v>7.96754234183919e-05</v>
       </c>
       <c r="CN117" t="n">
-        <v>0.0002505242278204763</v>
+        <v>0.0008457819434761959</v>
       </c>
       <c r="CO117" t="n">
-        <v>-0.0001908728437085144</v>
+        <v>-0.000786130559364225</v>
       </c>
       <c r="CP117" t="n">
         <v>0</v>
@@ -37366,7 +37366,7 @@
         <v>-0.4890896805203155</v>
       </c>
       <c r="BB118" t="n">
-        <v>-0.3162363529053226</v>
+        <v>0.03160457272649597</v>
       </c>
       <c r="BC118" t="n">
         <v>-0.5160718412934766</v>
@@ -37460,10 +37460,10 @@
         <v>0.1931160947277804</v>
       </c>
       <c r="CF118" t="n">
-        <v>0.7687059532919397</v>
+        <v>0.7001868394733805</v>
       </c>
       <c r="CG118" t="n">
-        <v>0.2312940467080603</v>
+        <v>0.2998131605266195</v>
       </c>
       <c r="CH118" t="n">
         <v>1.436022697387171e-05</v>
@@ -37484,10 +37484,10 @@
         <v>0.0002561232803236532</v>
       </c>
       <c r="CN118" t="n">
-        <v>0.0002665432501539828</v>
+        <v>0.0007740230737821596</v>
       </c>
       <c r="CO118" t="n">
-        <v>-0.0003093989296903887</v>
+        <v>-0.00132435857694675</v>
       </c>
       <c r="CP118" t="n">
         <v>0</v>
@@ -37679,7 +37679,7 @@
         <v>-0.476113644822953</v>
       </c>
       <c r="BB119" t="n">
-        <v>-0.3076149004958423</v>
+        <v>-0.05993421193791226</v>
       </c>
       <c r="BC119" t="n">
         <v>-0.5136512665985271</v>
@@ -37773,10 +37773,10 @@
         <v>0.2115594528181789</v>
       </c>
       <c r="CF119" t="n">
-        <v>0.7470420693597561</v>
+        <v>0.6956522730681807</v>
       </c>
       <c r="CG119" t="n">
-        <v>0.2529579306402439</v>
+        <v>0.3043477269318193</v>
       </c>
       <c r="CH119" t="n">
         <v>0.0001124343584998286</v>
@@ -37797,10 +37797,10 @@
         <v>0.0001033088515190726</v>
       </c>
       <c r="CN119" t="n">
-        <v>0.0006303016204670976</v>
+        <v>0.001391528183536658</v>
       </c>
       <c r="CO119" t="n">
-        <v>-0.0002033047494572778</v>
+        <v>-0.0005839180309920597</v>
       </c>
       <c r="CP119" t="n">
         <v>0</v>
@@ -37992,7 +37992,7 @@
         <v>-0.4695203505363451</v>
       </c>
       <c r="BB120" t="n">
-        <v>-0.3034351078322056</v>
+        <v>-0.09164278271566587</v>
       </c>
       <c r="BC120" t="n">
         <v>-0.5121786423946176</v>
@@ -38086,10 +38086,10 @@
         <v>0.2214538119102121</v>
       </c>
       <c r="CF120" t="n">
-        <v>0.7356045523111723</v>
+        <v>0.6905723164453389</v>
       </c>
       <c r="CG120" t="n">
-        <v>0.2643954476888277</v>
+        <v>0.3094276835546611</v>
       </c>
       <c r="CH120" t="n">
         <v>2.646756602426269e-05</v>
@@ -38110,10 +38110,10 @@
         <v>8.967639933876899e-05</v>
       </c>
       <c r="CN120" t="n">
-        <v>0.0002880155521966373</v>
+        <v>0.0006215422112729827</v>
       </c>
       <c r="CO120" t="n">
-        <v>-0.0002283664435523873</v>
+        <v>-0.0005618931026287284</v>
       </c>
       <c r="CP120" t="n">
         <v>0</v>
@@ -38305,7 +38305,7 @@
         <v>-0.4628516506454892</v>
       </c>
       <c r="BB121" t="n">
-        <v>-0.2993393858414371</v>
+        <v>-0.1169291245647776</v>
       </c>
       <c r="BC121" t="n">
         <v>-0.5104923160302219</v>
@@ -38399,10 +38399,10 @@
         <v>0.2317688223572281</v>
       </c>
       <c r="CF121" t="n">
-        <v>0.7238147832560256</v>
+        <v>0.6841135389525486</v>
       </c>
       <c r="CG121" t="n">
-        <v>0.2761852167439744</v>
+        <v>0.3158864610474514</v>
       </c>
       <c r="CH121" t="n">
         <v>5.210630064152004e-05</v>
@@ -38423,10 +38423,10 @@
         <v>0.0003546310273794965</v>
       </c>
       <c r="CN121" t="n">
-        <v>0.0003156861648284928</v>
+        <v>0.000609729378964319</v>
       </c>
       <c r="CO121" t="n">
-        <v>-0.0003032999566455899</v>
+        <v>-0.0008913863849172475</v>
       </c>
       <c r="CP121" t="n">
         <v>0</v>
@@ -38618,7 +38618,7 @@
         <v>-0.4492725345088509</v>
       </c>
       <c r="BB122" t="n">
-        <v>-0.2913910117149851</v>
+        <v>-0.15354290277802</v>
       </c>
       <c r="BC122" t="n">
         <v>-0.506342399364618</v>
@@ -38712,10 +38712,10 @@
         <v>0.2541544360693757</v>
       </c>
       <c r="CF122" t="n">
-        <v>0.6987323104759035</v>
+        <v>0.6673900688084455</v>
       </c>
       <c r="CG122" t="n">
-        <v>0.3012676895240965</v>
+        <v>0.3326099311915545</v>
       </c>
       <c r="CH122" t="n">
         <v>0.0001431036413608866</v>
@@ -38736,10 +38736,10 @@
         <v>0.0003362010097390658</v>
       </c>
       <c r="CN122" t="n">
-        <v>0.0006748415062436015</v>
+        <v>0.001139107734660734</v>
       </c>
       <c r="CO122" t="n">
-        <v>-0.0003616779971921495</v>
+        <v>-0.0008259442256092825</v>
       </c>
       <c r="CP122" t="n">
         <v>0</v>
@@ -38931,7 +38931,7 @@
         <v>-0.4353457069284166</v>
       </c>
       <c r="BB123" t="n">
-        <v>-0.2837522891298327</v>
+        <v>-0.1772601322262473</v>
       </c>
       <c r="BC123" t="n">
         <v>-0.5008922199986409</v>
@@ -39025,10 +39025,10 @@
         <v>0.2786064344379534</v>
       </c>
       <c r="CF123" t="n">
-        <v>0.6720793092048767</v>
+        <v>0.6469080171505088</v>
       </c>
       <c r="CG123" t="n">
-        <v>0.3279206907951233</v>
+        <v>0.3530919828494912</v>
       </c>
       <c r="CH123" t="n">
         <v>0.0002257148084823524</v>
@@ -39049,10 +39049,10 @@
         <v>0.000406460275250372</v>
       </c>
       <c r="CN123" t="n">
-        <v>0.0007564834647584406</v>
+        <v>0.001129340676136563</v>
       </c>
       <c r="CO123" t="n">
-        <v>-0.0003240217384184304</v>
+        <v>-0.000696878949796551</v>
       </c>
       <c r="CP123" t="n">
         <v>0</v>
@@ -39244,7 +39244,7 @@
         <v>-0.4210414661419128</v>
       </c>
       <c r="BB124" t="n">
-        <v>-0.2764069255234956</v>
+        <v>-0.1924010127353809</v>
       </c>
       <c r="BC124" t="n">
         <v>-0.4937687798776936</v>
@@ -39338,10 +39338,10 @@
         <v>0.3055455160790593</v>
       </c>
       <c r="CF124" t="n">
-        <v>0.6436082128278701</v>
+        <v>0.6230701626412292</v>
       </c>
       <c r="CG124" t="n">
-        <v>0.3563917871721299</v>
+        <v>0.3769298373587708</v>
       </c>
       <c r="CH124" t="n">
         <v>0.0002219668160812222</v>
@@ -39362,10 +39362,10 @@
         <v>0.0003802297752510328</v>
       </c>
       <c r="CN124" t="n">
-        <v>0.0007457582776902259</v>
+        <v>0.001049984222993102</v>
       </c>
       <c r="CO124" t="n">
-        <v>-0.0003729456599943946</v>
+        <v>-0.0006771716052972696</v>
       </c>
       <c r="CP124" t="n">
         <v>0</v>
@@ -39557,7 +39557,7 @@
         <v>-0.4063313888996977</v>
       </c>
       <c r="BB125" t="n">
-        <v>-0.2693397242896668</v>
+        <v>-0.2016281057814138</v>
       </c>
       <c r="BC125" t="n">
         <v>-0.4845325045048974</v>
@@ -39651,10 +39651,10 @@
         <v>0.3349549250491601</v>
       </c>
       <c r="CF125" t="n">
-        <v>0.6135470613277109</v>
+        <v>0.5965208935325264</v>
       </c>
       <c r="CG125" t="n">
-        <v>0.3864529386722891</v>
+        <v>0.4034791064674736</v>
       </c>
       <c r="CH125" t="n">
         <v>0.0003079831498139143</v>
@@ -39675,10 +39675,10 @@
         <v>0.0001437922709511502</v>
       </c>
       <c r="CN125" t="n">
-        <v>0.0008182353612522647</v>
+        <v>0.00107044050951627</v>
       </c>
       <c r="CO125" t="n">
-        <v>-0.0002376225112054255</v>
+        <v>-0.0003637250853374299</v>
       </c>
       <c r="CP125" t="n">
         <v>0</v>
@@ -39870,7 +39870,7 @@
         <v>-0.3988157436812207</v>
       </c>
       <c r="BB126" t="n">
-        <v>-0.2659059628528318</v>
+        <v>-0.2045882489635124</v>
       </c>
       <c r="BC126" t="n">
         <v>-0.4789676039758601</v>
@@ -39964,10 +39964,10 @@
         <v>0.3506854820573255</v>
       </c>
       <c r="CF126" t="n">
-        <v>0.5978862762971965</v>
+        <v>0.5822848279864064</v>
       </c>
       <c r="CG126" t="n">
-        <v>0.4021137237028035</v>
+        <v>0.4177151720135936</v>
       </c>
       <c r="CH126" t="n">
         <v>0.0001031498815010469</v>
@@ -39988,10 +39988,10 @@
         <v>0.0001764082774973401</v>
       </c>
       <c r="CN126" t="n">
-        <v>0.0003536125172380646</v>
+        <v>0.0004691630519117846</v>
       </c>
       <c r="CO126" t="n">
-        <v>-0.0002044897456274959</v>
+        <v>-0.0003200402803012164</v>
       </c>
       <c r="CP126" t="n">
         <v>0</v>
@@ -40183,7 +40183,7 @@
         <v>-0.3911888038837347</v>
       </c>
       <c r="BB127" t="n">
-        <v>-0.2625364943277468</v>
+        <v>-0.2066672630695557</v>
       </c>
       <c r="BC127" t="n">
         <v>-0.4726829091529313</v>
@@ -40277,10 +40277,10 @@
         <v>0.367156143292596</v>
       </c>
       <c r="CF127" t="n">
-        <v>0.5817846967108049</v>
+        <v>0.5674236550038163</v>
       </c>
       <c r="CG127" t="n">
-        <v>0.4182153032891951</v>
+        <v>0.4325763449961837</v>
       </c>
       <c r="CH127" t="n">
         <v>7.881676655446118e-05</v>
@@ -40301,10 +40301,10 @@
         <v>0.0001737227742319276</v>
       </c>
       <c r="CN127" t="n">
-        <v>0.0003237444515519459</v>
+        <v>0.000430108041307037</v>
       </c>
       <c r="CO127" t="n">
-        <v>-0.0002044416833279208</v>
+        <v>-0.0003108052730830097</v>
       </c>
       <c r="CP127" t="n">
         <v>0</v>
@@ -40496,7 +40496,7 @@
         <v>-0.383447601139086</v>
       </c>
       <c r="BB128" t="n">
-        <v>-0.2592296885544628</v>
+        <v>-0.2079956946844697</v>
       </c>
       <c r="BC128" t="n">
         <v>-0.4656096955309551</v>
@@ -40590,10 +40590,10 @@
         <v>0.3843208415863542</v>
       </c>
       <c r="CF128" t="n">
-        <v>0.565314295002628</v>
+        <v>0.5520318815067807</v>
       </c>
       <c r="CG128" t="n">
-        <v>0.434685704997372</v>
+        <v>0.4479681184932193</v>
       </c>
       <c r="CH128" t="n">
         <v>8.791613164122261e-05</v>
@@ -40614,10 +40614,10 @@
         <v>7.641874242233886e-05</v>
       </c>
       <c r="CN128" t="n">
-        <v>0.0003264280326564402</v>
+        <v>0.0004248028726474866</v>
       </c>
       <c r="CO128" t="n">
-        <v>-0.0002966034783343746</v>
+        <v>-0.0003949783183254227</v>
       </c>
       <c r="CP128" t="n">
         <v>1</v>
@@ -40809,7 +40809,7 @@
         <v>-0.3755893512792332</v>
       </c>
       <c r="BB129" t="n">
-        <v>-0.2559839684554877</v>
+        <v>-0.208682637952751</v>
       </c>
       <c r="BC129" t="n">
         <v>-0.4576791856903155</v>
@@ -40903,10 +40903,10 @@
         <v>0.4021110578453361</v>
       </c>
       <c r="CF129" t="n">
-        <v>0.548565798419286</v>
+        <v>0.536219385924107</v>
       </c>
       <c r="CG129" t="n">
-        <v>0.451434201580714</v>
+        <v>0.463780614075893</v>
       </c>
       <c r="CH129" t="n">
         <v>0.0001894296169055662</v>
@@ -40927,10 +40927,10 @@
         <v>0.0003640846150208179</v>
       </c>
       <c r="CN129" t="n">
-        <v>0.0004206495089742138</v>
+        <v>0.0005120919530794549</v>
       </c>
       <c r="CO129" t="n">
-        <v>-0.0003665290455673329</v>
+        <v>-0.0005494139337778115</v>
       </c>
       <c r="CP129" t="n">
         <v>0</v>
@@ -41122,7 +41122,7 @@
         <v>-0.359511628913805</v>
       </c>
       <c r="BB130" t="n">
-        <v>-0.2496697296807815</v>
+        <v>-0.2084850825182863</v>
       </c>
       <c r="BC130" t="n">
         <v>-0.4389834667028658</v>
@@ -41216,10 +41216,10 @@
         <v>0.4399403161775309</v>
       </c>
       <c r="CF130" t="n">
-        <v>0.5139344596965649</v>
+        <v>0.5030980166898433</v>
       </c>
       <c r="CG130" t="n">
-        <v>0.4860655403034351</v>
+        <v>0.4969019833101567</v>
       </c>
       <c r="CH130" t="n">
         <v>0.0004514049118653548</v>
@@ -41240,10 +41240,10 @@
         <v>0.0001514754487824889</v>
       </c>
       <c r="CN130" t="n">
-        <v>0.0008795159973119951</v>
+        <v>0.001040034015696475</v>
       </c>
       <c r="CO130" t="n">
-        <v>-0.0001901463162947486</v>
+        <v>-0.0002704053254869894</v>
       </c>
       <c r="CP130" t="n">
         <v>0</v>
@@ -41435,7 +41435,7 @@
         <v>-0.3512877149092118</v>
       </c>
       <c r="BB131" t="n">
-        <v>-0.2465983035628659</v>
+        <v>-0.2077443851629108</v>
       </c>
       <c r="BC131" t="n">
         <v>-0.4281010689827937</v>
@@ -41529,10 +41529,10 @@
         <v>0.4599050300155061</v>
       </c>
       <c r="CF131" t="n">
-        <v>0.4961483453838638</v>
+        <v>0.4859143491855044</v>
       </c>
       <c r="CG131" t="n">
-        <v>0.5038516546161362</v>
+        <v>0.5140856508144956</v>
       </c>
       <c r="CH131" t="n">
         <v>0.0001176470318689079</v>
@@ -41553,10 +41553,10 @@
         <v>0.0007266226299868488</v>
       </c>
       <c r="CN131" t="n">
-        <v>0.0003218773567507252</v>
+        <v>0.0003976744051408668</v>
       </c>
       <c r="CO131" t="n">
-        <v>-0.0002498359401183359</v>
+        <v>-0.0004772270852887589</v>
       </c>
       <c r="CP131" t="n">
         <v>0</v>
@@ -41748,7 +41748,7 @@
         <v>-0.3258550000705308</v>
       </c>
       <c r="BB132" t="n">
-        <v>-0.2377103021587002</v>
+        <v>-0.2036139318397818</v>
       </c>
       <c r="BC132" t="n">
         <v>-0.3888453994179807</v>
@@ -41842,10 +41842,10 @@
         <v>0.5235089568881754</v>
       </c>
       <c r="CF132" t="n">
-        <v>0.4413650107030488</v>
+        <v>0.4324709027394248</v>
       </c>
       <c r="CG132" t="n">
-        <v>0.5586349892969512</v>
+        <v>0.5675290972605752</v>
       </c>
       <c r="CH132" t="n">
         <v>0.0009561976628351451</v>
@@ -41866,10 +41866,10 @@
         <v>0.0006555155233253073</v>
       </c>
       <c r="CN132" t="n">
-        <v>0.001467077471957297</v>
+        <v>0.001664697380731744</v>
       </c>
       <c r="CO132" t="n">
-        <v>-0.000124956599187832</v>
+        <v>-0.0003225765079622814</v>
       </c>
       <c r="CP132" t="n">
         <v>0</v>
@@ -42061,7 +42061,7 @@
         <v>-0.2992602845016625</v>
       </c>
       <c r="BB133" t="n">
-        <v>-0.2292848210648311</v>
+        <v>-0.1974524944800446</v>
       </c>
       <c r="BC133" t="n">
         <v>-0.3397313800005885</v>
@@ -42155,10 +42155,10 @@
         <v>0.5912531820631299</v>
       </c>
       <c r="CF133" t="n">
-        <v>0.3853234096962259</v>
+        <v>0.3772731628397465</v>
       </c>
       <c r="CG133" t="n">
-        <v>0.6146765903037741</v>
+        <v>0.6227268371602535</v>
       </c>
       <c r="CH133" t="n">
         <v>0.0009769545378007557</v>
@@ -42179,10 +42179,10 @@
         <v>5.975406482175601e-05</v>
       </c>
       <c r="CN133" t="n">
-        <v>0.00137015579441211</v>
+        <v>0.001549025789682669</v>
       </c>
       <c r="CO133" t="n">
-        <v>-0.0001137290177850858</v>
+        <v>-0.0001733523495419369</v>
       </c>
       <c r="CP133" t="n">
         <v>0</v>
@@ -42374,7 +42374,7 @@
         <v>-0.2901362296724968</v>
       </c>
       <c r="BB134" t="n">
-        <v>-0.226573493531002</v>
+        <v>-0.1950868552099902</v>
       </c>
       <c r="BC134" t="n">
         <v>-0.3214151789858314</v>
@@ -42468,10 +42468,10 @@
         <v>0.6142017473797108</v>
       </c>
       <c r="CF134" t="n">
-        <v>0.3666877190428302</v>
+        <v>0.3588463427378155</v>
       </c>
       <c r="CG134" t="n">
-        <v>0.6333122809571698</v>
+        <v>0.6411536572621845</v>
       </c>
       <c r="CH134" t="n">
         <v>0.0001345124080482547</v>
@@ -42492,10 +42492,10 @@
         <v>9.273922479285587e-05</v>
       </c>
       <c r="CN134" t="n">
-        <v>0.00025175235870303</v>
+        <v>0.0003098287120372016</v>
       </c>
       <c r="CO134" t="n">
-        <v>-0.0001903412083549098</v>
+        <v>-0.0003064939150232565</v>
       </c>
       <c r="CP134" t="n">
         <v>0</v>
@@ -42687,7 +42687,7 @@
         <v>-0.2715042121009335</v>
       </c>
       <c r="BB135" t="n">
-        <v>-0.2212898500414992</v>
+        <v>-0.1900196365011844</v>
       </c>
       <c r="BC135" t="n">
         <v>-0.2825558240855023</v>
@@ -42781,10 +42781,10 @@
         <v>0.66035895767856</v>
       </c>
       <c r="CF135" t="n">
-        <v>0.3293645808229087</v>
+        <v>0.3218783690656365</v>
       </c>
       <c r="CG135" t="n">
-        <v>0.6706354191770914</v>
+        <v>0.6781216309343634</v>
       </c>
       <c r="CH135" t="n">
         <v>0.0005651289856043757</v>
@@ -42805,10 +42805,10 @@
         <v>-1.961135865952146e-05</v>
       </c>
       <c r="CN135" t="n">
-        <v>0.0007432012366165438</v>
+        <v>0.00085409296333338</v>
       </c>
       <c r="CO135" t="n">
-        <v>-9.57229219614962e-05</v>
+        <v>-0.0001511687853199134</v>
       </c>
       <c r="CP135" t="n">
         <v>1</v>
@@ -43000,7 +43000,7 @@
         <v>-0.2619995979588218</v>
       </c>
       <c r="BB136" t="n">
-        <v>-0.2187154042691183</v>
+        <v>-0.1873529637606113</v>
       </c>
       <c r="BC136" t="n">
         <v>-0.2623290788655442</v>
@@ -43094,10 +43094,10 @@
         <v>0.6829937899251537</v>
       </c>
       <c r="CF136" t="n">
-        <v>0.3110861360979099</v>
+        <v>0.3037547741585974</v>
       </c>
       <c r="CG136" t="n">
-        <v>0.6889138639020901</v>
+        <v>0.6962452258414026</v>
       </c>
       <c r="CH136" t="n">
         <v>0.0001561607894711384</v>
@@ -43118,10 +43118,10 @@
         <v>-5.303775052764061e-05</v>
       </c>
       <c r="CN136" t="n">
-        <v>0.0002311003573703158</v>
+        <v>0.0002853993413555545</v>
       </c>
       <c r="CO136" t="n">
-        <v>-9.688417425163937e-05</v>
+        <v>-0.0001511831582368785</v>
       </c>
       <c r="CP136" t="n">
         <v>1</v>
@@ -43313,7 +43313,7 @@
         <v>-0.2523723734153674</v>
       </c>
       <c r="BB137" t="n">
-        <v>-0.2161845079942135</v>
+        <v>-0.1846174577502668</v>
       </c>
       <c r="BC137" t="n">
         <v>-0.2418102819103921</v>
@@ -43386,7 +43386,7 @@
         <v>0</v>
       </c>
       <c r="BY137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ137" t="n">
         <v>0.3012519882458853</v>
@@ -43407,10 +43407,10 @@
         <v>0.7052755698623081</v>
       </c>
       <c r="CF137" t="n">
-        <v>0.2930170661719252</v>
+        <v>0.2858336582577429</v>
       </c>
       <c r="CG137" t="n">
-        <v>0.7069829338280748</v>
+        <v>0.7141663417422571</v>
       </c>
       <c r="CH137" t="n">
         <v>0.0001697197866720383</v>
@@ -43431,10 +43431,10 @@
         <v>2.615304596241888e-05</v>
       </c>
       <c r="CN137" t="n">
-        <v>0.0002307108965797257</v>
+        <v>0.0002839140741776121</v>
       </c>
       <c r="CO137" t="n">
-        <v>8.622120350916529e-07</v>
+        <v>-0.0001055441431606786</v>
       </c>
       <c r="CP137" t="n">
         <v>0</v>
@@ -43446,7 +43446,7 @@
         <v>0</v>
       </c>
       <c r="CS137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -43626,7 +43626,7 @@
         <v>-0.2327628630857492</v>
       </c>
       <c r="BB138" t="n">
-        <v>-0.211249438509134</v>
+        <v>-0.1789894974402708</v>
       </c>
       <c r="BC138" t="n">
         <v>-0.2006580585982079</v>
@@ -43720,10 +43720,10 @@
         <v>0.7480215607915133</v>
       </c>
       <c r="CF138" t="n">
-        <v>0.2579772988747487</v>
+        <v>0.2510826556276646</v>
       </c>
       <c r="CG138" t="n">
-        <v>0.7420227011252513</v>
+        <v>0.7489173443723354</v>
       </c>
       <c r="CH138" t="n">
         <v>0.0004500672280784756</v>
@@ -43744,10 +43744,10 @@
         <v>0.0001407801480965282</v>
       </c>
       <c r="CN138" t="n">
-        <v>0.0005181747088168179</v>
+        <v>0.0006203036519398901</v>
       </c>
       <c r="CO138" t="n">
-        <v>0.0002740699737705556</v>
+        <v>0.0001208765590859466</v>
       </c>
       <c r="CP138" t="n">
         <v>0</v>
@@ -43939,7 +43939,7 @@
         <v>-0.2025243920151114</v>
       </c>
       <c r="BB139" t="n">
-        <v>-0.2041496513222794</v>
+        <v>-0.1703062491346135</v>
       </c>
       <c r="BC139" t="n">
         <v>-0.141338835757323</v>
@@ -44033,10 +44033,10 @@
         <v>0.806139047301242</v>
       </c>
       <c r="CF139" t="n">
-        <v>0.2088170180246416</v>
+        <v>0.2023864826577347</v>
       </c>
       <c r="CG139" t="n">
-        <v>0.7911829819753584</v>
+        <v>0.7976135173422653</v>
       </c>
       <c r="CH139" t="n">
         <v>0.0008250934142141108</v>
@@ -44057,10 +44057,10 @@
         <v>0.000781593196812494</v>
       </c>
       <c r="CN139" t="n">
-        <v>0.0008182318350964338</v>
+        <v>0.0009611131468340983</v>
       </c>
       <c r="CO139" t="n">
-        <v>0.001335446054122443</v>
+        <v>0.001097310534559671</v>
       </c>
       <c r="CP139" t="n">
         <v>0</v>
@@ -44252,7 +44252,7 @@
         <v>-0.1503223528273116</v>
       </c>
       <c r="BB140" t="n">
-        <v>-0.1930666867464761</v>
+        <v>-0.1556811952513207</v>
       </c>
       <c r="BC140" t="n">
         <v>-0.05745673162854553</v>
@@ -44346,10 +44346,10 @@
         <v>0.8814023452651668</v>
       </c>
       <c r="CF140" t="n">
-        <v>0.140498454364818</v>
+        <v>0.1349753823708121</v>
       </c>
       <c r="CG140" t="n">
-        <v>0.859501545635182</v>
+        <v>0.8650246176291879</v>
       </c>
       <c r="CH140" t="n">
         <v>0.001428374050790906</v>
@@ -44370,10 +44370,10 @@
         <v>-0.0001222136512762859</v>
       </c>
       <c r="CN140" t="n">
-        <v>0.001194526292603012</v>
+        <v>0.001399056637874691</v>
       </c>
       <c r="CO140" t="n">
-        <v>0.000202198423374057</v>
+        <v>0.0001203862852653843</v>
       </c>
       <c r="CP140" t="n">
         <v>0</v>
@@ -44565,7 +44565,7 @@
         <v>-0.128989066364736</v>
       </c>
       <c r="BB141" t="n">
-        <v>-0.1888775141491708</v>
+        <v>-0.1498987441219889</v>
       </c>
       <c r="BC141" t="n">
         <v>-0.0305108072807943</v>
@@ -44659,10 +44659,10 @@
         <v>0.9044774118987606</v>
       </c>
       <c r="CF141" t="n">
-        <v>0.1177166151736964</v>
+        <v>0.1126203563932731</v>
       </c>
       <c r="CG141" t="n">
-        <v>0.8822833848263036</v>
+        <v>0.8873796436067269</v>
       </c>
       <c r="CH141" t="n">
         <v>0.0002512497405696174</v>
@@ -44683,10 +44683,10 @@
         <v>-1.664476213125189e-05</v>
       </c>
       <c r="CN141" t="n">
-        <v>0.0001352643104625022</v>
+        <v>0.0002107541515570987</v>
       </c>
       <c r="CO141" t="n">
-        <v>0.0003121108307724829</v>
+        <v>0.0002366209896778864</v>
       </c>
       <c r="CP141" t="n">
         <v>0</v>
@@ -44878,7 +44878,7 @@
         <v>-0.1075087120236532</v>
       </c>
       <c r="BB142" t="n">
-        <v>-0.1848190298290407</v>
+        <v>-0.1441984847690762</v>
       </c>
       <c r="BC142" t="n">
         <v>-0.007326877474787935</v>
@@ -44951,7 +44951,7 @@
         <v>0</v>
       </c>
       <c r="BY142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ142" t="n">
         <v>0.08984481555827163</v>
@@ -44972,10 +44972,10 @@
         <v>0.9228978608257671</v>
       </c>
       <c r="CF142" t="n">
-        <v>0.09876610707872673</v>
+        <v>0.09407866386950386</v>
       </c>
       <c r="CG142" t="n">
-        <v>0.9012338929212733</v>
+        <v>0.9059213361304961</v>
       </c>
       <c r="CH142" t="n">
         <v>0.0001007484478951202</v>
@@ -44990,7 +44990,7 @@
       </c>
       <c r="CM142" t="inlineStr"/>
       <c r="CN142" t="n">
-        <v>-3.140082243329465e-05</v>
+        <v>3.803331705025457e-05</v>
       </c>
       <c r="CO142" t="inlineStr"/>
       <c r="CP142" t="n">
@@ -45003,7 +45003,7 @@
         <v>0</v>
       </c>
       <c r="CS142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -45183,7 +45183,7 @@
         <v>-0.4831373588538909</v>
       </c>
       <c r="BB143" t="n">
-        <v>-0.3431702955975869</v>
+        <v>-1.65704984508928</v>
       </c>
       <c r="BC143" t="n">
         <v>-0.4662867089060485</v>
@@ -45277,10 +45277,10 @@
         <v>0.09176998034635431</v>
       </c>
       <c r="CF143" t="n">
-        <v>0.8946651598922017</v>
+        <v>1.045323336528839</v>
       </c>
       <c r="CG143" t="n">
-        <v>0.1053348401077983</v>
+        <v>-0.0453233365288388</v>
       </c>
       <c r="CH143" t="inlineStr"/>
       <c r="CI143" t="n">
@@ -45296,7 +45296,7 @@
       </c>
       <c r="CN143" t="inlineStr"/>
       <c r="CO143" t="n">
-        <v>-0.001270035097186737</v>
+        <v>0.007656640178872643</v>
       </c>
       <c r="CP143" t="n">
         <v>1</v>
@@ -45308,7 +45308,7 @@
         <v>1</v>
       </c>
       <c r="CS143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -45488,7 +45488,7 @@
         <v>-0.4600965423865416</v>
       </c>
       <c r="BB144" t="n">
-        <v>-0.3026957074310767</v>
+        <v>-2.008331206234689</v>
       </c>
       <c r="BC144" t="n">
         <v>-0.4539364399014598</v>
@@ -45582,10 +45582,10 @@
         <v>0.1172850207046092</v>
       </c>
       <c r="CF144" t="n">
-        <v>0.8609026916176785</v>
+        <v>1.115110303280143</v>
       </c>
       <c r="CG144" t="n">
-        <v>0.1390973083823215</v>
+        <v>-0.115110303280143</v>
       </c>
       <c r="CH144" t="n">
         <v>0.001880528233041641</v>
@@ -45606,10 +45606,10 @@
         <v>-0.0001903961761267575</v>
       </c>
       <c r="CN144" t="n">
-        <v>0.003270501301764726</v>
+        <v>-0.01179160055472088</v>
       </c>
       <c r="CO144" t="n">
-        <v>-0.0005134971412946495</v>
+        <v>0.00325202832282675</v>
       </c>
       <c r="CP144" t="n">
         <v>1</v>
@@ -45801,7 +45801,7 @@
         <v>-0.4545463119113051</v>
       </c>
       <c r="BB145" t="n">
-        <v>-0.2937724443566923</v>
+        <v>-2.26974779341769</v>
       </c>
       <c r="BC145" t="n">
         <v>-0.4512743640041082</v>
@@ -45895,10 +45895,10 @@
         <v>0.12510400523667</v>
       </c>
       <c r="CF145" t="n">
-        <v>0.8506889344662218</v>
+        <v>1.164154941731918</v>
       </c>
       <c r="CG145" t="n">
-        <v>0.1493110655337782</v>
+        <v>-0.1641549417319181</v>
       </c>
       <c r="CH145" t="n">
         <v>0.0002869918988260296</v>
@@ -45919,10 +45919,10 @@
         <v>-0.0001860697158182659</v>
       </c>
       <c r="CN145" t="n">
-        <v>0.0006647914412042551</v>
+        <v>-0.003978516541495822</v>
       </c>
       <c r="CO145" t="n">
-        <v>-0.000544643958989688</v>
+        <v>0.004098664023710391</v>
       </c>
       <c r="CP145" t="n">
         <v>1</v>
@@ -46114,7 +46114,7 @@
         <v>-0.4490294579600069</v>
       </c>
       <c r="BB146" t="n">
-        <v>-0.2852646055608614</v>
+        <v>-2.759660842566653</v>
       </c>
       <c r="BC146" t="n">
         <v>-0.4487273461822068</v>
@@ -46208,10 +46208,10 @@
         <v>0.1335009559172694</v>
       </c>
       <c r="CF146" t="n">
-        <v>0.8397801968239292</v>
+        <v>1.256810816611733</v>
       </c>
       <c r="CG146" t="n">
-        <v>0.1602198031760708</v>
+        <v>-0.2568108166117331</v>
       </c>
       <c r="CH146" t="n">
         <v>0.0002973899880970854</v>
@@ -46232,10 +46232,10 @@
         <v>-0.0001102658068794027</v>
       </c>
       <c r="CN146" t="n">
-        <v>0.0007062328630544571</v>
+        <v>-0.005471156585906627</v>
       </c>
       <c r="CO146" t="n">
-        <v>-0.0009018274683655842</v>
+        <v>0.01145295142955663</v>
       </c>
       <c r="CP146" t="n">
         <v>1</v>
@@ -46427,7 +46427,7 @@
         <v>-0.4379937174304945</v>
       </c>
       <c r="BB147" t="n">
-        <v>-0.2693903989661843</v>
+        <v>-9.065709135878574</v>
       </c>
       <c r="BC147" t="n">
         <v>-0.4438442694842182</v>
@@ -46521,10 +46521,10 @@
         <v>0.1526661315052278</v>
       </c>
       <c r="CF147" t="n">
-        <v>0.815232873609591</v>
+        <v>2.481250979343647</v>
       </c>
       <c r="CG147" t="n">
-        <v>0.184767126390409</v>
+        <v>-1.481250979343647</v>
       </c>
       <c r="CH147" t="n">
         <v>0.0006830111907589718</v>
@@ -46545,10 +46545,10 @@
         <v>5.7870457657371e-05</v>
       </c>
       <c r="CN147" t="n">
-        <v>0.001629056444989209</v>
+        <v>-0.04772771583890872</v>
       </c>
       <c r="CO147" t="n">
-        <v>-0.0008931405122602478</v>
+        <v>0.0484636317716375</v>
       </c>
       <c r="CP147" t="n">
         <v>0</v>
@@ -46740,7 +46740,7 @@
         <v>-0.4267810735879384</v>
       </c>
       <c r="BB148" t="n">
-        <v>-0.2548842307698644</v>
+        <v>2.671369061456906</v>
       </c>
       <c r="BC148" t="n">
         <v>-0.4389702147944859</v>
@@ -46834,10 +46834,10 @@
         <v>0.1752416356200597</v>
       </c>
       <c r="CF148" t="n">
-        <v>0.7869246342076364</v>
+        <v>0.1687841765429013</v>
       </c>
       <c r="CG148" t="n">
-        <v>0.2130753657923636</v>
+        <v>0.8312158234570987</v>
       </c>
       <c r="CH148" t="n">
         <v>0.0006560417456746293</v>
@@ -46858,10 +46858,10 @@
         <v>1.742811739580651e-05</v>
       </c>
       <c r="CN148" t="n">
-        <v>0.001731788856543817</v>
+        <v>0.02004456571257928</v>
       </c>
       <c r="CO148" t="n">
-        <v>-0.0005429952052373151</v>
+        <v>-0.009699383633255048</v>
       </c>
       <c r="CP148" t="n">
         <v>1</v>
@@ -47053,7 +47053,7 @@
         <v>-0.4210410248637712</v>
       </c>
       <c r="BB149" t="n">
-        <v>-0.2480931699453965</v>
+        <v>1.273817819162395</v>
       </c>
       <c r="BC149" t="n">
         <v>-0.4364097648871894</v>
@@ -47147,10 +47147,10 @@
         <v>0.1880045800872786</v>
       </c>
       <c r="CF149" t="n">
-        <v>0.771224794166549</v>
+        <v>0.4327838247989862</v>
       </c>
       <c r="CG149" t="n">
-        <v>0.228775205833451</v>
+        <v>0.5672161752010139</v>
       </c>
       <c r="CH149" t="n">
         <v>0.0002058541559568101</v>
@@ -47171,10 +47171,10 @@
         <v>3.863361164526107e-05</v>
       </c>
       <c r="CN149" t="n">
-        <v>0.0007755537312024927</v>
+        <v>0.005788810729768059</v>
       </c>
       <c r="CO149" t="n">
-        <v>-0.0005652933456608894</v>
+        <v>-0.005578550344226458</v>
       </c>
       <c r="CP149" t="n">
         <v>0</v>
@@ -47366,7 +47366,7 @@
         <v>-0.4151745226280577</v>
       </c>
       <c r="BB150" t="n">
-        <v>-0.2415860432249919</v>
+        <v>0.7109268341904205</v>
       </c>
       <c r="BC150" t="n">
         <v>-0.4336819765320861</v>
@@ -47460,10 +47460,10 @@
         <v>0.2017583068148122</v>
       </c>
       <c r="CF150" t="n">
-        <v>0.7545435890754695</v>
+        <v>0.53212173932693</v>
       </c>
       <c r="CG150" t="n">
-        <v>0.2454564109245305</v>
+        <v>0.46787826067307</v>
       </c>
       <c r="CH150" t="n">
         <v>0.0002119556642578534</v>
@@ -47484,10 +47484,10 @@
         <v>0.0009765415520164664</v>
       </c>
       <c r="CN150" t="n">
-        <v>0.0008123886318008311</v>
+        <v>0.004107078092623052</v>
       </c>
       <c r="CO150" t="n">
-        <v>-0.0009653317382781138</v>
+        <v>-0.01084940012074477</v>
       </c>
       <c r="CP150" t="n">
         <v>0</v>
@@ -47679,7 +47679,7 @@
         <v>-0.3965226716055809</v>
       </c>
       <c r="BB151" t="n">
-        <v>-0.223610510065284</v>
+        <v>0.1204621929916617</v>
       </c>
       <c r="BC151" t="n">
         <v>-0.4236443844489813</v>
@@ -47773,10 +47773,10 @@
         <v>0.2499367915453984</v>
       </c>
       <c r="CF151" t="n">
-        <v>0.6981328896510259</v>
+        <v>0.60662250224318</v>
       </c>
       <c r="CG151" t="n">
-        <v>0.3018671103489741</v>
+        <v>0.39337749775682</v>
       </c>
       <c r="CH151" t="n">
         <v>0.001428494087617249</v>
@@ -47797,10 +47797,10 @@
         <v>0.0001425163367268713</v>
       </c>
       <c r="CN151" t="n">
-        <v>0.003472132267292396</v>
+        <v>0.007538706337545598</v>
       </c>
       <c r="CO151" t="n">
-        <v>-0.0006267168759845169</v>
+        <v>-0.001982241566068918</v>
       </c>
       <c r="CP151" t="n">
         <v>0</v>
@@ -47992,7 +47992,7 @@
         <v>-0.3898526040718217</v>
       </c>
       <c r="BB152" t="n">
-        <v>-0.2180869716785407</v>
+        <v>0.04155222666344158</v>
       </c>
       <c r="BC152" t="n">
         <v>-0.4193186699907436</v>
@@ -48086,10 +48086,10 @@
         <v>0.2685494730657826</v>
       </c>
       <c r="CF152" t="n">
-        <v>0.6771824966406786</v>
+        <v>0.6055055894065368</v>
       </c>
       <c r="CG152" t="n">
-        <v>0.3228175033593214</v>
+        <v>0.3944944105934632</v>
       </c>
       <c r="CH152" t="n">
         <v>0.0002346543189435269</v>
@@ -48110,10 +48110,10 @@
         <v>0.0001371446111307481</v>
       </c>
       <c r="CN152" t="n">
-        <v>0.0009370507713698534</v>
+        <v>0.001998786167940126</v>
       </c>
       <c r="CO152" t="n">
-        <v>-0.0006667166447208803</v>
+        <v>-0.001728452041291153</v>
       </c>
       <c r="CP152" t="n">
         <v>0</v>
@@ -48305,7 +48305,7 @@
         <v>-0.3829031704531161</v>
       </c>
       <c r="BB153" t="n">
-        <v>-0.2127765629451283</v>
+        <v>-0.01395445025866421</v>
       </c>
       <c r="BC153" t="n">
         <v>-0.4142750388034059</v>
@@ -48399,10 +48399,10 @@
         <v>0.288546417571791</v>
       </c>
       <c r="CF153" t="n">
-        <v>0.6551896964510132</v>
+        <v>0.5984107682003814</v>
       </c>
       <c r="CG153" t="n">
-        <v>0.3448103035489868</v>
+        <v>0.4015892317996186</v>
       </c>
       <c r="CH153" t="n">
         <v>0.0002728241770611137</v>
@@ -48423,10 +48423,10 @@
         <v>0.0001713464049167036</v>
       </c>
       <c r="CN153" t="n">
-        <v>0.000992491504883097</v>
+        <v>0.001833546179662708</v>
       </c>
       <c r="CO153" t="n">
-        <v>-0.0006620790537940459</v>
+        <v>-0.001503133728573657</v>
       </c>
       <c r="CP153" t="n">
         <v>0</v>
@@ -48618,7 +48618,7 @@
         <v>-0.3756415683932428</v>
       </c>
       <c r="BB154" t="n">
-        <v>-0.2076679724618196</v>
+        <v>-0.05377779655699907</v>
       </c>
       <c r="BC154" t="n">
         <v>-0.4083446002302638</v>
@@ -48712,10 +48712,10 @@
         <v>0.3101222574563199</v>
       </c>
       <c r="CF154" t="n">
-        <v>0.6320535120207345</v>
+        <v>0.5867519848810393</v>
       </c>
       <c r="CG154" t="n">
-        <v>0.3679464879792655</v>
+        <v>0.4132480151189607</v>
       </c>
       <c r="CH154" t="n">
         <v>0.0002723372225167924</v>
@@ -48736,10 +48736,10 @@
         <v>0.0001971776331795077</v>
       </c>
       <c r="CN154" t="n">
-        <v>0.001004790631331333</v>
+        <v>0.001675832906157505</v>
       </c>
       <c r="CO154" t="n">
-        <v>-0.00065936089079864</v>
+        <v>-0.001330403165624814</v>
       </c>
       <c r="CP154" t="n">
         <v>0</v>
@@ -48931,7 +48931,7 @@
         <v>-0.3680345182772957</v>
       </c>
       <c r="BB155" t="n">
-        <v>-0.2027506553902042</v>
+        <v>-0.08266354023334499</v>
       </c>
       <c r="BC155" t="n">
         <v>-0.4013362770653389</v>
@@ -49025,10 +49025,10 @@
         <v>0.3333558795552582</v>
       </c>
       <c r="CF155" t="n">
-        <v>0.6078042759433606</v>
+        <v>0.5715028038868523</v>
       </c>
       <c r="CG155" t="n">
-        <v>0.3921957240566394</v>
+        <v>0.4284971961131477</v>
       </c>
       <c r="CH155" t="n">
         <v>0.0002784515026226213</v>
@@ -49049,10 +49049,10 @@
         <v>0.000228484759098182</v>
       </c>
       <c r="CN155" t="n">
-        <v>0.001018559875194461</v>
+        <v>0.00155628617111425</v>
       </c>
       <c r="CO155" t="n">
-        <v>-0.0006430978474410909</v>
+        <v>-0.001180824143360882</v>
       </c>
       <c r="CP155" t="n">
         <v>0</v>
@@ -49244,7 +49244,7 @@
         <v>-0.3600484850701848</v>
       </c>
       <c r="BB156" t="n">
-        <v>-0.1980147702666794</v>
+        <v>-0.1036859553122363</v>
       </c>
       <c r="BC156" t="n">
         <v>-0.393038847743485</v>
@@ -49338,10 +49338,10 @@
         <v>0.3583401696210774</v>
       </c>
       <c r="CF156" t="n">
-        <v>0.5824635358276238</v>
+        <v>0.5533012433049529</v>
       </c>
       <c r="CG156" t="n">
-        <v>0.4175364641723762</v>
+        <v>0.4466987566950471</v>
       </c>
       <c r="CH156" t="n">
         <v>0.0002764380538550579</v>
@@ -49362,10 +49362,10 @@
         <v>0.0007681245677185339</v>
       </c>
       <c r="CN156" t="n">
-        <v>0.001018465058365474</v>
+        <v>0.001450440145059894</v>
       </c>
       <c r="CO156" t="n">
-        <v>-0.0009856006890257025</v>
+        <v>-0.001849550862414544</v>
       </c>
       <c r="CP156" t="n">
         <v>0</v>
@@ -49557,7 +49557,7 @@
         <v>-0.3428058756763856</v>
       </c>
       <c r="BB157" t="n">
-        <v>-0.1890511099300479</v>
+        <v>-0.1298181840316298</v>
       </c>
       <c r="BC157" t="n">
         <v>-0.3716687013206863</v>
@@ -49651,10 +49651,10 @@
         <v>0.4136333493471063</v>
       </c>
       <c r="CF157" t="n">
-        <v>0.5288877167151336</v>
+        <v>0.5099918790488062</v>
       </c>
       <c r="CG157" t="n">
-        <v>0.4711122832848664</v>
+        <v>0.4900081209511938</v>
       </c>
       <c r="CH157" t="n">
         <v>0.001119705726851567</v>
@@ -49675,10 +49675,10 @@
         <v>0.0001807726908946315</v>
       </c>
       <c r="CN157" t="n">
-        <v>0.002572816034859763</v>
+        <v>0.003132616407737163</v>
       </c>
       <c r="CO157" t="n">
-        <v>-0.0006706510252471702</v>
+        <v>-0.0009505512116858694</v>
       </c>
       <c r="CP157" t="n">
         <v>0</v>
@@ -49870,7 +49870,7 @@
         <v>-0.3334839666355437</v>
       </c>
       <c r="BB158" t="n">
-        <v>-0.1848066816901477</v>
+        <v>-0.1374182046873955</v>
       </c>
       <c r="BC158" t="n">
         <v>-0.358147651976141</v>
@@ -49964,10 +49964,10 @@
         <v>0.4440752605239628</v>
       </c>
       <c r="CF158" t="n">
-        <v>0.5007155234428288</v>
+        <v>0.4854729600790603</v>
       </c>
       <c r="CG158" t="n">
-        <v>0.4992844765571712</v>
+        <v>0.5145270399209396</v>
       </c>
       <c r="CH158" t="n">
         <v>0.0003795789514196343</v>
@@ -49988,10 +49988,10 @@
         <v>0.0002058518620287209</v>
       </c>
       <c r="CN158" t="n">
-        <v>0.001087959973839447</v>
+        <v>0.00131374495372024</v>
       </c>
       <c r="CO158" t="n">
-        <v>-0.0006119509860750627</v>
+        <v>-0.0008377359659558535</v>
       </c>
       <c r="CP158" t="n">
         <v>0</v>
@@ -50183,7 +50183,7 @@
         <v>-0.3236534081254052</v>
       </c>
       <c r="BB159" t="n">
-        <v>-0.1807102901212561</v>
+        <v>-0.1424852776268762</v>
       </c>
       <c r="BC159" t="n">
         <v>-0.3424810106800135</v>
@@ -50277,10 +50277,10 @@
         <v>0.4763310721777163</v>
       </c>
       <c r="CF159" t="n">
-        <v>0.471757307710599</v>
+        <v>0.4594280903926695</v>
       </c>
       <c r="CG159" t="n">
-        <v>0.528242692289401</v>
+        <v>0.5405719096073305</v>
       </c>
       <c r="CH159" t="n">
         <v>0.0003579543015164452</v>
@@ -50301,10 +50301,10 @@
         <v>1.870416609705368e-05</v>
       </c>
       <c r="CN159" t="n">
-        <v>0.001040903124927673</v>
+        <v>0.001223533304487338</v>
       </c>
       <c r="CO159" t="n">
-        <v>-0.0003657739503054886</v>
+        <v>-0.000457089040085323</v>
       </c>
       <c r="CP159" t="n">
         <v>1</v>
@@ -50496,7 +50496,7 @@
         <v>-0.3185382893320585</v>
       </c>
       <c r="BB160" t="n">
-        <v>-0.1787153782661532</v>
+        <v>-0.1442536154706966</v>
       </c>
       <c r="BC160" t="n">
         <v>-0.333803247129619</v>
@@ -50590,10 +50590,10 @@
         <v>0.493094342319891</v>
       </c>
       <c r="CF160" t="n">
-        <v>0.4570331591482849</v>
+        <v>0.4459266108785666</v>
       </c>
       <c r="CG160" t="n">
-        <v>0.5429668408517152</v>
+        <v>0.5540733891214333</v>
       </c>
       <c r="CH160" t="n">
         <v>0.0001410724521536534</v>
@@ -50614,10 +50614,10 @@
         <v>0.0003895206286467241</v>
       </c>
       <c r="CN160" t="n">
-        <v>0.0004748268539268787</v>
+        <v>0.0005570863701833172</v>
       </c>
       <c r="CO160" t="n">
-        <v>-0.0007186060829383056</v>
+        <v>-0.0009653846317076165</v>
       </c>
       <c r="CP160" t="n">
         <v>0</v>
@@ -50809,7 +50809,7 @@
         <v>-0.3023539708120268</v>
       </c>
       <c r="BB161" t="n">
-        <v>-0.172933727899664</v>
+        <v>-0.1471724896738802</v>
       </c>
       <c r="BC161" t="n">
         <v>-0.3043452312727594</v>
@@ -50903,10 +50903,10 @@
         <v>0.5456334498457768</v>
       </c>
       <c r="CF161" t="n">
-        <v>0.4121035910027684</v>
+        <v>0.4038984032050982</v>
       </c>
       <c r="CG161" t="n">
-        <v>0.5878964089972316</v>
+        <v>0.5961015967949017</v>
       </c>
       <c r="CH161" t="n">
         <v>0.0008009959224019123</v>
@@ -50927,10 +50927,10 @@
         <v>0.0007250500229756575</v>
       </c>
       <c r="CN161" t="n">
-        <v>0.001716904866189689</v>
+        <v>0.001899217524264519</v>
       </c>
       <c r="CO161" t="n">
-        <v>-0.0005270151518880599</v>
+        <v>-0.0007700986959878302</v>
       </c>
       <c r="CP161" t="n">
         <v>0</v>
@@ -51122,7 +51122,7 @@
         <v>-0.2787157396161843</v>
       </c>
       <c r="BB162" t="n">
-        <v>-0.1656697734066558</v>
+        <v>-0.1470275698098776</v>
       </c>
       <c r="BC162" t="n">
         <v>-0.2577029599915803</v>
@@ -51216,10 +51216,10 @@
         <v>0.6192476349208866</v>
       </c>
       <c r="CF162" t="n">
-        <v>0.3514571185512812</v>
+        <v>0.3457503445156714</v>
       </c>
       <c r="CG162" t="n">
-        <v>0.6485428814487189</v>
+        <v>0.6542496554843287</v>
       </c>
       <c r="CH162" t="n">
         <v>0.001298486412147686</v>
@@ -51240,10 +51240,10 @@
         <v>0.0005717082189034758</v>
       </c>
       <c r="CN162" t="n">
-        <v>0.002323702787098893</v>
+        <v>0.002492769345008328</v>
       </c>
       <c r="CO162" t="n">
-        <v>-0.0002961807955666231</v>
+        <v>-0.0004652473534760594</v>
       </c>
       <c r="CP162" t="n">
         <v>0</v>
@@ -51435,7 +51435,7 @@
         <v>-0.2526199532167142</v>
       </c>
       <c r="BB163" t="n">
-        <v>-0.1588727253605102</v>
+        <v>-0.1439557931086655</v>
       </c>
       <c r="BC163" t="n">
         <v>-0.2052638553282171</v>
@@ -51529,10 +51529,10 @@
         <v>0.6933020338031401</v>
       </c>
       <c r="CF163" t="n">
-        <v>0.2917699351804002</v>
+        <v>0.2875129980486043</v>
       </c>
       <c r="CG163" t="n">
-        <v>0.7082300648195998</v>
+        <v>0.7124870019513957</v>
       </c>
       <c r="CH163" t="n">
         <v>0.001271868780976073</v>
@@ -51553,10 +51553,10 @@
         <v>0.0004053179452898799</v>
       </c>
       <c r="CN163" t="n">
-        <v>0.002064448924084824</v>
+        <v>0.002190563205747053</v>
       </c>
       <c r="CO163" t="n">
-        <v>-3.693380755150077e-05</v>
+        <v>-0.0001630480892137291</v>
       </c>
       <c r="CP163" t="n">
         <v>0</v>
@@ -51748,7 +51748,7 @@
         <v>-0.224052572150858</v>
       </c>
       <c r="BB164" t="n">
-        <v>-0.1525020088318065</v>
+        <v>-0.1391542570059402</v>
       </c>
       <c r="BC164" t="n">
         <v>-0.1515919680845096</v>
@@ -51842,10 +51842,10 @@
         <v>0.7629517688295105</v>
       </c>
       <c r="CF164" t="n">
-        <v>0.235327280660389</v>
+        <v>0.2318920998930321</v>
       </c>
       <c r="CG164" t="n">
-        <v>0.764672719339611</v>
+        <v>0.7681079001069679</v>
       </c>
       <c r="CH164" t="n">
         <v>0.001163547174221942</v>
@@ -51866,10 +51866,10 @@
         <v>-0.0001066399426361995</v>
       </c>
       <c r="CN164" t="n">
-        <v>0.001709080848843984</v>
+        <v>0.001810850111917962</v>
       </c>
       <c r="CO164" t="n">
-        <v>-0.0001193859869538664</v>
+        <v>-0.0001448283027223598</v>
       </c>
       <c r="CP164" t="n">
         <v>0</v>
@@ -52061,7 +52061,7 @@
         <v>-0.2165354658507959</v>
       </c>
       <c r="BB165" t="n">
-        <v>-0.1509716202214474</v>
+        <v>-0.1377807119438715</v>
       </c>
       <c r="BC165" t="n">
         <v>-0.138565320986346</v>
@@ -52155,10 +52155,10 @@
         <v>0.7791257432629313</v>
       </c>
       <c r="CF165" t="n">
-        <v>0.2220001551334929</v>
+        <v>0.2187095091364952</v>
       </c>
       <c r="CG165" t="n">
-        <v>0.7779998448665071</v>
+        <v>0.7812904908635048</v>
       </c>
       <c r="CH165" t="n">
         <v>9.695467203937338e-05</v>
@@ -52179,10 +52179,10 @@
         <v>-0.0001363179302795231</v>
       </c>
       <c r="CN165" t="n">
-        <v>0.000218091982039714</v>
+        <v>0.0002424638157823564</v>
       </c>
       <c r="CO165" t="n">
-        <v>-0.0001279790787124466</v>
+        <v>-0.0001523509124550897</v>
       </c>
       <c r="CP165" t="n">
         <v>1</v>
@@ -52374,7 +52374,7 @@
         <v>-0.2088741456328423</v>
       </c>
       <c r="BB166" t="n">
-        <v>-0.1494650747876722</v>
+        <v>-0.1363575290966004</v>
       </c>
       <c r="BC166" t="n">
         <v>-0.1258336759417036</v>
@@ -52468,10 +52468,10 @@
         <v>0.7948058943698533</v>
       </c>
       <c r="CF166" t="n">
-        <v>0.208931351627178</v>
+        <v>0.2057698340681627</v>
       </c>
       <c r="CG166" t="n">
-        <v>0.791068648372822</v>
+        <v>0.7942301659318374</v>
       </c>
       <c r="CH166" t="n">
         <v>0.000118642850646301</v>
@@ -52492,10 +52492,10 @@
         <v>0.0001916808037547534</v>
       </c>
       <c r="CN166" t="n">
-        <v>0.0002247718381164433</v>
+        <v>0.0002481872952616573</v>
       </c>
       <c r="CO166" t="n">
-        <v>0.0003023989280113368</v>
+        <v>0.0002087370994304817</v>
       </c>
       <c r="CP166" t="n">
         <v>0</v>
@@ -52687,7 +52687,7 @@
         <v>-0.1768783675582032</v>
       </c>
       <c r="BB167" t="n">
-        <v>-0.1436673197533869</v>
+        <v>-0.1303189993559803</v>
       </c>
       <c r="BC167" t="n">
         <v>-0.07887028723662275</v>
@@ -52781,10 +52781,10 @@
         <v>0.8502707251966219</v>
       </c>
       <c r="CF167" t="n">
-        <v>0.1613355357448138</v>
+        <v>0.1585776589010094</v>
       </c>
       <c r="CG167" t="n">
-        <v>0.8386644642551861</v>
+        <v>0.8414223410989906</v>
       </c>
       <c r="CH167" t="n">
         <v>0.0009043737827953849</v>
@@ -52805,10 +52805,10 @@
         <v>-0.0001375950142591936</v>
       </c>
       <c r="CN167" t="n">
-        <v>0.001107655283336586</v>
+        <v>0.001189359016866368</v>
       </c>
       <c r="CO167" t="n">
-        <v>-5.163442709895608e-05</v>
+        <v>-7.20603604814022e-05</v>
       </c>
       <c r="CP167" t="n">
         <v>1</v>
@@ -53000,7 +53000,7 @@
         <v>-0.1685706619982218</v>
       </c>
       <c r="BB168" t="n">
-        <v>-0.1422726040890294</v>
+        <v>-0.1287542523881571</v>
       </c>
       <c r="BC168" t="n">
         <v>-0.06829794898193747</v>
@@ -53094,10 +53094,10 @@
         <v>0.8624762888052829</v>
       </c>
       <c r="CF168" t="n">
-        <v>0.1504333438202984</v>
+        <v>0.147762403979649</v>
       </c>
       <c r="CG168" t="n">
-        <v>0.8495666561797016</v>
+        <v>0.852237596020351</v>
       </c>
       <c r="CH168" t="n">
         <v>9.389720713901288e-05</v>
@@ -53118,10 +53118,10 @@
         <v>0.0003018213259324137</v>
       </c>
       <c r="CN168" t="n">
-        <v>0.0001323803989406811</v>
+        <v>0.0001521624422818071</v>
       </c>
       <c r="CO168" t="n">
-        <v>0.0007798907085343892</v>
+        <v>0.0006809804918287629</v>
       </c>
       <c r="CP168" t="n">
         <v>0</v>
@@ -53313,7 +53313,7 @@
         <v>-0.1255609698405164</v>
       </c>
       <c r="BB169" t="n">
-        <v>-0.1356052356611888</v>
+        <v>-0.1208350436527662</v>
       </c>
       <c r="BC169" t="n">
         <v>-0.02313198763382755</v>
@@ -53407,10 +53407,10 @@
         <v>0.911845211891141</v>
       </c>
       <c r="CF169" t="n">
-        <v>0.1042223167558793</v>
+        <v>0.1019450946415051</v>
       </c>
       <c r="CG169" t="n">
-        <v>0.8957776832441207</v>
+        <v>0.8980549053584949</v>
       </c>
       <c r="CH169" t="n">
         <v>0.0009887430712367594</v>
@@ -53431,10 +53431,10 @@
         <v>4.344522869260264e-05</v>
       </c>
       <c r="CN169" t="n">
-        <v>0.0009313955703882954</v>
+        <v>0.001015725636304281</v>
       </c>
       <c r="CO169" t="n">
-        <v>0.0005194552731612179</v>
+        <v>0.0004519912204284278</v>
       </c>
       <c r="CP169" t="n">
         <v>0</v>
@@ -53626,7 +53626,7 @@
         <v>-0.08997521670126382</v>
       </c>
       <c r="BB170" t="n">
-        <v>-0.1306146011239374</v>
+        <v>-0.1145779583537956</v>
       </c>
       <c r="BC170" t="n">
         <v>0.004162593909946135</v>
@@ -53720,10 +53720,10 @@
         <v>0.9395563540995682</v>
       </c>
       <c r="CF170" t="n">
-        <v>0.07605651365950211</v>
+        <v>0.0740869883225848</v>
       </c>
       <c r="CG170" t="n">
-        <v>0.9239434863404978</v>
+        <v>0.9259130116774152</v>
       </c>
       <c r="CH170" t="n">
         <v>0.000462837250569378</v>
@@ -53744,10 +53744,10 @@
         <v>0.0006977754450124898</v>
       </c>
       <c r="CN170" t="n">
-        <v>0.0003149733112798969</v>
+        <v>0.0003733216648944358</v>
       </c>
       <c r="CO170" t="n">
-        <v>0.00162285633822825</v>
+        <v>0.00150615963099917</v>
       </c>
       <c r="CP170" t="n">
         <v>0</v>
@@ -53939,7 +53939,7 @@
         <v>-0.01884791520145431</v>
       </c>
       <c r="BB171" t="n">
-        <v>-0.1214509890396702</v>
+        <v>-0.1027993907328305</v>
       </c>
       <c r="BC171" t="n">
         <v>0.04005166470956134</v>
@@ -54033,10 +54033,10 @@
         <v>0.9717705716220881</v>
       </c>
       <c r="CF171" t="n">
-        <v>0.03988041438855705</v>
+        <v>0.03848026765516264</v>
       </c>
       <c r="CG171" t="n">
-        <v>0.9601195856114429</v>
+        <v>0.9615197323448373</v>
       </c>
       <c r="CH171" t="n">
         <v>0.0009769880599281714</v>
@@ -54057,10 +54057,10 @@
         <v>0.001543014351018751</v>
       </c>
       <c r="CN171" t="n">
-        <v>0.0005206203595223263</v>
+        <v>0.0006035807106089582</v>
       </c>
       <c r="CO171" t="n">
-        <v>0.002923683772151894</v>
+        <v>0.00275776306997863</v>
       </c>
       <c r="CP171" t="n">
         <v>0</v>
@@ -54252,7 +54252,7 @@
         <v>0.1025875981260404</v>
       </c>
       <c r="BB172" t="n">
-        <v>-0.1058684350909914</v>
+        <v>-0.08331334869396666</v>
       </c>
       <c r="BC172" t="n">
         <v>0.06885912943516359</v>
@@ -54346,10 +54346,10 @@
         <v>0.9922612569957595</v>
       </c>
       <c r="CF172" t="n">
-        <v>0.01296415374329196</v>
+        <v>0.0122725854194177</v>
       </c>
       <c r="CG172" t="n">
-        <v>0.987035846256708</v>
+        <v>0.9877274145805823</v>
       </c>
       <c r="CH172" t="n">
         <v>0.001023368672186374</v>
@@ -54364,7 +54364,7 @@
       </c>
       <c r="CM172" t="inlineStr"/>
       <c r="CN172" t="n">
-        <v>0.0002659568273829952</v>
+        <v>0.0003479093107629499</v>
       </c>
       <c r="CO172" t="inlineStr"/>
       <c r="CP172" t="n">
@@ -54557,7 +54557,7 @@
         <v>-0.4359932067473806</v>
       </c>
       <c r="BB173" t="n">
-        <v>-0.09236351817794149</v>
+        <v>-0.2833993327056388</v>
       </c>
       <c r="BC173" t="n">
         <v>-0.4133467508595014</v>
@@ -54651,10 +54651,10 @@
         <v>0.09715125617563791</v>
       </c>
       <c r="CF173" t="n">
-        <v>0.8674666379328758</v>
+        <v>0.8887223953422073</v>
       </c>
       <c r="CG173" t="n">
-        <v>0.1325333620671242</v>
+        <v>0.1112776046577927</v>
       </c>
       <c r="CH173" t="inlineStr"/>
       <c r="CI173" t="n">
@@ -54670,7 +54670,7 @@
       </c>
       <c r="CN173" t="inlineStr"/>
       <c r="CO173" t="n">
-        <v>-0.00361290764201163</v>
+        <v>-0.002353478858418786</v>
       </c>
       <c r="CP173" t="n">
         <v>1</v>
@@ -54862,7 +54862,7 @@
         <v>-0.4107069975650057</v>
       </c>
       <c r="BB174" t="n">
-        <v>-0.0821709577871773</v>
+        <v>-0.2398615736247623</v>
       </c>
       <c r="BC174" t="n">
         <v>-0.3926485919579118</v>
@@ -54956,10 +54956,10 @@
         <v>0.1152700802845559</v>
       </c>
       <c r="CF174" t="n">
-        <v>0.8402928224275077</v>
+        <v>0.8630602287097993</v>
       </c>
       <c r="CG174" t="n">
-        <v>0.1597071775724923</v>
+        <v>0.1369397712902007</v>
       </c>
       <c r="CH174" t="n">
         <v>0.002412461410279072</v>
@@ -54980,10 +54980,10 @@
         <v>-0.0008792111560610334</v>
       </c>
       <c r="CN174" t="n">
-        <v>0.005222988372067305</v>
+        <v>0.003873992603651052</v>
       </c>
       <c r="CO174" t="n">
-        <v>-0.006145112371058269</v>
+        <v>-0.00344712083422577</v>
       </c>
       <c r="CP174" t="n">
         <v>1</v>
@@ -55175,7 +55175,7 @@
         <v>-0.3703603300860852</v>
       </c>
       <c r="BB175" t="n">
-        <v>-0.06708587341456242</v>
+        <v>-0.1802993046859334</v>
       </c>
       <c r="BC175" t="n">
         <v>-0.3622296540488416</v>
@@ -55269,10 +55269,10 @@
         <v>0.1665504458640441</v>
       </c>
       <c r="CF175" t="n">
-        <v>0.7670208840818422</v>
+        <v>0.7926475427737889</v>
       </c>
       <c r="CG175" t="n">
-        <v>0.2329791159181578</v>
+        <v>0.2073524572262111</v>
       </c>
       <c r="CH175" t="n">
         <v>0.006693022997132939</v>
@@ -55293,10 +55293,10 @@
         <v>-0.0005417919091954887</v>
       </c>
       <c r="CN175" t="n">
-        <v>0.01482801050590987</v>
+        <v>0.01179119079044037</v>
       </c>
       <c r="CO175" t="n">
-        <v>-0.002509780570122107</v>
+        <v>-0.001750575641254732</v>
       </c>
       <c r="CP175" t="n">
         <v>1</v>
@@ -55488,7 +55488,7 @@
         <v>-0.3613901929805009</v>
       </c>
       <c r="BB176" t="n">
-        <v>-0.06410199756519741</v>
+        <v>-0.1710307586312088</v>
       </c>
       <c r="BC176" t="n">
         <v>-0.3559182501195626</v>
@@ -55582,10 +55582,10 @@
         <v>0.18352488835009</v>
       </c>
       <c r="CF176" t="n">
-        <v>0.7439707730474097</v>
+        <v>0.7706510230625775</v>
       </c>
       <c r="CG176" t="n">
-        <v>0.2560292269525903</v>
+        <v>0.2293489769374225</v>
       </c>
       <c r="CH176" t="n">
         <v>0.0009950972032663902</v>
@@ -55606,10 +55606,10 @@
         <v>0.002958924413137411</v>
       </c>
       <c r="CN176" t="n">
-        <v>0.003192653749908934</v>
+        <v>0.002402235554606138</v>
       </c>
       <c r="CO176" t="n">
-        <v>-0.005633011335175457</v>
+        <v>-0.002471338553964263</v>
       </c>
       <c r="CP176" t="n">
         <v>0</v>
@@ -55801,7 +55801,7 @@
         <v>-0.3251160630639326</v>
       </c>
       <c r="BB177" t="n">
-        <v>-0.05431466348745143</v>
+        <v>-0.1756594184159059</v>
       </c>
       <c r="BC177" t="n">
         <v>-0.3298359725904134</v>
@@ -55895,10 +55895,10 @@
         <v>0.2756207000317253</v>
       </c>
       <c r="CF177" t="n">
-        <v>0.6288018286103152</v>
+        <v>0.6705563947422327</v>
       </c>
       <c r="CG177" t="n">
-        <v>0.3711981713896848</v>
+        <v>0.3294436052577673</v>
       </c>
       <c r="CH177" t="n">
         <v>0.008238469426646744</v>
@@ -55919,10 +55919,10 @@
         <v>0.0001007586607159345</v>
       </c>
       <c r="CN177" t="n">
-        <v>0.01928080386562694</v>
+        <v>0.01433278894239663</v>
       </c>
       <c r="CO177" t="n">
-        <v>-0.002730780488258115</v>
+        <v>-0.001493776757450535</v>
       </c>
       <c r="CP177" t="n">
         <v>0</v>
@@ -56114,7 +56114,7 @@
         <v>-0.3150428316446205</v>
       </c>
       <c r="BB178" t="n">
-        <v>-0.05229457339443138</v>
+        <v>-0.2190705294748849</v>
       </c>
       <c r="BC178" t="n">
         <v>-0.3216210822122618</v>
@@ -56208,10 +56208,10 @@
         <v>0.3057671894300803</v>
       </c>
       <c r="CF178" t="n">
-        <v>0.59441969519065</v>
+        <v>0.6553614373976476</v>
       </c>
       <c r="CG178" t="n">
-        <v>0.40558030480935</v>
+        <v>0.3446385626023524</v>
       </c>
       <c r="CH178" t="n">
         <v>0.0009049870158983064</v>
@@ -56232,10 +56232,10 @@
         <v>9.222979401638139e-05</v>
       </c>
       <c r="CN178" t="n">
-        <v>0.003749371537171912</v>
+        <v>0.001943936360721956</v>
       </c>
       <c r="CO178" t="n">
-        <v>-0.00286479281562111</v>
+        <v>-0.001059357639171156</v>
       </c>
       <c r="CP178" t="n">
         <v>1</v>
@@ -56427,7 +56427,7 @@
         <v>-0.3041450524792723</v>
       </c>
       <c r="BB179" t="n">
-        <v>-0.0504112115286868</v>
+        <v>-0.5496456379536295</v>
       </c>
       <c r="BC179" t="n">
         <v>-0.3118980923832079</v>
@@ -56521,10 +56521,10 @@
         <v>0.3391702700289559</v>
       </c>
       <c r="CF179" t="n">
-        <v>0.5580655355884897</v>
+        <v>0.7499654092858196</v>
       </c>
       <c r="CG179" t="n">
-        <v>0.4419344644115103</v>
+        <v>0.2500345907141804</v>
       </c>
       <c r="CH179" t="n">
         <v>0.001052353598608606</v>
@@ -56545,10 +56545,10 @@
         <v>0.0002769514498948238</v>
       </c>
       <c r="CN179" t="n">
-        <v>0.003941806307179614</v>
+        <v>-0.00174334101192148</v>
       </c>
       <c r="CO179" t="n">
-        <v>-0.002767498621578525</v>
+        <v>0.002917648697522568</v>
       </c>
       <c r="CP179" t="n">
         <v>0</v>
@@ -56740,7 +56740,7 @@
         <v>-0.2921716490306864</v>
       </c>
       <c r="BB180" t="n">
-        <v>-0.04865138165082823</v>
+        <v>0.1612948086860143</v>
       </c>
       <c r="BC180" t="n">
         <v>-0.3001158349840704</v>
@@ -56834,10 +56834,10 @@
         <v>0.3764655740085552</v>
       </c>
       <c r="CF180" t="n">
-        <v>0.5195093290534463</v>
+        <v>0.4354735796577586</v>
       </c>
       <c r="CG180" t="n">
-        <v>0.4804906709465537</v>
+        <v>0.5645264203422413</v>
       </c>
       <c r="CH180" t="n">
         <v>0.001022008149864747</v>
@@ -56858,10 +56858,10 @@
         <v>0.000453215188716596</v>
       </c>
       <c r="CN180" t="n">
-        <v>0.003909749056631599</v>
+        <v>0.00639935786241474</v>
       </c>
       <c r="CO180" t="n">
-        <v>-0.002628589867127612</v>
+        <v>-0.005118198672910759</v>
       </c>
       <c r="CP180" t="n">
         <v>0</v>
@@ -57053,7 +57053,7 @@
         <v>-0.2788459361526192</v>
       </c>
       <c r="BB181" t="n">
-        <v>-0.04700351973950546</v>
+        <v>0.01522415743660741</v>
       </c>
       <c r="BC181" t="n">
         <v>-0.2856749875834693</v>
@@ -57147,10 +57147,10 @@
         <v>0.417807141452776</v>
       </c>
       <c r="CF181" t="n">
-        <v>0.4790544268158644</v>
+        <v>0.453407859805362</v>
       </c>
       <c r="CG181" t="n">
-        <v>0.5209455731841357</v>
+        <v>0.5465921401946381</v>
       </c>
       <c r="CH181" t="n">
         <v>0.0009963138064323154</v>
@@ -57171,10 +57171,10 @@
         <v>0.001418842817734016</v>
       </c>
       <c r="CN181" t="n">
-        <v>0.003827090285961872</v>
+        <v>0.004586885010547633</v>
       </c>
       <c r="CO181" t="n">
-        <v>-0.003164462793857872</v>
+        <v>-0.004304154880736506</v>
       </c>
       <c r="CP181" t="n">
         <v>0</v>
@@ -57366,7 +57366,7 @@
         <v>-0.2556586494842321</v>
       </c>
       <c r="BB182" t="n">
-        <v>-0.0447197372557418</v>
+        <v>-0.02455628582010265</v>
       </c>
       <c r="BC182" t="n">
         <v>-0.2578162983852952</v>
@@ -57460,10 +57460,10 @@
         <v>0.4872677627950286</v>
       </c>
       <c r="CF182" t="n">
-        <v>0.4158102205588347</v>
+        <v>0.4073315223898998</v>
       </c>
       <c r="CG182" t="n">
-        <v>0.5841897794411653</v>
+        <v>0.5926684776101001</v>
       </c>
       <c r="CH182" t="n">
         <v>0.002033272107136067</v>
@@ -57484,10 +57484,10 @@
         <v>-0.0001526541234803357</v>
       </c>
       <c r="CN182" t="n">
-        <v>0.005974933348553955</v>
+        <v>0.006351713024610024</v>
       </c>
       <c r="CO182" t="n">
-        <v>-0.001588340172880062</v>
+        <v>-0.001713933398232084</v>
       </c>
       <c r="CP182" t="n">
         <v>1</v>
@@ -57679,7 +57679,7 @@
         <v>-0.2469162933697707</v>
       </c>
       <c r="BB183" t="n">
-        <v>-0.04400418486289604</v>
+        <v>-0.02951664825223986</v>
       </c>
       <c r="BC183" t="n">
         <v>-0.2466903005075821</v>
@@ -57773,10 +57773,10 @@
         <v>0.5122902444394289</v>
       </c>
       <c r="CF183" t="n">
-        <v>0.3942848672675821</v>
+        <v>0.3881946135299778</v>
       </c>
       <c r="CG183" t="n">
-        <v>0.6057151327324179</v>
+        <v>0.6118053864700221</v>
       </c>
       <c r="CH183" t="n">
         <v>0.0006436600086525404</v>
@@ -57797,10 +57797,10 @@
         <v>0.0005700725687369009</v>
       </c>
       <c r="CN183" t="n">
-        <v>0.00190719083754875</v>
+        <v>0.001997404523055381</v>
       </c>
       <c r="CO183" t="n">
-        <v>-0.002197695033100744</v>
+        <v>-0.002378122404114003</v>
       </c>
       <c r="CP183" t="n">
         <v>0</v>
@@ -57992,7 +57992,7 @@
         <v>-0.2276673870893154</v>
       </c>
       <c r="BB184" t="n">
-        <v>-0.04263575469296644</v>
+        <v>-0.03521120764194736</v>
       </c>
       <c r="BC184" t="n">
         <v>-0.2216744095288398</v>
@@ -58086,10 +58086,10 @@
         <v>0.5647144662601751</v>
       </c>
       <c r="CF184" t="n">
-        <v>0.3509769853888622</v>
+        <v>0.3478934376968661</v>
       </c>
       <c r="CG184" t="n">
-        <v>0.6490230146111378</v>
+        <v>0.6521065623031339</v>
       </c>
       <c r="CH184" t="n">
         <v>0.001204080025129773</v>
@@ -58110,10 +58110,10 @@
         <v>0.0004353052217218011</v>
       </c>
       <c r="CN184" t="n">
-        <v>0.003480716662114872</v>
+        <v>0.00357206858724496</v>
       </c>
       <c r="CO184" t="n">
-        <v>-0.002062385414545943</v>
+        <v>-0.002153737339676033</v>
       </c>
       <c r="CP184" t="n">
         <v>0</v>
@@ -58305,7 +58305,7 @@
         <v>-0.205807276218312</v>
       </c>
       <c r="BB185" t="n">
-        <v>-0.04134507067809586</v>
+        <v>-0.03791598470157518</v>
       </c>
       <c r="BC185" t="n">
         <v>-0.1934223196305314</v>
@@ -58399,10 +58399,10 @@
         <v>0.6194063151813606</v>
       </c>
       <c r="CF185" t="n">
-        <v>0.3078926346205798</v>
+        <v>0.3065088780855539</v>
       </c>
       <c r="CG185" t="n">
-        <v>0.6921073653794202</v>
+        <v>0.6934911219144461</v>
       </c>
       <c r="CH185" t="n">
         <v>0.001372644728677184</v>
@@ -58423,10 +58423,10 @@
         <v>0.0004774142221326619</v>
       </c>
       <c r="CN185" t="n">
-        <v>0.003338784802134067</v>
+        <v>0.003379779408351467</v>
       </c>
       <c r="CO185" t="n">
-        <v>-0.001676397412372251</v>
+        <v>-0.001717392018589652</v>
       </c>
       <c r="CP185" t="n">
         <v>0</v>
@@ -58618,7 +58618,7 @@
         <v>-0.1810644104528603</v>
       </c>
       <c r="BB186" t="n">
-        <v>-0.04012580582156938</v>
+        <v>-0.03912000803961505</v>
       </c>
       <c r="BC186" t="n">
         <v>-0.1629968147035134</v>
@@ -58712,10 +58712,10 @@
         <v>0.6745394807555548</v>
       </c>
       <c r="CF186" t="n">
-        <v>0.2660434672340141</v>
+        <v>0.2656560359404201</v>
       </c>
       <c r="CG186" t="n">
-        <v>0.7339565327659858</v>
+        <v>0.7343439640595799</v>
       </c>
       <c r="CH186" t="n">
         <v>0.001307852053178302</v>
@@ -58736,10 +58736,10 @@
         <v>1.580633769711348e-06</v>
       </c>
       <c r="CN186" t="n">
-        <v>0.002916203761331093</v>
+        <v>0.002927681642674495</v>
       </c>
       <c r="CO186" t="n">
-        <v>-0.0008785520297847453</v>
+        <v>-0.0008842909704564472</v>
       </c>
       <c r="CP186" t="n">
         <v>1</v>
@@ -58931,7 +58931,7 @@
         <v>-0.1675478440833728</v>
       </c>
       <c r="BB187" t="n">
-        <v>-0.03954116202731396</v>
+        <v>-0.03939337896377739</v>
       </c>
       <c r="BC187" t="n">
         <v>-0.1474340682607311</v>
@@ -59025,10 +59025,10 @@
         <v>0.701680845719127</v>
       </c>
       <c r="CF187" t="n">
-        <v>0.2458271505215891</v>
+        <v>0.2457719214934</v>
       </c>
       <c r="CG187" t="n">
-        <v>0.7541728494784109</v>
+        <v>0.7542280785066</v>
       </c>
       <c r="CH187" t="n">
         <v>0.0004693938184339927</v>
@@ -59049,10 +59049,10 @@
         <v>0.007186357498509099</v>
       </c>
       <c r="CN187" t="n">
-        <v>0.001178012202804495</v>
+        <v>0.00117883029912602</v>
       </c>
       <c r="CO187" t="n">
-        <v>0.001743484137322962</v>
+        <v>0.001737757463072281</v>
       </c>
       <c r="CP187" t="n">
         <v>0</v>
@@ -59244,7 +59244,7 @@
         <v>-0.05163347192968305</v>
       </c>
       <c r="BB188" t="n">
-        <v>-0.03585791442588254</v>
+        <v>-0.0388800252447748</v>
       </c>
       <c r="BC188" t="n">
         <v>-0.04963698004718906</v>
@@ -59338,10 +59338,10 @@
         <v>0.8616950514599315</v>
       </c>
       <c r="CF188" t="n">
-        <v>0.1263889928848823</v>
+        <v>0.1271874147010787</v>
       </c>
       <c r="CG188" t="n">
-        <v>0.8736110071151176</v>
+        <v>0.8728125852989214</v>
       </c>
       <c r="CH188" t="n">
         <v>0.01020884996201403</v>
@@ -59356,7 +59356,7 @@
       </c>
       <c r="CM188" t="inlineStr"/>
       <c r="CN188" t="n">
-        <v>0.01064100721284782</v>
+        <v>0.01055821919709035</v>
       </c>
       <c r="CO188" t="inlineStr"/>
       <c r="CP188" t="n">
@@ -59429,7 +59429,7 @@
         <v>3.55</v>
       </c>
       <c r="E2" t="n">
-        <v>7.74</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="3">
@@ -59448,7 +59448,7 @@
         <v>2.6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.82</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
@@ -59524,7 +59524,7 @@
         <v>4.39</v>
       </c>
       <c r="E7" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
     </row>
   </sheetData>
@@ -59584,7 +59584,7 @@
         <v>3.55</v>
       </c>
       <c r="E2" t="n">
-        <v>7.74</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="3">
@@ -59603,7 +59603,7 @@
         <v>2.6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.82</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
@@ -59622,7 +59622,7 @@
         <v>4.59</v>
       </c>
       <c r="E4" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="5">
@@ -59641,7 +59641,7 @@
         <v>7.67</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="6">
@@ -59679,7 +59679,7 @@
         <v>4.39</v>
       </c>
       <c r="E7" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
     </row>
   </sheetData>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1098,7 +1098,7 @@
         <v>-1.928287791505278</v>
       </c>
       <c r="BB2" t="n">
-        <v>-1.701496510779532</v>
+        <v>-1.975865705354267</v>
       </c>
       <c r="BC2" t="n">
         <v>-1.567201912176949</v>
@@ -1192,10 +1192,10 @@
         <v>0.002525552808122056</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.9975147191844571</v>
+        <v>0.9981020921270769</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.00248528081554289</v>
+        <v>0.001897907872923099</v>
       </c>
       <c r="CH2" t="inlineStr"/>
       <c r="CI2" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="CN2" t="inlineStr"/>
       <c r="CO2" t="n">
-        <v>-2.200701320683259e-05</v>
+        <v>-1.330637769908268e-05</v>
       </c>
       <c r="CP2" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>-1.880324730083585</v>
       </c>
       <c r="BB3" t="n">
-        <v>-1.511127490455569</v>
+        <v>-1.913509701465891</v>
       </c>
       <c r="BC3" t="n">
         <v>-1.606881987311531</v>
@@ -1497,10 +1497,10 @@
         <v>0.002946079501074839</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.996508307539189</v>
+        <v>0.9975225081483067</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.003491692460811047</v>
+        <v>0.002477491851693325</v>
       </c>
       <c r="CH3" t="n">
         <v>2.313061483363507e-05</v>
@@ -1521,10 +1521,10 @@
         <v>3.11762493613879e-05</v>
       </c>
       <c r="CN3" t="n">
-        <v>3.691478348507617e-05</v>
+        <v>2.189163687516676e-05</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.501214255116922e-05</v>
+        <v>4.505843577098877e-05</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>-1.755020965029151</v>
       </c>
       <c r="BB4" t="n">
-        <v>-1.214596586151973</v>
+        <v>-1.767786632447753</v>
       </c>
       <c r="BC4" t="n">
         <v>-1.705763249468916</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ4" t="n">
         <v>0.9935696468807392</v>
@@ -1810,10 +1810,10 @@
         <v>0.006032481138049772</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.9910488824752272</v>
+        <v>0.9936291912708503</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.008951117524772845</v>
+        <v>0.006370808729149746</v>
       </c>
       <c r="CH4" t="n">
         <v>7.204741847014612e-05</v>
@@ -1834,10 +1834,10 @@
         <v>1.454881221233056e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0001467265556992087</v>
+        <v>7.028338067645301e-05</v>
       </c>
       <c r="CO4" t="n">
-        <v>-7.067770318073386e-06</v>
+        <v>1.204302343761558e-05</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2029,7 +2029,7 @@
         <v>-1.716099951331876</v>
       </c>
       <c r="BB5" t="n">
-        <v>-1.156068420532423</v>
+        <v>-1.724745285643674</v>
       </c>
       <c r="BC5" t="n">
         <v>-1.735411899505009</v>
@@ -2123,10 +2123,10 @@
         <v>0.007574265880371245</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.9883821257045884</v>
+        <v>0.9915834537750741</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.01161787429541161</v>
+        <v>0.008416546224925936</v>
       </c>
       <c r="CH5" t="n">
         <v>3.468979536757656e-06</v>
@@ -2147,10 +2147,10 @@
         <v>3.129802647969665e-06</v>
       </c>
       <c r="CN5" t="n">
-        <v>2.681883217808823e-05</v>
+        <v>3.10852254261848e-06</v>
       </c>
       <c r="CO5" t="n">
-        <v>-2.681877039866942e-05</v>
+        <v>-3.108460763200107e-06</v>
       </c>
       <c r="CP5" t="n">
         <v>1</v>
@@ -2342,7 +2342,7 @@
         <v>-1.67354649779051</v>
       </c>
       <c r="BB6" t="n">
-        <v>-1.103202454941772</v>
+        <v>-1.678066940386356</v>
       </c>
       <c r="BC6" t="n">
         <v>-1.767380282966641</v>
@@ -2436,10 +2436,10 @@
         <v>0.009175812816249906</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.9854686988067967</v>
+        <v>0.9892788930098744</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.01453130119320334</v>
+        <v>0.01072110699012563</v>
       </c>
       <c r="CH6" t="n">
         <v>2.039886117464074e-05</v>
@@ -2460,10 +2460,10 @@
         <v>0.0001009916653835785</v>
       </c>
       <c r="CN6" t="n">
-        <v>4.839676938097129e-05</v>
+        <v>2.017695487363264e-05</v>
       </c>
       <c r="CO6" t="n">
-        <v>2.166190918807579e-05</v>
+        <v>7.810153820275392e-05</v>
       </c>
       <c r="CP6" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>-1.57617955825512</v>
       </c>
       <c r="BB7" t="n">
-        <v>-1.013441177751354</v>
+        <v>-1.571219920628945</v>
       </c>
       <c r="BC7" t="n">
         <v>-1.839037321251368</v>
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="BY7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7" t="n">
         <v>0.9803508536431864</v>
@@ -2749,10 +2749,10 @@
         <v>0.01545864337152703</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.9747117009385435</v>
+        <v>0.9803011535429219</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.02528829906145647</v>
+        <v>0.01969884645707809</v>
       </c>
       <c r="CH7" t="n">
         <v>5.414768659456858e-05</v>
@@ -2773,10 +2773,10 @@
         <v>6.319064283360775e-05</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0001376793045761611</v>
+        <v>5.488388403528111e-05</v>
       </c>
       <c r="CO7" t="n">
-        <v>-9.611698846707744e-06</v>
+        <v>3.178601142373255e-05</v>
       </c>
       <c r="CP7" t="n">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="CS7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2968,7 +2968,7 @@
         <v>-1.520641792346317</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.9760753789130907</v>
+        <v>-1.509566718771087</v>
       </c>
       <c r="BC8" t="n">
         <v>-1.879082977715784</v>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="BY8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ8" t="n">
         <v>0.9733534347481055</v>
@@ -3062,10 +3062,10 @@
         <v>0.02023242625845256</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.9666429857447723</v>
+        <v>0.9732169615565875</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.03335701425522775</v>
+        <v>0.02678303844341245</v>
       </c>
       <c r="CH8" t="n">
         <v>1.967155876535231e-05</v>
@@ -3086,10 +3086,10 @@
         <v>8.706156628663473e-05</v>
       </c>
       <c r="CN8" t="n">
-        <v>6.937181445889739e-05</v>
+        <v>2.068233353025827e-05</v>
       </c>
       <c r="CO8" t="n">
-        <v>-1.014435525276348e-05</v>
+        <v>3.85451256758747e-05</v>
       </c>
       <c r="CP8" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="CS8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3281,7 +3281,7 @@
         <v>-1.460035301213296</v>
       </c>
       <c r="BB9" t="n">
-        <v>-0.9434260106622649</v>
+        <v>-1.441338190132478</v>
       </c>
       <c r="BC9" t="n">
         <v>-1.92211094595993</v>
@@ -3375,10 +3375,10 @@
         <v>0.02665376260713648</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.9559657572411639</v>
+        <v>0.9635020243053766</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.04403424275883605</v>
+        <v>0.03649797569462343</v>
       </c>
       <c r="CH9" t="n">
         <v>3.131159550263333e-05</v>
@@ -3399,10 +3399,10 @@
         <v>0.0001579586420565493</v>
       </c>
       <c r="CN9" t="n">
-        <v>8.922415847667075e-05</v>
+        <v>3.340756559590437e-05</v>
       </c>
       <c r="CO9" t="n">
-        <v>2.923188961614351e-05</v>
+        <v>8.504848249691141e-05</v>
       </c>
       <c r="CP9" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>-1.39398834020186</v>
       </c>
       <c r="BB10" t="n">
-        <v>-0.9152822319970766</v>
+        <v>-1.365704605606282</v>
       </c>
       <c r="BC10" t="n">
         <v>-1.96812160678939</v>
@@ -3688,10 +3688,10 @@
         <v>0.03618148878315741</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.9406789658216143</v>
+        <v>0.9491468080319093</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.05932103417838575</v>
+        <v>0.05085319196809068</v>
       </c>
       <c r="CH10" t="n">
         <v>1.733377238710785e-05</v>
@@ -3712,10 +3712,10 @@
         <v>0.0002206548585609843</v>
       </c>
       <c r="CN10" t="n">
-        <v>8.398817090560836e-05</v>
+        <v>2.127196177933305e-05</v>
       </c>
       <c r="CO10" t="n">
-        <v>4.92741771484646e-05</v>
+        <v>0.0001119903862747392</v>
       </c>
       <c r="CP10" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>-1.32214903593517</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.8914326427671317</v>
+        <v>-1.281921887285902</v>
       </c>
       <c r="BC11" t="n">
         <v>-2.016890606210079</v>
@@ -4001,10 +4001,10 @@
         <v>0.04927449571270237</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.9203173930051242</v>
+        <v>0.9293631743482375</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.07968260699487584</v>
+        <v>0.07063682565176255</v>
       </c>
       <c r="CH11" t="n">
         <v>2.763326272532847e-05</v>
@@ -4025,10 +4025,10 @@
         <v>0.0003309800758749518</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0001015317338717361</v>
+        <v>3.453507754109381e-05</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0001057655030302604</v>
+        <v>0.0001727621593609038</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-1.244205982392641</v>
       </c>
       <c r="BB12" t="n">
-        <v>-0.8716544072941068</v>
+        <v>-1.189463859679162</v>
       </c>
       <c r="BC12" t="n">
         <v>-2.067767682113491</v>
@@ -4314,10 +4314,10 @@
         <v>0.06767568647732625</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.8928672137971457</v>
+        <v>0.9018681999656311</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.1071327862028543</v>
+        <v>0.09813180003436894</v>
       </c>
       <c r="CH12" t="n">
         <v>1.93936523417643e-05</v>
@@ -4338,10 +4338,10 @@
         <v>0.00038718376534121</v>
       </c>
       <c r="CN12" t="n">
-        <v>9.754144778517226e-05</v>
+        <v>3.087656234374014e-05</v>
       </c>
       <c r="CO12" t="n">
-        <v>9.494878310525032e-05</v>
+        <v>0.0001616136685466809</v>
       </c>
       <c r="CP12" t="n">
         <v>0</v>
@@ -4533,7 +4533,7 @@
         <v>-1.159914282633829</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.8556973802380223</v>
+        <v>-1.088201695242845</v>
       </c>
       <c r="BC13" t="n">
         <v>-2.119307447815927</v>
@@ -4627,10 +4627,10 @@
         <v>0.09140504297831276</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.858886376460725</v>
+        <v>0.8667453262806153</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.141113623539275</v>
+        <v>0.1332546737193847</v>
       </c>
       <c r="CH13" t="n">
         <v>8.056735622635845e-05</v>
@@ -4651,10 +4651,10 @@
         <v>0.0005519948579647017</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.000156726820637795</v>
+        <v>9.852031085919987e-05</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0001838333291585342</v>
+        <v>0.0002420398389371304</v>
       </c>
       <c r="CP13" t="n">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>-1.069126816195251</v>
       </c>
       <c r="BB14" t="n">
-        <v>-0.8432626057056708</v>
+        <v>-0.9786134381064562</v>
       </c>
       <c r="BC14" t="n">
         <v>-2.168588265845375</v>
@@ -4940,10 +4940,10 @@
         <v>0.1236683848895428</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.8152396445378775</v>
+        <v>0.8206054273415527</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.1847603554621225</v>
+        <v>0.1793945726584473</v>
       </c>
       <c r="CH14" t="n">
         <v>7.311446924785497e-05</v>
@@ -4964,10 +4964,10 @@
         <v>0.0006832123173143229</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.0001394317363647476</v>
+        <v>9.969061364610045e-05</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.0002307408721440335</v>
+        <v>0.0002704819948626802</v>
       </c>
       <c r="CP14" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>-0.9718295803668864</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.8339760971812644</v>
+        <v>-0.8619781634364158</v>
       </c>
       <c r="BC15" t="n">
         <v>-2.209960894032084</v>
@@ -5253,10 +5253,10 @@
         <v>0.1654791945355054</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.7622959405565548</v>
+        <v>0.7635630985583113</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.2377040594434452</v>
+        <v>0.2364369014416887</v>
       </c>
       <c r="CH15" t="n">
         <v>0.0001151787678234893</v>
@@ -5277,10 +5277,10 @@
         <v>0.0007289121197837658</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.0001613812681073856</v>
+        <v>0.0001519961916899753</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0001939860289106759</v>
+        <v>0.000203371105328086</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>-0.8681786885408623</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0.8273616282076196</v>
+        <v>-0.7404804612133324</v>
       </c>
       <c r="BC16" t="n">
         <v>-2.232816359816352</v>
@@ -5566,10 +5566,10 @@
         <v>0.2179831787409701</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.7010160955353966</v>
+        <v>0.6966685843192371</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.2989839044646034</v>
+        <v>0.3033314156807629</v>
       </c>
       <c r="CH16" t="n">
         <v>0.0002447495051823871</v>
@@ -5590,10 +5590,10 @@
         <v>0.0009323269596397932</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.0002598768891890636</v>
+        <v>0.0002920762873167221</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.0003324033512750522</v>
+        <v>0.0003002039531473932</v>
       </c>
       <c r="CP16" t="n">
         <v>0</v>
@@ -5785,7 +5785,7 @@
         <v>-0.7585351368575765</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0.8228201494811501</v>
+        <v>-0.6171431574181202</v>
       </c>
       <c r="BC17" t="n">
         <v>-2.217967846354326</v>
@@ -5879,10 +5879,10 @@
         <v>0.2856951075403361</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.6298171363446836</v>
+        <v>0.6187953071794885</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.3701828636553164</v>
+        <v>0.3812046928205115</v>
       </c>
       <c r="CH17" t="n">
         <v>0.0002204388371491433</v>
@@ -5903,10 +5903,10 @@
         <v>0.0009490664435811589</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.0001949244736044707</v>
+        <v>0.000276556526459454</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.0003233165004994784</v>
+        <v>0.0002416844476444968</v>
       </c>
       <c r="CP17" t="n">
         <v>0</v>
@@ -6098,7 +6098,7 @@
         <v>-0.6434920666681265</v>
       </c>
       <c r="BB18" t="n">
-        <v>-0.819627153642838</v>
+        <v>-0.4955432321966098</v>
       </c>
       <c r="BC18" t="n">
         <v>-2.133354184707968</v>
@@ -6192,10 +6192,10 @@
         <v>0.3700329069850907</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.5518131475269594</v>
+        <v>0.5339059424352893</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.4481868524730406</v>
+        <v>0.4660940575647107</v>
       </c>
       <c r="CH18" t="n">
         <v>0.0003264934868344371</v>
@@ -6216,10 +6216,10 @@
         <v>0.001007255345556256</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.0002544120818102199</v>
+        <v>0.0003870399687624423</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.0004284161244726904</v>
+        <v>0.0002957882375204681</v>
       </c>
       <c r="CP18" t="n">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>-0.5238884217657126</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.8169604296744781</v>
+        <v>-0.3793486525319885</v>
       </c>
       <c r="BC19" t="n">
         <v>-1.934716589986922</v>
@@ -6505,10 +6505,10 @@
         <v>0.4724331933369359</v>
       </c>
       <c r="CF19" t="n">
-        <v>0.4693996022187277</v>
+        <v>0.4454740791858965</v>
       </c>
       <c r="CG19" t="n">
-        <v>0.5306003977812723</v>
+        <v>0.5545259208141035</v>
       </c>
       <c r="CH19" t="n">
         <v>0.0003006449073027998</v>
@@ -6529,10 +6529,10 @@
         <v>0.0008127159046786361</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.0001819713879569599</v>
+        <v>0.0003591733325277072</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.0003819064413437363</v>
+        <v>0.0002047044967729873</v>
       </c>
       <c r="CP19" t="n">
         <v>0</v>
@@ -6724,7 +6724,7 @@
         <v>-0.4008031754718568</v>
       </c>
       <c r="BB20" t="n">
-        <v>-0.8139662320998245</v>
+        <v>-0.2718020581624647</v>
       </c>
       <c r="BC20" t="n">
         <v>-1.586785124919864</v>
@@ -6818,10 +6818,10 @@
         <v>0.5877601717566839</v>
       </c>
       <c r="CF20" t="n">
-        <v>0.3859818490273326</v>
+        <v>0.3579400928773124</v>
       </c>
       <c r="CG20" t="n">
-        <v>0.6140181509726674</v>
+        <v>0.6420599071226876</v>
       </c>
       <c r="CH20" t="n">
         <v>0.0003941902066003054</v>
@@ -6842,10 +6842,10 @@
         <v>0.0006100655437913704</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.0002359186342859219</v>
+        <v>0.0004436070393479007</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.000415588500544053</v>
+        <v>0.0002079000954820732</v>
       </c>
       <c r="CP20" t="n">
         <v>0</v>
@@ -7037,7 +7037,7 @@
         <v>-0.2755261133779043</v>
       </c>
       <c r="BB21" t="n">
-        <v>-0.8098599733683918</v>
+        <v>-0.1753103623188172</v>
       </c>
       <c r="BC21" t="n">
         <v>-1.112095733300933</v>
@@ -7131,10 +7131,10 @@
         <v>0.700422508122917</v>
       </c>
       <c r="CF21" t="n">
-        <v>0.3060600728930424</v>
+        <v>0.2764524508527422</v>
       </c>
       <c r="CG21" t="n">
-        <v>0.6939399271069575</v>
+        <v>0.7235475491472578</v>
       </c>
       <c r="CH21" t="n">
         <v>0.0003609975375287546</v>
@@ -7155,10 +7155,10 @@
         <v>0.0003531149874292398</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.0001763439778017955</v>
+        <v>0.0003956298087722438</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.0004011275621298689</v>
+        <v>0.0001818417311594198</v>
       </c>
       <c r="CP21" t="n">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>-0.149504542969937</v>
       </c>
       <c r="BB22" t="n">
-        <v>-0.8040397795940458</v>
+        <v>-0.0912501477886119</v>
       </c>
       <c r="BC22" t="n">
         <v>-0.6098539831418052</v>
@@ -7444,10 +7444,10 @@
         <v>0.7945211458785528</v>
       </c>
       <c r="CF22" t="n">
-        <v>0.23347094260179</v>
+        <v>0.204909385714125</v>
       </c>
       <c r="CG22" t="n">
-        <v>0.76652905739821</v>
+        <v>0.795090614285875</v>
       </c>
       <c r="CH22" t="n">
         <v>0.0003307462219235479</v>
@@ -7468,10 +7468,10 @@
         <v>0.0001892325637619756</v>
       </c>
       <c r="CN22" t="n">
-        <v>0.0001364964231288274</v>
+        <v>0.0003480346793047647</v>
       </c>
       <c r="CO22" t="n">
-        <v>0.0003965531102974266</v>
+        <v>0.0001850148541214956</v>
       </c>
       <c r="CP22" t="n">
         <v>0</v>
@@ -7663,7 +7663,7 @@
         <v>-0.02426970665693279</v>
       </c>
       <c r="BB23" t="n">
-        <v>-0.7961759160678509</v>
+        <v>-0.02000193338401677</v>
       </c>
       <c r="BC23" t="n">
         <v>-0.1842429671421864</v>
@@ -7757,10 +7757,10 @@
         <v>0.8635861978309712</v>
       </c>
       <c r="CF23" t="n">
-        <v>0.1722277162896563</v>
+        <v>0.146698949608114</v>
       </c>
       <c r="CG23" t="n">
-        <v>0.8277722837103436</v>
+        <v>0.853301050391886</v>
       </c>
       <c r="CH23" t="n">
         <v>0.0002450751693088627</v>
@@ -7781,10 +7781,10 @@
         <v>3.30764608703054e-05</v>
       </c>
       <c r="CN23" t="n">
-        <v>5.703859507111947e-05</v>
+        <v>0.0002461148001034834</v>
       </c>
       <c r="CO23" t="n">
-        <v>0.000298328560736901</v>
+        <v>0.0001092523557045307</v>
       </c>
       <c r="CP23" t="n">
         <v>0</v>
@@ -7976,7 +7976,7 @@
         <v>0.09864902031126793</v>
       </c>
       <c r="BB24" t="n">
-        <v>-0.7862397884423419</v>
+        <v>0.03885463971907849</v>
       </c>
       <c r="BC24" t="n">
         <v>0.125279470791177</v>
@@ -8070,10 +8070,10 @@
         <v>0.912830252193612</v>
       </c>
       <c r="CF24" t="n">
-        <v>0.1211430362002848</v>
+        <v>0.1000414595353418</v>
       </c>
       <c r="CG24" t="n">
-        <v>0.8788569637997152</v>
+        <v>0.8999585404646582</v>
       </c>
       <c r="CH24" t="n">
         <v>0.0002476376377783148</v>
@@ -8094,10 +8094,10 @@
         <v>-5.89202311176984e-06</v>
       </c>
       <c r="CN24" t="n">
-        <v>8.002490878556074e-05</v>
+        <v>0.0002363115827866092</v>
       </c>
       <c r="CO24" t="n">
-        <v>0.0002457276701589035</v>
+        <v>8.944099615785552e-05</v>
       </c>
       <c r="CP24" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0.2178111966119735</v>
       </c>
       <c r="BB25" t="n">
-        <v>-0.7744601173977315</v>
+        <v>0.08628063001264293</v>
       </c>
       <c r="BC25" t="n">
         <v>0.3319908759543812</v>
@@ -8383,10 +8383,10 @@
         <v>0.9457136620051152</v>
       </c>
       <c r="CF25" t="n">
-        <v>0.0820889708648931</v>
+        <v>0.06574292917058376</v>
       </c>
       <c r="CG25" t="n">
-        <v>0.9179110291351069</v>
+        <v>0.9342570708294162</v>
       </c>
       <c r="CH25" t="n">
         <v>0.0001830876641996628</v>
@@ -8407,10 +8407,10 @@
         <v>-1.252839296668213e-05</v>
       </c>
       <c r="CN25" t="n">
-        <v>4.352227899907704e-05</v>
+        <v>0.0001645875685767158</v>
       </c>
       <c r="CO25" t="n">
-        <v>0.0001933889699261421</v>
+        <v>7.23236803485041e-05</v>
       </c>
       <c r="CP25" t="n">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>0.3319422571910632</v>
       </c>
       <c r="BB26" t="n">
-        <v>-0.7612281114353843</v>
+        <v>0.1235302168013927</v>
       </c>
       <c r="BC26" t="n">
         <v>0.4643490184529699</v>
@@ -8696,10 +8696,10 @@
         <v>0.9668413066943424</v>
       </c>
       <c r="CF26" t="n">
-        <v>0.0539753637332302</v>
+        <v>0.04197268355313951</v>
       </c>
       <c r="CG26" t="n">
-        <v>0.9460246362667698</v>
+        <v>0.9580273164468605</v>
       </c>
       <c r="CH26" t="n">
         <v>0.0001246685431474964</v>
@@ -8720,10 +8720,10 @@
         <v>-2.093864185344525e-05</v>
       </c>
       <c r="CN26" t="n">
-        <v>1.483159209846887e-05</v>
+        <v>0.0001037282178923664</v>
       </c>
       <c r="CO26" t="n">
-        <v>0.0001332379031772479</v>
+        <v>4.434127738335309e-05</v>
       </c>
       <c r="CP26" t="n">
         <v>0</v>
@@ -8915,7 +8915,7 @@
         <v>0.4399911153122448</v>
       </c>
       <c r="BB27" t="n">
-        <v>-0.7469926755551237</v>
+        <v>0.1519569304384045</v>
       </c>
       <c r="BC27" t="n">
         <v>0.5471122200458749</v>
@@ -9009,10 +9009,10 @@
         <v>0.9804565844675117</v>
       </c>
       <c r="CF27" t="n">
-        <v>0.03399760868688911</v>
+        <v>0.02569581597879787</v>
       </c>
       <c r="CG27" t="n">
-        <v>0.9660023913131108</v>
+        <v>0.9743041840212021</v>
       </c>
       <c r="CH27" t="n">
         <v>9.5912651412742e-05</v>
@@ -9033,10 +9033,10 @@
         <v>-3.323182680651376e-06</v>
       </c>
       <c r="CN27" t="n">
-        <v>1.472530069969609e-05</v>
+        <v>7.621168113444463e-05</v>
       </c>
       <c r="CO27" t="n">
-        <v>0.0001037303237629225</v>
+        <v>4.224394332817162e-05</v>
       </c>
       <c r="CP27" t="n">
         <v>0</v>
@@ -9228,7 +9228,7 @@
         <v>0.5411632657942911</v>
       </c>
       <c r="BB28" t="n">
-        <v>-0.7321794349487243</v>
+        <v>0.1728834417834192</v>
       </c>
       <c r="BC28" t="n">
         <v>0.5976543214023523</v>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="BY28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ28" t="n">
         <v>0.01362403511533535</v>
@@ -9322,10 +9322,10 @@
         <v>0.9882486122478933</v>
       </c>
       <c r="CF28" t="n">
-        <v>0.02161690506155158</v>
+        <v>0.01593575586059635</v>
       </c>
       <c r="CG28" t="n">
-        <v>0.9783830949384484</v>
+        <v>0.9840642441394036</v>
       </c>
       <c r="CH28" t="n">
         <v>4.716446962490048e-05</v>
@@ -9346,10 +9346,10 @@
         <v>1.300071526000139e-05</v>
       </c>
       <c r="CN28" t="n">
-        <v>-1.203390590181509e-05</v>
+        <v>3.004294585287369e-05</v>
       </c>
       <c r="CO28" t="n">
-        <v>8.606866236532135e-05</v>
+        <v>4.399181061063347e-05</v>
       </c>
       <c r="CP28" t="n">
         <v>0</v>
@@ -9361,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="CS28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -9541,7 +9541,7 @@
         <v>0.6349288773861086</v>
       </c>
       <c r="BB29" t="n">
-        <v>-0.7171458496667628</v>
+        <v>0.1875265637740138</v>
       </c>
       <c r="BC29" t="n">
         <v>0.6273105694942777</v>
@@ -9635,10 +9635,10 @@
         <v>0.9923013968916158</v>
       </c>
       <c r="CF29" t="n">
-        <v>0.0147568832163686</v>
+        <v>0.01067279823942662</v>
       </c>
       <c r="CG29" t="n">
-        <v>0.9852431167836314</v>
+        <v>0.9893272017605734</v>
       </c>
       <c r="CH29" t="n">
         <v>9.946958986542157e-06</v>
@@ -9659,10 +9659,10 @@
         <v>1.259806787649777e-05</v>
       </c>
       <c r="CN29" t="n">
-        <v>-3.526061068359612e-05</v>
+        <v>-5.012252112156928e-06</v>
       </c>
       <c r="CO29" t="n">
-        <v>6.487449914797157e-05</v>
+        <v>3.462614057653246e-05</v>
       </c>
       <c r="CP29" t="n">
         <v>0</v>
@@ -9854,7 +9854,7 @@
         <v>0.7210093061883533</v>
       </c>
       <c r="BB30" t="n">
-        <v>-0.7021670977166098</v>
+        <v>0.1969627211696685</v>
       </c>
       <c r="BC30" t="n">
         <v>0.6433305579625133</v>
@@ -9948,10 +9948,10 @@
         <v>0.994728946776273</v>
       </c>
       <c r="CF30" t="n">
-        <v>0.01043161923697002</v>
+        <v>0.007431096741773777</v>
       </c>
       <c r="CG30" t="n">
-        <v>0.98956838076303</v>
+        <v>0.9925689032582262</v>
       </c>
       <c r="CH30" t="n">
         <v>2.335625806109269e-06</v>
@@ -9972,10 +9972,10 @@
         <v>9.425611636956766e-06</v>
       </c>
       <c r="CN30" t="n">
-        <v>-3.283987290890861e-05</v>
+        <v>-1.061680927316514e-05</v>
       </c>
       <c r="CO30" t="n">
-        <v>4.764681714111794e-05</v>
+        <v>2.542375350537453e-05</v>
       </c>
       <c r="CP30" t="n">
         <v>0</v>
@@ -10167,7 +10167,7 @@
         <v>0.7993478887574508</v>
       </c>
       <c r="BB31" t="n">
-        <v>-0.6874408411056482</v>
+        <v>0.2021195861466819</v>
       </c>
       <c r="BC31" t="n">
         <v>0.6503613199460432</v>
@@ -10261,10 +10261,10 @@
         <v>0.9963203560199424</v>
       </c>
       <c r="CF31" t="n">
-        <v>0.007475325542620798</v>
+        <v>0.005259798363830663</v>
       </c>
       <c r="CG31" t="n">
-        <v>0.9925246744573792</v>
+        <v>0.9947402016361694</v>
       </c>
       <c r="CH31" t="n">
         <v>1.674383619750622e-06</v>
@@ -10285,10 +10285,10 @@
         <v>2.489191791824399e-05</v>
       </c>
       <c r="CN31" t="n">
-        <v>-2.575132960496722e-05</v>
+        <v>-9.342253665760787e-06</v>
       </c>
       <c r="CO31" t="n">
-        <v>8.111657415121876e-05</v>
+        <v>4.82984222728057e-05</v>
       </c>
       <c r="CP31" t="n">
         <v>0</v>
@@ -10480,7 +10480,7 @@
         <v>0.9334496407378675</v>
       </c>
       <c r="BB32" t="n">
-        <v>-0.6592290938104006</v>
+        <v>0.2026097557399577</v>
       </c>
       <c r="BC32" t="n">
         <v>0.6484770450503415</v>
@@ -10574,10 +10574,10 @@
         <v>0.9979081868558641</v>
       </c>
       <c r="CF32" t="n">
-        <v>0.004383935762466441</v>
+        <v>0.003041526984232283</v>
       </c>
       <c r="CG32" t="n">
-        <v>0.9956160642375336</v>
+        <v>0.9969584730157677</v>
       </c>
       <c r="CH32" t="n">
         <v>1.422724853107822e-06</v>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="CM32" t="inlineStr"/>
       <c r="CN32" t="n">
-        <v>-3.532444833496525e-05</v>
+        <v>-1.543962110794807e-05</v>
       </c>
       <c r="CO32" t="inlineStr"/>
       <c r="CP32" t="n">
@@ -10785,7 +10785,7 @@
         <v>-1.074595829827477</v>
       </c>
       <c r="BB33" t="n">
-        <v>-0.030742664993056</v>
+        <v>-1.098879642861704</v>
       </c>
       <c r="BC33" t="n">
         <v>-0.7485441634528117</v>
@@ -10879,10 +10879,10 @@
         <v>0.01223403349595142</v>
       </c>
       <c r="CF33" t="n">
-        <v>0.9797956966156653</v>
+        <v>0.9915569856678461</v>
       </c>
       <c r="CG33" t="n">
-        <v>0.02020430338433465</v>
+        <v>0.008443014332153886</v>
       </c>
       <c r="CH33" t="inlineStr"/>
       <c r="CI33" t="n">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="CN33" t="inlineStr"/>
       <c r="CO33" t="n">
-        <v>-0.0002102482085242553</v>
+        <v>-3.603063444278546e-05</v>
       </c>
       <c r="CP33" t="n">
         <v>1</v>
@@ -11090,7 +11090,7 @@
         <v>-1.054667645648665</v>
       </c>
       <c r="BB34" t="n">
-        <v>-0.02772202802123702</v>
+        <v>-1.072465510224551</v>
       </c>
       <c r="BC34" t="n">
         <v>-0.7423458974900239</v>
@@ -11184,10 +11184,10 @@
         <v>0.01306062343434389</v>
       </c>
       <c r="CF34" t="n">
-        <v>0.9782093790843537</v>
+        <v>0.9908650014442947</v>
       </c>
       <c r="CG34" t="n">
-        <v>0.02179062091564632</v>
+        <v>0.00913499855570532</v>
       </c>
       <c r="CH34" t="n">
         <v>4.947444265919997e-05</v>
@@ -11208,10 +11208,10 @@
         <v>-7.475218953092303e-05</v>
       </c>
       <c r="CN34" t="n">
-        <v>0.0002337460063252892</v>
+        <v>4.62808555022759e-05</v>
       </c>
       <c r="CO34" t="n">
-        <v>-0.0002040678603032389</v>
+        <v>-1.660270948022525e-05</v>
       </c>
       <c r="CP34" t="n">
         <v>1</v>
@@ -11403,7 +11403,7 @@
         <v>-1.035332263001849</v>
       </c>
       <c r="BB35" t="n">
-        <v>-0.02487047490242322</v>
+        <v>-1.047255948289027</v>
       </c>
       <c r="BC35" t="n">
         <v>-0.7368270093622427</v>
@@ -11497,10 +11497,10 @@
         <v>0.0141655393840262</v>
       </c>
       <c r="CF35" t="n">
-        <v>0.9761503077329005</v>
+        <v>0.989939443485543</v>
       </c>
       <c r="CG35" t="n">
-        <v>0.02384969226709954</v>
+        <v>0.01006055651445703</v>
       </c>
       <c r="CH35" t="n">
         <v>3.269496507657572e-05</v>
@@ -11521,10 +11521,10 @@
         <v>-7.628001095326655e-05</v>
       </c>
       <c r="CN35" t="n">
-        <v>0.0002345684639462418</v>
+        <v>3.031281060354891e-05</v>
       </c>
       <c r="CO35" t="n">
-        <v>-0.0002197293909351554</v>
+        <v>-1.547373759246281e-05</v>
       </c>
       <c r="CP35" t="n">
         <v>1</v>
@@ -11716,7 +11716,7 @@
         <v>-1.016512678206559</v>
       </c>
       <c r="BB36" t="n">
-        <v>-0.02219262280352197</v>
+        <v>-1.023161571506503</v>
       </c>
       <c r="BC36" t="n">
         <v>-0.7319594007907195</v>
@@ -11810,10 +11810,10 @@
         <v>0.01539783257355687</v>
       </c>
       <c r="CF36" t="n">
-        <v>0.9738540939712063</v>
+        <v>0.9888829472606975</v>
       </c>
       <c r="CG36" t="n">
-        <v>0.02614590602879374</v>
+        <v>0.01111705273930252</v>
       </c>
       <c r="CH36" t="n">
         <v>3.260213991509997e-05</v>
@@ -11834,10 +11834,10 @@
         <v>-7.969478694584291e-05</v>
       </c>
       <c r="CN36" t="n">
-        <v>0.0002537427366968333</v>
+        <v>3.112340052500474e-05</v>
       </c>
       <c r="CO36" t="n">
-        <v>-0.0002389038052016787</v>
+        <v>-1.628446902985007e-05</v>
       </c>
       <c r="CP36" t="n">
         <v>1</v>
@@ -12029,7 +12029,7 @@
         <v>-0.9981360442090216</v>
       </c>
       <c r="BB37" t="n">
-        <v>-0.01969567403392425</v>
+        <v>-1.000099082390848</v>
       </c>
       <c r="BC37" t="n">
         <v>-0.7277188669716814</v>
@@ -12123,10 +12123,10 @@
         <v>0.01675666719012081</v>
       </c>
       <c r="CF37" t="n">
-        <v>0.971319137997811</v>
+        <v>0.9876892577934059</v>
       </c>
       <c r="CG37" t="n">
-        <v>0.028680862002189</v>
+        <v>0.01231074220659412</v>
       </c>
       <c r="CH37" t="n">
         <v>3.44518738387093e-05</v>
@@ -12147,10 +12147,10 @@
         <v>-7.014492225709552e-05</v>
       </c>
       <c r="CN37" t="n">
-        <v>0.0002764535906145376</v>
+        <v>3.396634745960782e-05</v>
       </c>
       <c r="CO37" t="n">
-        <v>-0.0002467755861083659</v>
+        <v>-4.288342953434826e-06</v>
       </c>
       <c r="CP37" t="n">
         <v>1</v>
@@ -12342,7 +12342,7 @@
         <v>-0.9801328767130602</v>
       </c>
       <c r="BB38" t="n">
-        <v>-0.01738979257390394</v>
+        <v>-0.9779902554658539</v>
       </c>
       <c r="BC38" t="n">
         <v>-0.7240846648896025</v>
@@ -12436,10 +12436,10 @@
         <v>0.01837553537426595</v>
       </c>
       <c r="CF38" t="n">
-        <v>0.9683313004092517</v>
+        <v>0.9862447439250079</v>
       </c>
       <c r="CG38" t="n">
-        <v>0.03166869959074825</v>
+        <v>0.01375525607499206</v>
       </c>
       <c r="CH38" t="n">
         <v>2.509377239024065e-05</v>
@@ -12460,10 +12460,10 @@
         <v>-9.412488623452366e-05</v>
       </c>
       <c r="CN38" t="n">
-        <v>0.0002910338144470875</v>
+        <v>2.568563204000639e-05</v>
       </c>
       <c r="CO38" t="n">
-        <v>-0.0002910338144470087</v>
+        <v>-2.56856320399267e-05</v>
       </c>
       <c r="CP38" t="n">
         <v>1</v>
@@ -12655,7 +12655,7 @@
         <v>-0.9624363369381015</v>
       </c>
       <c r="BB39" t="n">
-        <v>-0.01528859042456282</v>
+        <v>-0.9567609823134529</v>
       </c>
       <c r="BC39" t="n">
         <v>-0.7210391149917773</v>
@@ -12749,10 +12749,10 @@
         <v>0.01998658682421073</v>
       </c>
       <c r="CF39" t="n">
-        <v>0.9653117833608045</v>
+        <v>0.9847535371805738</v>
       </c>
       <c r="CG39" t="n">
-        <v>0.03468821663919552</v>
+        <v>0.01524646281942621</v>
       </c>
       <c r="CH39" t="n">
         <v>4.603854050331917e-05</v>
@@ -12773,10 +12773,10 @@
         <v>-7.347198500651638e-05</v>
       </c>
       <c r="CN39" t="n">
-        <v>0.0003357613041586535</v>
+        <v>4.77745731683691e-05</v>
       </c>
       <c r="CO39" t="n">
-        <v>-0.0002912442266415052</v>
+        <v>-3.257495651220885e-06</v>
       </c>
       <c r="CP39" t="n">
         <v>1</v>
@@ -12968,7 +12968,7 @@
         <v>-0.9449815766595219</v>
       </c>
       <c r="BB40" t="n">
-        <v>-0.01340974630590336</v>
+        <v>-0.9363403527428141</v>
       </c>
       <c r="BC40" t="n">
         <v>-0.7185672188094335</v>
@@ -13062,10 +13062,10 @@
         <v>0.02198542899001188</v>
       </c>
       <c r="CF40" t="n">
-        <v>0.9616330872426134</v>
+        <v>0.9828862211285181</v>
       </c>
       <c r="CG40" t="n">
-        <v>0.03836691275738657</v>
+        <v>0.01711377887148191</v>
       </c>
       <c r="CH40" t="n">
         <v>2.797008293487641e-05</v>
@@ -13086,10 +13086,10 @@
         <v>-0.0001030802845001658</v>
       </c>
       <c r="CN40" t="n">
-        <v>0.0003457360013653776</v>
+        <v>3.091766718418994e-05</v>
       </c>
       <c r="CO40" t="n">
-        <v>-0.0003457358598495209</v>
+        <v>-3.091752566833302e-05</v>
       </c>
       <c r="CP40" t="n">
         <v>1</v>
@@ -13281,7 +13281,7 @@
         <v>-0.9277051339238238</v>
       </c>
       <c r="BB41" t="n">
-        <v>-0.01177578514737954</v>
+        <v>-0.916659747751624</v>
       </c>
       <c r="BC41" t="n">
         <v>-0.7166562733363501</v>
@@ -13375,10 +13375,10 @@
         <v>0.02398340191520099</v>
       </c>
       <c r="CF41" t="n">
-        <v>0.9579066387101816</v>
+        <v>0.9809504696528929</v>
       </c>
       <c r="CG41" t="n">
-        <v>0.04209336128981844</v>
+        <v>0.0190495303471071</v>
       </c>
       <c r="CH41" t="n">
         <v>5.54248370926505e-05</v>
@@ -13399,10 +13399,10 @@
         <v>-5.891860058128564e-05</v>
       </c>
       <c r="CN41" t="n">
-        <v>0.0004009349813386773</v>
+        <v>5.959141716207171e-05</v>
       </c>
       <c r="CO41" t="n">
-        <v>-0.0001930481664376251</v>
+        <v>-2.237638434932082e-05</v>
       </c>
       <c r="CP41" t="n">
         <v>1</v>
@@ -13594,7 +13594,7 @@
         <v>-0.9191141895953532</v>
       </c>
       <c r="BB42" t="n">
-        <v>-0.01105923521383617</v>
+        <v>-0.9070759118306729</v>
       </c>
       <c r="BC42" t="n">
         <v>-0.7159077148031969</v>
@@ -13688,10 +13688,10 @@
         <v>0.02504911968137169</v>
       </c>
       <c r="CF42" t="n">
-        <v>0.9559190705913061</v>
+        <v>0.979898935511349</v>
       </c>
       <c r="CG42" t="n">
-        <v>0.0440809294086939</v>
+        <v>0.02010106448865101</v>
       </c>
       <c r="CH42" t="n">
         <v>2.777829102093479e-05</v>
@@ -13712,10 +13712,10 @@
         <v>-6.681173045225211e-05</v>
       </c>
       <c r="CN42" t="n">
-        <v>0.0002077688868645034</v>
+        <v>3.016446465210071e-05</v>
       </c>
       <c r="CO42" t="n">
-        <v>-0.0002077688868644305</v>
+        <v>-3.016446465203051e-05</v>
       </c>
       <c r="CP42" t="n">
         <v>1</v>
@@ -13907,7 +13907,7 @@
         <v>-0.9105443702297371</v>
       </c>
       <c r="BB43" t="n">
-        <v>-0.01041505347296401</v>
+        <v>-0.8976519196539904</v>
       </c>
       <c r="BC43" t="n">
         <v>-0.7152954596147196</v>
@@ -13980,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="BY43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ43" t="n">
         <v>0.9791857275768017</v>
@@ -14001,10 +14001,10 @@
         <v>0.02611976185602294</v>
       </c>
       <c r="CF43" t="n">
-        <v>0.9539104313791693</v>
+        <v>0.9788237123630439</v>
       </c>
       <c r="CG43" t="n">
-        <v>0.04608956862083069</v>
+        <v>0.02117628763695611</v>
       </c>
       <c r="CH43" t="n">
         <v>3.544676643120644e-05</v>
@@ -14025,10 +14025,10 @@
         <v>-0.0001055114132678632</v>
       </c>
       <c r="CN43" t="n">
-        <v>0.0002226456681929823</v>
+        <v>3.812799516564411e-05</v>
       </c>
       <c r="CO43" t="n">
-        <v>-0.0005492244204907556</v>
+        <v>4.328598591264938e-06</v>
       </c>
       <c r="CP43" t="n">
         <v>0</v>
@@ -14040,7 +14040,7 @@
         <v>1</v>
       </c>
       <c r="CS43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -14220,7 +14220,7 @@
         <v>-0.8848837040725356</v>
       </c>
       <c r="BB44" t="n">
-        <v>-0.008965944866086706</v>
+        <v>-0.8702552953525614</v>
       </c>
       <c r="BC44" t="n">
         <v>-0.714265427290966</v>
@@ -14314,10 +14314,10 @@
         <v>0.03034340302927796</v>
       </c>
       <c r="CF44" t="n">
-        <v>0.9462228931526747</v>
+        <v>0.97458316703851</v>
       </c>
       <c r="CG44" t="n">
-        <v>0.05377710684732528</v>
+        <v>0.02541683296149</v>
       </c>
       <c r="CH44" t="n">
         <v>7.919036318339637e-05</v>
@@ -14338,10 +14338,10 @@
         <v>-6.150608071565304e-05</v>
       </c>
       <c r="CN44" t="n">
-        <v>0.0007200353224084063</v>
+        <v>8.989289991261432e-05</v>
       </c>
       <c r="CO44" t="n">
-        <v>-0.0002350654164657963</v>
+        <v>-2.501794230053391e-05</v>
       </c>
       <c r="CP44" t="n">
         <v>1</v>
@@ -14533,7 +14533,7 @@
         <v>-0.8763203026508988</v>
       </c>
       <c r="BB45" t="n">
-        <v>-0.008663341201981867</v>
+        <v>-0.8613866423919917</v>
       </c>
       <c r="BC45" t="n">
         <v>-0.7141874907675922</v>
@@ -14627,10 +14627,10 @@
         <v>0.03180296544953443</v>
       </c>
       <c r="CF45" t="n">
-        <v>0.9435547225004542</v>
+        <v>0.9730708520205574</v>
       </c>
       <c r="CG45" t="n">
-        <v>0.05644527749954575</v>
+        <v>0.02692914797944257</v>
       </c>
       <c r="CH45" t="n">
         <v>3.239028497148844e-05</v>
@@ -14651,10 +14651,10 @@
         <v>-4.263831783213277e-05</v>
       </c>
       <c r="CN45" t="n">
-        <v>0.0002548269500954855</v>
+        <v>3.621874913840861e-05</v>
       </c>
       <c r="CO45" t="n">
-        <v>-0.0002251490871051467</v>
+        <v>-6.54088614806682e-06</v>
       </c>
       <c r="CP45" t="n">
         <v>1</v>
@@ -14846,7 +14846,7 @@
         <v>-0.8677388102759003</v>
       </c>
       <c r="BB46" t="n">
-        <v>-0.008462247599590633</v>
+        <v>-0.852635364118364</v>
       </c>
       <c r="BC46" t="n">
         <v>-0.7142405223360453</v>
@@ -14940,10 +14940,10 @@
         <v>0.03351178662419463</v>
       </c>
       <c r="CF46" t="n">
-        <v>0.9404879778542206</v>
+        <v>0.9713064079493556</v>
       </c>
       <c r="CG46" t="n">
-        <v>0.05951202214577944</v>
+        <v>0.02869359205064437</v>
       </c>
       <c r="CH46" t="n">
         <v>1.552528342969959e-05</v>
@@ -14964,10 +14964,10 @@
         <v>-5.529438594884266e-05</v>
       </c>
       <c r="CN46" t="n">
-        <v>0.0002478626183440953</v>
+        <v>1.960906108719289e-05</v>
       </c>
       <c r="CO46" t="n">
-        <v>-0.000247862476828194</v>
+        <v>-1.960891957129545e-05</v>
       </c>
       <c r="CP46" t="n">
         <v>1</v>
@@ -15159,7 +15159,7 @@
         <v>-0.8591312290480817</v>
       </c>
       <c r="BB47" t="n">
-        <v>-0.008370574954993548</v>
+        <v>-0.8439925645092875</v>
       </c>
       <c r="BC47" t="n">
         <v>-0.7144234331537378</v>
@@ -15253,10 +15253,10 @@
         <v>0.03522982061751212</v>
       </c>
       <c r="CF47" t="n">
-        <v>0.9373961467909121</v>
+        <v>0.9695009796655384</v>
       </c>
       <c r="CG47" t="n">
-        <v>0.0626038532090879</v>
+        <v>0.03049902033446161</v>
       </c>
       <c r="CH47" t="n">
         <v>2.867284357021497e-05</v>
@@ -15277,10 +15277,10 @@
         <v>-7.668164975284104e-05</v>
       </c>
       <c r="CN47" t="n">
-        <v>0.000270761808054948</v>
+        <v>3.29806398984148e-05</v>
       </c>
       <c r="CO47" t="n">
-        <v>-0.0004821676070975551</v>
+        <v>-6.605270784485568e-06</v>
       </c>
       <c r="CP47" t="n">
         <v>0</v>
@@ -15472,7 +15472,7 @@
         <v>-0.8418053779465773</v>
       </c>
       <c r="BB48" t="n">
-        <v>-0.008551550926751583</v>
+        <v>-0.8269956298656281</v>
       </c>
       <c r="BC48" t="n">
         <v>-0.7151741111857401</v>
@@ -15566,10 +15566,10 @@
         <v>0.03917279187280809</v>
       </c>
       <c r="CF48" t="n">
-        <v>0.9304039488268907</v>
+        <v>0.9653217625636223</v>
       </c>
       <c r="CG48" t="n">
-        <v>0.0695960511731093</v>
+        <v>0.03467823743637766</v>
       </c>
       <c r="CH48" t="n">
         <v>5.915187416389439e-05</v>
@@ -15590,10 +15590,10 @@
         <v>-5.270510757500918e-05</v>
       </c>
       <c r="CN48" t="n">
-        <v>0.0005857416083302862</v>
+        <v>6.851116067675862e-05</v>
       </c>
       <c r="CO48" t="n">
-        <v>-0.0002780318726699994</v>
+        <v>-1.94166488432329e-05</v>
       </c>
       <c r="CP48" t="n">
         <v>1</v>
@@ -15785,7 +15785,7 @@
         <v>-0.8330706439497163</v>
       </c>
       <c r="BB49" t="n">
-        <v>-0.008844706370897404</v>
+        <v>-0.8186223746864666</v>
       </c>
       <c r="BC49" t="n">
         <v>-0.7157391497279562</v>
@@ -15879,10 +15879,10 @@
         <v>0.04128443341848431</v>
       </c>
       <c r="CF49" t="n">
-        <v>0.9266822007692326</v>
+        <v>0.9630440404156253</v>
       </c>
       <c r="CG49" t="n">
-        <v>0.07331779923076742</v>
+        <v>0.0369559595843747</v>
       </c>
       <c r="CH49" t="n">
         <v>3.148126004554833e-05</v>
@@ -15903,10 +15903,10 @@
         <v>-3.866647763685831e-05</v>
       </c>
       <c r="CN49" t="n">
-        <v>0.0003055966198279103</v>
+        <v>3.628636547448136e-05</v>
       </c>
       <c r="CO49" t="n">
-        <v>-0.0002759183322898784</v>
+        <v>-6.608077936449735e-06</v>
       </c>
       <c r="CP49" t="n">
         <v>1</v>
@@ -16098,7 +16098,7 @@
         <v>-0.8242768689300193</v>
       </c>
       <c r="BB50" t="n">
-        <v>-0.009288494187522645</v>
+        <v>-0.8103192559481269</v>
       </c>
       <c r="BC50" t="n">
         <v>-0.7164285104566415</v>
@@ -16192,10 +16192,10 @@
         <v>0.04364510541293321</v>
       </c>
       <c r="CF50" t="n">
-        <v>0.9225771008445761</v>
+        <v>0.960491218398883</v>
       </c>
       <c r="CG50" t="n">
-        <v>0.07742289915542389</v>
+        <v>0.03950878160111704</v>
       </c>
       <c r="CH50" t="n">
         <v>2.062235296672842e-05</v>
@@ -16216,10 +16216,10 @@
         <v>-4.131317901978567e-05</v>
       </c>
       <c r="CN50" t="n">
-        <v>0.0003063223359267876</v>
+        <v>2.551529366953166e-05</v>
       </c>
       <c r="CO50" t="n">
-        <v>-0.0002914849611064525</v>
+        <v>-1.067791884920056e-05</v>
       </c>
       <c r="CP50" t="n">
         <v>1</v>
@@ -16411,7 +16411,7 @@
         <v>-0.8154155150364141</v>
       </c>
       <c r="BB51" t="n">
-        <v>-0.009896103374084253</v>
+        <v>-0.8020757430028107</v>
       </c>
       <c r="BC51" t="n">
         <v>-0.7172402516068135</v>
@@ -16505,10 +16505,10 @@
         <v>0.04614093070098391</v>
       </c>
       <c r="CF51" t="n">
-        <v>0.9182661670731691</v>
+        <v>0.9577644280756641</v>
       </c>
       <c r="CG51" t="n">
-        <v>0.0817338329268309</v>
+        <v>0.04223557192433591</v>
       </c>
       <c r="CH51" t="n">
         <v>2.594743906506568e-05</v>
@@ -16529,10 +16529,10 @@
         <v>-4.495592642232308e-05</v>
       </c>
       <c r="CN51" t="n">
-        <v>0.0003234134521225389</v>
+        <v>3.087361308952864e-05</v>
       </c>
       <c r="CO51" t="n">
-        <v>-0.0003085711242460808</v>
+        <v>-1.603128521306552e-05</v>
       </c>
       <c r="CP51" t="n">
         <v>1</v>
@@ -16724,7 +16724,7 @@
         <v>-0.806477902952403</v>
       </c>
       <c r="BB52" t="n">
-        <v>-0.01068210044591822</v>
+        <v>-0.7938808110615752</v>
       </c>
       <c r="BC52" t="n">
         <v>-0.7181720778498893</v>
@@ -16818,10 +16818,10 @@
         <v>0.04877589942422578</v>
       </c>
       <c r="CF52" t="n">
-        <v>0.9137472687235237</v>
+        <v>0.9548560203338511</v>
       </c>
       <c r="CG52" t="n">
-        <v>0.08625273127647626</v>
+        <v>0.04514397966614891</v>
       </c>
       <c r="CH52" t="n">
         <v>3.267500252364733e-05</v>
@@ -16842,10 +16842,10 @@
         <v>-3.479581310148871e-05</v>
       </c>
       <c r="CN52" t="n">
-        <v>0.0003420398836866158</v>
+        <v>3.757211032885416e-05</v>
       </c>
       <c r="CO52" t="n">
-        <v>-0.000312364143434615</v>
+        <v>-7.896370076857743e-06</v>
       </c>
       <c r="CP52" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         <v>-0.7974552025616615</v>
       </c>
       <c r="BB53" t="n">
-        <v>-0.01166255201517008</v>
+        <v>-0.7857228751665939</v>
       </c>
       <c r="BC53" t="n">
         <v>-0.7192212530147785</v>
@@ -17110,7 +17110,7 @@
         <v>0</v>
       </c>
       <c r="BY53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ53" t="n">
         <v>0.9523008836516208</v>
@@ -17131,10 +17131,10 @@
         <v>0.05166456045080148</v>
       </c>
       <c r="CF53" t="n">
-        <v>0.9088544381743031</v>
+        <v>0.9516522037204235</v>
       </c>
       <c r="CG53" t="n">
-        <v>0.09114556182569689</v>
+        <v>0.04834779627957653</v>
       </c>
       <c r="CH53" t="n">
         <v>2.682072914371187e-05</v>
@@ -17155,10 +17155,10 @@
         <v>2.433650755326484e-05</v>
       </c>
       <c r="CN53" t="n">
-        <v>0.0003486023935488402</v>
+        <v>3.162511085166679e-05</v>
       </c>
       <c r="CO53" t="n">
-        <v>-0.0008528995145347354</v>
+        <v>9.80323335567938e-05</v>
       </c>
       <c r="CP53" t="n">
         <v>0</v>
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
       <c r="CS53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -17350,7 +17350,7 @@
         <v>-0.7697858423614113</v>
       </c>
       <c r="BB54" t="n">
-        <v>-0.01595647837431491</v>
+        <v>-0.7613452585400464</v>
       </c>
       <c r="BC54" t="n">
         <v>-0.7230365964169598</v>
@@ -17444,10 +17444,10 @@
         <v>0.06197492170892116</v>
       </c>
       <c r="CF54" t="n">
-        <v>0.8918424757008885</v>
+        <v>0.9400859391790454</v>
       </c>
       <c r="CG54" t="n">
-        <v>0.1081575242991115</v>
+        <v>0.05991406082095463</v>
       </c>
       <c r="CH54" t="n">
         <v>0.0001468224808156733</v>
@@ -17468,10 +17468,10 @@
         <v>-5.835567832017965e-05</v>
       </c>
       <c r="CN54" t="n">
-        <v>0.001230891606132954</v>
+        <v>0.0001589607401586077</v>
       </c>
       <c r="CO54" t="n">
-        <v>-0.0004004024111372623</v>
+        <v>-4.309212247914971e-05</v>
       </c>
       <c r="CP54" t="n">
         <v>1</v>
@@ -17663,7 +17663,7 @@
         <v>-0.7603312069479884</v>
       </c>
       <c r="BB55" t="n">
-        <v>-0.01790988143909217</v>
+        <v>-0.7532056462235808</v>
       </c>
       <c r="BC55" t="n">
         <v>-0.7245149559126279</v>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="BY55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ55" t="n">
         <v>0.9364087068149884</v>
@@ -17757,10 +17757,10 @@
         <v>0.06558769952659405</v>
       </c>
       <c r="CF55" t="n">
-        <v>0.8859670092853761</v>
+        <v>0.9359245809333093</v>
       </c>
       <c r="CG55" t="n">
-        <v>0.1140329907146239</v>
+        <v>0.06407541906669068</v>
       </c>
       <c r="CH55" t="n">
         <v>7.032716869549791e-05</v>
@@ -17781,10 +17781,10 @@
         <v>1.875478495677255e-05</v>
       </c>
       <c r="CN55" t="n">
-        <v>0.0004439184535101007</v>
+        <v>7.391279762962184e-05</v>
       </c>
       <c r="CO55" t="n">
-        <v>-0.0003400503200365484</v>
+        <v>2.995533584393591e-05</v>
       </c>
       <c r="CP55" t="n">
         <v>0</v>
@@ -17796,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="CS55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -17976,7 +17976,7 @@
         <v>-0.7507448253619973</v>
       </c>
       <c r="BB56" t="n">
-        <v>-0.02016502251508573</v>
+        <v>-0.7450340149531824</v>
       </c>
       <c r="BC56" t="n">
         <v>-0.7260860160825512</v>
@@ -18070,10 +18070,10 @@
         <v>0.0699966218389545</v>
       </c>
       <c r="CF56" t="n">
-        <v>0.8789863147332395</v>
+        <v>0.9309032083179181</v>
       </c>
       <c r="CG56" t="n">
-        <v>0.1210136852667605</v>
+        <v>0.06909679168208194</v>
       </c>
       <c r="CH56" t="n">
         <v>4.205566515554267e-06</v>
@@ -18094,10 +18094,10 @@
         <v>-1.389491967904242e-05</v>
       </c>
       <c r="CN56" t="n">
-        <v>0.0003917521218067647</v>
+        <v>7.234947964689445e-06</v>
       </c>
       <c r="CO56" t="n">
-        <v>-0.000391747593298383</v>
+        <v>-7.230419456313105e-06</v>
       </c>
       <c r="CP56" t="n">
         <v>1</v>
@@ -18289,7 +18289,7 @@
         <v>-0.7410168367246929</v>
       </c>
       <c r="BB57" t="n">
-        <v>-0.02274958656647944</v>
+        <v>-0.7368137247789335</v>
       </c>
       <c r="BC57" t="n">
         <v>-0.7277414205228719</v>
@@ -18362,7 +18362,7 @@
         <v>0</v>
       </c>
       <c r="BY57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ57" t="n">
         <v>0.9260471805897269</v>
@@ -18383,10 +18383,10 @@
         <v>0.07447647306833916</v>
       </c>
       <c r="CF57" t="n">
-        <v>0.8719616775342413</v>
+        <v>0.9257306863824039</v>
       </c>
       <c r="CG57" t="n">
-        <v>0.1280383224657587</v>
+        <v>0.07426931361759614</v>
       </c>
       <c r="CH57" t="n">
         <v>4.319609323258453e-05</v>
@@ -18407,10 +18407,10 @@
         <v>4.196052352138831e-05</v>
       </c>
       <c r="CN57" t="n">
-        <v>0.0004437748517979742</v>
+        <v>4.554017527861037e-05</v>
       </c>
       <c r="CO57" t="n">
-        <v>-0.0003547398476681678</v>
+        <v>4.349482885120277e-05</v>
       </c>
       <c r="CP57" t="n">
         <v>0</v>
@@ -18422,7 +18422,7 @@
         <v>0</v>
       </c>
       <c r="CS57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -18602,7 +18602,7 @@
         <v>-0.7311372035480801</v>
       </c>
       <c r="BB58" t="n">
-        <v>-0.02569355534722029</v>
+        <v>-0.7285269561669299</v>
       </c>
       <c r="BC58" t="n">
         <v>-0.7294710922993154</v>
@@ -18675,7 +18675,7 @@
         <v>1</v>
       </c>
       <c r="BY58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ58" t="n">
         <v>0.919990684901916</v>
@@ -18696,10 +18696,10 @@
         <v>0.07964653606378658</v>
       </c>
       <c r="CF58" t="n">
-        <v>0.8640328874109043</v>
+        <v>0.9197836326522737</v>
       </c>
       <c r="CG58" t="n">
-        <v>0.1359671125890957</v>
+        <v>0.0802163673477263</v>
       </c>
       <c r="CH58" t="n">
         <v>-9.820936944567732e-07</v>
@@ -18720,10 +18720,10 @@
         <v>0.0001112060926491002</v>
       </c>
       <c r="CN58" t="n">
-        <v>0.0004134636225265331</v>
+        <v>5.514176613461569e-07</v>
       </c>
       <c r="CO58" t="n">
-        <v>-0.0007230591115794946</v>
+        <v>0.000102765298150873</v>
       </c>
       <c r="CP58" t="n">
         <v>1</v>
@@ -18735,7 +18735,7 @@
         <v>1</v>
       </c>
       <c r="CS58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -18915,7 +18915,7 @@
         <v>-0.7108820030452901</v>
       </c>
       <c r="BB59" t="n">
-        <v>-0.032791350101842</v>
+        <v>-0.7116761361866391</v>
       </c>
       <c r="BC59" t="n">
         <v>-0.7331021818363856</v>
@@ -18988,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="BY59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ59" t="n">
         <v>0.9065539923234145</v>
@@ -19009,10 +19009,10 @@
         <v>0.09097092696734221</v>
       </c>
       <c r="CF59" t="n">
-        <v>0.8470962850536622</v>
+        <v>0.9066236251013426</v>
       </c>
       <c r="CG59" t="n">
-        <v>0.1529037149463378</v>
+        <v>0.09337637489865735</v>
       </c>
       <c r="CH59" t="n">
         <v>9.320266368040286e-05</v>
@@ -19033,10 +19033,10 @@
         <v>0.0001512077898841433</v>
       </c>
       <c r="CN59" t="n">
-        <v>0.0009739375452928693</v>
+        <v>9.217120755400723e-05</v>
       </c>
       <c r="CO59" t="n">
-        <v>-0.0007661899570747237</v>
+        <v>0.0001155763806641387</v>
       </c>
       <c r="CP59" t="n">
         <v>0</v>
@@ -19048,7 +19048,7 @@
         <v>0</v>
       </c>
       <c r="CS59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -19228,7 +19228,7 @@
         <v>-0.6898956588853299</v>
       </c>
       <c r="BB60" t="n">
-        <v>-0.04174485257629654</v>
+        <v>-0.6943110901113374</v>
       </c>
       <c r="BC60" t="n">
         <v>-0.7368493038233238</v>
@@ -19301,7 +19301,7 @@
         <v>0</v>
       </c>
       <c r="BY60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ60" t="n">
         <v>0.8907770044305994</v>
@@ -19322,10 +19322,10 @@
         <v>0.1041408693637438</v>
       </c>
       <c r="CF60" t="n">
-        <v>0.8281600116742044</v>
+        <v>0.8912035734056034</v>
       </c>
       <c r="CG60" t="n">
-        <v>0.1718399883257956</v>
+        <v>0.1087964265943966</v>
       </c>
       <c r="CH60" t="n">
         <v>0.0001191563768080453</v>
@@ -19346,10 +19346,10 @@
         <v>0.0001041923415578893</v>
       </c>
       <c r="CN60" t="n">
-        <v>0.00104668910947848</v>
+        <v>0.0001128376976501817</v>
       </c>
       <c r="CO60" t="n">
-        <v>-0.0003972142738519534</v>
+        <v>6.971143206219957e-05</v>
       </c>
       <c r="CP60" t="n">
         <v>0</v>
@@ -19361,7 +19361,7 @@
         <v>0</v>
       </c>
       <c r="CS60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -19541,7 +19541,7 @@
         <v>-0.679101588108857</v>
       </c>
       <c r="BB61" t="n">
-        <v>-0.0470166526017213</v>
+        <v>-0.6853753813666202</v>
       </c>
       <c r="BC61" t="n">
         <v>-0.7387105294028068</v>
@@ -19635,10 +19635,10 @@
         <v>0.1117477522588681</v>
       </c>
       <c r="CF61" t="n">
-        <v>0.8175882880452574</v>
+        <v>0.8822971044033506</v>
       </c>
       <c r="CG61" t="n">
-        <v>0.1824117119547426</v>
+        <v>0.1177028955966494</v>
       </c>
       <c r="CH61" t="n">
         <v>9.635842436253594e-07</v>
@@ -19659,10 +19659,10 @@
         <v>9.237250605144366e-05</v>
       </c>
       <c r="CN61" t="n">
-        <v>0.0004755126659892204</v>
+        <v>-3.746578366317296e-06</v>
       </c>
       <c r="CO61" t="n">
-        <v>-0.0004309928996701017</v>
+        <v>4.826634468542835e-05</v>
       </c>
       <c r="CP61" t="n">
         <v>0</v>
@@ -19854,7 +19854,7 @@
         <v>-0.6680924551857468</v>
       </c>
       <c r="BB62" t="n">
-        <v>-0.05287523698775237</v>
+        <v>-0.6762350913394605</v>
       </c>
       <c r="BC62" t="n">
         <v>-0.7405245011667045</v>
@@ -19927,7 +19927,7 @@
         <v>1</v>
       </c>
       <c r="BY62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ62" t="n">
         <v>0.8719563851092516</v>
@@ -19948,10 +19948,10 @@
         <v>0.1198094903200768</v>
       </c>
       <c r="CF62" t="n">
-        <v>0.806638231360307</v>
+        <v>0.8728208959592043</v>
       </c>
       <c r="CG62" t="n">
-        <v>0.193361768639693</v>
+        <v>0.1271791040407957</v>
       </c>
       <c r="CH62" t="n">
         <v>2.832113742146092e-05</v>
@@ -19972,10 +19972,10 @@
         <v>0.0001513743856936384</v>
       </c>
       <c r="CN62" t="n">
-        <v>0.0005120933769750631</v>
+        <v>2.191822604084414e-05</v>
       </c>
       <c r="CO62" t="n">
-        <v>-0.0003933830571409434</v>
+        <v>9.679209379328309e-05</v>
       </c>
       <c r="CP62" t="n">
         <v>0</v>
@@ -19987,7 +19987,7 @@
         <v>1</v>
       </c>
       <c r="CS62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -20167,7 +20167,7 @@
         <v>-0.6568573286186545</v>
       </c>
       <c r="BB63" t="n">
-        <v>-0.05936510370069947</v>
+        <v>-0.6668609441370926</v>
       </c>
       <c r="BC63" t="n">
         <v>-0.7422545490287787</v>
@@ -20261,10 +20261,10 @@
         <v>0.1287810737114896</v>
       </c>
       <c r="CF63" t="n">
-        <v>0.7947663478077014</v>
+        <v>0.8623061587886052</v>
       </c>
       <c r="CG63" t="n">
-        <v>0.2052336521922986</v>
+        <v>0.1376938412113948</v>
       </c>
       <c r="CH63" t="n">
         <v>-1.067854791512654e-05</v>
@@ -20285,10 +20285,10 @@
         <v>0.0001294425067305402</v>
       </c>
       <c r="CN63" t="n">
-        <v>0.0004813109510621262</v>
+        <v>-1.891576604387026e-05</v>
       </c>
       <c r="CO63" t="n">
-        <v>-0.0004367957132513909</v>
+        <v>6.343100385459793e-05</v>
       </c>
       <c r="CP63" t="n">
         <v>1</v>
@@ -20480,7 +20480,7 @@
         <v>-0.6453852521530837</v>
       </c>
       <c r="BB64" t="n">
-        <v>-0.06653184990581099</v>
+        <v>-0.6572216194031805</v>
       </c>
       <c r="BC64" t="n">
         <v>-0.7438566895078444</v>
@@ -20553,7 +20553,7 @@
         <v>1</v>
       </c>
       <c r="BY64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ64" t="n">
         <v>0.8498070741556577</v>
@@ -20574,10 +20574,10 @@
         <v>0.1382479007229305</v>
       </c>
       <c r="CF64" t="n">
-        <v>0.7825615611863195</v>
+        <v>0.8511821072544288</v>
       </c>
       <c r="CG64" t="n">
-        <v>0.2174384388136805</v>
+        <v>0.1488178927455712</v>
       </c>
       <c r="CH64" t="n">
         <v>2.914219085773436e-05</v>
@@ -20598,10 +20598,10 @@
         <v>0.0001928799248228595</v>
       </c>
       <c r="CN64" t="n">
-        <v>0.0005271892197762943</v>
+        <v>1.895814854371587e-05</v>
       </c>
       <c r="CO64" t="n">
-        <v>-0.0003936367135816141</v>
+        <v>0.0001145943576509718</v>
       </c>
       <c r="CP64" t="n">
         <v>0</v>
@@ -20613,7 +20613,7 @@
         <v>1</v>
       </c>
       <c r="CS64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -20793,7 +20793,7 @@
         <v>-0.6336652879823701</v>
       </c>
       <c r="BB65" t="n">
-        <v>-0.07442172104236891</v>
+        <v>-0.6472837013004601</v>
       </c>
       <c r="BC65" t="n">
         <v>-0.7452782101843588</v>
@@ -20887,10 +20887,10 @@
         <v>0.1487308253785806</v>
       </c>
       <c r="CF65" t="n">
-        <v>0.7694240151034032</v>
+        <v>0.8389153788793704</v>
       </c>
       <c r="CG65" t="n">
-        <v>0.2305759848965968</v>
+        <v>0.1610846211206296</v>
       </c>
       <c r="CH65" t="n">
         <v>-1.150679243570093e-05</v>
@@ -20911,10 +20911,10 @@
         <v>0.0001894365594963872</v>
       </c>
       <c r="CN65" t="n">
-        <v>0.0004909386078635501</v>
+        <v>-2.374208584906765e-05</v>
       </c>
       <c r="CO65" t="n">
-        <v>-0.0004167412615858914</v>
+        <v>9.793943212671853e-05</v>
       </c>
       <c r="CP65" t="n">
         <v>1</v>
@@ -21106,7 +21106,7 @@
         <v>-0.6216865672041274</v>
       </c>
       <c r="BB66" t="n">
-        <v>-0.08308110741320195</v>
+        <v>-0.637011666279052</v>
       </c>
       <c r="BC66" t="n">
         <v>-0.7464560007373173</v>
@@ -21200,10 +21200,10 @@
         <v>0.1599209655704226</v>
       </c>
       <c r="CF66" t="n">
-        <v>0.7558091098533707</v>
+        <v>0.8258342007972496</v>
       </c>
       <c r="CG66" t="n">
-        <v>0.2441908901466293</v>
+        <v>0.1741657992027504</v>
       </c>
       <c r="CH66" t="n">
         <v>1.329355061420023e-05</v>
@@ -21224,10 +21224,10 @@
         <v>0.0002252659837798019</v>
       </c>
       <c r="CN66" t="n">
-        <v>0.0005175786678211234</v>
+        <v>-1.055021689923968e-06</v>
       </c>
       <c r="CO66" t="n">
-        <v>-0.0003988706122412392</v>
+        <v>0.0001197630772698153</v>
       </c>
       <c r="CP66" t="n">
         <v>0</v>
@@ -21419,7 +21419,7 @@
         <v>-0.609438348105351</v>
       </c>
       <c r="BB67" t="n">
-        <v>-0.09255600711154645</v>
+        <v>-0.6263679232451907</v>
       </c>
       <c r="BC67" t="n">
         <v>-0.7473145991019193</v>
@@ -21513,10 +21513,10 @@
         <v>0.1720787863699612</v>
       </c>
       <c r="CF67" t="n">
-        <v>0.7414677197524092</v>
+        <v>0.8116821289060661</v>
       </c>
       <c r="CG67" t="n">
-        <v>0.2585322802475908</v>
+        <v>0.1883178710939339</v>
       </c>
       <c r="CH67" t="n">
         <v>1.545473210788628e-06</v>
@@ -21537,10 +21537,10 @@
         <v>0.0002390975153115681</v>
       </c>
       <c r="CN67" t="n">
-        <v>0.0005050886543818914</v>
+        <v>-1.494720112859681e-05</v>
       </c>
       <c r="CO67" t="n">
-        <v>-0.0004012114638914802</v>
+        <v>0.0001188243916190005</v>
       </c>
       <c r="CP67" t="n">
         <v>0</v>
@@ -21732,7 +21732,7 @@
         <v>-0.5969100828271411</v>
       </c>
       <c r="BB68" t="n">
-        <v>-0.1028914792210726</v>
+        <v>-0.6153129225509307</v>
       </c>
       <c r="BC68" t="n">
         <v>-0.7477639266024821</v>
@@ -21826,10 +21826,10 @@
         <v>0.1851532232683336</v>
       </c>
       <c r="CF68" t="n">
-        <v>0.7265409338128255</v>
+        <v>0.7965310174404293</v>
       </c>
       <c r="CG68" t="n">
-        <v>0.2734590661871745</v>
+        <v>0.2034689825595707</v>
       </c>
       <c r="CH68" t="n">
         <v>1.200740072322942e-05</v>
@@ -21850,10 +21850,10 @@
         <v>0.0002312957726397936</v>
       </c>
       <c r="CN68" t="n">
-        <v>0.0005117651805670049</v>
+        <v>-6.609230828799086e-06</v>
       </c>
       <c r="CO68" t="n">
-        <v>-0.0004227324406914381</v>
+        <v>9.564197070437435e-05</v>
       </c>
       <c r="CP68" t="n">
         <v>0</v>
@@ -22045,7 +22045,7 @@
         <v>-0.5840914929127804</v>
       </c>
       <c r="BB69" t="n">
-        <v>-0.1141311148061447</v>
+        <v>-0.6038053531697279</v>
       </c>
       <c r="BC69" t="n">
         <v>-0.7476966984834619</v>
@@ -22118,7 +22118,7 @@
         <v>1</v>
       </c>
       <c r="BY69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ69" t="n">
         <v>0.7776443344352711</v>
@@ -22139,10 +22139,10 @@
         <v>0.1991173183436468</v>
       </c>
       <c r="CF69" t="n">
-        <v>0.711139629846873</v>
+        <v>0.7804340684506519</v>
       </c>
       <c r="CG69" t="n">
-        <v>0.288860370153127</v>
+        <v>0.2195659315493481</v>
       </c>
       <c r="CH69" t="n">
         <v>4.424031945132832e-05</v>
@@ -22163,10 +22163,10 @@
         <v>0.0002910999494999866</v>
       </c>
       <c r="CN69" t="n">
-        <v>0.0005368006267012938</v>
+        <v>2.357843917885627e-05</v>
       </c>
       <c r="CO69" t="n">
-        <v>-0.0003735728048022383</v>
+        <v>0.0001396493827201908</v>
       </c>
       <c r="CP69" t="n">
         <v>0</v>
@@ -22178,7 +22178,7 @@
         <v>1</v>
       </c>
       <c r="CS69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -22358,7 +22358,7 @@
         <v>-0.5709726541707544</v>
       </c>
       <c r="BB70" t="n">
-        <v>-0.1263165545754734</v>
+        <v>-0.5918024503200053</v>
       </c>
       <c r="BC70" t="n">
         <v>-0.7469855203839051</v>
@@ -22452,10 +22452,10 @@
         <v>0.2143385285807624</v>
       </c>
       <c r="CF70" t="n">
-        <v>0.6949258811585713</v>
+        <v>0.763043462197963</v>
       </c>
       <c r="CG70" t="n">
-        <v>0.3050741188414287</v>
+        <v>0.236956537802037</v>
       </c>
       <c r="CH70" t="n">
         <v>1.172825104947192e-05</v>
@@ -22476,10 +22476,10 @@
         <v>0.0002822405355490556</v>
       </c>
       <c r="CN70" t="n">
-        <v>0.000493658279732319</v>
+        <v>-1.084763234626522e-05</v>
       </c>
       <c r="CO70" t="n">
-        <v>-0.0003897833534961918</v>
+        <v>0.0001147225585824</v>
       </c>
       <c r="CP70" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>-0.5575440911828304</v>
       </c>
       <c r="BB71" t="n">
-        <v>-0.1394870808180998</v>
+        <v>-0.5792604383346717</v>
       </c>
       <c r="BC71" t="n">
         <v>-0.7454797231074886</v>
@@ -22744,7 +22744,7 @@
         <v>1</v>
       </c>
       <c r="BY71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ71" t="n">
         <v>0.7413502045998102</v>
@@ -22765,10 +22765,10 @@
         <v>0.230596996416815</v>
       </c>
       <c r="CF71" t="n">
-        <v>0.6782476570467852</v>
+        <v>0.7446281231488413</v>
       </c>
       <c r="CG71" t="n">
-        <v>0.3217523429532148</v>
+        <v>0.2553718768511587</v>
       </c>
       <c r="CH71" t="n">
         <v>4.594633986516709e-05</v>
@@ -22789,10 +22789,10 @@
         <v>0.000280534172649204</v>
       </c>
       <c r="CN71" t="n">
-        <v>0.0005133089182472643</v>
+        <v>2.166877066696066e-05</v>
       </c>
       <c r="CO71" t="n">
-        <v>-0.0003945985984131033</v>
+        <v>9.704154916719324e-05</v>
       </c>
       <c r="CP71" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>1</v>
       </c>
       <c r="CS71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -22984,7 +22984,7 @@
         <v>-0.5437968816524037</v>
       </c>
       <c r="BB72" t="n">
-        <v>-0.1536793072100025</v>
+        <v>-0.5661351352853888</v>
       </c>
       <c r="BC72" t="n">
         <v>-0.7430020558685146</v>
@@ -23057,7 +23057,7 @@
         <v>1</v>
       </c>
       <c r="BY72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ72" t="n">
         <v>0.7216431975928839</v>
@@ -23078,10 +23078,10 @@
         <v>0.2480145617434817</v>
       </c>
       <c r="CF72" t="n">
-        <v>0.6610605662367964</v>
+        <v>0.7251121779045764</v>
       </c>
       <c r="CG72" t="n">
-        <v>0.3389394337632036</v>
+        <v>0.2748878220954236</v>
       </c>
       <c r="CH72" t="n">
         <v>7.319395618583455e-05</v>
@@ -23102,10 +23102,10 @@
         <v>0.0003147605745441586</v>
       </c>
       <c r="CN72" t="n">
-        <v>0.0005218930324309016</v>
+        <v>4.750130754170578e-05</v>
       </c>
       <c r="CO72" t="n">
-        <v>-0.0003586652105319684</v>
+        <v>0.0001157265143572352</v>
       </c>
       <c r="CP72" t="n">
         <v>0</v>
@@ -23117,7 +23117,7 @@
         <v>1</v>
       </c>
       <c r="CS72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -23297,7 +23297,7 @@
         <v>-0.529722770615718</v>
       </c>
       <c r="BB73" t="n">
-        <v>-0.1689269837265227</v>
+        <v>-0.5523827461360038</v>
       </c>
       <c r="BC73" t="n">
         <v>-0.7393454626436861</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="BY73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ73" t="n">
         <v>0.7007256624973595</v>
@@ -23391,10 +23391,10 @@
         <v>0.2668042548987529</v>
       </c>
       <c r="CF73" t="n">
-        <v>0.6432302316735143</v>
+        <v>0.7043366942841489</v>
       </c>
       <c r="CG73" t="n">
-        <v>0.3567697683264857</v>
+        <v>0.2956633057158511</v>
       </c>
       <c r="CH73" t="n">
         <v>6.488972318682926e-05</v>
@@ -23415,10 +23415,10 @@
         <v>0.0003388312444749207</v>
       </c>
       <c r="CN73" t="n">
-        <v>0.000490723763760895</v>
+        <v>3.814498478977007e-05</v>
       </c>
       <c r="CO73" t="n">
-        <v>-0.000327489149099081</v>
+        <v>0.0001250896298720374</v>
       </c>
       <c r="CP73" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>1</v>
       </c>
       <c r="CS73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -23610,7 +23610,7 @@
         <v>-0.5153142943248925</v>
       </c>
       <c r="BB74" t="n">
-        <v>-0.185260925903952</v>
+        <v>-0.5379608692068212</v>
       </c>
       <c r="BC74" t="n">
         <v>-0.7342703194084579</v>
@@ -23683,7 +23683,7 @@
         <v>1</v>
       </c>
       <c r="BY74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ74" t="n">
         <v>0.6786472644081465</v>
@@ -23704,10 +23704,10 @@
         <v>0.2869978813579946</v>
       </c>
       <c r="CF74" t="n">
-        <v>0.624826996942522</v>
+        <v>0.6823401360281423</v>
       </c>
       <c r="CG74" t="n">
-        <v>0.375173003057478</v>
+        <v>0.3176598639718577</v>
       </c>
       <c r="CH74" t="n">
         <v>6.517651071324439e-05</v>
@@ -23728,10 +23728,10 @@
         <v>0.0003228149244415435</v>
       </c>
       <c r="CN74" t="n">
-        <v>0.0004637908289515302</v>
+        <v>3.782563394388785e-05</v>
       </c>
       <c r="CO74" t="n">
-        <v>-0.0003302451155195577</v>
+        <v>9.572007948809068e-05</v>
       </c>
       <c r="CP74" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>1</v>
       </c>
       <c r="CS74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -23923,7 +23923,7 @@
         <v>-0.500564913354232</v>
       </c>
       <c r="BB75" t="n">
-        <v>-0.2027090690586567</v>
+        <v>-0.522829735521368</v>
       </c>
       <c r="BC75" t="n">
         <v>-0.7275027228863229</v>
@@ -23996,7 +23996,7 @@
         <v>1</v>
       </c>
       <c r="BY75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ75" t="n">
         <v>0.6555317246279735</v>
@@ -24017,10 +24017,10 @@
         <v>0.3085630631087602</v>
       </c>
       <c r="CF75" t="n">
-        <v>0.6059845077149281</v>
+        <v>0.6592353953618966</v>
       </c>
       <c r="CG75" t="n">
-        <v>0.3940154922850719</v>
+        <v>0.3407646046381034</v>
       </c>
       <c r="CH75" t="n">
         <v>0.0001028336835558483</v>
@@ -24041,10 +24041,10 @@
         <v>0.0003263269570940746</v>
       </c>
       <c r="CN75" t="n">
-        <v>0.0004698000889720418</v>
+        <v>7.540282425131609e-05</v>
       </c>
       <c r="CO75" t="n">
-        <v>-0.000306567738564534</v>
+        <v>8.782952615619217e-05</v>
       </c>
       <c r="CP75" t="n">
         <v>0</v>
@@ -24056,7 +24056,7 @@
         <v>1</v>
       </c>
       <c r="CS75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -24236,7 +24236,7 @@
         <v>-0.4854691541787341</v>
       </c>
       <c r="BB76" t="n">
-        <v>-0.2212966398489938</v>
+        <v>-0.5069536911098123</v>
       </c>
       <c r="BC76" t="n">
         <v>-0.7187346981333157</v>
@@ -24309,7 +24309,7 @@
         <v>1</v>
       </c>
       <c r="BY76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ76" t="n">
         <v>0.631332731979044</v>
@@ -24330,10 +24330,10 @@
         <v>0.3316401551158774</v>
       </c>
       <c r="CF76" t="n">
-        <v>0.5866480904955678</v>
+        <v>0.6349668300707382</v>
       </c>
       <c r="CG76" t="n">
-        <v>0.4133519095044322</v>
+        <v>0.3650331699292618</v>
       </c>
       <c r="CH76" t="n">
         <v>0.000118828702521165</v>
@@ -24354,10 +24354,10 @@
         <v>0.0008301809705632867</v>
       </c>
       <c r="CN76" t="n">
-        <v>0.0004497809392790923</v>
+        <v>9.191312589091217e-05</v>
       </c>
       <c r="CO76" t="n">
-        <v>-0.0003801985686484773</v>
+        <v>0.0003355370581278796</v>
       </c>
       <c r="CP76" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>1</v>
       </c>
       <c r="CS76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -24549,7 +24549,7 @@
         <v>-0.4542228362185718</v>
       </c>
       <c r="BB77" t="n">
-        <v>-0.2619791576524527</v>
+        <v>-0.4728553654076424</v>
       </c>
       <c r="BC77" t="n">
         <v>-0.6938196657212603</v>
@@ -24622,7 +24622,7 @@
         <v>1</v>
       </c>
       <c r="BY77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ77" t="n">
         <v>0.5798694057696712</v>
@@ -24643,10 +24643,10 @@
         <v>0.3825406504382142</v>
       </c>
       <c r="CF77" t="n">
-        <v>0.546595617965884</v>
+        <v>0.5830943483379221</v>
       </c>
       <c r="CG77" t="n">
-        <v>0.453404382034116</v>
+        <v>0.4169056516620779</v>
       </c>
       <c r="CH77" t="n">
         <v>0.0004806098418660022</v>
@@ -24667,10 +24667,10 @@
         <v>0.0003126227385001103</v>
       </c>
       <c r="CN77" t="n">
-        <v>0.0009734876689441972</v>
+        <v>0.0004328394258597268</v>
       </c>
       <c r="CO77" t="n">
-        <v>-0.0002122222574108272</v>
+        <v>5.810186413140583e-05</v>
       </c>
       <c r="CP77" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>1</v>
       </c>
       <c r="CS77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -24862,7 +24862,7 @@
         <v>-0.4380680279831712</v>
       </c>
       <c r="BB78" t="n">
-        <v>-0.2841138799859542</v>
+        <v>-0.4545988477387959</v>
       </c>
       <c r="BC78" t="n">
         <v>-0.6769411599888209</v>
@@ -24935,7 +24935,7 @@
         <v>1</v>
       </c>
       <c r="BY78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ78" t="n">
         <v>0.5527403563260527</v>
@@ -24956,10 +24956,10 @@
         <v>0.4104124938412722</v>
       </c>
       <c r="CF78" t="n">
-        <v>0.5259379276225137</v>
+        <v>0.5556182659093605</v>
       </c>
       <c r="CG78" t="n">
-        <v>0.4740620723774863</v>
+        <v>0.4443817340906395</v>
       </c>
       <c r="CH78" t="n">
         <v>0.0001667118798610364</v>
@@ -24980,10 +24980,10 @@
         <v>0.0003162542770591063</v>
       </c>
       <c r="CN78" t="n">
-        <v>0.0003652213326729406</v>
+        <v>0.0001453969362436641</v>
       </c>
       <c r="CO78" t="n">
-        <v>-0.0001551598304715238</v>
+        <v>6.466456595775232e-05</v>
       </c>
       <c r="CP78" t="n">
         <v>0</v>
@@ -24995,7 +24995,7 @@
         <v>1</v>
       </c>
       <c r="CS78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -25175,7 +25175,7 @@
         <v>-0.4215586618842035</v>
       </c>
       <c r="BB79" t="n">
-        <v>-0.3074684590850121</v>
+        <v>-0.4355332098857003</v>
       </c>
       <c r="BC79" t="n">
         <v>-0.6566359601807791</v>
@@ -25248,7 +25248,7 @@
         <v>1</v>
       </c>
       <c r="BY79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ79" t="n">
         <v>0.5248035445886737</v>
@@ -25269,10 +25269,10 @@
         <v>0.439869526248295</v>
       </c>
       <c r="CF79" t="n">
-        <v>0.5049063849839581</v>
+        <v>0.5272406847213715</v>
       </c>
       <c r="CG79" t="n">
-        <v>0.4950936150160419</v>
+        <v>0.4727593152786285</v>
       </c>
       <c r="CH79" t="n">
         <v>0.0001635615226397019</v>
@@ -25293,10 +25293,10 @@
         <v>0.000305242581127243</v>
       </c>
       <c r="CN79" t="n">
-        <v>0.0003109278046036076</v>
+        <v>0.0001455110929745765</v>
       </c>
       <c r="CO79" t="n">
-        <v>-0.0001037689963151443</v>
+        <v>6.164771531388946e-05</v>
       </c>
       <c r="CP79" t="n">
         <v>0</v>
@@ -25308,7 +25308,7 @@
         <v>1</v>
       </c>
       <c r="CS79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -25488,7 +25488,7 @@
         <v>-0.4046969145348644</v>
       </c>
       <c r="BB80" t="n">
-        <v>-0.332060036593142</v>
+        <v>-0.4156724553297977</v>
       </c>
       <c r="BC80" t="n">
         <v>-0.6325934531717616</v>
@@ -25561,7 +25561,7 @@
         <v>1</v>
       </c>
       <c r="BY80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ80" t="n">
         <v>0.4962032875390263</v>
@@ -25582,10 +25582,10 @@
         <v>0.4707999721944663</v>
       </c>
       <c r="CF80" t="n">
-        <v>0.4835679698845439</v>
+        <v>0.4981125029169914</v>
       </c>
       <c r="CG80" t="n">
-        <v>0.5164320301154561</v>
+        <v>0.5018874970830086</v>
       </c>
       <c r="CH80" t="n">
         <v>0.0001682275993272666</v>
@@ -25606,10 +25606,10 @@
         <v>0.0002690715845221621</v>
       </c>
       <c r="CN80" t="n">
-        <v>0.0002618097900100361</v>
+        <v>0.0001540871904795456</v>
       </c>
       <c r="CO80" t="n">
-        <v>-6.889759538953938e-05</v>
+        <v>3.882500414095118e-05</v>
       </c>
       <c r="CP80" t="n">
         <v>0</v>
@@ -25621,7 +25621,7 @@
         <v>1</v>
       </c>
       <c r="CS80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -25801,7 +25801,7 @@
         <v>-0.3874869654110469</v>
       </c>
       <c r="BB81" t="n">
-        <v>-0.3579055145323456</v>
+        <v>-0.3950466745368411</v>
       </c>
       <c r="BC81" t="n">
         <v>-0.6045886131621235</v>
@@ -25874,7 +25874,7 @@
         <v>1</v>
       </c>
       <c r="BY81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ81" t="n">
         <v>0.4670718052964031</v>
@@ -25895,10 +25895,10 @@
         <v>0.5030595032938705</v>
       </c>
       <c r="CF81" t="n">
-        <v>0.4619625823374127</v>
+        <v>0.4683774964738635</v>
       </c>
       <c r="CG81" t="n">
-        <v>0.5380374176625873</v>
+        <v>0.5316225035261366</v>
       </c>
       <c r="CH81" t="n">
         <v>0.0001910747548592184</v>
@@ -25919,10 +25919,10 @@
         <v>0.0002527253773134766</v>
       </c>
       <c r="CN81" t="n">
-        <v>0.0002289156932719864</v>
+        <v>0.0001814042864085453</v>
       </c>
       <c r="CO81" t="n">
-        <v>-6.334975710385951e-06</v>
+        <v>4.117643115305464e-05</v>
       </c>
       <c r="CP81" t="n">
         <v>0</v>
@@ -25934,7 +25934,7 @@
         <v>1</v>
       </c>
       <c r="CS81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -26114,7 +26114,7 @@
         <v>-0.3699351433431948</v>
       </c>
       <c r="BB82" t="n">
-        <v>-0.3850220246197573</v>
+        <v>-0.3737035962142055</v>
       </c>
       <c r="BC82" t="n">
         <v>-0.5725279075190229</v>
@@ -26208,10 +26208,10 @@
         <v>0.5363923544443797</v>
       </c>
       <c r="CF82" t="n">
-        <v>0.4401723969670521</v>
+        <v>0.4382406508580303</v>
       </c>
       <c r="CG82" t="n">
-        <v>0.5598276030329479</v>
+        <v>0.5617593491419697</v>
       </c>
       <c r="CH82" t="n">
         <v>0.0001867926266456545</v>
@@ -26232,10 +26232,10 @@
         <v>0.0002284365274491124</v>
       </c>
       <c r="CN82" t="n">
-        <v>0.0001677217598106324</v>
+        <v>0.0001820290402185015</v>
       </c>
       <c r="CO82" t="n">
-        <v>5.486575051376428e-05</v>
+        <v>4.055847010589562e-05</v>
       </c>
       <c r="CP82" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>-0.3520500606830262</v>
       </c>
       <c r="BB83" t="n">
-        <v>-0.4134273785533309</v>
+        <v>-0.3517095670512559</v>
       </c>
       <c r="BC83" t="n">
         <v>-0.5364947736345924</v>
@@ -26521,10 +26521,10 @@
         <v>0.5704721215883044</v>
       </c>
       <c r="CF83" t="n">
-        <v>0.4182798796405376</v>
+        <v>0.4079229160750689</v>
       </c>
       <c r="CG83" t="n">
-        <v>0.5817201203594624</v>
+        <v>0.5920770839249311</v>
       </c>
       <c r="CH83" t="n">
         <v>0.0001835635459161004</v>
@@ -26545,10 +26545,10 @@
         <v>0.0005901300501108334</v>
       </c>
       <c r="CN83" t="n">
-        <v>0.0001072789447760189</v>
+        <v>0.0001839867384209474</v>
       </c>
       <c r="CO83" t="n">
-        <v>0.0004235157401922141</v>
+        <v>0.0002701001529023511</v>
       </c>
       <c r="CP83" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>-0.3153266638787324</v>
       </c>
       <c r="BB84" t="n">
-        <v>-0.474181807864255</v>
+        <v>-0.3061275519062382</v>
       </c>
       <c r="BC84" t="n">
         <v>-0.453923516403147</v>
@@ -26834,10 +26834,10 @@
         <v>0.6393594177779792</v>
       </c>
       <c r="CF84" t="n">
-        <v>0.3744233454935582</v>
+        <v>0.3475899801893854</v>
       </c>
       <c r="CG84" t="n">
-        <v>0.6255766545064418</v>
+        <v>0.6524100198106146</v>
       </c>
       <c r="CH84" t="n">
         <v>0.0006018418326363345</v>
@@ -26858,10 +26858,10 @@
         <v>0.0001038973753974045</v>
       </c>
       <c r="CN84" t="n">
-        <v>0.000226122148376748</v>
+        <v>0.0006235993115511441</v>
       </c>
       <c r="CO84" t="n">
-        <v>0.0002059780049378044</v>
+        <v>7.23942335060547e-06</v>
       </c>
       <c r="CP84" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>-0.2965179376567668</v>
       </c>
       <c r="BB85" t="n">
-        <v>-0.5065736470519303</v>
+        <v>-0.2827626970336067</v>
       </c>
       <c r="BC85" t="n">
         <v>-0.4086464770173134</v>
@@ -27126,7 +27126,7 @@
         <v>0</v>
       </c>
       <c r="BY85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ85" t="n">
         <v>0.3201746020288292</v>
@@ -27147,10 +27147,10 @@
         <v>0.6732754656511948</v>
       </c>
       <c r="CF85" t="n">
-        <v>0.3526178953587397</v>
+        <v>0.3180500927372434</v>
       </c>
       <c r="CG85" t="n">
-        <v>0.6473821046412602</v>
+        <v>0.6819499072627566</v>
       </c>
       <c r="CH85" t="n">
         <v>0.0001958097770587892</v>
@@ -27171,10 +27171,10 @@
         <v>9.012679637794389e-05</v>
       </c>
       <c r="CN85" t="n">
-        <v>-4.447816391748302e-05</v>
+        <v>0.0002115447383054482</v>
       </c>
       <c r="CO85" t="n">
-        <v>0.0002819033320940684</v>
+        <v>2.588042987114458e-05</v>
       </c>
       <c r="CP85" t="n">
         <v>0</v>
@@ -27186,7 +27186,7 @@
         <v>0</v>
       </c>
       <c r="CS85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -27366,7 +27366,7 @@
         <v>-0.2774352364218396</v>
       </c>
       <c r="BB86" t="n">
-        <v>-0.5403406187441609</v>
+        <v>-0.2591887604567474</v>
       </c>
       <c r="BC86" t="n">
         <v>-0.3618571546671796</v>
@@ -27460,10 +27460,10 @@
         <v>0.7060766487335461</v>
       </c>
       <c r="CF86" t="n">
-        <v>0.331174808251637</v>
+        <v>0.2894020289919355</v>
       </c>
       <c r="CG86" t="n">
-        <v>0.668825191748363</v>
+        <v>0.7105979710080645</v>
       </c>
       <c r="CH86" t="n">
         <v>0.0001662196981052793</v>
@@ -27484,10 +27484,10 @@
         <v>2.525592548090639e-05</v>
       </c>
       <c r="CN86" t="n">
-        <v>-0.0001230872958567649</v>
+        <v>0.0001862985305172747</v>
       </c>
       <c r="CO86" t="n">
-        <v>0.0003011550398622307</v>
+        <v>-8.230786511818043e-06</v>
       </c>
       <c r="CP86" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>-0.2580998561990354</v>
       </c>
       <c r="BB87" t="n">
-        <v>-0.5755099719206217</v>
+        <v>-0.2355494373764959</v>
       </c>
       <c r="BC87" t="n">
         <v>-0.3145492304221383</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="BY87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ87" t="n">
         <v>0.2647981760875835</v>
@@ -27773,10 +27773,10 @@
         <v>0.7376309122263126</v>
       </c>
       <c r="CF87" t="n">
-        <v>0.3098850525994221</v>
+        <v>0.2615949765095528</v>
       </c>
       <c r="CG87" t="n">
-        <v>0.6901149474005779</v>
+        <v>0.7384050234904472</v>
       </c>
       <c r="CH87" t="n">
         <v>0.0001904567120475328</v>
@@ -27797,10 +27797,10 @@
         <v>1.413773933184488e-05</v>
       </c>
       <c r="CN87" t="n">
-        <v>-0.0001434746373969792</v>
+        <v>0.0002141808828126346</v>
       </c>
       <c r="CO87" t="n">
-        <v>0.0003660598834672743</v>
+        <v>8.404363257660981e-06</v>
       </c>
       <c r="CP87" t="n">
         <v>0</v>
@@ -27812,7 +27812,7 @@
         <v>0</v>
       </c>
       <c r="CS87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -27992,7 +27992,7 @@
         <v>-0.2385356711426591</v>
       </c>
       <c r="BB88" t="n">
-        <v>-0.6121119717924027</v>
+        <v>-0.2119942380081158</v>
       </c>
       <c r="BC88" t="n">
         <v>-0.2677180226164888</v>
@@ -28086,10 +28086,10 @@
         <v>0.7672914192547675</v>
       </c>
       <c r="CF88" t="n">
-        <v>0.2891660568839663</v>
+        <v>0.2351357569444945</v>
       </c>
       <c r="CG88" t="n">
-        <v>0.7108339431160338</v>
+        <v>0.7648642430555055</v>
       </c>
       <c r="CH88" t="n">
         <v>0.0001610182524117789</v>
@@ -28110,10 +28110,10 @@
         <v>-2.747203490067497e-05</v>
       </c>
       <c r="CN88" t="n">
-        <v>-0.0002126067562234616</v>
+        <v>0.0001875631460970528</v>
       </c>
       <c r="CO88" t="n">
-        <v>0.0003906745002288641</v>
+        <v>-9.495402091649896e-06</v>
       </c>
       <c r="CP88" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>-0.2187690586079017</v>
       </c>
       <c r="BB89" t="n">
-        <v>-0.6501802838826184</v>
+        <v>-0.1886737281121334</v>
       </c>
       <c r="BC89" t="n">
         <v>-0.2222748501512826</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="BY89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ89" t="n">
         <v>0.213817293038989</v>
@@ -28399,10 +28399,10 @@
         <v>0.7950236609159282</v>
       </c>
       <c r="CF89" t="n">
-        <v>0.2688529092461099</v>
+        <v>0.2099779978103198</v>
       </c>
       <c r="CG89" t="n">
-        <v>0.7311470907538902</v>
+        <v>0.7900220021896802</v>
       </c>
       <c r="CH89" t="n">
         <v>0.000167388429305025</v>
@@ -28423,10 +28423,10 @@
         <v>4.557115687567684e-06</v>
       </c>
       <c r="CN89" t="n">
-        <v>-0.0002402272453520681</v>
+        <v>0.0001958237775884389</v>
       </c>
       <c r="CO89" t="n">
-        <v>0.0004776524135287393</v>
+        <v>4.160139058823325e-05</v>
       </c>
       <c r="CP89" t="n">
         <v>0</v>
@@ -28438,7 +28438,7 @@
         <v>0</v>
       </c>
       <c r="CS89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -28618,7 +28618,7 @@
         <v>-0.1988287808381846</v>
       </c>
       <c r="BB90" t="n">
-        <v>-0.689752376481331</v>
+        <v>-0.1657346769315021</v>
       </c>
       <c r="BC90" t="n">
         <v>-0.1789805655759501</v>
@@ -28712,10 +28712,10 @@
         <v>0.8201112771040951</v>
       </c>
       <c r="CF90" t="n">
-        <v>0.2497021264872035</v>
+        <v>0.1868261790042843</v>
       </c>
       <c r="CG90" t="n">
-        <v>0.7502978735127965</v>
+        <v>0.8131738209957157</v>
       </c>
       <c r="CH90" t="n">
         <v>0.0001004601092444001</v>
@@ -28736,10 +28736,10 @@
         <v>-6.253916914992965e-05</v>
       </c>
       <c r="CN90" t="n">
-        <v>-0.000335814095500177</v>
+        <v>0.0001298701925888507</v>
       </c>
       <c r="CO90" t="n">
-        <v>0.0004545266795884422</v>
+        <v>-1.115760850057147e-05</v>
       </c>
       <c r="CP90" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>-0.1787458224087858</v>
       </c>
       <c r="BB91" t="n">
-        <v>-0.730869947540227</v>
+        <v>-0.1433154630393915</v>
       </c>
       <c r="BC91" t="n">
         <v>-0.1384073347911038</v>
@@ -29004,7 +29004,7 @@
         <v>1</v>
       </c>
       <c r="BY91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ91" t="n">
         <v>0.1688910375672779</v>
@@ -29025,10 +29025,10 @@
         <v>0.8433232272560796</v>
       </c>
       <c r="CF91" t="n">
-        <v>0.2307531794379067</v>
+        <v>0.1649212818220186</v>
       </c>
       <c r="CG91" t="n">
-        <v>0.7692468205620933</v>
+        <v>0.8350787181779814</v>
       </c>
       <c r="CH91" t="n">
         <v>0.0001439924031434077</v>
@@ -29049,10 +29049,10 @@
         <v>-2.671304929416536e-05</v>
       </c>
       <c r="CN91" t="n">
-        <v>-0.0003141832371443413</v>
+        <v>0.00017339399392851</v>
       </c>
       <c r="CO91" t="n">
-        <v>0.000521926296854114</v>
+        <v>3.434906578124799e-05</v>
       </c>
       <c r="CP91" t="n">
         <v>0</v>
@@ -29064,7 +29064,7 @@
         <v>1</v>
       </c>
       <c r="CS91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -29244,7 +29244,7 @@
         <v>-0.1585531838661124</v>
       </c>
       <c r="BB92" t="n">
-        <v>-0.7735793809953158</v>
+        <v>-0.1215420561904013</v>
       </c>
       <c r="BC92" t="n">
         <v>-0.1009295692681495</v>
@@ -29317,7 +29317,7 @@
         <v>1</v>
       </c>
       <c r="BY92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ92" t="n">
         <v>0.1490716346896333</v>
@@ -29338,10 +29338,10 @@
         <v>0.8638001729030556</v>
       </c>
       <c r="CF92" t="n">
-        <v>0.2131878249251696</v>
+        <v>0.1452132421301549</v>
       </c>
       <c r="CG92" t="n">
-        <v>0.7868121750748305</v>
+        <v>0.8547867578698451</v>
       </c>
       <c r="CH92" t="n">
         <v>8.303972813413635e-05</v>
@@ -29362,10 +29362,10 @@
         <v>-5.965860906619307e-05</v>
       </c>
       <c r="CN92" t="n">
-        <v>-0.0003918302913264464</v>
+        <v>0.000111616518849168</v>
       </c>
       <c r="CO92" t="n">
-        <v>0.0005105451396689832</v>
+        <v>7.098329493368874e-06</v>
       </c>
       <c r="CP92" t="n">
         <v>0</v>
@@ -29377,7 +29377,7 @@
         <v>1</v>
       </c>
       <c r="CS92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -29557,7 +29557,7 @@
         <v>-0.1382856334064475</v>
       </c>
       <c r="BB93" t="n">
-        <v>-0.8179322366574888</v>
+        <v>-0.1005248226132849</v>
       </c>
       <c r="BC93" t="n">
         <v>-0.06673844619532632</v>
@@ -29630,7 +29630,7 @@
         <v>1</v>
       </c>
       <c r="BY93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ93" t="n">
         <v>0.1306605363672329</v>
@@ -29651,10 +29651,10 @@
         <v>0.8822844547114412</v>
       </c>
       <c r="CF93" t="n">
-        <v>0.1961642609485695</v>
+        <v>0.1270211835942894</v>
       </c>
       <c r="CG93" t="n">
-        <v>0.8038357390514306</v>
+        <v>0.8729788164057106</v>
       </c>
       <c r="CH93" t="n">
         <v>0.0001006848005312989</v>
@@ -29675,10 +29675,10 @@
         <v>-3.333273392690066e-05</v>
       </c>
       <c r="CN93" t="n">
-        <v>-0.0003844618504535821</v>
+        <v>0.0001276392954219471</v>
       </c>
       <c r="CO93" t="n">
-        <v>0.0005476896723526229</v>
+        <v>3.558852647709415e-05</v>
       </c>
       <c r="CP93" t="n">
         <v>0</v>
@@ -29690,7 +29690,7 @@
         <v>1</v>
       </c>
       <c r="CS93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -29870,7 +29870,7 @@
         <v>-0.1179794198849001</v>
       </c>
       <c r="BB94" t="n">
-        <v>-0.8639857773692542</v>
+        <v>-0.0803563055897327</v>
       </c>
       <c r="BC94" t="n">
         <v>-0.03587133700972018</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="BY94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ94" t="n">
         <v>0.1142567332180404</v>
@@ -29964,10 +29964,10 @@
         <v>0.898331521574452</v>
       </c>
       <c r="CF94" t="n">
-        <v>0.1805349249868571</v>
+        <v>0.1109141451031027</v>
       </c>
       <c r="CG94" t="n">
-        <v>0.8194650750131429</v>
+        <v>0.8890858548968974</v>
       </c>
       <c r="CH94" t="n">
         <v>5.895007253052629e-05</v>
@@ -29988,10 +29988,10 @@
         <v>2.209362754362551e-05</v>
       </c>
       <c r="CN94" t="n">
-        <v>-0.0004319325906384725</v>
+        <v>8.370661026862558e-05</v>
       </c>
       <c r="CO94" t="n">
-        <v>0.001190326202678695</v>
+        <v>0.0001590478008645143</v>
       </c>
       <c r="CP94" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="CS94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -30183,7 +30183,7 @@
         <v>-0.07740144871372559</v>
       </c>
       <c r="BB95" t="n">
-        <v>-0.9614559349549338</v>
+        <v>-0.04284027860316147</v>
       </c>
       <c r="BC95" t="n">
         <v>0.01629644560294989</v>
@@ -30256,7 +30256,7 @@
         <v>1</v>
       </c>
       <c r="BY95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ95" t="n">
         <v>0.08612898534345882</v>
@@ -30277,10 +30277,10 @@
         <v>0.9248217377561805</v>
       </c>
       <c r="CF95" t="n">
-        <v>0.1519742190612585</v>
+        <v>0.0835548359455338</v>
       </c>
       <c r="CG95" t="n">
-        <v>0.8480257809387415</v>
+        <v>0.9164451640544662</v>
       </c>
       <c r="CH95" t="n">
         <v>0.0002080897116470194</v>
@@ -30301,10 +30301,10 @@
         <v>-3.676052936163292e-05</v>
       </c>
       <c r="CN95" t="n">
-        <v>-0.0007672622954542217</v>
+        <v>0.000246220061257517</v>
       </c>
       <c r="CO95" t="n">
-        <v>0.0005320208872263248</v>
+        <v>2.527970887044803e-05</v>
       </c>
       <c r="CP95" t="n">
         <v>0</v>
@@ -30316,7 +30316,7 @@
         <v>1</v>
       </c>
       <c r="CS95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -30496,7 +30496,7 @@
         <v>-0.05720657093470918</v>
       </c>
       <c r="BB96" t="n">
-        <v>-1.013020938642389</v>
+        <v>-0.02558272997789661</v>
       </c>
       <c r="BC96" t="n">
         <v>0.03797576281480246</v>
@@ -30569,7 +30569,7 @@
         <v>1</v>
       </c>
       <c r="BY96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ96" t="n">
         <v>0.07436588470124411</v>
@@ -30590,10 +30590,10 @@
         <v>0.9355092778024632</v>
       </c>
       <c r="CF96" t="n">
-        <v>0.1392020559869343</v>
+        <v>0.07222073095773562</v>
       </c>
       <c r="CG96" t="n">
-        <v>0.8607979440130656</v>
+        <v>0.9277792690422644</v>
       </c>
       <c r="CH96" t="n">
         <v>4.277732072173685e-05</v>
@@ -30614,10 +30614,10 @@
         <v>-1.204347592847176e-05</v>
       </c>
       <c r="CN96" t="n">
-        <v>-0.00043742516490756</v>
+        <v>5.866518299464565e-05</v>
       </c>
       <c r="CO96" t="n">
-        <v>0.0005412983929530893</v>
+        <v>4.520804505088287e-05</v>
       </c>
       <c r="CP96" t="n">
         <v>0</v>
@@ -30629,7 +30629,7 @@
         <v>1</v>
       </c>
       <c r="CS96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -30809,7 +30809,7 @@
         <v>-0.03712603769313415</v>
       </c>
       <c r="BB97" t="n">
-        <v>-1.066584787420329</v>
+        <v>-0.009355763639016721</v>
       </c>
       <c r="BC97" t="n">
         <v>0.05703258776555131</v>
@@ -30882,7 +30882,7 @@
         <v>1</v>
       </c>
       <c r="BY97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ97" t="n">
         <v>0.06427756629197039</v>
@@ -30903,10 +30903,10 @@
         <v>0.9444860658109204</v>
       </c>
       <c r="CF97" t="n">
-        <v>0.1278999128411287</v>
+        <v>0.06256131491219985</v>
       </c>
       <c r="CG97" t="n">
-        <v>0.8721000871588713</v>
+        <v>0.9374386850878001</v>
       </c>
       <c r="CH97" t="n">
         <v>1.362219338896053e-05</v>
@@ -30927,10 +30927,10 @@
         <v>-1.917327267078953e-05</v>
       </c>
       <c r="CN97" t="n">
-        <v>-0.000457590223208768</v>
+        <v>2.633343407741894e-05</v>
       </c>
       <c r="CO97" t="n">
-        <v>0.0005169460907052201</v>
+        <v>3.302243341904779e-05</v>
       </c>
       <c r="CP97" t="n">
         <v>0</v>
@@ -30942,7 +30942,7 @@
         <v>1</v>
       </c>
       <c r="CS97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -31122,7 +31122,7 @@
         <v>-0.0171982402045223</v>
       </c>
       <c r="BB98" t="n">
-        <v>-1.122242780081906</v>
+        <v>0.005837738934020374</v>
       </c>
       <c r="BC98" t="n">
         <v>0.0737176086321826</v>
@@ -31195,7 +31195,7 @@
         <v>1</v>
       </c>
       <c r="BY98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ98" t="n">
         <v>0.05531000003089292</v>
@@ -31216,10 +31216,10 @@
         <v>0.9523185375173321</v>
       </c>
       <c r="CF98" t="n">
-        <v>0.1172947229678963</v>
+        <v>0.05401785411916016</v>
       </c>
       <c r="CG98" t="n">
-        <v>0.8827052770321037</v>
+        <v>0.9459821458808398</v>
       </c>
       <c r="CH98" t="n">
         <v>2.068369020044678e-05</v>
@@ -31240,10 +31240,10 @@
         <v>-1.782738296002631e-05</v>
       </c>
       <c r="CN98" t="n">
-        <v>-0.000438399834245125</v>
+        <v>3.025383702290004e-05</v>
       </c>
       <c r="CO98" t="n">
-        <v>0.0004977561262892978</v>
+        <v>2.910245502125899e-05</v>
       </c>
       <c r="CP98" t="n">
         <v>0</v>
@@ -31255,7 +31255,7 @@
         <v>1</v>
       </c>
       <c r="CS98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -31435,7 +31435,7 @@
         <v>0.002539140230681526</v>
       </c>
       <c r="BB99" t="n">
-        <v>-1.180100140578824</v>
+        <v>0.02000830151712095</v>
       </c>
       <c r="BC99" t="n">
         <v>0.08827727989500415</v>
@@ -31508,7 +31508,7 @@
         <v>0</v>
       </c>
       <c r="BY99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ99" t="n">
         <v>0.04746583279150104</v>
@@ -31529,10 +31529,10 @@
         <v>0.9590590108603511</v>
       </c>
       <c r="CF99" t="n">
-        <v>0.1075366253302562</v>
+        <v>0.04657850697669684</v>
       </c>
       <c r="CG99" t="n">
-        <v>0.8924633746697439</v>
+        <v>0.9534214930233031</v>
       </c>
       <c r="CH99" t="n">
         <v>1.942442226105694e-05</v>
@@ -31553,10 +31553,10 @@
         <v>2.772879078781834e-05</v>
       </c>
       <c r="CN99" t="n">
-        <v>-0.000425483772020282</v>
+        <v>2.599631035041521e-05</v>
       </c>
       <c r="CO99" t="n">
-        <v>0.00101419635655082</v>
+        <v>0.0001112361918094266</v>
       </c>
       <c r="CP99" t="n">
         <v>0</v>
@@ -31568,7 +31568,7 @@
         <v>0</v>
       </c>
       <c r="CS99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -31748,7 +31748,7 @@
         <v>0.04129766443612122</v>
       </c>
       <c r="BB100" t="n">
-        <v>-1.302889325766933</v>
+        <v>0.04537643210095699</v>
       </c>
       <c r="BC100" t="n">
         <v>0.1119396367749837</v>
@@ -31821,7 +31821,7 @@
         <v>0</v>
       </c>
       <c r="BY100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ100" t="n">
         <v>0.03492289224604597</v>
@@ -31842,10 +31842,10 @@
         <v>0.969622042314114</v>
       </c>
       <c r="CF100" t="n">
-        <v>0.09086939521791412</v>
+        <v>0.03475312956500125</v>
       </c>
       <c r="CG100" t="n">
-        <v>0.9091306047820858</v>
+        <v>0.9652468704349988</v>
       </c>
       <c r="CH100" t="n">
         <v>6.141605011689339e-05</v>
@@ -31866,10 +31866,10 @@
         <v>1.724507025193788e-05</v>
       </c>
       <c r="CN100" t="n">
-        <v>-0.0007673080789183868</v>
+        <v>6.393071006020065e-05</v>
       </c>
       <c r="CO100" t="n">
-        <v>0.000465268728746103</v>
+        <v>4.964933425680856e-05</v>
       </c>
       <c r="CP100" t="n">
         <v>0</v>
@@ -31881,7 +31881,7 @@
         <v>0</v>
       </c>
       <c r="CS100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -32061,7 +32061,7 @@
         <v>0.06025019753168645</v>
       </c>
       <c r="BB101" t="n">
-        <v>-1.368090370066883</v>
+        <v>0.05664228605952517</v>
       </c>
       <c r="BC101" t="n">
         <v>0.1214568392493099</v>
@@ -32155,10 +32155,10 @@
         <v>0.9735136319231324</v>
       </c>
       <c r="CF101" t="n">
-        <v>0.08439380293982804</v>
+        <v>0.03033917859854681</v>
       </c>
       <c r="CG101" t="n">
-        <v>0.915606197060172</v>
+        <v>0.9696608214014532</v>
       </c>
       <c r="CH101" t="n">
         <v>-1.594403331429202e-05</v>
@@ -32179,10 +32179,10 @@
         <v>9.881817645233937e-05</v>
       </c>
       <c r="CN101" t="n">
-        <v>-0.0004173079154192676</v>
+        <v>-1.695785689923181e-05</v>
       </c>
       <c r="CO101" t="n">
-        <v>0.001385474695777714</v>
+        <v>0.000184424520217618</v>
       </c>
       <c r="CP101" t="n">
         <v>1</v>
@@ -32374,7 +32374,7 @@
         <v>0.1150314893536022</v>
       </c>
       <c r="BB102" t="n">
-        <v>-1.580839413444064</v>
+        <v>0.08528344131950967</v>
       </c>
       <c r="BC102" t="n">
         <v>0.1428290660293465</v>
@@ -32447,7 +32447,7 @@
         <v>0</v>
       </c>
       <c r="BY102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ102" t="n">
         <v>0.0192650114889177</v>
@@ -32468,10 +32468,10 @@
         <v>0.9824430607940454</v>
       </c>
       <c r="CF102" t="n">
-        <v>0.06758053026864562</v>
+        <v>0.02011253612719078</v>
       </c>
       <c r="CG102" t="n">
-        <v>0.9324194697313544</v>
+        <v>0.9798874638728092</v>
       </c>
       <c r="CH102" t="n">
         <v>6.16345452792777e-05</v>
@@ -32492,10 +32492,10 @@
         <v>0.0001343202305391228</v>
       </c>
       <c r="CN102" t="n">
-        <v>-0.001011897331407036</v>
+        <v>4.280323106714627e-05</v>
       </c>
       <c r="CO102" t="n">
-        <v>0.001616298718291637</v>
+        <v>0.0002100313016593879</v>
       </c>
       <c r="CP102" t="n">
         <v>0</v>
@@ -32507,7 +32507,7 @@
         <v>0</v>
       </c>
       <c r="CS102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -32687,7 +32687,7 @@
         <v>0.182309199805725</v>
       </c>
       <c r="BB103" t="n">
-        <v>-1.91218675419248</v>
+        <v>0.1132213355107672</v>
       </c>
       <c r="BC103" t="n">
         <v>0.1593819690832102</v>
@@ -32760,7 +32760,7 @@
         <v>0</v>
       </c>
       <c r="BY103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ103" t="n">
         <v>0.01072795129563925</v>
@@ -32781,10 +32781,10 @@
         <v>0.9893656237277881</v>
       </c>
       <c r="CF103" t="n">
-        <v>0.052317869505585</v>
+        <v>0.01209981292174655</v>
       </c>
       <c r="CG103" t="n">
-        <v>0.947682130494415</v>
+        <v>0.9879001870782534</v>
       </c>
       <c r="CH103" t="n">
         <v>6.799257750232451e-05</v>
@@ -32805,10 +32805,10 @@
         <v>0.000259123943712268</v>
       </c>
       <c r="CN103" t="n">
-        <v>-0.001164133361182943</v>
+        <v>2.735036500070125e-05</v>
       </c>
       <c r="CO103" t="n">
-        <v>0.002728920251970884</v>
+        <v>0.0003459527996035952</v>
       </c>
       <c r="CP103" t="n">
         <v>0</v>
@@ -32820,7 +32820,7 @@
         <v>0</v>
       </c>
       <c r="CS103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -33000,7 +33000,7 @@
         <v>0.2937869789976801</v>
       </c>
       <c r="BB104" t="n">
-        <v>-2.814391716521754</v>
+        <v>0.1444587870181888</v>
       </c>
       <c r="BC104" t="n">
         <v>0.1704812228811864</v>
@@ -33073,7 +33073,7 @@
         <v>0</v>
       </c>
       <c r="BY104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ104" t="n">
         <v>0.003306003040951201</v>
@@ -33094,10 +33094,10 @@
         <v>0.9956706211600832</v>
       </c>
       <c r="CF104" t="n">
-        <v>0.03467011857627356</v>
+        <v>0.004812849051020405</v>
       </c>
       <c r="CG104" t="n">
-        <v>0.9653298814237264</v>
+        <v>0.9951871509489796</v>
       </c>
       <c r="CH104" t="n">
         <v>0.0001750908436802853</v>
@@ -33118,10 +33118,10 @@
         <v>5.883949763126756e-05</v>
       </c>
       <c r="CN104" t="n">
-        <v>-0.001683270122547864</v>
+        <v>8.580843416755503e-05</v>
       </c>
       <c r="CO104" t="n">
-        <v>0.001407133051829372</v>
+        <v>8.032413429279878e-05</v>
       </c>
       <c r="CP104" t="n">
         <v>0</v>
@@ -33133,7 +33133,7 @@
         <v>0</v>
       </c>
       <c r="CS104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -33313,7 +33313,7 @@
         <v>0.3568783620385486</v>
       </c>
       <c r="BB105" t="n">
-        <v>-3.846362645268801</v>
+        <v>0.154579164640473</v>
       </c>
       <c r="BC105" t="n">
         <v>0.1697346877592243</v>
@@ -33386,7 +33386,7 @@
         <v>0</v>
       </c>
       <c r="BY105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ105" t="n">
         <v>0.001243285252851808</v>
@@ -33407,10 +33407,10 @@
         <v>0.9977413471143832</v>
       </c>
       <c r="CF105" t="n">
-        <v>0.02664816044870476</v>
+        <v>0.002466005019142747</v>
       </c>
       <c r="CG105" t="n">
-        <v>0.9733518395512952</v>
+        <v>0.9975339949808573</v>
       </c>
       <c r="CH105" t="n">
         <v>7.830152553584863e-05</v>
@@ -33425,7 +33425,7 @@
       </c>
       <c r="CM105" t="inlineStr"/>
       <c r="CN105" t="n">
-        <v>-0.001050650166789923</v>
+        <v>2.396583056578792e-05</v>
       </c>
       <c r="CO105" t="inlineStr"/>
       <c r="CP105" t="n">
@@ -33438,7 +33438,7 @@
         <v>0</v>
       </c>
       <c r="CS105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -33618,7 +33618,7 @@
         <v>-0.7828847577948821</v>
       </c>
       <c r="BB106" t="n">
-        <v>-1.676005380538838</v>
+        <v>-0.8934553113888458</v>
       </c>
       <c r="BC106" t="n">
         <v>-0.580120901022029</v>
@@ -33691,7 +33691,7 @@
         <v>1</v>
       </c>
       <c r="BY106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ106" t="n">
         <v>0.9710815038564652</v>
@@ -33712,10 +33712,10 @@
         <v>0.0366051612462478</v>
       </c>
       <c r="CF106" t="n">
-        <v>1.004407150183481</v>
+        <v>0.9752073017267839</v>
       </c>
       <c r="CG106" t="n">
-        <v>-0.00440715018348059</v>
+        <v>0.02479269827321606</v>
       </c>
       <c r="CH106" t="inlineStr"/>
       <c r="CI106" t="n">
@@ -33731,7 +33731,7 @@
       </c>
       <c r="CN106" t="inlineStr"/>
       <c r="CO106" t="n">
-        <v>0.005424821392089501</v>
+        <v>0.001099507441295141</v>
       </c>
       <c r="CP106" t="n">
         <v>0</v>
@@ -33923,7 +33923,7 @@
         <v>-0.6461274869000885</v>
       </c>
       <c r="BB107" t="n">
-        <v>-1.360286056268231</v>
+        <v>-0.6463684897593241</v>
       </c>
       <c r="BC107" t="n">
         <v>-0.5362825508378813</v>
@@ -33996,7 +33996,7 @@
         <v>1</v>
       </c>
       <c r="BY107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ107" t="n">
         <v>0.9423953947513604</v>
@@ -34017,10 +34017,10 @@
         <v>0.06680917498294636</v>
       </c>
       <c r="CF107" t="n">
-        <v>1.000406522472728</v>
+        <v>0.942414971422772</v>
       </c>
       <c r="CG107" t="n">
-        <v>-0.0004065224727276551</v>
+        <v>0.05758502857722803</v>
       </c>
       <c r="CH107" t="n">
         <v>0.003760853365146588</v>
@@ -34041,10 +34041,10 @@
         <v>-0.0003144634483673785</v>
       </c>
       <c r="CN107" t="n">
-        <v>-0.004832216575153009</v>
+        <v>0.003757953512769197</v>
       </c>
       <c r="CO107" t="n">
-        <v>0.002672493771789607</v>
+        <v>9.544274541295038e-05</v>
       </c>
       <c r="CP107" t="n">
         <v>0</v>
@@ -34056,7 +34056,7 @@
         <v>1</v>
       </c>
       <c r="CS107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -34236,7 +34236,7 @@
         <v>-0.6100676087905396</v>
       </c>
       <c r="BB108" t="n">
-        <v>-1.42770475079278</v>
+        <v>-0.5931084470297271</v>
       </c>
       <c r="BC108" t="n">
         <v>-0.5298059298963338</v>
@@ -34309,7 +34309,7 @@
         <v>1</v>
       </c>
       <c r="BY108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ108" t="n">
         <v>0.9253524213289321</v>
@@ -34330,10 +34330,10 @@
         <v>0.0831960919503606</v>
       </c>
       <c r="CF108" t="n">
-        <v>1.008590520864739</v>
+        <v>0.923625923935194</v>
       </c>
       <c r="CG108" t="n">
-        <v>-0.008590520864739437</v>
+        <v>0.07637407606480595</v>
       </c>
       <c r="CH108" t="n">
         <v>0.000662789470070542</v>
@@ -34354,10 +34354,10 @@
         <v>-7.336108652354406e-05</v>
       </c>
       <c r="CN108" t="n">
-        <v>-0.003036177464916419</v>
+        <v>0.0007395122305419166</v>
       </c>
       <c r="CO108" t="n">
-        <v>0.004005487995457885</v>
+        <v>0.0002297982999995372</v>
       </c>
       <c r="CP108" t="n">
         <v>0</v>
@@ -34369,7 +34369,7 @@
         <v>1</v>
       </c>
       <c r="CS108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -34549,7 +34549,7 @@
         <v>-0.5745677547190575</v>
       </c>
       <c r="BB109" t="n">
-        <v>-1.950403543213992</v>
+        <v>-0.5461734936295644</v>
       </c>
       <c r="BC109" t="n">
         <v>-0.5253189488592481</v>
@@ -34643,10 +34643,10 @@
         <v>0.1053096158303285</v>
       </c>
       <c r="CF109" t="n">
-        <v>1.075422075154301</v>
+        <v>0.8978444825499254</v>
       </c>
       <c r="CG109" t="n">
-        <v>-0.0754220751543011</v>
+        <v>0.1021555174500746</v>
       </c>
       <c r="CH109" t="n">
         <v>0.0007563219715749289</v>
@@ -34667,10 +34667,10 @@
         <v>-6.416424097319389e-05</v>
       </c>
       <c r="CN109" t="n">
-        <v>-0.006975374512683451</v>
+        <v>0.0009158873866299475</v>
       </c>
       <c r="CO109" t="n">
-        <v>0.001274406583333924</v>
+        <v>-4.080373321829593e-05</v>
       </c>
       <c r="CP109" t="n">
         <v>1</v>
@@ -34862,7 +34862,7 @@
         <v>-0.5686447074507671</v>
       </c>
       <c r="BB110" t="n">
-        <v>-2.221802139946</v>
+        <v>-0.5388795921480167</v>
       </c>
       <c r="BC110" t="n">
         <v>-0.5247068351182653</v>
@@ -34935,7 +34935,7 @@
         <v>1</v>
       </c>
       <c r="BY110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ110" t="n">
         <v>0.8966380390993247</v>
@@ -34956,10 +34956,10 @@
         <v>0.1096609448837736</v>
       </c>
       <c r="CF110" t="n">
-        <v>1.113101950600929</v>
+        <v>0.8927406043129689</v>
       </c>
       <c r="CG110" t="n">
-        <v>-0.1131019506009294</v>
+        <v>0.1072593956870311</v>
       </c>
       <c r="CH110" t="n">
         <v>4.973913350894872e-05</v>
@@ -34980,10 +34980,10 @@
         <v>-3.566589709724875e-05</v>
       </c>
       <c r="CN110" t="n">
-        <v>-0.001553478735326727</v>
+        <v>7.860508649280753e-05</v>
       </c>
       <c r="CO110" t="n">
-        <v>0.00491394605545226</v>
+        <v>1.769458999360341e-05</v>
       </c>
       <c r="CP110" t="n">
         <v>0</v>
@@ -34995,7 +34995,7 @@
         <v>1</v>
       </c>
       <c r="CS110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -35175,7 +35175,7 @@
         <v>-0.5507857584847153</v>
       </c>
       <c r="BB111" t="n">
-        <v>-6.518197771118516</v>
+        <v>-0.5178074267939421</v>
       </c>
       <c r="BC111" t="n">
         <v>-0.5229993887128003</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="BY111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ111" t="n">
         <v>0.8804800646194758</v>
@@ -35269,10 +35269,10 @@
         <v>0.1241957406917285</v>
       </c>
       <c r="CF111" t="n">
-        <v>1.746022296786698</v>
+        <v>0.8756967282645616</v>
       </c>
       <c r="CG111" t="n">
-        <v>-0.7460222967866976</v>
+        <v>0.1243032717354384</v>
       </c>
       <c r="CH111" t="n">
         <v>0.0002547247178968613</v>
@@ -35293,10 +35293,10 @@
         <v>0.0001036734891871342</v>
       </c>
       <c r="CN111" t="n">
-        <v>-0.01897692590528983</v>
+        <v>0.000361006595513115</v>
       </c>
       <c r="CO111" t="n">
-        <v>0.01943921673688723</v>
+        <v>0.0001012842360843726</v>
       </c>
       <c r="CP111" t="n">
         <v>0</v>
@@ -35308,7 +35308,7 @@
         <v>0</v>
       </c>
       <c r="CS111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -35488,7 +35488,7 @@
         <v>-0.5327096085438012</v>
       </c>
       <c r="BB112" t="n">
-        <v>2.155360941149597</v>
+        <v>-0.4978598564469301</v>
       </c>
       <c r="BC112" t="n">
         <v>-0.5213376747218351</v>
@@ -35561,7 +35561,7 @@
         <v>0</v>
       </c>
       <c r="BY112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ112" t="n">
         <v>0.8612232345308272</v>
@@ -35582,10 +35582,10 @@
         <v>0.1413665711962948</v>
       </c>
       <c r="CF112" t="n">
-        <v>0.4308604680727067</v>
+        <v>0.8556437545858161</v>
       </c>
       <c r="CG112" t="n">
-        <v>0.5691395319272933</v>
+        <v>0.1443562454141839</v>
       </c>
       <c r="CH112" t="n">
         <v>0.0002203051265595411</v>
@@ -35606,10 +35606,10 @@
         <v>2.668280178163467e-05</v>
       </c>
       <c r="CN112" t="n">
-        <v>0.009782618851017524</v>
+        <v>0.0003442766729193948</v>
       </c>
       <c r="CO112" t="n">
-        <v>-0.003141573974561452</v>
+        <v>4.540084804621801e-06</v>
       </c>
       <c r="CP112" t="n">
         <v>0</v>
@@ -35621,7 +35621,7 @@
         <v>0</v>
       </c>
       <c r="CS112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -35801,7 +35801,7 @@
         <v>-0.5266176044602572</v>
       </c>
       <c r="BB113" t="n">
-        <v>1.221480512415141</v>
+        <v>-0.4914420040712792</v>
       </c>
       <c r="BC113" t="n">
         <v>-0.5207536750466079</v>
@@ -35895,10 +35895,10 @@
         <v>0.1477567773724416</v>
       </c>
       <c r="CF113" t="n">
-        <v>0.5650726387920234</v>
+        <v>0.8482147961986641</v>
       </c>
       <c r="CG113" t="n">
-        <v>0.4349273612079766</v>
+        <v>0.1517852038013359</v>
       </c>
       <c r="CH113" t="n">
         <v>7.417636816376555e-06</v>
@@ -35919,10 +35919,10 @@
         <v>-5.734468668170106e-06</v>
       </c>
       <c r="CN113" t="n">
-        <v>0.002147545229447332</v>
+        <v>5.048173731112948e-05</v>
       </c>
       <c r="CO113" t="n">
-        <v>-0.00213263409002002</v>
+        <v>-3.557059788384873e-05</v>
       </c>
       <c r="CP113" t="n">
         <v>0</v>
@@ -36114,7 +36114,7 @@
         <v>-0.5204857194510227</v>
       </c>
       <c r="BB114" t="n">
-        <v>0.7602349916088871</v>
+        <v>-0.4851336277177649</v>
       </c>
       <c r="BC114" t="n">
         <v>-0.520136936069738</v>
@@ -36208,10 +36208,10 @@
         <v>0.1543029838498773</v>
       </c>
       <c r="CF114" t="n">
-        <v>0.6283090548600792</v>
+        <v>0.8405976705974597</v>
       </c>
       <c r="CG114" t="n">
-        <v>0.3716909451399208</v>
+        <v>0.1594023294025403</v>
       </c>
       <c r="CH114" t="n">
         <v>4.735358885156991e-05</v>
@@ -36232,10 +36232,10 @@
         <v>3.525993504587162e-05</v>
       </c>
       <c r="CN114" t="n">
-        <v>0.001664280028143583</v>
+        <v>9.198606126663202e-05</v>
       </c>
       <c r="CO114" t="n">
-        <v>-0.001574801814241967</v>
+        <v>-2.507847364992743e-06</v>
       </c>
       <c r="CP114" t="n">
         <v>0</v>
@@ -36427,7 +36427,7 @@
         <v>-0.5143100030475928</v>
       </c>
       <c r="BB115" t="n">
-        <v>0.4883667910522851</v>
+        <v>-0.478931190600967</v>
       </c>
       <c r="BC115" t="n">
         <v>-0.5194750010373579</v>
@@ -36500,7 +36500,7 @@
         <v>0</v>
       </c>
       <c r="BY115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ115" t="n">
         <v>0.8386965127619547</v>
@@ -36521,10 +36521,10 @@
         <v>0.1613180483416148</v>
       </c>
       <c r="CF115" t="n">
-        <v>0.6624892075381001</v>
+        <v>0.832479150158249</v>
       </c>
       <c r="CG115" t="n">
-        <v>0.3375107924618999</v>
+        <v>0.167520849841751</v>
       </c>
       <c r="CH115" t="n">
         <v>1.658857884681997e-05</v>
@@ -36545,10 +36545,10 @@
         <v>0.0001306433381569323</v>
       </c>
       <c r="CN115" t="n">
-        <v>0.001321650001762925</v>
+        <v>6.263684044454081e-05</v>
       </c>
       <c r="CO115" t="n">
-        <v>-0.002479263817020213</v>
+        <v>3.87625056165351e-05</v>
       </c>
       <c r="CP115" t="n">
         <v>0</v>
@@ -36560,7 +36560,7 @@
         <v>0</v>
       </c>
       <c r="CS115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -36740,7 +36740,7 @@
         <v>-0.5018112518088927</v>
       </c>
       <c r="BB116" t="n">
-        <v>0.1880579825394191</v>
+        <v>-0.4668305326257778</v>
       </c>
       <c r="BC116" t="n">
         <v>-0.5179583235262986</v>
@@ -36813,7 +36813,7 @@
         <v>0</v>
       </c>
       <c r="BY116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ116" t="n">
         <v>0.8216863568646026</v>
@@ -36834,10 +36834,10 @@
         <v>0.1763495223705243</v>
       </c>
       <c r="CF116" t="n">
-        <v>0.6931472991490444</v>
+        <v>0.8151686163159061</v>
       </c>
       <c r="CG116" t="n">
-        <v>0.3068527008509556</v>
+        <v>0.1848313836840939</v>
       </c>
       <c r="CH116" t="n">
         <v>0.000121108938477674</v>
@@ -36858,10 +36858,10 @@
         <v>8.074637775569026e-05</v>
       </c>
       <c r="CN116" t="n">
-        <v>0.002025131763745313</v>
+        <v>0.0002176548988607994</v>
       </c>
       <c r="CO116" t="n">
-        <v>-0.0008858120948705018</v>
+        <v>1.792633757176192e-05</v>
       </c>
       <c r="CP116" t="n">
         <v>0</v>
@@ -36873,7 +36873,7 @@
         <v>0</v>
       </c>
       <c r="CS116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -37053,7 +37053,7 @@
         <v>-0.495480298251959</v>
       </c>
       <c r="BB117" t="n">
-        <v>0.09863223218187789</v>
+        <v>-0.460925766491815</v>
       </c>
       <c r="BC117" t="n">
         <v>-0.5170707314806472</v>
@@ -37126,7 +37126,7 @@
         <v>1</v>
       </c>
       <c r="BY117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ117" t="n">
         <v>0.8124264777161287</v>
@@ -37147,10 +37147,10 @@
         <v>0.1845481553521966</v>
       </c>
       <c r="CF117" t="n">
-        <v>0.698552106142066</v>
+        <v>0.8058033627544748</v>
       </c>
       <c r="CG117" t="n">
-        <v>0.301447893857934</v>
+        <v>0.1941966372455252</v>
       </c>
       <c r="CH117" t="n">
         <v>2.383032112533018e-06</v>
@@ -37171,10 +37171,10 @@
         <v>7.96754234183919e-05</v>
       </c>
       <c r="CN117" t="n">
-        <v>0.0008457819434761959</v>
+        <v>5.143645713944801e-05</v>
       </c>
       <c r="CO117" t="n">
-        <v>-0.000786130559364225</v>
+        <v>8.214926972511432e-06</v>
       </c>
       <c r="CP117" t="n">
         <v>0</v>
@@ -37186,7 +37186,7 @@
         <v>1</v>
       </c>
       <c r="CS117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -37366,7 +37366,7 @@
         <v>-0.4890896805203155</v>
       </c>
       <c r="BB118" t="n">
-        <v>0.03160457272649597</v>
+        <v>-0.4551138382203886</v>
       </c>
       <c r="BC118" t="n">
         <v>-0.5160718412934766</v>
@@ -37439,7 +37439,7 @@
         <v>1</v>
       </c>
       <c r="BY118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ118" t="n">
         <v>0.8027553015888814</v>
@@ -37460,10 +37460,10 @@
         <v>0.1931160947277804</v>
       </c>
       <c r="CF118" t="n">
-        <v>0.7001868394733805</v>
+        <v>0.7960626026162072</v>
       </c>
       <c r="CG118" t="n">
-        <v>0.2998131605266195</v>
+        <v>0.2039373973837928</v>
       </c>
       <c r="CH118" t="n">
         <v>1.436022697387171e-05</v>
@@ -37484,10 +37484,10 @@
         <v>0.0002561232803236532</v>
       </c>
       <c r="CN118" t="n">
-        <v>0.0007740230737821596</v>
+        <v>6.392901887685831e-05</v>
       </c>
       <c r="CO118" t="n">
-        <v>-0.00132435857694675</v>
+        <v>9.582953286386324e-05</v>
       </c>
       <c r="CP118" t="n">
         <v>0</v>
@@ -37499,7 +37499,7 @@
         <v>1</v>
       </c>
       <c r="CS118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -37679,7 +37679,7 @@
         <v>-0.476113644822953</v>
       </c>
       <c r="BB119" t="n">
-        <v>-0.05993421193791226</v>
+        <v>-0.4437564151865965</v>
       </c>
       <c r="BC119" t="n">
         <v>-0.5136512665985271</v>
@@ -37752,7 +37752,7 @@
         <v>0</v>
       </c>
       <c r="BY119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ119" t="n">
         <v>0.7820028739213569</v>
@@ -37773,10 +37773,10 @@
         <v>0.2115594528181789</v>
       </c>
       <c r="CF119" t="n">
-        <v>0.6956522730681807</v>
+        <v>0.7752892643571491</v>
       </c>
       <c r="CG119" t="n">
-        <v>0.3043477269318193</v>
+        <v>0.2247107356428509</v>
       </c>
       <c r="CH119" t="n">
         <v>0.0001124343584998286</v>
@@ -37797,10 +37797,10 @@
         <v>0.0001033088515190726</v>
       </c>
       <c r="CN119" t="n">
-        <v>0.001391528183536658</v>
+        <v>0.0002118816866300381</v>
       </c>
       <c r="CO119" t="n">
-        <v>-0.0005839180309920597</v>
+        <v>5.905217461254358e-06</v>
       </c>
       <c r="CP119" t="n">
         <v>0</v>
@@ -37812,7 +37812,7 @@
         <v>0</v>
       </c>
       <c r="CS119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -37992,7 +37992,7 @@
         <v>-0.4695203505363451</v>
       </c>
       <c r="BB120" t="n">
-        <v>-0.09164278271566587</v>
+        <v>-0.438205085873777</v>
       </c>
       <c r="BC120" t="n">
         <v>-0.5121786423946176</v>
@@ -38086,10 +38086,10 @@
         <v>0.2214538119102121</v>
       </c>
       <c r="CF120" t="n">
-        <v>0.6905723164453389</v>
+        <v>0.7642599506381029</v>
       </c>
       <c r="CG120" t="n">
-        <v>0.3094276835546611</v>
+        <v>0.2357400493618971</v>
       </c>
       <c r="CH120" t="n">
         <v>2.646756602426269e-05</v>
@@ -38110,10 +38110,10 @@
         <v>8.967639933876899e-05</v>
       </c>
       <c r="CN120" t="n">
-        <v>0.0006215422112729827</v>
+        <v>7.578226897797351e-05</v>
       </c>
       <c r="CO120" t="n">
-        <v>-0.0005618931026287284</v>
+        <v>-1.613316033372675e-05</v>
       </c>
       <c r="CP120" t="n">
         <v>0</v>
@@ -38305,7 +38305,7 @@
         <v>-0.4628516506454892</v>
       </c>
       <c r="BB121" t="n">
-        <v>-0.1169291245647776</v>
+        <v>-0.4327349167660973</v>
       </c>
       <c r="BC121" t="n">
         <v>-0.5104923160302219</v>
@@ -38378,7 +38378,7 @@
         <v>1</v>
       </c>
       <c r="BY121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ121" t="n">
         <v>0.7594029147907682</v>
@@ -38399,10 +38399,10 @@
         <v>0.2317688223572281</v>
       </c>
       <c r="CF121" t="n">
-        <v>0.6841135389525486</v>
+        <v>0.7528480652938142</v>
       </c>
       <c r="CG121" t="n">
-        <v>0.3158864610474514</v>
+        <v>0.2471519347061858</v>
       </c>
       <c r="CH121" t="n">
         <v>5.210630064152004e-05</v>
@@ -38423,10 +38423,10 @@
         <v>0.0003546310273794965</v>
       </c>
       <c r="CN121" t="n">
-        <v>0.000609729378964319</v>
+        <v>0.0001006541244711161</v>
       </c>
       <c r="CO121" t="n">
-        <v>-0.0008913863849172475</v>
+        <v>0.0001267641240691665</v>
       </c>
       <c r="CP121" t="n">
         <v>0</v>
@@ -38438,7 +38438,7 @@
         <v>1</v>
       </c>
       <c r="CS121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -38618,7 +38618,7 @@
         <v>-0.4492725345088509</v>
       </c>
       <c r="BB122" t="n">
-        <v>-0.15354290277802</v>
+        <v>-0.4220272045782066</v>
       </c>
       <c r="BC122" t="n">
         <v>-0.506342399364618</v>
@@ -38691,7 +38691,7 @@
         <v>1</v>
       </c>
       <c r="BY122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ122" t="n">
         <v>0.7346295083438437</v>
@@ -38712,10 +38712,10 @@
         <v>0.2541544360693757</v>
       </c>
       <c r="CF122" t="n">
-        <v>0.6673900688084455</v>
+        <v>0.7284347935843807</v>
       </c>
       <c r="CG122" t="n">
-        <v>0.3326099311915545</v>
+        <v>0.2715652064156193</v>
       </c>
       <c r="CH122" t="n">
         <v>0.0001431036413608866</v>
@@ -38736,10 +38736,10 @@
         <v>0.0003362010097390658</v>
       </c>
       <c r="CN122" t="n">
-        <v>0.001139107734660734</v>
+        <v>0.0002348646866623116</v>
       </c>
       <c r="CO122" t="n">
-        <v>-0.0008259442256092825</v>
+        <v>7.829882238914038e-05</v>
       </c>
       <c r="CP122" t="n">
         <v>0</v>
@@ -38751,7 +38751,7 @@
         <v>1</v>
       </c>
       <c r="CS122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -38931,7 +38931,7 @@
         <v>-0.4353457069284166</v>
       </c>
       <c r="BB123" t="n">
-        <v>-0.1772601322262473</v>
+        <v>-0.4116122271567986</v>
       </c>
       <c r="BC123" t="n">
         <v>-0.5008922199986409</v>
@@ -39004,7 +39004,7 @@
         <v>0</v>
       </c>
       <c r="BY123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ123" t="n">
         <v>0.7079110765751504</v>
@@ -39025,10 +39025,10 @@
         <v>0.2786064344379534</v>
       </c>
       <c r="CF123" t="n">
-        <v>0.6469080171505088</v>
+        <v>0.7023012517000782</v>
       </c>
       <c r="CG123" t="n">
-        <v>0.3530919828494912</v>
+        <v>0.2976987482999218</v>
       </c>
       <c r="CH123" t="n">
         <v>0.0002257148084823524</v>
@@ -39049,10 +39049,10 @@
         <v>0.000406460275250372</v>
       </c>
       <c r="CN123" t="n">
-        <v>0.001129340676136563</v>
+        <v>0.0003088119993107461</v>
       </c>
       <c r="CO123" t="n">
-        <v>-0.000696878949796551</v>
+        <v>0.000123649727029264</v>
       </c>
       <c r="CP123" t="n">
         <v>0</v>
@@ -39064,7 +39064,7 @@
         <v>0</v>
       </c>
       <c r="CS123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -39244,7 +39244,7 @@
         <v>-0.4210414661419128</v>
       </c>
       <c r="BB124" t="n">
-        <v>-0.1924010127353809</v>
+        <v>-0.4014699128525031</v>
       </c>
       <c r="BC124" t="n">
         <v>-0.4937687798776936</v>
@@ -39317,7 +39317,7 @@
         <v>1</v>
       </c>
       <c r="BY124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ124" t="n">
         <v>0.6789689553679247</v>
@@ -39338,10 +39338,10 @@
         <v>0.3055455160790593</v>
       </c>
       <c r="CF124" t="n">
-        <v>0.6230701626412292</v>
+        <v>0.6741840357075399</v>
       </c>
       <c r="CG124" t="n">
-        <v>0.3769298373587708</v>
+        <v>0.3258159642924601</v>
       </c>
       <c r="CH124" t="n">
         <v>0.0002219668160812222</v>
@@ -39362,10 +39362,10 @@
         <v>0.0003802297752510328</v>
       </c>
       <c r="CN124" t="n">
-        <v>0.001049984222993102</v>
+        <v>0.000292844854339485</v>
       </c>
       <c r="CO124" t="n">
-        <v>-0.0006771716052972696</v>
+        <v>7.996776335634712e-05</v>
       </c>
       <c r="CP124" t="n">
         <v>0</v>
@@ -39377,7 +39377,7 @@
         <v>1</v>
       </c>
       <c r="CS124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -39557,7 +39557,7 @@
         <v>-0.4063313888996977</v>
       </c>
       <c r="BB125" t="n">
-        <v>-0.2016281057814138</v>
+        <v>-0.3915810761411783</v>
       </c>
       <c r="BC125" t="n">
         <v>-0.4845325045048974</v>
@@ -39651,10 +39651,10 @@
         <v>0.3349549250491601</v>
       </c>
       <c r="CF125" t="n">
-        <v>0.5965208935325264</v>
+        <v>0.64428479606197</v>
       </c>
       <c r="CG125" t="n">
-        <v>0.4034791064674736</v>
+        <v>0.35571520393803</v>
       </c>
       <c r="CH125" t="n">
         <v>0.0003079831498139143</v>
@@ -39675,10 +39675,10 @@
         <v>0.0001437922709511502</v>
       </c>
       <c r="CN125" t="n">
-        <v>0.00107044050951627</v>
+        <v>0.0003629235706480334</v>
       </c>
       <c r="CO125" t="n">
-        <v>-0.0003637250853374299</v>
+        <v>-9.96661590330853e-06</v>
       </c>
       <c r="CP125" t="n">
         <v>0</v>
@@ -39870,7 +39870,7 @@
         <v>-0.3988157436812207</v>
       </c>
       <c r="BB126" t="n">
-        <v>-0.2045882489635124</v>
+        <v>-0.3867259385428309</v>
       </c>
       <c r="BC126" t="n">
         <v>-0.4789676039758601</v>
@@ -39943,7 +39943,7 @@
         <v>1</v>
       </c>
       <c r="BY126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ126" t="n">
         <v>0.6317033406341912</v>
@@ -39964,10 +39964,10 @@
         <v>0.3506854820573255</v>
       </c>
       <c r="CF126" t="n">
-        <v>0.5822848279864064</v>
+        <v>0.6286272561230404</v>
       </c>
       <c r="CG126" t="n">
-        <v>0.4177151720135936</v>
+        <v>0.3713727438769596</v>
       </c>
       <c r="CH126" t="n">
         <v>0.0001031498815010469</v>
@@ -39988,10 +39988,10 @@
         <v>0.0001764082774973401</v>
       </c>
       <c r="CN126" t="n">
-        <v>0.0004691630519117846</v>
+        <v>0.0001259325874963099</v>
       </c>
       <c r="CO126" t="n">
-        <v>-0.0003200402803012164</v>
+        <v>2.319018411425875e-05</v>
       </c>
       <c r="CP126" t="n">
         <v>0</v>
@@ -40003,7 +40003,7 @@
         <v>1</v>
       </c>
       <c r="CS126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -40183,7 +40183,7 @@
         <v>-0.3911888038837347</v>
       </c>
       <c r="BB127" t="n">
-        <v>-0.2066672630695557</v>
+        <v>-0.3819273367300643</v>
       </c>
       <c r="BC127" t="n">
         <v>-0.4726829091529313</v>
@@ -40256,7 +40256,7 @@
         <v>1</v>
       </c>
       <c r="BY127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ127" t="n">
         <v>0.6148544408548692</v>
@@ -40277,10 +40277,10 @@
         <v>0.367156143292596</v>
       </c>
       <c r="CF127" t="n">
-        <v>0.5674236550038163</v>
+        <v>0.612473804625115</v>
       </c>
       <c r="CG127" t="n">
-        <v>0.4325763449961837</v>
+        <v>0.387526195374885</v>
       </c>
       <c r="CH127" t="n">
         <v>7.881676655446118e-05</v>
@@ -40301,10 +40301,10 @@
         <v>0.0001737227742319276</v>
       </c>
       <c r="CN127" t="n">
-        <v>0.000430108041307037</v>
+        <v>9.644870582906431e-05</v>
       </c>
       <c r="CO127" t="n">
-        <v>-0.0003108052730830097</v>
+        <v>2.285406239495779e-05</v>
       </c>
       <c r="CP127" t="n">
         <v>0</v>
@@ -40316,7 +40316,7 @@
         <v>1</v>
       </c>
       <c r="CS127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -40496,7 +40496,7 @@
         <v>-0.383447601139086</v>
       </c>
       <c r="BB128" t="n">
-        <v>-0.2079956946844697</v>
+        <v>-0.3771830877492274</v>
       </c>
       <c r="BC128" t="n">
         <v>-0.4656096955309551</v>
@@ -40590,10 +40590,10 @@
         <v>0.3843208415863542</v>
       </c>
       <c r="CF128" t="n">
-        <v>0.5520318815067807</v>
+        <v>0.5958937150908047</v>
       </c>
       <c r="CG128" t="n">
-        <v>0.4479681184932193</v>
+        <v>0.4041062849091953</v>
       </c>
       <c r="CH128" t="n">
         <v>8.791613164122261e-05</v>
@@ -40614,10 +40614,10 @@
         <v>7.641874242233886e-05</v>
       </c>
       <c r="CN128" t="n">
-        <v>0.0004248028726474866</v>
+        <v>9.994467862338603e-05</v>
       </c>
       <c r="CO128" t="n">
-        <v>-0.0003949783183254227</v>
+        <v>-7.012012430131741e-05</v>
       </c>
       <c r="CP128" t="n">
         <v>1</v>
@@ -40809,7 +40809,7 @@
         <v>-0.3755893512792332</v>
       </c>
       <c r="BB129" t="n">
-        <v>-0.208682637952751</v>
+        <v>-0.3724910510849163</v>
       </c>
       <c r="BC129" t="n">
         <v>-0.4576791856903155</v>
@@ -40882,7 +40882,7 @@
         <v>0</v>
       </c>
       <c r="BY129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ129" t="n">
         <v>0.5797847382945672</v>
@@ -40903,10 +40903,10 @@
         <v>0.4021110578453361</v>
       </c>
       <c r="CF129" t="n">
-        <v>0.536219385924107</v>
+        <v>0.5789760318200059</v>
       </c>
       <c r="CG129" t="n">
-        <v>0.463780614075893</v>
+        <v>0.4210239681799941</v>
       </c>
       <c r="CH129" t="n">
         <v>0.0001894296169055662</v>
@@ -40927,10 +40927,10 @@
         <v>0.0003640846150208179</v>
       </c>
       <c r="CN129" t="n">
-        <v>0.0005120919530794549</v>
+        <v>0.0001954192188750861</v>
       </c>
       <c r="CO129" t="n">
-        <v>-0.0005494139337778115</v>
+        <v>8.393153463091656e-05</v>
       </c>
       <c r="CP129" t="n">
         <v>0</v>
@@ -40942,7 +40942,7 @@
         <v>0</v>
       </c>
       <c r="CS129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -41122,7 +41122,7 @@
         <v>-0.359511628913805</v>
       </c>
       <c r="BB130" t="n">
-        <v>-0.2084850825182863</v>
+        <v>-0.3632552563097702</v>
       </c>
       <c r="BC130" t="n">
         <v>-0.4389834667028658</v>
@@ -41195,7 +41195,7 @@
         <v>0</v>
       </c>
       <c r="BY130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ130" t="n">
         <v>0.5428358965861995</v>
@@ -41216,10 +41216,10 @@
         <v>0.4399403161775309</v>
       </c>
       <c r="CF130" t="n">
-        <v>0.5030980166898433</v>
+        <v>0.5438209142495709</v>
       </c>
       <c r="CG130" t="n">
-        <v>0.4969019833101567</v>
+        <v>0.4561790857504291</v>
       </c>
       <c r="CH130" t="n">
         <v>0.0004514049118653548</v>
@@ -41240,10 +41240,10 @@
         <v>0.0001514754487824889</v>
       </c>
       <c r="CN130" t="n">
-        <v>0.001040034015696475</v>
+        <v>0.0004368140462741258</v>
       </c>
       <c r="CO130" t="n">
-        <v>-0.0002704053254869894</v>
+        <v>3.120465922418951e-05</v>
       </c>
       <c r="CP130" t="n">
         <v>0</v>
@@ -41255,7 +41255,7 @@
         <v>0</v>
       </c>
       <c r="CS130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -41435,7 +41435,7 @@
         <v>-0.3512877149092118</v>
       </c>
       <c r="BB131" t="n">
-        <v>-0.2077443851629108</v>
+        <v>-0.3587074171852562</v>
       </c>
       <c r="BC131" t="n">
         <v>-0.4281010689827937</v>
@@ -41508,7 +41508,7 @@
         <v>1</v>
       </c>
       <c r="BY131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ131" t="n">
         <v>0.5237231970808868</v>
@@ -41529,10 +41529,10 @@
         <v>0.4599050300155061</v>
       </c>
       <c r="CF131" t="n">
-        <v>0.4859143491855044</v>
+        <v>0.5256775226164571</v>
       </c>
       <c r="CG131" t="n">
-        <v>0.5140856508144956</v>
+        <v>0.4743224773835429</v>
       </c>
       <c r="CH131" t="n">
         <v>0.0001176470318689079</v>
@@ -41553,10 +41553,10 @@
         <v>0.0007266226299868488</v>
       </c>
       <c r="CN131" t="n">
-        <v>0.0003976744051408668</v>
+        <v>0.0001031725192427008</v>
       </c>
       <c r="CO131" t="n">
-        <v>-0.0004772270852887589</v>
+        <v>0.0004062785724057317</v>
       </c>
       <c r="CP131" t="n">
         <v>0</v>
@@ -41568,7 +41568,7 @@
         <v>1</v>
       </c>
       <c r="CS131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -41748,7 +41748,7 @@
         <v>-0.3258550000705308</v>
       </c>
       <c r="BB132" t="n">
-        <v>-0.2036139318397818</v>
+        <v>-0.3453204414699504</v>
       </c>
       <c r="BC132" t="n">
         <v>-0.3888453994179807</v>
@@ -41821,7 +41821,7 @@
         <v>0</v>
       </c>
       <c r="BY132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ132" t="n">
         <v>0.4643577355097083</v>
@@ -41842,10 +41842,10 @@
         <v>0.5235089568881754</v>
       </c>
       <c r="CF132" t="n">
-        <v>0.4324709027394248</v>
+        <v>0.4694353357277577</v>
       </c>
       <c r="CG132" t="n">
-        <v>0.5675290972605752</v>
+        <v>0.5305646642722424</v>
       </c>
       <c r="CH132" t="n">
         <v>0.0009561976628351451</v>
@@ -41866,10 +41866,10 @@
         <v>0.0006555155233253073</v>
       </c>
       <c r="CN132" t="n">
-        <v>0.001664697380731744</v>
+        <v>0.0008433774794071956</v>
       </c>
       <c r="CO132" t="n">
-        <v>-0.0003225765079622814</v>
+        <v>0.0004987433933622727</v>
       </c>
       <c r="CP132" t="n">
         <v>0</v>
@@ -41881,7 +41881,7 @@
         <v>0</v>
       </c>
       <c r="CS132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -42061,7 +42061,7 @@
         <v>-0.2992602845016625</v>
       </c>
       <c r="BB133" t="n">
-        <v>-0.1974524944800446</v>
+        <v>-0.3322785576624859</v>
       </c>
       <c r="BC133" t="n">
         <v>-0.3397313800005885</v>
@@ -42134,7 +42134,7 @@
         <v>0</v>
       </c>
       <c r="BY133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ133" t="n">
         <v>0.4030198778781107</v>
@@ -42155,10 +42155,10 @@
         <v>0.5912531820631299</v>
       </c>
       <c r="CF133" t="n">
-        <v>0.3772731628397465</v>
+        <v>0.4113700450897756</v>
       </c>
       <c r="CG133" t="n">
-        <v>0.6227268371602535</v>
+        <v>0.5886299549102244</v>
       </c>
       <c r="CH133" t="n">
         <v>0.0009769545378007557</v>
@@ -42179,10 +42179,10 @@
         <v>5.975406482175601e-05</v>
       </c>
       <c r="CN133" t="n">
-        <v>0.001549025789682669</v>
+        <v>0.0007914205540252486</v>
       </c>
       <c r="CO133" t="n">
-        <v>-0.0001733523495419369</v>
+        <v>7.918272901052872e-05</v>
       </c>
       <c r="CP133" t="n">
         <v>0</v>
@@ -42194,7 +42194,7 @@
         <v>0</v>
       </c>
       <c r="CS133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -42374,7 +42374,7 @@
         <v>-0.2901362296724968</v>
       </c>
       <c r="BB134" t="n">
-        <v>-0.1950868552099902</v>
+        <v>-0.3279994647670065</v>
       </c>
       <c r="BC134" t="n">
         <v>-0.3214151789858314</v>
@@ -42447,7 +42447,7 @@
         <v>0</v>
       </c>
       <c r="BY134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ134" t="n">
         <v>0.3825172695963172</v>
@@ -42468,10 +42468,10 @@
         <v>0.6142017473797108</v>
       </c>
       <c r="CF134" t="n">
-        <v>0.3588463427378155</v>
+        <v>0.3919466622000732</v>
       </c>
       <c r="CG134" t="n">
-        <v>0.6411536572621845</v>
+        <v>0.6080533377999268</v>
       </c>
       <c r="CH134" t="n">
         <v>0.0001345124080482547</v>
@@ -42492,10 +42492,10 @@
         <v>9.273922479285587e-05</v>
       </c>
       <c r="CN134" t="n">
-        <v>0.0003098287120372016</v>
+        <v>6.467457406595474e-05</v>
       </c>
       <c r="CO134" t="n">
-        <v>-0.0003064939150232565</v>
+        <v>0.000183814360919252</v>
       </c>
       <c r="CP134" t="n">
         <v>0</v>
@@ -42507,7 +42507,7 @@
         <v>0</v>
       </c>
       <c r="CS134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -42687,7 +42687,7 @@
         <v>-0.2715042121009335</v>
       </c>
       <c r="BB135" t="n">
-        <v>-0.1900196365011844</v>
+        <v>-0.3195331748372601</v>
       </c>
       <c r="BC135" t="n">
         <v>-0.2825558240855023</v>
@@ -42760,7 +42760,7 @@
         <v>1</v>
       </c>
       <c r="BY135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ135" t="n">
         <v>0.3413860960309393</v>
@@ -42781,10 +42781,10 @@
         <v>0.66035895767856</v>
       </c>
       <c r="CF135" t="n">
-        <v>0.3218783690656365</v>
+        <v>0.352884418070305</v>
       </c>
       <c r="CG135" t="n">
-        <v>0.6781216309343634</v>
+        <v>0.647115581929695</v>
       </c>
       <c r="CH135" t="n">
         <v>0.0005651289856043757</v>
@@ -42805,10 +42805,10 @@
         <v>-1.961135865952146e-05</v>
       </c>
       <c r="CN135" t="n">
-        <v>0.00085409296333338</v>
+        <v>0.0003948066882083793</v>
       </c>
       <c r="CO135" t="n">
-        <v>-0.0001511687853199134</v>
+        <v>7.847435224258605e-05</v>
       </c>
       <c r="CP135" t="n">
         <v>1</v>
@@ -42820,7 +42820,7 @@
         <v>1</v>
       </c>
       <c r="CS135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -43000,7 +43000,7 @@
         <v>-0.2619995979588218</v>
       </c>
       <c r="BB136" t="n">
-        <v>-0.1873529637606113</v>
+        <v>-0.3153426447993422</v>
       </c>
       <c r="BC136" t="n">
         <v>-0.2623290788655442</v>
@@ -43073,7 +43073,7 @@
         <v>1</v>
       </c>
       <c r="BY136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ136" t="n">
         <v>0.3212043566523481</v>
@@ -43094,10 +43094,10 @@
         <v>0.6829937899251537</v>
       </c>
       <c r="CF136" t="n">
-        <v>0.3037547741585974</v>
+        <v>0.3336739596868273</v>
       </c>
       <c r="CG136" t="n">
-        <v>0.6962452258414026</v>
+        <v>0.6663260403131727</v>
       </c>
       <c r="CH136" t="n">
         <v>0.0001561607894711384</v>
@@ -43118,10 +43118,10 @@
         <v>-5.303775052764061e-05</v>
       </c>
       <c r="CN136" t="n">
-        <v>0.0002853993413555545</v>
+        <v>6.380594720905219e-05</v>
       </c>
       <c r="CO136" t="n">
-        <v>-0.0001511831582368785</v>
+        <v>7.041023590962422e-05</v>
       </c>
       <c r="CP136" t="n">
         <v>1</v>
@@ -43133,7 +43133,7 @@
         <v>1</v>
       </c>
       <c r="CS136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -43313,7 +43313,7 @@
         <v>-0.2523723734153674</v>
       </c>
       <c r="BB137" t="n">
-        <v>-0.1846174577502668</v>
+        <v>-0.3111783707235647</v>
       </c>
       <c r="BC137" t="n">
         <v>-0.2418102819103921</v>
@@ -43386,7 +43386,7 @@
         <v>0</v>
       </c>
       <c r="BY137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ137" t="n">
         <v>0.3012519882458853</v>
@@ -43407,10 +43407,10 @@
         <v>0.7052755698623081</v>
       </c>
       <c r="CF137" t="n">
-        <v>0.2858336582577429</v>
+        <v>0.3146338995489883</v>
       </c>
       <c r="CG137" t="n">
-        <v>0.7141663417422571</v>
+        <v>0.6853661004510117</v>
       </c>
       <c r="CH137" t="n">
         <v>0.0001697197866720383</v>
@@ -43431,10 +43431,10 @@
         <v>2.615304596241888e-05</v>
       </c>
       <c r="CN137" t="n">
-        <v>0.0002839140741776121</v>
+        <v>7.060802632601797e-05</v>
       </c>
       <c r="CO137" t="n">
-        <v>-0.0001055441431606786</v>
+        <v>0.0003210679525425027</v>
       </c>
       <c r="CP137" t="n">
         <v>0</v>
@@ -43446,7 +43446,7 @@
         <v>0</v>
       </c>
       <c r="CS137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -43626,7 +43626,7 @@
         <v>-0.2327628630857492</v>
       </c>
       <c r="BB138" t="n">
-        <v>-0.1789894974402708</v>
+        <v>-0.3029223873222742</v>
       </c>
       <c r="BC138" t="n">
         <v>-0.2006580585982079</v>
@@ -43720,10 +43720,10 @@
         <v>0.7480215607915133</v>
       </c>
       <c r="CF138" t="n">
-        <v>0.2510826556276646</v>
+        <v>0.2775697797204395</v>
       </c>
       <c r="CG138" t="n">
-        <v>0.7489173443723354</v>
+        <v>0.7224302202795605</v>
       </c>
       <c r="CH138" t="n">
         <v>0.0004500672280784756</v>
@@ -43744,10 +43744,10 @@
         <v>0.0001407801480965282</v>
       </c>
       <c r="CN138" t="n">
-        <v>0.0006203036519398901</v>
+        <v>0.0002279552891571177</v>
       </c>
       <c r="CO138" t="n">
-        <v>0.0001208765590859466</v>
+        <v>0.0007093991032601048</v>
       </c>
       <c r="CP138" t="n">
         <v>0</v>
@@ -43939,7 +43939,7 @@
         <v>-0.2025243920151114</v>
       </c>
       <c r="BB139" t="n">
-        <v>-0.1703062491346135</v>
+        <v>-0.2906977939789488</v>
       </c>
       <c r="BC139" t="n">
         <v>-0.141338835757323</v>
@@ -44033,10 +44033,10 @@
         <v>0.806139047301242</v>
       </c>
       <c r="CF139" t="n">
-        <v>0.2023864826577347</v>
+        <v>0.225261904067944</v>
       </c>
       <c r="CG139" t="n">
-        <v>0.7976135173422653</v>
+        <v>0.774738095932056</v>
       </c>
       <c r="CH139" t="n">
         <v>0.0008250934142141108</v>
@@ -44057,10 +44057,10 @@
         <v>0.000781593196812494</v>
       </c>
       <c r="CN139" t="n">
-        <v>0.0009611131468340983</v>
+        <v>0.0004528397246144041</v>
       </c>
       <c r="CO139" t="n">
-        <v>0.001097310534559671</v>
+        <v>0.001944432904925832</v>
       </c>
       <c r="CP139" t="n">
         <v>0</v>
@@ -44252,7 +44252,7 @@
         <v>-0.1503223528273116</v>
       </c>
       <c r="BB140" t="n">
-        <v>-0.1556811952513207</v>
+        <v>-0.2706603682225854</v>
       </c>
       <c r="BC140" t="n">
         <v>-0.05745673162854553</v>
@@ -44346,10 +44346,10 @@
         <v>0.8814023452651668</v>
       </c>
       <c r="CF140" t="n">
-        <v>0.1349753823708121</v>
+        <v>0.1519616041572462</v>
       </c>
       <c r="CG140" t="n">
-        <v>0.8650246176291879</v>
+        <v>0.8480383958427538</v>
       </c>
       <c r="CH140" t="n">
         <v>0.001428374050790906</v>
@@ -44370,10 +44370,10 @@
         <v>-0.0001222136512762859</v>
       </c>
       <c r="CN140" t="n">
-        <v>0.001399056637874691</v>
+        <v>0.0007700230473998322</v>
       </c>
       <c r="CO140" t="n">
-        <v>0.0001203862852653843</v>
+        <v>0.0003719997214553308</v>
       </c>
       <c r="CP140" t="n">
         <v>0</v>
@@ -44565,7 +44565,7 @@
         <v>-0.128989066364736</v>
       </c>
       <c r="BB141" t="n">
-        <v>-0.1498987441219889</v>
+        <v>-0.2627368009736076</v>
       </c>
       <c r="BC141" t="n">
         <v>-0.0305108072807943</v>
@@ -44638,7 +44638,7 @@
         <v>1</v>
       </c>
       <c r="BY141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ141" t="n">
         <v>0.1098865315755091</v>
@@ -44659,10 +44659,10 @@
         <v>0.9044774118987606</v>
       </c>
       <c r="CF141" t="n">
-        <v>0.1126203563932731</v>
+        <v>0.1273733087720924</v>
       </c>
       <c r="CG141" t="n">
-        <v>0.8873796436067269</v>
+        <v>0.8726266912279076</v>
       </c>
       <c r="CH141" t="n">
         <v>0.0002512497405696174</v>
@@ -44683,10 +44683,10 @@
         <v>-1.664476213125189e-05</v>
       </c>
       <c r="CN141" t="n">
-        <v>0.0002107541515570987</v>
+        <v>-7.778320740298205e-06</v>
       </c>
       <c r="CO141" t="n">
-        <v>0.0002366209896778864</v>
+        <v>0.0004551534619752808</v>
       </c>
       <c r="CP141" t="n">
         <v>0</v>
@@ -44698,7 +44698,7 @@
         <v>1</v>
       </c>
       <c r="CS141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -44878,7 +44878,7 @@
         <v>-0.1075087120236532</v>
       </c>
       <c r="BB142" t="n">
-        <v>-0.1441984847690762</v>
+        <v>-0.2548544389622407</v>
       </c>
       <c r="BC142" t="n">
         <v>-0.007326877474787935</v>
@@ -44951,7 +44951,7 @@
         <v>0</v>
       </c>
       <c r="BY142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ142" t="n">
         <v>0.08984481555827163</v>
@@ -44972,10 +44972,10 @@
         <v>0.9228978608257671</v>
       </c>
       <c r="CF142" t="n">
-        <v>0.09407866386950386</v>
+        <v>0.1068479041708618</v>
       </c>
       <c r="CG142" t="n">
-        <v>0.9059213361304961</v>
+        <v>0.8931520958291381</v>
       </c>
       <c r="CH142" t="n">
         <v>0.0001007484478951202</v>
@@ -44990,7 +44990,7 @@
       </c>
       <c r="CM142" t="inlineStr"/>
       <c r="CN142" t="n">
-        <v>3.803331705025457e-05</v>
+        <v>-0.0001511148331479087</v>
       </c>
       <c r="CO142" t="inlineStr"/>
       <c r="CP142" t="n">
@@ -45003,7 +45003,7 @@
         <v>0</v>
       </c>
       <c r="CS142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -45183,7 +45183,7 @@
         <v>-0.4831373588538909</v>
       </c>
       <c r="BB143" t="n">
-        <v>-1.65704984508928</v>
+        <v>-0.5819268328440813</v>
       </c>
       <c r="BC143" t="n">
         <v>-0.4662867089060485</v>
@@ -45256,7 +45256,7 @@
         <v>1</v>
       </c>
       <c r="BY143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ143" t="n">
         <v>0.9107147152319874</v>
@@ -45277,10 +45277,10 @@
         <v>0.09176998034635431</v>
       </c>
       <c r="CF143" t="n">
-        <v>1.045323336528839</v>
+        <v>0.9220425740361012</v>
       </c>
       <c r="CG143" t="n">
-        <v>-0.0453233365288388</v>
+        <v>0.07795742596389876</v>
       </c>
       <c r="CH143" t="inlineStr"/>
       <c r="CI143" t="n">
@@ -45296,7 +45296,7 @@
       </c>
       <c r="CN143" t="inlineStr"/>
       <c r="CO143" t="n">
-        <v>0.007656640178872643</v>
+        <v>0.0003521090931695092</v>
       </c>
       <c r="CP143" t="n">
         <v>1</v>
@@ -45488,7 +45488,7 @@
         <v>-0.4600965423865416</v>
       </c>
       <c r="BB144" t="n">
-        <v>-2.008331206234689</v>
+        <v>-0.522101911144351</v>
       </c>
       <c r="BC144" t="n">
         <v>-0.4539364399014598</v>
@@ -45582,10 +45582,10 @@
         <v>0.1172850207046092</v>
       </c>
       <c r="CF144" t="n">
-        <v>1.115110303280143</v>
+        <v>0.8936029532321922</v>
       </c>
       <c r="CG144" t="n">
-        <v>-0.115110303280143</v>
+        <v>0.1063970467678078</v>
       </c>
       <c r="CH144" t="n">
         <v>0.001880528233041641</v>
@@ -45606,10 +45606,10 @@
         <v>-0.0001903961761267575</v>
       </c>
       <c r="CN144" t="n">
-        <v>-0.01179160055472088</v>
+        <v>0.001332972098958968</v>
       </c>
       <c r="CO144" t="n">
-        <v>0.00325202832282675</v>
+        <v>-2.911484059320941e-05</v>
       </c>
       <c r="CP144" t="n">
         <v>1</v>
@@ -45801,7 +45801,7 @@
         <v>-0.4545463119113051</v>
       </c>
       <c r="BB145" t="n">
-        <v>-2.26974779341769</v>
+        <v>-0.5084335485652787</v>
       </c>
       <c r="BC145" t="n">
         <v>-0.4512743640041082</v>
@@ -45895,10 +45895,10 @@
         <v>0.12510400523667</v>
       </c>
       <c r="CF145" t="n">
-        <v>1.164154941731918</v>
+        <v>0.8847424763201157</v>
       </c>
       <c r="CG145" t="n">
-        <v>-0.1641549417319181</v>
+        <v>0.1152575236798843</v>
       </c>
       <c r="CH145" t="n">
         <v>0.0002869918988260296</v>
@@ -45919,10 +45919,10 @@
         <v>-0.0001860697158182659</v>
       </c>
       <c r="CN145" t="n">
-        <v>-0.003978516541495822</v>
+        <v>0.0001603632765408633</v>
       </c>
       <c r="CO145" t="n">
-        <v>0.004098664023710391</v>
+        <v>-4.021579432629606e-05</v>
       </c>
       <c r="CP145" t="n">
         <v>1</v>
@@ -46114,7 +46114,7 @@
         <v>-0.4490294579600069</v>
       </c>
       <c r="BB146" t="n">
-        <v>-2.759660842566653</v>
+        <v>-0.4952004848101095</v>
       </c>
       <c r="BC146" t="n">
         <v>-0.4487273461822068</v>
@@ -46187,7 +46187,7 @@
         <v>1</v>
       </c>
       <c r="BY146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ146" t="n">
         <v>0.8673808522380014</v>
@@ -46208,10 +46208,10 @@
         <v>0.1335009559172694</v>
       </c>
       <c r="CF146" t="n">
-        <v>1.256810816611733</v>
+        <v>0.8751624401888615</v>
       </c>
       <c r="CG146" t="n">
-        <v>-0.2568108166117331</v>
+        <v>0.1248375598111385</v>
       </c>
       <c r="CH146" t="n">
         <v>0.0002973899880970854</v>
@@ -46232,10 +46232,10 @@
         <v>-0.0001102658068794027</v>
       </c>
       <c r="CN146" t="n">
-        <v>-0.005471156585906627</v>
+        <v>0.0001821229141151688</v>
       </c>
       <c r="CO146" t="n">
-        <v>0.01145295142955663</v>
+        <v>0.0001463924295129967</v>
       </c>
       <c r="CP146" t="n">
         <v>1</v>
@@ -46247,7 +46247,7 @@
         <v>1</v>
       </c>
       <c r="CS146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -46427,7 +46427,7 @@
         <v>-0.4379937174304945</v>
       </c>
       <c r="BB147" t="n">
-        <v>-9.065709135878574</v>
+        <v>-0.4698991724289554</v>
       </c>
       <c r="BC147" t="n">
         <v>-0.4438442694842182</v>
@@ -46500,7 +46500,7 @@
         <v>0</v>
       </c>
       <c r="BY147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ147" t="n">
         <v>0.8471662527480308</v>
@@ -46521,10 +46521,10 @@
         <v>0.1526661315052278</v>
       </c>
       <c r="CF147" t="n">
-        <v>2.481250979343647</v>
+        <v>0.8532091290112638</v>
       </c>
       <c r="CG147" t="n">
-        <v>-1.481250979343647</v>
+        <v>0.1467908709887362</v>
       </c>
       <c r="CH147" t="n">
         <v>0.0006830111907589718</v>
@@ -46545,10 +46545,10 @@
         <v>5.7870457657371e-05</v>
       </c>
       <c r="CN147" t="n">
-        <v>-0.04772771583890872</v>
+        <v>0.0005039874054605827</v>
       </c>
       <c r="CO147" t="n">
-        <v>0.0484636317716375</v>
+        <v>0.0002319285272683741</v>
       </c>
       <c r="CP147" t="n">
         <v>0</v>
@@ -46560,7 +46560,7 @@
         <v>0</v>
       </c>
       <c r="CS147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -46740,7 +46740,7 @@
         <v>-0.4267810735879384</v>
       </c>
       <c r="BB148" t="n">
-        <v>2.671369061456906</v>
+        <v>-0.4459338220198779</v>
       </c>
       <c r="BC148" t="n">
         <v>-0.4389702147944859</v>
@@ -46813,7 +46813,7 @@
         <v>0</v>
       </c>
       <c r="BY148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ148" t="n">
         <v>0.8232360476361814</v>
@@ -46834,10 +46834,10 @@
         <v>0.1752416356200597</v>
       </c>
       <c r="CF148" t="n">
-        <v>0.1687841765429013</v>
+        <v>0.8272818657862048</v>
       </c>
       <c r="CG148" t="n">
-        <v>0.8312158234570987</v>
+        <v>0.1727181342137952</v>
       </c>
       <c r="CH148" t="n">
         <v>0.0006560417456746293</v>
@@ -46858,10 +46858,10 @@
         <v>1.742811739580651e-05</v>
       </c>
       <c r="CN148" t="n">
-        <v>0.02004456571257928</v>
+        <v>0.0005361819887815429</v>
       </c>
       <c r="CO148" t="n">
-        <v>-0.009699383633255048</v>
+        <v>5.480822864382083e-05</v>
       </c>
       <c r="CP148" t="n">
         <v>1</v>
@@ -46873,7 +46873,7 @@
         <v>0</v>
       </c>
       <c r="CS148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -47053,7 +47053,7 @@
         <v>-0.4210410248637712</v>
       </c>
       <c r="BB149" t="n">
-        <v>1.273817819162395</v>
+        <v>-0.4343764085326103</v>
       </c>
       <c r="BC149" t="n">
         <v>-0.4364097648871894</v>
@@ -47126,7 +47126,7 @@
         <v>0</v>
       </c>
       <c r="BY149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ149" t="n">
         <v>0.8096847567317248</v>
@@ -47147,10 +47147,10 @@
         <v>0.1880045800872786</v>
       </c>
       <c r="CF149" t="n">
-        <v>0.4327838247989862</v>
+        <v>0.8126502653640109</v>
       </c>
       <c r="CG149" t="n">
-        <v>0.5672161752010139</v>
+        <v>0.1873497346359891</v>
       </c>
       <c r="CH149" t="n">
         <v>0.0002058541559568101</v>
@@ -47171,10 +47171,10 @@
         <v>3.863361164526107e-05</v>
       </c>
       <c r="CN149" t="n">
-        <v>0.005788810729768059</v>
+        <v>0.0001619266818897788</v>
       </c>
       <c r="CO149" t="n">
-        <v>-0.005578550344226458</v>
+        <v>4.83337036518241e-05</v>
       </c>
       <c r="CP149" t="n">
         <v>0</v>
@@ -47186,7 +47186,7 @@
         <v>0</v>
       </c>
       <c r="CS149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -47366,7 +47366,7 @@
         <v>-0.4151745226280577</v>
       </c>
       <c r="BB150" t="n">
-        <v>0.7109268341904205</v>
+        <v>-0.423064703846426</v>
       </c>
       <c r="BC150" t="n">
         <v>-0.4336819765320861</v>
@@ -47439,7 +47439,7 @@
         <v>0</v>
       </c>
       <c r="BY150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ150" t="n">
         <v>0.7950783383679219</v>
@@ -47460,10 +47460,10 @@
         <v>0.2017583068148122</v>
       </c>
       <c r="CF150" t="n">
-        <v>0.53212173932693</v>
+        <v>0.7969207792871487</v>
       </c>
       <c r="CG150" t="n">
-        <v>0.46787826067307</v>
+        <v>0.2030792207128513</v>
       </c>
       <c r="CH150" t="n">
         <v>0.0002119556642578534</v>
@@ -47484,10 +47484,10 @@
         <v>0.0009765415520164664</v>
       </c>
       <c r="CN150" t="n">
-        <v>0.004107078092623052</v>
+        <v>0.0001846639629900747</v>
       </c>
       <c r="CO150" t="n">
-        <v>-0.01084940012074477</v>
+        <v>0.0009178422681541589</v>
       </c>
       <c r="CP150" t="n">
         <v>0</v>
@@ -47499,7 +47499,7 @@
         <v>0</v>
       </c>
       <c r="CS150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -47679,7 +47679,7 @@
         <v>-0.3965226716055809</v>
       </c>
       <c r="BB151" t="n">
-        <v>0.1204621929916617</v>
+        <v>-0.3903394219025299</v>
       </c>
       <c r="BC151" t="n">
         <v>-0.4236443844489813</v>
@@ -47752,7 +47752,7 @@
         <v>0</v>
       </c>
       <c r="BY151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ151" t="n">
         <v>0.7441210158508011</v>
@@ -47773,10 +47773,10 @@
         <v>0.2499367915453984</v>
       </c>
       <c r="CF151" t="n">
-        <v>0.60662250224318</v>
+        <v>0.7424765041800453</v>
       </c>
       <c r="CG151" t="n">
-        <v>0.39337749775682</v>
+        <v>0.2575234958199547</v>
       </c>
       <c r="CH151" t="n">
         <v>0.001428494087617249</v>
@@ -47797,10 +47797,10 @@
         <v>0.0001425163367268713</v>
       </c>
       <c r="CN151" t="n">
-        <v>0.007538706337545598</v>
+        <v>0.001501573534748418</v>
       </c>
       <c r="CO151" t="n">
-        <v>-0.001982241566068918</v>
+        <v>3.013603486347631e-05</v>
       </c>
       <c r="CP151" t="n">
         <v>0</v>
@@ -47812,7 +47812,7 @@
         <v>0</v>
       </c>
       <c r="CS151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -47992,7 +47992,7 @@
         <v>-0.3898526040718217</v>
       </c>
       <c r="BB152" t="n">
-        <v>0.04155222666344158</v>
+        <v>-0.379751068628614</v>
       </c>
       <c r="BC152" t="n">
         <v>-0.4193186699907436</v>
@@ -48086,10 +48086,10 @@
         <v>0.2685494730657826</v>
       </c>
       <c r="CF152" t="n">
-        <v>0.6055055894065368</v>
+        <v>0.7218120539424201</v>
       </c>
       <c r="CG152" t="n">
-        <v>0.3944944105934632</v>
+        <v>0.2781879460575799</v>
       </c>
       <c r="CH152" t="n">
         <v>0.0002346543189435269</v>
@@ -48110,10 +48110,10 @@
         <v>0.0001371446111307481</v>
       </c>
       <c r="CN152" t="n">
-        <v>0.001998786167940126</v>
+        <v>0.0002759622485945662</v>
       </c>
       <c r="CO152" t="n">
-        <v>-0.001728452041291153</v>
+        <v>-5.62812194559309e-06</v>
       </c>
       <c r="CP152" t="n">
         <v>0</v>
@@ -48305,7 +48305,7 @@
         <v>-0.3829031704531161</v>
       </c>
       <c r="BB153" t="n">
-        <v>-0.01395445025866421</v>
+        <v>-0.3692835604248709</v>
       </c>
       <c r="BC153" t="n">
         <v>-0.4142750388034059</v>
@@ -48399,10 +48399,10 @@
         <v>0.288546417571791</v>
       </c>
       <c r="CF153" t="n">
-        <v>0.5984107682003814</v>
+        <v>0.699884421099863</v>
       </c>
       <c r="CG153" t="n">
-        <v>0.4015892317996186</v>
+        <v>0.300115578900137</v>
       </c>
       <c r="CH153" t="n">
         <v>0.0002728241770611137</v>
@@ -48423,10 +48423,10 @@
         <v>0.0001713464049167036</v>
       </c>
       <c r="CN153" t="n">
-        <v>0.001833546179662708</v>
+        <v>0.0003304376714966858</v>
       </c>
       <c r="CO153" t="n">
-        <v>-0.001503133728573657</v>
+        <v>-2.52204076364379e-08</v>
       </c>
       <c r="CP153" t="n">
         <v>0</v>
@@ -48618,7 +48618,7 @@
         <v>-0.3756415683932428</v>
       </c>
       <c r="BB154" t="n">
-        <v>-0.05377779655699907</v>
+        <v>-0.358914888534095</v>
       </c>
       <c r="BC154" t="n">
         <v>-0.4083446002302638</v>
@@ -48691,7 +48691,7 @@
         <v>0</v>
       </c>
       <c r="BY154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ154" t="n">
         <v>0.681500855687077</v>
@@ -48712,10 +48712,10 @@
         <v>0.3101222574563199</v>
       </c>
       <c r="CF154" t="n">
-        <v>0.5867519848810393</v>
+        <v>0.6765769277161009</v>
       </c>
       <c r="CG154" t="n">
-        <v>0.4132480151189607</v>
+        <v>0.3234230722838991</v>
       </c>
       <c r="CH154" t="n">
         <v>0.0002723372225167924</v>
@@ -48736,10 +48736,10 @@
         <v>0.0001971776331795077</v>
       </c>
       <c r="CN154" t="n">
-        <v>0.001675832906157505</v>
+        <v>0.0003452743625062468</v>
       </c>
       <c r="CO154" t="n">
-        <v>-0.001330403165624814</v>
+        <v>1.553780264451632e-07</v>
       </c>
       <c r="CP154" t="n">
         <v>0</v>
@@ -48751,7 +48751,7 @@
         <v>0</v>
       </c>
       <c r="CS154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -48931,7 +48931,7 @@
         <v>-0.3680345182772957</v>
       </c>
       <c r="BB155" t="n">
-        <v>-0.08266354023334499</v>
+        <v>-0.3486241579342128</v>
       </c>
       <c r="BC155" t="n">
         <v>-0.4013362770653389</v>
@@ -49004,7 +49004,7 @@
         <v>0</v>
       </c>
       <c r="BY155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ155" t="n">
         <v>0.6577684000889874</v>
@@ -49025,10 +49025,10 @@
         <v>0.3333558795552582</v>
       </c>
       <c r="CF155" t="n">
-        <v>0.5715028038868523</v>
+        <v>0.6519007876254788</v>
       </c>
       <c r="CG155" t="n">
-        <v>0.4284971961131477</v>
+        <v>0.3480992123745212</v>
       </c>
       <c r="CH155" t="n">
         <v>0.0002784515026226213</v>
@@ -49049,10 +49049,10 @@
         <v>0.000228484759098182</v>
       </c>
       <c r="CN155" t="n">
-        <v>0.00155628617111425</v>
+        <v>0.000365367248380365</v>
       </c>
       <c r="CO155" t="n">
-        <v>-0.001180824143360882</v>
+        <v>1.009477937300406e-05</v>
       </c>
       <c r="CP155" t="n">
         <v>0</v>
@@ -49064,7 +49064,7 @@
         <v>0</v>
       </c>
       <c r="CS155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -49244,7 +49244,7 @@
         <v>-0.3600484850701848</v>
       </c>
       <c r="BB156" t="n">
-        <v>-0.1036859553122363</v>
+        <v>-0.3383917182419868</v>
       </c>
       <c r="BC156" t="n">
         <v>-0.393038847743485</v>
@@ -49317,7 +49317,7 @@
         <v>0</v>
       </c>
       <c r="BY156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ156" t="n">
         <v>0.6325571852805184</v>
@@ -49338,10 +49338,10 @@
         <v>0.3583401696210774</v>
       </c>
       <c r="CF156" t="n">
-        <v>0.5533012433049529</v>
+        <v>0.6258618719805029</v>
       </c>
       <c r="CG156" t="n">
-        <v>0.4466987566950471</v>
+        <v>0.3741381280194971</v>
       </c>
       <c r="CH156" t="n">
         <v>0.0002764380538550579</v>
@@ -49362,10 +49362,10 @@
         <v>0.0007681245677185339</v>
       </c>
       <c r="CN156" t="n">
-        <v>0.001450440145059894</v>
+        <v>0.0003756143631583157</v>
       </c>
       <c r="CO156" t="n">
-        <v>-0.001849550862414544</v>
+        <v>0.0003001007013886184</v>
       </c>
       <c r="CP156" t="n">
         <v>0</v>
@@ -49377,7 +49377,7 @@
         <v>0</v>
       </c>
       <c r="CS156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -49557,7 +49557,7 @@
         <v>-0.3428058756763856</v>
       </c>
       <c r="BB157" t="n">
-        <v>-0.1298181840316298</v>
+        <v>-0.3180304066380532</v>
       </c>
       <c r="BC157" t="n">
         <v>-0.3716687013206863</v>
@@ -49651,10 +49651,10 @@
         <v>0.4136333493471063</v>
       </c>
       <c r="CF157" t="n">
-        <v>0.5099918790488062</v>
+        <v>0.5700332758099381</v>
       </c>
       <c r="CG157" t="n">
-        <v>0.4900081209511938</v>
+        <v>0.4299667241900619</v>
       </c>
       <c r="CH157" t="n">
         <v>0.001119705726851567</v>
@@ -49675,10 +49675,10 @@
         <v>0.0001807726908946315</v>
       </c>
       <c r="CN157" t="n">
-        <v>0.003132616407737163</v>
+        <v>0.001353854497919475</v>
       </c>
       <c r="CO157" t="n">
-        <v>-0.0009505512116858694</v>
+        <v>-6.117025677702774e-05</v>
       </c>
       <c r="CP157" t="n">
         <v>0</v>
@@ -49870,7 +49870,7 @@
         <v>-0.3334839666355437</v>
       </c>
       <c r="BB158" t="n">
-        <v>-0.1374182046873955</v>
+        <v>-0.3078702087248167</v>
       </c>
       <c r="BC158" t="n">
         <v>-0.358147651976141</v>
@@ -49964,10 +49964,10 @@
         <v>0.4440752605239628</v>
       </c>
       <c r="CF158" t="n">
-        <v>0.4854729600790603</v>
+        <v>0.5402990620420085</v>
       </c>
       <c r="CG158" t="n">
-        <v>0.5145270399209396</v>
+        <v>0.4597009379579915</v>
       </c>
       <c r="CH158" t="n">
         <v>0.0003795789514196343</v>
@@ -49988,10 +49988,10 @@
         <v>0.0002058518620287209</v>
       </c>
       <c r="CN158" t="n">
-        <v>0.00131374495372024</v>
+        <v>0.000501617096140116</v>
       </c>
       <c r="CO158" t="n">
-        <v>-0.0008377359659558535</v>
+        <v>-2.560810837573535e-05</v>
       </c>
       <c r="CP158" t="n">
         <v>0</v>
@@ -50183,7 +50183,7 @@
         <v>-0.3236534081254052</v>
       </c>
       <c r="BB159" t="n">
-        <v>-0.1424852776268762</v>
+        <v>-0.2977061884934846</v>
       </c>
       <c r="BC159" t="n">
         <v>-0.3424810106800135</v>
@@ -50277,10 +50277,10 @@
         <v>0.4763310721777163</v>
       </c>
       <c r="CF159" t="n">
-        <v>0.4594280903926695</v>
+        <v>0.5094935375300053</v>
       </c>
       <c r="CG159" t="n">
-        <v>0.5405719096073305</v>
+        <v>0.4905064624699947</v>
       </c>
       <c r="CH159" t="n">
         <v>0.0003579543015164452</v>
@@ -50301,10 +50301,10 @@
         <v>1.870416609705368e-05</v>
       </c>
       <c r="CN159" t="n">
-        <v>0.001223533304487338</v>
+        <v>0.0004819240551208028</v>
       </c>
       <c r="CO159" t="n">
-        <v>-0.000457089040085323</v>
+        <v>-8.62844154020494e-05</v>
       </c>
       <c r="CP159" t="n">
         <v>1</v>
@@ -50496,7 +50496,7 @@
         <v>-0.3185382893320585</v>
       </c>
       <c r="BB160" t="n">
-        <v>-0.1442536154706966</v>
+        <v>-0.292619491823622</v>
       </c>
       <c r="BC160" t="n">
         <v>-0.333803247129619</v>
@@ -50569,7 +50569,7 @@
         <v>0</v>
       </c>
       <c r="BY160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ160" t="n">
         <v>0.5020961444686626</v>
@@ -50590,10 +50590,10 @@
         <v>0.493094342319891</v>
       </c>
       <c r="CF160" t="n">
-        <v>0.4459266108785666</v>
+        <v>0.4937428754461489</v>
       </c>
       <c r="CG160" t="n">
-        <v>0.5540733891214333</v>
+        <v>0.5062571245538512</v>
       </c>
       <c r="CH160" t="n">
         <v>0.0001410724521536534</v>
@@ -50614,10 +50614,10 @@
         <v>0.0003895206286467241</v>
       </c>
       <c r="CN160" t="n">
-        <v>0.0005570863701833172</v>
+        <v>0.000202940086657645</v>
       </c>
       <c r="CO160" t="n">
-        <v>-0.0009653846317076165</v>
+        <v>9.705421886938709e-05</v>
       </c>
       <c r="CP160" t="n">
         <v>0</v>
@@ -50629,7 +50629,7 @@
         <v>0</v>
       </c>
       <c r="CS160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -50809,7 +50809,7 @@
         <v>-0.3023539708120268</v>
       </c>
       <c r="BB161" t="n">
-        <v>-0.1471724896738802</v>
+        <v>-0.2773292086860085</v>
       </c>
       <c r="BC161" t="n">
         <v>-0.3043452312727594</v>
@@ -50882,7 +50882,7 @@
         <v>0</v>
       </c>
       <c r="BY161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ161" t="n">
         <v>0.4533251110480737</v>
@@ -50903,10 +50903,10 @@
         <v>0.5456334498457768</v>
       </c>
       <c r="CF161" t="n">
-        <v>0.4038984032050982</v>
+        <v>0.4453544975613939</v>
       </c>
       <c r="CG161" t="n">
-        <v>0.5961015967949017</v>
+        <v>0.5546455024386061</v>
       </c>
       <c r="CH161" t="n">
         <v>0.0008009959224019123</v>
@@ -50927,10 +50927,10 @@
         <v>0.0007250500229756575</v>
       </c>
       <c r="CN161" t="n">
-        <v>0.001899217524264519</v>
+        <v>0.0009780965283936842</v>
       </c>
       <c r="CO161" t="n">
-        <v>-0.0007700986959878302</v>
+        <v>0.0004580626318399506</v>
       </c>
       <c r="CP161" t="n">
         <v>0</v>
@@ -50942,7 +50942,7 @@
         <v>0</v>
       </c>
       <c r="CS161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -51122,7 +51122,7 @@
         <v>-0.2787157396161843</v>
       </c>
       <c r="BB162" t="n">
-        <v>-0.1470275698098776</v>
+        <v>-0.2568546136729333</v>
       </c>
       <c r="BC162" t="n">
         <v>-0.2577029599915803</v>
@@ -51195,7 +51195,7 @@
         <v>0</v>
       </c>
       <c r="BY162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ162" t="n">
         <v>0.3860628872012092</v>
@@ -51216,10 +51216,10 @@
         <v>0.6192476349208866</v>
       </c>
       <c r="CF162" t="n">
-        <v>0.3457503445156714</v>
+        <v>0.3793707327424036</v>
       </c>
       <c r="CG162" t="n">
-        <v>0.6542496554843287</v>
+        <v>0.6206292672575964</v>
       </c>
       <c r="CH162" t="n">
         <v>0.001298486412147686</v>
@@ -51240,10 +51240,10 @@
         <v>0.0005717082189034758</v>
       </c>
       <c r="CN162" t="n">
-        <v>0.002492769345008328</v>
+        <v>0.001496745448214048</v>
       </c>
       <c r="CO162" t="n">
-        <v>-0.0004652473534760594</v>
+        <v>0.0005307765433182308</v>
       </c>
       <c r="CP162" t="n">
         <v>0</v>
@@ -51255,7 +51255,7 @@
         <v>0</v>
       </c>
       <c r="CS162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -51435,7 +51435,7 @@
         <v>-0.2526199532167142</v>
       </c>
       <c r="BB163" t="n">
-        <v>-0.1439557931086655</v>
+        <v>-0.2362925229720935</v>
       </c>
       <c r="BC163" t="n">
         <v>-0.2052638553282171</v>
@@ -51508,7 +51508,7 @@
         <v>0</v>
       </c>
       <c r="BY163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ163" t="n">
         <v>0.3185231608789786</v>
@@ -51529,10 +51529,10 @@
         <v>0.6933020338031401</v>
       </c>
       <c r="CF163" t="n">
-        <v>0.2875129980486043</v>
+        <v>0.3138637012191992</v>
       </c>
       <c r="CG163" t="n">
-        <v>0.7124870019513957</v>
+        <v>0.6861362987808008</v>
       </c>
       <c r="CH163" t="n">
         <v>0.001271868780976073</v>
@@ -51553,10 +51553,10 @@
         <v>0.0004053179452898799</v>
       </c>
       <c r="CN163" t="n">
-        <v>0.002190563205747053</v>
+        <v>0.001409908030731053</v>
       </c>
       <c r="CO163" t="n">
-        <v>-0.0001630480892137291</v>
+        <v>0.0006176070858022638</v>
       </c>
       <c r="CP163" t="n">
         <v>0</v>
@@ -51568,7 +51568,7 @@
         <v>0</v>
       </c>
       <c r="CS163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -51748,7 +51748,7 @@
         <v>-0.224052572150858</v>
       </c>
       <c r="BB164" t="n">
-        <v>-0.1391542570059402</v>
+        <v>-0.2157152775463066</v>
       </c>
       <c r="BC164" t="n">
         <v>-0.1515919680845096</v>
@@ -51821,7 +51821,7 @@
         <v>1</v>
       </c>
       <c r="BY164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ164" t="n">
         <v>0.2537415516337862</v>
@@ -51842,10 +51842,10 @@
         <v>0.7629517688295105</v>
       </c>
       <c r="CF164" t="n">
-        <v>0.2318920998930321</v>
+        <v>0.2515958633972217</v>
       </c>
       <c r="CG164" t="n">
-        <v>0.7681079001069679</v>
+        <v>0.7484041366027783</v>
       </c>
       <c r="CH164" t="n">
         <v>0.001163547174221942</v>
@@ -51866,10 +51866,10 @@
         <v>-0.0001066399426361995</v>
       </c>
       <c r="CN164" t="n">
-        <v>0.001810850111917962</v>
+        <v>0.001227114457986659</v>
       </c>
       <c r="CO164" t="n">
-        <v>-0.0001448283027223598</v>
+        <v>1.105610760463414e-06</v>
       </c>
       <c r="CP164" t="n">
         <v>0</v>
@@ -51881,7 +51881,7 @@
         <v>1</v>
       </c>
       <c r="CS164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -52061,7 +52061,7 @@
         <v>-0.2165354658507959</v>
       </c>
       <c r="BB165" t="n">
-        <v>-0.1377807119438715</v>
+        <v>-0.2105831952923475</v>
       </c>
       <c r="BC165" t="n">
         <v>-0.138565320986346</v>
@@ -52155,10 +52155,10 @@
         <v>0.7791257432629313</v>
       </c>
       <c r="CF165" t="n">
-        <v>0.2187095091364952</v>
+        <v>0.2368710485362809</v>
       </c>
       <c r="CG165" t="n">
-        <v>0.7812904908635048</v>
+        <v>0.7631289514637191</v>
       </c>
       <c r="CH165" t="n">
         <v>9.695467203937338e-05</v>
@@ -52179,10 +52179,10 @@
         <v>-0.0001363179302795231</v>
       </c>
       <c r="CN165" t="n">
-        <v>0.0002424638157823564</v>
+        <v>0.0001079522277337255</v>
       </c>
       <c r="CO165" t="n">
-        <v>-0.0001523509124550897</v>
+        <v>-1.783932440645435e-05</v>
       </c>
       <c r="CP165" t="n">
         <v>1</v>
@@ -52374,7 +52374,7 @@
         <v>-0.2088741456328423</v>
       </c>
       <c r="BB166" t="n">
-        <v>-0.1363575290966004</v>
+        <v>-0.2054611041699354</v>
       </c>
       <c r="BC166" t="n">
         <v>-0.1258336759417036</v>
@@ -52468,10 +52468,10 @@
         <v>0.7948058943698533</v>
       </c>
       <c r="CF166" t="n">
-        <v>0.2057698340681627</v>
+        <v>0.2224374979569025</v>
       </c>
       <c r="CG166" t="n">
-        <v>0.7942301659318374</v>
+        <v>0.7775625020430974</v>
       </c>
       <c r="CH166" t="n">
         <v>0.000118642850646301</v>
@@ -52492,10 +52492,10 @@
         <v>0.0001916808037547534</v>
       </c>
       <c r="CN166" t="n">
-        <v>0.0002481872952616573</v>
+        <v>0.0001247399437248298</v>
       </c>
       <c r="CO166" t="n">
-        <v>0.0002087370994304817</v>
+        <v>0.0007025265055777899</v>
       </c>
       <c r="CP166" t="n">
         <v>0</v>
@@ -52687,7 +52687,7 @@
         <v>-0.1768783675582032</v>
       </c>
       <c r="BB167" t="n">
-        <v>-0.1303189993559803</v>
+        <v>-0.1851342484939576</v>
       </c>
       <c r="BC167" t="n">
         <v>-0.07887028723662275</v>
@@ -52760,7 +52760,7 @@
         <v>1</v>
       </c>
       <c r="BY167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ167" t="n">
         <v>0.1681972214829818</v>
@@ -52781,10 +52781,10 @@
         <v>0.8502707251966219</v>
       </c>
       <c r="CF167" t="n">
-        <v>0.1585776589010094</v>
+        <v>0.1699029568998772</v>
       </c>
       <c r="CG167" t="n">
-        <v>0.8414223410989906</v>
+        <v>0.8300970431001229</v>
       </c>
       <c r="CH167" t="n">
         <v>0.0009043737827953849</v>
@@ -52805,10 +52805,10 @@
         <v>-0.0001375950142591936</v>
       </c>
       <c r="CN167" t="n">
-        <v>0.001189359016866368</v>
+        <v>0.0008538403616647735</v>
       </c>
       <c r="CO167" t="n">
-        <v>-7.20603604814022e-05</v>
+        <v>1.181930331899724e-05</v>
       </c>
       <c r="CP167" t="n">
         <v>1</v>
@@ -52820,7 +52820,7 @@
         <v>1</v>
       </c>
       <c r="CS167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -53000,7 +53000,7 @@
         <v>-0.1685706619982218</v>
       </c>
       <c r="BB168" t="n">
-        <v>-0.1287542523881571</v>
+        <v>-0.1801098480318429</v>
       </c>
       <c r="BC168" t="n">
         <v>-0.06829794898193747</v>
@@ -53094,10 +53094,10 @@
         <v>0.8624762888052829</v>
       </c>
       <c r="CF168" t="n">
-        <v>0.147762403979649</v>
+        <v>0.1579091814478038</v>
       </c>
       <c r="CG168" t="n">
-        <v>0.852237596020351</v>
+        <v>0.8420908185521963</v>
       </c>
       <c r="CH168" t="n">
         <v>9.389720713901288e-05</v>
@@ -53118,10 +53118,10 @@
         <v>0.0003018213259324137</v>
       </c>
       <c r="CN168" t="n">
-        <v>0.0001521624422818071</v>
+        <v>7.701137051562652e-05</v>
       </c>
       <c r="CO168" t="n">
-        <v>0.0006809804918287629</v>
+        <v>0.00105673585065966</v>
       </c>
       <c r="CP168" t="n">
         <v>0</v>
@@ -53313,7 +53313,7 @@
         <v>-0.1255609698405164</v>
       </c>
       <c r="BB169" t="n">
-        <v>-0.1208350436527662</v>
+        <v>-0.1555179056551175</v>
       </c>
       <c r="BC169" t="n">
         <v>-0.02313198763382755</v>
@@ -53407,10 +53407,10 @@
         <v>0.911845211891141</v>
       </c>
       <c r="CF169" t="n">
-        <v>0.1019450946415051</v>
+        <v>0.1072923900792695</v>
       </c>
       <c r="CG169" t="n">
-        <v>0.8980549053584949</v>
+        <v>0.8927076099207305</v>
       </c>
       <c r="CH169" t="n">
         <v>0.0009887430712367594</v>
@@ -53431,10 +53431,10 @@
         <v>4.344522869260264e-05</v>
       </c>
       <c r="CN169" t="n">
-        <v>0.001015725636304281</v>
+        <v>0.0008177046466553012</v>
       </c>
       <c r="CO169" t="n">
-        <v>0.0004519912204284278</v>
+        <v>0.0006104080121476126</v>
       </c>
       <c r="CP169" t="n">
         <v>0</v>
@@ -53626,7 +53626,7 @@
         <v>-0.08997521670126382</v>
       </c>
       <c r="BB170" t="n">
-        <v>-0.1145779583537956</v>
+        <v>-0.1367131169062464</v>
       </c>
       <c r="BC170" t="n">
         <v>0.004162593909946135</v>
@@ -53720,10 +53720,10 @@
         <v>0.9395563540995682</v>
       </c>
       <c r="CF170" t="n">
-        <v>0.0740869883225848</v>
+        <v>0.07680549719196633</v>
       </c>
       <c r="CG170" t="n">
-        <v>0.9259130116774152</v>
+        <v>0.9231945028080337</v>
       </c>
       <c r="CH170" t="n">
         <v>0.000462837250569378</v>
@@ -53744,10 +53744,10 @@
         <v>0.0006977754450124898</v>
       </c>
       <c r="CN170" t="n">
-        <v>0.0003733216648944358</v>
+        <v>0.0002927842309037639</v>
       </c>
       <c r="CO170" t="n">
-        <v>0.00150615963099917</v>
+        <v>0.001667234498980513</v>
       </c>
       <c r="CP170" t="n">
         <v>0</v>
@@ -53939,7 +53939,7 @@
         <v>-0.01884791520145431</v>
       </c>
       <c r="BB171" t="n">
-        <v>-0.1027993907328305</v>
+        <v>-0.1023839492435676</v>
       </c>
       <c r="BC171" t="n">
         <v>0.04005166470956134</v>
@@ -54033,10 +54033,10 @@
         <v>0.9717705716220881</v>
       </c>
       <c r="CF171" t="n">
-        <v>0.03848026765516264</v>
+        <v>0.0384490811029681</v>
       </c>
       <c r="CG171" t="n">
-        <v>0.9615197323448373</v>
+        <v>0.9615509188970319</v>
       </c>
       <c r="CH171" t="n">
         <v>0.0009769880599281714</v>
@@ -54057,10 +54057,10 @@
         <v>0.001543014351018751</v>
       </c>
       <c r="CN171" t="n">
-        <v>0.0006035807106089582</v>
+        <v>0.0006054285507370912</v>
       </c>
       <c r="CO171" t="n">
-        <v>0.00275776306997863</v>
+        <v>0.002754067389722351</v>
       </c>
       <c r="CP171" t="n">
         <v>0</v>
@@ -54252,7 +54252,7 @@
         <v>0.1025875981260404</v>
       </c>
       <c r="BB172" t="n">
-        <v>-0.08331334869396666</v>
+        <v>-0.05030458139958781</v>
       </c>
       <c r="BC172" t="n">
         <v>0.06885912943516359</v>
@@ -54346,10 +54346,10 @@
         <v>0.9922612569957595</v>
       </c>
       <c r="CF172" t="n">
-        <v>0.0122725854194177</v>
+        <v>0.01126049362472876</v>
       </c>
       <c r="CG172" t="n">
-        <v>0.9877274145805823</v>
+        <v>0.9887395063752712</v>
       </c>
       <c r="CH172" t="n">
         <v>0.001023368672186374</v>
@@ -54364,7 +54364,7 @@
       </c>
       <c r="CM172" t="inlineStr"/>
       <c r="CN172" t="n">
-        <v>0.0003479093107629499</v>
+        <v>0.0004678445841406753</v>
       </c>
       <c r="CO172" t="inlineStr"/>
       <c r="CP172" t="n">
@@ -54557,7 +54557,7 @@
         <v>-0.4359932067473806</v>
       </c>
       <c r="BB173" t="n">
-        <v>-0.2833993327056388</v>
+        <v>-0.480294140956627</v>
       </c>
       <c r="BC173" t="n">
         <v>-0.4133467508595014</v>
@@ -54651,10 +54651,10 @@
         <v>0.09715125617563791</v>
       </c>
       <c r="CF173" t="n">
-        <v>0.8887223953422073</v>
+        <v>0.9106300585188053</v>
       </c>
       <c r="CG173" t="n">
-        <v>0.1112776046577927</v>
+        <v>0.0893699414811947</v>
       </c>
       <c r="CH173" t="inlineStr"/>
       <c r="CI173" t="n">
@@ -54670,7 +54670,7 @@
       </c>
       <c r="CN173" t="inlineStr"/>
       <c r="CO173" t="n">
-        <v>-0.002353478858418786</v>
+        <v>-0.00105542388655729</v>
       </c>
       <c r="CP173" t="n">
         <v>1</v>
@@ -54862,7 +54862,7 @@
         <v>-0.4107069975650057</v>
       </c>
       <c r="BB174" t="n">
-        <v>-0.2398615736247623</v>
+        <v>-0.4373132688346988</v>
       </c>
       <c r="BC174" t="n">
         <v>-0.3926485919579118</v>
@@ -54956,10 +54956,10 @@
         <v>0.1152700802845559</v>
       </c>
       <c r="CF174" t="n">
-        <v>0.8630602287097993</v>
+        <v>0.8915683484992607</v>
       </c>
       <c r="CG174" t="n">
-        <v>0.1369397712902007</v>
+        <v>0.1084316515007393</v>
       </c>
       <c r="CH174" t="n">
         <v>0.002412461410279072</v>
@@ -54980,10 +54980,10 @@
         <v>-0.0008792111560610334</v>
       </c>
       <c r="CN174" t="n">
-        <v>0.003873992603651052</v>
+        <v>0.002184852765557195</v>
       </c>
       <c r="CO174" t="n">
-        <v>-0.00344712083422577</v>
+        <v>-6.884115803805838e-05</v>
       </c>
       <c r="CP174" t="n">
         <v>1</v>
@@ -55175,7 +55175,7 @@
         <v>-0.3703603300860852</v>
       </c>
       <c r="BB175" t="n">
-        <v>-0.1802993046859334</v>
+        <v>-0.3717222270967487</v>
       </c>
       <c r="BC175" t="n">
         <v>-0.3622296540488416</v>
@@ -55269,10 +55269,10 @@
         <v>0.1665504458640441</v>
       </c>
       <c r="CF175" t="n">
-        <v>0.7926475427737889</v>
+        <v>0.835977471416959</v>
       </c>
       <c r="CG175" t="n">
-        <v>0.2073524572262111</v>
+        <v>0.164022528583041</v>
       </c>
       <c r="CH175" t="n">
         <v>0.006693022997132939</v>
@@ -55293,10 +55293,10 @@
         <v>-0.0005417919091954887</v>
       </c>
       <c r="CN175" t="n">
-        <v>0.01179119079044037</v>
+        <v>0.006656491680609999</v>
       </c>
       <c r="CO175" t="n">
-        <v>-0.001750575641254732</v>
+        <v>-0.0004669008637971398</v>
       </c>
       <c r="CP175" t="n">
         <v>1</v>
@@ -55488,7 +55488,7 @@
         <v>-0.3613901929805009</v>
       </c>
       <c r="BB176" t="n">
-        <v>-0.1710307586312088</v>
+        <v>-0.3582277733412961</v>
       </c>
       <c r="BC176" t="n">
         <v>-0.3559182501195626</v>
@@ -55561,7 +55561,7 @@
         <v>0</v>
       </c>
       <c r="BY176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ176" t="n">
         <v>0.8181484152567101</v>
@@ -55582,10 +55582,10 @@
         <v>0.18352488835009</v>
       </c>
       <c r="CF176" t="n">
-        <v>0.7706510230625775</v>
+        <v>0.8173593464805857</v>
       </c>
       <c r="CG176" t="n">
-        <v>0.2293489769374225</v>
+        <v>0.1826406535194143</v>
       </c>
       <c r="CH176" t="n">
         <v>0.0009950972032663902</v>
@@ -55606,10 +55606,10 @@
         <v>0.002958924413137411</v>
       </c>
       <c r="CN176" t="n">
-        <v>0.002402235554606138</v>
+        <v>0.001018473832707249</v>
       </c>
       <c r="CO176" t="n">
-        <v>-0.002471338553964263</v>
+        <v>0.003063708333631295</v>
       </c>
       <c r="CP176" t="n">
         <v>0</v>
@@ -55621,7 +55621,7 @@
         <v>0</v>
       </c>
       <c r="CS176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -55801,7 +55801,7 @@
         <v>-0.3251160630639326</v>
       </c>
       <c r="BB177" t="n">
-        <v>-0.1756594184159059</v>
+        <v>-0.310958062249955</v>
       </c>
       <c r="BC177" t="n">
         <v>-0.3298359725904134</v>
@@ -55895,10 +55895,10 @@
         <v>0.2756207000317253</v>
       </c>
       <c r="CF177" t="n">
-        <v>0.6705563947422327</v>
+        <v>0.7171124751831091</v>
       </c>
       <c r="CG177" t="n">
-        <v>0.3294436052577673</v>
+        <v>0.2828875248168909</v>
       </c>
       <c r="CH177" t="n">
         <v>0.008238469426646744</v>
@@ -55919,10 +55919,10 @@
         <v>0.0001007586607159345</v>
       </c>
       <c r="CN177" t="n">
-        <v>0.01433278894239663</v>
+        <v>0.008815783207963238</v>
       </c>
       <c r="CO177" t="n">
-        <v>-0.001493776757450535</v>
+        <v>-0.0001145253238421882</v>
       </c>
       <c r="CP177" t="n">
         <v>0</v>
@@ -56114,7 +56114,7 @@
         <v>-0.3150428316446205</v>
       </c>
       <c r="BB178" t="n">
-        <v>-0.2190705294748849</v>
+        <v>-0.3001298346898548</v>
       </c>
       <c r="BC178" t="n">
         <v>-0.3216210822122618</v>
@@ -56208,10 +56208,10 @@
         <v>0.3057671894300803</v>
       </c>
       <c r="CF178" t="n">
-        <v>0.6553614373976476</v>
+        <v>0.6849813862079306</v>
       </c>
       <c r="CG178" t="n">
-        <v>0.3446385626023524</v>
+        <v>0.3150186137920694</v>
       </c>
       <c r="CH178" t="n">
         <v>0.0009049870158983064</v>
@@ -56232,10 +56232,10 @@
         <v>9.222979401638139e-05</v>
       </c>
       <c r="CN178" t="n">
-        <v>0.001943936360721956</v>
+        <v>0.001066427848984804</v>
       </c>
       <c r="CO178" t="n">
-        <v>-0.001059357639171156</v>
+        <v>-0.0001818491274340004</v>
       </c>
       <c r="CP178" t="n">
         <v>1</v>
@@ -56427,7 +56427,7 @@
         <v>-0.3041450524792723</v>
       </c>
       <c r="BB179" t="n">
-        <v>-0.5496456379536295</v>
+        <v>-0.2894280197218432</v>
       </c>
       <c r="BC179" t="n">
         <v>-0.3118980923832079</v>
@@ -56521,10 +56521,10 @@
         <v>0.3391702700289559</v>
       </c>
       <c r="CF179" t="n">
-        <v>0.7499654092858196</v>
+        <v>0.6499408007465137</v>
       </c>
       <c r="CG179" t="n">
-        <v>0.2500345907141804</v>
+        <v>0.3500591992534863</v>
       </c>
       <c r="CH179" t="n">
         <v>0.001052353598608606</v>
@@ -56545,10 +56545,10 @@
         <v>0.0002769514498948238</v>
       </c>
       <c r="CN179" t="n">
-        <v>-0.00174334101192148</v>
+        <v>0.001219947207737642</v>
       </c>
       <c r="CO179" t="n">
-        <v>0.002917648697522568</v>
+        <v>-4.563952213655458e-05</v>
       </c>
       <c r="CP179" t="n">
         <v>0</v>
@@ -56740,7 +56740,7 @@
         <v>-0.2921716490306864</v>
       </c>
       <c r="BB180" t="n">
-        <v>0.1612948086860143</v>
+        <v>-0.2787130319851225</v>
       </c>
       <c r="BC180" t="n">
         <v>-0.3001158349840704</v>
@@ -56813,7 +56813,7 @@
         <v>0</v>
       </c>
       <c r="BY180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ180" t="n">
         <v>0.6169838682649987</v>
@@ -56834,10 +56834,10 @@
         <v>0.3764655740085552</v>
       </c>
       <c r="CF180" t="n">
-        <v>0.4354735796577586</v>
+        <v>0.6115967499398749</v>
       </c>
       <c r="CG180" t="n">
-        <v>0.5645264203422413</v>
+        <v>0.3884032500601251</v>
       </c>
       <c r="CH180" t="n">
         <v>0.001022008149864747</v>
@@ -56858,10 +56858,10 @@
         <v>0.000453215188716596</v>
       </c>
       <c r="CN180" t="n">
-        <v>0.00639935786241474</v>
+        <v>0.001181604718187991</v>
       </c>
       <c r="CO180" t="n">
-        <v>-0.005118198672910759</v>
+        <v>9.955447131600702e-05</v>
       </c>
       <c r="CP180" t="n">
         <v>0</v>
@@ -56873,7 +56873,7 @@
         <v>0</v>
       </c>
       <c r="CS180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -57053,7 +57053,7 @@
         <v>-0.2788459361526192</v>
       </c>
       <c r="BB181" t="n">
-        <v>0.01522415743660741</v>
+        <v>-0.2678397721455614</v>
       </c>
       <c r="BC181" t="n">
         <v>-0.2856749875834693</v>
@@ -57126,7 +57126,7 @@
         <v>0</v>
       </c>
       <c r="BY181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ181" t="n">
         <v>0.5746061545717924</v>
@@ -57147,10 +57147,10 @@
         <v>0.417807141452776</v>
       </c>
       <c r="CF181" t="n">
-        <v>0.453407859805362</v>
+        <v>0.570070064916112</v>
       </c>
       <c r="CG181" t="n">
-        <v>0.5465921401946381</v>
+        <v>0.429929935083888</v>
       </c>
       <c r="CH181" t="n">
         <v>0.0009963138064323154</v>
@@ -57171,10 +57171,10 @@
         <v>0.001418842817734016</v>
       </c>
       <c r="CN181" t="n">
-        <v>0.004586885010547633</v>
+        <v>0.001130698146809047</v>
       </c>
       <c r="CO181" t="n">
-        <v>-0.004304154880736506</v>
+        <v>0.000880125414871355</v>
       </c>
       <c r="CP181" t="n">
         <v>0</v>
@@ -57186,7 +57186,7 @@
         <v>0</v>
       </c>
       <c r="CS181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -57366,7 +57366,7 @@
         <v>-0.2556586494842321</v>
       </c>
       <c r="BB182" t="n">
-        <v>-0.02455628582010265</v>
+        <v>-0.2509034075262733</v>
       </c>
       <c r="BC182" t="n">
         <v>-0.2578162983852952</v>
@@ -57460,10 +57460,10 @@
         <v>0.4872677627950286</v>
       </c>
       <c r="CF182" t="n">
-        <v>0.4073315223898998</v>
+        <v>0.5025101148287765</v>
       </c>
       <c r="CG182" t="n">
-        <v>0.5926684776101001</v>
+        <v>0.4974898851712235</v>
       </c>
       <c r="CH182" t="n">
         <v>0.002033272107136067</v>
@@ -57484,10 +57484,10 @@
         <v>-0.0001526541234803357</v>
       </c>
       <c r="CN182" t="n">
-        <v>0.006351713024610024</v>
+        <v>0.002122129837183274</v>
       </c>
       <c r="CO182" t="n">
-        <v>-0.001713933398232084</v>
+        <v>-0.0003040723357565119</v>
       </c>
       <c r="CP182" t="n">
         <v>1</v>
@@ -57679,7 +57679,7 @@
         <v>-0.2469162933697707</v>
       </c>
       <c r="BB183" t="n">
-        <v>-0.02951664825223986</v>
+        <v>-0.2450144325436407</v>
       </c>
       <c r="BC183" t="n">
         <v>-0.2466903005075821</v>
@@ -57752,7 +57752,7 @@
         <v>0</v>
       </c>
       <c r="BY183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ183" t="n">
         <v>0.4795848227017028</v>
@@ -57773,10 +57773,10 @@
         <v>0.5122902444394289</v>
       </c>
       <c r="CF183" t="n">
-        <v>0.3881946135299778</v>
+        <v>0.4787853206665382</v>
       </c>
       <c r="CG183" t="n">
-        <v>0.6118053864700221</v>
+        <v>0.5212146793334618</v>
       </c>
       <c r="CH183" t="n">
         <v>0.0006436600086525404</v>
@@ -57797,10 +57797,10 @@
         <v>0.0005700725687369009</v>
       </c>
       <c r="CN183" t="n">
-        <v>0.001997404523055381</v>
+        <v>0.0006555028691095531</v>
       </c>
       <c r="CO183" t="n">
-        <v>-0.002378122404114003</v>
+        <v>0.0003056809037776716</v>
       </c>
       <c r="CP183" t="n">
         <v>0</v>
@@ -57812,7 +57812,7 @@
         <v>0</v>
       </c>
       <c r="CS183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -57992,7 +57992,7 @@
         <v>-0.2276673870893154</v>
       </c>
       <c r="BB184" t="n">
-        <v>-0.03521120764194736</v>
+        <v>-0.2327594568423248</v>
       </c>
       <c r="BC184" t="n">
         <v>-0.2216744095288398</v>
@@ -58065,7 +58065,7 @@
         <v>0</v>
       </c>
       <c r="BY184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ184" t="n">
         <v>0.4278239444156395</v>
@@ -58086,10 +58086,10 @@
         <v>0.5647144662601751</v>
       </c>
       <c r="CF184" t="n">
-        <v>0.3478934376968661</v>
+        <v>0.429938772408038</v>
       </c>
       <c r="CG184" t="n">
-        <v>0.6521065623031339</v>
+        <v>0.570061227591962</v>
       </c>
       <c r="CH184" t="n">
         <v>0.001204080025129773</v>
@@ -58110,10 +58110,10 @@
         <v>0.0004353052217218011</v>
       </c>
       <c r="CN184" t="n">
-        <v>0.00357206858724496</v>
+        <v>0.001141426994360676</v>
       </c>
       <c r="CO184" t="n">
-        <v>-0.002153737339676033</v>
+        <v>0.0002769042532082683</v>
       </c>
       <c r="CP184" t="n">
         <v>0</v>
@@ -58125,7 +58125,7 @@
         <v>0</v>
       </c>
       <c r="CS184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -58305,7 +58305,7 @@
         <v>-0.205807276218312</v>
       </c>
       <c r="BB185" t="n">
-        <v>-0.03791598470157518</v>
+        <v>-0.2197562313320209</v>
       </c>
       <c r="BC185" t="n">
         <v>-0.1934223196305314</v>
@@ -58378,7 +58378,7 @@
         <v>0</v>
       </c>
       <c r="BY185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ185" t="n">
         <v>0.374258906344087</v>
@@ -58399,10 +58399,10 @@
         <v>0.6194063151813606</v>
       </c>
       <c r="CF185" t="n">
-        <v>0.3065088780855539</v>
+        <v>0.3798877992699395</v>
       </c>
       <c r="CG185" t="n">
-        <v>0.6934911219144461</v>
+        <v>0.6201122007300606</v>
       </c>
       <c r="CH185" t="n">
         <v>0.001372644728677184</v>
@@ -58423,10 +58423,10 @@
         <v>0.0004774142221326619</v>
       </c>
       <c r="CN185" t="n">
-        <v>0.003379779408351467</v>
+        <v>0.001205885444732107</v>
       </c>
       <c r="CO185" t="n">
-        <v>-0.001717392018589652</v>
+        <v>0.0004565019450296914</v>
       </c>
       <c r="CP185" t="n">
         <v>0</v>
@@ -58438,7 +58438,7 @@
         <v>0</v>
       </c>
       <c r="CS185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -58618,7 +58618,7 @@
         <v>-0.1810644104528603</v>
       </c>
       <c r="BB186" t="n">
-        <v>-0.03912000803961505</v>
+        <v>-0.2058960145700594</v>
       </c>
       <c r="BC186" t="n">
         <v>-0.1629968147035134</v>
@@ -58691,7 +58691,7 @@
         <v>0</v>
       </c>
       <c r="BY186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ186" t="n">
         <v>0.3203327358020283</v>
@@ -58712,10 +58712,10 @@
         <v>0.6745394807555548</v>
       </c>
       <c r="CF186" t="n">
-        <v>0.2656560359404201</v>
+        <v>0.3298978200344141</v>
       </c>
       <c r="CG186" t="n">
-        <v>0.7343439640595799</v>
+        <v>0.6701021799655859</v>
       </c>
       <c r="CH186" t="n">
         <v>0.001307852053178302</v>
@@ -58736,10 +58736,10 @@
         <v>1.580633769711348e-06</v>
       </c>
       <c r="CN186" t="n">
-        <v>0.002927681642674495</v>
+        <v>0.001024480772452541</v>
       </c>
       <c r="CO186" t="n">
-        <v>-0.0008842909704564472</v>
+        <v>6.730946465452296e-05</v>
       </c>
       <c r="CP186" t="n">
         <v>1</v>
@@ -58751,7 +58751,7 @@
         <v>0</v>
       </c>
       <c r="CS186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -58931,7 +58931,7 @@
         <v>-0.1675478440833728</v>
       </c>
       <c r="BB187" t="n">
-        <v>-0.03939337896377739</v>
+        <v>-0.1986229037953615</v>
       </c>
       <c r="BC187" t="n">
         <v>-0.1474340682607311</v>
@@ -59025,10 +59025,10 @@
         <v>0.701680845719127</v>
       </c>
       <c r="CF187" t="n">
-        <v>0.2457719214934</v>
+        <v>0.3052786856990122</v>
       </c>
       <c r="CG187" t="n">
-        <v>0.7542280785066</v>
+        <v>0.6947213143009878</v>
       </c>
       <c r="CH187" t="n">
         <v>0.0004693938184339927</v>
@@ -59049,10 +59049,10 @@
         <v>0.007186357498509099</v>
       </c>
       <c r="CN187" t="n">
-        <v>0.00117883029912602</v>
+        <v>0.0002973687471358967</v>
       </c>
       <c r="CO187" t="n">
-        <v>0.001737757463072281</v>
+        <v>0.007907988327003207</v>
       </c>
       <c r="CP187" t="n">
         <v>0</v>
@@ -59244,7 +59244,7 @@
         <v>-0.05163347192968305</v>
       </c>
       <c r="BB188" t="n">
-        <v>-0.0388800252447748</v>
+        <v>-0.1417955372935032</v>
       </c>
       <c r="BC188" t="n">
         <v>-0.04963698004718906</v>
@@ -59338,10 +59338,10 @@
         <v>0.8616950514599315</v>
       </c>
       <c r="CF188" t="n">
-        <v>0.1271874147010787</v>
+        <v>0.1543770165949103</v>
       </c>
       <c r="CG188" t="n">
-        <v>0.8728125852989214</v>
+        <v>0.8456229834050897</v>
       </c>
       <c r="CH188" t="n">
         <v>0.01020884996201403</v>
@@ -59356,7 +59356,7 @@
       </c>
       <c r="CM188" t="inlineStr"/>
       <c r="CN188" t="n">
-        <v>0.01055821919709035</v>
+        <v>0.007738941035642412</v>
       </c>
       <c r="CO188" t="inlineStr"/>
       <c r="CP188" t="n">
@@ -59429,7 +59429,7 @@
         <v>3.55</v>
       </c>
       <c r="E2" t="n">
-        <v>6.77</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="3">
@@ -59448,7 +59448,7 @@
         <v>2.6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.41</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="4">
@@ -59467,7 +59467,7 @@
         <v>4.59</v>
       </c>
       <c r="E4" t="n">
-        <v>1.35</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="5">
@@ -59486,7 +59486,7 @@
         <v>7.67</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="6">
@@ -59505,7 +59505,7 @@
         <v>7.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.25</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="7">
@@ -59524,7 +59524,7 @@
         <v>4.39</v>
       </c>
       <c r="E7" t="n">
-        <v>1.98</v>
+        <v>6.74</v>
       </c>
     </row>
   </sheetData>
@@ -59584,7 +59584,7 @@
         <v>3.55</v>
       </c>
       <c r="E2" t="n">
-        <v>6.77</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="3">
@@ -59603,7 +59603,7 @@
         <v>2.6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.41</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="4">
@@ -59622,7 +59622,7 @@
         <v>4.59</v>
       </c>
       <c r="E4" t="n">
-        <v>1.62</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="5">
@@ -59641,7 +59641,7 @@
         <v>7.67</v>
       </c>
       <c r="E5" t="n">
-        <v>2.33</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="6">
@@ -59660,7 +59660,7 @@
         <v>7.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.25</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="7">
@@ -59679,7 +59679,7 @@
         <v>4.39</v>
       </c>
       <c r="E7" t="n">
-        <v>2.09</v>
+        <v>6.74</v>
       </c>
     </row>
   </sheetData>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1122,7 +1122,7 @@
         <v>-1.928287791505278</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.475441001467011</v>
+        <v>-1.475440973826068</v>
       </c>
       <c r="BF2" t="n">
         <v>-1.559511084104866</v>
@@ -1216,10 +1216,10 @@
         <v>0.00254151919648371</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.997030776772824</v>
+        <v>0.9970307767136499</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.002969223227175966</v>
+        <v>0.002969223286350076</v>
       </c>
       <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="n">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="n">
-        <v>-2.917555337073729e-05</v>
+        <v>-2.917555424727131e-05</v>
       </c>
       <c r="CS2" t="n">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>-1.880324730083585</v>
       </c>
       <c r="BE3" t="n">
-        <v>-1.46784288185769</v>
+        <v>-1.467842960465889</v>
       </c>
       <c r="BF3" t="n">
         <v>-1.597791305011401</v>
@@ -1530,10 +1530,10 @@
         <v>0.002968437989588679</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.9963992090870104</v>
+        <v>0.9963992092851417</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.003600790912989593</v>
+        <v>0.003600790714858304</v>
       </c>
       <c r="CK3" t="n">
         <v>2.313061483363507e-05</v>
@@ -1554,10 +1554,10 @@
         <v>3.051386590805589e-05</v>
       </c>
       <c r="CQ3" t="n">
-        <v>3.853083658863186e-05</v>
+        <v>3.853083365375383e-05</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.17800363440583e-05</v>
+        <v>1.178004221381498e-05</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>-1.755020965029151</v>
       </c>
       <c r="BE4" t="n">
-        <v>-1.450412102394598</v>
+        <v>-1.450412625001946</v>
       </c>
       <c r="BF4" t="n">
         <v>-1.692702550301585</v>
@@ -1852,10 +1852,10 @@
         <v>0.006092928461368663</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.9921488242669851</v>
+        <v>0.9921488267046434</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.007851175733014859</v>
+        <v>0.007851173295356562</v>
       </c>
       <c r="CK4" t="n">
         <v>7.204741847014612e-05</v>
@@ -1876,10 +1876,10 @@
         <v>1.410111528125382e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0001141401292045104</v>
+        <v>0.0001141400569874412</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.078836305601551e-06</v>
+        <v>1.078854359868956e-06</v>
       </c>
       <c r="CS4" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>-1.716099951331876</v>
       </c>
       <c r="BE5" t="n">
-        <v>-1.444778903344927</v>
+        <v>-1.44477962399461</v>
       </c>
       <c r="BF5" t="n">
         <v>-1.72100726158395</v>
@@ -2174,10 +2174,10 @@
         <v>0.007655163615872151</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.9900074019019774</v>
+        <v>0.9900074059588262</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.009992598098022554</v>
+        <v>0.009992594041173808</v>
       </c>
       <c r="CK5" t="n">
         <v>3.468979536757656e-06</v>
@@ -2198,10 +2198,10 @@
         <v>2.530641826178662e-06</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.478138989326541e-05</v>
+        <v>1.478135984662923e-05</v>
       </c>
       <c r="CR5" t="n">
-        <v>-1.478132811384716e-05</v>
+        <v>-1.478129806721096e-05</v>
       </c>
       <c r="CS5" t="n">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>-1.67354649779051</v>
       </c>
       <c r="BE6" t="n">
-        <v>-1.438190258484898</v>
+        <v>-1.438191234627179</v>
       </c>
       <c r="BF6" t="n">
         <v>-1.751437147982428</v>
@@ -2496,10 +2496,10 @@
         <v>0.009281879012878025</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.9876889935362139</v>
+        <v>0.987689000006072</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.01231100646378613</v>
+        <v>0.01231099999392804</v>
       </c>
       <c r="CK6" t="n">
         <v>2.039886117464074e-05</v>
@@ -2520,10 +2520,10 @@
         <v>9.942052846256447e-05</v>
       </c>
       <c r="CQ6" t="n">
-        <v>3.19523830646087e-05</v>
+        <v>3.195233514626493e-05</v>
       </c>
       <c r="CR6" t="n">
-        <v>5.455068182080145e-05</v>
+        <v>5.45507776574888e-05</v>
       </c>
       <c r="CS6" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>-1.57617955825512</v>
       </c>
       <c r="BE7" t="n">
-        <v>-1.42069291182222</v>
+        <v>-1.420694648602643</v>
       </c>
       <c r="BF7" t="n">
         <v>-1.819273448842394</v>
@@ -2818,10 +2818,10 @@
         <v>0.01566039940232244</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.9787927353894021</v>
+        <v>0.9787927527935287</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.02120726461059785</v>
+        <v>0.02120724720647127</v>
       </c>
       <c r="CK7" t="n">
         <v>5.414768659456858e-05</v>
@@ -2842,10 +2842,10 @@
         <v>6.169635738217728e-05</v>
       </c>
       <c r="CQ7" t="n">
-        <v>7.722777425349901e-05</v>
+        <v>7.722751644972416e-05</v>
       </c>
       <c r="CR7" t="n">
-        <v>2.061406631462316e-05</v>
+        <v>2.061419521651051e-05</v>
       </c>
       <c r="CS7" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>-1.520641792346317</v>
       </c>
       <c r="BE8" t="n">
-        <v>-1.408776433484515</v>
+        <v>-1.408778729745402</v>
       </c>
       <c r="BF8" t="n">
         <v>-1.856933798161663</v>
@@ -3140,10 +3140,10 @@
         <v>0.02051298810008928</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.9719749678295361</v>
+        <v>0.9719749961253348</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.02802503217046393</v>
+        <v>0.02802500387466522</v>
       </c>
       <c r="CK8" t="n">
         <v>1.967155876535231e-05</v>
@@ -3164,10 +3164,10 @@
         <v>8.498361363990867e-05</v>
       </c>
       <c r="CQ8" t="n">
-        <v>2.988103331526184e-05</v>
+        <v>2.988082374531624e-05</v>
       </c>
       <c r="CR8" t="n">
-        <v>2.934642589087161e-05</v>
+        <v>2.934663546081694e-05</v>
       </c>
       <c r="CS8" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>-1.460035301213296</v>
       </c>
       <c r="BE9" t="n">
-        <v>-1.393817040889576</v>
+        <v>-1.393820065782274</v>
       </c>
       <c r="BF9" t="n">
         <v>-1.897172745304966</v>
@@ -3462,10 +3462,10 @@
         <v>0.02704583191765686</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.9627827567584893</v>
+        <v>0.9627828025424653</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.03721724324151066</v>
+        <v>0.03721719745753471</v>
       </c>
       <c r="CK9" t="n">
         <v>3.131159550263333e-05</v>
@@ -3486,10 +3486,10 @@
         <v>0.0001550548207216766</v>
       </c>
       <c r="CQ9" t="n">
-        <v>3.873474727549182e-05</v>
+        <v>3.873440818114634e-05</v>
       </c>
       <c r="CR9" t="n">
-        <v>7.972130081732379e-05</v>
+        <v>7.972163991166905e-05</v>
       </c>
       <c r="CS9" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>-1.39398834020186</v>
       </c>
       <c r="BE10" t="n">
-        <v>-1.374849723936463</v>
+        <v>-1.374853695380191</v>
       </c>
       <c r="BF10" t="n">
         <v>-1.939910854707166</v>
@@ -3784,10 +3784,10 @@
         <v>0.03673906614549916</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.9493187342583842</v>
+        <v>0.9493188089206586</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0506812657416158</v>
+        <v>0.05068119107934144</v>
       </c>
       <c r="CK10" t="n">
         <v>1.733377238710785e-05</v>
@@ -3808,10 +3808,10 @@
         <v>0.0002165252187315852</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.999860772925605e-05</v>
+        <v>1.999805475074064e-05</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0001132637403248159</v>
+        <v>0.0001132642933033312</v>
       </c>
       <c r="CS10" t="n">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>-1.32214903593517</v>
       </c>
       <c r="BE11" t="n">
-        <v>-1.350621486085151</v>
+        <v>-1.350626679081409</v>
       </c>
       <c r="BF11" t="n">
         <v>-1.98483610929428</v>
@@ -4106,10 +4106,10 @@
         <v>0.05006619542832658</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.9309546177946849</v>
+        <v>0.9309547380917464</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.06904538220531509</v>
+        <v>0.06904526190825355</v>
       </c>
       <c r="CK11" t="n">
         <v>2.763326272532847e-05</v>
@@ -4130,10 +4130,10 @@
         <v>0.0003251164327298382</v>
       </c>
       <c r="CQ11" t="n">
-        <v>2.274821407324476e-05</v>
+        <v>2.274732310533507e-05</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0001845490228287532</v>
+        <v>0.0001845499137966623</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>-1.244205982392641</v>
       </c>
       <c r="BE12" t="n">
-        <v>-1.319516926851373</v>
+        <v>-1.319523675228261</v>
       </c>
       <c r="BF12" t="n">
         <v>-2.031216094731902</v>
@@ -4428,10 +4428,10 @@
         <v>0.06879756903792078</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.9055515575561658</v>
+        <v>0.9055517486834169</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.09444844244383421</v>
+        <v>0.09444825131658308</v>
       </c>
       <c r="CK12" t="n">
         <v>1.93936523417643e-05</v>
@@ -4452,10 +4452,10 @@
         <v>0.0003788746566523608</v>
       </c>
       <c r="CQ12" t="n">
-        <v>3.596150262611189e-06</v>
+        <v>3.594734698131319e-06</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0001888940806278099</v>
+        <v>0.0001888954961922895</v>
       </c>
       <c r="CS12" t="n">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>-1.159914282633829</v>
       </c>
       <c r="BE13" t="n">
-        <v>-1.279482461874512</v>
+        <v>-1.279491143688355</v>
       </c>
       <c r="BF13" t="n">
         <v>-2.077565115630439</v>
@@ -4750,10 +4750,10 @@
         <v>0.092963090545229</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.873210866270431</v>
+        <v>0.8732111597270894</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.126789133729569</v>
+        <v>0.1267888402729106</v>
       </c>
       <c r="CK13" t="n">
         <v>8.056735622635845e-05</v>
@@ -4774,10 +4774,10 @@
         <v>0.0005404553376703102</v>
       </c>
       <c r="CQ13" t="n">
-        <v>5.063394877954496e-05</v>
+        <v>5.063177532275368e-05</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0002899262010167856</v>
+        <v>0.0002899283744735768</v>
       </c>
       <c r="CS13" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>-1.069126816195251</v>
       </c>
       <c r="BE14" t="n">
-        <v>-1.227971996450718</v>
+        <v>-1.227982983784164</v>
       </c>
       <c r="BF14" t="n">
         <v>-2.121052726859798</v>
@@ -5072,10 +5072,10 @@
         <v>0.1257934772160927</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.8304908771801688</v>
+        <v>0.8304913127566911</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.1695091228198312</v>
+        <v>0.1695086872433089</v>
       </c>
       <c r="CK14" t="n">
         <v>7.311446924785497e-05</v>
@@ -5096,10 +5096,10 @@
         <v>0.0006674730378787059</v>
       </c>
       <c r="CQ14" t="n">
-        <v>2.64750382977328e-05</v>
+        <v>2.647181224467356e-05</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.0003436975702110485</v>
+        <v>0.0003437007962641071</v>
       </c>
       <c r="CS14" t="n">
         <v>0</v>
@@ -5300,7 +5300,7 @@
         <v>-0.9718295803668864</v>
       </c>
       <c r="BE15" t="n">
-        <v>-1.161961815382434</v>
+        <v>-1.161975360150239</v>
       </c>
       <c r="BF15" t="n">
         <v>-2.156461738843446</v>
@@ -5394,10 +5394,10 @@
         <v>0.1682690851766905</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.7771380498314022</v>
+        <v>0.7771386627633463</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.2228619501685978</v>
+        <v>0.2228613372366537</v>
       </c>
       <c r="CK15" t="n">
         <v>0.0001151787678234893</v>
@@ -5418,10 +5418,10 @@
         <v>0.0007082490794782588</v>
       </c>
       <c r="CQ15" t="n">
-        <v>5.145470050735811e-05</v>
+        <v>5.145016088946817e-05</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.0003039125965107014</v>
+        <v>0.0003039171361285912</v>
       </c>
       <c r="CS15" t="n">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>-0.8681786885408623</v>
       </c>
       <c r="BE16" t="n">
-        <v>-1.078119432540056</v>
+        <v>-1.078135457537787</v>
       </c>
       <c r="BF16" t="n">
         <v>-2.174416737908247</v>
@@ -5716,10 +5716,10 @@
         <v>0.2214087990960431</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.7135639514700032</v>
+        <v>0.7135647533567617</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.2864360485299968</v>
+        <v>0.2864352466432383</v>
       </c>
       <c r="CK16" t="n">
         <v>0.0002447495051823871</v>
@@ -5740,10 +5740,10 @@
         <v>0.0009069554520891704</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.0001669424748084571</v>
+        <v>0.0001669365357160179</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.0004253377656556604</v>
+        <v>0.0004253437047480992</v>
       </c>
       <c r="CS16" t="n">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>-0.7585351368575765</v>
       </c>
       <c r="BE17" t="n">
-        <v>-0.9732481288959832</v>
+        <v>-0.9732659234862213</v>
       </c>
       <c r="BF17" t="n">
         <v>-2.158668470317459</v>
@@ -6038,10 +6038,10 @@
         <v>0.2894040136668486</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.6378782785956734</v>
+        <v>0.6378792321730847</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.3621217214043266</v>
+        <v>0.3621207678269153</v>
       </c>
       <c r="CK17" t="n">
         <v>0.0002204388371491433</v>
@@ -6062,10 +6062,10 @@
         <v>0.0009215968088757227</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.0001352204462201304</v>
+        <v>0.0001352133836463529</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.0003830205278838178</v>
+        <v>0.0003830275904575953</v>
       </c>
       <c r="CS17" t="n">
         <v>0</v>
@@ -6266,7 +6266,7 @@
         <v>-0.6434920666681265</v>
       </c>
       <c r="BE18" t="n">
-        <v>-0.8451220086118642</v>
+        <v>-0.8451399264763508</v>
       </c>
       <c r="BF18" t="n">
         <v>-2.083080479415665</v>
@@ -6360,10 +6360,10 @@
         <v>0.3729959821744413</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.5532218616485222</v>
+        <v>0.5532228516972501</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.4467781383514778</v>
+        <v>0.4467771483027499</v>
       </c>
       <c r="CK18" t="n">
         <v>0.0003264934868344371</v>
@@ -6384,10 +6384,10 @@
         <v>0.0009853096315694913</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.0002439785844382866</v>
+        <v>0.0002439712517434247</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.0004388496218446247</v>
+        <v>0.0004388569545394861</v>
       </c>
       <c r="CS18" t="n">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>-0.5238884217657126</v>
       </c>
       <c r="BE19" t="n">
-        <v>-0.693690053441852</v>
+        <v>-0.6937054718321807</v>
       </c>
       <c r="BF19" t="n">
         <v>-1.912245773211461</v>
@@ -6682,10 +6682,10 @@
         <v>0.4728715505087902</v>
       </c>
       <c r="CI19" t="n">
-        <v>0.4626600481667829</v>
+        <v>0.4626608911355332</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0.5373399518332171</v>
+        <v>0.5373391088644668</v>
       </c>
       <c r="CK19" t="n">
         <v>0.0003006449073027998</v>
@@ -6706,10 +6706,10 @@
         <v>0.0008094692570228038</v>
       </c>
       <c r="CQ19" t="n">
-        <v>0.0002318872072226657</v>
+        <v>0.0002318809638606474</v>
       </c>
       <c r="CR19" t="n">
-        <v>0.0003319906220780305</v>
+        <v>0.0003319968654400488</v>
       </c>
       <c r="CS19" t="n">
         <v>0</v>
@@ -6910,7 +6910,7 @@
         <v>-0.4008031754718568</v>
       </c>
       <c r="BE20" t="n">
-        <v>-0.5222949548213693</v>
+        <v>-0.5223048259582952</v>
       </c>
       <c r="BF20" t="n">
         <v>-1.61584321140216</v>
@@ -7004,10 +7004,10 @@
         <v>0.584369565167138</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.3708960591013602</v>
+        <v>0.3708965696552254</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0.6291039408986399</v>
+        <v>0.6291034303447746</v>
       </c>
       <c r="CK20" t="n">
         <v>0.0003941902066003054</v>
@@ -7028,10 +7028,10 @@
         <v>0.0006351777254610244</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.0003476499977591407</v>
+        <v>0.0003476462163940434</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.0003038571370708332</v>
+        <v>0.000303860918435931</v>
       </c>
       <c r="CS20" t="n">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         <v>-0.2755261133779043</v>
       </c>
       <c r="BE21" t="n">
-        <v>-0.3381612788195638</v>
+        <v>-0.3381632925783579</v>
       </c>
       <c r="BF21" t="n">
         <v>-1.202912563177988</v>
@@ -7326,10 +7326,10 @@
         <v>0.6943429180737481</v>
       </c>
       <c r="CI21" t="n">
-        <v>0.2840509558407059</v>
+        <v>0.2840510498012225</v>
       </c>
       <c r="CJ21" t="n">
-        <v>0.7159490441592942</v>
+        <v>0.7159489501987775</v>
       </c>
       <c r="CK21" t="n">
         <v>0.0003609975375287546</v>
@@ -7350,10 +7350,10 @@
         <v>0.0003981428506624647</v>
       </c>
       <c r="CQ21" t="n">
-        <v>0.0003393522570610424</v>
+        <v>0.0003393515611520652</v>
       </c>
       <c r="CR21" t="n">
-        <v>0.0002381192828706212</v>
+        <v>0.0002381199787795992</v>
       </c>
       <c r="CS21" t="n">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>-0.149504542969937</v>
       </c>
       <c r="BE22" t="n">
-        <v>-0.1514252291474505</v>
+        <v>-0.1514189459043763</v>
       </c>
       <c r="BF22" t="n">
         <v>-0.7435130640407163</v>
@@ -7648,10 +7648,10 @@
         <v>0.788384079792384</v>
       </c>
       <c r="CI22" t="n">
-        <v>0.2073206076690474</v>
+        <v>0.2073203558988245</v>
       </c>
       <c r="CJ22" t="n">
-        <v>0.7926793923309525</v>
+        <v>0.7926796441011755</v>
       </c>
       <c r="CK22" t="n">
         <v>0.0003307462219235479</v>
@@ -7672,10 +7672,10 @@
         <v>0.0002346861173973961</v>
       </c>
       <c r="CQ22" t="n">
-        <v>0.0003301762099781956</v>
+        <v>0.0003301780746886567</v>
       </c>
       <c r="CR22" t="n">
-        <v>0.0002028733234480645</v>
+        <v>0.0002028714587376029</v>
       </c>
       <c r="CS22" t="n">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>-0.02426970665693279</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.02722186140994032</v>
+        <v>0.02723480459608717</v>
       </c>
       <c r="BF23" t="n">
         <v>-0.3280801035560381</v>
@@ -7970,10 +7970,10 @@
         <v>0.8589062636218184</v>
       </c>
       <c r="CI23" t="n">
-        <v>0.1451457343934744</v>
+        <v>0.1451453086853385</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0.8548542656065257</v>
+        <v>0.8548546913146615</v>
       </c>
       <c r="CK23" t="n">
         <v>0.0002450751693088627</v>
@@ -7994,10 +7994,10 @@
         <v>6.77379159694097e-05</v>
       </c>
       <c r="CQ23" t="n">
-        <v>0.0002576185300739141</v>
+        <v>0.0002576216830377756</v>
       </c>
       <c r="CR23" t="n">
-        <v>9.774862573409902e-05</v>
+        <v>9.774547277023767e-05</v>
       </c>
       <c r="CS23" t="n">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>0.09864902031126793</v>
       </c>
       <c r="BE24" t="n">
-        <v>0.189141910163608</v>
+        <v>0.189158685419559</v>
       </c>
       <c r="BF24" t="n">
         <v>-0.006436662970235992</v>
@@ -8292,10 +8292,10 @@
         <v>0.9097719450759845</v>
       </c>
       <c r="CI24" t="n">
-        <v>0.09619790145179376</v>
+        <v>0.09619747242896021</v>
       </c>
       <c r="CJ24" t="n">
-        <v>0.9038020985482063</v>
+        <v>0.9038025275710397</v>
       </c>
       <c r="CK24" t="n">
         <v>0.0002476376377783148</v>
@@ -8316,10 +8316,10 @@
         <v>1.675901643267454e-05</v>
       </c>
       <c r="CQ24" t="n">
-        <v>0.0002647785034696277</v>
+        <v>0.0002647816809834595</v>
       </c>
       <c r="CR24" t="n">
-        <v>6.097407547483655e-05</v>
+        <v>6.09708979610055e-05</v>
       </c>
       <c r="CS24" t="n">
         <v>0</v>
@@ -8520,7 +8520,7 @@
         <v>0.2178111966119735</v>
       </c>
       <c r="BE25" t="n">
-        <v>0.3292816159318842</v>
+        <v>0.3292994251619739</v>
       </c>
       <c r="BF25" t="n">
         <v>0.2200269865350344</v>
@@ -8614,10 +8614,10 @@
         <v>0.9438659702304381</v>
       </c>
       <c r="CI25" t="n">
-        <v>0.06112817814416301</v>
+        <v>0.06112783993498856</v>
       </c>
       <c r="CJ25" t="n">
-        <v>0.938871821855837</v>
+        <v>0.9388721600650114</v>
       </c>
       <c r="CK25" t="n">
         <v>0.0001830876641996628</v>
@@ -8638,10 +8638,10 @@
         <v>1.156347592213246e-06</v>
       </c>
       <c r="CQ25" t="n">
-        <v>0.0001987662510853278</v>
+        <v>0.0001987687559970617</v>
       </c>
       <c r="CR25" t="n">
-        <v>3.814499783989182e-05</v>
+        <v>3.814249292815805e-05</v>
       </c>
       <c r="CS25" t="n">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         <v>0.3319422571910632</v>
       </c>
       <c r="BE26" t="n">
-        <v>0.4461874985384132</v>
+        <v>0.446204340038966</v>
       </c>
       <c r="BF26" t="n">
         <v>0.3716799783475129</v>
@@ -8936,10 +8936,10 @@
         <v>0.9657691064156174</v>
       </c>
       <c r="CI26" t="n">
-        <v>0.03759549710926073</v>
+        <v>0.03759526863653723</v>
       </c>
       <c r="CJ26" t="n">
-        <v>0.9624045028907393</v>
+        <v>0.9624047313634627</v>
       </c>
       <c r="CK26" t="n">
         <v>0.0001246685431474964</v>
@@ -8960,10 +8960,10 @@
         <v>-1.299749991482812e-05</v>
       </c>
       <c r="CQ26" t="n">
-        <v>0.0001361474025655576</v>
+        <v>0.000136149094725467</v>
       </c>
       <c r="CR26" t="n">
-        <v>1.192209271016261e-05</v>
+        <v>1.192040055025389e-05</v>
       </c>
       <c r="CS26" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0.4399911153122448</v>
       </c>
       <c r="BE27" t="n">
-        <v>0.5410284483101976</v>
+        <v>0.5410432591521712</v>
       </c>
       <c r="BF27" t="n">
         <v>0.4706318750213371</v>
@@ -9258,10 +9258,10 @@
         <v>0.9798571073724029</v>
       </c>
       <c r="CI27" t="n">
-        <v>0.02210274349902941</v>
+        <v>0.02210260672101752</v>
       </c>
       <c r="CJ27" t="n">
-        <v>0.9778972565009706</v>
+        <v>0.9778973932789825</v>
       </c>
       <c r="CK27" t="n">
         <v>9.5912651412742e-05</v>
@@ -9282,10 +9282,10 @@
         <v>1.116783243317217e-06</v>
       </c>
       <c r="CQ27" t="n">
-        <v>0.0001028234057569285</v>
+        <v>0.0001028244187893144</v>
       </c>
       <c r="CR27" t="n">
-        <v>1.563221870568704e-05</v>
+        <v>1.563120567330076e-05</v>
       </c>
       <c r="CS27" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0.5411632657942911</v>
       </c>
       <c r="BE28" t="n">
-        <v>0.61639906632603</v>
+        <v>0.6164115038746617</v>
       </c>
       <c r="BF28" t="n">
         <v>0.5340306889658604</v>
@@ -9580,10 +9580,10 @@
         <v>0.9879088066729873</v>
       </c>
       <c r="CI28" t="n">
-        <v>0.01315177421605131</v>
+        <v>0.01315169614460314</v>
       </c>
       <c r="CJ28" t="n">
-        <v>0.9868482257839487</v>
+        <v>0.9868483038553969</v>
       </c>
       <c r="CK28" t="n">
         <v>4.716446962490048e-05</v>
@@ -9604,10 +9604,10 @@
         <v>1.551745057093695e-05</v>
       </c>
       <c r="CQ28" t="n">
-        <v>5.066222177782212e-05</v>
+        <v>5.066280000603522e-05</v>
       </c>
       <c r="CR28" t="n">
-        <v>2.337253468568442e-05</v>
+        <v>2.337195645747085e-05</v>
       </c>
       <c r="CS28" t="n">
         <v>0</v>
@@ -9808,7 +9808,7 @@
         <v>0.6349288773861086</v>
       </c>
       <c r="BE29" t="n">
-        <v>0.6753784533076923</v>
+        <v>0.6753886009441986</v>
       </c>
       <c r="BF29" t="n">
         <v>0.5737314077441333</v>
@@ -9902,10 +9902,10 @@
         <v>0.9920943336204389</v>
       </c>
       <c r="CI29" t="n">
-        <v>0.008470422502733855</v>
+        <v>0.008470376691886534</v>
       </c>
       <c r="CJ29" t="n">
-        <v>0.9915295774972661</v>
+        <v>0.9915296233081135</v>
       </c>
       <c r="CK29" t="n">
         <v>9.946958986542157e-06</v>
@@ -9926,10 +9926,10 @@
         <v>1.413166086217197e-05</v>
       </c>
       <c r="CQ29" t="n">
-        <v>1.129941901335474e-05</v>
+        <v>1.12997583067201e-05</v>
       </c>
       <c r="CR29" t="n">
-        <v>1.831446945102164e-05</v>
+        <v>1.831413015765566e-05</v>
       </c>
       <c r="CS29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0.7210093061883533</v>
       </c>
       <c r="BE30" t="n">
-        <v>0.720961379353981</v>
+        <v>0.7209695164969673</v>
       </c>
       <c r="BF30" t="n">
         <v>0.5976033786576881</v>
@@ -10224,10 +10224,10 @@
         <v>0.994597299124101</v>
       </c>
       <c r="CI30" t="n">
-        <v>0.005682439619844271</v>
+        <v>0.005682412465055203</v>
       </c>
       <c r="CJ30" t="n">
-        <v>0.9943175603801557</v>
+        <v>0.9943175875349448</v>
       </c>
       <c r="CK30" t="n">
         <v>2.335625806109269e-06</v>
@@ -10248,10 +10248,10 @@
         <v>1.040064653717778e-05</v>
       </c>
       <c r="CQ30" t="n">
-        <v>2.334441237354293e-06</v>
+        <v>2.334642356528186e-06</v>
       </c>
       <c r="CR30" t="n">
-        <v>1.247250299485532e-05</v>
+        <v>1.247230187568105e-05</v>
       </c>
       <c r="CS30" t="n">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>0.7993478887574508</v>
       </c>
       <c r="BE31" t="n">
-        <v>0.7557899354165565</v>
+        <v>0.7557963975369122</v>
       </c>
       <c r="BF31" t="n">
         <v>0.6108227029547229</v>
@@ -10546,10 +10546,10 @@
         <v>0.9962346940732228</v>
       </c>
       <c r="CI31" t="n">
-        <v>0.003880834474118783</v>
+        <v>0.003880818379649153</v>
       </c>
       <c r="CJ31" t="n">
-        <v>0.9961191655258812</v>
+        <v>0.9961191816203508</v>
       </c>
       <c r="CK31" t="n">
         <v>1.674383619750622e-06</v>
@@ -10570,10 +10570,10 @@
         <v>2.616081085016382e-05</v>
       </c>
       <c r="CQ31" t="n">
-        <v>8.709016501953328e-07</v>
+        <v>8.710208522420918e-07</v>
       </c>
       <c r="CR31" t="n">
-        <v>2.787211164089441e-05</v>
+        <v>2.787187323680107e-05</v>
       </c>
       <c r="CS31" t="n">
         <v>0</v>
@@ -10774,7 +10774,7 @@
         <v>0.9334496407378675</v>
       </c>
       <c r="BE32" t="n">
-        <v>0.8015960260852378</v>
+        <v>0.8016000577540593</v>
       </c>
       <c r="BF32" t="n">
         <v>0.617853958591692</v>
@@ -10868,10 +10868,10 @@
         <v>0.9978660163560337</v>
       </c>
       <c r="CI32" t="n">
-        <v>0.002108540002068793</v>
+        <v>0.00210853372230127</v>
       </c>
       <c r="CJ32" t="n">
-        <v>0.9978914599979312</v>
+        <v>0.9978914662776988</v>
       </c>
       <c r="CK32" t="n">
         <v>1.422724853107822e-06</v>
@@ -10886,7 +10886,7 @@
       </c>
       <c r="CP32" t="inlineStr"/>
       <c r="CQ32" t="n">
-        <v>-1.619475377240514e-06</v>
+        <v>-1.619382356325996e-06</v>
       </c>
       <c r="CR32" t="inlineStr"/>
       <c r="CS32" t="n">
@@ -11088,7 +11088,7 @@
         <v>-1.078502558459574</v>
       </c>
       <c r="BE33" t="n">
-        <v>-0.9655877994962878</v>
+        <v>-0.9655875898228562</v>
       </c>
       <c r="BF33" t="n">
         <v>-0.7420625755446906</v>
@@ -11182,10 +11182,10 @@
         <v>0.01230431449819591</v>
       </c>
       <c r="CI33" t="n">
-        <v>0.9900893050888564</v>
+        <v>0.9900893027801357</v>
       </c>
       <c r="CJ33" t="n">
-        <v>0.009910694911143603</v>
+        <v>0.009910697219864262</v>
       </c>
       <c r="CK33" t="inlineStr"/>
       <c r="CL33" t="n">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="CQ33" t="inlineStr"/>
       <c r="CR33" t="n">
-        <v>-5.777108728461614e-05</v>
+        <v>-5.777112148322401e-05</v>
       </c>
       <c r="CS33" t="n">
         <v>1</v>
@@ -11402,7 +11402,7 @@
         <v>-1.059112578011143</v>
       </c>
       <c r="BE34" t="n">
-        <v>-0.9475607108250172</v>
+        <v>-0.9475605167440329</v>
       </c>
       <c r="BF34" t="n">
         <v>-0.7358104020590762</v>
@@ -11496,10 +11496,10 @@
         <v>0.01313862223358286</v>
       </c>
       <c r="CI34" t="n">
-        <v>0.9893519525484921</v>
+        <v>0.9893519501974694</v>
       </c>
       <c r="CJ34" t="n">
-        <v>0.01064804745150794</v>
+        <v>0.01064804980253065</v>
       </c>
       <c r="CK34" t="n">
         <v>4.867685939601192e-05</v>
@@ -11520,10 +11520,10 @@
         <v>-7.590756982337171e-05</v>
       </c>
       <c r="CQ34" t="n">
-        <v>6.869333996072785e-05</v>
+        <v>6.869337478594868e-05</v>
       </c>
       <c r="CR34" t="n">
-        <v>-3.901519393867856e-05</v>
+        <v>-3.901522876389806e-05</v>
       </c>
       <c r="CS34" t="n">
         <v>1</v>
@@ -11724,7 +11724,7 @@
         <v>-1.0402212550057</v>
       </c>
       <c r="BE35" t="n">
-        <v>-0.9305567020118003</v>
+        <v>-0.9305565221205009</v>
       </c>
       <c r="BF35" t="n">
         <v>-0.7302272191994453</v>
@@ -11818,10 +11818,10 @@
         <v>0.01425328258531455</v>
       </c>
       <c r="CI35" t="n">
-        <v>0.9883654953113603</v>
+        <v>0.9883654928851271</v>
       </c>
       <c r="CJ35" t="n">
-        <v>0.01163450468863969</v>
+        <v>0.01163450711487291</v>
       </c>
       <c r="CK35" t="n">
         <v>3.171822559628473e-05</v>
@@ -11842,10 +11842,10 @@
         <v>-7.757973308429976e-05</v>
       </c>
       <c r="CQ35" t="n">
-        <v>5.362738364222616e-05</v>
+        <v>5.362741958152457e-05</v>
       </c>
       <c r="CR35" t="n">
-        <v>-3.878831063113989e-05</v>
+        <v>-3.878834657043727e-05</v>
       </c>
       <c r="CS35" t="n">
         <v>1</v>
@@ -12046,7 +12046,7 @@
         <v>-1.021751542181233</v>
       </c>
       <c r="BE36" t="n">
-        <v>-0.9145009568736103</v>
+        <v>-0.9145007899655208</v>
       </c>
       <c r="BF36" t="n">
         <v>-0.7252844744418049</v>
@@ -12140,10 +12140,10 @@
         <v>0.01549667836518043</v>
       </c>
       <c r="CI36" t="n">
-        <v>0.9872514836296031</v>
+        <v>0.9872514811235942</v>
       </c>
       <c r="CJ36" t="n">
-        <v>0.01274851637039687</v>
+        <v>0.01274851887640582</v>
       </c>
       <c r="CK36" t="n">
         <v>3.143699645900659e-05</v>
@@ -12164,10 +12164,10 @@
         <v>-8.1158969481313e-05</v>
       </c>
       <c r="CQ36" t="n">
-        <v>5.528993828718062e-05</v>
+        <v>5.528997540818134e-05</v>
       </c>
       <c r="CR36" t="n">
-        <v>-4.045100679202682e-05</v>
+        <v>-4.045104391302599e-05</v>
       </c>
       <c r="CS36" t="n">
         <v>1</v>
@@ -12368,7 +12368,7 @@
         <v>-1.003630505214039</v>
       </c>
       <c r="BE37" t="n">
-        <v>-0.8993249970788866</v>
+        <v>-0.8993248421337158</v>
       </c>
       <c r="BF37" t="n">
         <v>-0.7209574130717337</v>
@@ -12462,10 +12462,10 @@
         <v>0.01686808664975992</v>
       </c>
       <c r="CI37" t="n">
-        <v>0.9860065995786481</v>
+        <v>0.9860065969914773</v>
       </c>
       <c r="CJ37" t="n">
-        <v>0.01399340042135189</v>
+        <v>0.0139934030085227</v>
       </c>
       <c r="CK37" t="n">
         <v>3.309290599917344e-05</v>
@@ -12486,10 +12486,10 @@
         <v>-7.179535597041323e-05</v>
       </c>
       <c r="CQ37" t="n">
-        <v>5.889122014003829e-05</v>
+        <v>5.889125846327177e-05</v>
       </c>
       <c r="CR37" t="n">
-        <v>-2.921321563386609e-05</v>
+        <v>-2.921325395709921e-05</v>
       </c>
       <c r="CS37" t="n">
         <v>1</v>
@@ -12690,7 +12690,7 @@
         <v>-0.9857885901238255</v>
       </c>
       <c r="BE38" t="n">
-        <v>-0.8849656877128884</v>
+        <v>-0.8849655438998602</v>
       </c>
       <c r="BF38" t="n">
         <v>-0.7172246394562183</v>
@@ -12784,10 +12784,10 @@
         <v>0.01850187144439197</v>
       </c>
       <c r="CI38" t="n">
-        <v>0.9845100057019973</v>
+        <v>0.984510003020147</v>
       </c>
       <c r="CJ38" t="n">
-        <v>0.01548999429800269</v>
+        <v>0.01548999697985298</v>
       </c>
       <c r="CK38" t="n">
         <v>2.353148574585871e-05</v>
@@ -12808,10 +12808,10 @@
         <v>-9.599627665428899e-05</v>
       </c>
       <c r="CQ38" t="n">
-        <v>5.138195525240634e-05</v>
+        <v>5.138199497810823e-05</v>
       </c>
       <c r="CR38" t="n">
-        <v>-5.138195525232773e-05</v>
+        <v>-5.138199497802876e-05</v>
       </c>
       <c r="CS38" t="n">
         <v>1</v>
@@ -13012,7 +13012,7 @@
         <v>-0.9681589687907595</v>
       </c>
       <c r="BE39" t="n">
-        <v>-0.8713643174189505</v>
+        <v>-0.8713641840613872</v>
       </c>
       <c r="BF39" t="n">
         <v>-0.7140677103430637</v>
@@ -13106,10 +13106,10 @@
         <v>0.02012886266705993</v>
       </c>
       <c r="CI39" t="n">
-        <v>0.9829900644009023</v>
+        <v>0.9829900616470192</v>
       </c>
       <c r="CJ39" t="n">
-        <v>0.01700993559909769</v>
+        <v>0.01700993835298081</v>
       </c>
       <c r="CK39" t="n">
         <v>4.428804621999655e-05</v>
@@ -13130,10 +13130,10 @@
         <v>-7.557948802609305e-05</v>
       </c>
       <c r="CQ39" t="n">
-        <v>7.389653550345099e-05</v>
+        <v>7.389657629615874e-05</v>
       </c>
       <c r="CR39" t="n">
-        <v>-2.937945798630232e-05</v>
+        <v>-2.937949877901094e-05</v>
       </c>
       <c r="CS39" t="n">
         <v>0</v>
@@ -13334,7 +13334,7 @@
         <v>-0.950676949450132</v>
       </c>
       <c r="BE40" t="n">
-        <v>-0.8584657244088247</v>
+        <v>-0.8584656009930292</v>
       </c>
       <c r="BF40" t="n">
         <v>-0.7114707428605342</v>
@@ -13428,10 +13428,10 @@
         <v>0.02214706050747051</v>
       </c>
       <c r="CI40" t="n">
-        <v>0.9810929336475805</v>
+        <v>0.9810929308055767</v>
       </c>
       <c r="CJ40" t="n">
-        <v>0.01890706635241945</v>
+        <v>0.01890706919442331</v>
       </c>
       <c r="CK40" t="n">
         <v>2.602734990383646e-05</v>
@@ -13452,10 +13452,10 @@
         <v>-0.0001054744991769599</v>
       </c>
       <c r="CQ40" t="n">
-        <v>5.748126860351602e-05</v>
+        <v>5.7481310701539e-05</v>
       </c>
       <c r="CR40" t="n">
-        <v>-5.748112708765872e-05</v>
+        <v>-5.748116918568175e-05</v>
       </c>
       <c r="CS40" t="n">
         <v>1</v>
@@ -13656,7 +13656,7 @@
         <v>-0.9332794418062482</v>
       </c>
       <c r="BE41" t="n">
-        <v>-0.846217439838075</v>
+        <v>-0.8462173260209358</v>
       </c>
       <c r="BF41" t="n">
         <v>-0.7094200182161823</v>
@@ -13750,10 +13750,10 @@
         <v>0.02416582624477936</v>
       </c>
       <c r="CI41" t="n">
-        <v>0.9791565814839585</v>
+        <v>0.9791565785854842</v>
       </c>
       <c r="CJ41" t="n">
-        <v>0.02084341851604155</v>
+        <v>0.02084342141451578</v>
       </c>
       <c r="CK41" t="n">
         <v>5.33220767398989e-05</v>
@@ -13774,10 +13774,10 @@
         <v>-6.02697077605914e-05</v>
       </c>
       <c r="CQ41" t="n">
-        <v>8.616391645008617e-05</v>
+        <v>8.616395938459281e-05</v>
       </c>
       <c r="CR41" t="n">
-        <v>-3.566263399332827e-05</v>
+        <v>-3.566265546058189e-05</v>
       </c>
       <c r="CS41" t="n">
         <v>1</v>
@@ -13978,7 +13978,7 @@
         <v>-0.9245929810616813</v>
       </c>
       <c r="BE42" t="n">
-        <v>-0.8403212899460815</v>
+        <v>-0.8403211808515827</v>
       </c>
       <c r="BF42" t="n">
         <v>-0.7085956984931937</v>
@@ -14072,10 +14072,10 @@
         <v>0.0252429297786142</v>
       </c>
       <c r="CI42" t="n">
-        <v>0.9781123986562257</v>
+        <v>0.9781123957365575</v>
       </c>
       <c r="CJ42" t="n">
-        <v>0.02188760134377432</v>
+        <v>0.02188760426344249</v>
       </c>
       <c r="CK42" t="n">
         <v>2.669230945586635e-05</v>
@@ -14096,10 +14096,10 @@
         <v>-6.824716515776267e-05</v>
       </c>
       <c r="CQ42" t="n">
-        <v>4.33962675406201e-05</v>
+        <v>4.339628916484421e-05</v>
       </c>
       <c r="CR42" t="n">
-        <v>-4.339626754055014e-05</v>
+        <v>-4.33962891647745e-05</v>
       </c>
       <c r="CS42" t="n">
         <v>1</v>
@@ -14300,7 +14300,7 @@
         <v>-0.9159044688787543</v>
       </c>
       <c r="BE43" t="n">
-        <v>-0.8345688186961273</v>
+        <v>-0.8345687143067838</v>
       </c>
       <c r="BF43" t="n">
         <v>-0.7079035589084998</v>
@@ -14394,10 +14394,10 @@
         <v>0.02632542976206376</v>
       </c>
       <c r="CI43" t="n">
-        <v>0.97705236236689</v>
+        <v>0.977052359435676</v>
       </c>
       <c r="CJ43" t="n">
-        <v>0.02294763763311003</v>
+        <v>0.02294764056432397</v>
       </c>
       <c r="CK43" t="n">
         <v>3.433203262379492e-05</v>
@@ -14418,10 +14418,10 @@
         <v>-0.0001100811883364646</v>
       </c>
       <c r="CQ43" t="n">
-        <v>5.124731813313521e-05</v>
+        <v>5.124733984287165e-05</v>
       </c>
       <c r="CR43" t="n">
-        <v>-3.502937031120879e-05</v>
+        <v>-3.502943544041941e-05</v>
       </c>
       <c r="CS43" t="n">
         <v>0</v>
@@ -14622,7 +14622,7 @@
         <v>-0.8897502257349917</v>
       </c>
       <c r="BE44" t="n">
-        <v>-0.8181114645627665</v>
+        <v>-0.8181113744102948</v>
       </c>
       <c r="BF44" t="n">
         <v>-0.7066073923782937</v>
@@ -14716,10 +14716,10 @@
         <v>0.03059366029646737</v>
       </c>
       <c r="CI44" t="n">
-        <v>0.9728661908308976</v>
+        <v>0.9728661878623844</v>
       </c>
       <c r="CJ44" t="n">
-        <v>0.02713380916910235</v>
+        <v>0.02713381213761556</v>
       </c>
       <c r="CK44" t="n">
         <v>7.56298852234924e-05</v>
@@ -14740,10 +14740,10 @@
         <v>-6.335958562453517e-05</v>
       </c>
       <c r="CQ44" t="n">
-        <v>0.0001280427270682963</v>
+        <v>0.000128042793026268</v>
       </c>
       <c r="CR44" t="n">
-        <v>-3.77345513524286e-05</v>
+        <v>-3.773457333841878e-05</v>
       </c>
       <c r="CS44" t="n">
         <v>1</v>
@@ -14944,7 +14944,7 @@
         <v>-0.8809771416205148</v>
       </c>
       <c r="BE45" t="n">
-        <v>-0.8128715353395772</v>
+        <v>-0.8128714500630708</v>
       </c>
       <c r="BF45" t="n">
         <v>-0.7064312843204981</v>
@@ -15038,10 +15038,10 @@
         <v>0.03206956467933642</v>
       </c>
       <c r="CI45" t="n">
-        <v>0.9713915520865198</v>
+        <v>0.9713915491347623</v>
       </c>
       <c r="CJ45" t="n">
-        <v>0.02860844791348016</v>
+        <v>0.02860845086523767</v>
       </c>
       <c r="CK45" t="n">
         <v>3.119643558579209e-05</v>
@@ -15062,10 +15062,10 @@
         <v>-4.461285781929002e-05</v>
       </c>
       <c r="CQ45" t="n">
-        <v>4.865631271520725e-05</v>
+        <v>4.865633457709802e-05</v>
       </c>
       <c r="CR45" t="n">
-        <v>-1.897844972486527e-05</v>
+        <v>-1.897847158675598e-05</v>
       </c>
       <c r="CS45" t="n">
         <v>1</v>
@@ -15266,7 +15266,7 @@
         <v>-0.8721638150393753</v>
       </c>
       <c r="BE46" t="n">
-        <v>-0.8077439110519059</v>
+        <v>-0.8077438307644415</v>
       </c>
       <c r="BF46" t="n">
         <v>-0.7063810707582977</v>
@@ -15360,10 +15360,10 @@
         <v>0.03379688236896572</v>
       </c>
       <c r="CI46" t="n">
-        <v>0.9696675449233653</v>
+        <v>0.9696675419922915</v>
       </c>
       <c r="CJ46" t="n">
-        <v>0.03033245507663473</v>
+        <v>0.03033245800770845</v>
       </c>
       <c r="CK46" t="n">
         <v>1.432881903350169e-05</v>
@@ -15384,10 +15384,10 @@
         <v>-5.7405918486416e-05</v>
       </c>
       <c r="CQ46" t="n">
-        <v>3.174713283141724e-05</v>
+        <v>3.174715454011545e-05</v>
       </c>
       <c r="CR46" t="n">
-        <v>-3.174699131551961e-05</v>
+        <v>-3.174701302421795e-05</v>
       </c>
       <c r="CS46" t="n">
         <v>1</v>
@@ -15588,7 +15588,7 @@
         <v>-0.8633025649673779</v>
       </c>
       <c r="BE47" t="n">
-        <v>-0.8027220091484706</v>
+        <v>-0.8027219340104202</v>
       </c>
       <c r="BF47" t="n">
         <v>-0.7064554404029304</v>
@@ -15682,10 +15682,10 @@
         <v>0.03553419049030482</v>
       </c>
       <c r="CI47" t="n">
-        <v>0.9679153532709903</v>
+        <v>0.9679153503841652</v>
       </c>
       <c r="CJ47" t="n">
-        <v>0.03208464672900968</v>
+        <v>0.03208464961583479</v>
       </c>
       <c r="CK47" t="n">
         <v>2.748586531920935e-05</v>
@@ -15706,10 +15706,10 @@
         <v>-5.543404077127583e-05</v>
       </c>
       <c r="CQ47" t="n">
-        <v>4.47244199650431e-05</v>
+        <v>4.472444134601909e-05</v>
       </c>
       <c r="CR47" t="n">
-        <v>-2.988534695402454e-05</v>
+        <v>-2.988536833500009e-05</v>
       </c>
       <c r="CS47" t="n">
         <v>1</v>
@@ -15910,7 +15910,7 @@
         <v>-0.8543856724807467</v>
       </c>
       <c r="BE48" t="n">
-        <v>-0.7977990447541096</v>
+        <v>-0.7977989749588746</v>
       </c>
       <c r="BF48" t="n">
         <v>-0.7066529939564571</v>
@@ -16004,10 +16004,10 @@
         <v>0.03740267717681345</v>
       </c>
       <c r="CI48" t="n">
-        <v>0.9660208867949768</v>
+        <v>0.9660208839721721</v>
       </c>
       <c r="CJ48" t="n">
-        <v>0.03397911320502323</v>
+        <v>0.03397911602782788</v>
       </c>
       <c r="CK48" t="n">
         <v>2.696627704112161e-05</v>
@@ -16028,10 +16028,10 @@
         <v>-3.959493373207343e-05</v>
       </c>
       <c r="CQ48" t="n">
-        <v>4.391651956471999e-05</v>
+        <v>4.391654047153446e-05</v>
       </c>
       <c r="CR48" t="n">
-        <v>-1.423865657436608e-05</v>
+        <v>-1.423867748118066e-05</v>
       </c>
       <c r="CS48" t="n">
         <v>0</v>
@@ -16232,7 +16232,7 @@
         <v>-0.8454053719730241</v>
       </c>
       <c r="BE49" t="n">
-        <v>-0.7929679797340813</v>
+        <v>-0.7929679155091468</v>
       </c>
       <c r="BF49" t="n">
         <v>-0.7069722050004399</v>
@@ -16326,10 +16326,10 @@
         <v>0.03952116639454029</v>
       </c>
       <c r="CI49" t="n">
-        <v>0.96387001872459</v>
+        <v>0.9638700159845197</v>
       </c>
       <c r="CJ49" t="n">
-        <v>0.03612998127541001</v>
+        <v>0.03612998401548029</v>
       </c>
       <c r="CK49" t="n">
         <v>1.359946511833143e-05</v>
@@ -16350,10 +16350,10 @@
         <v>-5.528530791609011e-05</v>
       </c>
       <c r="CQ49" t="n">
-        <v>3.016884142605352e-05</v>
+        <v>3.016886172010468e-05</v>
       </c>
       <c r="CR49" t="n">
-        <v>-3.016884142611315e-05</v>
+        <v>-3.016886172016404e-05</v>
       </c>
       <c r="CS49" t="n">
         <v>1</v>
@@ -16554,7 +16554,7 @@
         <v>-0.8363538431431892</v>
       </c>
       <c r="BE50" t="n">
-        <v>-0.7882214664284606</v>
+        <v>-0.7882214080553797</v>
       </c>
       <c r="BF50" t="n">
         <v>-0.7074113746998246</v>
@@ -16648,10 +16648,10 @@
         <v>0.04165698989141831</v>
       </c>
       <c r="CI50" t="n">
-        <v>0.96167893367777</v>
+        <v>0.9616789310566152</v>
       </c>
       <c r="CJ50" t="n">
-        <v>0.03832106632222998</v>
+        <v>0.03832106894338483</v>
       </c>
       <c r="CK50" t="n">
         <v>3.03893563731155e-05</v>
@@ -16672,10 +16672,10 @@
         <v>-4.142577913157311e-05</v>
       </c>
       <c r="CQ50" t="n">
-        <v>4.639688920943328e-05</v>
+        <v>4.639690862274972e-05</v>
       </c>
       <c r="CR50" t="n">
-        <v>-1.671860167140208e-05</v>
+        <v>-1.671862108471798e-05</v>
       </c>
       <c r="CS50" t="n">
         <v>1</v>
@@ -16876,7 +16876,7 @@
         <v>-0.8272232038331683</v>
       </c>
       <c r="BE51" t="n">
-        <v>-0.7835517852174153</v>
+        <v>-0.7835517330447982</v>
       </c>
       <c r="BF51" t="n">
         <v>-0.7079685791428784</v>
@@ -16970,10 +16970,10 @@
         <v>0.04404433642278749</v>
       </c>
       <c r="CI51" t="n">
-        <v>0.9592242695120698</v>
+        <v>0.9592242670426531</v>
       </c>
       <c r="CJ51" t="n">
-        <v>0.04077573048793015</v>
+        <v>0.04077573295734693</v>
       </c>
       <c r="CK51" t="n">
         <v>1.958949426872445e-05</v>
@@ -16994,10 +16994,10 @@
         <v>-4.427004274987196e-05</v>
       </c>
       <c r="CQ51" t="n">
-        <v>3.489882129845568e-05</v>
+        <v>3.489883958793932e-05</v>
       </c>
       <c r="CR51" t="n">
-        <v>-2.006144647812447e-05</v>
+        <v>-2.006146476760785e-05</v>
       </c>
       <c r="CS51" t="n">
         <v>1</v>
@@ -17198,7 +17198,7 @@
         <v>-0.8180055038080473</v>
       </c>
       <c r="BE52" t="n">
-        <v>-0.7789507749651229</v>
+        <v>-0.778950729369502</v>
       </c>
       <c r="BF52" t="n">
         <v>-0.7086416079173599</v>
@@ -17292,10 +17292,10 @@
         <v>0.0465687160796312</v>
       </c>
       <c r="CI52" t="n">
-        <v>0.9566114117930756</v>
+        <v>0.9566114095196674</v>
       </c>
       <c r="CJ52" t="n">
-        <v>0.04338858820692437</v>
+        <v>0.04338859048033261</v>
       </c>
       <c r="CK52" t="n">
         <v>2.499099577815342e-05</v>
@@ -17316,10 +17316,10 @@
         <v>-4.812427517069588e-05</v>
       </c>
       <c r="CQ52" t="n">
-        <v>3.941331051290475e-05</v>
+        <v>3.941332735067117e-05</v>
       </c>
       <c r="CR52" t="n">
-        <v>-2.457098263644239e-05</v>
+        <v>-2.457099947420849e-05</v>
       </c>
       <c r="CS52" t="n">
         <v>1</v>
@@ -17520,7 +17520,7 @@
         <v>-0.808692719588582</v>
       </c>
       <c r="BE53" t="n">
-        <v>-0.7744097552570293</v>
+        <v>-0.7744097167146907</v>
       </c>
       <c r="BF53" t="n">
         <v>-0.7094278922583779</v>
@@ -17614,10 +17614,10 @@
         <v>0.04923422395023003</v>
       </c>
       <c r="CI53" t="n">
-        <v>0.9538340181448655</v>
+        <v>0.9538340161218445</v>
       </c>
       <c r="CJ53" t="n">
-        <v>0.04616598185513454</v>
+        <v>0.04616598387815551</v>
       </c>
       <c r="CK53" t="n">
         <v>3.181399460768387e-05</v>
@@ -17638,10 +17638,10 @@
         <v>-3.819034692802083e-05</v>
       </c>
       <c r="CQ53" t="n">
-        <v>4.51414652388937e-05</v>
+        <v>4.514148022219215e-05</v>
       </c>
       <c r="CR53" t="n">
-        <v>-1.546572498689678e-05</v>
+        <v>-1.546573997019519e-05</v>
       </c>
       <c r="CS53" t="n">
         <v>1</v>
@@ -17842,7 +17842,7 @@
         <v>-0.7992767504630247</v>
       </c>
       <c r="BE54" t="n">
-        <v>-0.7699194392026558</v>
+        <v>-0.7699194082451745</v>
       </c>
       <c r="BF54" t="n">
         <v>-0.7103244207857977</v>
@@ -17936,10 +17936,10 @@
         <v>0.05215618861157711</v>
       </c>
       <c r="CI54" t="n">
-        <v>0.9507784323527682</v>
+        <v>0.9507784306411302</v>
       </c>
       <c r="CJ54" t="n">
-        <v>0.04922156764723185</v>
+        <v>0.04922156935886979</v>
       </c>
       <c r="CK54" t="n">
         <v>2.607480626560035e-05</v>
@@ -17960,10 +17960,10 @@
         <v>1.34129261574929e-05</v>
       </c>
       <c r="CQ54" t="n">
-        <v>3.809660931154528e-05</v>
+        <v>3.809662198861734e-05</v>
       </c>
       <c r="CR54" t="n">
-        <v>7.861783817715703e-05</v>
+        <v>7.86178001459417e-05</v>
       </c>
       <c r="CS54" t="n">
         <v>0</v>
@@ -18164,7 +18164,7 @@
         <v>-0.7703275227315759</v>
       </c>
       <c r="BE55" t="n">
-        <v>-0.7566485995392503</v>
+        <v>-0.7566485954048093</v>
       </c>
       <c r="BF55" t="n">
         <v>-0.7136365121731302</v>
@@ -18258,10 +18258,10 @@
         <v>0.06258462373889651</v>
       </c>
       <c r="CI55" t="n">
-        <v>0.9397819594264606</v>
+        <v>0.939781959158869</v>
       </c>
       <c r="CJ55" t="n">
-        <v>0.06021804057353941</v>
+        <v>0.06021804084113103</v>
       </c>
       <c r="CK55" t="n">
         <v>0.0001460434995327227</v>
@@ -18282,10 +18282,10 @@
         <v>-6.28713741807093e-05</v>
       </c>
       <c r="CQ55" t="n">
-        <v>0.0001657149252011943</v>
+        <v>0.0001657149311468653</v>
       </c>
       <c r="CR55" t="n">
-        <v>-4.534351749334612e-05</v>
+        <v>-4.534351947523615e-05</v>
       </c>
       <c r="CS55" t="n">
         <v>1</v>
@@ -18486,7 +18486,7 @@
         <v>-0.7604162016131358</v>
       </c>
       <c r="BE56" t="n">
-        <v>-0.752252395005842</v>
+        <v>-0.752252401537516</v>
       </c>
       <c r="BF56" t="n">
         <v>-0.7149311913786228</v>
@@ -18580,10 +18580,10 @@
         <v>0.06624086754182035</v>
       </c>
       <c r="CI56" t="n">
-        <v>0.9358598150006201</v>
+        <v>0.935859815444396</v>
       </c>
       <c r="CJ56" t="n">
-        <v>0.0641401849993799</v>
+        <v>0.064140184555604</v>
       </c>
       <c r="CK56" t="n">
         <v>7.028439882202607e-05</v>
@@ -18604,10 +18604,10 @@
         <v>1.391716271249832e-05</v>
       </c>
       <c r="CQ56" t="n">
-        <v>7.439247990025447e-05</v>
+        <v>7.43924766134739e-05</v>
       </c>
       <c r="CR56" t="n">
-        <v>2.947565357330295e-05</v>
+        <v>2.94756568600839e-05</v>
       </c>
       <c r="CS56" t="n">
         <v>0</v>
@@ -18808,7 +18808,7 @@
         <v>-0.7503599965369163</v>
       </c>
       <c r="BE57" t="n">
-        <v>-0.7478474575052509</v>
+        <v>-0.7478474757855631</v>
       </c>
       <c r="BF57" t="n">
         <v>-0.7163102611665308</v>
@@ -18902,10 +18902,10 @@
         <v>0.07069966368497682</v>
       </c>
       <c r="CI57" t="n">
-        <v>0.9311047139680508</v>
+        <v>0.9311047152773316</v>
       </c>
       <c r="CJ57" t="n">
-        <v>0.06889528603194917</v>
+        <v>0.06889528472266837</v>
       </c>
       <c r="CK57" t="n">
         <v>4.409704496039987e-06</v>
@@ -18926,10 +18926,10 @@
         <v>-1.910192736112365e-05</v>
       </c>
       <c r="CQ57" t="n">
-        <v>5.742516932083497e-06</v>
+        <v>5.742507235028706e-06</v>
       </c>
       <c r="CR57" t="n">
-        <v>-5.737988423707373e-06</v>
+        <v>-5.737978726652799e-06</v>
       </c>
       <c r="CS57" t="n">
         <v>1</v>
@@ -19130,7 +19130,7 @@
         <v>-0.7401503465883865</v>
       </c>
       <c r="BE58" t="n">
-        <v>-0.7434183002965874</v>
+        <v>-0.7434183315591618</v>
       </c>
       <c r="BF58" t="n">
         <v>-0.7177652263974466</v>
@@ -19224,10 +19224,10 @@
         <v>0.07523154012478117</v>
       </c>
       <c r="CI58" t="n">
-        <v>0.9262280107268753</v>
+        <v>0.9262280130809463</v>
       </c>
       <c r="CJ58" t="n">
-        <v>0.07377198927312467</v>
+        <v>0.07377198691905373</v>
       </c>
       <c r="CK58" t="n">
         <v>4.367933612446726e-05</v>
@@ -19248,10 +19248,10 @@
         <v>3.636819642788096e-05</v>
       </c>
       <c r="CQ58" t="n">
-        <v>4.1856793276813e-05</v>
+        <v>4.185677584162689e-05</v>
       </c>
       <c r="CR58" t="n">
-        <v>4.717821085300003e-05</v>
+        <v>4.717822828818625e-05</v>
       </c>
       <c r="CS58" t="n">
         <v>0</v>
@@ -19452,7 +19452,7 @@
         <v>-0.7297786335501603</v>
       </c>
       <c r="BE59" t="n">
-        <v>-0.7389478120473895</v>
+        <v>-0.7389478576986009</v>
       </c>
       <c r="BF59" t="n">
         <v>-0.7192859429834576</v>
@@ -19546,10 +19546,10 @@
         <v>0.08045945302656099</v>
       </c>
       <c r="CI59" t="n">
-        <v>0.9206102445929</v>
+        <v>0.920610248214084</v>
       </c>
       <c r="CJ59" t="n">
-        <v>0.07938975540710003</v>
+        <v>0.07938975178591601</v>
       </c>
       <c r="CK59" t="n">
         <v>-1.83938494872915e-07</v>
@@ -19570,10 +19570,10 @@
         <v>9.916451960758276e-05</v>
       </c>
       <c r="CQ59" t="n">
-        <v>-5.570799315200714e-06</v>
+        <v>-5.570826135130671e-06</v>
       </c>
       <c r="CR59" t="n">
-        <v>0.0001150097321039678</v>
+        <v>0.0001150097857438275</v>
       </c>
       <c r="CS59" t="n">
         <v>1</v>
@@ -19774,7 +19774,7 @@
         <v>-0.7085143367883763</v>
       </c>
       <c r="BE60" t="n">
-        <v>-0.7298048572020015</v>
+        <v>-0.7298049366644039</v>
       </c>
       <c r="BF60" t="n">
         <v>-0.722473824422738</v>
@@ -19868,10 +19868,10 @@
         <v>0.09191064926714154</v>
       </c>
       <c r="CI60" t="n">
-        <v>0.9082132240474828</v>
+        <v>0.9082132310150648</v>
       </c>
       <c r="CJ60" t="n">
-        <v>0.09178677595251716</v>
+        <v>0.09178676898493521</v>
       </c>
       <c r="CK60" t="n">
         <v>9.627789595418462e-05</v>
@@ -19892,10 +19892,10 @@
         <v>0.0001372878752680714</v>
       </c>
       <c r="CQ60" t="n">
-        <v>6.862480282487059e-05</v>
+        <v>6.862469961550072e-05</v>
       </c>
       <c r="CR60" t="n">
-        <v>0.0001391227853932747</v>
+        <v>0.0001391228886026441</v>
       </c>
       <c r="CS60" t="n">
         <v>0</v>
@@ -20096,7 +20096,7 @@
         <v>-0.686497571875244</v>
       </c>
       <c r="BE61" t="n">
-        <v>-0.7202396455985542</v>
+        <v>-0.7202397672161935</v>
       </c>
       <c r="BF61" t="n">
         <v>-0.725745987533741</v>
@@ -20190,10 +20190,10 @@
         <v>0.1052248529750225</v>
       </c>
       <c r="CI61" t="n">
-        <v>0.8937084968822437</v>
+        <v>0.8937085086315631</v>
       </c>
       <c r="CJ61" t="n">
-        <v>0.1062915031177563</v>
+        <v>0.1062914913684369</v>
       </c>
       <c r="CK61" t="n">
         <v>0.0001240191909859141</v>
@@ -20214,10 +20214,10 @@
         <v>9.616392756928692e-05</v>
       </c>
       <c r="CQ61" t="n">
-        <v>7.573277748166608e-05</v>
+        <v>7.573260344139604e-05</v>
       </c>
       <c r="CR61" t="n">
-        <v>8.826389214645729e-05</v>
+        <v>8.826397916659242e-05</v>
       </c>
       <c r="CS61" t="n">
         <v>0</v>
@@ -20418,7 +20418,7 @@
         <v>-0.6751853284164051</v>
       </c>
       <c r="BE62" t="n">
-        <v>-0.7152310056447131</v>
+        <v>-0.7152311522100961</v>
       </c>
       <c r="BF62" t="n">
         <v>-0.7273594280693292</v>
@@ -20512,10 +20512,10 @@
         <v>0.1129117479483175</v>
       </c>
       <c r="CI62" t="n">
-        <v>0.8853234938323873</v>
+        <v>0.8853235086893509</v>
       </c>
       <c r="CJ62" t="n">
-        <v>0.1146765061676127</v>
+        <v>0.1146764913106491</v>
       </c>
       <c r="CK62" t="n">
         <v>3.903786321751181e-06</v>
@@ -20536,10 +20536,10 @@
         <v>8.375149077167923e-05</v>
       </c>
       <c r="CQ62" t="n">
-        <v>-2.616122280764237e-05</v>
+        <v>-2.616133284422811e-05</v>
       </c>
       <c r="CR62" t="n">
-        <v>7.068098912675364e-05</v>
+        <v>7.068109916333874e-05</v>
       </c>
       <c r="CS62" t="n">
         <v>0</v>
@@ -20740,7 +20740,7 @@
         <v>-0.6636590542912715</v>
       </c>
       <c r="BE63" t="n">
-        <v>-0.7100290007241665</v>
+        <v>-0.7100291752580985</v>
       </c>
       <c r="BF63" t="n">
         <v>-0.7289202560964367</v>
@@ -20834,10 +20834,10 @@
         <v>0.1210571078330536</v>
       </c>
       <c r="CI63" t="n">
-        <v>0.8764088250737919</v>
+        <v>0.8764088436042131</v>
       </c>
       <c r="CJ63" t="n">
-        <v>0.1235911749262081</v>
+        <v>0.1235911563957869</v>
       </c>
       <c r="CK63" t="n">
         <v>3.180731468717824e-05</v>
@@ -20858,10 +20858,10 @@
         <v>0.0001421340339121274</v>
       </c>
       <c r="CQ63" t="n">
-        <v>-4.65540477234596e-06</v>
+        <v>-4.655542016018983e-06</v>
       </c>
       <c r="CR63" t="n">
-        <v>0.0001233657246064733</v>
+        <v>0.0001233658618501468</v>
       </c>
       <c r="CS63" t="n">
         <v>0</v>
@@ -21062,7 +21062,7 @@
         <v>-0.6519102861245257</v>
       </c>
       <c r="BE64" t="n">
-        <v>-0.7045967453373158</v>
+        <v>-0.7045969512624465</v>
       </c>
       <c r="BF64" t="n">
         <v>-0.7303935169595555</v>
@@ -21156,10 +21156,10 @@
         <v>0.1301177179683131</v>
       </c>
       <c r="CI64" t="n">
-        <v>0.8665015272349886</v>
+        <v>0.8665015501292103</v>
       </c>
       <c r="CJ64" t="n">
-        <v>0.1334984727650114</v>
+        <v>0.1334984498707897</v>
       </c>
       <c r="CK64" t="n">
         <v>-6.605033890003456e-06</v>
@@ -21180,10 +21180,10 @@
         <v>0.0001195427874565492</v>
       </c>
       <c r="CQ64" t="n">
-        <v>-4.998833427444834e-05</v>
+        <v>-4.998850383816471e-05</v>
       </c>
       <c r="CR64" t="n">
-        <v>9.450357208517558e-05</v>
+        <v>9.450374164889151e-05</v>
       </c>
       <c r="CS64" t="n">
         <v>1</v>
@@ -21384,7 +21384,7 @@
         <v>-0.639930714197091</v>
       </c>
       <c r="BE65" t="n">
-        <v>-0.6988928489089711</v>
+        <v>-0.6988930900679479</v>
       </c>
       <c r="BF65" t="n">
         <v>-0.7317375660725951</v>
@@ -21478,10 +21478,10 @@
         <v>0.1396762035241912</v>
       </c>
       <c r="CI65" t="n">
-        <v>0.8560230621374803</v>
+        <v>0.8560230901529657</v>
       </c>
       <c r="CJ65" t="n">
-        <v>0.1439769378625197</v>
+        <v>0.1439769098470343</v>
       </c>
       <c r="CK65" t="n">
         <v>3.383529003027005e-05</v>
@@ -21502,10 +21502,10 @@
         <v>0.0001823013458939083</v>
       </c>
       <c r="CQ65" t="n">
-        <v>-1.689588974329841e-05</v>
+        <v>-1.689609723713216e-05</v>
       </c>
       <c r="CR65" t="n">
-        <v>0.0001504483959379867</v>
+        <v>0.0001504486034318209</v>
       </c>
       <c r="CS65" t="n">
         <v>0</v>
@@ -21706,7 +21706,7 @@
         <v>-0.6277122311474396</v>
       </c>
       <c r="BE66" t="n">
-        <v>-0.6928708602657249</v>
+        <v>-0.6928711409480039</v>
       </c>
       <c r="BF66" t="n">
         <v>-0.7329028243961013</v>
@@ -21800,10 +21800,10 @@
         <v>0.1502549274232065</v>
       </c>
       <c r="CI66" t="n">
-        <v>0.8444453563544697</v>
+        <v>0.8444453904028008</v>
       </c>
       <c r="CJ66" t="n">
-        <v>0.1555546436455303</v>
+        <v>0.1555546095971992</v>
       </c>
       <c r="CK66" t="n">
         <v>-6.158342849061672e-06</v>
@@ -21824,10 +21824,10 @@
         <v>0.000178148453248455</v>
       </c>
       <c r="CQ66" t="n">
-        <v>-6.469929964436801e-05</v>
+        <v>-6.469955181985683e-05</v>
       </c>
       <c r="CR66" t="n">
-        <v>0.000138896645922018</v>
+        <v>0.0001388968980975071</v>
       </c>
       <c r="CS66" t="n">
         <v>1</v>
@@ -22028,7 +22028,7 @@
         <v>-0.6152469868268283</v>
       </c>
       <c r="BE67" t="n">
-        <v>-0.6864786703944726</v>
+        <v>-0.6864789953767869</v>
       </c>
       <c r="BF67" t="n">
         <v>-0.7338303225191215</v>
@@ -22122,10 +22122,10 @@
         <v>0.1615422822687256</v>
       </c>
       <c r="CI67" t="n">
-        <v>0.832087568491922</v>
+        <v>0.8320876095745374</v>
       </c>
       <c r="CJ67" t="n">
-        <v>0.167912431508078</v>
+        <v>0.1679123904254626</v>
       </c>
       <c r="CK67" t="n">
         <v>1.932279611533208e-05</v>
@@ -22146,10 +22146,10 @@
         <v>0.0002132578671208648</v>
       </c>
       <c r="CQ67" t="n">
-        <v>-4.736995131931088e-05</v>
+        <v>-4.737025559350874e-05</v>
       </c>
       <c r="CR67" t="n">
-        <v>0.0001660780068992026</v>
+        <v>0.0001660783111734009</v>
       </c>
       <c r="CS67" t="n">
         <v>0</v>
@@ -22350,7 +22350,7 @@
         <v>-0.6025274495925416</v>
       </c>
       <c r="BE68" t="n">
-        <v>-0.6796578825071979</v>
+        <v>-0.679658257055389</v>
       </c>
       <c r="BF68" t="n">
         <v>-0.7344500101267638</v>
@@ -22444,10 +22444,10 @@
         <v>0.1737981994803348</v>
       </c>
       <c r="CI68" t="n">
-        <v>0.818691569666597</v>
+        <v>0.8186916189324135</v>
       </c>
       <c r="CJ68" t="n">
-        <v>0.181308430333403</v>
+        <v>0.1813083810675865</v>
       </c>
       <c r="CK68" t="n">
         <v>8.278022469871901e-06</v>
@@ -22468,10 +22468,10 @@
         <v>0.0002263628575880758</v>
       </c>
       <c r="CQ68" t="n">
-        <v>-6.686190875756365e-05</v>
+        <v>-6.686227363980612e-05</v>
       </c>
       <c r="CR68" t="n">
-        <v>0.0001707390992479669</v>
+        <v>0.0001707394641302091</v>
       </c>
       <c r="CS68" t="n">
         <v>0</v>
@@ -22672,7 +22672,7 @@
         <v>-0.5895464742613988</v>
       </c>
       <c r="BE69" t="n">
-        <v>-0.6723431652214303</v>
+        <v>-0.6723435950875613</v>
       </c>
       <c r="BF69" t="n">
         <v>-0.7346788131510454</v>
@@ -22766,10 +22766,10 @@
         <v>0.1869692329735608</v>
       </c>
       <c r="CI69" t="n">
-        <v>0.8043206045191288</v>
+        <v>0.8043206632332339</v>
       </c>
       <c r="CJ69" t="n">
-        <v>0.1956793954808712</v>
+        <v>0.1956793367667661</v>
       </c>
       <c r="CK69" t="n">
         <v>1.945655474615803e-05</v>
@@ -22790,10 +22790,10 @@
         <v>0.0002178456820948957</v>
       </c>
       <c r="CQ69" t="n">
-        <v>-6.430201254373127e-05</v>
+        <v>-6.430244740375946e-05</v>
       </c>
       <c r="CR69" t="n">
-        <v>0.0001533347524193074</v>
+        <v>0.0001533351872793349</v>
       </c>
       <c r="CS69" t="n">
         <v>0</v>
@@ -22994,7 +22994,7 @@
         <v>-0.5762973768640663</v>
       </c>
       <c r="BE70" t="n">
-        <v>-0.6644616140967406</v>
+        <v>-0.6644621054849018</v>
       </c>
       <c r="BF70" t="n">
         <v>-0.7344184325189352</v>
@@ -23088,10 +23088,10 @@
         <v>0.2010256479670453</v>
       </c>
       <c r="CI70" t="n">
-        <v>0.789017614856499</v>
+        <v>0.7890176843934771</v>
       </c>
       <c r="CJ70" t="n">
-        <v>0.210982385143501</v>
+        <v>0.2109823156065229</v>
       </c>
       <c r="CK70" t="n">
         <v>5.240924682168094e-05</v>
@@ -23112,10 +23112,10 @@
         <v>0.0002769661009030661</v>
       </c>
       <c r="CQ70" t="n">
-        <v>-3.999472126332924e-05</v>
+        <v>-3.999523628186053e-05</v>
       </c>
       <c r="CR70" t="n">
-        <v>0.0002032225431623754</v>
+        <v>0.0002032230581809067</v>
       </c>
       <c r="CS70" t="n">
         <v>0</v>
@@ -23316,7 +23316,7 @@
         <v>-0.5627740162367605</v>
       </c>
       <c r="BE71" t="n">
-        <v>-0.6559321595540791</v>
+        <v>-0.6559327190488338</v>
       </c>
       <c r="BF71" t="n">
         <v>-0.733552899477248</v>
@@ -23410,10 +23410,10 @@
         <v>0.2163327039264843</v>
       </c>
       <c r="CI71" t="n">
-        <v>0.772427979979748</v>
+        <v>0.7724280618542573</v>
       </c>
       <c r="CJ71" t="n">
-        <v>0.227572020020252</v>
+        <v>0.2275719381457427</v>
       </c>
       <c r="CK71" t="n">
         <v>2.061415145269627e-05</v>
@@ -23434,10 +23434,10 @@
         <v>0.0002674708793709208</v>
       </c>
       <c r="CQ71" t="n">
-        <v>-8.035310553943659e-05</v>
+        <v>-8.035371193463366e-05</v>
       </c>
       <c r="CR71" t="n">
-        <v>0.0001842280317755722</v>
+        <v>0.0001842286381707695</v>
       </c>
       <c r="CS71" t="n">
         <v>0</v>
@@ -23638,7 +23638,7 @@
         <v>-0.5489708823584807</v>
       </c>
       <c r="BE72" t="n">
-        <v>-0.6466650761075711</v>
+        <v>-0.646665710538231</v>
       </c>
       <c r="BF72" t="n">
         <v>-0.7319459376537183</v>
@@ -23732,10 +23732,10 @@
         <v>0.2326655320523283</v>
       </c>
       <c r="CI72" t="n">
-        <v>0.7548023440204108</v>
+        <v>0.7548024397829262</v>
       </c>
       <c r="CJ72" t="n">
-        <v>0.2451976559795892</v>
+        <v>0.2451975602170738</v>
       </c>
       <c r="CK72" t="n">
         <v>5.553067138411652e-05</v>
@@ -23756,10 +23756,10 @@
         <v>0.000265213774573732</v>
       </c>
       <c r="CQ72" t="n">
-        <v>-5.36855578658138e-05</v>
+        <v>-5.368626712111066e-05</v>
       </c>
       <c r="CR72" t="n">
-        <v>0.0001723958776999666</v>
+        <v>0.0001723965869552635</v>
       </c>
       <c r="CS72" t="n">
         <v>0</v>
@@ -23960,7 +23960,7 @@
         <v>-0.5348831911873279</v>
       </c>
       <c r="BE73" t="n">
-        <v>-0.6365616695017263</v>
+        <v>-0.6365623857253027</v>
       </c>
       <c r="BF73" t="n">
         <v>-0.7294382374980003</v>
@@ -24054,10 +24054,10 @@
         <v>0.250141167251994</v>
       </c>
       <c r="CI73" t="n">
-        <v>0.7360489442530639</v>
+        <v>0.7360490554777606</v>
       </c>
       <c r="CJ73" t="n">
-        <v>0.2639510557469361</v>
+        <v>0.2639509445222394</v>
       </c>
       <c r="CK73" t="n">
         <v>8.344615946924341e-05</v>
@@ -24078,10 +24078,10 @@
         <v>0.0002990100878807681</v>
       </c>
       <c r="CQ73" t="n">
-        <v>-3.350073624260388e-05</v>
+        <v>-3.350156001696858e-05</v>
       </c>
       <c r="CR73" t="n">
-        <v>0.0001967285581415457</v>
+        <v>0.0001967293819159104</v>
       </c>
       <c r="CS73" t="n">
         <v>0</v>
@@ -24282,7 +24282,7 @@
         <v>-0.5205069855674725</v>
       </c>
       <c r="BE74" t="n">
-        <v>-0.6255142451038888</v>
+        <v>-0.6255150496820728</v>
       </c>
       <c r="BF74" t="n">
         <v>-0.7258448322007407</v>
@@ -24376,10 +24376,10 @@
         <v>0.2689668591861877</v>
       </c>
       <c r="CI74" t="n">
-        <v>0.7159907301480529</v>
+        <v>0.715990858363434</v>
       </c>
       <c r="CJ74" t="n">
-        <v>0.2840092698519471</v>
+        <v>0.284009141636566</v>
       </c>
       <c r="CK74" t="n">
         <v>7.576677643069459e-05</v>
@@ -24400,10 +24400,10 @@
         <v>0.0003228141365293762</v>
       </c>
       <c r="CQ74" t="n">
-        <v>-4.816944245795377e-05</v>
+        <v>-4.817039207208849e-05</v>
       </c>
       <c r="CR74" t="n">
-        <v>0.0002114040571197604</v>
+        <v>0.0002114050067338951</v>
       </c>
       <c r="CS74" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>-0.5058392415689144</v>
       </c>
       <c r="BE75" t="n">
-        <v>-0.6134064924524072</v>
+        <v>-0.6134073912644916</v>
       </c>
       <c r="BF75" t="n">
         <v>-0.7209528840702356</v>
@@ -24698,10 +24698,10 @@
         <v>0.2891670232429536</v>
       </c>
       <c r="CI75" t="n">
-        <v>0.6946427028573029</v>
+        <v>0.6946428494224085</v>
       </c>
       <c r="CJ75" t="n">
-        <v>0.3053572971426971</v>
+        <v>0.3053571505775915</v>
       </c>
       <c r="CK75" t="n">
         <v>7.661978642548896e-05</v>
@@ -24722,10 +24722,10 @@
         <v>0.0003067493964471445</v>
       </c>
       <c r="CQ75" t="n">
-        <v>-5.329207171075271e-05</v>
+        <v>-5.329315723024992e-05</v>
       </c>
       <c r="CR75" t="n">
-        <v>0.0001868377851427325</v>
+        <v>0.0001868388706622293</v>
       </c>
       <c r="CS75" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>-0.490877979386001</v>
       </c>
       <c r="BE76" t="n">
-        <v>-0.6001144555634158</v>
+        <v>-0.6001154531448227</v>
       </c>
       <c r="BF76" t="n">
         <v>-0.7145203539635523</v>
@@ -25020,10 +25020,10 @@
         <v>0.3107008239799443</v>
       </c>
       <c r="CI76" t="n">
-        <v>0.672091422400894</v>
+        <v>0.6720915883448677</v>
       </c>
       <c r="CJ76" t="n">
-        <v>0.327908577599106</v>
+        <v>0.3279084116551323</v>
       </c>
       <c r="CK76" t="n">
         <v>0.0001147682465530344</v>
@@ -25044,10 +25044,10 @@
         <v>0.0003104938493755415</v>
       </c>
       <c r="CQ76" t="n">
-        <v>-1.981402796288282e-05</v>
+        <v>-1.981525700998823e-05</v>
       </c>
       <c r="CR76" t="n">
-        <v>0.0001830463783703907</v>
+        <v>0.0001830476074174961</v>
       </c>
       <c r="CS76" t="n">
         <v>0</v>
@@ -25248,7 +25248,7 @@
         <v>-0.4756223776604701</v>
       </c>
       <c r="BE77" t="n">
-        <v>-0.5855082928714151</v>
+        <v>-0.5855093916539157</v>
       </c>
       <c r="BF77" t="n">
         <v>-0.706276235745137</v>
@@ -25342,10 +25342,10 @@
         <v>0.3336996091057276</v>
       </c>
       <c r="CI77" t="n">
-        <v>0.6482542995317475</v>
+        <v>0.648254485390228</v>
       </c>
       <c r="CJ77" t="n">
-        <v>0.3517457004682525</v>
+        <v>0.351745514609772</v>
       </c>
       <c r="CK77" t="n">
         <v>0.0001311646289964951</v>
@@ -25366,10 +25366,10 @@
         <v>0.0007996746989758557</v>
       </c>
       <c r="CQ77" t="n">
-        <v>-6.499160590111609e-06</v>
+        <v>-6.500537131979081e-06</v>
       </c>
       <c r="CR77" t="n">
-        <v>0.0005323616310899245</v>
+        <v>0.0005323643841736603</v>
       </c>
       <c r="CS77" t="n">
         <v>0</v>
@@ -25570,7 +25570,7 @@
         <v>-0.4442313606846873</v>
       </c>
       <c r="BE78" t="n">
-        <v>-0.5518227405035322</v>
+        <v>-0.5518240357074844</v>
       </c>
       <c r="BF78" t="n">
         <v>-0.6831443922941114</v>
@@ -25664,10 +25664,10 @@
         <v>0.3842652207419101</v>
       </c>
       <c r="CI78" t="n">
-        <v>0.5967621250989613</v>
+        <v>0.5967623492745586</v>
       </c>
       <c r="CJ78" t="n">
-        <v>0.4032378749010387</v>
+        <v>0.4032376507254414</v>
       </c>
       <c r="CK78" t="n">
         <v>0.0005062261679120734</v>
@@ -25688,10 +25688,10 @@
         <v>0.0002998498845506051</v>
       </c>
       <c r="CQ78" t="n">
-        <v>0.0002303814384885354</v>
+        <v>0.0002303781178211693</v>
       </c>
       <c r="CR78" t="n">
-        <v>0.0001593308578170007</v>
+        <v>0.0001593325181506833</v>
       </c>
       <c r="CS78" t="n">
         <v>0</v>
@@ -25892,7 +25892,7 @@
         <v>-0.4281011414503877</v>
       </c>
       <c r="BE79" t="n">
-        <v>-0.5324857873131856</v>
+        <v>-0.5324871665986861</v>
       </c>
       <c r="BF79" t="n">
         <v>-0.6676140006442796</v>
@@ -25986,10 +25986,10 @@
         <v>0.4118641991827489</v>
       </c>
       <c r="CI79" t="n">
-        <v>0.5691778820160805</v>
+        <v>0.5691781221408305</v>
       </c>
       <c r="CJ79" t="n">
-        <v>0.4308221179839195</v>
+        <v>0.4308218778591695</v>
       </c>
       <c r="CK79" t="n">
         <v>0.0001795632464373824</v>
@@ -26010,10 +26010,10 @@
         <v>0.0003055023696044434</v>
       </c>
       <c r="CQ79" t="n">
-        <v>4.496902340571114e-05</v>
+        <v>4.496724494625678e-05</v>
       </c>
       <c r="CR79" t="n">
-        <v>0.0001650924787957061</v>
+        <v>0.0001650942572551601</v>
       </c>
       <c r="CS79" t="n">
         <v>0</v>
@@ -26214,7 +26214,7 @@
         <v>-0.41168720055224</v>
       </c>
       <c r="BE80" t="n">
-        <v>-0.5113322394129102</v>
+        <v>-0.5113336888262573</v>
       </c>
       <c r="BF80" t="n">
         <v>-0.6490157701503447</v>
@@ -26308,10 +26308,10 @@
         <v>0.4409717762517936</v>
       </c>
       <c r="CI80" t="n">
-        <v>0.5404599213550374</v>
+        <v>0.540460174130543</v>
       </c>
       <c r="CJ80" t="n">
-        <v>0.4595400786449626</v>
+        <v>0.459539825869457</v>
       </c>
       <c r="CK80" t="n">
         <v>0.000176312140294422</v>
@@ -26332,10 +26332,10 @@
         <v>0.0002970788789688809</v>
       </c>
       <c r="CQ80" t="n">
-        <v>4.760416596562202e-05</v>
+        <v>4.76022938096371e-05</v>
       </c>
       <c r="CR80" t="n">
-        <v>0.0001595546423228452</v>
+        <v>0.0001595565144788301</v>
       </c>
       <c r="CS80" t="n">
         <v>0</v>
@@ -26536,7 +26536,7 @@
         <v>-0.3949962280263319</v>
       </c>
       <c r="BE81" t="n">
-        <v>-0.4882724833448742</v>
+        <v>-0.4882739768531583</v>
       </c>
       <c r="BF81" t="n">
         <v>-0.6270674711299822</v>
@@ -26630,10 +26630,10 @@
         <v>0.4714776263799605</v>
       </c>
       <c r="CI81" t="n">
-        <v>0.5107414104593941</v>
+        <v>0.5107416702578894</v>
       </c>
       <c r="CJ81" t="n">
-        <v>0.4892585895406059</v>
+        <v>0.4892583297421106</v>
       </c>
       <c r="CK81" t="n">
         <v>0.0001807255414238915</v>
@@ -26654,10 +26654,10 @@
         <v>0.0002640526079567894</v>
       </c>
       <c r="CQ81" t="n">
-        <v>6.055247563769564e-05</v>
+        <v>6.055055146665439e-05</v>
       </c>
       <c r="CR81" t="n">
-        <v>0.0001323597189828011</v>
+        <v>0.0001323616431538424</v>
       </c>
       <c r="CS81" t="n">
         <v>0</v>
@@ -26858,7 +26858,7 @@
         <v>-0.3780367304346041</v>
       </c>
       <c r="BE82" t="n">
-        <v>-0.4632493696355666</v>
+        <v>-0.4632508742771951</v>
       </c>
       <c r="BF82" t="n">
         <v>-0.6015529112689372</v>
@@ -26952,10 +26952,10 @@
         <v>0.5032460311097755</v>
       </c>
       <c r="CI82" t="n">
-        <v>0.4801572694502569</v>
+        <v>0.4801575293276235</v>
       </c>
       <c r="CJ82" t="n">
-        <v>0.5198427305497431</v>
+        <v>0.5198424706723765</v>
       </c>
       <c r="CK82" t="n">
         <v>0.0002031636061192907</v>
@@ -26976,10 +26976,10 @@
         <v>0.0002513438780814828</v>
       </c>
       <c r="CQ82" t="n">
-        <v>9.415860006954614e-05</v>
+        <v>9.415667531435324e-05</v>
       </c>
       <c r="CR82" t="n">
-        <v>0.0001284221174920547</v>
+        <v>0.0001284240422472472</v>
       </c>
       <c r="CS82" t="n">
         <v>0</v>
@@ -27180,7 +27180,7 @@
         <v>-0.3608191133840355</v>
       </c>
       <c r="BE83" t="n">
-        <v>-0.4362491323423238</v>
+        <v>-0.4362506069290625</v>
       </c>
       <c r="BF83" t="n">
         <v>-0.5723590466978944</v>
@@ -27274,10 +27274,10 @@
         <v>0.5360382344494569</v>
       </c>
       <c r="CI83" t="n">
-        <v>0.4489154629187677</v>
+        <v>0.4489157145903862</v>
       </c>
       <c r="CJ83" t="n">
-        <v>0.5510845370812323</v>
+        <v>0.5510842854096138</v>
       </c>
       <c r="CK83" t="n">
         <v>0.0001983159222975718</v>
@@ -27298,10 +27298,10 @@
         <v>0.0002310592810510128</v>
       </c>
       <c r="CQ83" t="n">
-        <v>0.0001029671341320902</v>
+        <v>0.0001029652701519334</v>
       </c>
       <c r="CR83" t="n">
-        <v>0.0001196203761923047</v>
+        <v>0.0001196222401724616</v>
       </c>
       <c r="CS83" t="n">
         <v>0</v>
@@ -27502,7 +27502,7 @@
         <v>-0.3433557485058393</v>
       </c>
       <c r="BE84" t="n">
-        <v>-0.4073121571999854</v>
+        <v>-0.4073135533551003</v>
       </c>
       <c r="BF84" t="n">
         <v>-0.5395140506557018</v>
@@ -27596,10 +27596,10 @@
         <v>0.5695531571756394</v>
       </c>
       <c r="CI84" t="n">
-        <v>0.4172536746729612</v>
+        <v>0.4172539089639593</v>
       </c>
       <c r="CJ84" t="n">
-        <v>0.5827463253270388</v>
+        <v>0.5827460910360407</v>
       </c>
       <c r="CK84" t="n">
         <v>0.0001943695270120085</v>
@@ -27620,10 +27620,10 @@
         <v>0.0006037424823817691</v>
       </c>
       <c r="CQ84" t="n">
-        <v>0.0001148794271367665</v>
+        <v>0.0001148776918843998</v>
       </c>
       <c r="CR84" t="n">
-        <v>0.0004083147754707171</v>
+        <v>0.0004083182459754513</v>
       </c>
       <c r="CS84" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>-0.3077513597825891</v>
       </c>
       <c r="BE85" t="n">
-        <v>-0.3441129513417175</v>
+        <v>-0.3441140298409911</v>
       </c>
       <c r="BF85" t="n">
         <v>-0.4638695846097561</v>
@@ -27918,10 +27918,10 @@
         <v>0.6373683921040041</v>
       </c>
       <c r="CI85" t="n">
-        <v>0.3536551410713078</v>
+        <v>0.3536553132761997</v>
       </c>
       <c r="CJ85" t="n">
-        <v>0.6463448589286922</v>
+        <v>0.6463446867238003</v>
       </c>
       <c r="CK85" t="n">
         <v>0.0006197587271841911</v>
@@ -27942,10 +27942,10 @@
         <v>0.0001186437038531935</v>
       </c>
       <c r="CQ85" t="n">
-        <v>0.0005337573213939142</v>
+        <v>0.0005337547705580002</v>
       </c>
       <c r="CR85" t="n">
-        <v>5.216041842922084e-05</v>
+        <v>5.216169384717785e-05</v>
       </c>
       <c r="CS85" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>-0.2896452319510184</v>
       </c>
       <c r="BE86" t="n">
-        <v>-0.3102688806010732</v>
+        <v>-0.3102697219058638</v>
       </c>
       <c r="BF86" t="n">
         <v>-0.4220461897591218</v>
@@ -28240,10 +28240,10 @@
         <v>0.6708444965453071</v>
       </c>
       <c r="CI86" t="n">
-        <v>0.322298447540049</v>
+        <v>0.3222985774803309</v>
       </c>
       <c r="CJ86" t="n">
-        <v>0.677701552459951</v>
+        <v>0.6777014225196691</v>
       </c>
       <c r="CK86" t="n">
         <v>0.0002036716357424937</v>
@@ -28264,10 +28264,10 @@
         <v>0.0001081315209627972</v>
       </c>
       <c r="CQ86" t="n">
-        <v>0.0001800797320336686</v>
+        <v>0.0001800787696442318</v>
       </c>
       <c r="CR86" t="n">
-        <v>5.73454361429233e-05</v>
+        <v>5.734639853235968e-05</v>
       </c>
       <c r="CS86" t="n">
         <v>0</v>
@@ -28468,7 +28468,7 @@
         <v>-0.2713631246288987</v>
       </c>
       <c r="BE87" t="n">
-        <v>-0.2753215278361058</v>
+        <v>-0.2753220891184298</v>
       </c>
       <c r="BF87" t="n">
         <v>-0.3784912735160921</v>
@@ -28562,10 +28562,10 @@
         <v>0.703305317910097</v>
       </c>
       <c r="CI87" t="n">
-        <v>0.2917989917390112</v>
+        <v>0.291799075132814</v>
       </c>
       <c r="CJ87" t="n">
-        <v>0.7082010082609889</v>
+        <v>0.708200924867186</v>
       </c>
       <c r="CK87" t="n">
         <v>0.0001729015864496701</v>
@@ -28586,10 +28586,10 @@
         <v>4.578150439051541e-05</v>
       </c>
       <c r="CQ87" t="n">
-        <v>0.0001685456705583679</v>
+        <v>0.0001685450529106784</v>
       </c>
       <c r="CR87" t="n">
-        <v>9.522073447089212e-06</v>
+        <v>9.52269109477915e-06</v>
       </c>
       <c r="CS87" t="n">
         <v>0</v>
@@ -28790,7 +28790,7 @@
         <v>-0.2529274864263613</v>
       </c>
       <c r="BE88" t="n">
-        <v>-0.2396382749469392</v>
+        <v>-0.2396385262585631</v>
       </c>
       <c r="BF88" t="n">
         <v>-0.3340524008419037</v>
@@ -28884,10 +28884,10 @@
         <v>0.7346347868338216</v>
       </c>
       <c r="CI88" t="n">
-        <v>0.2621757800362345</v>
+        <v>0.2621758157340764</v>
       </c>
       <c r="CJ88" t="n">
-        <v>0.7378242199637655</v>
+        <v>0.7378241842659236</v>
       </c>
       <c r="CK88" t="n">
         <v>0.0001958983042730628</v>
@@ -28908,10 +28908,10 @@
         <v>3.632823627515783e-05</v>
       </c>
       <c r="CQ88" t="n">
-        <v>0.0002098792207674486</v>
+        <v>0.0002098789563750255</v>
       </c>
       <c r="CR88" t="n">
-        <v>1.270602530284697e-05</v>
+        <v>1.270628969526986e-05</v>
       </c>
       <c r="CS88" t="n">
         <v>0</v>
@@ -29112,7 +29112,7 @@
         <v>-0.2343626423677813</v>
       </c>
       <c r="BE89" t="n">
-        <v>-0.2036255502541831</v>
+        <v>-0.2036254779639295</v>
       </c>
       <c r="BF89" t="n">
         <v>-0.2896130017480748</v>
@@ -29206,10 +29206,10 @@
         <v>0.7641867580362608</v>
       </c>
       <c r="CI89" t="n">
-        <v>0.2340056827906492</v>
+        <v>0.2340056730288622</v>
       </c>
       <c r="CJ89" t="n">
-        <v>0.7659943172093509</v>
+        <v>0.7659943269711378</v>
       </c>
       <c r="CK89" t="n">
         <v>0.0001651918252785188</v>
@@ -29230,10 +29230,10 @@
         <v>-4.477678438839089e-06</v>
       </c>
       <c r="CQ89" t="n">
-        <v>0.000195932924985303</v>
+        <v>0.0001959329972849818</v>
       </c>
       <c r="CR89" t="n">
-        <v>-1.786518097990006e-05</v>
+        <v>-1.786525327957932e-05</v>
       </c>
       <c r="CS89" t="n">
         <v>0</v>
@@ -29434,7 +29434,7 @@
         <v>-0.2156946763409686</v>
       </c>
       <c r="BE90" t="n">
-        <v>-0.167707571971117</v>
+        <v>-0.1677071802377976</v>
       </c>
       <c r="BF90" t="n">
         <v>-0.2460188993452062</v>
@@ -29528,10 +29528,10 @@
         <v>0.7919197994105998</v>
       </c>
       <c r="CI90" t="n">
-        <v>0.2073033216426313</v>
+        <v>0.2073032716687703</v>
       </c>
       <c r="CJ90" t="n">
-        <v>0.7926966783573687</v>
+        <v>0.7926967283312297</v>
       </c>
       <c r="CK90" t="n">
         <v>0.0001702932364321271</v>
@@ -29552,10 +29552,10 @@
         <v>2.754554915536476e-05</v>
       </c>
       <c r="CQ90" t="n">
-        <v>0.0002156334936544598</v>
+        <v>0.0002156338637807613</v>
       </c>
       <c r="CR90" t="n">
-        <v>2.179167452221169e-05</v>
+        <v>2.179130439591056e-05</v>
       </c>
       <c r="CS90" t="n">
         <v>0</v>
@@ -29756,7 +29756,7 @@
         <v>-0.1969512818043289</v>
       </c>
       <c r="BE91" t="n">
-        <v>-0.1323031626163519</v>
+        <v>-0.1323024726778913</v>
       </c>
       <c r="BF91" t="n">
         <v>-0.2040145725884466</v>
@@ -29850,10 +29850,10 @@
         <v>0.817095271054283</v>
       </c>
       <c r="CI91" t="n">
-        <v>0.1828147913352043</v>
+        <v>0.1828147085507212</v>
       </c>
       <c r="CJ91" t="n">
-        <v>0.8171852086647957</v>
+        <v>0.8171852914492788</v>
       </c>
       <c r="CK91" t="n">
         <v>0.000102128605941592</v>
@@ -29874,10 +29874,10 @@
         <v>-4.020142814713246e-05</v>
       </c>
       <c r="CQ91" t="n">
-        <v>0.0001595801259688938</v>
+        <v>0.0001595807391037197</v>
       </c>
       <c r="CR91" t="n">
-        <v>-4.086754188061415e-05</v>
+        <v>-4.086815501543918e-05</v>
       </c>
       <c r="CS91" t="n">
         <v>0</v>
@@ -30078,7 +30078,7 @@
         <v>-0.1781615816574875</v>
       </c>
       <c r="BE92" t="n">
-        <v>-0.09780347577488213</v>
+        <v>-0.09780252322668979</v>
       </c>
       <c r="BF92" t="n">
         <v>-0.1641989770671167</v>
@@ -30172,10 +30172,10 @@
         <v>0.8404699357174167</v>
       </c>
       <c r="CI92" t="n">
-        <v>0.1598219411397018</v>
+        <v>0.1598218344124846</v>
       </c>
       <c r="CJ92" t="n">
-        <v>0.8401780588602983</v>
+        <v>0.8401781655875155</v>
       </c>
       <c r="CK92" t="n">
         <v>0.0001444772305003803</v>
@@ -30196,10 +30196,10 @@
         <v>-5.580436712006656e-06</v>
       </c>
       <c r="CQ92" t="n">
-        <v>0.0002111617402676511</v>
+        <v>0.0002111625307318929</v>
       </c>
       <c r="CR92" t="n">
-        <v>-3.418680557894585e-06</v>
+        <v>-3.41947102213639e-06</v>
       </c>
       <c r="CS92" t="n">
         <v>0</v>
@@ -30400,7 +30400,7 @@
         <v>-0.1593559191278867</v>
       </c>
       <c r="BE93" t="n">
-        <v>-0.06455324851249045</v>
+        <v>-0.06455207914964799</v>
       </c>
       <c r="BF93" t="n">
         <v>-0.1270049040651081</v>
@@ -30494,10 +30494,10 @@
         <v>0.861152538787093</v>
       </c>
       <c r="CI93" t="n">
-        <v>0.1392721858768946</v>
+        <v>0.1392720639713712</v>
       </c>
       <c r="CJ93" t="n">
-        <v>0.8607278141231054</v>
+        <v>0.8607279360286287</v>
       </c>
       <c r="CK93" t="n">
         <v>8.241992541490294e-05</v>
@@ -30518,10 +30518,10 @@
         <v>-4.004917719644362e-05</v>
       </c>
       <c r="CQ93" t="n">
-        <v>0.0001556183456613675</v>
+        <v>0.0001556192485421854</v>
       </c>
       <c r="CR93" t="n">
-        <v>-3.690349731883067e-05</v>
+        <v>-3.690440019964766e-05</v>
       </c>
       <c r="CS93" t="n">
         <v>0</v>
@@ -30722,7 +30722,7 @@
         <v>-0.1405656224774885</v>
       </c>
       <c r="BE94" t="n">
-        <v>-0.0328374386786326</v>
+        <v>-0.03283610371224848</v>
       </c>
       <c r="BF94" t="n">
         <v>-0.09270010674402136</v>
@@ -30816,10 +30816,10 @@
         <v>0.8798737841479151</v>
       </c>
       <c r="CI94" t="n">
-        <v>0.1204975347837487</v>
+        <v>0.1204974061208967</v>
       </c>
       <c r="CJ94" t="n">
-        <v>0.8795024652162513</v>
+        <v>0.8795025938791032</v>
       </c>
       <c r="CK94" t="n">
         <v>9.905729432909544e-05</v>
@@ -30840,10 +30840,10 @@
         <v>-1.547834842443446e-05</v>
       </c>
       <c r="CQ94" t="n">
-        <v>0.0001759560345518783</v>
+        <v>0.000175956987480161</v>
       </c>
       <c r="CR94" t="n">
-        <v>-1.272821265283722e-05</v>
+        <v>-1.272916558111951e-05</v>
       </c>
       <c r="CS94" t="n">
         <v>0</v>
@@ -31044,7 +31044,7 @@
         <v>-0.1218227472445865</v>
       </c>
       <c r="BE95" t="n">
-        <v>-0.002874065451935787</v>
+        <v>-0.002872616919317227</v>
       </c>
       <c r="BF95" t="n">
         <v>-0.06140460773734636</v>
@@ -31138,10 +31138,10 @@
         <v>0.8961644979713462</v>
       </c>
       <c r="CI95" t="n">
-        <v>0.1040303126544789</v>
+        <v>0.1040301839610412</v>
       </c>
       <c r="CJ95" t="n">
-        <v>0.8959696873455211</v>
+        <v>0.8959698160389588</v>
       </c>
       <c r="CK95" t="n">
         <v>5.642110913654786e-05</v>
@@ -31162,10 +31162,10 @@
         <v>5.419330585570287e-05</v>
       </c>
       <c r="CQ95" t="n">
-        <v>0.0001346910127546853</v>
+        <v>0.0001346919659094973</v>
       </c>
       <c r="CR95" t="n">
-        <v>5.707899589239666e-05</v>
+        <v>5.707708958277262e-05</v>
       </c>
       <c r="CS95" t="n">
         <v>0</v>
@@ -31366,7 +31366,7 @@
         <v>-0.08460945276529319</v>
       </c>
       <c r="BE96" t="n">
-        <v>0.05126003842076964</v>
+        <v>0.05126157262663469</v>
       </c>
       <c r="BF96" t="n">
         <v>-0.007745581630801828</v>
@@ -31460,10 +31460,10 @@
         <v>0.9231301545738934</v>
       </c>
       <c r="CI96" t="n">
-        <v>0.07654615326387697</v>
+        <v>0.07654603899473934</v>
       </c>
       <c r="CJ96" t="n">
-        <v>0.9234538467361231</v>
+        <v>0.9234539610052607</v>
       </c>
       <c r="CK96" t="n">
         <v>0.0002001373271183441</v>
@@ -31484,10 +31484,10 @@
         <v>-2.4231991160268e-05</v>
       </c>
       <c r="CQ96" t="n">
-        <v>0.0003500382472478231</v>
+        <v>0.0003500399398932348</v>
       </c>
       <c r="CR96" t="n">
-        <v>-2.662938412470624e-05</v>
+        <v>-2.66302304474126e-05</v>
       </c>
       <c r="CS96" t="n">
         <v>0</v>
@@ -31688,7 +31688,7 @@
         <v>-0.06620424209362544</v>
       </c>
       <c r="BE97" t="n">
-        <v>0.0753165007675943</v>
+        <v>0.07531801996896799</v>
       </c>
       <c r="BF97" t="n">
         <v>0.01486631130764276</v>
@@ -31782,10 +31782,10 @@
         <v>0.9340332673619943</v>
       </c>
       <c r="CI97" t="n">
-        <v>0.06537638960001105</v>
+        <v>0.06537628654736422</v>
       </c>
       <c r="CJ97" t="n">
-        <v>0.934623610399989</v>
+        <v>0.9346237134526358</v>
       </c>
       <c r="CK97" t="n">
         <v>3.825687804859647e-05</v>
@@ -31806,10 +31806,10 @@
         <v>-1.111555238632669e-06</v>
       </c>
       <c r="CQ97" t="n">
-        <v>0.0001093570987463107</v>
+        <v>0.0001093578619952222</v>
       </c>
       <c r="CR97" t="n">
-        <v>-5.483870700782011e-06</v>
+        <v>-5.484633949694e-06</v>
       </c>
       <c r="CS97" t="n">
         <v>0</v>
@@ -32010,7 +32010,7 @@
         <v>-0.04797627846741732</v>
       </c>
       <c r="BE98" t="n">
-        <v>0.09737525033421919</v>
+        <v>0.09737672610135628</v>
       </c>
       <c r="BF98" t="n">
         <v>0.03491310924192141</v>
@@ -32104,10 +32104,10 @@
         <v>0.9432015851714718</v>
       </c>
       <c r="CI98" t="n">
-        <v>0.05596515206415204</v>
+        <v>0.05596506085916859</v>
       </c>
       <c r="CJ98" t="n">
-        <v>0.944034847935848</v>
+        <v>0.9440349391408314</v>
       </c>
       <c r="CK98" t="n">
         <v>8.655730986001646e-06</v>
@@ -32128,10 +32128,10 @@
         <v>-9.659897905212392e-06</v>
       </c>
       <c r="CQ98" t="n">
-        <v>7.518724102556718e-05</v>
+        <v>7.518791652596894e-05</v>
       </c>
       <c r="CR98" t="n">
-        <v>-1.583137352909915e-05</v>
+        <v>-1.583204902950042e-05</v>
       </c>
       <c r="CS98" t="n">
         <v>0</v>
@@ -32332,7 +32332,7 @@
         <v>-0.02995695259326412</v>
       </c>
       <c r="BE99" t="n">
-        <v>0.1174926704440156</v>
+        <v>0.1174940817825284</v>
       </c>
       <c r="BF99" t="n">
         <v>0.0526092194322387</v>
@@ -32426,10 +32426,10 @@
         <v>0.9512072469793117</v>
       </c>
       <c r="CI99" t="n">
-        <v>0.04775484865246188</v>
+        <v>0.04775476948694092</v>
       </c>
       <c r="CJ99" t="n">
-        <v>0.9522451513475381</v>
+        <v>0.9522452305130591</v>
       </c>
       <c r="CK99" t="n">
         <v>1.53831666111796e-05</v>
@@ -32450,10 +32450,10 @@
         <v>-9.596723005380128e-06</v>
       </c>
       <c r="CQ99" t="n">
-        <v>7.664014782719146e-05</v>
+        <v>7.664073415854304e-05</v>
       </c>
       <c r="CR99" t="n">
-        <v>-1.728385578303373e-05</v>
+        <v>-1.728444211438612e-05</v>
       </c>
       <c r="CS99" t="n">
         <v>0</v>
@@ -32654,7 +32654,7 @@
         <v>-0.01217665637528258</v>
       </c>
       <c r="BE100" t="n">
-        <v>0.1357528704981775</v>
+        <v>0.1357542031126801</v>
       </c>
       <c r="BF100" t="n">
         <v>0.06817445748209101</v>
@@ -32748,10 +32748,10 @@
         <v>0.9581009615444844</v>
       </c>
       <c r="CI100" t="n">
-        <v>0.04069939565038481</v>
+        <v>0.04069932796177458</v>
       </c>
       <c r="CJ100" t="n">
-        <v>0.9593006043496152</v>
+        <v>0.9593006720382254</v>
       </c>
       <c r="CK100" t="n">
         <v>1.388834832743155e-05</v>
@@ -32772,10 +32772,10 @@
         <v>4.192017975208732e-05</v>
       </c>
       <c r="CQ100" t="n">
-        <v>6.953934838309871e-05</v>
+        <v>6.953984971188221e-05</v>
       </c>
       <c r="CR100" t="n">
-        <v>2.415011574405899e-05</v>
+        <v>2.414911308649091e-05</v>
       </c>
       <c r="CS100" t="n">
         <v>0</v>
@@ -32976,7 +32976,7 @@
         <v>0.02255182695130594</v>
       </c>
       <c r="BE101" t="n">
-        <v>0.1671253891457243</v>
+        <v>0.1671265428912647</v>
       </c>
       <c r="BF101" t="n">
         <v>0.09376268766519923</v>
@@ -33070,10 +33070,10 @@
         <v>0.9689114871360607</v>
       </c>
       <c r="CI101" t="n">
-        <v>0.02968580750581515</v>
+        <v>0.02968575948568939</v>
       </c>
       <c r="CJ101" t="n">
-        <v>0.9703141924941848</v>
+        <v>0.9703142405143106</v>
       </c>
       <c r="CK101" t="n">
         <v>4.985878319207831e-05</v>
@@ -33094,10 +33094,10 @@
         <v>2.250772466091695e-05</v>
       </c>
       <c r="CQ101" t="n">
-        <v>0.0001389919174095122</v>
+        <v>0.0001389926287218334</v>
       </c>
       <c r="CR101" t="n">
-        <v>1.211873058215313e-05</v>
+        <v>1.211837492599236e-05</v>
       </c>
       <c r="CS101" t="n">
         <v>0</v>
@@ -33298,7 +33298,7 @@
         <v>0.03944647274330639</v>
       </c>
       <c r="BE102" t="n">
-        <v>0.1804723996664458</v>
+        <v>0.1804734613088777</v>
       </c>
       <c r="BF102" t="n">
         <v>0.1041799441325159</v>
@@ -33392,10 +33392,10 @@
         <v>0.9728973019559443</v>
       </c>
       <c r="CI102" t="n">
-        <v>0.02564104085012253</v>
+        <v>0.02564100057120943</v>
       </c>
       <c r="CJ102" t="n">
-        <v>0.9743589591498775</v>
+        <v>0.9743589994287906</v>
       </c>
       <c r="CK102" t="n">
         <v>-2.178988263953113e-05</v>
@@ -33416,10 +33416,10 @@
         <v>0.0001125125314555449</v>
       </c>
       <c r="CQ102" t="n">
-        <v>1.783842085568388e-05</v>
+        <v>1.7838719177343e-05</v>
       </c>
       <c r="CR102" t="n">
-        <v>8.003568695287219e-05</v>
+        <v>8.003479198789507e-05</v>
       </c>
       <c r="CS102" t="n">
         <v>1</v>
@@ -33620,7 +33620,7 @@
         <v>0.08797044948193494</v>
       </c>
       <c r="BE103" t="n">
-        <v>0.2125920927949733</v>
+        <v>0.2125928962801122</v>
       </c>
       <c r="BF103" t="n">
         <v>0.1279548321551063</v>
@@ -33714,10 +33714,10 @@
         <v>0.9820427255172643</v>
       </c>
       <c r="CI103" t="n">
-        <v>0.01648550087878988</v>
+        <v>0.016485477987424</v>
       </c>
       <c r="CJ103" t="n">
-        <v>0.9835144991212101</v>
+        <v>0.9835145220125761</v>
       </c>
       <c r="CK103" t="n">
         <v>4.450417947691088e-05</v>
@@ -33738,10 +33738,10 @@
         <v>0.0001461804000206443</v>
       </c>
       <c r="CQ103" t="n">
-        <v>0.0001233930302737927</v>
+        <v>0.0001233935389014881</v>
       </c>
       <c r="CR103" t="n">
-        <v>0.0001025782360505254</v>
+        <v>0.0001025775578802658</v>
       </c>
       <c r="CS103" t="n">
         <v>0</v>
@@ -33942,7 +33942,7 @@
         <v>0.1469547163039552</v>
       </c>
       <c r="BE104" t="n">
-        <v>0.2409769047469189</v>
+        <v>0.2409774388102171</v>
       </c>
       <c r="BF104" t="n">
         <v>0.1470407507140782</v>
@@ -34036,10 +34036,10 @@
         <v>0.9891323699885186</v>
       </c>
       <c r="CI104" t="n">
-        <v>0.009563000346265602</v>
+        <v>0.009562989741495108</v>
       </c>
       <c r="CJ104" t="n">
-        <v>0.9904369996537344</v>
+        <v>0.9904370102585049</v>
       </c>
       <c r="CK104" t="n">
         <v>4.719464944321483e-05</v>
@@ -34060,10 +34060,10 @@
         <v>0.0002729445038296766</v>
       </c>
       <c r="CQ104" t="n">
-        <v>0.0001025049387619351</v>
+        <v>0.0001025052529345366</v>
       </c>
       <c r="CR104" t="n">
-        <v>0.0001956436520811275</v>
+        <v>0.0001956430237359252</v>
       </c>
       <c r="CS104" t="n">
         <v>0</v>
@@ -34264,7 +34264,7 @@
         <v>0.2431422416322013</v>
       </c>
       <c r="BE105" t="n">
-        <v>0.2674480242024508</v>
+        <v>0.267448253597393</v>
       </c>
       <c r="BF105" t="n">
         <v>0.1614950148848834</v>
@@ -34358,10 +34358,10 @@
         <v>0.9955831026696516</v>
       </c>
       <c r="CI105" t="n">
-        <v>0.003571785063866441</v>
+        <v>0.003571782749080138</v>
       </c>
       <c r="CJ105" t="n">
-        <v>0.9964282149361335</v>
+        <v>0.9964282172509199</v>
       </c>
       <c r="CK105" t="n">
         <v>0.0001448106660313766</v>
@@ -34382,10 +34382,10 @@
         <v>6.272867823620826e-05</v>
       </c>
       <c r="CQ105" t="n">
-        <v>0.0001593429442582664</v>
+        <v>0.0001593430814120945</v>
       </c>
       <c r="CR105" t="n">
-        <v>2.517325172476936e-05</v>
+        <v>2.517314885939342e-05</v>
       </c>
       <c r="CS105" t="n">
         <v>0</v>
@@ -34586,7 +34586,7 @@
         <v>0.2964504934902835</v>
       </c>
       <c r="BE106" t="n">
-        <v>0.2730340329804871</v>
+        <v>0.2730341558325621</v>
       </c>
       <c r="BF106" t="n">
         <v>0.162329266327565</v>
@@ -34680,10 +34680,10 @@
         <v>0.9976977988786896</v>
       </c>
       <c r="CI106" t="n">
-        <v>0.001750050083109452</v>
+        <v>0.001750049340577291</v>
       </c>
       <c r="CJ106" t="n">
-        <v>0.9982499499168905</v>
+        <v>0.9982499506594227</v>
       </c>
       <c r="CK106" t="n">
         <v>6.207115845896624e-05</v>
@@ -34698,7 +34698,7 @@
       </c>
       <c r="CP106" t="inlineStr"/>
       <c r="CQ106" t="n">
-        <v>5.578171355803026e-05</v>
+        <v>5.578174655496231e-05</v>
       </c>
       <c r="CR106" t="inlineStr"/>
       <c r="CS106" t="n">
@@ -34900,7 +34900,7 @@
         <v>-0.7828847577948821</v>
       </c>
       <c r="BE107" t="n">
-        <v>-0.7210665939272015</v>
+        <v>-0.7210664315448543</v>
       </c>
       <c r="BF107" t="n">
         <v>-0.5748539483471534</v>
@@ -34994,10 +34994,10 @@
         <v>0.03680086371941493</v>
       </c>
       <c r="CI107" t="n">
-        <v>0.9687748386500227</v>
+        <v>0.9687748325909344</v>
       </c>
       <c r="CJ107" t="n">
-        <v>0.03122516134997733</v>
+        <v>0.03122516740906556</v>
       </c>
       <c r="CK107" t="inlineStr"/>
       <c r="CL107" t="n">
@@ -35013,7 +35013,7 @@
       </c>
       <c r="CQ107" t="inlineStr"/>
       <c r="CR107" t="n">
-        <v>0.0001466798153180494</v>
+        <v>0.0001466789177976772</v>
       </c>
       <c r="CS107" t="n">
         <v>0</v>
@@ -35214,7 +35214,7 @@
         <v>-0.6461274869000885</v>
       </c>
       <c r="BE108" t="n">
-        <v>-0.6053099844498644</v>
+        <v>-0.6053099153080291</v>
       </c>
       <c r="BF108" t="n">
         <v>-0.5304111887021045</v>
@@ -35308,10 +35308,10 @@
         <v>0.06728521071803573</v>
       </c>
       <c r="CI108" t="n">
-        <v>0.9390797874766312</v>
+        <v>0.9390797818602372</v>
       </c>
       <c r="CJ108" t="n">
-        <v>0.06092021252336877</v>
+        <v>0.06092021813976278</v>
       </c>
       <c r="CK108" t="n">
         <v>0.003760853365146588</v>
@@ -35332,10 +35332,10 @@
         <v>-0.0003356177089017666</v>
       </c>
       <c r="CQ108" t="n">
-        <v>0.004251987503120253</v>
+        <v>0.004251988335065238</v>
       </c>
       <c r="CR108" t="n">
-        <v>-5.276745169236581e-05</v>
+        <v>-5.27677012758603e-05</v>
       </c>
       <c r="CS108" t="n">
         <v>0</v>
@@ -35536,7 +35536,7 @@
         <v>-0.6100676087905396</v>
       </c>
       <c r="BE109" t="n">
-        <v>-0.5795830975143329</v>
+        <v>-0.579583049858807</v>
       </c>
       <c r="BF109" t="n">
         <v>-0.5235988583272636</v>
@@ -35630,10 +35630,10 @@
         <v>0.08382722110099872</v>
       </c>
       <c r="CI109" t="n">
-        <v>0.9222489997088043</v>
+        <v>0.9222489948573179</v>
       </c>
       <c r="CJ109" t="n">
-        <v>0.07775100029119575</v>
+        <v>0.07775100514268207</v>
       </c>
       <c r="CK109" t="n">
         <v>0.000662789470070542</v>
@@ -35654,10 +35654,10 @@
         <v>-0.0001014074483811035</v>
       </c>
       <c r="CQ109" t="n">
-        <v>0.0008007005230882616</v>
+        <v>0.0008007007386804862</v>
       </c>
       <c r="CR109" t="n">
-        <v>0.0001686100074531965</v>
+        <v>0.0001686097918609667</v>
       </c>
       <c r="CS109" t="n">
         <v>0</v>
@@ -35858,7 +35858,7 @@
         <v>-0.5745677547190575</v>
       </c>
       <c r="BE110" t="n">
-        <v>-0.5561058985808001</v>
+        <v>-0.5561058750045196</v>
       </c>
       <c r="BF110" t="n">
         <v>-0.5186992447689065</v>
@@ -35952,10 +35952,10 @@
         <v>0.1061460780470876</v>
       </c>
       <c r="CI110" t="n">
-        <v>0.8991005250057426</v>
+        <v>0.8991005220243086</v>
       </c>
       <c r="CJ110" t="n">
-        <v>0.1008994749942574</v>
+        <v>0.1008994779756914</v>
       </c>
       <c r="CK110" t="n">
         <v>0.0007563219715749289</v>
@@ -35976,10 +35976,10 @@
         <v>-7.03594130146278e-05</v>
       </c>
       <c r="CQ110" t="n">
-        <v>0.0008600708850649563</v>
+        <v>0.0008600710175550794</v>
       </c>
       <c r="CR110" t="n">
-        <v>-3.150098295746407e-05</v>
+        <v>-3.15010050391506e-05</v>
       </c>
       <c r="CS110" t="n">
         <v>1</v>
@@ -36180,7 +36180,7 @@
         <v>-0.5686447074507671</v>
       </c>
       <c r="BE111" t="n">
-        <v>-0.5523339861815466</v>
+        <v>-0.552333967165657</v>
       </c>
       <c r="BF111" t="n">
         <v>-0.5180114565685084</v>
@@ -36274,10 +36274,10 @@
         <v>0.1105369719839849</v>
       </c>
       <c r="CI111" t="n">
-        <v>0.894502318413595</v>
+        <v>0.8945023159236604</v>
       </c>
       <c r="CJ111" t="n">
-        <v>0.105497681586405</v>
+        <v>0.1054976840763396</v>
       </c>
       <c r="CK111" t="n">
         <v>4.973913350894872e-05</v>
@@ -36298,10 +36298,10 @@
         <v>-5.513051303577187e-05</v>
       </c>
       <c r="CQ111" t="n">
-        <v>6.555713080213122e-05</v>
+        <v>6.555714924357751e-05</v>
       </c>
       <c r="CR111" t="n">
-        <v>5.68384570656345e-05</v>
+        <v>5.683840174129521e-05</v>
       </c>
       <c r="CS111" t="n">
         <v>0</v>
@@ -36502,7 +36502,7 @@
         <v>-0.5507857584847153</v>
       </c>
       <c r="BE112" t="n">
-        <v>-0.5411428512243673</v>
+        <v>-0.5411428473208949</v>
       </c>
       <c r="BF112" t="n">
         <v>-0.5160675661621758</v>
@@ -36596,10 +36596,10 @@
         <v>0.1252003827442948</v>
       </c>
       <c r="CI112" t="n">
-        <v>0.879081410821643</v>
+        <v>0.8790814102554645</v>
       </c>
       <c r="CJ112" t="n">
-        <v>0.120918589178357</v>
+        <v>0.1209185897445355</v>
       </c>
       <c r="CK112" t="n">
         <v>0.0002547247178968613</v>
@@ -36620,10 +36620,10 @@
         <v>8.135115269300441e-05</v>
       </c>
       <c r="CQ112" t="n">
-        <v>0.0002858016777297287</v>
+        <v>0.0002858016903097595</v>
       </c>
       <c r="CR112" t="n">
-        <v>0.000176489153867759</v>
+        <v>0.0001764891412877278</v>
       </c>
       <c r="CS112" t="n">
         <v>0</v>
@@ -36824,7 +36824,7 @@
         <v>-0.5327096085438012</v>
       </c>
       <c r="BE113" t="n">
-        <v>-0.529995190592661</v>
+        <v>-0.5299952046230156</v>
       </c>
       <c r="BF113" t="n">
         <v>-0.5141604505730746</v>
@@ -36918,10 +36918,10 @@
         <v>0.1425144600889892</v>
       </c>
       <c r="CI113" t="n">
-        <v>0.8607886535192129</v>
+        <v>0.8607886557654866</v>
       </c>
       <c r="CJ113" t="n">
-        <v>0.1392113464807871</v>
+        <v>0.1392113442345134</v>
       </c>
       <c r="CK113" t="n">
         <v>0.0002203051265595411</v>
@@ -36942,10 +36942,10 @@
         <v>1.818107984822149e-05</v>
       </c>
       <c r="CQ113" t="n">
-        <v>0.0002299611662907423</v>
+        <v>0.0002299611163803505</v>
       </c>
       <c r="CR113" t="n">
-        <v>4.264525368084023e-05</v>
+        <v>4.264527031763721e-05</v>
       </c>
       <c r="CS113" t="n">
         <v>0</v>
@@ -37146,7 +37146,7 @@
         <v>-0.5266176044602572</v>
       </c>
       <c r="BE114" t="n">
-        <v>-0.5262532421749258</v>
+        <v>-0.5262532629775687</v>
       </c>
       <c r="BF114" t="n">
         <v>-0.5134943724036414</v>
@@ -37240,10 +37240,10 @@
         <v>0.1489552890845477</v>
       </c>
       <c r="CI114" t="n">
-        <v>0.8539690138960767</v>
+        <v>0.8539690173347058</v>
       </c>
       <c r="CJ114" t="n">
-        <v>0.1460309861039233</v>
+        <v>0.1460309826652942</v>
       </c>
       <c r="CK114" t="n">
         <v>7.417636816376555e-06</v>
@@ -37264,10 +37264,10 @@
         <v>-1.461112334713273e-05</v>
       </c>
       <c r="CQ114" t="n">
-        <v>7.863711194595717e-06</v>
+        <v>7.863685726740462e-06</v>
       </c>
       <c r="CR114" t="n">
-        <v>7.047428232684599e-06</v>
+        <v>7.047453700539637e-06</v>
       </c>
       <c r="CS114" t="n">
         <v>0</v>
@@ -37468,7 +37468,7 @@
         <v>-0.5204857194510227</v>
       </c>
       <c r="BE115" t="n">
-        <v>-0.5224838450906841</v>
+        <v>-0.5224838731384038</v>
       </c>
       <c r="BF115" t="n">
         <v>-0.5127962951760738</v>
@@ -37562,10 +37562,10 @@
         <v>0.1555525377593876</v>
       </c>
       <c r="CI115" t="n">
-        <v>0.8469644810506365</v>
+        <v>0.8469644858317201</v>
       </c>
       <c r="CJ115" t="n">
-        <v>0.1530355189493635</v>
+        <v>0.1530355141682799</v>
       </c>
       <c r="CK115" t="n">
         <v>4.735358885156991e-05</v>
@@ -37586,10 +37586,10 @@
         <v>2.600524154105794e-05</v>
       </c>
       <c r="CQ115" t="n">
-        <v>4.483092942403344e-05</v>
+        <v>4.483089401342583e-05</v>
       </c>
       <c r="CR115" t="n">
-        <v>4.464728447760671e-05</v>
+        <v>4.464731988821475e-05</v>
       </c>
       <c r="CS115" t="n">
         <v>0</v>
@@ -37790,7 +37790,7 @@
         <v>-0.5143100030475928</v>
       </c>
       <c r="BE116" t="n">
-        <v>-0.5186774576338443</v>
+        <v>-0.518677493429738</v>
       </c>
       <c r="BF116" t="n">
         <v>-0.5120544481561996</v>
@@ -37884,10 +37884,10 @@
         <v>0.1626199574020497</v>
       </c>
       <c r="CI116" t="n">
-        <v>0.8394640356645086</v>
+        <v>0.8394640419551678</v>
       </c>
       <c r="CJ116" t="n">
-        <v>0.1605359643354914</v>
+        <v>0.1605359580448322</v>
       </c>
       <c r="CK116" t="n">
         <v>1.658857884681997e-05</v>
@@ -37908,10 +37908,10 @@
         <v>0.0001113584249830997</v>
       </c>
       <c r="CQ116" t="n">
-        <v>1.090399880029382e-05</v>
+        <v>1.090395220916876e-05</v>
       </c>
       <c r="CR116" t="n">
-        <v>0.0001422281889050282</v>
+        <v>0.0001422282820872792</v>
       </c>
       <c r="CS116" t="n">
         <v>0</v>
@@ -38112,7 +38112,7 @@
         <v>-0.5018112518088927</v>
       </c>
       <c r="BE117" t="n">
-        <v>-0.5109120942506381</v>
+        <v>-0.5109121472913695</v>
       </c>
       <c r="BF117" t="n">
         <v>-0.5103856433890025</v>
@@ -38206,10 +38206,10 @@
         <v>0.1777571784761789</v>
       </c>
       <c r="CI117" t="n">
-        <v>0.8233820604177329</v>
+        <v>0.8233820703004835</v>
       </c>
       <c r="CJ117" t="n">
-        <v>0.1766179395822671</v>
+        <v>0.1766179296995165</v>
       </c>
       <c r="CK117" t="n">
         <v>0.000121108938477674</v>
@@ -38230,10 +38230,10 @@
         <v>7.03207164706014e-05</v>
       </c>
       <c r="CQ117" t="n">
-        <v>9.599082786267144e-05</v>
+        <v>9.599068147150489e-05</v>
       </c>
       <c r="CR117" t="n">
-        <v>7.875837307082614e-05</v>
+        <v>7.875844626641006e-05</v>
       </c>
       <c r="CS117" t="n">
         <v>0</v>
@@ -38434,7 +38434,7 @@
         <v>-0.495480298251959</v>
       </c>
       <c r="BE118" t="n">
-        <v>-0.5069303877424106</v>
+        <v>-0.506930450391383</v>
       </c>
       <c r="BF118" t="n">
         <v>-0.5094279486266191</v>
@@ -38528,10 +38528,10 @@
         <v>0.1860089429821518</v>
       </c>
       <c r="CI118" t="n">
-        <v>0.8146211322275221</v>
+        <v>0.8146211442355374</v>
       </c>
       <c r="CJ118" t="n">
-        <v>0.1853788677724779</v>
+        <v>0.1853788557644626</v>
       </c>
       <c r="CK118" t="n">
         <v>2.383032112533018e-06</v>
@@ -38552,10 +38552,10 @@
         <v>6.88562489210261e-05</v>
       </c>
       <c r="CQ118" t="n">
-        <v>-1.387145254580502e-05</v>
+        <v>-1.387154148194472e-05</v>
       </c>
       <c r="CR118" t="n">
-        <v>7.352283665776295e-05</v>
+        <v>7.35229255939033e-05</v>
       </c>
       <c r="CS118" t="n">
         <v>0</v>
@@ -38756,7 +38756,7 @@
         <v>-0.4890896805203155</v>
       </c>
       <c r="BE119" t="n">
-        <v>-0.5028660907679948</v>
+        <v>-0.5028661637396917</v>
       </c>
       <c r="BF119" t="n">
         <v>-0.5083646586251842</v>
@@ -38850,10 +38850,10 @@
         <v>0.1946291867851111</v>
       </c>
       <c r="CI119" t="n">
-        <v>0.8054690346553897</v>
+        <v>0.80546904902965</v>
       </c>
       <c r="CJ119" t="n">
-        <v>0.1945309653446103</v>
+        <v>0.19453095097035</v>
       </c>
       <c r="CK119" t="n">
         <v>1.436022697387171e-05</v>
@@ -38874,10 +38874,10 @@
         <v>0.0002337101565222936</v>
       </c>
       <c r="CQ119" t="n">
-        <v>-5.738760027219902e-06</v>
+        <v>-5.738866488712302e-06</v>
       </c>
       <c r="CR119" t="n">
-        <v>0.0002351650906720205</v>
+        <v>0.0002351653035950049</v>
       </c>
       <c r="CS119" t="n">
         <v>0</v>
@@ -39078,7 +39078,7 @@
         <v>-0.476113644822953</v>
       </c>
       <c r="BE120" t="n">
-        <v>-0.4944342766748922</v>
+        <v>-0.4944343726992781</v>
       </c>
       <c r="BF120" t="n">
         <v>-0.5058389871511659</v>
@@ -39172,10 +39172,10 @@
         <v>0.2131726173780105</v>
       </c>
       <c r="CI120" t="n">
-        <v>0.7858041131067199</v>
+        <v>0.78580413303025</v>
       </c>
       <c r="CJ120" t="n">
-        <v>0.2141958868932801</v>
+        <v>0.21419586696975</v>
       </c>
       <c r="CK120" t="n">
         <v>0.0001124343584998286</v>
@@ -39196,10 +39196,10 @@
         <v>9.136111284173951e-05</v>
       </c>
       <c r="CQ120" t="n">
-        <v>5.612737833471035e-05</v>
+        <v>5.612708321152751e-05</v>
       </c>
       <c r="CR120" t="n">
-        <v>8.378237160891824e-05</v>
+        <v>8.37825191705101e-05</v>
       </c>
       <c r="CS120" t="n">
         <v>0</v>
@@ -39400,7 +39400,7 @@
         <v>-0.4695203505363451</v>
       </c>
       <c r="BE121" t="n">
-        <v>-0.4900363849902873</v>
+        <v>-0.4900364938603782</v>
       </c>
       <c r="BF121" t="n">
         <v>-0.5043296704752652</v>
@@ -39494,10 +39494,10 @@
         <v>0.2231131843584108</v>
       </c>
       <c r="CI121" t="n">
-        <v>0.7752805543628267</v>
+        <v>0.7752805775112747</v>
       </c>
       <c r="CJ121" t="n">
-        <v>0.2247194456371733</v>
+        <v>0.2247194224887253</v>
       </c>
       <c r="CK121" t="n">
         <v>2.646756602426269e-05</v>
@@ -39518,10 +39518,10 @@
         <v>7.738642665209303e-05</v>
       </c>
       <c r="CQ121" t="n">
-        <v>-5.840707777223127e-06</v>
+        <v>-5.840879223840446e-06</v>
       </c>
       <c r="CR121" t="n">
-        <v>6.548981642146901e-05</v>
+        <v>6.548998786808612e-05</v>
       </c>
       <c r="CS121" t="n">
         <v>0</v>
@@ -39722,7 +39722,7 @@
         <v>-0.4628516506454892</v>
       </c>
       <c r="BE122" t="n">
-        <v>-0.4854950025445205</v>
+        <v>-0.4854951252042274</v>
       </c>
       <c r="BF122" t="n">
         <v>-0.502620441028497</v>
@@ -39816,10 +39816,10 @@
         <v>0.2334705172248394</v>
       </c>
       <c r="CI122" t="n">
-        <v>0.7643311970008878</v>
+        <v>0.7643312236975383</v>
       </c>
       <c r="CJ122" t="n">
-        <v>0.2356688029991122</v>
+        <v>0.2356687763024617</v>
       </c>
       <c r="CK122" t="n">
         <v>5.210630064152004e-05</v>
@@ -39840,10 +39840,10 @@
         <v>0.0003294241686460008</v>
       </c>
       <c r="CQ122" t="n">
-        <v>1.560548141895778e-05</v>
+        <v>1.56052836929408e-05</v>
       </c>
       <c r="CR122" t="n">
-        <v>0.000296861410173484</v>
+        <v>0.0002968618056255179</v>
       </c>
       <c r="CS122" t="n">
         <v>0</v>
@@ -40044,7 +40044,7 @@
         <v>-0.4492725345088509</v>
       </c>
       <c r="BE123" t="n">
-        <v>-0.4759077515555901</v>
+        <v>-0.4759079048504709</v>
       </c>
       <c r="BF123" t="n">
         <v>-0.4984780705057848</v>
@@ -40138,10 +40138,10 @@
         <v>0.2559255183955974</v>
       </c>
       <c r="CI123" t="n">
-        <v>0.7406855029888324</v>
+        <v>0.7406855378431749</v>
       </c>
       <c r="CJ123" t="n">
-        <v>0.2593144970111676</v>
+        <v>0.2593144621568251</v>
       </c>
       <c r="CK123" t="n">
         <v>0.0001431036413608866</v>
@@ -40162,10 +40162,10 @@
         <v>0.0003099663287441539</v>
       </c>
       <c r="CQ123" t="n">
-        <v>5.339742880039466e-05</v>
+        <v>5.339691251013412e-05</v>
       </c>
       <c r="CR123" t="n">
-        <v>0.0002597660802510569</v>
+        <v>0.0002597665965413183</v>
       </c>
       <c r="CS123" t="n">
         <v>0</v>
@@ -40366,7 +40366,7 @@
         <v>-0.4353457069284166</v>
       </c>
       <c r="BE124" t="n">
-        <v>-0.4655109820181316</v>
+        <v>-0.4655111702688377</v>
       </c>
       <c r="BF124" t="n">
         <v>-0.4931311040138831</v>
@@ -40460,10 +40460,10 @@
         <v>0.2804165103157035</v>
       </c>
       <c r="CI124" t="n">
-        <v>0.7150411692623613</v>
+        <v>0.7150412137587226</v>
       </c>
       <c r="CJ124" t="n">
-        <v>0.2849588307376387</v>
+        <v>0.2849587862412774</v>
       </c>
       <c r="CK124" t="n">
         <v>0.0002257148084823524</v>
@@ -40484,10 +40484,10 @@
         <v>0.0003796479907358158</v>
       </c>
       <c r="CQ124" t="n">
-        <v>0.0001200982008613041</v>
+        <v>0.0001200975417457867</v>
       </c>
       <c r="CR124" t="n">
-        <v>0.0003123635254787061</v>
+        <v>0.0003123641845942252</v>
       </c>
       <c r="CS124" t="n">
         <v>0</v>
@@ -40688,7 +40688,7 @@
         <v>-0.4210414661419128</v>
       </c>
       <c r="BE125" t="n">
-        <v>-0.4541206213280414</v>
+        <v>-0.4541208488438437</v>
       </c>
       <c r="BF125" t="n">
         <v>-0.4862431718150623</v>
@@ -40782,10 +40782,10 @@
         <v>0.3073512429088949</v>
       </c>
       <c r="CI125" t="n">
-        <v>0.6870562593063745</v>
+        <v>0.6870563149302087</v>
       </c>
       <c r="CJ125" t="n">
-        <v>0.3129437406936255</v>
+        <v>0.3129436850697913</v>
       </c>
       <c r="CK125" t="n">
         <v>0.0002219668160812222</v>
@@ -40806,10 +40806,10 @@
         <v>0.0003534819122955309</v>
       </c>
       <c r="CQ125" t="n">
-        <v>0.0001021712335761739</v>
+        <v>0.000102170409631671</v>
       </c>
       <c r="CR125" t="n">
-        <v>0.0002706413841196582</v>
+        <v>0.0002706422080641611</v>
       </c>
       <c r="CS125" t="n">
         <v>0</v>
@@ -41010,7 +41010,7 @@
         <v>-0.4063313888996977</v>
       </c>
       <c r="BE126" t="n">
-        <v>-0.4415298705630553</v>
+        <v>-0.4415301413588478</v>
       </c>
       <c r="BF126" t="n">
         <v>-0.4774200533240699</v>
@@ -41104,10 +41104,10 @@
         <v>0.3366968213725197</v>
       </c>
       <c r="CI126" t="n">
-        <v>0.6568444804075804</v>
+        <v>0.6568445484995077</v>
       </c>
       <c r="CJ126" t="n">
-        <v>0.3431555195924196</v>
+        <v>0.3431554515004923</v>
       </c>
       <c r="CK126" t="n">
         <v>0.0003079831498139143</v>
@@ -41128,10 +41128,10 @@
         <v>0.0001308910936052509</v>
       </c>
       <c r="CQ126" t="n">
-        <v>0.0001768795300489696</v>
+        <v>0.0001768785214171474</v>
       </c>
       <c r="CR126" t="n">
-        <v>8.305540439622469e-05</v>
+        <v>8.30559087121349e-05</v>
       </c>
       <c r="CS126" t="n">
         <v>0</v>
@@ -41332,7 +41332,7 @@
         <v>-0.3988157436812207</v>
       </c>
       <c r="BE127" t="n">
-        <v>-0.4347139555122482</v>
+        <v>-0.4347142491276457</v>
       </c>
       <c r="BF127" t="n">
         <v>-0.4721447567676213</v>
@@ -41426,10 +41426,10 @@
         <v>0.3523677586070737</v>
       </c>
       <c r="CI127" t="n">
-        <v>0.6408371465249735</v>
+        <v>0.64083722123137</v>
       </c>
       <c r="CJ127" t="n">
-        <v>0.3591628534750265</v>
+        <v>0.35916277876863</v>
       </c>
       <c r="CK127" t="n">
         <v>0.0001031498815010469</v>
@@ -41450,10 +41450,10 @@
         <v>0.0001639486679200662</v>
       </c>
       <c r="CQ127" t="n">
-        <v>3.550128034163214e-05</v>
+        <v>3.550072703633039e-05</v>
       </c>
       <c r="CR127" t="n">
-        <v>0.0001136214912689365</v>
+        <v>0.0001136220445742383</v>
       </c>
       <c r="CS127" t="n">
         <v>0</v>
@@ -41654,7 +41654,7 @@
         <v>-0.3911888038837347</v>
       </c>
       <c r="BE128" t="n">
-        <v>-0.4275112864059376</v>
+        <v>-0.427511603375566</v>
       </c>
       <c r="BF128" t="n">
         <v>-0.4662145278205999</v>
@@ -41748,10 +41748,10 @@
         <v>0.3687573751271769</v>
       </c>
       <c r="CI128" t="n">
-        <v>0.6241910412457371</v>
+        <v>0.6241911227219621</v>
       </c>
       <c r="CJ128" t="n">
-        <v>0.3758089587542629</v>
+        <v>0.3758088772780379</v>
       </c>
       <c r="CK128" t="n">
         <v>7.881676655446118e-05</v>
@@ -41772,10 +41772,10 @@
         <v>0.0001618634140663441</v>
       </c>
       <c r="CQ128" t="n">
-        <v>9.666188626800999e-06</v>
+        <v>9.665585181455223e-06</v>
       </c>
       <c r="CR128" t="n">
-        <v>0.0001096365795972202</v>
+        <v>0.0001096371830425656</v>
       </c>
       <c r="CS128" t="n">
         <v>0</v>
@@ -41976,7 +41976,7 @@
         <v>-0.383447601139086</v>
       </c>
       <c r="BE129" t="n">
-        <v>-0.4198911327845019</v>
+        <v>-0.4198914733624339</v>
       </c>
       <c r="BF129" t="n">
         <v>-0.4595679615539657</v>
@@ -42070,10 +42070,10 @@
         <v>0.3858174963055157</v>
       </c>
       <c r="CI129" t="n">
-        <v>0.6069657762538915</v>
+        <v>0.6069658645487243</v>
       </c>
       <c r="CJ129" t="n">
-        <v>0.3930342237461085</v>
+        <v>0.3930341354512757</v>
       </c>
       <c r="CK129" t="n">
         <v>8.791613164122261e-05</v>
@@ -42094,10 +42094,10 @@
         <v>6.533392198926086e-05</v>
       </c>
       <c r="CQ129" t="n">
-        <v>1.794058760255703e-05</v>
+        <v>1.793993365588938e-05</v>
       </c>
       <c r="CR129" t="n">
-        <v>1.188396671951289e-05</v>
+        <v>1.188462066618098e-05</v>
       </c>
       <c r="CS129" t="n">
         <v>1</v>
@@ -42298,7 +42298,7 @@
         <v>-0.3755893512792332</v>
       </c>
       <c r="BE130" t="n">
-        <v>-0.4118224539164004</v>
+        <v>-0.4118228179769014</v>
       </c>
       <c r="BF130" t="n">
         <v>-0.4521434303268458</v>
@@ -42392,10 +42392,10 @@
         <v>0.4034777957482163</v>
       </c>
       <c r="CI130" t="n">
-        <v>0.5892421642566708</v>
+        <v>0.5892422592823512</v>
       </c>
       <c r="CJ130" t="n">
-        <v>0.4107578357433292</v>
+        <v>0.4107577407176488</v>
       </c>
       <c r="CK130" t="n">
         <v>0.0001894296169055662</v>
@@ -42416,10 +42416,10 @@
         <v>0.0003438394054363428</v>
       </c>
       <c r="CQ130" t="n">
-        <v>0.0001193841567156692</v>
+        <v>0.0001193834529176659</v>
       </c>
       <c r="CR130" t="n">
-        <v>0.0002360016589497468</v>
+        <v>0.0002360030665457553</v>
       </c>
       <c r="CS130" t="n">
         <v>0</v>
@@ -42620,7 +42620,7 @@
         <v>-0.359511628913805</v>
       </c>
       <c r="BE131" t="n">
-        <v>-0.3942168613792364</v>
+        <v>-0.3942172700168431</v>
       </c>
       <c r="BF131" t="n">
         <v>-0.434723100124927</v>
@@ -42714,10 +42714,10 @@
         <v>0.4409661721262698</v>
       </c>
       <c r="CI131" t="n">
-        <v>0.5519674856505135</v>
+        <v>0.5519675931706317</v>
       </c>
       <c r="CJ131" t="n">
-        <v>0.4480325143494865</v>
+        <v>0.4480324068293683</v>
       </c>
       <c r="CK131" t="n">
         <v>0.0004514049118653548</v>
@@ -42738,10 +42738,10 @@
         <v>0.0001438775513941414</v>
       </c>
       <c r="CQ131" t="n">
-        <v>0.0003161405469445169</v>
+        <v>0.000316138954270951</v>
       </c>
       <c r="CR131" t="n">
-        <v>9.154140888899525e-05</v>
+        <v>9.154220522577779e-05</v>
       </c>
       <c r="CS131" t="n">
         <v>0</v>
@@ -42942,7 +42942,7 @@
         <v>-0.3512877149092118</v>
       </c>
       <c r="BE132" t="n">
-        <v>-0.3846213302144276</v>
+        <v>-0.3846217587882621</v>
       </c>
       <c r="BF132" t="n">
         <v>-0.424619768062609</v>
@@ -43036,10 +43036,10 @@
         <v>0.4607191219655771</v>
       </c>
       <c r="CI132" t="n">
-        <v>0.5325031633329276</v>
+        <v>0.5325032762178868</v>
       </c>
       <c r="CJ132" t="n">
-        <v>0.4674968366670724</v>
+        <v>0.4674967237821132</v>
       </c>
       <c r="CK132" t="n">
         <v>0.0001176470318689079</v>
@@ -43060,10 +43060,10 @@
         <v>0.0007085341631540842</v>
       </c>
       <c r="CQ132" t="n">
-        <v>5.261910788194844e-05</v>
+        <v>5.261827181101807e-05</v>
       </c>
       <c r="CR132" t="n">
-        <v>0.0005579388064879866</v>
+        <v>0.0005579413147007769</v>
       </c>
       <c r="CS132" t="n">
         <v>0</v>
@@ -43264,7 +43264,7 @@
         <v>-0.3258550000705308</v>
       </c>
       <c r="BE133" t="n">
-        <v>-0.3523634704880151</v>
+        <v>-0.352363939793344</v>
       </c>
       <c r="BF133" t="n">
         <v>-0.3882787770315819</v>
@@ -43358,10 +43358,10 @@
         <v>0.5235387555166697</v>
       </c>
       <c r="CI133" t="n">
-        <v>0.4712725242581406</v>
+        <v>0.4712726466773959</v>
       </c>
       <c r="CJ133" t="n">
-        <v>0.5287274757418594</v>
+        <v>0.5287273533226041</v>
       </c>
       <c r="CK133" t="n">
         <v>0.0009561976628351451</v>
@@ -43382,10 +43382,10 @@
         <v>0.0006548534218229728</v>
       </c>
       <c r="CQ133" t="n">
-        <v>0.0008025566313513109</v>
+        <v>0.0008025539112941488</v>
       </c>
       <c r="CR133" t="n">
-        <v>0.0005395642414181591</v>
+        <v>0.0005395669614753212</v>
       </c>
       <c r="CS133" t="n">
         <v>0</v>
@@ -43586,7 +43586,7 @@
         <v>-0.2992602845016625</v>
       </c>
       <c r="BE134" t="n">
-        <v>-0.3145899521686604</v>
+        <v>-0.3145904143527152</v>
       </c>
       <c r="BF134" t="n">
         <v>-0.3428072248972517</v>
@@ -43680,10 +43680,10 @@
         <v>0.5903633891418185</v>
       </c>
       <c r="CI134" t="n">
-        <v>0.4068966792994086</v>
+        <v>0.4068967961835995</v>
       </c>
       <c r="CJ134" t="n">
-        <v>0.5931033207005914</v>
+        <v>0.5931032038164006</v>
       </c>
       <c r="CK134" t="n">
         <v>0.0009769545378007557</v>
@@ -43704,10 +43704,10 @@
         <v>6.634422528367309e-05</v>
       </c>
       <c r="CQ134" t="n">
-        <v>0.0008908151355867307</v>
+        <v>0.0008908125385142397</v>
       </c>
       <c r="CR134" t="n">
-        <v>4.605120182336886e-05</v>
+        <v>4.605206751419951e-05</v>
       </c>
       <c r="CS134" t="n">
         <v>0</v>
@@ -43908,7 +43908,7 @@
         <v>-0.2901362296724968</v>
       </c>
       <c r="BE135" t="n">
-        <v>-0.3007698697625237</v>
+        <v>-0.3007703147228371</v>
       </c>
       <c r="BF135" t="n">
         <v>-0.3257979671003994</v>
@@ -44002,10 +44002,10 @@
         <v>0.6130062580321451</v>
       </c>
       <c r="CI135" t="n">
-        <v>0.3851654523774669</v>
+        <v>0.3851655631895905</v>
       </c>
       <c r="CJ135" t="n">
-        <v>0.6148345476225331</v>
+        <v>0.6148344368104095</v>
       </c>
       <c r="CK135" t="n">
         <v>0.0001345124080482547</v>
@@ -44026,10 +44026,10 @@
         <v>0.0001104477644817518</v>
       </c>
       <c r="CQ135" t="n">
-        <v>0.0001148989125457928</v>
+        <v>0.0001148980918271084</v>
       </c>
       <c r="CR135" t="n">
-        <v>8.336568395957318e-05</v>
+        <v>8.336732539694115e-05</v>
       </c>
       <c r="CS135" t="n">
         <v>0</v>
@@ -44230,7 +44230,7 @@
         <v>-0.2715042121009335</v>
       </c>
       <c r="BE136" t="n">
-        <v>-0.271408410845083</v>
+        <v>-0.271408795437687</v>
       </c>
       <c r="BF136" t="n">
         <v>-0.2895531655320329</v>
@@ -44324,10 +44324,10 @@
         <v>0.6586036824441707</v>
       </c>
       <c r="CI136" t="n">
-        <v>0.3413631608345747</v>
+        <v>0.3413632529075524</v>
       </c>
       <c r="CJ136" t="n">
-        <v>0.6586368391654254</v>
+        <v>0.6586367470924477</v>
       </c>
       <c r="CK136" t="n">
         <v>0.0005651289856043757</v>
@@ -44348,10 +44348,10 @@
         <v>-6.611091774494371e-06</v>
       </c>
       <c r="CQ136" t="n">
-        <v>0.0005654687199867208</v>
+        <v>0.0005654673561284957</v>
       </c>
       <c r="CR136" t="n">
-        <v>-6.856663646585132e-06</v>
+        <v>-6.855981717472127e-06</v>
       </c>
       <c r="CS136" t="n">
         <v>1</v>
@@ -44552,7 +44552,7 @@
         <v>-0.2619995979588218</v>
       </c>
       <c r="BE137" t="n">
-        <v>-0.2559465696883039</v>
+        <v>-0.2559469108678766</v>
       </c>
       <c r="BF137" t="n">
         <v>-0.2705810055153952</v>
@@ -44646,10 +44646,10 @@
         <v>0.6809996891713015</v>
       </c>
       <c r="CI137" t="n">
-        <v>0.3197893857393536</v>
+        <v>0.3197894654943374</v>
       </c>
       <c r="CJ137" t="n">
-        <v>0.6802106142606463</v>
+        <v>0.6802105345056626</v>
       </c>
       <c r="CK137" t="n">
         <v>0.0001561607894711384</v>
@@ -44670,10 +44670,10 @@
         <v>-3.826864680657547e-05</v>
       </c>
       <c r="CQ137" t="n">
-        <v>0.0001666406271302614</v>
+        <v>0.0001666400364331135</v>
       </c>
       <c r="CR137" t="n">
-        <v>-3.242444401158496e-05</v>
+        <v>-3.242385331443751e-05</v>
       </c>
       <c r="CS137" t="n">
         <v>1</v>
@@ -44874,7 +44874,7 @@
         <v>-0.2523723734153674</v>
       </c>
       <c r="BE138" t="n">
-        <v>-0.2400363049062646</v>
+        <v>-0.2400365942857126</v>
       </c>
       <c r="BF138" t="n">
         <v>-0.2512468782824899</v>
@@ -44968,10 +44968,10 @@
         <v>0.7030791367324098</v>
       </c>
       <c r="CI138" t="n">
-        <v>0.2984447886034297</v>
+        <v>0.2984448544547082</v>
       </c>
       <c r="CJ138" t="n">
-        <v>0.7015552113965703</v>
+        <v>0.7015551455452917</v>
       </c>
       <c r="CK138" t="n">
         <v>0.0001697197866720383</v>
@@ -44992,10 +44992,10 @@
         <v>5.868836159196589e-05</v>
       </c>
       <c r="CQ138" t="n">
-        <v>0.0001905110243289473</v>
+        <v>0.0001905105366081738</v>
       </c>
       <c r="CR138" t="n">
-        <v>8.126195653664764e-05</v>
+        <v>8.126293197819635e-05</v>
       </c>
       <c r="CS138" t="n">
         <v>0</v>
@@ -45196,7 +45196,7 @@
         <v>-0.2327628630857492</v>
       </c>
       <c r="BE139" t="n">
-        <v>-0.2071529436312675</v>
+        <v>-0.2071531079561902</v>
       </c>
       <c r="BF139" t="n">
         <v>-0.2121649776612464</v>
@@ -45290,10 +45290,10 @@
         <v>0.74554547802807</v>
       </c>
       <c r="CI139" t="n">
-        <v>0.2571017898127171</v>
+        <v>0.2571018249324873</v>
       </c>
       <c r="CJ139" t="n">
-        <v>0.742898210187283</v>
+        <v>0.7428981750675127</v>
       </c>
       <c r="CK139" t="n">
         <v>0.0004500672280784756</v>
@@ -45314,10 +45314,10 @@
         <v>0.0001957967109526247</v>
       </c>
       <c r="CQ139" t="n">
-        <v>0.0005311434458486839</v>
+        <v>0.0005311429256266952</v>
       </c>
       <c r="CR139" t="n">
-        <v>0.0002546168682227533</v>
+        <v>0.000254617648555739</v>
       </c>
       <c r="CS139" t="n">
         <v>0</v>
@@ -45518,7 +45518,7 @@
         <v>-0.2025243920151114</v>
       </c>
       <c r="BE140" t="n">
-        <v>-0.1564534077593721</v>
+        <v>-0.156453353969773</v>
       </c>
       <c r="BF140" t="n">
         <v>-0.1549892856327358</v>
@@ -45612,10 +45612,10 @@
         <v>0.8035669803303667</v>
       </c>
       <c r="CI140" t="n">
-        <v>0.1997543245224009</v>
+        <v>0.1997543143019178</v>
       </c>
       <c r="CJ140" t="n">
-        <v>0.8002456754775992</v>
+        <v>0.8002456856980822</v>
       </c>
       <c r="CK140" t="n">
         <v>0.0008250934142141108</v>
@@ -45636,10 +45636,10 @@
         <v>0.0008768419544216526</v>
       </c>
       <c r="CQ140" t="n">
-        <v>0.001019597578630072</v>
+        <v>0.001019597805720966</v>
       </c>
       <c r="CR140" t="n">
-        <v>0.0009998364815663775</v>
+        <v>0.0009998361030815577</v>
       </c>
       <c r="CS140" t="n">
         <v>0</v>
@@ -45840,7 +45840,7 @@
         <v>-0.1503223528273116</v>
       </c>
       <c r="BE141" t="n">
-        <v>-0.07456660349040289</v>
+        <v>-0.0745662314333817</v>
       </c>
       <c r="BF141" t="n">
         <v>-0.0720792510170495</v>
@@ -45934,10 +45934,10 @@
         <v>0.8792854296387302</v>
       </c>
       <c r="CI141" t="n">
-        <v>0.1229920778282463</v>
+        <v>0.1229920228631347</v>
       </c>
       <c r="CJ141" t="n">
-        <v>0.8770079221717537</v>
+        <v>0.8770079771368653</v>
       </c>
       <c r="CK141" t="n">
         <v>0.001428374050790906</v>
@@ -45958,10 +45958,10 @@
         <v>-9.085621219484877e-05</v>
       </c>
       <c r="CQ141" t="n">
-        <v>0.00184282224843465</v>
+        <v>0.0018428242839021</v>
       </c>
       <c r="CR141" t="n">
-        <v>-5.71199589585996e-05</v>
+        <v>-5.712077314557959e-05</v>
       </c>
       <c r="CS141" t="n">
         <v>0</v>
@@ -46162,7 +46162,7 @@
         <v>-0.128989066364736</v>
       </c>
       <c r="BE142" t="n">
-        <v>-0.04469757028527858</v>
+        <v>-0.04469712043790458</v>
       </c>
       <c r="BF142" t="n">
         <v>-0.04484227372675482</v>
@@ -46256,10 +46256,10 @@
         <v>0.9026443862321565</v>
       </c>
       <c r="CI142" t="n">
-        <v>0.09886588426646403</v>
+        <v>0.09886582545140578</v>
       </c>
       <c r="CJ142" t="n">
-        <v>0.901134115733536</v>
+        <v>0.9011341745485942</v>
       </c>
       <c r="CK142" t="n">
         <v>0.0002512497405696174</v>
@@ -46280,10 +46280,10 @@
         <v>1.050747292121595e-05</v>
       </c>
       <c r="CQ142" t="n">
-        <v>0.0004144963396856666</v>
+        <v>0.0004144972109011197</v>
       </c>
       <c r="CR142" t="n">
-        <v>3.287880154932178e-05</v>
+        <v>3.287793033386957e-05</v>
       </c>
       <c r="CS142" t="n">
         <v>0</v>
@@ -46484,7 +46484,7 @@
         <v>-0.1075087120236532</v>
       </c>
       <c r="BE143" t="n">
-        <v>-0.01718358292368738</v>
+        <v>-0.01718308878228948</v>
       </c>
       <c r="BF143" t="n">
         <v>-0.02113642085944527</v>
@@ -46578,10 +46578,10 @@
         <v>0.921339884792024</v>
       </c>
       <c r="CI143" t="n">
-        <v>0.07942166854247469</v>
+        <v>0.0794216115205973</v>
       </c>
       <c r="CJ143" t="n">
-        <v>0.9205783314575253</v>
+        <v>0.9205783884794027</v>
       </c>
       <c r="CK143" t="n">
         <v>0.0001007484478951202</v>
@@ -46596,7 +46596,7 @@
       </c>
       <c r="CP143" t="inlineStr"/>
       <c r="CQ143" t="n">
-        <v>0.000255144397125697</v>
+        <v>0.0002551452417791278</v>
       </c>
       <c r="CR143" t="inlineStr"/>
       <c r="CS143" t="n">
@@ -46798,7 +46798,7 @@
         <v>-0.4831373588538909</v>
       </c>
       <c r="BE144" t="n">
-        <v>-0.489889393527619</v>
+        <v>-0.4898893276672568</v>
       </c>
       <c r="BF144" t="n">
         <v>-0.4608481912733937</v>
@@ -46892,10 +46892,10 @@
         <v>0.09239208423638401</v>
       </c>
       <c r="CI144" t="n">
-        <v>0.9114889484810892</v>
+        <v>0.9114889409291016</v>
       </c>
       <c r="CJ144" t="n">
-        <v>0.08851105151891081</v>
+        <v>0.0885110590708984</v>
       </c>
       <c r="CK144" t="inlineStr"/>
       <c r="CL144" t="n">
@@ -46911,7 +46911,7 @@
       </c>
       <c r="CQ144" t="inlineStr"/>
       <c r="CR144" t="n">
-        <v>-0.0002732057116281803</v>
+        <v>-0.0002732061590923832</v>
       </c>
       <c r="CS144" t="n">
         <v>1</v>
@@ -47112,7 +47112,7 @@
         <v>-0.4600965423865416</v>
       </c>
       <c r="BE145" t="n">
-        <v>-0.4605288632553669</v>
+        <v>-0.4605288180657838</v>
       </c>
       <c r="BF145" t="n">
         <v>-0.4483008573965767</v>
@@ -47206,10 +47206,10 @@
         <v>0.1181223412859157</v>
       </c>
       <c r="CI145" t="n">
-        <v>0.8844261171159081</v>
+        <v>0.8844261103808607</v>
       </c>
       <c r="CJ145" t="n">
-        <v>0.1155738828840919</v>
+        <v>0.1155738896191393</v>
       </c>
       <c r="CK145" t="n">
         <v>0.001880528233041641</v>
@@ -47230,10 +47230,10 @@
         <v>-0.0002027992349884604</v>
       </c>
       <c r="CQ145" t="n">
-        <v>0.00187671050002336</v>
+        <v>0.001876710899082888</v>
       </c>
       <c r="CR145" t="n">
-        <v>-0.0001650494408593072</v>
+        <v>-0.0001650495406241897</v>
       </c>
       <c r="CS145" t="n">
         <v>1</v>
@@ -47434,7 +47434,7 @@
         <v>-0.4545463119113051</v>
       </c>
       <c r="BE146" t="n">
-        <v>-0.4538498622519926</v>
+        <v>-0.4538498219345937</v>
       </c>
       <c r="BF146" t="n">
         <v>-0.4455811566729173</v>
@@ -47528,10 +47528,10 @@
         <v>0.1260042198484145</v>
       </c>
       <c r="CI146" t="n">
-        <v>0.8760833955180197</v>
+        <v>0.876083389122123</v>
       </c>
       <c r="CJ146" t="n">
-        <v>0.1239166044819803</v>
+        <v>0.123916610877877</v>
       </c>
       <c r="CK146" t="n">
         <v>0.0002869918988260296</v>
@@ -47552,10 +47552,10 @@
         <v>-0.0001994044111152699</v>
       </c>
       <c r="CQ146" t="n">
-        <v>0.0002886284730192097</v>
+        <v>0.0002886285677603222</v>
       </c>
       <c r="CR146" t="n">
-        <v>-0.0001684809908046425</v>
+        <v>-0.0001684810855457548</v>
       </c>
       <c r="CS146" t="n">
         <v>1</v>
@@ -47756,7 +47756,7 @@
         <v>-0.4490294579600069</v>
       </c>
       <c r="BE147" t="n">
-        <v>-0.4473832640073887</v>
+        <v>-0.447383228571001</v>
       </c>
       <c r="BF147" t="n">
         <v>-0.4429744806547634</v>
@@ -47850,10 +47850,10 @@
         <v>0.1344672245698676</v>
       </c>
       <c r="CI147" t="n">
-        <v>0.8671034054515554</v>
+        <v>0.8671033994791657</v>
       </c>
       <c r="CJ147" t="n">
-        <v>0.1328965945484446</v>
+        <v>0.1328966005208343</v>
       </c>
       <c r="CK147" t="n">
         <v>0.0002973899880970854</v>
@@ -47874,10 +47874,10 @@
         <v>-0.0001388920875225802</v>
       </c>
       <c r="CQ147" t="n">
-        <v>0.0003014997507138264</v>
+        <v>0.000301499839181615</v>
       </c>
       <c r="CR147" t="n">
-        <v>-9.236124368431839e-05</v>
+        <v>-9.236142061989742e-05</v>
       </c>
       <c r="CS147" t="n">
         <v>1</v>
@@ -48078,7 +48078,7 @@
         <v>-0.4379937174304945</v>
       </c>
       <c r="BE148" t="n">
-        <v>-0.4349840540980234</v>
+        <v>-0.4349840286707963</v>
       </c>
       <c r="BF148" t="n">
         <v>-0.4379704461992303</v>
@@ -48172,10 +48172,10 @@
         <v>0.1537745789650435</v>
       </c>
       <c r="CI148" t="n">
-        <v>0.8465962241083205</v>
+        <v>0.8465962192924171</v>
       </c>
       <c r="CJ148" t="n">
-        <v>0.1534037758916795</v>
+        <v>0.1534037807075829</v>
       </c>
       <c r="CK148" t="n">
         <v>0.0006830111907589718</v>
@@ -48196,10 +48196,10 @@
         <v>2.503204571305088e-05</v>
       </c>
       <c r="CQ148" t="n">
-        <v>0.0006998986265369204</v>
+        <v>0.0006998987692109042</v>
       </c>
       <c r="CR148" t="n">
-        <v>3.601730619203717e-05</v>
+        <v>3.601716351805083e-05</v>
       </c>
       <c r="CS148" t="n">
         <v>0</v>
@@ -48400,7 +48400,7 @@
         <v>-0.4267810735879384</v>
       </c>
       <c r="BE149" t="n">
-        <v>-0.4231192430412722</v>
+        <v>-0.4231192284423307</v>
       </c>
       <c r="BF149" t="n">
         <v>-0.4329844851957915</v>
@@ -48494,10 +48494,10 @@
         <v>0.1765013985734476</v>
       </c>
       <c r="CI149" t="n">
-        <v>0.8224625241630017</v>
+        <v>0.8224625210791278</v>
       </c>
       <c r="CJ149" t="n">
-        <v>0.1775374758369983</v>
+        <v>0.1775374789208722</v>
       </c>
       <c r="CK149" t="n">
         <v>0.0006560417456746293</v>
@@ -48518,10 +48518,10 @@
         <v>-1.232494096966782e-06</v>
       </c>
       <c r="CQ149" t="n">
-        <v>0.0006789578363164891</v>
+        <v>0.0006789579276780776</v>
       </c>
       <c r="CR149" t="n">
-        <v>-1.657969512365185e-05</v>
+        <v>-1.657974080444737e-05</v>
       </c>
       <c r="CS149" t="n">
         <v>1</v>
@@ -48722,7 +48722,7 @@
         <v>-0.4210410248637712</v>
       </c>
       <c r="BE150" t="n">
-        <v>-0.4173166400634936</v>
+        <v>-0.4173166313700246</v>
       </c>
       <c r="BF150" t="n">
         <v>-0.4303777158941446</v>
@@ -48816,10 +48816,10 @@
         <v>0.1893411726312941</v>
       </c>
       <c r="CI150" t="n">
-        <v>0.8088565319464877</v>
+        <v>0.8088565300132431</v>
       </c>
       <c r="CJ150" t="n">
-        <v>0.1911434680535123</v>
+        <v>0.1911434699867569</v>
       </c>
       <c r="CK150" t="n">
         <v>0.0002058541559568101</v>
@@ -48840,10 +48840,10 @@
         <v>1.883493910854713e-05</v>
       </c>
       <c r="CQ150" t="n">
-        <v>0.0002181224806479202</v>
+        <v>0.0002181225092846781</v>
       </c>
       <c r="CR150" t="n">
-        <v>-7.862095106318627e-06</v>
+        <v>-7.862123743075655e-06</v>
       </c>
       <c r="CS150" t="n">
         <v>0</v>
@@ -49044,7 +49044,7 @@
         <v>-0.4151745226280577</v>
       </c>
       <c r="BE151" t="n">
-        <v>-0.4115596556115051</v>
+        <v>-0.4115596532729827</v>
       </c>
       <c r="BF151" t="n">
         <v>-0.4276148620047802</v>
@@ -49138,10 +49138,10 @@
         <v>0.2031702865744149</v>
       </c>
       <c r="CI151" t="n">
-        <v>0.7942342286162529</v>
+        <v>0.7942342280701831</v>
       </c>
       <c r="CJ151" t="n">
-        <v>0.2057657713837471</v>
+        <v>0.2057657719298169</v>
       </c>
       <c r="CK151" t="n">
         <v>0.0002119556642578534</v>
@@ -49162,10 +49162,10 @@
         <v>0.0009137954480956945</v>
       </c>
       <c r="CQ151" t="n">
-        <v>0.0002244592897143686</v>
+        <v>0.0002244592978031899</v>
       </c>
       <c r="CR151" t="n">
-        <v>0.0007984562879812755</v>
+        <v>0.0007984562637148116</v>
       </c>
       <c r="CS151" t="n">
         <v>0</v>
@@ -49366,7 +49366,7 @@
         <v>-0.3965226716055809</v>
       </c>
       <c r="BE152" t="n">
-        <v>-0.3942124594593522</v>
+        <v>-0.3942124798474066</v>
       </c>
       <c r="BF152" t="n">
         <v>-0.4175955674525372</v>
@@ -49460,10 +49460,10 @@
         <v>0.2515434363599331</v>
       </c>
       <c r="CI152" t="n">
-        <v>0.7435065863810483</v>
+        <v>0.7435065918035033</v>
       </c>
       <c r="CJ152" t="n">
-        <v>0.2564934136189517</v>
+        <v>0.2564934081964967</v>
       </c>
       <c r="CK152" t="n">
         <v>0.001428494087617249</v>
@@ -49484,10 +49484,10 @@
         <v>0.0001187174350285136</v>
       </c>
       <c r="CQ152" t="n">
-        <v>0.001455798342581881</v>
+        <v>0.001455798101616723</v>
       </c>
       <c r="CR152" t="n">
-        <v>4.539443225232056e-05</v>
+        <v>4.539451257404032e-05</v>
       </c>
       <c r="CS152" t="n">
         <v>0</v>
@@ -49688,7 +49688,7 @@
         <v>-0.3898526040718217</v>
       </c>
       <c r="BE153" t="n">
-        <v>-0.3882715095004247</v>
+        <v>-0.38827153904696</v>
       </c>
       <c r="BF153" t="n">
         <v>-0.4133435425111005</v>
@@ -49782,10 +49782,10 @@
         <v>0.2701992489413862</v>
       </c>
       <c r="CI153" t="n">
-        <v>0.7241642367170655</v>
+        <v>0.7241642448737857</v>
       </c>
       <c r="CJ153" t="n">
-        <v>0.2758357632829345</v>
+        <v>0.2758357551262143</v>
       </c>
       <c r="CK153" t="n">
         <v>0.0002346543189435269</v>
@@ -49806,10 +49806,10 @@
         <v>0.0001127068178284479</v>
       </c>
       <c r="CQ153" t="n">
-        <v>0.0002411198452681243</v>
+        <v>0.0002411197244442925</v>
       </c>
       <c r="CR153" t="n">
-        <v>2.921428138084881e-05</v>
+        <v>2.921440220468065e-05</v>
       </c>
       <c r="CS153" t="n">
         <v>0</v>
@@ -50010,7 +50010,7 @@
         <v>-0.3829031704531161</v>
       </c>
       <c r="BE154" t="n">
-        <v>-0.3821744811480653</v>
+        <v>-0.3821745208316314</v>
       </c>
       <c r="BF154" t="n">
         <v>-0.4084255171650377</v>
@@ -50104,10 +50104,10 @@
         <v>0.2902207692767137</v>
       </c>
       <c r="CI154" t="n">
-        <v>0.7035657654580787</v>
+        <v>0.7035657767907736</v>
       </c>
       <c r="CJ154" t="n">
-        <v>0.2964342345419213</v>
+        <v>0.2964342232092264</v>
       </c>
       <c r="CK154" t="n">
         <v>0.0002728241770611137</v>
@@ -50128,10 +50128,10 @@
         <v>0.0001465445748709817</v>
       </c>
       <c r="CQ154" t="n">
-        <v>0.0002759066689338417</v>
+        <v>0.0002759065010649441</v>
       </c>
       <c r="CR154" t="n">
-        <v>5.450578215520935e-05</v>
+        <v>5.450595002410522e-05</v>
       </c>
       <c r="CS154" t="n">
         <v>0</v>
@@ -50332,7 +50332,7 @@
         <v>-0.3756415683932428</v>
       </c>
       <c r="BE155" t="n">
-        <v>-0.3758679214075215</v>
+        <v>-0.3758679723120836</v>
       </c>
       <c r="BF155" t="n">
         <v>-0.4026869466178498</v>
@@ -50426,10 +50426,10 @@
         <v>0.3117968273912949</v>
       </c>
       <c r="CI155" t="n">
-        <v>0.6815674885124617</v>
+        <v>0.6815675034975275</v>
       </c>
       <c r="CJ155" t="n">
-        <v>0.3184325114875383</v>
+        <v>0.3184324965024725</v>
       </c>
       <c r="CK155" t="n">
         <v>0.0002723372225167924</v>
@@ -50450,10 +50450,10 @@
         <v>0.0001723725705365655</v>
       </c>
       <c r="CQ155" t="n">
-        <v>0.0002713502040750868</v>
+        <v>0.0002713499821043672</v>
       </c>
       <c r="CR155" t="n">
-        <v>7.407953645760437e-05</v>
+        <v>7.407975842832482e-05</v>
       </c>
       <c r="CS155" t="n">
         <v>0</v>
@@ -50654,7 +50654,7 @@
         <v>-0.3680345182772957</v>
       </c>
       <c r="BE156" t="n">
-        <v>-0.3692926844964102</v>
+        <v>-0.3692927477916428</v>
       </c>
       <c r="BF156" t="n">
         <v>-0.3959535340829186</v>
@@ -50748,10 +50748,10 @@
         <v>0.3349994454772487</v>
       </c>
       <c r="CI156" t="n">
-        <v>0.6581487346967925</v>
+        <v>0.6581487538304865</v>
       </c>
       <c r="CJ156" t="n">
-        <v>0.3418512653032075</v>
+        <v>0.3418512461695135</v>
       </c>
       <c r="CK156" t="n">
         <v>0.0002784515026226213</v>
@@ -50772,10 +50772,10 @@
         <v>0.0002041389525712133</v>
       </c>
       <c r="CQ156" t="n">
-        <v>0.0002728176837089764</v>
+        <v>0.0002728174002854713</v>
       </c>
       <c r="CR156" t="n">
-        <v>0.0001026443440443926</v>
+        <v>0.0001026446274678978</v>
       </c>
       <c r="CS156" t="n">
         <v>0</v>
@@ -50976,7 +50976,7 @@
         <v>-0.3600484850701848</v>
       </c>
       <c r="BE157" t="n">
-        <v>-0.3623834879411935</v>
+        <v>-0.3623835648463974</v>
       </c>
       <c r="BF157" t="n">
         <v>-0.388032972620411</v>
@@ -51070,10 +51070,10 @@
         <v>0.3599140350563034</v>
       </c>
       <c r="CI157" t="n">
-        <v>0.6332790647698189</v>
+        <v>0.6332790885455024</v>
       </c>
       <c r="CJ157" t="n">
-        <v>0.3667209352301811</v>
+        <v>0.3667209114544976</v>
       </c>
       <c r="CK157" t="n">
         <v>0.0002764380538550579</v>
@@ -51094,10 +51094,10 @@
         <v>0.0007214978728317337</v>
       </c>
       <c r="CQ157" t="n">
-        <v>0.0002657450003260495</v>
+        <v>0.0002657446481417036</v>
       </c>
       <c r="CR157" t="n">
-        <v>0.0005198394270531509</v>
+        <v>0.0005198401314218445</v>
       </c>
       <c r="CS157" t="n">
         <v>0</v>
@@ -51298,7 +51298,7 @@
         <v>-0.3428058756763856</v>
       </c>
       <c r="BE158" t="n">
-        <v>-0.3472701402455863</v>
+        <v>-0.3472702478678741</v>
       </c>
       <c r="BF158" t="n">
         <v>-0.3678029488681626</v>
@@ -51392,10 +51392,10 @@
         <v>0.4149219032245697</v>
       </c>
       <c r="CI158" t="n">
-        <v>0.5793610145848576</v>
+        <v>0.5793610489173382</v>
       </c>
       <c r="CJ158" t="n">
-        <v>0.4206389854151424</v>
+        <v>0.4206389510826618</v>
       </c>
       <c r="CK158" t="n">
         <v>0.001119705726851567</v>
@@ -51416,10 +51416,10 @@
         <v>0.0001616856053201707</v>
       </c>
       <c r="CQ158" t="n">
-        <v>0.001077514716825358</v>
+        <v>0.001077513699705303</v>
       </c>
       <c r="CR158" t="n">
-        <v>7.699963377002985e-05</v>
+        <v>7.700014233005727e-05</v>
       </c>
       <c r="CS158" t="n">
         <v>0</v>
@@ -51620,7 +51620,7 @@
         <v>-0.3334839666355437</v>
       </c>
       <c r="BE159" t="n">
-        <v>-0.3389040527167027</v>
+        <v>-0.338904177203824</v>
       </c>
       <c r="BF159" t="n">
         <v>-0.3550819735434193</v>
@@ -51714,10 +51714,10 @@
         <v>0.4451362006948796</v>
       </c>
       <c r="CI159" t="n">
-        <v>0.5502811370818996</v>
+        <v>0.5502811771233391</v>
       </c>
       <c r="CJ159" t="n">
-        <v>0.4497188629181004</v>
+        <v>0.4497188228766609</v>
       </c>
       <c r="CK159" t="n">
         <v>0.0003795789514196343</v>
@@ -51738,10 +51738,10 @@
         <v>0.0001901363718301002</v>
       </c>
       <c r="CQ159" t="n">
-        <v>0.0003537546560594875</v>
+        <v>0.0003537540629338174</v>
       </c>
       <c r="CR159" t="n">
-        <v>0.0001222543317048906</v>
+        <v>0.0001222549248305616</v>
       </c>
       <c r="CS159" t="n">
         <v>0</v>
@@ -51942,7 +51942,7 @@
         <v>-0.3236534081254052</v>
       </c>
       <c r="BE160" t="n">
-        <v>-0.3298817745075541</v>
+        <v>-0.3298819164144245</v>
       </c>
       <c r="BF160" t="n">
         <v>-0.340384674674081</v>
@@ -52036,10 +52036,10 @@
         <v>0.4771044513226165</v>
       </c>
       <c r="CI160" t="n">
-        <v>0.5198715535570116</v>
+        <v>0.5198715993281058</v>
       </c>
       <c r="CJ160" t="n">
-        <v>0.4801284464429884</v>
+        <v>0.4801284006718942</v>
       </c>
       <c r="CK160" t="n">
         <v>0.0003579543015164452</v>
@@ -52060,10 +52060,10 @@
         <v>1.297621238926161e-05</v>
       </c>
       <c r="CQ160" t="n">
-        <v>0.0003281966220152954</v>
+        <v>0.0003281959440174205</v>
       </c>
       <c r="CR160" t="n">
-        <v>-9.420698849294841e-06</v>
+        <v>-9.420359850357413e-06</v>
       </c>
       <c r="CS160" t="n">
         <v>1</v>
@@ -52264,7 +52264,7 @@
         <v>-0.3185382893320585</v>
       </c>
       <c r="BE161" t="n">
-        <v>-0.3250960599058075</v>
+        <v>-0.3250962105065054</v>
       </c>
       <c r="BF161" t="n">
         <v>-0.3322553446310922</v>
@@ -52358,10 +52358,10 @@
         <v>0.4937023489483353</v>
       </c>
       <c r="CI161" t="n">
-        <v>0.5042096229883594</v>
+        <v>0.5042096715248759</v>
       </c>
       <c r="CJ161" t="n">
-        <v>0.4957903770116406</v>
+        <v>0.4957903284751241</v>
       </c>
       <c r="CK161" t="n">
         <v>0.0001410724521536534</v>
@@ -52382,10 +52382,10 @@
         <v>0.0003760112115203697</v>
       </c>
       <c r="CQ161" t="n">
-        <v>0.0001254191891932213</v>
+        <v>0.0001254188297124645</v>
       </c>
       <c r="CR161" t="n">
-        <v>0.0003296169112626569</v>
+        <v>0.0003296179897049282</v>
       </c>
       <c r="CS161" t="n">
         <v>0</v>
@@ -52586,7 +52586,7 @@
         <v>-0.3023539708120268</v>
       </c>
       <c r="BE162" t="n">
-        <v>-0.309503929213257</v>
+        <v>-0.3095041047931054</v>
       </c>
       <c r="BF162" t="n">
         <v>-0.3046760631154596</v>
@@ -52680,10 +52680,10 @@
         <v>0.545673248774338</v>
       </c>
       <c r="CI162" t="n">
-        <v>0.4556024375846881</v>
+        <v>0.4556024935084608</v>
       </c>
       <c r="CJ162" t="n">
-        <v>0.5443975624153119</v>
+        <v>0.5443975064915392</v>
       </c>
       <c r="CK162" t="n">
         <v>0.0008009959224019123</v>
@@ -52704,10 +52704,10 @@
         <v>0.0007238709561651728</v>
       </c>
       <c r="CQ162" t="n">
-        <v>0.0007503955626743265</v>
+        <v>0.0007503943200931826</v>
       </c>
       <c r="CR162" t="n">
-        <v>0.0007616639194657632</v>
+        <v>0.0007616655762406228</v>
       </c>
       <c r="CS162" t="n">
         <v>0</v>
@@ -52908,7 +52908,7 @@
         <v>-0.2787157396161843</v>
       </c>
       <c r="BE163" t="n">
-        <v>-0.2854406766277277</v>
+        <v>-0.2854408773270874</v>
       </c>
       <c r="BF163" t="n">
         <v>-0.2609063075033372</v>
@@ -53002,10 +53002,10 @@
         <v>0.6184492393254907</v>
       </c>
       <c r="CI163" t="n">
-        <v>0.3881215330972995</v>
+        <v>0.3881215945356316</v>
       </c>
       <c r="CJ163" t="n">
-        <v>0.6118784669027004</v>
+        <v>0.6118784054643684</v>
       </c>
       <c r="CK163" t="n">
         <v>0.001298486412147686</v>
@@ -53026,10 +53026,10 @@
         <v>0.0005953611608845964</v>
       </c>
       <c r="CQ163" t="n">
-        <v>0.001237497809228669</v>
+        <v>0.001237495989081724</v>
       </c>
       <c r="CR163" t="n">
-        <v>0.0007900241823036135</v>
+        <v>0.0007900260024505563</v>
       </c>
       <c r="CS163" t="n">
         <v>0</v>
@@ -53230,7 +53230,7 @@
         <v>-0.2526199532167142</v>
       </c>
       <c r="BE164" t="n">
-        <v>-0.257184322937643</v>
+        <v>-0.2571845280571554</v>
       </c>
       <c r="BF164" t="n">
         <v>-0.2112998292117639</v>
@@ -53324,10 +53324,10 @@
         <v>0.6917687760869444</v>
       </c>
       <c r="CI164" t="n">
-        <v>0.3198257232705095</v>
+        <v>0.3198257818067323</v>
       </c>
       <c r="CJ164" t="n">
-        <v>0.6801742767294905</v>
+        <v>0.6801742181932677</v>
       </c>
       <c r="CK164" t="n">
         <v>0.001271868780976073</v>
@@ -53348,10 +53348,10 @@
         <v>0.00045074161246993</v>
       </c>
       <c r="CQ164" t="n">
-        <v>0.001233279599308067</v>
+        <v>0.001233277865137827</v>
       </c>
       <c r="CR164" t="n">
-        <v>0.0007942355172252495</v>
+        <v>0.000794237251395491</v>
       </c>
       <c r="CS164" t="n">
         <v>0</v>
@@ -53552,7 +53552,7 @@
         <v>-0.224052572150858</v>
       </c>
       <c r="BE165" t="n">
-        <v>-0.2246648799424625</v>
+        <v>-0.2246650560352162</v>
       </c>
       <c r="BF165" t="n">
         <v>-0.1598550069550546</v>
@@ -53646,10 +53646,10 @@
         <v>0.7609871476073283</v>
       </c>
       <c r="CI165" t="n">
-        <v>0.2538991353210515</v>
+        <v>0.2538991806403269</v>
       </c>
       <c r="CJ165" t="n">
-        <v>0.7461008646789484</v>
+        <v>0.7461008193596731</v>
       </c>
       <c r="CK165" t="n">
         <v>0.001163547174221942</v>
@@ -53670,10 +53670,10 @@
         <v>-9.208917605785065e-05</v>
       </c>
       <c r="CQ165" t="n">
-        <v>0.00115887866423322</v>
+        <v>0.001158877321622868</v>
       </c>
       <c r="CR165" t="n">
-        <v>1.816455919882286e-05</v>
+        <v>1.816489485141019e-05</v>
       </c>
       <c r="CS165" t="n">
         <v>0</v>
@@ -53874,7 +53874,7 @@
         <v>-0.2165354658507959</v>
       </c>
       <c r="BE166" t="n">
-        <v>-0.215924060028762</v>
+        <v>-0.2159242226975898</v>
       </c>
       <c r="BF166" t="n">
         <v>-0.1472428376864048</v>
@@ -53968,10 +53968,10 @@
         <v>0.7771123388782695</v>
       </c>
       <c r="CI166" t="n">
-        <v>0.238203397666118</v>
+        <v>0.2382034382460019</v>
       </c>
       <c r="CJ166" t="n">
-        <v>0.761796602333882</v>
+        <v>0.7617965617539981</v>
       </c>
       <c r="CK166" t="n">
         <v>9.695467203937338e-05</v>
@@ -53992,10 +53992,10 @@
         <v>-0.0001214058561869414</v>
       </c>
       <c r="CQ166" t="n">
-        <v>9.808431987941074e-05</v>
+        <v>9.808401932864157e-05</v>
       </c>
       <c r="CR166" t="n">
-        <v>-7.971416552138982e-06</v>
+        <v>-7.971116001370682e-06</v>
       </c>
       <c r="CS166" t="n">
         <v>1</v>
@@ -54196,7 +54196,7 @@
         <v>-0.2088741456328423</v>
       </c>
       <c r="BE167" t="n">
-        <v>-0.2069692704871845</v>
+        <v>-0.2069694172643674</v>
       </c>
       <c r="BF167" t="n">
         <v>-0.1348632695646508</v>
@@ -54290,10 +54290,10 @@
         <v>0.7927677636470571</v>
       </c>
       <c r="CI167" t="n">
-        <v>0.2228012650881624</v>
+        <v>0.2228013004905674</v>
       </c>
       <c r="CJ167" t="n">
-        <v>0.7771987349118377</v>
+        <v>0.7771986995094327</v>
       </c>
       <c r="CK167" t="n">
         <v>0.000118642850646301</v>
@@ -54314,10 +54314,10 @@
         <v>0.0002520616325246416</v>
       </c>
       <c r="CQ167" t="n">
-        <v>0.0001220457395922092</v>
+        <v>0.0001220454773879097</v>
       </c>
       <c r="CR167" t="n">
-        <v>0.0007133033221082691</v>
+        <v>0.0007133043709254688</v>
       </c>
       <c r="CS167" t="n">
         <v>0</v>
@@ -54518,7 +54518,7 @@
         <v>-0.1768783675582032</v>
       </c>
       <c r="BE168" t="n">
-        <v>-0.1694735416134705</v>
+        <v>-0.169473603541248</v>
       </c>
       <c r="BF168" t="n">
         <v>-0.08870354766530925</v>
@@ -54612,10 +54612,10 @@
         <v>0.8483314607072582</v>
       </c>
       <c r="CI168" t="n">
-        <v>0.1666673212859991</v>
+        <v>0.1666673340808062</v>
       </c>
       <c r="CJ168" t="n">
-        <v>0.8333326787140009</v>
+        <v>0.8333326659191937</v>
       </c>
       <c r="CK168" t="n">
         <v>0.0009043737827953849</v>
@@ -54636,10 +54636,10 @@
         <v>-0.000123232049734627</v>
       </c>
       <c r="CQ168" t="n">
-        <v>0.0009496979814818656</v>
+        <v>0.0009496976024281354</v>
       </c>
       <c r="CR168" t="n">
-        <v>-1.214510163527558e-05</v>
+        <v>-1.214500687184324e-05</v>
       </c>
       <c r="CS168" t="n">
         <v>1</v>
@@ -54840,7 +54840,7 @@
         <v>-0.1685706619982218</v>
       </c>
       <c r="BE169" t="n">
-        <v>-0.1598201894492566</v>
+        <v>-0.1598202262923586</v>
       </c>
       <c r="BF169" t="n">
         <v>-0.07819565159888697</v>
@@ -54934,10 +54934,10 @@
         <v>0.8606021386795081</v>
       </c>
       <c r="CI169" t="n">
-        <v>0.1539003748521071</v>
+        <v>0.1539003821315233</v>
       </c>
       <c r="CJ169" t="n">
-        <v>0.8460996251478929</v>
+        <v>0.8460996178684766</v>
       </c>
       <c r="CK169" t="n">
         <v>9.389720713901288e-05</v>
@@ -54958,10 +54958,10 @@
         <v>0.0003712248341125879</v>
       </c>
       <c r="CQ169" t="n">
-        <v>0.0001067021874390733</v>
+        <v>0.0001067021335248199</v>
       </c>
       <c r="CR169" t="n">
-        <v>0.0009082817660424278</v>
+        <v>0.0009082820356136959</v>
       </c>
       <c r="CS169" t="n">
         <v>0</v>
@@ -55162,7 +55162,7 @@
         <v>-0.1255609698405164</v>
       </c>
       <c r="BE170" t="n">
-        <v>-0.1115093753046704</v>
+        <v>-0.1115092842569521</v>
       </c>
       <c r="BF170" t="n">
         <v>-0.03275980642593598</v>
@@ -55256,10 +55256,10 @@
         <v>0.9104003338647267</v>
       </c>
       <c r="CI170" t="n">
-        <v>0.1005072921957757</v>
+        <v>0.1005072781583226</v>
       </c>
       <c r="CJ170" t="n">
-        <v>0.8994927078042243</v>
+        <v>0.8994927218416774</v>
       </c>
       <c r="CK170" t="n">
         <v>0.0009887430712367594</v>
@@ -55280,10 +55280,10 @@
         <v>8.625059526232159e-05</v>
       </c>
       <c r="CQ170" t="n">
-        <v>0.001068970321685289</v>
+        <v>0.001068970841520107</v>
       </c>
       <c r="CR170" t="n">
-        <v>0.0004093954721236213</v>
+        <v>0.0004093950562557673</v>
       </c>
       <c r="CS170" t="n">
         <v>0</v>
@@ -55484,7 +55484,7 @@
         <v>-0.08997521670126382</v>
       </c>
       <c r="BE171" t="n">
-        <v>-0.0747803750506897</v>
+        <v>-0.07478020327640193</v>
       </c>
       <c r="BF171" t="n">
         <v>-0.004817277713112246</v>
@@ -55578,10 +55578,10 @@
         <v>0.9384741441560519</v>
       </c>
       <c r="CI171" t="n">
-        <v>0.06919928521745093</v>
+        <v>0.06919926412115186</v>
       </c>
       <c r="CJ171" t="n">
-        <v>0.9308007147825491</v>
+        <v>0.9308007358788482</v>
       </c>
       <c r="CK171" t="n">
         <v>0.000462837250569378</v>
@@ -55602,10 +55602,10 @@
         <v>0.0007618976650071788</v>
       </c>
       <c r="CQ171" t="n">
-        <v>0.000518122761785937</v>
+        <v>0.0005181233867762808</v>
       </c>
       <c r="CR171" t="n">
-        <v>0.001216557437216166</v>
+        <v>0.001216556187235478</v>
       </c>
       <c r="CS171" t="n">
         <v>0</v>
@@ -55806,7 +55806,7 @@
         <v>-0.01884791520145431</v>
       </c>
       <c r="BE172" t="n">
-        <v>-0.0129413415690963</v>
+        <v>-0.01294111424263016</v>
       </c>
       <c r="BF172" t="n">
         <v>0.03264714845379249</v>
@@ -55900,10 +55900,10 @@
         <v>0.9712205963504627</v>
       </c>
       <c r="CI172" t="n">
-        <v>0.03173476242091901</v>
+        <v>0.03173474535587162</v>
       </c>
       <c r="CJ172" t="n">
-        <v>0.968265237579081</v>
+        <v>0.9682652546441284</v>
       </c>
       <c r="CK172" t="n">
         <v>0.0009769880599281714</v>
@@ -55924,10 +55924,10 @@
         <v>0.001608187722544466</v>
       </c>
       <c r="CQ172" t="n">
-        <v>0.001003259879329288</v>
+        <v>0.001003260890453543</v>
       </c>
       <c r="CR172" t="n">
-        <v>0.001958404732537958</v>
+        <v>0.00195840271028945</v>
       </c>
       <c r="CS172" t="n">
         <v>0</v>
@@ -56128,7 +56128,7 @@
         <v>0.1025875981260404</v>
       </c>
       <c r="BE173" t="n">
-        <v>0.05810270686499393</v>
+        <v>0.05810283510671826</v>
       </c>
       <c r="BF173" t="n">
         <v>0.06389238368892529</v>
@@ -56222,10 +56222,10 @@
         <v>0.9921103408556615</v>
       </c>
       <c r="CI173" t="n">
-        <v>0.007936584980744158</v>
+        <v>0.007936581048685873</v>
       </c>
       <c r="CJ173" t="n">
-        <v>0.9920634150192559</v>
+        <v>0.9920634189513141</v>
       </c>
       <c r="CK173" t="n">
         <v>0.001023368672186374</v>
@@ -56240,7 +56240,7 @@
       </c>
       <c r="CP173" t="inlineStr"/>
       <c r="CQ173" t="n">
-        <v>0.0008617356264264202</v>
+        <v>0.0008617360923846344</v>
       </c>
       <c r="CR173" t="inlineStr"/>
       <c r="CS173" t="n">
@@ -56442,7 +56442,7 @@
         <v>-0.4359932067473806</v>
       </c>
       <c r="BE174" t="n">
-        <v>-0.4604949420938761</v>
+        <v>-0.4604948392848836</v>
       </c>
       <c r="BF174" t="n">
         <v>-0.409674369564118</v>
@@ -56536,10 +56536,10 @@
         <v>0.09756401677755155</v>
       </c>
       <c r="CI174" t="n">
-        <v>0.9084270843332254</v>
+        <v>0.9084270728940981</v>
       </c>
       <c r="CJ174" t="n">
-        <v>0.09157291566677461</v>
+        <v>0.09157292710590192</v>
       </c>
       <c r="CK174" t="inlineStr"/>
       <c r="CL174" t="n">
@@ -56555,7 +56555,7 @@
       </c>
       <c r="CQ174" t="inlineStr"/>
       <c r="CR174" t="n">
-        <v>-0.001185952714366236</v>
+        <v>-0.001185953392148067</v>
       </c>
       <c r="CS174" t="n">
         <v>1</v>
@@ -56756,7 +56756,7 @@
         <v>-0.4107069975650057</v>
       </c>
       <c r="BE175" t="n">
-        <v>-0.4243848849434985</v>
+        <v>-0.4243848114168665</v>
       </c>
       <c r="BF175" t="n">
         <v>-0.38891410905261</v>
@@ -56850,10 +56850,10 @@
         <v>0.1158120876047776</v>
       </c>
       <c r="CI175" t="n">
-        <v>0.889701745549802</v>
+        <v>0.8897017349340105</v>
       </c>
       <c r="CJ175" t="n">
-        <v>0.110298254450198</v>
+        <v>0.1102982650659895</v>
       </c>
       <c r="CK175" t="n">
         <v>0.002412461410279072</v>
@@ -56874,10 +56874,10 @@
         <v>-0.0009434403064845828</v>
       </c>
       <c r="CQ175" t="n">
-        <v>0.002295451199516345</v>
+        <v>0.002295451828514553</v>
       </c>
       <c r="CR175" t="n">
-        <v>-0.0002900380259563545</v>
+        <v>-0.0002900392839527716</v>
       </c>
       <c r="CS175" t="n">
         <v>1</v>
@@ -57078,7 +57078,7 @@
         <v>-0.3703603300860852</v>
       </c>
       <c r="BE176" t="n">
-        <v>-0.3691436963299395</v>
+        <v>-0.3691436600689193</v>
       </c>
       <c r="BF176" t="n">
         <v>-0.3582626537008585</v>
@@ -57172,10 +57172,10 @@
         <v>0.1674435140946253</v>
       </c>
       <c r="CI176" t="n">
-        <v>0.835393802790846</v>
+        <v>0.8353937945829083</v>
       </c>
       <c r="CJ176" t="n">
-        <v>0.164606197209154</v>
+        <v>0.1646062054170917</v>
       </c>
       <c r="CK176" t="n">
         <v>0.006693022997132939</v>
@@ -57196,10 +57196,10 @@
         <v>-0.0005682495840185113</v>
       </c>
       <c r="CQ176" t="n">
-        <v>0.006725657794397516</v>
+        <v>0.006725658767057552</v>
       </c>
       <c r="CR176" t="n">
-        <v>-0.000484192392244019</v>
+        <v>-0.0004841926354090297</v>
       </c>
       <c r="CS176" t="n">
         <v>1</v>
@@ -57400,7 +57400,7 @@
         <v>-0.3613901929805009</v>
       </c>
       <c r="BE177" t="n">
-        <v>-0.3576801815093739</v>
+        <v>-0.3576801525839348</v>
       </c>
       <c r="BF177" t="n">
         <v>-0.3518864209882103</v>
@@ -57494,10 +57494,10 @@
         <v>0.1845230032821572</v>
       </c>
       <c r="CI177" t="n">
-        <v>0.817222714513318</v>
+        <v>0.8172227072960087</v>
       </c>
       <c r="CJ177" t="n">
-        <v>0.182777285486682</v>
+        <v>0.1827772927039913</v>
       </c>
       <c r="CK177" t="n">
         <v>0.0009950972032663902</v>
@@ -57518,10 +57518,10 @@
         <v>0.002840645431064777</v>
       </c>
       <c r="CQ177" t="n">
-        <v>0.001022521635592417</v>
+        <v>0.001022521849409479</v>
       </c>
       <c r="CR177" t="n">
-        <v>0.003047517122090612</v>
+        <v>0.003047516266822377</v>
       </c>
       <c r="CS177" t="n">
         <v>0</v>
@@ -57722,7 +57722,7 @@
         <v>-0.3251160630639326</v>
       </c>
       <c r="BE178" t="n">
-        <v>-0.3164042798551663</v>
+        <v>-0.3164042808576595</v>
       </c>
       <c r="BF178" t="n">
         <v>-0.3257550281998111</v>
@@ -57816,10 +57816,10 @@
         <v>0.2770137246174391</v>
       </c>
       <c r="CI178" t="n">
-        <v>0.7189865112986353</v>
+        <v>0.718986511643592</v>
       </c>
       <c r="CJ178" t="n">
-        <v>0.2810134887013647</v>
+        <v>0.281013488356408</v>
       </c>
       <c r="CK178" t="n">
         <v>0.008238469426646744</v>
@@ -57840,10 +57840,10 @@
         <v>5.948948301233957e-05</v>
       </c>
       <c r="CQ178" t="n">
-        <v>0.008593705492270995</v>
+        <v>0.008593705451392819</v>
       </c>
       <c r="CR178" t="n">
-        <v>-5.900589491912925e-05</v>
+        <v>-5.900588469958529e-05</v>
       </c>
       <c r="CS178" t="n">
         <v>0</v>
@@ -58044,7 +58044,7 @@
         <v>-0.3150428316446205</v>
       </c>
       <c r="BE179" t="n">
-        <v>-0.3064418631782755</v>
+        <v>-0.3064418730644515</v>
       </c>
       <c r="BF179" t="n">
         <v>-0.3176746758904423</v>
@@ -58138,10 +58138,10 @@
         <v>0.3072069328544553</v>
       </c>
       <c r="CI179" t="n">
-        <v>0.6872878698401336</v>
+        <v>0.6872878734526494</v>
       </c>
       <c r="CJ179" t="n">
-        <v>0.3127121301598664</v>
+        <v>0.3127121265473506</v>
       </c>
       <c r="CK179" t="n">
         <v>0.0009049870158983064</v>
@@ -58162,10 +58162,10 @@
         <v>4.957654307058412e-05</v>
       </c>
       <c r="CQ179" t="n">
-        <v>0.0009980969064702118</v>
+        <v>0.0009980967994472935</v>
       </c>
       <c r="CR179" t="n">
-        <v>-0.0001135181849194113</v>
+        <v>-0.0001135180778964913</v>
       </c>
       <c r="CS179" t="n">
         <v>1</v>
@@ -58366,7 +58366,7 @@
         <v>-0.3041450524792723</v>
       </c>
       <c r="BE180" t="n">
-        <v>-0.2962695969762945</v>
+        <v>-0.2962696167132677</v>
       </c>
       <c r="BF180" t="n">
         <v>-0.3082101821610122</v>
@@ -58460,10 +58460,10 @@
         <v>0.3406039153132595</v>
       </c>
       <c r="CI180" t="n">
-        <v>0.6525706230134224</v>
+        <v>0.652570630600084</v>
       </c>
       <c r="CJ180" t="n">
-        <v>0.3474293769865776</v>
+        <v>0.347429369399916</v>
       </c>
       <c r="CK180" t="n">
         <v>0.001052353598608606</v>
@@ -58484,10 +58484,10 @@
         <v>0.0002344788599573464</v>
       </c>
       <c r="CQ180" t="n">
-        <v>0.001142037166827408</v>
+        <v>0.001142036942068065</v>
       </c>
       <c r="CR180" t="n">
-        <v>3.227051877368291e-05</v>
+        <v>3.227074353302252e-05</v>
       </c>
       <c r="CS180" t="n">
         <v>0</v>
@@ -58688,7 +58688,7 @@
         <v>-0.2921716490306864</v>
       </c>
       <c r="BE181" t="n">
-        <v>-0.2856795656273929</v>
+        <v>-0.285679596308176</v>
       </c>
       <c r="BF181" t="n">
         <v>-0.2968596151779041</v>
@@ -58782,10 +58782,10 @@
         <v>0.37781640403525</v>
       </c>
       <c r="CI181" t="n">
-        <v>0.6143852638651772</v>
+        <v>0.6143852761458602</v>
       </c>
       <c r="CJ181" t="n">
-        <v>0.3856147361348228</v>
+        <v>0.3856147238541398</v>
       </c>
       <c r="CK181" t="n">
         <v>0.001022008149864747</v>
@@ -58806,10 +58806,10 @@
         <v>0.0004131960497934638</v>
       </c>
       <c r="CQ181" t="n">
-        <v>0.001098993342988693</v>
+        <v>0.001098992979166189</v>
       </c>
       <c r="CR181" t="n">
-        <v>0.0001821658465153073</v>
+        <v>0.0001821662103378089</v>
       </c>
       <c r="CS181" t="n">
         <v>0</v>
@@ -59010,7 +59010,7 @@
         <v>-0.2788459361526192</v>
       </c>
       <c r="BE182" t="n">
-        <v>-0.2744411656132342</v>
+        <v>-0.2744412082407444</v>
       </c>
       <c r="BF182" t="n">
         <v>-0.2830783021401544</v>
@@ -59104,10 +59104,10 @@
         <v>0.4189714272686202</v>
       </c>
       <c r="CI182" t="n">
-        <v>0.5727907687510343</v>
+        <v>0.5727907863195721</v>
       </c>
       <c r="CJ182" t="n">
-        <v>0.4272092312489657</v>
+        <v>0.4272092136804279</v>
       </c>
       <c r="CK182" t="n">
         <v>0.0009963138064323154</v>
@@ -59128,10 +59128,10 @@
         <v>0.001367103833306224</v>
       </c>
       <c r="CQ182" t="n">
-        <v>0.001050095685665314</v>
+        <v>0.001050095165186983</v>
       </c>
       <c r="CR182" t="n">
-        <v>0.001001029106586955</v>
+        <v>0.001001029887304449</v>
       </c>
       <c r="CS182" t="n">
         <v>0</v>
@@ -59332,7 +59332,7 @@
         <v>-0.2556586494842321</v>
       </c>
       <c r="BE183" t="n">
-        <v>-0.2558139174431711</v>
+        <v>-0.2558139789759944</v>
       </c>
       <c r="BF183" t="n">
         <v>-0.2567351257249964</v>
@@ -59426,10 +59426,10 @@
         <v>0.487908655983843</v>
       </c>
       <c r="CI183" t="n">
-        <v>0.5045749761732659</v>
+        <v>0.5045750020477169</v>
       </c>
       <c r="CJ183" t="n">
-        <v>0.4954250238267341</v>
+        <v>0.4954249979522831</v>
       </c>
       <c r="CK183" t="n">
         <v>0.002033272107136067</v>
@@ -59450,10 +59450,10 @@
         <v>-0.0001621475434707134</v>
       </c>
       <c r="CQ183" t="n">
-        <v>0.002030370728299331</v>
+        <v>0.002030369578480445</v>
       </c>
       <c r="CR183" t="n">
-        <v>-0.00027348596612853</v>
+        <v>-0.000273485582855568</v>
       </c>
       <c r="CS183" t="n">
         <v>1</v>
@@ -59654,7 +59654,7 @@
         <v>-0.2469162933697707</v>
       </c>
       <c r="BE184" t="n">
-        <v>-0.2490008571498222</v>
+        <v>-0.2490009247635768</v>
       </c>
       <c r="BF184" t="n">
         <v>-0.2462620059343992</v>
@@ -59748,10 +59748,10 @@
         <v>0.5126878078181091</v>
       </c>
       <c r="CI184" t="n">
-        <v>0.4804611291914752</v>
+        <v>0.4804611576148665</v>
       </c>
       <c r="CJ184" t="n">
-        <v>0.5195388708085248</v>
+        <v>0.5195388423851335</v>
       </c>
       <c r="CK184" t="n">
         <v>0.0006436600086525404</v>
@@ -59772,10 +59772,10 @@
         <v>0.0005582945183769464</v>
       </c>
       <c r="CQ184" t="n">
-        <v>0.0006306794594863165</v>
+        <v>0.0006306790384564241</v>
       </c>
       <c r="CR184" t="n">
-        <v>0.0003553277230241431</v>
+        <v>0.0003553285650839313</v>
       </c>
       <c r="CS184" t="n">
         <v>0</v>
@@ -59976,7 +59976,7 @@
         <v>-0.2276673870893154</v>
       </c>
       <c r="BE185" t="n">
-        <v>-0.2342772445560451</v>
+        <v>-0.2342773227524604</v>
       </c>
       <c r="BF185" t="n">
         <v>-0.2227406928348115</v>
@@ -60070,10 +60070,10 @@
         <v>0.5645376275302632</v>
       </c>
       <c r="CI185" t="n">
-        <v>0.4305691368961909</v>
+        <v>0.4305691693725661</v>
       </c>
       <c r="CJ185" t="n">
-        <v>0.5694308631038091</v>
+        <v>0.5694308306274338</v>
       </c>
       <c r="CK185" t="n">
         <v>0.001204080025129773</v>
@@ -60094,10 +60094,10 @@
         <v>0.0004405441737435102</v>
       </c>
       <c r="CQ185" t="n">
-        <v>0.0011227520733676</v>
+        <v>0.001122751111235765</v>
       </c>
       <c r="CR185" t="n">
-        <v>0.000295579174201345</v>
+        <v>0.000295580136333181</v>
       </c>
       <c r="CS185" t="n">
         <v>0</v>
@@ -60298,7 +60298,7 @@
         <v>-0.205807276218312</v>
       </c>
       <c r="BE186" t="n">
-        <v>-0.2179127253404374</v>
+        <v>-0.2179128101339624</v>
       </c>
       <c r="BF186" t="n">
         <v>-0.1961339712999806</v>
@@ -60392,10 +60392,10 @@
         <v>0.6185885224158827</v>
       </c>
       <c r="CI186" t="n">
-        <v>0.3791438799046393</v>
+        <v>0.3791439141218025</v>
       </c>
       <c r="CJ186" t="n">
-        <v>0.6208561200953606</v>
+        <v>0.6208560858781975</v>
       </c>
       <c r="CK186" t="n">
         <v>0.001372644728677184</v>
@@ -60416,10 +60416,10 @@
         <v>0.0005016418167561494</v>
       </c>
       <c r="CQ186" t="n">
-        <v>0.001227924496159176</v>
+        <v>0.001227923482455468</v>
       </c>
       <c r="CR186" t="n">
-        <v>0.000434462893602626</v>
+        <v>0.0004344639073063303</v>
       </c>
       <c r="CS186" t="n">
         <v>0</v>
@@ -60620,7 +60620,7 @@
         <v>-0.1810644104528603</v>
       </c>
       <c r="BE187" t="n">
-        <v>-0.1997732691489061</v>
+        <v>-0.1997733537832071</v>
       </c>
       <c r="BF187" t="n">
         <v>-0.1673256858122835</v>
@@ -60714,10 +60714,10 @@
         <v>0.6731061646435411</v>
       </c>
       <c r="CI187" t="n">
-        <v>0.327539350746229</v>
+        <v>0.3275393833471925</v>
       </c>
       <c r="CJ187" t="n">
-        <v>0.672460649253771</v>
+        <v>0.6724606166528075</v>
       </c>
       <c r="CK187" t="n">
         <v>0.001307852053178302</v>
@@ -60738,10 +60738,10 @@
         <v>2.281205277650938e-05</v>
       </c>
       <c r="CQ187" t="n">
-        <v>0.001094351820789215</v>
+        <v>0.001094350854966382</v>
       </c>
       <c r="CR187" t="n">
-        <v>3.237394048618593e-05</v>
+        <v>3.237442339760338e-05</v>
       </c>
       <c r="CS187" t="n">
         <v>1</v>
@@ -60942,7 +60942,7 @@
         <v>-0.1675478440833728</v>
       </c>
       <c r="BE188" t="n">
-        <v>-0.1900333245749218</v>
+        <v>-0.1900334057615456</v>
       </c>
       <c r="BF188" t="n">
         <v>-0.1524978248760221</v>
@@ -61036,10 +61036,10 @@
         <v>0.6999826212372731</v>
       </c>
       <c r="CI188" t="n">
-        <v>0.3020686147913915</v>
+        <v>0.3020686451322048</v>
       </c>
       <c r="CJ188" t="n">
-        <v>0.6979313852086085</v>
+        <v>0.6979313548677952</v>
       </c>
       <c r="CK188" t="n">
         <v>0.0004693938184339927</v>
@@ -61060,10 +61060,10 @@
         <v>0.007362445666832487</v>
       </c>
       <c r="CQ188" t="n">
-        <v>0.0003449188722687768</v>
+        <v>0.0003449184228365024</v>
       </c>
       <c r="CR188" t="n">
-        <v>0.007575137451073036</v>
+        <v>0.007575140597098962</v>
       </c>
       <c r="CS188" t="n">
         <v>0</v>
@@ -61264,7 +61264,7 @@
         <v>-0.05163347192968305</v>
       </c>
       <c r="BE189" t="n">
-        <v>-0.1126395497782608</v>
+        <v>-0.1126395400736617</v>
       </c>
       <c r="BF189" t="n">
         <v>-0.05713552642676062</v>
@@ -61358,10 +61358,10 @@
         <v>0.8595940958201447</v>
       </c>
       <c r="CI189" t="n">
-        <v>0.1466741963146631</v>
+        <v>0.1466741937507718</v>
       </c>
       <c r="CJ189" t="n">
-        <v>0.8533258036853368</v>
+        <v>0.8533258062492282</v>
       </c>
       <c r="CK189" t="n">
         <v>0.01020884996201403</v>
@@ -61376,7 +61376,7 @@
       </c>
       <c r="CP189" t="inlineStr"/>
       <c r="CQ189" t="n">
-        <v>0.008537643167525625</v>
+        <v>0.008537643433374415</v>
       </c>
       <c r="CR189" t="inlineStr"/>
       <c r="CS189" t="n">
